--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Kinematik" sheetId="1" r:id="rId1"/>
     <sheet name="Theorie" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -904,18 +903,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="14">
@@ -1144,7 +1137,6 @@
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1170,6 +1162,7 @@
     <xf numFmtId="175" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -18621,8 +18614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19095,17 +19088,17 @@
         <f>E28*COS(H28)</f>
         <v>1.83772268236293E-14</v>
       </c>
-      <c r="R28" s="78">
+      <c r="R28" s="77">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="S28" s="79">
+      <c r="S28" s="78">
         <v>1</v>
       </c>
-      <c r="T28" s="79">
+      <c r="T28" s="78">
         <v>0</v>
       </c>
-      <c r="U28" s="80">
+      <c r="U28" s="79">
         <v>1.83772268236293E-14</v>
       </c>
       <c r="V28" s="22">
@@ -19138,16 +19131,16 @@
         <f>E28*SIN(H28)</f>
         <v>-300</v>
       </c>
-      <c r="R29" s="78">
+      <c r="R29" s="77">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="S29" s="79">
+      <c r="S29" s="78">
         <v>3.7524718414124473E-33</v>
       </c>
-      <c r="T29" s="79">
+      <c r="T29" s="78">
         <v>1</v>
       </c>
-      <c r="U29" s="80">
+      <c r="U29" s="79">
         <v>-1.83772268236293E-14</v>
       </c>
       <c r="V29" s="22">
@@ -19179,16 +19172,16 @@
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="78">
+      <c r="R30" s="77">
         <v>1</v>
       </c>
-      <c r="S30" s="79">
+      <c r="S30" s="78">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="T30" s="79">
+      <c r="T30" s="78">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="80">
+      <c r="U30" s="79">
         <v>600</v>
       </c>
       <c r="V30" s="22">
@@ -19217,16 +19210,16 @@
       <c r="Q31" s="14">
         <v>1</v>
       </c>
-      <c r="R31" s="78">
+      <c r="R31" s="77">
         <v>0</v>
       </c>
-      <c r="S31" s="79">
+      <c r="S31" s="78">
         <v>0</v>
       </c>
-      <c r="T31" s="79">
+      <c r="T31" s="78">
         <v>0</v>
       </c>
-      <c r="U31" s="80">
+      <c r="U31" s="79">
         <v>1</v>
       </c>
       <c r="V31" s="22">
@@ -19279,17 +19272,17 @@
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="81">
+      <c r="R33" s="80">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="S33" s="82">
+      <c r="S33" s="81">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="T33" s="82">
+      <c r="T33" s="81">
         <v>1</v>
       </c>
-      <c r="U33" s="83">
+      <c r="U33" s="82">
         <v>1.83772268236293E-14</v>
       </c>
       <c r="V33" s="22">
@@ -19322,16 +19315,16 @@
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="81">
+      <c r="R34" s="80">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="S34" s="82">
+      <c r="S34" s="81">
         <v>-1</v>
       </c>
-      <c r="T34" s="82">
+      <c r="T34" s="81">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U34" s="83">
+      <c r="U34" s="82">
         <v>-1.83772268236293E-14</v>
       </c>
       <c r="V34" s="22">
@@ -19363,16 +19356,16 @@
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="R35" s="81">
+      <c r="R35" s="80">
         <v>1</v>
       </c>
-      <c r="S35" s="82">
+      <c r="S35" s="81">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="T35" s="82">
+      <c r="T35" s="81">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="U35" s="83">
+      <c r="U35" s="82">
         <v>600</v>
       </c>
       <c r="V35" s="22">
@@ -19401,16 +19394,16 @@
       <c r="Q36" s="14">
         <v>1</v>
       </c>
-      <c r="R36" s="81">
+      <c r="R36" s="80">
         <v>0</v>
       </c>
-      <c r="S36" s="82">
+      <c r="S36" s="81">
         <v>0</v>
       </c>
-      <c r="T36" s="82">
+      <c r="T36" s="81">
         <v>0</v>
       </c>
-      <c r="U36" s="83">
+      <c r="U36" s="82">
         <v>1</v>
       </c>
       <c r="V36" s="22">
@@ -19828,17 +19821,17 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="81">
+      <c r="R48" s="80">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
         <v>-1.7441774902830092E-2</v>
       </c>
-      <c r="S48" s="82">
+      <c r="S48" s="81">
         <v>6.090802009087417E-4</v>
       </c>
-      <c r="T48" s="82">
+      <c r="T48" s="81">
         <v>0.99984769515639127</v>
       </c>
-      <c r="U48" s="83">
+      <c r="U48" s="82">
         <v>249.99238475781959</v>
       </c>
       <c r="V48" s="22">
@@ -19871,16 +19864,16 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="81">
+      <c r="R49" s="80">
         <v>-3.4899496702501032E-2</v>
       </c>
-      <c r="S49" s="82">
+      <c r="S49" s="81">
         <v>-0.99939082701909576</v>
       </c>
-      <c r="T49" s="82">
+      <c r="T49" s="81">
         <v>6.0188333306377243E-17</v>
       </c>
-      <c r="U49" s="83">
+      <c r="U49" s="82">
         <v>-3.116325609224238E-15</v>
       </c>
       <c r="V49" s="22">
@@ -19912,16 +19905,16 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="81">
+      <c r="R50" s="80">
         <v>0.99923861495548261</v>
       </c>
-      <c r="S50" s="82">
+      <c r="S50" s="81">
         <v>-3.4894181340113732E-2</v>
       </c>
-      <c r="T50" s="82">
+      <c r="T50" s="81">
         <v>1.7452406437283449E-2</v>
       </c>
-      <c r="U50" s="83">
+      <c r="U50" s="82">
         <v>600.87262032186413</v>
       </c>
       <c r="V50" s="22">
@@ -19950,16 +19943,16 @@
       <c r="Q51" s="14">
         <v>1</v>
       </c>
-      <c r="R51" s="81">
+      <c r="R51" s="80">
         <v>0</v>
       </c>
-      <c r="S51" s="82">
+      <c r="S51" s="81">
         <v>0</v>
       </c>
-      <c r="T51" s="82">
+      <c r="T51" s="81">
         <v>0</v>
       </c>
-      <c r="U51" s="83">
+      <c r="U51" s="82">
         <v>1</v>
       </c>
       <c r="V51" s="22">
@@ -20591,15 +20584,15 @@
       <c r="L125" s="66">
         <v>1.7452406437283512E-2</v>
       </c>
-      <c r="M125" s="67">
+      <c r="M125" s="92">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
         <v>0.99923861495548261</v>
       </c>
-      <c r="N125" s="67">
+      <c r="N125" s="92">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
         <v>-3.489418134011367E-2</v>
       </c>
-      <c r="O125" s="67">
+      <c r="O125" s="92">
         <f>-COS(C18)*SIN(C19)</f>
         <v>1.7452406437283512E-2</v>
       </c>
@@ -20619,15 +20612,15 @@
       <c r="L126" s="66">
         <v>-9.3298021911154303E-21</v>
       </c>
-      <c r="M126" s="67">
+      <c r="M126" s="92">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
         <v>3.4899496702500969E-2</v>
       </c>
-      <c r="N126" s="67">
+      <c r="N126" s="92">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
         <v>0.99939082701909576</v>
       </c>
-      <c r="O126" s="67">
+      <c r="O126" s="92">
         <f>-SIN(C18)*SIN(C19)</f>
         <v>0</v>
       </c>
@@ -20642,140 +20635,140 @@
       <c r="L127" s="66">
         <v>0.99984769515639127</v>
       </c>
-      <c r="M127" s="67">
+      <c r="M127" s="92">
         <f>SIN(C19)*COS(C20)</f>
         <v>-1.7441774902830158E-2</v>
       </c>
-      <c r="N127" s="67">
+      <c r="N127" s="92">
         <f>-SIN(C19)*SIN(C20)</f>
         <v>6.0908020090868261E-4</v>
       </c>
-      <c r="O127" s="67">
+      <c r="O127" s="92">
         <f>COS(C19)</f>
         <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B130" s="69">
+      <c r="B130" s="68">
         <f t="array" ref="B130:D132">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C130" s="70">
+      <c r="C130" s="69">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="D130" s="71">
+      <c r="D130" s="70">
         <v>1</v>
       </c>
-      <c r="H130" s="69">
+      <c r="H130" s="68">
         <f t="array" ref="H130:J132">TRANSPOSE(B130:D132)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="I130" s="70">
+      <c r="I130" s="69">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="J130" s="71">
+      <c r="J130" s="70">
         <v>1</v>
       </c>
-      <c r="M130" s="84">
+      <c r="M130" s="83">
         <f t="array" ref="M130:O132">R48:T50</f>
         <v>-1.7441774902830092E-2</v>
       </c>
-      <c r="N130" s="85">
+      <c r="N130" s="84">
         <v>6.090802009087417E-4</v>
       </c>
-      <c r="O130" s="86">
+      <c r="O130" s="85">
         <v>0.99984769515639127</v>
       </c>
-      <c r="S130" s="84">
+      <c r="S130" s="83">
         <f t="array" ref="S130:U132">MMULT(H130:J132,M130:O132)</f>
         <v>0.99923861495548261</v>
       </c>
-      <c r="T130" s="85">
+      <c r="T130" s="84">
         <v>-3.489418134011367E-2</v>
       </c>
-      <c r="U130" s="86">
+      <c r="U130" s="85">
         <v>1.7452406437283512E-2</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B131" s="72">
+      <c r="B131" s="71">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="C131" s="73">
+      <c r="C131" s="72">
         <v>-1</v>
       </c>
-      <c r="D131" s="74">
+      <c r="D131" s="73">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="H131" s="72">
+      <c r="H131" s="71">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="I131" s="73">
+      <c r="I131" s="72">
         <v>-1</v>
       </c>
-      <c r="J131" s="74">
+      <c r="J131" s="73">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="M131" s="87">
+      <c r="M131" s="86">
         <v>-3.4899496702501032E-2</v>
       </c>
-      <c r="N131" s="88">
+      <c r="N131" s="87">
         <v>-0.99939082701909576</v>
       </c>
-      <c r="O131" s="89">
+      <c r="O131" s="88">
         <v>6.0188333306377243E-17</v>
       </c>
-      <c r="S131" s="87">
+      <c r="S131" s="86">
         <v>3.4899496702500969E-2</v>
       </c>
-      <c r="T131" s="88">
+      <c r="T131" s="87">
         <v>0.99939082701909576</v>
       </c>
-      <c r="U131" s="89">
+      <c r="U131" s="88">
         <v>-9.3298021911119636E-21</v>
       </c>
     </row>
     <row r="132" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="75">
+      <c r="B132" s="74">
         <v>1</v>
       </c>
-      <c r="C132" s="76">
+      <c r="C132" s="75">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="D132" s="77">
+      <c r="D132" s="76">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="H132" s="75">
+      <c r="H132" s="74">
         <v>1</v>
       </c>
-      <c r="I132" s="76">
+      <c r="I132" s="75">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="J132" s="77">
+      <c r="J132" s="76">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="M132" s="90">
+      <c r="M132" s="89">
         <v>0.99923861495548261</v>
       </c>
-      <c r="N132" s="91">
+      <c r="N132" s="90">
         <v>-3.4894181340113732E-2</v>
       </c>
-      <c r="O132" s="92">
+      <c r="O132" s="91">
         <v>1.7452406437283449E-2</v>
       </c>
-      <c r="S132" s="90">
+      <c r="S132" s="89">
         <v>-1.7441774902830158E-2</v>
       </c>
-      <c r="T132" s="91">
+      <c r="T132" s="90">
         <v>6.0908020090868261E-4</v>
       </c>
-      <c r="U132" s="92">
+      <c r="U132" s="91">
         <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="134" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F134" s="68">
+      <c r="F134" s="67">
         <f>U132</f>
         <v>0.99984769515639127</v>
       </c>
@@ -20837,18 +20830,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="295"/>
@@ -10,7 +10,7 @@
     <sheet name="Kinematik" sheetId="1" r:id="rId1"/>
     <sheet name="Theorie" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -789,7 +789,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="12">
+  <numFmts count="13">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -802,6 +802,7 @@
     <numFmt numFmtId="172" formatCode="0.000000"/>
     <numFmt numFmtId="173" formatCode="0.00000"/>
     <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1065,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1152,9 +1153,6 @@
     <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1182,6 +1180,13 @@
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1301,7 +1306,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.6599230126254167</c:v>
+                  <c:v>3.6599230126254163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,11 +1321,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204422112"/>
-        <c:axId val="204421328"/>
+        <c:axId val="158755456"/>
+        <c:axId val="158762880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204422112"/>
+        <c:axId val="158755456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1358,13 +1363,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204421328"/>
+        <c:crossAx val="158762880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204421328"/>
+        <c:axId val="158762880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1403,7 +1408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204422112"/>
+        <c:crossAx val="158755456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1499,11 +1504,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204423288"/>
-        <c:axId val="204416624"/>
+        <c:axId val="174155648"/>
+        <c:axId val="174157184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204423288"/>
+        <c:axId val="174155648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1515,13 +1520,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204416624"/>
+        <c:crossAx val="174157184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204416624"/>
+        <c:axId val="174157184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1534,7 +1539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204423288"/>
+        <c:crossAx val="174155648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1617,8 +1622,8 @@
       <xdr:rowOff>174811</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="736292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -1665,7 +1670,7 @@
                       <m:sSubSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubSupPr>
@@ -1704,7 +1709,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -1721,7 +1726,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -1731,7 +1736,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -1761,7 +1766,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -1801,7 +1806,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1833,7 +1838,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1898,7 +1903,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1930,7 +1935,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1977,7 +1982,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2025,7 +2030,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -2110,7 +2115,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -2178,7 +2183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="Textfeld 9"/>
@@ -2726,7 +2731,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -2743,7 +2748,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -2773,7 +2778,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -2938,7 +2943,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3007,7 +3012,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3030,7 +3035,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3042,7 +3047,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -3072,7 +3077,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -3128,7 +3133,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3160,7 +3165,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3217,7 +3222,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3249,7 +3254,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3310,7 +3315,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3358,7 +3363,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3435,7 +3440,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -3822,8 +3827,8 @@
       <xdr:rowOff>7043</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="724622"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="Textfeld 12"/>
@@ -3874,7 +3879,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3939,7 +3944,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -3956,7 +3961,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -3966,7 +3971,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -3996,7 +4001,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -4036,7 +4041,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4068,7 +4073,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4119,7 +4124,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -4150,7 +4155,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -4174,7 +4179,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4223,7 +4228,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4255,7 +4260,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4302,7 +4307,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4350,7 +4355,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4405,7 +4410,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4460,7 +4465,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4492,7 +4497,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4610,7 +4615,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="Textfeld 12"/>
@@ -5289,8 +5294,8 @@
       <xdr:rowOff>134470</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="736292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="Textfeld 14"/>
@@ -5341,7 +5346,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5406,7 +5411,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -5423,7 +5428,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -5433,7 +5438,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -5463,7 +5468,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -5511,7 +5516,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5543,7 +5548,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5600,7 +5605,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5632,7 +5637,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5687,7 +5692,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5735,7 +5740,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5861,7 +5866,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="Textfeld 14"/>
@@ -6384,8 +6389,8 @@
       <xdr:rowOff>5122</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="737959"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Textfeld 15"/>
@@ -6436,7 +6441,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6505,7 +6510,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6528,7 +6533,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6540,7 +6545,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -6570,7 +6575,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -6614,7 +6619,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6646,7 +6651,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6703,7 +6708,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6735,7 +6740,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6796,7 +6801,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6856,7 +6861,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6933,7 +6938,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -7001,7 +7006,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="Textfeld 15"/>
@@ -7562,8 +7567,8 @@
       <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="737959"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -7614,7 +7619,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7683,7 +7688,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7706,7 +7711,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7718,7 +7723,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -7748,7 +7753,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -7793,7 +7798,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -7837,7 +7842,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -7894,7 +7899,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -7926,7 +7931,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -7987,7 +7992,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8035,7 +8040,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -8161,7 +8166,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="Textfeld 16"/>
@@ -8771,7 +8776,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8786,7 +8791,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -8801,7 +8806,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -9016,7 +9021,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9080,7 +9085,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9135,7 +9140,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9361,7 +9366,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9377,7 +9382,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9392,7 +9397,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9407,7 +9412,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9466,7 +9471,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9481,7 +9486,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9725,7 +9730,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9756,7 +9761,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9787,7 +9792,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9818,7 +9823,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:funcPr>
@@ -10004,7 +10009,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:funcPr>
@@ -10013,7 +10018,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSupPr>
@@ -10043,7 +10048,7 @@
                           <m:dPr>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:dPr>
@@ -10052,7 +10057,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -10065,7 +10070,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10120,7 +10125,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10175,7 +10180,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10428,7 +10433,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -10454,7 +10459,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10470,7 +10475,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10485,7 +10490,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10500,7 +10505,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:latin typeface="Cambria Math"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -10559,7 +10564,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:latin typeface="Cambria Math"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10574,7 +10579,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:latin typeface="Cambria Math"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -10849,7 +10854,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10904,7 +10909,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -11108,7 +11113,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11384,7 +11389,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11415,7 +11420,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11446,7 +11451,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11477,7 +11482,7 @@
                     <m:funcPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:funcPr>
@@ -11544,7 +11549,7 @@
                       <m:vertJc m:val="bot"/>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:groupChrPr>
@@ -11588,7 +11593,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -11603,7 +11608,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -11651,7 +11656,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -11666,7 +11671,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -11681,7 +11686,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11736,7 +11741,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11791,7 +11796,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -12042,7 +12047,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12327,7 +12332,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12588,7 +12593,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12959,7 +12964,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13028,7 +13033,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13051,7 +13056,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -13063,7 +13068,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -13093,7 +13098,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -13120,7 +13125,7 @@
                                     <m:funcPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:funcPr>
@@ -13144,7 +13149,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13189,7 +13194,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13221,7 +13226,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13280,7 +13285,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13312,7 +13317,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13355,7 +13360,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13387,7 +13392,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13448,7 +13453,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13496,7 +13501,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13539,7 +13544,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13571,7 +13576,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13616,7 +13621,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13648,7 +13653,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13707,7 +13712,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13739,7 +13744,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13784,7 +13789,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13832,7 +13837,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13879,7 +13884,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13894,7 +13899,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13954,7 +13959,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14016,7 +14021,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14065,7 +14070,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14097,7 +14102,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14140,7 +14145,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14188,7 +14193,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14233,7 +14238,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14281,7 +14286,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14340,7 +14345,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14388,7 +14393,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14433,7 +14438,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14465,7 +14470,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14524,7 +14529,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14556,7 +14561,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14601,7 +14606,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14649,7 +14654,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14694,7 +14699,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14726,7 +14731,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14783,7 +14788,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14831,7 +14836,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14874,7 +14879,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14906,7 +14911,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14955,7 +14960,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14984,7 +14989,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15016,7 +15021,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -15061,7 +15066,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15093,7 +15098,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                              <a:latin typeface="Cambria Math"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -15144,7 +15149,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15176,7 +15181,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15221,7 +15226,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15269,7 +15274,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15328,7 +15333,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15360,7 +15365,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15405,7 +15410,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15437,7 +15442,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15484,7 +15489,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:latin typeface="Cambria Math"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15532,7 +15537,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:latin typeface="Cambria Math"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -17321,7 +17326,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17507,7 +17512,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17522,7 +17527,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17537,7 +17542,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -17624,7 +17629,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17639,7 +17644,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17654,7 +17659,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -17894,7 +17899,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17909,7 +17914,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17980,7 +17985,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17995,7 +18000,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18010,7 +18015,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -18085,7 +18090,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18320,8 +18325,8 @@
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1325880" cy="311752"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="Textfeld 32"/>
@@ -18367,7 +18372,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18415,7 +18420,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18463,7 +18468,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -18477,7 +18482,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18492,7 +18497,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -18579,7 +18584,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="Textfeld 32"/>
@@ -18756,8 +18761,8 @@
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="Textfeld 34"/>
@@ -18808,7 +18813,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -18858,7 +18863,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="Textfeld 34"/>
@@ -18989,7 +18994,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19175,7 +19180,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19190,7 +19195,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -19261,7 +19266,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19276,7 +19281,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:latin typeface="Cambria Math"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -19291,7 +19296,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="Cambria Math"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -19366,7 +19371,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="Cambria Math"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19668,8 +19673,8 @@
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="Textfeld 37"/>
@@ -19718,7 +19723,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -19732,7 +19737,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19748,7 +19753,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19764,7 +19769,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19777,7 +19782,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19791,7 +19796,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19809,7 +19814,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19825,7 +19830,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19841,7 +19846,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19854,7 +19859,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19868,7 +19873,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19900,7 +19905,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19915,7 +19920,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19930,7 +19935,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19943,7 +19948,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19957,7 +19962,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -19971,7 +19976,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20004,7 +20009,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20039,7 +20044,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="Textfeld 37"/>
@@ -20281,8 +20286,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="Textfeld 38"/>
@@ -20333,7 +20338,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20383,7 +20388,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="Textfeld 38"/>
@@ -20467,8 +20472,8 @@
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="Textfeld 40"/>
@@ -20519,7 +20524,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20535,7 +20540,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20551,7 +20556,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20564,7 +20569,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20578,7 +20583,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20596,7 +20601,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20613,7 +20618,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20628,7 +20633,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20644,7 +20649,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20657,7 +20662,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20671,7 +20676,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20703,7 +20708,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20718,7 +20723,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20733,7 +20738,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20746,7 +20751,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20760,7 +20765,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20774,7 +20779,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20807,7 +20812,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20842,7 +20847,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="Textfeld 40"/>
@@ -21072,8 +21077,8 @@
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="Textfeld 43"/>
@@ -21124,7 +21129,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21137,7 +21142,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21153,7 +21158,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21169,7 +21174,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21185,7 +21190,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21198,7 +21203,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21212,7 +21217,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21230,7 +21235,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21246,7 +21251,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21262,7 +21267,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21275,7 +21280,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21289,7 +21294,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21323,7 +21328,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21338,7 +21343,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21353,7 +21358,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21366,7 +21371,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21380,7 +21385,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21394,7 +21399,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21450,7 +21455,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="Textfeld 43"/>
@@ -21692,8 +21697,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="Textfeld 44"/>
@@ -21744,7 +21749,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21794,7 +21799,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="Textfeld 44"/>
@@ -21878,8 +21883,8 @@
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="Textfeld 46"/>
@@ -21930,7 +21935,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21945,7 +21950,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21958,7 +21963,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21974,7 +21979,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21989,7 +21994,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22005,7 +22010,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22018,7 +22023,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22032,7 +22037,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22051,7 +22056,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -22067,7 +22072,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22080,7 +22085,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22094,7 +22099,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22126,7 +22131,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -22141,7 +22146,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22156,7 +22161,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22169,7 +22174,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22183,7 +22188,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22197,7 +22202,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22253,7 +22258,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="Textfeld 46"/>
@@ -22716,9 +22721,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -22756,9 +22761,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -22793,7 +22798,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -22828,7 +22833,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23004,8 +23009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M136" sqref="M136:O137"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W48" sqref="W48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23051,7 +23056,7 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="62">
         <f>B78</f>
-        <v>3.6599230126254167</v>
+        <v>3.6599230126254163</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23065,33 +23070,33 @@
       <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="91">
         <f>V48</f>
-        <v>205.37829570258026</v>
-      </c>
-      <c r="H8" s="95">
+        <v>258.90535686381031</v>
+      </c>
+      <c r="H8" s="92">
         <f>X48</f>
-        <v>-4.0623423898791557</v>
+        <v>-135.27193949360864</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G9" s="96">
+      <c r="G9" s="93">
         <f>V49</f>
-        <v>-0.7073448009128227</v>
-      </c>
-      <c r="H9" s="97">
+        <v>4.8232399836198763</v>
+      </c>
+      <c r="H9" s="94">
         <f>X49</f>
-        <v>5.7541557144168731</v>
+        <v>-75.870129985169925</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="98">
+      <c r="G10" s="95">
         <f>V50</f>
-        <v>632.00917293639304</v>
-      </c>
-      <c r="H10" s="99">
+        <v>573.71426562868226</v>
+      </c>
+      <c r="H10" s="96">
         <f>X50</f>
-        <v>-169.85790590013104</v>
+        <v>-44.254436039178749</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -23206,19 +23211,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" si="0"/>
-        <v>8.7266462599716474E-2</v>
-      </c>
-      <c r="F18" s="100">
+        <v>6.9813170079773182E-2</v>
+      </c>
+      <c r="F18" s="97">
         <f>O136</f>
-        <v>-175</v>
+        <v>3.9999999999999987</v>
       </c>
       <c r="G18" s="31">
         <f>O137</f>
-        <v>4.9999999999999956</v>
+        <v>-176</v>
       </c>
       <c r="H18" s="23"/>
       <c r="V18">
@@ -23230,19 +23235,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="33">
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="C19" s="24">
         <f t="shared" si="0"/>
-        <v>-1.7453292519943295</v>
-      </c>
-      <c r="F19" s="101">
+        <v>8.7266462599716474E-2</v>
+      </c>
+      <c r="F19" s="98">
         <f>H136</f>
-        <v>100</v>
+        <v>4.9999999999999947</v>
       </c>
       <c r="G19" s="33">
         <f>H137</f>
-        <v>-100</v>
+        <v>-4.9999999999999947</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -23253,19 +23258,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="35">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="0"/>
-        <v>0.17453292519943295</v>
-      </c>
-      <c r="F20" s="102">
+        <v>0.10471975511965978</v>
+      </c>
+      <c r="F20" s="99">
         <f>K136</f>
-        <v>-170</v>
+        <v>6</v>
       </c>
       <c r="G20" s="35">
         <f>K137</f>
-        <v>9.9999999999999964</v>
+        <v>-174</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -23334,19 +23339,19 @@
         <f>RADIANS(G23)</f>
         <v>1.7453292519943295E-2</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N23" s="105">
         <f>COS(H23)</f>
         <v>0.99984769515639127</v>
       </c>
-      <c r="O23" s="12">
+      <c r="O23" s="83">
         <f>-SIN(H23)*COS(D23)</f>
         <v>-1.0690894390537575E-18</v>
       </c>
-      <c r="P23" s="12">
+      <c r="P23" s="83">
         <f>SIN(H23)*SIN(D23)</f>
         <v>-1.7452406437283512E-2</v>
       </c>
-      <c r="Q23" s="13">
+      <c r="Q23" s="106">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
@@ -23377,19 +23382,19 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="11">
+      <c r="N24" s="105">
         <f>SIN(H23)</f>
         <v>1.7452406437283512E-2</v>
       </c>
-      <c r="O24" s="12">
+      <c r="O24" s="83">
         <f>COS(H23)*COS(D23)</f>
         <v>6.1248092943239885E-17</v>
       </c>
-      <c r="P24" s="12">
+      <c r="P24" s="83">
         <f>-COS(H23)*SIN(D23)</f>
         <v>0.99984769515639127</v>
       </c>
-      <c r="Q24" s="13">
+      <c r="Q24" s="106">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
@@ -23419,18 +23424,18 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N25" s="11">
+      <c r="N25" s="105">
         <v>0</v>
       </c>
-      <c r="O25" s="12">
+      <c r="O25" s="83">
         <f>SIN(D23)</f>
         <v>-1</v>
       </c>
-      <c r="P25" s="12">
+      <c r="P25" s="83">
         <f>COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="Q25" s="106">
         <f>F23</f>
         <v>300</v>
       </c>
@@ -23460,16 +23465,16 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N26" s="11">
+      <c r="N26" s="105">
         <v>0</v>
       </c>
-      <c r="O26" s="12">
+      <c r="O26" s="83">
         <v>0</v>
       </c>
-      <c r="P26" s="12">
+      <c r="P26" s="83">
         <v>0</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="Q26" s="106">
         <v>1</v>
       </c>
       <c r="R26" s="14">
@@ -23518,33 +23523,33 @@
         <f>RADIANS(G28)</f>
         <v>-1.5358897417550099</v>
       </c>
-      <c r="N28" s="11">
+      <c r="N28" s="103">
         <f>COS(H28)</f>
         <v>3.489949670250108E-2</v>
       </c>
-      <c r="O28" s="12">
+      <c r="O28" s="71">
         <f>-SIN(H28)*COS(D28)</f>
         <v>0.99939082701909576</v>
       </c>
-      <c r="P28" s="12">
+      <c r="P28" s="71">
         <f>SIN(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="13">
+      <c r="Q28" s="104">
         <f>E28*COS(H28)</f>
         <v>10.469849010750323</v>
       </c>
-      <c r="R28" s="76">
+      <c r="R28" s="107">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
         <v>3.4894181340113781E-2</v>
       </c>
-      <c r="S28" s="77">
+      <c r="S28" s="108">
         <v>0.99923861495548261</v>
       </c>
-      <c r="T28" s="77">
+      <c r="T28" s="108">
         <v>-1.7452406437283512E-2</v>
       </c>
-      <c r="U28" s="78">
+      <c r="U28" s="109">
         <v>10.468254402034134</v>
       </c>
       <c r="V28" s="21">
@@ -23561,32 +23566,32 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N29" s="11">
+      <c r="N29" s="103">
         <f>SIN(H28)</f>
         <v>-0.99939082701909576</v>
       </c>
-      <c r="O29" s="12">
+      <c r="O29" s="71">
         <f>COS(H28)*COS(D28)</f>
         <v>3.489949670250108E-2</v>
       </c>
-      <c r="P29" s="12">
+      <c r="P29" s="71">
         <f>-COS(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="13">
+      <c r="Q29" s="104">
         <f>E28*SIN(H28)</f>
         <v>-299.81724810572871</v>
       </c>
-      <c r="R29" s="76">
+      <c r="R29" s="107">
         <v>6.090802009086233E-4</v>
       </c>
-      <c r="S29" s="77">
+      <c r="S29" s="108">
         <v>1.7441774902830161E-2</v>
       </c>
-      <c r="T29" s="77">
+      <c r="T29" s="108">
         <v>0.99984769515639127</v>
       </c>
-      <c r="U29" s="78">
+      <c r="U29" s="109">
         <v>0.18272406027258697</v>
       </c>
       <c r="V29" s="21">
@@ -23603,31 +23608,31 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N30" s="11">
+      <c r="N30" s="103">
         <v>0</v>
       </c>
-      <c r="O30" s="12">
+      <c r="O30" s="71">
         <f>SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="12">
+      <c r="P30" s="71">
         <f>COS(D28)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="13">
+      <c r="Q30" s="104">
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="76">
+      <c r="R30" s="107">
         <v>0.99939082701909576</v>
       </c>
-      <c r="S30" s="77">
+      <c r="S30" s="108">
         <v>-3.489949670250108E-2</v>
       </c>
-      <c r="T30" s="77">
+      <c r="T30" s="108">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="78">
+      <c r="U30" s="109">
         <v>599.81724810572871</v>
       </c>
       <c r="V30" s="21">
@@ -23644,28 +23649,28 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N31" s="11">
+      <c r="N31" s="103">
         <v>0</v>
       </c>
-      <c r="O31" s="12">
+      <c r="O31" s="71">
         <v>0</v>
       </c>
-      <c r="P31" s="12">
+      <c r="P31" s="71">
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="104">
         <v>1</v>
       </c>
-      <c r="R31" s="76">
+      <c r="R31" s="107">
         <v>0</v>
       </c>
-      <c r="S31" s="77">
+      <c r="S31" s="108">
         <v>0</v>
       </c>
-      <c r="T31" s="77">
+      <c r="T31" s="108">
         <v>0</v>
       </c>
-      <c r="U31" s="78">
+      <c r="U31" s="109">
         <v>1</v>
       </c>
       <c r="V31" s="21">
@@ -23718,17 +23723,17 @@
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="79">
+      <c r="R33" s="76">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
         <v>8.7142468505889498E-2</v>
       </c>
-      <c r="S33" s="80">
+      <c r="S33" s="77">
         <v>1.7452406437283574E-2</v>
       </c>
-      <c r="T33" s="80">
+      <c r="T33" s="77">
         <v>0.99604297281404874</v>
       </c>
-      <c r="U33" s="81">
+      <c r="U33" s="78">
         <v>10.468254402034134</v>
       </c>
       <c r="V33" s="21">
@@ -23761,16 +23766,16 @@
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="79">
+      <c r="R34" s="76">
         <v>1.5210774457753962E-3</v>
       </c>
-      <c r="S34" s="80">
+      <c r="S34" s="77">
         <v>-0.99984769515639127</v>
       </c>
-      <c r="T34" s="80">
+      <c r="T34" s="77">
         <v>1.738599476176415E-2</v>
       </c>
-      <c r="U34" s="81">
+      <c r="U34" s="78">
         <v>0.18272406027258697</v>
       </c>
       <c r="V34" s="21">
@@ -23802,16 +23807,16 @@
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="R35" s="79">
+      <c r="R35" s="76">
         <v>0.99619469809174555</v>
       </c>
-      <c r="S35" s="80">
+      <c r="S35" s="77">
         <v>-6.6596358923616331E-17</v>
       </c>
-      <c r="T35" s="80">
+      <c r="T35" s="77">
         <v>-8.7155742747658277E-2</v>
       </c>
-      <c r="U35" s="81">
+      <c r="U35" s="78">
         <v>599.81724810572871</v>
       </c>
       <c r="V35" s="21">
@@ -23840,16 +23845,16 @@
       <c r="Q36" s="13">
         <v>1</v>
       </c>
-      <c r="R36" s="79">
+      <c r="R36" s="76">
         <v>0</v>
       </c>
-      <c r="S36" s="80">
+      <c r="S36" s="77">
         <v>0</v>
       </c>
-      <c r="T36" s="80">
+      <c r="T36" s="77">
         <v>0</v>
       </c>
-      <c r="U36" s="81">
+      <c r="U36" s="78">
         <v>1</v>
       </c>
       <c r="V36" s="21">
@@ -23881,23 +23886,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>8.7266462599716474E-2</v>
+        <v>6.9813170079773182E-2</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>0.99619469809174555</v>
+        <v>0.9975640502598242</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-5.3389361781853285E-18</v>
+        <v>-4.273101801374442E-18</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>8.7155742747658166E-2</v>
+        <v>6.9756473744125302E-2</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -23905,13 +23910,13 @@
       </c>
       <c r="R38" s="14">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>8.8331942549969483E-2</v>
+        <v>8.8147612163788469E-2</v>
       </c>
       <c r="S38" s="15">
         <v>0.99604297281404874</v>
       </c>
       <c r="T38" s="15">
-        <v>-9.7910281942688773E-3</v>
+        <v>-1.1331141936027824E-2</v>
       </c>
       <c r="U38" s="16">
         <v>209.67684896484388</v>
@@ -23922,38 +23927,38 @@
       </c>
       <c r="W38" s="24">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-0.78730443902404224</v>
+        <v>-0.89769158095818069</v>
       </c>
       <c r="X38" s="7">
         <f>DEGREES(W38)</f>
-        <v>-45.10922154799249</v>
+        <v>-51.433938893330208</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>8.7155742747658166E-2</v>
+        <v>6.9756473744125302E-2</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1024319757763067E-17</v>
+        <v>6.1108202742410423E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-0.99619469809174555</v>
+        <v>-0.9975640502598242</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <v>-8.5627179219021007E-2</v>
+        <v>-6.8228477317734432E-2</v>
       </c>
       <c r="S39" s="15">
         <v>1.7385994761764088E-2</v>
       </c>
       <c r="T39" s="15">
-        <v>0.99617554344861214</v>
+        <v>0.9975182214220687</v>
       </c>
       <c r="U39" s="16">
         <v>3.6599230126254167</v>
@@ -23964,11 +23969,11 @@
       </c>
       <c r="W39" s="24">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.4474613368651741</v>
+        <v>-1.4590961402553406</v>
       </c>
       <c r="X39" s="7">
         <f>DEGREES(W39)</f>
-        <v>-82.933425610738396</v>
+        <v>-83.600050740459437</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -23988,13 +23993,13 @@
         <v>200</v>
       </c>
       <c r="R40" s="14">
-        <v>0.99240387650610407</v>
+        <v>0.99376801787576441</v>
       </c>
       <c r="S40" s="15">
         <v>-8.7155742747658277E-2</v>
       </c>
       <c r="T40" s="15">
-        <v>8.6824088833465235E-2</v>
+        <v>6.9491029301473745E-2</v>
       </c>
       <c r="U40" s="16">
         <v>582.386099556197</v>
@@ -24005,11 +24010,11 @@
       </c>
       <c r="W40" s="24">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-0.76985114650409858</v>
+        <v>-0.65870079840010864</v>
       </c>
       <c r="X40" s="23">
         <f>DEGREES(W40)</f>
-        <v>-44.109221547992469</v>
+        <v>-37.740775710223915</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -24063,23 +24068,23 @@
       </c>
       <c r="G43" s="1">
         <f>B19</f>
-        <v>-100</v>
+        <v>5</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>-1.7453292519943295</v>
+        <v>8.7266462599716474E-2</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>-0.1736481776669303</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>6.032678484924683E-17</v>
+        <v>-5.3389361781853285E-18</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>0.98480775301220802</v>
+        <v>-8.7155742747658166E-2</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -24087,13 +24092,13 @@
       </c>
       <c r="R43" s="14">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>-0.99624952281418533</v>
+        <v>0.17462304899120745</v>
       </c>
       <c r="S43" s="15">
-        <v>9.7910281942688721E-3</v>
+        <v>1.1331141936027885E-2</v>
       </c>
       <c r="T43" s="15">
-        <v>-8.5971065245272454E-2</v>
+        <v>0.98457015797932856</v>
       </c>
       <c r="U43" s="16">
         <v>209.67684896484388</v>
@@ -24104,38 +24109,38 @@
       </c>
       <c r="W43" s="24">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-8.7261424321697589E-2</v>
+        <v>-2.7605080521494556</v>
       </c>
       <c r="X43" s="7">
         <f>DEGREES(W43)</f>
-        <v>-4.9997113279335039</v>
+        <v>-158.16546070004355</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>-0.98480775301220802</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>-1.0637239828316861E-17</v>
+        <v>6.1024319757763067E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>-0.1736481776669303</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <v>-2.2528588050722692E-3</v>
+        <v>-6.6453558075931507E-2</v>
       </c>
       <c r="S44" s="15">
-        <v>-0.99617554344861214</v>
+        <v>-0.9975182214220687</v>
       </c>
       <c r="T44" s="15">
-        <v>-8.7345356270764785E-2</v>
+        <v>2.3266339419889197E-2</v>
       </c>
       <c r="U44" s="16">
         <v>3.6599230126254167</v>
@@ -24146,11 +24151,11 @@
       </c>
       <c r="W44" s="24">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>8.6605697909003687E-2</v>
+        <v>-1.3828515445598621</v>
       </c>
       <c r="X44" s="7">
         <f>DEGREES(W44)</f>
-        <v>4.9621409719708902</v>
+        <v>-79.23155719642719</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -24170,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <v>-8.6497473487450918E-2</v>
+        <v>0.98239030704708363</v>
       </c>
       <c r="S45" s="15">
-        <v>-8.6824088833465179E-2</v>
+        <v>-6.9491029301473758E-2</v>
       </c>
       <c r="T45" s="15">
-        <v>0.99246146760391984</v>
+        <v>-0.17343667855029554</v>
       </c>
       <c r="U45" s="16">
         <v>582.386099556197</v>
@@ -24187,11 +24192,11 @@
       </c>
       <c r="W45" s="24">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-3.1393313175355448</v>
+        <v>-0.36363130892039386</v>
       </c>
       <c r="X45" s="23">
         <f>DEGREES(W45)</f>
-        <v>-179.87043498803081</v>
+        <v>-20.834539299956411</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -24245,19 +24250,19 @@
       </c>
       <c r="G48" s="1">
         <f>B20</f>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0.17453292519943295</v>
+        <v>0.10471975511965978</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>0.98480775301220802</v>
+        <v>0.99452189536827329</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>-0.17364817766693033</v>
+        <v>-0.10452846326765347</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -24267,40 +24272,40 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="79">
+      <c r="R48" s="76">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>-0.979414059798702</v>
-      </c>
-      <c r="S48" s="80">
-        <v>0.18263919461390932</v>
-      </c>
-      <c r="T48" s="80">
-        <v>-8.5971065245272454E-2</v>
-      </c>
-      <c r="U48" s="81">
-        <v>205.37829570258026</v>
+        <v>0.17485087251136314</v>
+      </c>
+      <c r="S48" s="77">
+        <v>-6.9840102072577029E-3</v>
+      </c>
+      <c r="T48" s="77">
+        <v>0.98457015797932856</v>
+      </c>
+      <c r="U48" s="78">
+        <v>258.90535686381031</v>
       </c>
       <c r="V48" s="21">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>205.37829570258026</v>
+        <v>258.90535686381031</v>
       </c>
       <c r="W48" s="24">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-7.0901250046726441E-2</v>
+        <v>-2.3609407297220217</v>
       </c>
       <c r="X48" s="7">
         <f>DEGREES(W48)</f>
-        <v>-4.0623423898791557</v>
+        <v>-135.27193949360864</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0.17364817766693033</v>
+        <v>0.10452846326765347</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>0.98480775301220802</v>
+        <v>0.99452189536827329</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -24310,29 +24315,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="79">
-        <v>-0.17520270057389245</v>
-      </c>
-      <c r="S49" s="80">
-        <v>-0.9806501937233012</v>
-      </c>
-      <c r="T49" s="80">
-        <v>-8.7345356270764785E-2</v>
-      </c>
-      <c r="U49" s="81">
-        <v>-0.7073448009128227</v>
+      <c r="R49" s="76">
+        <v>-0.17035856529837273</v>
+      </c>
+      <c r="S49" s="77">
+        <v>-0.98510742392871986</v>
+      </c>
+      <c r="T49" s="77">
+        <v>2.3266339419889197E-2</v>
+      </c>
+      <c r="U49" s="78">
+        <v>4.8232399836198763</v>
       </c>
       <c r="V49" s="21">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>-0.7073448009128227</v>
+        <v>4.8232399836198763</v>
       </c>
       <c r="W49" s="24">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>0.10042896288902098</v>
+        <v>-1.3241835721572917</v>
       </c>
       <c r="X49" s="7">
         <f>DEGREES(W49)</f>
-        <v>5.7541557144168731</v>
+        <v>-75.870129985169925</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -24351,29 +24356,29 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="79">
-        <v>-0.10026022730993248</v>
-      </c>
-      <c r="S50" s="80">
-        <v>-7.0484907187527701E-2</v>
-      </c>
-      <c r="T50" s="80">
-        <v>0.99246146760391984</v>
-      </c>
-      <c r="U50" s="81">
-        <v>632.00917293639304</v>
+      <c r="R50" s="76">
+        <v>0.96974487965211498</v>
+      </c>
+      <c r="S50" s="77">
+        <v>-0.17179809929666379</v>
+      </c>
+      <c r="T50" s="77">
+        <v>-0.17343667855029554</v>
+      </c>
+      <c r="U50" s="78">
+        <v>573.71426562868226</v>
       </c>
       <c r="V50" s="21">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>632.00917293639304</v>
+        <v>573.71426562868226</v>
       </c>
       <c r="W50" s="24">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-2.9645797184999894</v>
+        <v>-0.77238561749690748</v>
       </c>
       <c r="X50" s="23">
         <f>DEGREES(W50)</f>
-        <v>-169.85790590013104</v>
+        <v>-44.254436039178749</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -24389,16 +24394,16 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="79">
+      <c r="R51" s="76">
         <v>0</v>
       </c>
-      <c r="S51" s="80">
+      <c r="S51" s="77">
         <v>0</v>
       </c>
-      <c r="T51" s="80">
+      <c r="T51" s="77">
         <v>0</v>
       </c>
-      <c r="U51" s="81">
+      <c r="U51" s="78">
         <v>1</v>
       </c>
       <c r="V51" s="21">
@@ -24423,39 +24428,39 @@
       </c>
       <c r="C55" s="7">
         <f t="array" ref="C55:C58">V48:V51</f>
-        <v>205.37829570258026</v>
+        <v>258.90535686381031</v>
       </c>
       <c r="D55" s="23">
         <f>DEGREES(E55)</f>
-        <v>-4.0623423898791557</v>
+        <v>-135.27193949360864</v>
       </c>
       <c r="E55" s="24">
         <f t="array" ref="E55:E57">W48:W50</f>
-        <v>-7.0901250046726441E-2</v>
+        <v>-2.3609407297220217</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C56" s="7">
-        <v>-0.7073448009128227</v>
+        <v>4.8232399836198763</v>
       </c>
       <c r="D56" s="23">
         <f>DEGREES(E56)</f>
-        <v>5.7541557144168731</v>
+        <v>-75.870129985169925</v>
       </c>
       <c r="E56" s="24">
-        <v>0.10042896288902098</v>
+        <v>-1.3241835721572917</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>632.00917293639304</v>
+        <v>573.71426562868226</v>
       </c>
       <c r="D57" s="23">
         <f>DEGREES(E57)</f>
-        <v>-169.85790590013104</v>
+        <v>-44.254436039178749</v>
       </c>
       <c r="E57" s="24">
-        <v>-2.9645797184999894</v>
+        <v>-0.77238561749690748</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
@@ -24518,44 +24523,44 @@
       <c r="A70" s="5"/>
       <c r="B70" s="8">
         <f t="array" ref="B70:E73">MINVERSE(R48:U51)</f>
-        <v>-0.97941405979870222</v>
+        <v>0.17485087251136311</v>
       </c>
       <c r="C70" s="8">
-        <v>-0.17520270057389248</v>
+        <v>-0.17035856529837282</v>
       </c>
       <c r="D70" s="8">
-        <v>-0.10026022730993243</v>
+        <v>0.9697448796521152</v>
       </c>
       <c r="E70" s="8">
-        <v>264.39184500981088</v>
+        <v>-600.80461877859193</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B71" s="8">
-        <v>0.18263919461390934</v>
+        <v>-6.9840102072576977E-3</v>
       </c>
       <c r="C71" s="8">
-        <v>-0.98065019372330131</v>
+        <v>-0.98510742392871986</v>
       </c>
       <c r="D71" s="8">
-        <v>-7.0484907187527701E-2</v>
+        <v>-0.17179809929666376</v>
       </c>
       <c r="E71" s="8">
-        <v>6.3433235617469022</v>
+        <v>105.1226275446932</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B72" s="8">
-        <v>-8.5971065245272468E-2</v>
+        <v>0.98457015797932845</v>
       </c>
       <c r="C72" s="8">
-        <v>-8.7345356270764771E-2</v>
+        <v>2.32663394198892E-2</v>
       </c>
       <c r="D72" s="8">
-        <v>0.99246146760391951</v>
+        <v>-0.17343667855029557</v>
       </c>
       <c r="E72" s="8">
-        <v>-609.6499437354247</v>
+        <v>-155.51961058009795</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
@@ -24612,7 +24617,7 @@
       </c>
       <c r="B78" s="4">
         <f>U49-F48*T49</f>
-        <v>3.6599230126254167</v>
+        <v>3.6599230126254163</v>
       </c>
       <c r="H78" s="24">
         <f>ATAN2(-B77,-B78)</f>
@@ -25025,25 +25030,25 @@
       <c r="I125" s="64"/>
       <c r="J125" s="65">
         <f t="array" ref="J125:L127">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>-0.18549376261214362</v>
+        <v>0.98103251569073346</v>
       </c>
       <c r="K125" s="65">
-        <v>-5.5792705462988035E-2</v>
+        <v>-0.17325138423531034</v>
       </c>
       <c r="L125" s="65">
-        <v>0.98106026219040687</v>
-      </c>
-      <c r="M125" s="91">
+        <v>-8.694343573875718E-2</v>
+      </c>
+      <c r="M125" s="88">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>-0.18549376261214362</v>
-      </c>
-      <c r="N125" s="91">
+        <v>0.98103251569073346</v>
+      </c>
+      <c r="N125" s="88">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-5.579270546298809E-2</v>
-      </c>
-      <c r="O125" s="91">
+        <v>-0.17325138423531034</v>
+      </c>
+      <c r="O125" s="88">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>0.98106026219040687</v>
+        <v>-8.694343573875718E-2</v>
       </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
@@ -25053,48 +25058,48 @@
       <c r="H126" s="64"/>
       <c r="I126" s="64"/>
       <c r="J126" s="65">
-        <v>0.15808288411198479</v>
+        <v>0.17338418735670946</v>
       </c>
       <c r="K126" s="65">
-        <v>0.98368832940469131</v>
+        <v>0.98483549951188121</v>
       </c>
       <c r="L126" s="65">
-        <v>8.5831651177431217E-2</v>
-      </c>
-      <c r="M126" s="91">
+        <v>-6.0796772806267557E-3</v>
+      </c>
+      <c r="M126" s="88">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0.15808288411198487</v>
-      </c>
-      <c r="N126" s="91">
+        <v>0.17338418735670946</v>
+      </c>
+      <c r="N126" s="88">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.98368832940469131</v>
-      </c>
-      <c r="O126" s="91">
+        <v>0.98483549951188121</v>
+      </c>
+      <c r="O126" s="88">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>8.5831651177431287E-2</v>
+        <v>-6.0796772806267557E-3</v>
       </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
       <c r="J127" s="65">
-        <v>-0.9698463103929541</v>
+        <v>8.6678294469630643E-2</v>
       </c>
       <c r="K127" s="65">
-        <v>0.17101007166283425</v>
+        <v>-9.1102558543636417E-3</v>
       </c>
       <c r="L127" s="65">
-        <v>-0.1736481776669303</v>
-      </c>
-      <c r="M127" s="91">
+        <v>0.99619469809174555</v>
+      </c>
+      <c r="M127" s="88">
         <f>SIN(C19)*COS(C20)</f>
-        <v>-0.9698463103929541</v>
-      </c>
-      <c r="N127" s="91">
+        <v>8.6678294469630643E-2</v>
+      </c>
+      <c r="N127" s="88">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>0.17101007166283433</v>
-      </c>
-      <c r="O127" s="91">
+        <v>-9.1102558543636417E-3</v>
+      </c>
+      <c r="O127" s="88">
         <f>COS(C19)</f>
-        <v>-0.1736481776669303</v>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="129" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -25119,25 +25124,25 @@
       <c r="J130" s="69">
         <v>0.99619469809174555</v>
       </c>
-      <c r="M130" s="82">
+      <c r="M130" s="79">
         <f t="array" ref="M130:O132">R48:T50</f>
-        <v>-0.979414059798702</v>
-      </c>
-      <c r="N130" s="83">
-        <v>0.18263919461390932</v>
-      </c>
-      <c r="O130" s="84">
-        <v>-8.5971065245272454E-2</v>
-      </c>
-      <c r="S130" s="82">
+        <v>0.17485087251136314</v>
+      </c>
+      <c r="N130" s="80">
+        <v>-6.9840102072577029E-3</v>
+      </c>
+      <c r="O130" s="81">
+        <v>0.98457015797932856</v>
+      </c>
+      <c r="S130" s="79">
         <f t="array" ref="S130:U132">MMULT(H130:J132,M130:O132)</f>
-        <v>-0.18549376261214362</v>
-      </c>
-      <c r="T130" s="83">
-        <v>-5.5792705462988035E-2</v>
-      </c>
-      <c r="U130" s="84">
-        <v>0.9810602621904071</v>
+        <v>0.98103251569073358</v>
+      </c>
+      <c r="T130" s="80">
+        <v>-0.17325138423531036</v>
+      </c>
+      <c r="U130" s="81">
+        <v>-8.6943435738757152E-2</v>
       </c>
     </row>
     <row r="131" spans="2:21" x14ac:dyDescent="0.3">
@@ -25159,23 +25164,23 @@
       <c r="J131" s="72">
         <v>-6.6596358923616331E-17</v>
       </c>
-      <c r="M131" s="85">
-        <v>-0.17520270057389245</v>
-      </c>
-      <c r="N131" s="86">
-        <v>-0.9806501937233012</v>
-      </c>
-      <c r="O131" s="87">
-        <v>-8.7345356270764785E-2</v>
-      </c>
-      <c r="S131" s="85">
-        <v>0.15808288411198482</v>
-      </c>
-      <c r="T131" s="86">
-        <v>0.98368832940469142</v>
-      </c>
-      <c r="U131" s="87">
-        <v>8.5831651177431231E-2</v>
+      <c r="M131" s="82">
+        <v>-0.17035856529837273</v>
+      </c>
+      <c r="N131" s="83">
+        <v>-0.98510742392871986</v>
+      </c>
+      <c r="O131" s="84">
+        <v>2.3266339419889197E-2</v>
+      </c>
+      <c r="S131" s="82">
+        <v>0.17338418735670946</v>
+      </c>
+      <c r="T131" s="83">
+        <v>0.98483549951188132</v>
+      </c>
+      <c r="U131" s="84">
+        <v>-6.0796772806267522E-3</v>
       </c>
     </row>
     <row r="132" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25197,86 +25202,86 @@
       <c r="J132" s="75">
         <v>-8.7155742747658277E-2</v>
       </c>
-      <c r="M132" s="88">
-        <v>-0.10026022730993248</v>
-      </c>
-      <c r="N132" s="89">
-        <v>-7.0484907187527701E-2</v>
-      </c>
-      <c r="O132" s="90">
-        <v>0.99246146760391984</v>
-      </c>
-      <c r="S132" s="88">
-        <v>-0.96984631039295399</v>
-      </c>
-      <c r="T132" s="89">
-        <v>0.17101007166283427</v>
-      </c>
-      <c r="U132" s="90">
-        <v>-0.1736481776669303</v>
+      <c r="M132" s="85">
+        <v>0.96974487965211498</v>
+      </c>
+      <c r="N132" s="86">
+        <v>-0.17179809929666379</v>
+      </c>
+      <c r="O132" s="87">
+        <v>-0.17343667855029554</v>
+      </c>
+      <c r="S132" s="85">
+        <v>8.6678294469630643E-2</v>
+      </c>
+      <c r="T132" s="86">
+        <v>-9.1102558543636417E-3</v>
+      </c>
+      <c r="U132" s="87">
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="136" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D136" s="66">
         <f>U132</f>
-        <v>-0.1736481776669303</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="E136" s="5"/>
-      <c r="G136" s="103">
+      <c r="G136" s="100">
         <f>ACOS(D136)</f>
-        <v>1.7453292519943295</v>
-      </c>
-      <c r="H136" s="104">
+        <v>8.7266462599716377E-2</v>
+      </c>
+      <c r="H136" s="101">
         <f>DEGREES(G136)</f>
-        <v>100</v>
-      </c>
-      <c r="J136" s="103">
+        <v>4.9999999999999947</v>
+      </c>
+      <c r="J136" s="100">
         <f>ATAN2(D140/SIN(G136),-D138/SIN(G136))</f>
-        <v>-2.9670597283903604</v>
-      </c>
-      <c r="K136" s="104">
+        <v>0.10471975511965977</v>
+      </c>
+      <c r="K136" s="101">
         <f>DEGREES(J136)</f>
-        <v>-170</v>
+        <v>6</v>
       </c>
       <c r="N136" s="2">
         <f>ATAN2(-D144/SIN(G136),-D142/SIN(G136))</f>
-        <v>-3.0543261909900767</v>
-      </c>
-      <c r="O136" s="104">
+        <v>6.9813170079773154E-2</v>
+      </c>
+      <c r="O136" s="101">
         <f>DEGREES(N136)</f>
-        <v>-175</v>
+        <v>3.9999999999999987</v>
       </c>
     </row>
     <row r="137" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G137" s="103">
+      <c r="G137" s="100">
         <f>-ACOS(D136)</f>
-        <v>-1.7453292519943295</v>
-      </c>
-      <c r="H137" s="104">
+        <v>-8.7266462599716377E-2</v>
+      </c>
+      <c r="H137" s="101">
         <f>DEGREES(G137)</f>
-        <v>-100</v>
-      </c>
-      <c r="J137" s="103">
+        <v>-4.9999999999999947</v>
+      </c>
+      <c r="J137" s="100">
         <f>ATAN2(D140/SIN(G137),D138/SIN(G136))</f>
-        <v>0.17453292519943289</v>
-      </c>
-      <c r="K137" s="104">
+        <v>-3.0368728984701332</v>
+      </c>
+      <c r="K137" s="101">
         <f>DEGREES(J137)</f>
-        <v>9.9999999999999964</v>
+        <v>-174</v>
       </c>
       <c r="N137" s="2">
         <f>ATAN2(-D144/SIN(G137),D142/SIN(G136))</f>
-        <v>8.7266462599716405E-2</v>
-      </c>
-      <c r="O137" s="104">
+        <v>-3.0717794835100198</v>
+      </c>
+      <c r="O137" s="101">
         <f>DEGREES(N137)</f>
-        <v>4.9999999999999956</v>
+        <v>-176</v>
       </c>
     </row>
     <row r="138" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D138" s="92">
+      <c r="D138" s="89">
         <f>T132</f>
-        <v>0.17101007166283427</v>
+        <v>-9.1102558543636417E-3</v>
       </c>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
@@ -25300,31 +25305,31 @@
       <c r="O139" s="2"/>
     </row>
     <row r="140" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D140" s="93">
+      <c r="D140" s="90">
         <f>S132</f>
-        <v>-0.96984631039295399</v>
+        <v>8.6678294469630643E-2</v>
       </c>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
-      <c r="K140" s="104"/>
+      <c r="K140" s="101"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
-      <c r="N140" s="105"/>
-      <c r="O140" s="104"/>
+      <c r="N140" s="102"/>
+      <c r="O140" s="101"/>
     </row>
     <row r="141" spans="2:21" x14ac:dyDescent="0.3">
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
-      <c r="K141" s="104"/>
+      <c r="K141" s="101"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
     </row>
     <row r="142" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="93">
+      <c r="D142" s="90">
         <f>U131</f>
-        <v>8.5831651177431231E-2</v>
+        <v>-6.0796772806267522E-3</v>
       </c>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
@@ -25348,22 +25353,22 @@
       <c r="O143" s="2"/>
     </row>
     <row r="144" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="93">
+      <c r="D144" s="90">
         <f>U130</f>
-        <v>0.9810602621904071</v>
+        <v>-8.6943435738757152E-2</v>
       </c>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="104"/>
+      <c r="K144" s="101"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="105"/>
-      <c r="O144" s="104"/>
+      <c r="N144" s="102"/>
+      <c r="O144" s="101"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="104"/>
+      <c r="K145" s="101"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
@@ -25385,7 +25390,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>q[°]</t>
-  </si>
-  <si>
-    <t>°</t>
   </si>
   <si>
     <t>Punkt</t>
@@ -784,12 +781,24 @@
   <si>
     <t>looking backward</t>
   </si>
+  <si>
+    <t>Orientierung aus Sicht World</t>
+  </si>
+  <si>
+    <t>Euler ° (zyx Konvention)</t>
+  </si>
+  <si>
+    <t>Orientierung aus Sicht TCP</t>
+  </si>
+  <si>
+    <t>http://kos.informatik.uni-osnabrueck.de/download/diplom/node26.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="13">
+  <numFmts count="15">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -803,8 +812,10 @@
     <numFmt numFmtId="173" formatCode="0.00000"/>
     <numFmt numFmtId="174" formatCode="0.0000"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="0.000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -904,6 +915,13 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1066,7 +1084,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1187,6 +1205,11 @@
     <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1289,24 +1312,24 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$B$77</c:f>
+              <c:f>Kinematik!$B$83</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>209.67684896484388</c:v>
+                  <c:v>196.20193825305205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$B$78</c:f>
+              <c:f>Kinematik!$B$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.6599230126254163</c:v>
+                  <c:v>43.412044416732584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,7 +1489,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$K$90:$L$90</c:f>
+              <c:f>Kinematik!$K$96:$L$96</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1474,14 +1497,14 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.70878862909942</c:v>
+                  <c:v>200.94727212553749</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$K$91:$L$91</c:f>
+              <c:f>Kinematik!$K$97:$L$97</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1489,7 +1512,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>282.386099556197</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1567,8 +1590,8 @@
       <xdr:rowOff>88100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>440</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297620</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111385</xdr:rowOff>
     </xdr:to>
@@ -2684,7 +2707,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="735106" cy="736292"/>
@@ -8725,7 +8748,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>82026</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>121022</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="324320"/>
@@ -8970,7 +8993,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233083</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2259105" cy="277384"/>
@@ -9293,7 +9316,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2214283" cy="436786"/>
@@ -9678,7 +9701,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>367552</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1918447" cy="267702"/>
@@ -9945,7 +9968,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32270</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>108</xdr:row>
       <xdr:rowOff>84716</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2097743" cy="472694"/>
@@ -10340,7 +10363,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="472694"/>
@@ -10782,7 +10805,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>129989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1497106" cy="264560"/>
@@ -11045,7 +11068,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>573739</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>121023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -11342,7 +11365,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>510986</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>113404</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3514166" cy="379399"/>
@@ -11979,7 +12002,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>597944</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>136713</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12264,7 +12287,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12525,7 +12548,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595705</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>142989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12840,14 +12863,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>337072</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>136783</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>758712</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>136782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12878,13 +12901,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295835</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>104</xdr:row>
       <xdr:rowOff>94130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12908,7 +12931,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>102646</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6337599" cy="637290"/>
@@ -17275,7 +17298,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -17461,7 +17484,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="323230"/>
@@ -17848,7 +17871,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>138</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -18321,7 +18344,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>34291</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1325880" cy="311752"/>
@@ -18757,7 +18780,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -18943,7 +18966,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>120833</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>145869</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -19129,7 +19152,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>433252</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -19669,7 +19692,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>136</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -20282,7 +20305,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -20468,7 +20491,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -21073,7 +21096,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -21693,7 +21716,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -21879,7 +21902,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -22492,6 +22515,196 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>36306</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>64993</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="Textfeld 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="36306" y="11342593"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="Textfeld 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="36306" y="11342593"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -22713,6 +22926,43 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>170330</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>171598</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>161366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect t="15761" b="12972"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="170330" y="8552331"/>
+          <a:ext cx="14631668" cy="5593976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -23007,118 +23257,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X146"/>
+  <dimension ref="A1:X152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W48" sqref="W48"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.44140625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" customWidth="1"/>
     <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.21875" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="23" max="23" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="61">
-        <f>B77</f>
-        <v>209.67684896484388</v>
+        <f>B83</f>
+        <v>196.20193825305205</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="62">
-        <f>B78</f>
-        <v>3.6599230126254163</v>
+        <f>B84</f>
+        <v>43.412044416732584</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="63">
-        <f>B79</f>
-        <v>582.386099556197</v>
+        <f>B85</f>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="91">
         <f>V48</f>
-        <v>258.90535686381031</v>
+        <v>246.20193825305205</v>
       </c>
       <c r="H8" s="92">
         <f>X48</f>
-        <v>-135.27193949360864</v>
+        <v>-169.99999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9" s="93">
         <f>V49</f>
-        <v>4.8232399836198763</v>
+        <v>43.412044416732584</v>
       </c>
       <c r="H9" s="94">
         <f>X49</f>
-        <v>-75.870129985169925</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="95">
         <f>V50</f>
-        <v>573.71426562868226</v>
+        <v>600</v>
       </c>
       <c r="H10" s="96">
         <f>X50</f>
-        <v>-44.254436039178749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>64</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -23126,22 +23377,22 @@
         <v>8</v>
       </c>
       <c r="B15" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C15" s="24">
         <f>RADIANS(B15)</f>
-        <v>1.7453292519943295E-2</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="E15" s="23">
-        <f>H79</f>
-        <v>0.99999999999999845</v>
+        <f>H85</f>
+        <v>12.476372505958198</v>
       </c>
       <c r="I15" s="23">
-        <f>H80</f>
-        <v>-179</v>
+        <f>H86</f>
+        <v>-167.52362749404179</v>
       </c>
       <c r="J15" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
@@ -23149,30 +23400,30 @@
         <v>5</v>
       </c>
       <c r="B16" s="33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="24">
         <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
-        <v>3.4906585039886591E-2</v>
+        <v>0</v>
       </c>
       <c r="D16" s="36">
-        <f>N114</f>
-        <v>2.0000000000000027</v>
+        <f>N120</f>
+        <v>0.18091595117792342</v>
       </c>
       <c r="E16" s="36">
-        <f>N120</f>
-        <v>71.197479490898388</v>
+        <f>N126</f>
+        <v>67.449352764288065</v>
       </c>
       <c r="H16" s="36">
-        <f>R114</f>
-        <v>-71.197479490898388</v>
+        <f>R120</f>
+        <v>-67.449352764288065</v>
       </c>
       <c r="I16" s="36">
-        <f>R120</f>
-        <v>-1.99999999999999</v>
+        <f>R126</f>
+        <v>-0.18091595117792342</v>
       </c>
       <c r="V16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -23180,27 +23431,27 @@
         <v>6</v>
       </c>
       <c r="B17" s="33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="24">
         <f t="shared" si="0"/>
-        <v>5.235987755982989E-2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="37">
-        <f>N115</f>
-        <v>3.0000000000000169</v>
+        <f>N121</f>
+        <v>-0.18134439313047457</v>
       </c>
       <c r="E17" s="37">
-        <f>N121</f>
-        <v>-183.00000000000003</v>
+        <f>N127</f>
+        <v>-179.81865560686953</v>
       </c>
       <c r="H17" s="37">
-        <f>R115</f>
-        <v>3.0000000000000169</v>
+        <f>R121</f>
+        <v>-0.18134439313047457</v>
       </c>
       <c r="I17" s="37">
-        <f>R121</f>
-        <v>-183.00000000000003</v>
+        <f>R127</f>
+        <v>-179.81865560686953</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -23211,19 +23462,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" si="0"/>
-        <v>6.9813170079773182E-2</v>
+        <v>0</v>
       </c>
       <c r="F18" s="97">
-        <f>O136</f>
-        <v>3.9999999999999987</v>
+        <f>O142</f>
+        <v>-90</v>
       </c>
       <c r="G18" s="31">
-        <f>O137</f>
-        <v>-176</v>
+        <f>O143</f>
+        <v>90</v>
       </c>
       <c r="H18" s="23"/>
       <c r="V18">
@@ -23235,19 +23486,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="33">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="24">
         <f t="shared" si="0"/>
-        <v>8.7266462599716474E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="98">
-        <f>H136</f>
-        <v>4.9999999999999947</v>
+        <f>H142</f>
+        <v>8.5377364625159387E-7</v>
       </c>
       <c r="G19" s="33">
-        <f>H137</f>
-        <v>-4.9999999999999947</v>
+        <f>H143</f>
+        <v>-8.5377364625159387E-7</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -23258,19 +23509,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="35">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="0"/>
-        <v>0.10471975511965978</v>
+        <v>0</v>
       </c>
       <c r="F20" s="99">
-        <f>K136</f>
-        <v>6</v>
+        <f>K142</f>
+        <v>-90</v>
       </c>
       <c r="G20" s="35">
-        <f>K137</f>
-        <v>-174</v>
+        <f>K143</f>
+        <v>90</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -23284,7 +23535,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>4</v>
@@ -23296,22 +23547,22 @@
         <v>13</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N22" t="s">
+        <v>21</v>
+      </c>
+      <c r="R22" t="s">
         <v>22</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
+        <v>15</v>
+      </c>
+      <c r="W22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="V22" t="s">
-        <v>16</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>24</v>
-      </c>
       <c r="X22" s="17" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
@@ -23333,39 +23584,39 @@
       </c>
       <c r="G23" s="1">
         <f>B15</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="6">
         <f>RADIANS(G23)</f>
-        <v>1.7453292519943295E-2</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="N23" s="105">
         <f>COS(H23)</f>
-        <v>0.99984769515639127</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="O23" s="83">
         <f>-SIN(H23)*COS(D23)</f>
-        <v>-1.0690894390537575E-18</v>
+        <v>-1.0637239828316862E-17</v>
       </c>
       <c r="P23" s="83">
         <f>SIN(H23)*SIN(D23)</f>
-        <v>-1.7452406437283512E-2</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="Q23" s="106">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="14">
+      <c r="R23" s="107">
         <f t="array" ref="R23:U26">N23:Q26</f>
-        <v>0.99984769515639127</v>
-      </c>
-      <c r="S23" s="15">
-        <v>-1.0690894390537575E-18</v>
-      </c>
-      <c r="T23" s="15">
-        <v>-1.7452406437283512E-2</v>
-      </c>
-      <c r="U23" s="16">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="S23" s="108">
+        <v>-1.0637239828316862E-17</v>
+      </c>
+      <c r="T23" s="108">
+        <v>-0.17364817766693033</v>
+      </c>
+      <c r="U23" s="109">
         <v>0</v>
       </c>
       <c r="V23" s="21">
@@ -23384,30 +23635,30 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N24" s="105">
         <f>SIN(H23)</f>
-        <v>1.7452406437283512E-2</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="O24" s="83">
         <f>COS(H23)*COS(D23)</f>
-        <v>6.1248092943239885E-17</v>
+        <v>6.032678484924683E-17</v>
       </c>
       <c r="P24" s="83">
         <f>-COS(H23)*SIN(D23)</f>
-        <v>0.99984769515639127</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="Q24" s="106">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="14">
-        <v>1.7452406437283512E-2</v>
-      </c>
-      <c r="S24" s="15">
-        <v>6.1248092943239885E-17</v>
-      </c>
-      <c r="T24" s="15">
-        <v>0.99984769515639127</v>
-      </c>
-      <c r="U24" s="16">
+      <c r="R24" s="107">
+        <v>0.17364817766693033</v>
+      </c>
+      <c r="S24" s="108">
+        <v>6.032678484924683E-17</v>
+      </c>
+      <c r="T24" s="108">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="U24" s="109">
         <v>0</v>
       </c>
       <c r="V24" s="21">
@@ -23439,16 +23690,16 @@
         <f>F23</f>
         <v>300</v>
       </c>
-      <c r="R25" s="14">
+      <c r="R25" s="107">
         <v>0</v>
       </c>
-      <c r="S25" s="15">
+      <c r="S25" s="108">
         <v>-1</v>
       </c>
-      <c r="T25" s="15">
+      <c r="T25" s="108">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U25" s="16">
+      <c r="U25" s="109">
         <v>300</v>
       </c>
       <c r="V25" s="21">
@@ -23457,11 +23708,11 @@
       </c>
       <c r="W25" s="24">
         <f>IF(ABS(W24)=PI()/2,0,ATAN2(R23,R24))</f>
-        <v>1.7453292519943295E-2</v>
+        <v>0.17453292519943295</v>
       </c>
       <c r="X25" s="23">
         <f>DEGREES(W25)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -23477,16 +23728,16 @@
       <c r="Q26" s="106">
         <v>1</v>
       </c>
-      <c r="R26" s="14">
+      <c r="R26" s="107">
         <v>0</v>
       </c>
-      <c r="S26" s="15">
+      <c r="S26" s="108">
         <v>0</v>
       </c>
-      <c r="T26" s="15">
+      <c r="T26" s="108">
         <v>0</v>
       </c>
-      <c r="U26" s="16">
+      <c r="U26" s="109">
         <v>1</v>
       </c>
       <c r="V26" s="21">
@@ -23500,7 +23751,7 @@
     </row>
     <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -23517,19 +23768,19 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-88</v>
+        <v>-90</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.5358897417550099</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="N28" s="103">
         <f>COS(H28)</f>
-        <v>3.489949670250108E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="O28" s="71">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="P28" s="71">
         <f>SIN(H28)*SIN(D28)</f>
@@ -23537,42 +23788,42 @@
       </c>
       <c r="Q28" s="104">
         <f>E28*COS(H28)</f>
-        <v>10.469849010750323</v>
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="R28" s="107">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>3.4894181340113781E-2</v>
+        <v>7.0964024677563694E-17</v>
       </c>
       <c r="S28" s="108">
-        <v>0.99923861495548261</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="T28" s="108">
-        <v>-1.7452406437283512E-2</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="U28" s="109">
-        <v>10.468254402034134</v>
+        <v>2.1289207403269107E-14</v>
       </c>
       <c r="V28" s="21">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>10.468254402034134</v>
+        <v>2.1289207403269107E-14</v>
       </c>
       <c r="W28" s="24">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.5707963267948948</v>
+        <v>-1.3962634015954636</v>
       </c>
       <c r="X28" s="23">
         <f>DEGREES(W28)</f>
-        <v>-89.999999999999901</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N29" s="103">
         <f>SIN(H28)</f>
-        <v>-0.99939082701909576</v>
+        <v>-1</v>
       </c>
       <c r="O29" s="71">
         <f>COS(H28)*COS(D28)</f>
-        <v>3.489949670250108E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P29" s="71">
         <f>-COS(H28)*SIN(D28)</f>
@@ -23580,31 +23831,31 @@
       </c>
       <c r="Q29" s="104">
         <f>E28*SIN(H28)</f>
-        <v>-299.81724810572871</v>
+        <v>-300</v>
       </c>
       <c r="R29" s="107">
-        <v>6.090802009086233E-4</v>
+        <v>-4.9689545020929967E-17</v>
       </c>
       <c r="S29" s="108">
-        <v>1.7441774902830161E-2</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="T29" s="108">
-        <v>0.99984769515639127</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="U29" s="109">
-        <v>0.18272406027258697</v>
+        <v>-1.4906863506278992E-14</v>
       </c>
       <c r="V29" s="21">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>0.18272406027258697</v>
+        <v>-1.4906863506278992E-14</v>
       </c>
       <c r="W29" s="24">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.5358897417550099</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X29" s="23">
         <f>DEGREES(W29)</f>
-        <v>-88</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -23624,28 +23875,28 @@
         <v>0</v>
       </c>
       <c r="R30" s="107">
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="S30" s="108">
-        <v>-3.489949670250108E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T30" s="108">
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="U30" s="109">
-        <v>599.81724810572871</v>
+        <v>600</v>
       </c>
       <c r="V30" s="21">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>599.81724810572871</v>
+        <v>600</v>
       </c>
       <c r="W30" s="24">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>1.745329251994154E-2</v>
+        <v>0</v>
       </c>
       <c r="X30" s="23">
         <f>DEGREES(W30)</f>
-        <v>0.99999999999989941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -23684,7 +23935,7 @@
     </row>
     <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33">
         <v>-90</v>
@@ -23701,23 +23952,23 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>5.235987755982989E-2</v>
+        <v>0</v>
       </c>
       <c r="N33" s="11">
         <f>COS(H33)</f>
-        <v>0.99862953475457383</v>
+        <v>1</v>
       </c>
       <c r="O33" s="12">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>-3.2059657963603892E-18</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>-5.2335956242943835E-2</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="13">
         <f>E33*COS(H33)</f>
@@ -23725,70 +23976,70 @@
       </c>
       <c r="R33" s="76">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>8.7142468505889498E-2</v>
+        <v>7.0964024677563694E-17</v>
       </c>
       <c r="S33" s="77">
-        <v>1.7452406437283574E-2</v>
+        <v>0.17364817766693039</v>
       </c>
       <c r="T33" s="77">
-        <v>0.99604297281404874</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="U33" s="78">
-        <v>10.468254402034134</v>
+        <v>2.1289207403269107E-14</v>
       </c>
       <c r="V33" s="21">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>10.468254402034134</v>
+        <v>2.1289207403269107E-14</v>
       </c>
       <c r="W33" s="24">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-3.1415926535897922</v>
+        <v>-2.9670597283903599</v>
       </c>
       <c r="X33" s="23">
         <f>DEGREES(W33)</f>
-        <v>-179.99999999999994</v>
+        <v>-169.99999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N34" s="11">
         <f>SIN(H33)</f>
-        <v>5.2335956242943835E-2</v>
+        <v>0</v>
       </c>
       <c r="O34" s="12">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.1173471576534015E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P34" s="12">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>0.99862953475457383</v>
+        <v>1</v>
       </c>
       <c r="Q34" s="13">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
       <c r="R34" s="76">
-        <v>1.5210774457753962E-3</v>
+        <v>-4.9689545020929967E-17</v>
       </c>
       <c r="S34" s="77">
-        <v>-0.99984769515639127</v>
+        <v>-0.98480775301220802</v>
       </c>
       <c r="T34" s="77">
-        <v>1.738599476176415E-2</v>
+        <v>0.17364817766693039</v>
       </c>
       <c r="U34" s="78">
-        <v>0.18272406027258697</v>
+        <v>-1.4906863506278992E-14</v>
       </c>
       <c r="V34" s="21">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>0.18272406027258697</v>
+        <v>-1.4906863506278992E-14</v>
       </c>
       <c r="W34" s="24">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.48352986419518</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X34" s="23">
         <f>DEGREES(W34)</f>
-        <v>-84.999999999999986</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -23808,28 +24059,28 @@
         <v>0</v>
       </c>
       <c r="R35" s="76">
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="S35" s="77">
-        <v>-6.6596358923616331E-17</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T35" s="77">
-        <v>-8.7155742747658277E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U35" s="78">
-        <v>599.81724810572871</v>
+        <v>600</v>
       </c>
       <c r="V35" s="21">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>599.81724810572871</v>
+        <v>600</v>
       </c>
       <c r="W35" s="24">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>1.7453292519942595E-2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="23">
         <f>DEGREES(W35)</f>
-        <v>0.99999999999995981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -23886,23 +24137,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>6.9813170079773182E-2</v>
+        <v>0</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>0.9975640502598242</v>
+        <v>1</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-4.273101801374442E-18</v>
+        <v>0</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>6.9756473744125302E-2</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -23910,70 +24161,70 @@
       </c>
       <c r="R38" s="14">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>8.8147612163788469E-2</v>
+        <v>7.0964024677563694E-17</v>
       </c>
       <c r="S38" s="15">
-        <v>0.99604297281404874</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="T38" s="15">
-        <v>-1.1331141936027824E-2</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="U38" s="16">
-        <v>209.67684896484388</v>
+        <v>196.96155060244163</v>
       </c>
       <c r="V38" s="21">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>209.67684896484388</v>
+        <v>196.96155060244163</v>
       </c>
       <c r="W38" s="24">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-0.89769158095818069</v>
+        <v>-1.3962634015954636</v>
       </c>
       <c r="X38" s="7">
         <f>DEGREES(W38)</f>
-        <v>-51.433938893330208</v>
+        <v>-80</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>6.9756473744125302E-2</v>
+        <v>0</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1108202742410423E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-0.9975640502598242</v>
+        <v>-1</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <v>-6.8228477317734432E-2</v>
+        <v>-4.9689545020929967E-17</v>
       </c>
       <c r="S39" s="15">
-        <v>1.7385994761764088E-2</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="T39" s="15">
-        <v>0.9975182214220687</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="U39" s="16">
-        <v>3.6599230126254167</v>
+        <v>34.729635533386066</v>
       </c>
       <c r="V39" s="21">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>3.6599230126254167</v>
+        <v>34.729635533386066</v>
       </c>
       <c r="W39" s="24">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.4590961402553406</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X39" s="7">
         <f>DEGREES(W39)</f>
-        <v>-83.600050740459437</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -23993,28 +24244,28 @@
         <v>200</v>
       </c>
       <c r="R40" s="14">
-        <v>0.99376801787576441</v>
+        <v>1</v>
       </c>
       <c r="S40" s="15">
-        <v>-8.7155742747658277E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T40" s="15">
-        <v>6.9491029301473745E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U40" s="16">
-        <v>582.386099556197</v>
+        <v>600</v>
       </c>
       <c r="V40" s="21">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>582.386099556197</v>
+        <v>600</v>
       </c>
       <c r="W40" s="24">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-0.65870079840010864</v>
+        <v>0</v>
       </c>
       <c r="X40" s="23">
         <f>DEGREES(W40)</f>
-        <v>-37.740775710223915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -24051,7 +24302,7 @@
     </row>
     <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43">
         <v>-90</v>
@@ -24068,23 +24319,23 @@
       </c>
       <c r="G43" s="1">
         <f>B19</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>8.7266462599716474E-2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>-5.3389361781853285E-18</v>
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>-8.7155742747658166E-2</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -24092,70 +24343,70 @@
       </c>
       <c r="R43" s="14">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>0.17462304899120745</v>
+        <v>7.0964024677563694E-17</v>
       </c>
       <c r="S43" s="15">
-        <v>1.1331141936027885E-2</v>
+        <v>0.17364817766693039</v>
       </c>
       <c r="T43" s="15">
-        <v>0.98457015797932856</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="U43" s="16">
-        <v>209.67684896484388</v>
+        <v>196.96155060244163</v>
       </c>
       <c r="V43" s="21">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>209.67684896484388</v>
+        <v>196.96155060244163</v>
       </c>
       <c r="W43" s="24">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-2.7605080521494556</v>
+        <v>-2.9670597283903599</v>
       </c>
       <c r="X43" s="7">
         <f>DEGREES(W43)</f>
-        <v>-158.16546070004355</v>
+        <v>-169.99999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>8.7155742747658166E-2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1024319757763067E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <v>-6.6453558075931507E-2</v>
+        <v>-4.9689545020929967E-17</v>
       </c>
       <c r="S44" s="15">
-        <v>-0.9975182214220687</v>
+        <v>-0.98480775301220802</v>
       </c>
       <c r="T44" s="15">
-        <v>2.3266339419889197E-2</v>
+        <v>0.17364817766693039</v>
       </c>
       <c r="U44" s="16">
-        <v>3.6599230126254167</v>
+        <v>34.729635533386066</v>
       </c>
       <c r="V44" s="21">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>3.6599230126254167</v>
+        <v>34.729635533386066</v>
       </c>
       <c r="W44" s="24">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.3828515445598621</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X44" s="7">
         <f>DEGREES(W44)</f>
-        <v>-79.23155719642719</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -24175,28 +24426,28 @@
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <v>0.98239030704708363</v>
+        <v>1</v>
       </c>
       <c r="S45" s="15">
-        <v>-6.9491029301473758E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T45" s="15">
-        <v>-0.17343667855029554</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U45" s="16">
-        <v>582.386099556197</v>
+        <v>600</v>
       </c>
       <c r="V45" s="21">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>582.386099556197</v>
+        <v>600</v>
       </c>
       <c r="W45" s="24">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-0.36363130892039386</v>
+        <v>0</v>
       </c>
       <c r="X45" s="23">
         <f>DEGREES(W45)</f>
-        <v>-20.834539299956411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -24233,7 +24484,7 @@
     </row>
     <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -24250,19 +24501,19 @@
       </c>
       <c r="G48" s="1">
         <f>B20</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0.10471975511965978</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>0.99452189536827329</v>
+        <v>1</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>-0.10452846326765347</v>
+        <v>0</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -24272,40 +24523,40 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="76">
+      <c r="R48" s="107">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>0.17485087251136314</v>
-      </c>
-      <c r="S48" s="77">
-        <v>-6.9840102072577029E-3</v>
-      </c>
-      <c r="T48" s="77">
-        <v>0.98457015797932856</v>
-      </c>
-      <c r="U48" s="78">
-        <v>258.90535686381031</v>
+        <v>7.0964024677563694E-17</v>
+      </c>
+      <c r="S48" s="108">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="T48" s="108">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="U48" s="109">
+        <v>246.20193825305205</v>
       </c>
       <c r="V48" s="21">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>258.90535686381031</v>
-      </c>
-      <c r="W48" s="24">
+        <v>246.20193825305205</v>
+      </c>
+      <c r="W48" s="110">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-2.3609407297220217</v>
+        <v>-2.9670597283903599</v>
       </c>
       <c r="X48" s="7">
         <f>DEGREES(W48)</f>
-        <v>-135.27193949360864</v>
+        <v>-169.99999999999997</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0.10452846326765347</v>
+        <v>0</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>0.99452189536827329</v>
+        <v>1</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -24315,29 +24566,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="76">
-        <v>-0.17035856529837273</v>
-      </c>
-      <c r="S49" s="77">
-        <v>-0.98510742392871986</v>
-      </c>
-      <c r="T49" s="77">
-        <v>2.3266339419889197E-2</v>
-      </c>
-      <c r="U49" s="78">
-        <v>4.8232399836198763</v>
+      <c r="R49" s="107">
+        <v>-4.9689545020929967E-17</v>
+      </c>
+      <c r="S49" s="108">
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="T49" s="108">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="U49" s="109">
+        <v>43.412044416732584</v>
       </c>
       <c r="V49" s="21">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>4.8232399836198763</v>
-      </c>
-      <c r="W49" s="24">
+        <v>43.412044416732584</v>
+      </c>
+      <c r="W49" s="110">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.3241835721572917</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X49" s="7">
         <f>DEGREES(W49)</f>
-        <v>-75.870129985169925</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -24356,29 +24607,29 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="76">
-        <v>0.96974487965211498</v>
-      </c>
-      <c r="S50" s="77">
-        <v>-0.17179809929666379</v>
-      </c>
-      <c r="T50" s="77">
-        <v>-0.17343667855029554</v>
-      </c>
-      <c r="U50" s="78">
-        <v>573.71426562868226</v>
+      <c r="R50" s="107">
+        <v>1</v>
+      </c>
+      <c r="S50" s="108">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="T50" s="108">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="U50" s="109">
+        <v>600</v>
       </c>
       <c r="V50" s="21">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>573.71426562868226</v>
-      </c>
-      <c r="W50" s="24">
+        <v>600</v>
+      </c>
+      <c r="W50" s="110">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-0.77238561749690748</v>
+        <v>0</v>
       </c>
       <c r="X50" s="23">
         <f>DEGREES(W50)</f>
-        <v>-44.254436039178749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -24394,16 +24645,16 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="76">
+      <c r="R51" s="107">
         <v>0</v>
       </c>
-      <c r="S51" s="77">
+      <c r="S51" s="108">
         <v>0</v>
       </c>
-      <c r="T51" s="77">
+      <c r="T51" s="108">
         <v>0</v>
       </c>
-      <c r="U51" s="78">
+      <c r="U51" s="109">
         <v>1</v>
       </c>
       <c r="V51" s="21">
@@ -24412,516 +24663,613 @@
       </c>
       <c r="W51" s="8"/>
     </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="108"/>
+      <c r="S52" s="108"/>
+      <c r="T52" s="108"/>
+      <c r="U52" s="108"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="8"/>
+    </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>15</v>
-      </c>
+      <c r="A54" s="18"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="7">
-        <f t="array" ref="C55:C58">V48:V51</f>
-        <v>258.90535686381031</v>
-      </c>
-      <c r="D55" s="23">
-        <f>DEGREES(E55)</f>
-        <v>-135.27193949360864</v>
-      </c>
-      <c r="E55" s="24">
-        <f t="array" ref="E55:E57">W48:W50</f>
-        <v>-2.3609407297220217</v>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>29</v>
+      </c>
       <c r="C56" s="7">
-        <v>4.8232399836198763</v>
-      </c>
-      <c r="D56" s="23">
-        <f>DEGREES(E56)</f>
-        <v>-75.870129985169925</v>
-      </c>
-      <c r="E56" s="24">
-        <v>-1.3241835721572917</v>
+        <f t="array" ref="C56:C59">V48:V51</f>
+        <v>246.20193825305205</v>
+      </c>
+      <c r="D56" s="24">
+        <f t="array" ref="D56:D58">W48:W50</f>
+        <v>-2.9670597283903599</v>
+      </c>
+      <c r="E56" s="23">
+        <f>DEGREES(D56)</f>
+        <v>-169.99999999999997</v>
+      </c>
+      <c r="F56" s="111">
+        <f>D56+PI()</f>
+        <v>0.1745329251994332</v>
+      </c>
+      <c r="G56" s="24">
+        <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
+        <v>0.1745329251994332</v>
+      </c>
+      <c r="H56" s="23">
+        <f>DEGREES(G56)</f>
+        <v>10.000000000000014</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>573.71426562868226</v>
-      </c>
-      <c r="D57" s="23">
-        <f>DEGREES(E57)</f>
-        <v>-44.254436039178749</v>
-      </c>
-      <c r="E57" s="24">
-        <v>-0.77238561749690748</v>
+        <v>43.412044416732584</v>
+      </c>
+      <c r="D57" s="24">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E57" s="23">
+        <f>DEGREES(D57)</f>
+        <v>-90</v>
+      </c>
+      <c r="F57" s="111">
+        <f>D57+PI()/2</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="24">
+        <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="23">
+        <f>DEGREES(G57)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
+        <v>600</v>
+      </c>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
+      <c r="E58" s="23">
+        <f>DEGREES(D58)</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="111">
+        <f>D58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="24">
+        <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
+        <v>0</v>
+      </c>
+      <c r="H58" s="23">
+        <f>DEGREES(G58)</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="110"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C59" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A60" s="18" t="s">
-        <v>32</v>
+      <c r="C60" s="7"/>
+      <c r="F60" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A61" s="9" t="s">
-        <v>39</v>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="113">
+        <f>COS(D58)*COS(D57)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="C61" s="113">
+        <f>-COS(D57)*SIN(D58)</f>
+        <v>0</v>
+      </c>
+      <c r="D61" s="113">
+        <f>-SIN(D57)</f>
+        <v>1</v>
+      </c>
+      <c r="E61" s="27">
+        <f>C56</f>
+        <v>246.20193825305205</v>
+      </c>
+      <c r="F61" s="110">
+        <f>IF(F62=PI()/2,ATAN2(C62,C61),IF(-F62=PI()/2,-ATAN2(C62,C61),ATAN2(D63,C63)))</f>
+        <v>-1.5707963267948968</v>
+      </c>
+      <c r="G61" s="7">
+        <f>DEGREES(F61)</f>
+        <v>-90.000000000000014</v>
+      </c>
+      <c r="H61" s="111">
+        <f>F61+PI()</f>
+        <v>1.5707963267948963</v>
+      </c>
+      <c r="I61" s="24">
+        <f>IF(H61&gt;PI(),H61-2*PI(),H61)</f>
+        <v>1.5707963267948963</v>
+      </c>
+      <c r="J61" s="23">
+        <f>DEGREES(I61)</f>
+        <v>89.999999999999986</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="19"/>
-      <c r="F63">
-        <v>0</v>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="113">
+        <f>-SIN(D56)*SIN(D57)*COS(D58)+COS(D56)*SIN(D58)</f>
+        <v>-0.17364817766693069</v>
+      </c>
+      <c r="C62" s="113">
+        <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="D62" s="113">
+        <f>SIN(D56)*COS(D57)</f>
+        <v>-1.0637239828316884E-17</v>
+      </c>
+      <c r="E62" s="27">
+        <f>C57</f>
+        <v>43.412044416732584</v>
+      </c>
+      <c r="F62" s="110">
+        <f>ATAN2(SQRT(B61^2+B62^2),-B63)</f>
+        <v>-1.3962634015954634</v>
+      </c>
+      <c r="G62" s="7">
+        <f>DEGREES(F62)</f>
+        <v>-79.999999999999986</v>
+      </c>
+      <c r="H62" s="111">
+        <f>F62+PI()/2</f>
+        <v>0.1745329251994332</v>
+      </c>
+      <c r="I62" s="24">
+        <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
+        <v>0.1745329251994332</v>
+      </c>
+      <c r="J62" s="23">
+        <f>DEGREES(I62)</f>
+        <v>10.000000000000014</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="113">
+        <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="C63" s="113">
+        <f>-COS(D56)*SIN(D57)*SIN(D58)+SIN(D56)*COS(D58)</f>
+        <v>-0.17364817766693069</v>
+      </c>
+      <c r="D63" s="113">
+        <f>COS(D56)*COS(D57)</f>
+        <v>-6.032678484924683E-17</v>
+      </c>
+      <c r="E63" s="27">
+        <f>C58</f>
+        <v>600</v>
+      </c>
+      <c r="F63" s="110">
+        <f>IF(ABS(F62)=PI()/2,0,ATAN2(B61,B62))</f>
+        <v>-1.5707963267948963</v>
+      </c>
+      <c r="G63" s="23">
+        <f>DEGREES(F63)</f>
+        <v>-89.999999999999986</v>
+      </c>
+      <c r="H63" s="111">
+        <f>F63</f>
+        <v>-1.5707963267948963</v>
+      </c>
+      <c r="I63" s="24">
+        <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
+        <v>-1.5707963267948963</v>
+      </c>
+      <c r="J63" s="23">
+        <f>DEGREES(I63)</f>
+        <v>-89.999999999999986</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F64">
+      <c r="B64">
         <v>0</v>
       </c>
+      <c r="C64" s="7">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F65">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A67" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>34</v>
+      </c>
+      <c r="B69" s="19"/>
+      <c r="F69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71">
         <f>-F48</f>
         <v>-50</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F66">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F72">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>38</v>
+    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B68" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>34</v>
+      <c r="C74" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70" s="5"/>
-      <c r="B70" s="8">
-        <f t="array" ref="B70:E73">MINVERSE(R48:U51)</f>
-        <v>0.17485087251136311</v>
-      </c>
-      <c r="C70" s="8">
-        <v>-0.17035856529837282</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0.9697448796521152</v>
-      </c>
-      <c r="E70" s="8">
-        <v>-600.80461877859193</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="8">
+        <f t="array" ref="B76:E79">MINVERSE(R48:U51)</f>
+        <v>7.0964024677563694E-17</v>
+      </c>
+      <c r="C76" s="8">
+        <v>-4.9689545020929967E-17</v>
+      </c>
+      <c r="D76" s="8">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8">
+        <v>-600</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="8">
-        <v>-6.9840102072576977E-3</v>
-      </c>
-      <c r="C71" s="8">
-        <v>-0.98510742392871986</v>
-      </c>
-      <c r="D71" s="8">
-        <v>-0.17179809929666376</v>
-      </c>
-      <c r="E71" s="8">
-        <v>105.1226275446932</v>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B77" s="8">
+        <v>0.17364817766693041</v>
+      </c>
+      <c r="C77" s="8">
+        <v>-0.98480775301220813</v>
+      </c>
+      <c r="D77" s="8">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="E77" s="8">
+        <v>1.4430080055458136E-14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="8">
-        <v>0.98457015797932845</v>
-      </c>
-      <c r="C72" s="8">
-        <v>2.32663394198892E-2</v>
-      </c>
-      <c r="D72" s="8">
-        <v>-0.17343667855029557</v>
-      </c>
-      <c r="E72" s="8">
-        <v>-155.51961058009795</v>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B78" s="8">
+        <v>0.98480775301220813</v>
+      </c>
+      <c r="C78" s="8">
+        <v>0.17364817766693041</v>
+      </c>
+      <c r="D78" s="8">
+        <v>-6.1257422745431013E-17</v>
+      </c>
+      <c r="E78" s="8">
+        <v>-250.00000000000003</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B73" s="8">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="8">
         <v>0</v>
       </c>
-      <c r="C73" s="8">
+      <c r="C79" s="8">
         <v>0</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D79" s="8">
         <v>0</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E79" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="8"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76" s="9"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B77" s="4">
-        <f>U48-F48*T48</f>
-        <v>209.67684896484388</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H77" s="24">
-        <f>ATAN2(B77,B78)</f>
-        <v>1.7453292519943268E-2</v>
-      </c>
-      <c r="I77" s="26">
-        <f>DEGREES(H77)</f>
-        <v>0.99999999999999845</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>33</v>
-      </c>
-      <c r="B78" s="4">
-        <f>U49-F48*T49</f>
-        <v>3.6599230126254163</v>
-      </c>
-      <c r="H78" s="24">
-        <f>ATAN2(-B77,-B78)</f>
-        <v>-3.12413936106985</v>
-      </c>
-      <c r="I78" s="26">
-        <f>DEGREES(H78)</f>
-        <v>-179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B79" s="4">
-        <f>U50-F48*T50</f>
-        <v>582.386099556197</v>
-      </c>
-      <c r="E79" t="s">
-        <v>43</v>
-      </c>
-      <c r="G79" s="24">
-        <f>IF(B81=1,H77,H78)</f>
-        <v>1.7453292519943268E-2</v>
-      </c>
-      <c r="H79" s="26">
-        <f>DEGREES(G79)</f>
-        <v>0.99999999999999845</v>
-      </c>
-      <c r="I79" s="18" t="str">
-        <f>IF(ABS(H79-B15)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B80" s="4">
-        <v>1</v>
-      </c>
-      <c r="E80" t="s">
-        <v>44</v>
-      </c>
-      <c r="G80" s="24">
-        <f>IF(B81=-1,H77,H78)</f>
-        <v>-3.12413936106985</v>
-      </c>
-      <c r="H80" s="26">
-        <f>DEGREES(G80)</f>
-        <v>-179</v>
-      </c>
-      <c r="I80" s="18" t="str">
-        <f>IF(ABS(H80-B15)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
-      </c>
+    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A80" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>46</v>
-      </c>
-      <c r="B81">
-        <f>SIGN(B77)</f>
-        <v>1</v>
+      <c r="A81" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A83" s="18" t="s">
-        <v>47</v>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="9"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B83" s="4">
+        <f>E61+F71*D61</f>
+        <v>196.20193825305205</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H83" s="24">
+        <f>ATAN2(B83,B84)</f>
+        <v>0.2177537789342664</v>
+      </c>
+      <c r="I83" s="26">
+        <f>DEGREES(H83)</f>
+        <v>12.476372505958198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>32</v>
+      </c>
+      <c r="B84" s="4">
+        <f>E62+F71*D62</f>
+        <v>43.412044416732584</v>
+      </c>
+      <c r="H84" s="24">
+        <f>ATAN2(-B83,-B84)</f>
+        <v>-2.9238388746555266</v>
+      </c>
+      <c r="I84" s="26">
+        <f>DEGREES(H84)</f>
+        <v>-167.52362749404179</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>62</v>
+      <c r="B85" s="4">
+        <f>E63+F71*D63</f>
+        <v>600</v>
+      </c>
+      <c r="E85" t="s">
+        <v>42</v>
+      </c>
+      <c r="G85" s="24">
+        <f>IF(B87=1,H83,H84)</f>
+        <v>0.2177537789342664</v>
+      </c>
+      <c r="H85" s="26">
+        <f>DEGREES(G85)</f>
+        <v>12.476372505958198</v>
+      </c>
+      <c r="I85" s="18" t="str">
+        <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J90" t="s">
-        <v>48</v>
-      </c>
-      <c r="K90">
-        <v>0</v>
-      </c>
-      <c r="L90">
-        <f>E106*B81</f>
-        <v>209.70878862909942</v>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="24">
+        <f>IF(B87=-1,H83,H84)</f>
+        <v>-2.9238388746555266</v>
+      </c>
+      <c r="H86" s="26">
+        <f>DEGREES(G86)</f>
+        <v>-167.52362749404179</v>
+      </c>
+      <c r="I86" s="18" t="str">
+        <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87">
+        <f>SIGN(B83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A89" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K91">
+      <c r="A91" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J96" t="s">
+        <v>47</v>
+      </c>
+      <c r="K96">
         <v>0</v>
       </c>
-      <c r="L91" s="4">
-        <f>E104</f>
-        <v>282.386099556197</v>
+      <c r="L96">
+        <f>E112*B87</f>
+        <v>200.94727212553749</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" s="18"/>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97" s="4">
+        <f>E110</f>
+        <v>300</v>
+      </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E104" s="22">
-        <f>B79-F23</f>
-        <v>282.386099556197</v>
-      </c>
-      <c r="M104" s="24">
-        <f>ACOS((E111*E111-E110*E110-E109*E109)/(-2*E110*E109))</f>
-        <v>0.60386192559871321</v>
-      </c>
-      <c r="N104" s="23">
-        <f>DEGREES(M104)</f>
-        <v>34.598739745449194</v>
-      </c>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="18"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E106" s="4">
-        <f>SQRT(B77*B77+B78*B78)</f>
-        <v>209.70878862909942</v>
-      </c>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-      <c r="M106" s="24">
-        <f>ACOS((E109*E109-E110*E110-E111*E111)/(-2*E110*E111))</f>
-        <v>1.5184364492350664</v>
-      </c>
-      <c r="N106" s="25">
-        <f>DEGREES(M106)</f>
-        <v>86.999999999999986</v>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E110" s="22">
+        <f>B85-F23</f>
+        <v>300</v>
+      </c>
+      <c r="M110" s="24">
+        <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
+        <v>0.58702785252926659</v>
+      </c>
+      <c r="N110" s="23">
+        <f>DEGREES(M110)</f>
+        <v>33.634218406555064</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E107" s="4"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="25"/>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E112" s="4">
+        <f>SQRT(B83*B83+B84*B84)</f>
+        <v>200.94727212553749</v>
+      </c>
+      <c r="I112" s="22"/>
+      <c r="J112" s="22"/>
+      <c r="M112" s="24">
+        <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
+        <v>1.5739613835350543</v>
+      </c>
+      <c r="N112" s="25">
+        <f>DEGREES(M112)</f>
+        <v>90.181344393130473</v>
+      </c>
     </row>
-    <row r="108" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M108" s="38" t="s">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E113" s="4"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="22"/>
+      <c r="M113" s="24"/>
+      <c r="N113" s="25"/>
+    </row>
+    <row r="114" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M114" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q114" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="Q108" s="38" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B109" t="s">
-        <v>60</v>
-      </c>
-      <c r="E109" s="7">
-        <f>SQRT(E106*E106+E104*E104)</f>
-        <v>351.73809183943484</v>
-      </c>
-      <c r="L109" t="s">
-        <v>49</v>
-      </c>
-      <c r="M109" s="39">
-        <f>IF(B81=1,1,-1)</f>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>59</v>
+      </c>
+      <c r="E115" s="7">
+        <f>SQRT(E112*E112+E110*E110)</f>
+        <v>361.08143980921369</v>
+      </c>
+      <c r="L115" t="s">
+        <v>48</v>
+      </c>
+      <c r="M115" s="39">
+        <f>IF(B87=1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N109" s="40"/>
-      <c r="O109" s="40"/>
-      <c r="P109" s="40"/>
-      <c r="Q109" s="40">
-        <f>IF(B81=1,-1,1)</f>
+      <c r="N115" s="40"/>
+      <c r="O115" s="40"/>
+      <c r="P115" s="40"/>
+      <c r="Q115" s="40">
+        <f>IF(B87=1,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="R109" s="40"/>
-      <c r="S109" s="41"/>
+      <c r="R115" s="40"/>
+      <c r="S115" s="41"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B110" t="s">
-        <v>58</v>
-      </c>
-      <c r="E110" s="7">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>57</v>
+      </c>
+      <c r="E116" s="7">
         <f>E28</f>
         <v>300</v>
       </c>
-      <c r="F110" s="5"/>
-      <c r="L110" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="M110" s="42">
-        <f>ATAN2(M109*E106,(B79-F23))</f>
-        <v>0.93202781615629671</v>
-      </c>
-      <c r="N110" s="43">
-        <f>DEGREES(M110)</f>
-        <v>53.401260254550806</v>
-      </c>
-      <c r="O110" s="44"/>
-      <c r="P110" s="44"/>
-      <c r="Q110" s="45">
-        <f>ATAN2(Q109*E106,(B79-F23))</f>
-        <v>2.2095648374334962</v>
-      </c>
-      <c r="R110" s="43">
-        <f>DEGREES(Q110)</f>
-        <v>126.59873974544918</v>
-      </c>
-      <c r="S110" s="46"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>59</v>
-      </c>
-      <c r="E111" s="7">
-        <f>F38</f>
-        <v>200</v>
-      </c>
-      <c r="M111" s="47"/>
-      <c r="N111" s="44"/>
-      <c r="O111" s="44"/>
-      <c r="P111" s="44"/>
-      <c r="Q111" s="44"/>
-      <c r="R111" s="44"/>
-      <c r="S111" s="46"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G112" s="1"/>
-      <c r="M112" s="47"/>
-      <c r="N112" s="44"/>
-      <c r="O112" s="44"/>
-      <c r="P112" s="44"/>
-      <c r="Q112" s="44"/>
-      <c r="R112" s="44"/>
-      <c r="S112" s="46"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F113" s="5"/>
-      <c r="G113" s="1"/>
-      <c r="M113" s="47"/>
-      <c r="N113" s="44"/>
-      <c r="O113" s="44"/>
-      <c r="P113" s="44"/>
-      <c r="Q113" s="44"/>
-      <c r="R113" s="44"/>
-      <c r="S113" s="46"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E114" t="s">
-        <v>50</v>
-      </c>
-      <c r="G114" s="1"/>
-      <c r="M114" s="48">
-        <f>PI()/2-(M110+M104)</f>
-        <v>3.490658503988664E-2</v>
-      </c>
-      <c r="N114" s="49">
-        <f>DEGREES(M114)</f>
-        <v>2.0000000000000027</v>
-      </c>
-      <c r="O114" s="50" t="str">
-        <f>IF(ABS(N114-B16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-      <c r="P114" s="44"/>
-      <c r="Q114" s="51">
-        <f>PI()/2-(Q110+M104)</f>
-        <v>-1.2426304362373131</v>
-      </c>
-      <c r="R114" s="49">
-        <f>DEGREES(Q114)</f>
-        <v>-71.197479490898388</v>
-      </c>
-      <c r="S114" s="52" t="str">
-        <f>IF(ABS(R114-H16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G115" s="1"/>
-      <c r="M115" s="48">
-        <f>PI()/2-M106</f>
-        <v>5.2359877559830181E-2</v>
-      </c>
-      <c r="N115" s="49">
-        <f>DEGREES(M115)</f>
-        <v>3.0000000000000169</v>
-      </c>
-      <c r="O115" s="50" t="str">
-        <f>IF(ABS(N115-B17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-      <c r="P115" s="44"/>
-      <c r="Q115" s="51">
-        <f>PI()/2-M106</f>
-        <v>5.2359877559830181E-2</v>
-      </c>
-      <c r="R115" s="49">
-        <f>DEGREES(Q115)</f>
-        <v>3.0000000000000169</v>
-      </c>
-      <c r="S115" s="52" t="str">
-        <f>IF(ABS(R115-H17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M116" s="47"/>
-      <c r="N116" s="44"/>
+      <c r="F116" s="5"/>
+      <c r="L116" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="M116" s="42">
+        <f>ATAN2(M115*E112,(B85-F23))</f>
+        <v>0.98061089524819778</v>
+      </c>
+      <c r="N116" s="43">
+        <f>DEGREES(M116)</f>
+        <v>56.184865642267006</v>
+      </c>
       <c r="O116" s="44"/>
       <c r="P116" s="44"/>
-      <c r="Q116" s="44"/>
-      <c r="R116" s="44"/>
+      <c r="Q116" s="45">
+        <f>ATAN2(Q115*E112,(B85-F23))</f>
+        <v>2.1609817583415953</v>
+      </c>
+      <c r="R116" s="43">
+        <f>DEGREES(Q116)</f>
+        <v>123.81513435773299</v>
+      </c>
       <c r="S116" s="46"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M117" s="53"/>
-      <c r="N117" s="54"/>
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="E117" s="7">
+        <f>F38</f>
+        <v>200</v>
+      </c>
+      <c r="M117" s="47"/>
+      <c r="N117" s="44"/>
       <c r="O117" s="44"/>
       <c r="P117" s="44"/>
       <c r="Q117" s="44"/>
@@ -24929,7 +25277,6 @@
       <c r="S117" s="46"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F118" s="9"/>
       <c r="G118" s="1"/>
       <c r="M118" s="47"/>
       <c r="N118" s="44"/>
@@ -24940,6 +25287,8 @@
       <c r="S118" s="46"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F119" s="5"/>
+      <c r="G119" s="1"/>
       <c r="M119" s="47"/>
       <c r="N119" s="44"/>
       <c r="O119" s="44"/>
@@ -24950,15 +25299,16 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G120" s="1"/>
       <c r="M120" s="48">
-        <f>PI()/2-(M110-M104)</f>
-        <v>1.2426304362373131</v>
+        <f>PI()/2-(M116+M110)</f>
+        <v>3.1575790174320773E-3</v>
       </c>
       <c r="N120" s="49">
         <f>DEGREES(M120)</f>
-        <v>71.197479490898388</v>
+        <v>0.18091595117792342</v>
       </c>
       <c r="O120" s="50" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -24966,417 +25316,513 @@
       </c>
       <c r="P120" s="44"/>
       <c r="Q120" s="51">
-        <f>PI()/2-(Q110-M104)</f>
-        <v>-3.4906585039886417E-2</v>
+        <f>PI()/2-(Q116+M110)</f>
+        <v>-1.1772132840759655</v>
       </c>
       <c r="R120" s="49">
         <f>DEGREES(Q120)</f>
-        <v>-1.99999999999999</v>
+        <v>-67.449352764288065</v>
       </c>
       <c r="S120" s="52" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
     </row>
-    <row r="121" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="18"/>
-      <c r="M121" s="55">
-        <f>(M106- PI()*3/2)</f>
-        <v>-3.1939525311496233</v>
-      </c>
-      <c r="N121" s="56">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G121" s="1"/>
+      <c r="M121" s="48">
+        <f>PI()/2-M112</f>
+        <v>-3.1650567401577678E-3</v>
+      </c>
+      <c r="N121" s="49">
         <f>DEGREES(M121)</f>
-        <v>-183.00000000000003</v>
-      </c>
-      <c r="O121" s="57" t="str">
+        <v>-0.18134439313047457</v>
+      </c>
+      <c r="O121" s="50" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P121" s="58"/>
-      <c r="Q121" s="59">
-        <f>(M106- PI()*3/2)</f>
-        <v>-3.1939525311496233</v>
-      </c>
-      <c r="R121" s="56">
+      <c r="P121" s="44"/>
+      <c r="Q121" s="51">
+        <f>PI()/2-M112</f>
+        <v>-3.1650567401577678E-3</v>
+      </c>
+      <c r="R121" s="49">
         <f>DEGREES(Q121)</f>
-        <v>-183.00000000000003</v>
-      </c>
-      <c r="S121" s="60" t="str">
+        <v>-0.18134439313047457</v>
+      </c>
+      <c r="S121" s="52" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
     </row>
-    <row r="123" spans="1:19" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A123" s="18" t="s">
-        <v>57</v>
-      </c>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M122" s="47"/>
+      <c r="N122" s="44"/>
+      <c r="O122" s="44"/>
+      <c r="P122" s="44"/>
+      <c r="Q122" s="44"/>
+      <c r="R122" s="44"/>
+      <c r="S122" s="46"/>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M123" s="53"/>
+      <c r="N123" s="54"/>
+      <c r="O123" s="44"/>
+      <c r="P123" s="44"/>
+      <c r="Q123" s="44"/>
+      <c r="R123" s="44"/>
+      <c r="S123" s="46"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E124" s="64"/>
-      <c r="F124" s="64"/>
-      <c r="G124" s="64"/>
-      <c r="J124" t="s">
-        <v>55</v>
-      </c>
-      <c r="M124" t="s">
-        <v>56</v>
-      </c>
+      <c r="F124" s="9"/>
+      <c r="G124" s="1"/>
+      <c r="M124" s="47"/>
+      <c r="N124" s="44"/>
+      <c r="O124" s="44"/>
+      <c r="P124" s="44"/>
+      <c r="Q124" s="44"/>
+      <c r="R124" s="44"/>
+      <c r="S124" s="46"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E125" s="64"/>
-      <c r="F125" s="64"/>
-      <c r="G125" s="64"/>
-      <c r="H125" s="64"/>
-      <c r="I125" s="64"/>
-      <c r="J125" s="65">
-        <f t="array" ref="J125:L127">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.98103251569073346</v>
-      </c>
-      <c r="K125" s="65">
-        <v>-0.17325138423531034</v>
-      </c>
-      <c r="L125" s="65">
-        <v>-8.694343573875718E-2</v>
-      </c>
-      <c r="M125" s="88">
-        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.98103251569073346</v>
-      </c>
-      <c r="N125" s="88">
-        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-0.17325138423531034</v>
-      </c>
-      <c r="O125" s="88">
-        <f>-COS(C18)*SIN(C19)</f>
-        <v>-8.694343573875718E-2</v>
-      </c>
+      <c r="M125" s="47"/>
+      <c r="N125" s="44"/>
+      <c r="O125" s="44"/>
+      <c r="P125" s="44"/>
+      <c r="Q125" s="44"/>
+      <c r="R125" s="44"/>
+      <c r="S125" s="46"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E126" s="64"/>
-      <c r="F126" s="64"/>
-      <c r="G126" s="64"/>
-      <c r="H126" s="64"/>
-      <c r="I126" s="64"/>
-      <c r="J126" s="65">
-        <v>0.17338418735670946</v>
-      </c>
-      <c r="K126" s="65">
-        <v>0.98483549951188121</v>
-      </c>
-      <c r="L126" s="65">
-        <v>-6.0796772806267557E-3</v>
-      </c>
-      <c r="M126" s="88">
+      <c r="E126" t="s">
+        <v>50</v>
+      </c>
+      <c r="M126" s="48">
+        <f>PI()/2-(M116-M110)</f>
+        <v>1.1772132840759655</v>
+      </c>
+      <c r="N126" s="49">
+        <f>DEGREES(M126)</f>
+        <v>67.449352764288065</v>
+      </c>
+      <c r="O126" s="50" t="str">
+        <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+      <c r="P126" s="44"/>
+      <c r="Q126" s="51">
+        <f>PI()/2-(Q116-M110)</f>
+        <v>-3.1575790174320773E-3</v>
+      </c>
+      <c r="R126" s="49">
+        <f>DEGREES(Q126)</f>
+        <v>-0.18091595117792342</v>
+      </c>
+      <c r="S126" s="52" t="str">
+        <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="18"/>
+      <c r="M127" s="55">
+        <f>(M112- PI()*3/2)</f>
+        <v>-3.1384275968496356</v>
+      </c>
+      <c r="N127" s="56">
+        <f>DEGREES(M127)</f>
+        <v>-179.81865560686953</v>
+      </c>
+      <c r="O127" s="57" t="str">
+        <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+      <c r="P127" s="58"/>
+      <c r="Q127" s="59">
+        <f>(M112- PI()*3/2)</f>
+        <v>-3.1384275968496356</v>
+      </c>
+      <c r="R127" s="56">
+        <f>DEGREES(Q127)</f>
+        <v>-179.81865560686953</v>
+      </c>
+      <c r="S127" s="60" t="str">
+        <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A129" s="18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E130" s="64"/>
+      <c r="F130" s="64"/>
+      <c r="G130" s="64"/>
+      <c r="J130" t="s">
+        <v>54</v>
+      </c>
+      <c r="M130" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="64"/>
+      <c r="H131" s="64"/>
+      <c r="I131" s="64"/>
+      <c r="J131" s="65">
+        <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
+        <v>1</v>
+      </c>
+      <c r="K131" s="65">
+        <v>0</v>
+      </c>
+      <c r="L131" s="65">
+        <v>0</v>
+      </c>
+      <c r="M131" s="88">
+        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
+        <v>1</v>
+      </c>
+      <c r="N131" s="88">
+        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
+        <v>0</v>
+      </c>
+      <c r="O131" s="88">
+        <f>-COS(C18)*SIN(C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E132" s="64"/>
+      <c r="F132" s="64"/>
+      <c r="G132" s="64"/>
+      <c r="H132" s="64"/>
+      <c r="I132" s="64"/>
+      <c r="J132" s="65">
+        <v>0</v>
+      </c>
+      <c r="K132" s="65">
+        <v>1</v>
+      </c>
+      <c r="L132" s="65">
+        <v>0</v>
+      </c>
+      <c r="M132" s="88">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0.17338418735670946</v>
-      </c>
-      <c r="N126" s="88">
+        <v>0</v>
+      </c>
+      <c r="N132" s="88">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.98483549951188121</v>
-      </c>
-      <c r="O126" s="88">
+        <v>1</v>
+      </c>
+      <c r="O132" s="88">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>-6.0796772806267557E-3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="J127" s="65">
-        <v>8.6678294469630643E-2</v>
-      </c>
-      <c r="K127" s="65">
-        <v>-9.1102558543636417E-3</v>
-      </c>
-      <c r="L127" s="65">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="M127" s="88">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J133" s="65">
+        <v>0</v>
+      </c>
+      <c r="K133" s="65">
+        <v>0</v>
+      </c>
+      <c r="L133" s="65">
+        <v>1</v>
+      </c>
+      <c r="M133" s="88">
         <f>SIN(C19)*COS(C20)</f>
-        <v>8.6678294469630643E-2</v>
-      </c>
-      <c r="N127" s="88">
+        <v>0</v>
+      </c>
+      <c r="N133" s="88">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>-9.1102558543636417E-3</v>
-      </c>
-      <c r="O127" s="88">
+        <v>0</v>
+      </c>
+      <c r="O133" s="88">
         <f>COS(C19)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="129" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="130" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B130" s="67">
-        <f t="array" ref="B130:D132">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>8.7142468505889498E-2</v>
-      </c>
-      <c r="C130" s="68">
-        <v>1.7452406437283574E-2</v>
-      </c>
-      <c r="D130" s="69">
-        <v>0.99604297281404874</v>
-      </c>
-      <c r="H130" s="67">
-        <f t="array" ref="H130:J132">TRANSPOSE(B130:D132)</f>
-        <v>8.7142468505889498E-2</v>
-      </c>
-      <c r="I130" s="68">
-        <v>1.5210774457753962E-3</v>
-      </c>
-      <c r="J130" s="69">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="M130" s="79">
-        <f t="array" ref="M130:O132">R48:T50</f>
-        <v>0.17485087251136314</v>
-      </c>
-      <c r="N130" s="80">
-        <v>-6.9840102072577029E-3</v>
-      </c>
-      <c r="O130" s="81">
-        <v>0.98457015797932856</v>
-      </c>
-      <c r="S130" s="79">
-        <f t="array" ref="S130:U132">MMULT(H130:J132,M130:O132)</f>
-        <v>0.98103251569073358</v>
-      </c>
-      <c r="T130" s="80">
-        <v>-0.17325138423531036</v>
-      </c>
-      <c r="U130" s="81">
-        <v>-8.6943435738757152E-2</v>
+    <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B136" s="67">
+        <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
+        <v>7.0964024677563694E-17</v>
+      </c>
+      <c r="C136" s="68">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="D136" s="69">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="H136" s="67">
+        <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
+        <v>7.0964024677563694E-17</v>
+      </c>
+      <c r="I136" s="68">
+        <v>-4.9689545020929967E-17</v>
+      </c>
+      <c r="J136" s="69">
+        <v>1</v>
+      </c>
+      <c r="M136" s="79">
+        <f t="array" ref="M136:O138">R48:T50</f>
+        <v>7.0964024677563694E-17</v>
+      </c>
+      <c r="N136" s="80">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="O136" s="81">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="S136" s="79">
+        <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
+        <v>1</v>
+      </c>
+      <c r="T136" s="80">
+        <v>0</v>
+      </c>
+      <c r="U136" s="81">
+        <v>0</v>
       </c>
     </row>
-    <row r="131" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B131" s="70">
-        <v>1.5210774457753962E-3</v>
-      </c>
-      <c r="C131" s="71">
-        <v>-0.99984769515639127</v>
-      </c>
-      <c r="D131" s="72">
-        <v>1.738599476176415E-2</v>
-      </c>
-      <c r="H131" s="70">
-        <v>1.7452406437283574E-2</v>
-      </c>
-      <c r="I131" s="71">
-        <v>-0.99984769515639127</v>
-      </c>
-      <c r="J131" s="72">
-        <v>-6.6596358923616331E-17</v>
-      </c>
-      <c r="M131" s="82">
-        <v>-0.17035856529837273</v>
-      </c>
-      <c r="N131" s="83">
-        <v>-0.98510742392871986</v>
-      </c>
-      <c r="O131" s="84">
-        <v>2.3266339419889197E-2</v>
-      </c>
-      <c r="S131" s="82">
-        <v>0.17338418735670946</v>
-      </c>
-      <c r="T131" s="83">
-        <v>0.98483549951188132</v>
-      </c>
-      <c r="U131" s="84">
-        <v>-6.0796772806267522E-3</v>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B137" s="70">
+        <v>-4.9689545020929967E-17</v>
+      </c>
+      <c r="C137" s="71">
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="D137" s="72">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="H137" s="70">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="I137" s="71">
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="J137" s="72">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M137" s="82">
+        <v>-4.9689545020929967E-17</v>
+      </c>
+      <c r="N137" s="83">
+        <v>-0.98480775301220802</v>
+      </c>
+      <c r="O137" s="84">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="S137" s="82">
+        <v>0</v>
+      </c>
+      <c r="T137" s="83">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="U137" s="84">
+        <v>3.7524718414124473E-33</v>
       </c>
     </row>
-    <row r="132" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="73">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="C132" s="74">
-        <v>-6.6596358923616331E-17</v>
-      </c>
-      <c r="D132" s="75">
-        <v>-8.7155742747658277E-2</v>
-      </c>
-      <c r="H132" s="73">
-        <v>0.99604297281404874</v>
-      </c>
-      <c r="I132" s="74">
-        <v>1.738599476176415E-2</v>
-      </c>
-      <c r="J132" s="75">
-        <v>-8.7155742747658277E-2</v>
-      </c>
-      <c r="M132" s="85">
-        <v>0.96974487965211498</v>
-      </c>
-      <c r="N132" s="86">
-        <v>-0.17179809929666379</v>
-      </c>
-      <c r="O132" s="87">
-        <v>-0.17343667855029554</v>
-      </c>
-      <c r="S132" s="85">
-        <v>8.6678294469630643E-2</v>
-      </c>
-      <c r="T132" s="86">
-        <v>-9.1102558543636417E-3</v>
-      </c>
-      <c r="U132" s="87">
-        <v>0.99619469809174555</v>
+    <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="73">
+        <v>1</v>
+      </c>
+      <c r="C138" s="74">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="D138" s="75">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="H138" s="73">
+        <v>0.98480775301220802</v>
+      </c>
+      <c r="I138" s="74">
+        <v>0.17364817766693039</v>
+      </c>
+      <c r="J138" s="75">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M138" s="85">
+        <v>1</v>
+      </c>
+      <c r="N138" s="86">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="O138" s="87">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="S138" s="85">
+        <v>0</v>
+      </c>
+      <c r="T138" s="86">
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="U138" s="87">
+        <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="136" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D136" s="66">
-        <f>U132</f>
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="E136" s="5"/>
-      <c r="G136" s="100">
-        <f>ACOS(D136)</f>
-        <v>8.7266462599716377E-2</v>
-      </c>
-      <c r="H136" s="101">
-        <f>DEGREES(G136)</f>
-        <v>4.9999999999999947</v>
-      </c>
-      <c r="J136" s="100">
-        <f>ATAN2(D140/SIN(G136),-D138/SIN(G136))</f>
-        <v>0.10471975511965977</v>
-      </c>
-      <c r="K136" s="101">
-        <f>DEGREES(J136)</f>
-        <v>6</v>
-      </c>
-      <c r="N136" s="2">
-        <f>ATAN2(-D144/SIN(G136),-D142/SIN(G136))</f>
-        <v>6.9813170079773154E-2</v>
-      </c>
-      <c r="O136" s="101">
-        <f>DEGREES(N136)</f>
-        <v>3.9999999999999987</v>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D142" s="66">
+        <f>U138</f>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="E142" s="5"/>
+      <c r="G142" s="100">
+        <f>ACOS(D142)</f>
+        <v>1.4901161193847656E-8</v>
+      </c>
+      <c r="H142" s="101">
+        <f>DEGREES(G142)</f>
+        <v>8.5377364625159387E-7</v>
+      </c>
+      <c r="J142" s="114">
+        <f>ATAN2(D146,-D144)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="K142" s="101">
+        <f>DEGREES(J142)</f>
+        <v>-90</v>
+      </c>
+      <c r="N142" s="112">
+        <f>ATAN2(-D150,-D148)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="O142" s="101">
+        <f>DEGREES(N142)</f>
+        <v>-90</v>
       </c>
     </row>
-    <row r="137" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G137" s="100">
-        <f>-ACOS(D136)</f>
-        <v>-8.7266462599716377E-2</v>
-      </c>
-      <c r="H137" s="101">
-        <f>DEGREES(G137)</f>
-        <v>-4.9999999999999947</v>
-      </c>
-      <c r="J137" s="100">
-        <f>ATAN2(D140/SIN(G137),D138/SIN(G136))</f>
-        <v>-3.0368728984701332</v>
-      </c>
-      <c r="K137" s="101">
-        <f>DEGREES(J137)</f>
-        <v>-174</v>
-      </c>
-      <c r="N137" s="2">
-        <f>ATAN2(-D144/SIN(G137),D142/SIN(G136))</f>
-        <v>-3.0717794835100198</v>
-      </c>
-      <c r="O137" s="101">
-        <f>DEGREES(N137)</f>
-        <v>-176</v>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="G143" s="100">
+        <f>-ACOS(D142)</f>
+        <v>-1.4901161193847656E-8</v>
+      </c>
+      <c r="H143" s="101">
+        <f>DEGREES(G143)</f>
+        <v>-8.5377364625159387E-7</v>
+      </c>
+      <c r="J143" s="100">
+        <f>ATAN2(D146,D144)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="K143" s="101">
+        <f>DEGREES(J143)</f>
+        <v>90</v>
+      </c>
+      <c r="N143" s="112">
+        <f>ATAN2(-D150,D148)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="O143" s="101">
+        <f>DEGREES(N143)</f>
+        <v>90</v>
       </c>
     </row>
-    <row r="138" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D138" s="89">
-        <f>T132</f>
-        <v>-9.1102558543636417E-3</v>
-      </c>
-      <c r="G138" s="2"/>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-      <c r="J138" s="2"/>
-      <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
-      <c r="N138" s="2"/>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D140" s="90">
-        <f>S132</f>
-        <v>8.6678294469630643E-2</v>
-      </c>
-      <c r="I140" s="2"/>
-      <c r="J140" s="2"/>
-      <c r="K140" s="101"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
-      <c r="N140" s="102"/>
-      <c r="O140" s="101"/>
-    </row>
-    <row r="141" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="101"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="90">
-        <f>U131</f>
-        <v>-6.0796772806267522E-3</v>
-      </c>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="90">
-        <f>U130</f>
-        <v>-8.6943435738757152E-2</v>
-      </c>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D144" s="89">
+        <f>T138</f>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
-      <c r="K144" s="101"/>
+      <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="102"/>
-      <c r="O144" s="101"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
-      <c r="K145" s="101"/>
+      <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" t="s">
-        <v>63</v>
+      <c r="D146" s="90">
+        <f>S138</f>
+        <v>0</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="101"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="102"/>
+      <c r="O146" s="101"/>
+    </row>
+    <row r="147" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="101"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+    </row>
+    <row r="148" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D148" s="64">
+        <f>U137</f>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+    </row>
+    <row r="149" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+    </row>
+    <row r="150" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D150" s="90">
+        <f>U136</f>
+        <v>0</v>
+      </c>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="101"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="102"/>
+      <c r="O150" s="101"/>
+    </row>
+    <row r="151" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="101"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="2"/>
+      <c r="O151" s="2"/>
+    </row>
+    <row r="152" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D152" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -25388,10 +25834,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25406,7 +25852,12 @@
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -793,6 +793,12 @@
   <si>
     <t>http://kos.informatik.uni-osnabrueck.de/download/diplom/node26.html</t>
   </si>
+  <si>
+    <t>Modell zy'x''</t>
+  </si>
+  <si>
+    <t>http://www-home.htwg-konstanz.de/~bittel/ain_robo/Vorlesung/02_PositionUndOrientierung.pdf</t>
+  </si>
 </sst>
 </file>
 
@@ -1084,7 +1090,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1208,8 +1214,11 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1314,10 +1323,10 @@
             <c:numRef>
               <c:f>Kinematik!$B$83</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196.20193825305205</c:v>
+                  <c:v>185.90126395942724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1326,10 +1335,10 @@
             <c:numRef>
               <c:f>Kinematik!$B$84</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.412044416732584</c:v>
+                  <c:v>-32.779408583853218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,7 +1391,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1427,7 +1436,7 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1497,7 +1506,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.94727212553749</c:v>
+                  <c:v>188.76909060759877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1512,7 +1521,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>317.24839665526031</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22518,21 +22527,21 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>36306</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>64993</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Textfeld 39"/>
+            <xdr:cNvPr id="49" name="Textfeld 48"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="36306" y="11342593"/>
+              <a:off x="0" y="12140452"/>
               <a:ext cx="914400" cy="270843"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -22649,12 +22658,12 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="40" name="Textfeld 39"/>
+            <xdr:cNvPr id="49" name="Textfeld 48"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="36306" y="11342593"/>
+              <a:off x="0" y="12140452"/>
               <a:ext cx="914400" cy="270843"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -22697,6 +22706,251 @@
               <a:r>
                 <a:rPr lang="de-DE" sz="1100"/>
                 <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>788892</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1093695" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Textfeld 49"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5423645" y="12759017"/>
+              <a:ext cx="1093695" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑊𝐶𝑃</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑇𝐶𝑃</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>= </a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="50" name="Textfeld 49"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5423645" y="12759017"/>
+              <a:ext cx="1093695" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )  〖𝑊𝐶𝑃〗_𝑇𝐶𝑃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>= </a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -22959,6 +23213,43 @@
         <a:xfrm>
           <a:off x="170330" y="8552331"/>
           <a:ext cx="14631668" cy="5593976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>170328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8965</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Grafik 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="25794" t="23869" r="33401" b="39812"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="134471" y="14693152"/>
+          <a:ext cx="5970494" cy="2850777"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23259,8 +23550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23279,7 +23570,7 @@
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
     <col min="17" max="17" width="11.44140625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" customWidth="1"/>
@@ -23301,19 +23592,19 @@
       </c>
       <c r="G4" s="61">
         <f>B83</f>
-        <v>196.20193825305205</v>
+        <v>185.90126395942724</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="62">
         <f>B84</f>
-        <v>43.412044416732584</v>
+        <v>-32.779408583853218</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="63">
         <f>B85</f>
-        <v>600</v>
+        <v>617.24839665526031</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -23323,31 +23614,31 @@
       </c>
       <c r="G8" s="91">
         <f>V48</f>
-        <v>246.20193825305205</v>
+        <v>234.34170436810228</v>
       </c>
       <c r="H8" s="92">
         <f>X48</f>
-        <v>-169.99999999999997</v>
+        <v>-44.728060506391358</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9" s="93">
         <f>V49</f>
-        <v>43.412044416732584</v>
+        <v>-41.629438490424469</v>
       </c>
       <c r="H9" s="94">
         <f>X49</f>
-        <v>-90</v>
+        <v>-75.870129985169925</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="95">
         <f>V50</f>
-        <v>600</v>
+        <v>625.92023058277505</v>
       </c>
       <c r="H10" s="96">
         <f>X50</f>
-        <v>0</v>
+        <v>-144.74556396082122</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -23377,19 +23668,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="31">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="C15" s="24">
         <f>RADIANS(B15)</f>
-        <v>0.17453292519943295</v>
+        <v>-0.17453292519943295</v>
       </c>
       <c r="E15" s="23">
         <f>H85</f>
-        <v>12.476372505958198</v>
+        <v>-10.000000000000011</v>
       </c>
       <c r="I15" s="23">
         <f>H86</f>
-        <v>-167.52362749404179</v>
+        <v>169.99999999999997</v>
       </c>
       <c r="J15" s="29" t="s">
         <v>44</v>
@@ -23400,27 +23691,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="33">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C16" s="24">
         <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
-        <v>0</v>
+        <v>-3.4906585039886591E-2</v>
       </c>
       <c r="D16" s="36">
         <f>N120</f>
-        <v>0.18091595117792342</v>
+        <v>-2.0000000000000284</v>
       </c>
       <c r="E16" s="36">
         <f>N126</f>
-        <v>67.449352764288065</v>
+        <v>63.506970256937187</v>
       </c>
       <c r="H16" s="36">
         <f>R120</f>
-        <v>-67.449352764288065</v>
+        <v>-63.506970256937187</v>
       </c>
       <c r="I16" s="36">
         <f>R126</f>
-        <v>-0.18091595117792342</v>
+        <v>2.0000000000000027</v>
       </c>
       <c r="V16" t="s">
         <v>18</v>
@@ -23431,27 +23722,27 @@
         <v>6</v>
       </c>
       <c r="B17" s="33">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="C17" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-5.235987755982989E-2</v>
       </c>
       <c r="D17" s="37">
         <f>N121</f>
-        <v>-0.18134439313047457</v>
+        <v>-2.9999999999999662</v>
       </c>
       <c r="E17" s="37">
         <f>N127</f>
-        <v>-179.81865560686953</v>
+        <v>-177.00000000000003</v>
       </c>
       <c r="H17" s="37">
         <f>R121</f>
-        <v>-0.18134439313047457</v>
+        <v>-2.9999999999999662</v>
       </c>
       <c r="I17" s="37">
         <f>R127</f>
-        <v>-179.81865560686953</v>
+        <v>-177.00000000000003</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -23462,19 +23753,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9813170079773182E-2</v>
       </c>
       <c r="F18" s="97">
         <f>O142</f>
-        <v>-90</v>
+        <v>-175.99999999999997</v>
       </c>
       <c r="G18" s="31">
         <f>O143</f>
-        <v>90</v>
+        <v>175.99999999999997</v>
       </c>
       <c r="H18" s="23"/>
       <c r="V18">
@@ -23486,19 +23777,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="33">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C19" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.7266462599716474E-2</v>
       </c>
       <c r="F19" s="98">
         <f>H142</f>
-        <v>8.5377364625159387E-7</v>
+        <v>5.0000000000002105</v>
       </c>
       <c r="G19" s="33">
         <f>H143</f>
-        <v>-8.5377364625159387E-7</v>
+        <v>-5.0000000000002105</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -23509,19 +23800,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="35">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.10471975511965978</v>
       </c>
       <c r="F20" s="99">
         <f>K142</f>
-        <v>-90</v>
+        <v>-173.99999999999997</v>
       </c>
       <c r="G20" s="35">
         <f>K143</f>
-        <v>90</v>
+        <v>173.99999999999997</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -23584,11 +23875,11 @@
       </c>
       <c r="G23" s="1">
         <f>B15</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="H23" s="6">
         <f>RADIANS(G23)</f>
-        <v>0.17453292519943295</v>
+        <v>-0.17453292519943295</v>
       </c>
       <c r="N23" s="105">
         <f>COS(H23)</f>
@@ -23596,11 +23887,11 @@
       </c>
       <c r="O23" s="83">
         <f>-SIN(H23)*COS(D23)</f>
-        <v>-1.0637239828316862E-17</v>
+        <v>1.0637239828316862E-17</v>
       </c>
       <c r="P23" s="83">
         <f>SIN(H23)*SIN(D23)</f>
-        <v>-0.17364817766693033</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="Q23" s="106">
         <f>E23*COS(H23)</f>
@@ -23611,10 +23902,10 @@
         <v>0.98480775301220802</v>
       </c>
       <c r="S23" s="108">
-        <v>-1.0637239828316862E-17</v>
+        <v>1.0637239828316862E-17</v>
       </c>
       <c r="T23" s="108">
-        <v>-0.17364817766693033</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="U23" s="109">
         <v>0</v>
@@ -23635,7 +23926,7 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N24" s="105">
         <f>SIN(H23)</f>
-        <v>0.17364817766693033</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="O24" s="83">
         <f>COS(H23)*COS(D23)</f>
@@ -23650,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="107">
-        <v>0.17364817766693033</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="S24" s="108">
         <v>6.032678484924683E-17</v>
@@ -23708,11 +23999,11 @@
       </c>
       <c r="W25" s="24">
         <f>IF(ABS(W24)=PI()/2,0,ATAN2(R23,R24))</f>
-        <v>0.17453292519943295</v>
+        <v>-0.17453292519943295</v>
       </c>
       <c r="X25" s="23">
         <f>DEGREES(W25)</f>
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -23768,19 +24059,19 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-90</v>
+        <v>-92</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.6057029118347832</v>
       </c>
       <c r="N28" s="103">
         <f>COS(H28)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>-3.4899496702500955E-2</v>
       </c>
       <c r="O28" s="71">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="P28" s="71">
         <f>SIN(H28)*SIN(D28)</f>
@@ -23788,42 +24079,42 @@
       </c>
       <c r="Q28" s="104">
         <f>E28*COS(H28)</f>
-        <v>1.83772268236293E-14</v>
+        <v>-10.469849010750286</v>
       </c>
       <c r="R28" s="107">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-3.4369294928846945E-2</v>
       </c>
       <c r="S28" s="108">
-        <v>0.98480775301220802</v>
+        <v>0.98420783473768791</v>
       </c>
       <c r="T28" s="108">
-        <v>-0.17364817766693033</v>
+        <v>0.17364817766693033</v>
       </c>
       <c r="U28" s="109">
-        <v>2.1289207403269107E-14</v>
+        <v>-10.310788478654082</v>
       </c>
       <c r="V28" s="21">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>2.1289207403269107E-14</v>
+        <v>-10.310788478654082</v>
       </c>
       <c r="W28" s="24">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.3962634015954636</v>
+        <v>1.5707963267948948</v>
       </c>
       <c r="X28" s="23">
         <f>DEGREES(W28)</f>
-        <v>-80</v>
+        <v>89.999999999999901</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N29" s="103">
         <f>SIN(H28)</f>
-        <v>-1</v>
+        <v>-0.99939082701909576</v>
       </c>
       <c r="O29" s="71">
         <f>COS(H28)*COS(D28)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>-3.4899496702500955E-2</v>
       </c>
       <c r="P29" s="71">
         <f>-COS(H28)*SIN(D28)</f>
@@ -23831,31 +24122,31 @@
       </c>
       <c r="Q29" s="104">
         <f>E28*SIN(H28)</f>
-        <v>-300</v>
+        <v>-299.81724810572871</v>
       </c>
       <c r="R29" s="107">
-        <v>-4.9689545020929967E-17</v>
+        <v>6.0602340038822741E-3</v>
       </c>
       <c r="S29" s="108">
-        <v>0.17364817766693033</v>
+        <v>-0.17354239588891238</v>
       </c>
       <c r="T29" s="108">
         <v>0.98480775301220802</v>
       </c>
       <c r="U29" s="109">
-        <v>-1.4906863506278992E-14</v>
+        <v>1.8180702011646825</v>
       </c>
       <c r="V29" s="21">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>-1.4906863506278992E-14</v>
+        <v>1.8180702011646825</v>
       </c>
       <c r="W29" s="24">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5358897417550101</v>
       </c>
       <c r="X29" s="23">
         <f>DEGREES(W29)</f>
-        <v>-90</v>
+        <v>-88.000000000000014</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -23875,28 +24166,28 @@
         <v>0</v>
       </c>
       <c r="R30" s="107">
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="S30" s="108">
-        <v>-6.1257422745431001E-17</v>
+        <v>3.4899496702500955E-2</v>
       </c>
       <c r="T30" s="108">
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="U30" s="109">
-        <v>600</v>
+        <v>599.81724810572871</v>
       </c>
       <c r="V30" s="21">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>600</v>
+        <v>599.81724810572871</v>
       </c>
       <c r="W30" s="24">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>0</v>
+        <v>2.9670597283903621</v>
       </c>
       <c r="X30" s="23">
         <f>DEGREES(W30)</f>
-        <v>0</v>
+        <v>170.00000000000011</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -23952,23 +24243,23 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>0</v>
+        <v>-5.235987755982989E-2</v>
       </c>
       <c r="N33" s="11">
         <f>COS(H33)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="O33" s="12">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>0</v>
+        <v>3.2059657963603892E-18</v>
       </c>
       <c r="P33" s="12">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>0</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="Q33" s="13">
         <f>E33*COS(H33)</f>
@@ -23976,70 +24267,70 @@
       </c>
       <c r="R33" s="76">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-8.5831651177431301E-2</v>
       </c>
       <c r="S33" s="77">
-        <v>0.17364817766693039</v>
+        <v>-0.17364817766693028</v>
       </c>
       <c r="T33" s="77">
-        <v>0.98480775301220802</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="U33" s="78">
-        <v>2.1289207403269107E-14</v>
+        <v>-10.310788478654082</v>
       </c>
       <c r="V33" s="21">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>2.1289207403269107E-14</v>
+        <v>-10.310788478654082</v>
       </c>
       <c r="W33" s="24">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-2.9670597283903599</v>
+        <v>-6.4159268000441856E-16</v>
       </c>
       <c r="X33" s="23">
         <f>DEGREES(W33)</f>
-        <v>-169.99999999999997</v>
+        <v>-3.6760552730740746E-14</v>
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N34" s="11">
         <f>SIN(H33)</f>
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="O34" s="12">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1173471576534015E-17</v>
       </c>
       <c r="P34" s="12">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="Q34" s="13">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
       <c r="R34" s="76">
-        <v>-4.9689545020929967E-17</v>
+        <v>1.5134435901338558E-2</v>
       </c>
       <c r="S34" s="77">
         <v>-0.98480775301220802</v>
       </c>
       <c r="T34" s="77">
-        <v>0.17364817766693039</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="U34" s="78">
-        <v>-1.4906863506278992E-14</v>
+        <v>1.8180702011646825</v>
       </c>
       <c r="V34" s="21">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>-1.4906863506278992E-14</v>
+        <v>1.8180702011646825</v>
       </c>
       <c r="W34" s="24">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.4835298641951802</v>
       </c>
       <c r="X34" s="23">
         <f>DEGREES(W34)</f>
-        <v>-90</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.3">
@@ -24059,28 +24350,28 @@
         <v>0</v>
       </c>
       <c r="R35" s="76">
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="S35" s="77">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.591848656724567E-17</v>
       </c>
       <c r="T35" s="77">
-        <v>-6.1257422745431001E-17</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="U35" s="78">
-        <v>600</v>
+        <v>599.81724810572871</v>
       </c>
       <c r="V35" s="21">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>600</v>
+        <v>599.81724810572871</v>
       </c>
       <c r="W35" s="24">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>0</v>
+        <v>2.9670597283903608</v>
       </c>
       <c r="X35" s="23">
         <f>DEGREES(W35)</f>
-        <v>0</v>
+        <v>170.00000000000003</v>
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.3">
@@ -24137,23 +24428,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>0</v>
+        <v>6.9813170079773182E-2</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>1</v>
+        <v>0.9975640502598242</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>0</v>
+        <v>-4.273101801374442E-18</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>0</v>
+        <v>6.9756473744125302E-2</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -24161,70 +24452,70 @@
       </c>
       <c r="R38" s="14">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-9.7735654135185202E-2</v>
       </c>
       <c r="S38" s="15">
-        <v>0.98480775301220802</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="T38" s="15">
-        <v>-0.17364817766693033</v>
+        <v>0.16723786611188715</v>
       </c>
       <c r="U38" s="16">
-        <v>196.96155060244163</v>
+        <v>185.90126395942727</v>
       </c>
       <c r="V38" s="21">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>196.96155060244163</v>
+        <v>185.90126395942727</v>
       </c>
       <c r="W38" s="24">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-1.3962634015954636</v>
+        <v>0.89769158095818025</v>
       </c>
       <c r="X38" s="7">
         <f>DEGREES(W38)</f>
-        <v>-80</v>
+        <v>51.433938893330186</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>0</v>
+        <v>6.9756473744125302E-2</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1108202742410423E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-1</v>
+        <v>-0.9975640502598242</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <v>-4.9689545020929967E-17</v>
+        <v>-5.3599146989870144E-2</v>
       </c>
       <c r="S39" s="15">
-        <v>0.17364817766693033</v>
+        <v>-0.17298739392508947</v>
       </c>
       <c r="T39" s="15">
-        <v>0.98480775301220802</v>
+        <v>0.98346453570271875</v>
       </c>
       <c r="U39" s="16">
-        <v>34.729635533386066</v>
+        <v>-32.779408583853204</v>
       </c>
       <c r="V39" s="21">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>34.729635533386066</v>
+        <v>-32.779408583853204</v>
       </c>
       <c r="W39" s="24">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.4590961402553408</v>
       </c>
       <c r="X39" s="7">
         <f>DEGREES(W39)</f>
-        <v>-90</v>
+        <v>-83.600050740459452</v>
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.3">
@@ -24244,28 +24535,28 @@
         <v>200</v>
       </c>
       <c r="R40" s="14">
-        <v>1</v>
+        <v>0.99376801787576441</v>
       </c>
       <c r="S40" s="15">
-        <v>-6.1257422745431001E-17</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="T40" s="15">
-        <v>6.1257422745431001E-17</v>
+        <v>6.9491029301473731E-2</v>
       </c>
       <c r="U40" s="16">
-        <v>600</v>
+        <v>617.24839665526031</v>
       </c>
       <c r="V40" s="21">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>600</v>
+        <v>617.24839665526031</v>
       </c>
       <c r="W40" s="24">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>0</v>
+        <v>-2.6399714878691736</v>
       </c>
       <c r="X40" s="23">
         <f>DEGREES(W40)</f>
-        <v>0</v>
+        <v>-151.25922428977606</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -24319,23 +24610,23 @@
       </c>
       <c r="G43" s="1">
         <f>B19</f>
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>0</v>
+        <v>-8.7266462599716474E-2</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>0</v>
+        <v>5.3389361781853285E-18</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>0</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -24343,70 +24634,70 @@
       </c>
       <c r="R43" s="14">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-0.18286877629541726</v>
       </c>
       <c r="S43" s="15">
-        <v>0.17364817766693039</v>
+        <v>-0.1672378661118871</v>
       </c>
       <c r="T43" s="15">
-        <v>0.98480775301220802</v>
+        <v>0.96880880817350068</v>
       </c>
       <c r="U43" s="16">
-        <v>196.96155060244163</v>
+        <v>185.90126395942727</v>
       </c>
       <c r="V43" s="21">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>196.96155060244163</v>
+        <v>185.90126395942727</v>
       </c>
       <c r="W43" s="24">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-2.9670597283903599</v>
+        <v>-0.3810846014403374</v>
       </c>
       <c r="X43" s="7">
         <f>DEGREES(W43)</f>
-        <v>-169.99999999999997</v>
+        <v>-21.834539299956425</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>0</v>
+        <v>-8.7155742747658166E-2</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1024319757763067E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <v>-4.9689545020929967E-17</v>
+        <v>-3.8318341250025881E-2</v>
       </c>
       <c r="S44" s="15">
-        <v>-0.98480775301220802</v>
+        <v>-0.98346453570271875</v>
       </c>
       <c r="T44" s="15">
-        <v>0.17364817766693039</v>
+        <v>-0.17700059813142535</v>
       </c>
       <c r="U44" s="16">
-        <v>34.729635533386066</v>
+        <v>-32.779408583853204</v>
       </c>
       <c r="V44" s="21">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>34.729635533386066</v>
+        <v>-32.779408583853204</v>
       </c>
       <c r="W44" s="24">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.3828515445598624</v>
       </c>
       <c r="X44" s="7">
         <f>DEGREES(W44)</f>
-        <v>-90</v>
+        <v>-79.231557196427204</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -24426,28 +24717,28 @@
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <v>1</v>
+        <v>0.98239030704708363</v>
       </c>
       <c r="S45" s="15">
-        <v>-6.1257422745431001E-17</v>
+        <v>-6.9491029301473717E-2</v>
       </c>
       <c r="T45" s="15">
-        <v>-6.1257422745431001E-17</v>
+        <v>0.17343667855029543</v>
       </c>
       <c r="U45" s="16">
-        <v>600</v>
+        <v>617.24839665526031</v>
       </c>
       <c r="V45" s="21">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>600</v>
+        <v>617.24839665526031</v>
       </c>
       <c r="W45" s="24">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>0</v>
+        <v>-2.9350409773488884</v>
       </c>
       <c r="X45" s="23">
         <f>DEGREES(W45)</f>
-        <v>0</v>
+        <v>-168.16546070004355</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -24501,19 +24792,19 @@
       </c>
       <c r="G48" s="1">
         <f>B20</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0</v>
+        <v>0.10471975511965978</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>1</v>
+        <v>0.99452189536827329</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>0</v>
+        <v>-0.10452846326765347</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -24523,40 +24814,40 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="107">
+      <c r="R48" s="116">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>7.0964024677563694E-17</v>
-      </c>
-      <c r="S48" s="108">
-        <v>0.17364817766693039</v>
-      </c>
-      <c r="T48" s="108">
-        <v>0.98480775301220802</v>
+        <v>-0.19934811914983228</v>
+      </c>
+      <c r="S48" s="117">
+        <v>-0.14720672741714322</v>
+      </c>
+      <c r="T48" s="117">
+        <v>0.96880880817350068</v>
       </c>
       <c r="U48" s="109">
-        <v>246.20193825305205</v>
+        <v>234.34170436810228</v>
       </c>
       <c r="V48" s="21">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>246.20193825305205</v>
+        <v>234.34170436810228</v>
       </c>
       <c r="W48" s="110">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-2.9670597283903599</v>
+        <v>-0.78065192386777138</v>
       </c>
       <c r="X48" s="7">
         <f>DEGREES(W48)</f>
-        <v>-169.99999999999997</v>
+        <v>-44.728060506391358</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0</v>
+        <v>0.10452846326765347</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>1</v>
+        <v>0.99452189536827329</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -24566,29 +24857,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="107">
-        <v>-4.9689545020929967E-17</v>
-      </c>
-      <c r="S49" s="108">
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="T49" s="108">
-        <v>0.17364817766693039</v>
+      <c r="R49" s="116">
+        <v>-0.14090846596258555</v>
+      </c>
+      <c r="S49" s="117">
+        <v>-0.97407165674871599</v>
+      </c>
+      <c r="T49" s="117">
+        <v>-0.17700059813142535</v>
       </c>
       <c r="U49" s="109">
-        <v>43.412044416732584</v>
+        <v>-41.629438490424469</v>
       </c>
       <c r="V49" s="21">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>43.412044416732584</v>
+        <v>-41.629438490424469</v>
       </c>
       <c r="W49" s="110">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.3241835721572917</v>
       </c>
       <c r="X49" s="7">
         <f>DEGREES(W49)</f>
-        <v>-90</v>
+        <v>-75.870129985169925</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -24607,29 +24898,29 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="107">
-        <v>1</v>
-      </c>
-      <c r="S50" s="108">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="T50" s="108">
-        <v>-6.1257422745431001E-17</v>
+      <c r="R50" s="116">
+        <v>0.96974487965211498</v>
+      </c>
+      <c r="S50" s="117">
+        <v>-0.17179809929666373</v>
+      </c>
+      <c r="T50" s="117">
+        <v>0.17343667855029543</v>
       </c>
       <c r="U50" s="109">
-        <v>600</v>
+        <v>625.92023058277505</v>
       </c>
       <c r="V50" s="21">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>600</v>
+        <v>625.92023058277505</v>
       </c>
       <c r="W50" s="110">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>0</v>
+        <v>-2.5262866687723746</v>
       </c>
       <c r="X50" s="23">
         <f>DEGREES(W50)</f>
-        <v>0</v>
+        <v>-144.74556396082122</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -24645,13 +24936,13 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="107">
+      <c r="R51" s="116">
         <v>0</v>
       </c>
-      <c r="S51" s="108">
+      <c r="S51" s="117">
         <v>0</v>
       </c>
-      <c r="T51" s="108">
+      <c r="T51" s="117">
         <v>0</v>
       </c>
       <c r="U51" s="109">
@@ -24700,75 +24991,75 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>246.20193825305205</v>
+        <v>234.34170436810228</v>
       </c>
       <c r="D56" s="24">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-2.9670597283903599</v>
+        <v>-0.78065192386777138</v>
       </c>
       <c r="E56" s="23">
         <f>DEGREES(D56)</f>
-        <v>-169.99999999999997</v>
+        <v>-44.728060506391358</v>
       </c>
       <c r="F56" s="111">
         <f>D56+PI()</f>
-        <v>0.1745329251994332</v>
+        <v>2.3609407297220217</v>
       </c>
       <c r="G56" s="24">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>0.1745329251994332</v>
+        <v>2.3609407297220217</v>
       </c>
       <c r="H56" s="23">
         <f>DEGREES(G56)</f>
-        <v>10.000000000000014</v>
+        <v>135.27193949360864</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>43.412044416732584</v>
+        <v>-41.629438490424469</v>
       </c>
       <c r="D57" s="24">
-        <v>-1.5707963267948966</v>
+        <v>-1.3241835721572917</v>
       </c>
       <c r="E57" s="23">
         <f>DEGREES(D57)</f>
-        <v>-90</v>
+        <v>-75.870129985169925</v>
       </c>
       <c r="F57" s="111">
         <f>D57+PI()/2</f>
-        <v>0</v>
+        <v>0.2466127546376049</v>
       </c>
       <c r="G57" s="24">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>0</v>
+        <v>0.2466127546376049</v>
       </c>
       <c r="H57" s="23">
         <f>DEGREES(G57)</f>
-        <v>0</v>
+        <v>14.129870014830081</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>600</v>
+        <v>625.92023058277505</v>
       </c>
       <c r="D58" s="24">
-        <v>0</v>
+        <v>-2.5262866687723746</v>
       </c>
       <c r="E58" s="23">
         <f>DEGREES(D58)</f>
-        <v>0</v>
+        <v>-144.74556396082122</v>
       </c>
       <c r="F58" s="111">
         <f>D58</f>
-        <v>0</v>
+        <v>-2.5262866687723746</v>
       </c>
       <c r="G58" s="24">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>0</v>
+        <v>-2.5262866687723746</v>
       </c>
       <c r="H58" s="23">
         <f>DEGREES(G58)</f>
-        <v>0</v>
+        <v>-144.74556396082122</v>
       </c>
       <c r="P58" s="110"/>
     </row>
@@ -24779,152 +25070,158 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
-      <c r="F60" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" t="s">
-        <v>65</v>
-      </c>
+      <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B61" s="113">
-        <f>COS(D58)*COS(D57)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="C61" s="113">
-        <f>-COS(D57)*SIN(D58)</f>
-        <v>0</v>
-      </c>
-      <c r="D61" s="113">
-        <f>-SIN(D57)</f>
-        <v>1</v>
-      </c>
-      <c r="E61" s="27">
-        <f>C56</f>
-        <v>246.20193825305205</v>
-      </c>
-      <c r="F61" s="110">
-        <f>IF(F62=PI()/2,ATAN2(C62,C61),IF(-F62=PI()/2,-ATAN2(C62,C61),ATAN2(D63,C63)))</f>
-        <v>-1.5707963267948968</v>
-      </c>
-      <c r="G61" s="7">
-        <f>DEGREES(F61)</f>
-        <v>-90.000000000000014</v>
-      </c>
-      <c r="H61" s="111">
-        <f>F61+PI()</f>
-        <v>1.5707963267948963</v>
-      </c>
-      <c r="I61" s="24">
-        <f>IF(H61&gt;PI(),H61-2*PI(),H61)</f>
-        <v>1.5707963267948963</v>
-      </c>
-      <c r="J61" s="23">
-        <f>DEGREES(I61)</f>
-        <v>89.999999999999986</v>
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B62" s="113">
-        <f>-SIN(D56)*SIN(D57)*COS(D58)+COS(D56)*SIN(D58)</f>
-        <v>-0.17364817766693069</v>
+        <f>COS(D58)*COS(D57)</f>
+        <v>-0.19934811914983236</v>
       </c>
       <c r="C62" s="113">
-        <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-0.98480775301220802</v>
+        <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
+        <v>-0.14720672741714297</v>
       </c>
       <c r="D62" s="113">
-        <f>SIN(D56)*COS(D57)</f>
-        <v>-1.0637239828316884E-17</v>
-      </c>
-      <c r="E62" s="27">
-        <f>C57</f>
-        <v>43.412044416732584</v>
+        <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
+        <v>0.9688088081735009</v>
+      </c>
+      <c r="E62" s="113">
+        <f>C56</f>
+        <v>234.34170436810228</v>
       </c>
       <c r="F62" s="110">
-        <f>ATAN2(SQRT(B61^2+B62^2),-B63)</f>
-        <v>-1.3962634015954634</v>
+        <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
+        <v>-0.78065192386777138</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>-79.999999999999986</v>
+        <v>-44.728060506391358</v>
       </c>
       <c r="H62" s="111">
-        <f>F62+PI()/2</f>
-        <v>0.1745329251994332</v>
+        <f>F62+PI()</f>
+        <v>2.3609407297220217</v>
       </c>
       <c r="I62" s="24">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>0.1745329251994332</v>
+        <v>2.3609407297220217</v>
       </c>
       <c r="J62" s="23">
         <f>DEGREES(I62)</f>
-        <v>10.000000000000014</v>
+        <v>135.27193949360864</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B63" s="113">
-        <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="C63" s="113">
-        <f>-COS(D56)*SIN(D57)*SIN(D58)+SIN(D56)*COS(D58)</f>
-        <v>-0.17364817766693069</v>
+      <c r="B63" s="114">
+        <f>COS(D57)*SIN(D58)</f>
+        <v>-0.14090846596258566</v>
+      </c>
+      <c r="C63" s="114">
+        <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
+        <v>-0.97407165674871599</v>
       </c>
       <c r="D63" s="113">
-        <f>COS(D56)*COS(D57)</f>
-        <v>-6.032678484924683E-17</v>
-      </c>
-      <c r="E63" s="27">
-        <f>C58</f>
-        <v>600</v>
+        <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
+        <v>-0.17700059813142499</v>
+      </c>
+      <c r="E63" s="113">
+        <f>C57</f>
+        <v>-41.629438490424469</v>
       </c>
       <c r="F63" s="110">
-        <f>IF(ABS(F62)=PI()/2,0,ATAN2(B61,B62))</f>
-        <v>-1.5707963267948963</v>
-      </c>
-      <c r="G63" s="23">
+        <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
+        <v>-1.3241835721572917</v>
+      </c>
+      <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-89.999999999999986</v>
+        <v>-75.870129985169925</v>
       </c>
       <c r="H63" s="111">
-        <f>F63</f>
-        <v>-1.5707963267948963</v>
+        <f>F63+PI()/2</f>
+        <v>0.2466127546376049</v>
       </c>
       <c r="I63" s="24">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>-1.5707963267948963</v>
+        <v>0.2466127546376049</v>
       </c>
       <c r="J63" s="23">
         <f>DEGREES(I63)</f>
-        <v>-89.999999999999986</v>
+        <v>14.129870014830081</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B64">
+      <c r="B64" s="114">
+        <f>-SIN(D57)</f>
+        <v>0.96974487965211509</v>
+      </c>
+      <c r="C64" s="113">
+        <f>SIN(D56)*COS(D57)</f>
+        <v>-0.17179809929666384</v>
+      </c>
+      <c r="D64" s="113">
+        <f>COS(D56)*COS(D57)</f>
+        <v>0.17343667855029554</v>
+      </c>
+      <c r="E64" s="113">
+        <f>C58</f>
+        <v>625.92023058277505</v>
+      </c>
+      <c r="F64" s="110">
+        <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
+        <v>-2.5262866687723746</v>
+      </c>
+      <c r="G64" s="7">
+        <f>DEGREES(F64)</f>
+        <v>-144.74556396082122</v>
+      </c>
+      <c r="H64" s="111">
+        <f>F64</f>
+        <v>-2.5262866687723746</v>
+      </c>
+      <c r="I64" s="24">
+        <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
+        <v>-2.5262866687723746</v>
+      </c>
+      <c r="J64" s="23">
+        <f>DEGREES(I64)</f>
+        <v>-144.74556396082122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="113">
         <v>0</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C65" s="113">
         <v>0</v>
       </c>
-      <c r="D64">
+      <c r="D65" s="113">
         <v>0</v>
       </c>
-      <c r="E64">
+      <c r="E65" s="113">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -24932,29 +25229,78 @@
       <c r="F69">
         <v>0</v>
       </c>
+      <c r="I69" s="7">
+        <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
+        <v>185.90126395942724</v>
+      </c>
+      <c r="J69" s="7">
+        <v>185.90126395942724</v>
+      </c>
+      <c r="K69" s="7">
+        <v>185.90126395942724</v>
+      </c>
+      <c r="L69" s="7">
+        <v>185.90126395942724</v>
+      </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F70">
         <v>0</v>
       </c>
+      <c r="I70" s="7">
+        <v>-32.779408583853218</v>
+      </c>
+      <c r="J70" s="7">
+        <v>-32.779408583853218</v>
+      </c>
+      <c r="K70" s="7">
+        <v>-32.779408583853218</v>
+      </c>
+      <c r="L70" s="7">
+        <v>-32.779408583853218</v>
+      </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F71">
         <f>-F48</f>
         <v>-50</v>
       </c>
+      <c r="I71" s="7">
+        <v>617.24839665526031</v>
+      </c>
+      <c r="J71" s="7">
+        <v>617.24839665526031</v>
+      </c>
+      <c r="K71" s="7">
+        <v>617.24839665526031</v>
+      </c>
+      <c r="L71" s="7">
+        <v>617.24839665526031</v>
+      </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F72">
         <v>1</v>
       </c>
+      <c r="I72" s="7">
+        <v>1</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+      <c r="K72" s="7">
+        <v>1</v>
+      </c>
+      <c r="L72" s="7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>35</v>
       </c>
@@ -24965,65 +25311,32 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="5"/>
-      <c r="B76" s="8">
-        <f t="array" ref="B76:E79">MINVERSE(R48:U51)</f>
-        <v>7.0964024677563694E-17</v>
-      </c>
-      <c r="C76" s="8">
-        <v>-4.9689545020929967E-17</v>
-      </c>
-      <c r="D76" s="8">
-        <v>1</v>
-      </c>
-      <c r="E76" s="8">
-        <v>-600</v>
-      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B77" s="8">
-        <v>0.17364817766693041</v>
-      </c>
-      <c r="C77" s="8">
-        <v>-0.98480775301220813</v>
-      </c>
-      <c r="D77" s="8">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1.4430080055458136E-14</v>
-      </c>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B78" s="8">
-        <v>0.98480775301220813</v>
-      </c>
-      <c r="C78" s="8">
-        <v>0.17364817766693041</v>
-      </c>
-      <c r="D78" s="8">
-        <v>-6.1257422745431013E-17</v>
-      </c>
-      <c r="E78" s="8">
-        <v>-250.00000000000003</v>
-      </c>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B79" s="8">
-        <v>0</v>
-      </c>
-      <c r="C79" s="8">
-        <v>0</v>
-      </c>
-      <c r="D79" s="8">
-        <v>0</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1</v>
-      </c>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A80" s="18" t="s">
         <v>39</v>
       </c>
@@ -25041,62 +25354,60 @@
       <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="4">
-        <f>E61+F71*D61</f>
-        <v>196.20193825305205</v>
+      <c r="B83" s="27">
+        <f t="array" ref="B83:B86">L69:L72</f>
+        <v>185.90126395942724</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H83" s="24">
         <f>ATAN2(B83,B84)</f>
-        <v>0.2177537789342664</v>
+        <v>-0.17453292519943314</v>
       </c>
       <c r="I83" s="26">
         <f>DEGREES(H83)</f>
-        <v>12.476372505958198</v>
+        <v>-10.000000000000011</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>32</v>
       </c>
-      <c r="B84" s="4">
-        <f>E62+F71*D62</f>
-        <v>43.412044416732584</v>
+      <c r="B84">
+        <v>-32.779408583853218</v>
       </c>
       <c r="H84" s="24">
         <f>ATAN2(-B83,-B84)</f>
-        <v>-2.9238388746555266</v>
+        <v>2.9670597283903599</v>
       </c>
       <c r="I84" s="26">
         <f>DEGREES(H84)</f>
-        <v>-167.52362749404179</v>
+        <v>169.99999999999997</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="4">
-        <f>E63+F71*D63</f>
-        <v>600</v>
+      <c r="B85">
+        <v>617.24839665526031</v>
       </c>
       <c r="E85" t="s">
         <v>42</v>
       </c>
       <c r="G85" s="24">
         <f>IF(B87=1,H83,H84)</f>
-        <v>0.2177537789342664</v>
+        <v>-0.17453292519943314</v>
       </c>
       <c r="H85" s="26">
         <f>DEGREES(G85)</f>
-        <v>12.476372505958198</v>
+        <v>-10.000000000000011</v>
       </c>
       <c r="I85" s="18" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B86" s="4">
+      <c r="B86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
@@ -25104,11 +25415,11 @@
       </c>
       <c r="G86" s="24">
         <f>IF(B87=-1,H83,H84)</f>
-        <v>-2.9238388746555266</v>
+        <v>2.9670597283903599</v>
       </c>
       <c r="H86" s="26">
         <f>DEGREES(G86)</f>
-        <v>-167.52362749404179</v>
+        <v>169.99999999999997</v>
       </c>
       <c r="I86" s="18" t="str">
         <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25143,7 +25454,7 @@
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>200.94727212553749</v>
+        <v>188.76909060759877</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -25152,7 +25463,7 @@
       </c>
       <c r="L97" s="4">
         <f>E110</f>
-        <v>300</v>
+        <v>317.24839665526031</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -25161,31 +25472,31 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E110" s="22">
         <f>B85-F23</f>
-        <v>300</v>
+        <v>317.24839665526031</v>
       </c>
       <c r="M110" s="24">
         <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.58702785252926659</v>
+        <v>0.57165615699477501</v>
       </c>
       <c r="N110" s="23">
         <f>DEGREES(M110)</f>
-        <v>33.634218406555064</v>
+        <v>32.753485128468604</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>200.94727212553749</v>
+        <v>188.76909060759877</v>
       </c>
       <c r="I112" s="22"/>
       <c r="J112" s="22"/>
       <c r="M112" s="24">
         <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.5739613835350543</v>
+        <v>1.6231562043547259</v>
       </c>
       <c r="N112" s="25">
         <f>DEGREES(M112)</f>
-        <v>90.181344393130473</v>
+        <v>92.999999999999972</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -25209,7 +25520,7 @@
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
-        <v>361.08143980921369</v>
+        <v>369.16163769973878</v>
       </c>
       <c r="L115" t="s">
         <v>48</v>
@@ -25242,21 +25553,21 @@
       </c>
       <c r="M116" s="42">
         <f>ATAN2(M115*E112,(B85-F23))</f>
-        <v>0.98061089524819778</v>
+        <v>1.0340467548400085</v>
       </c>
       <c r="N116" s="43">
         <f>DEGREES(M116)</f>
-        <v>56.184865642267006</v>
+        <v>59.246514871531417</v>
       </c>
       <c r="O116" s="44"/>
       <c r="P116" s="44"/>
       <c r="Q116" s="45">
         <f>ATAN2(Q115*E112,(B85-F23))</f>
-        <v>2.1609817583415953</v>
+        <v>2.1075458987497848</v>
       </c>
       <c r="R116" s="43">
         <f>DEGREES(Q116)</f>
-        <v>123.81513435773299</v>
+        <v>120.7534851284686</v>
       </c>
       <c r="S116" s="46"/>
     </row>
@@ -25304,24 +25615,24 @@
       <c r="G120" s="1"/>
       <c r="M120" s="48">
         <f>PI()/2-(M116+M110)</f>
-        <v>3.1575790174320773E-3</v>
+        <v>-3.4906585039887084E-2</v>
       </c>
       <c r="N120" s="49">
         <f>DEGREES(M120)</f>
-        <v>0.18091595117792342</v>
+        <v>-2.0000000000000284</v>
       </c>
       <c r="O120" s="50" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
       <c r="P120" s="44"/>
       <c r="Q120" s="51">
         <f>PI()/2-(Q116+M110)</f>
-        <v>-1.1772132840759655</v>
+        <v>-1.1084057289496632</v>
       </c>
       <c r="R120" s="49">
         <f>DEGREES(Q120)</f>
-        <v>-67.449352764288065</v>
+        <v>-63.506970256937187</v>
       </c>
       <c r="S120" s="52" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25332,24 +25643,24 @@
       <c r="G121" s="1"/>
       <c r="M121" s="48">
         <f>PI()/2-M112</f>
-        <v>-3.1650567401577678E-3</v>
+        <v>-5.2359877559829293E-2</v>
       </c>
       <c r="N121" s="49">
         <f>DEGREES(M121)</f>
-        <v>-0.18134439313047457</v>
+        <v>-2.9999999999999662</v>
       </c>
       <c r="O121" s="50" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
       <c r="P121" s="44"/>
       <c r="Q121" s="51">
         <f>PI()/2-M112</f>
-        <v>-3.1650567401577678E-3</v>
+        <v>-5.2359877559829293E-2</v>
       </c>
       <c r="R121" s="49">
         <f>DEGREES(Q121)</f>
-        <v>-0.18134439313047457</v>
+        <v>-2.9999999999999662</v>
       </c>
       <c r="S121" s="52" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25400,11 +25711,11 @@
       </c>
       <c r="M126" s="48">
         <f>PI()/2-(M116-M110)</f>
-        <v>1.1772132840759655</v>
+        <v>1.1084057289496632</v>
       </c>
       <c r="N126" s="49">
         <f>DEGREES(M126)</f>
-        <v>67.449352764288065</v>
+        <v>63.506970256937187</v>
       </c>
       <c r="O126" s="50" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25413,11 +25724,11 @@
       <c r="P126" s="44"/>
       <c r="Q126" s="51">
         <f>PI()/2-(Q116-M110)</f>
-        <v>-3.1575790174320773E-3</v>
+        <v>3.490658503988664E-2</v>
       </c>
       <c r="R126" s="49">
         <f>DEGREES(Q126)</f>
-        <v>-0.18091595117792342</v>
+        <v>2.0000000000000027</v>
       </c>
       <c r="S126" s="52" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25428,11 +25739,11 @@
       <c r="A127" s="18"/>
       <c r="M127" s="55">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.1384275968496356</v>
+        <v>-3.0892327760299638</v>
       </c>
       <c r="N127" s="56">
         <f>DEGREES(M127)</f>
-        <v>-179.81865560686953</v>
+        <v>-177.00000000000003</v>
       </c>
       <c r="O127" s="57" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25441,11 +25752,11 @@
       <c r="P127" s="58"/>
       <c r="Q127" s="59">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.1384275968496356</v>
+        <v>-3.0892327760299638</v>
       </c>
       <c r="R127" s="56">
         <f>DEGREES(Q127)</f>
-        <v>-179.81865560686953</v>
+        <v>-177.00000000000003</v>
       </c>
       <c r="S127" s="60" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25476,25 +25787,25 @@
       <c r="I131" s="64"/>
       <c r="J131" s="65">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>1</v>
+        <v>0.98103251569073346</v>
       </c>
       <c r="K131" s="65">
-        <v>0</v>
+        <v>-0.17325138423531034</v>
       </c>
       <c r="L131" s="65">
-        <v>0</v>
+        <v>8.694343573875718E-2</v>
       </c>
       <c r="M131" s="88">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>1</v>
+        <v>0.98103251569073346</v>
       </c>
       <c r="N131" s="88">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>0</v>
+        <v>-0.17325138423531034</v>
       </c>
       <c r="O131" s="88">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>8.694343573875718E-2</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -25504,230 +25815,230 @@
       <c r="H132" s="64"/>
       <c r="I132" s="64"/>
       <c r="J132" s="65">
-        <v>0</v>
+        <v>0.17338418735670946</v>
       </c>
       <c r="K132" s="65">
-        <v>1</v>
+        <v>0.98483549951188121</v>
       </c>
       <c r="L132" s="65">
-        <v>0</v>
+        <v>6.0796772806267557E-3</v>
       </c>
       <c r="M132" s="88">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0</v>
+        <v>0.17338418735670946</v>
       </c>
       <c r="N132" s="88">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>1</v>
+        <v>0.98483549951188121</v>
       </c>
       <c r="O132" s="88">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>6.0796772806267557E-3</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J133" s="65">
-        <v>0</v>
+        <v>-8.6678294469630643E-2</v>
       </c>
       <c r="K133" s="65">
-        <v>0</v>
+        <v>9.1102558543636417E-3</v>
       </c>
       <c r="L133" s="65">
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="M133" s="88">
         <f>SIN(C19)*COS(C20)</f>
-        <v>0</v>
+        <v>-8.6678294469630643E-2</v>
       </c>
       <c r="N133" s="88">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>0</v>
+        <v>9.1102558543636417E-3</v>
       </c>
       <c r="O133" s="88">
         <f>COS(C19)</f>
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B136" s="67">
         <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-8.5831651177431301E-2</v>
       </c>
       <c r="C136" s="68">
-        <v>0.17364817766693039</v>
+        <v>-0.17364817766693028</v>
       </c>
       <c r="D136" s="69">
-        <v>0.98480775301220802</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="H136" s="67">
         <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-8.5831651177431301E-2</v>
       </c>
       <c r="I136" s="68">
-        <v>-4.9689545020929967E-17</v>
+        <v>1.5134435901338558E-2</v>
       </c>
       <c r="J136" s="69">
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="M136" s="79">
         <f t="array" ref="M136:O138">R48:T50</f>
-        <v>7.0964024677563694E-17</v>
+        <v>-0.19934811914983228</v>
       </c>
       <c r="N136" s="80">
-        <v>0.17364817766693039</v>
+        <v>-0.14720672741714322</v>
       </c>
       <c r="O136" s="81">
-        <v>0.98480775301220802</v>
+        <v>0.96880880817350068</v>
       </c>
       <c r="S136" s="79">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>1</v>
+        <v>0.98103251569073358</v>
       </c>
       <c r="T136" s="80">
-        <v>0</v>
+        <v>-0.17325138423531031</v>
       </c>
       <c r="U136" s="81">
-        <v>0</v>
+        <v>8.6943435738757166E-2</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B137" s="70">
-        <v>-4.9689545020929967E-17</v>
+        <v>1.5134435901338558E-2</v>
       </c>
       <c r="C137" s="71">
         <v>-0.98480775301220802</v>
       </c>
       <c r="D137" s="72">
-        <v>0.17364817766693039</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="H137" s="70">
-        <v>0.17364817766693039</v>
+        <v>-0.17364817766693028</v>
       </c>
       <c r="I137" s="71">
         <v>-0.98480775301220802</v>
       </c>
       <c r="J137" s="72">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.591848656724567E-17</v>
       </c>
       <c r="M137" s="82">
-        <v>-4.9689545020929967E-17</v>
+        <v>-0.14090846596258555</v>
       </c>
       <c r="N137" s="83">
-        <v>-0.98480775301220802</v>
+        <v>-0.97407165674871599</v>
       </c>
       <c r="O137" s="84">
-        <v>0.17364817766693039</v>
+        <v>-0.17700059813142535</v>
       </c>
       <c r="S137" s="82">
-        <v>0</v>
+        <v>0.17338418735670949</v>
       </c>
       <c r="T137" s="83">
-        <v>0.99999999999999989</v>
+        <v>0.98483549951188132</v>
       </c>
       <c r="U137" s="84">
-        <v>3.7524718414124473E-33</v>
+        <v>6.0796772806267956E-3</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="73">
-        <v>1</v>
+        <v>0.99619469809174555</v>
       </c>
       <c r="C138" s="74">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.591848656724567E-17</v>
       </c>
       <c r="D138" s="75">
-        <v>-6.1257422745431001E-17</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="H138" s="73">
-        <v>0.98480775301220802</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="I138" s="74">
-        <v>0.17364817766693039</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="J138" s="75">
-        <v>-6.1257422745431001E-17</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="M138" s="85">
-        <v>1</v>
+        <v>0.96974487965211498</v>
       </c>
       <c r="N138" s="86">
-        <v>-6.1257422745431001E-17</v>
+        <v>-0.17179809929666373</v>
       </c>
       <c r="O138" s="87">
-        <v>-6.1257422745431001E-17</v>
+        <v>0.17343667855029543</v>
       </c>
       <c r="S138" s="85">
-        <v>0</v>
+        <v>-8.6678294469630615E-2</v>
       </c>
       <c r="T138" s="86">
-        <v>3.7524718414124473E-33</v>
+        <v>9.1102558543636799E-3</v>
       </c>
       <c r="U138" s="87">
-        <v>0.99999999999999989</v>
+        <v>0.99619469809174521</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D142" s="66">
         <f>U138</f>
-        <v>0.99999999999999989</v>
+        <v>0.99619469809174521</v>
       </c>
       <c r="E142" s="5"/>
       <c r="G142" s="100">
         <f>ACOS(D142)</f>
-        <v>1.4901161193847656E-8</v>
+        <v>8.7266462599720152E-2</v>
       </c>
       <c r="H142" s="101">
         <f>DEGREES(G142)</f>
-        <v>8.5377364625159387E-7</v>
-      </c>
-      <c r="J142" s="114">
+        <v>5.0000000000002105</v>
+      </c>
+      <c r="J142" s="115">
         <f>ATAN2(D146,-D144)</f>
-        <v>-1.5707963267948966</v>
+        <v>-3.0368728984701328</v>
       </c>
       <c r="K142" s="101">
         <f>DEGREES(J142)</f>
-        <v>-90</v>
+        <v>-173.99999999999997</v>
       </c>
       <c r="N142" s="112">
         <f>ATAN2(-D150,-D148)</f>
-        <v>-1.5707963267948966</v>
+        <v>-3.0717794835100194</v>
       </c>
       <c r="O142" s="101">
         <f>DEGREES(N142)</f>
-        <v>-90</v>
+        <v>-175.99999999999997</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G143" s="100">
         <f>-ACOS(D142)</f>
-        <v>-1.4901161193847656E-8</v>
+        <v>-8.7266462599720152E-2</v>
       </c>
       <c r="H143" s="101">
         <f>DEGREES(G143)</f>
-        <v>-8.5377364625159387E-7</v>
+        <v>-5.0000000000002105</v>
       </c>
       <c r="J143" s="100">
         <f>ATAN2(D146,D144)</f>
-        <v>1.5707963267948966</v>
+        <v>3.0368728984701328</v>
       </c>
       <c r="K143" s="101">
         <f>DEGREES(J143)</f>
-        <v>90</v>
+        <v>173.99999999999997</v>
       </c>
       <c r="N143" s="112">
         <f>ATAN2(-D150,D148)</f>
-        <v>1.5707963267948966</v>
+        <v>3.0717794835100194</v>
       </c>
       <c r="O143" s="101">
         <f>DEGREES(N143)</f>
-        <v>90</v>
+        <v>175.99999999999997</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D144" s="89">
         <f>T138</f>
-        <v>3.7524718414124473E-33</v>
+        <v>9.1102558543636799E-3</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -25753,7 +26064,7 @@
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D146" s="90">
         <f>S138</f>
-        <v>0</v>
+        <v>-8.6678294469630615E-2</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -25775,7 +26086,7 @@
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D148" s="64">
         <f>U137</f>
-        <v>3.7524718414124473E-33</v>
+        <v>6.0796772806267956E-3</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -25801,7 +26112,7 @@
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D150" s="90">
         <f>U136</f>
-        <v>0</v>
+        <v>8.6943435738757166E-2</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -25834,10 +26145,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25860,6 +26171,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -660,9 +660,6 @@
     <t>Diagramm</t>
   </si>
   <si>
-    <t>RolloverFlag</t>
-  </si>
-  <si>
     <t>Solution I</t>
   </si>
   <si>
@@ -798,6 +795,9 @@
   </si>
   <si>
     <t>http://www-home.htwg-konstanz.de/~bittel/ain_robo/Vorlesung/02_PositionUndOrientierung.pdf</t>
+  </si>
+  <si>
+    <t>FlipFlag</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1338,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-32.779408583853218</c:v>
+                  <c:v>-32.779408583853211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8746,251 +8746,6 @@
                 <a:t>))</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>82026</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>121022</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="914400" cy="324320"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Textfeld 17"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="82026" y="13514293"/>
-              <a:ext cx="914400" cy="324320"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSup>
-                    <m:sSupPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSupPr>
-                    <m:e>
-                      <m:d>
-                        <m:dPr>
-                          <m:ctrlPr>
-                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                          </m:ctrlPr>
-                        </m:dPr>
-                        <m:e>
-                          <m:sSubSup>
-                            <m:sSubSupPr>
-                              <m:ctrlPr>
-                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                              </m:ctrlPr>
-                            </m:sSubSupPr>
-                            <m:e>
-                              <m:r>
-                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝑇</m:t>
-                              </m:r>
-                            </m:e>
-                            <m:sub>
-                              <m:r>
-                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>5</m:t>
-                              </m:r>
-                            </m:sub>
-                            <m:sup>
-                              <m:r>
-                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>6</m:t>
-                              </m:r>
-                            </m:sup>
-                          </m:sSubSup>
-                        </m:e>
-                      </m:d>
-                    </m:e>
-                    <m:sup>
-                      <m:r>
-                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝐼</m:t>
-                      </m:r>
-                    </m:sup>
-                  </m:sSup>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>=</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="18" name="Textfeld 17"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="82026" y="13514293"/>
-              <a:ext cx="914400" cy="324320"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑇_5^6</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> )^𝐼</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100"/>
-                <a:t>=</a:t>
-              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -22959,6 +22714,798 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="739139" cy="269304"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Textfeld 52"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9043036" y="25218390"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="53" name="Textfeld 52"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9043036" y="25218390"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="739139" cy="269304"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Textfeld 53"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9043036" y="25218390"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="54" name="Textfeld 53"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9043036" y="25218390"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="739139" cy="269304"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="Textfeld 54"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5949316" y="25189815"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="55" name="Textfeld 54"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5949316" y="25189815"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="739139" cy="269304"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="Textfeld 55"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5949316" y="25189815"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝜃</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>5</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                        <a:ea typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="56" name="Textfeld 55"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5949316" y="25189815"/>
+              <a:ext cx="739139" cy="269304"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23550,8 +24097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q117" sqref="Q117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23598,7 +24145,7 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="62">
         <f>B84</f>
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -23614,31 +24161,31 @@
       </c>
       <c r="G8" s="91">
         <f>V48</f>
-        <v>234.34170436810228</v>
+        <v>234.95427706894759</v>
       </c>
       <c r="H8" s="92">
         <f>X48</f>
-        <v>-44.728060506391358</v>
+        <v>63.259794644272887</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9" s="93">
         <f>V49</f>
-        <v>-41.629438490424469</v>
+        <v>-41.428778280107679</v>
       </c>
       <c r="H9" s="94">
         <f>X49</f>
-        <v>-75.870129985169925</v>
+        <v>-78.831047187645098</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="95">
         <f>V50</f>
-        <v>625.92023058277505</v>
+        <v>621.60618379264326</v>
       </c>
       <c r="H10" s="96">
         <f>X50</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -23648,7 +24195,7 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>40</v>
@@ -23657,10 +24204,10 @@
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="D14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
@@ -23676,7 +24223,7 @@
       </c>
       <c r="E15" s="23">
         <f>H85</f>
-        <v>-10.000000000000011</v>
+        <v>-10.000000000000009</v>
       </c>
       <c r="I15" s="23">
         <f>H86</f>
@@ -23753,19 +24300,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="33">
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="C18" s="24">
         <f t="shared" si="0"/>
-        <v>6.9813170079773182E-2</v>
+        <v>-6.9813170079773182E-2</v>
       </c>
       <c r="F18" s="97">
         <f>O142</f>
-        <v>-175.99999999999997</v>
+        <v>-121.23659196967553</v>
       </c>
       <c r="G18" s="31">
         <f>O143</f>
-        <v>175.99999999999997</v>
+        <v>58.763408030324477</v>
       </c>
       <c r="H18" s="23"/>
       <c r="V18">
@@ -23777,19 +24324,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="33">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C19" s="24">
         <f t="shared" si="0"/>
-        <v>-8.7266462599716474E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="98">
         <f>H142</f>
-        <v>5.0000000000002105</v>
+        <v>1.4787793323740617E-6</v>
       </c>
       <c r="G19" s="33">
         <f>H143</f>
-        <v>-5.0000000000002105</v>
+        <v>-1.4787793323740617E-6</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -23800,19 +24347,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="35">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="C20" s="24">
         <f t="shared" si="0"/>
-        <v>0.10471975511965978</v>
+        <v>-0.10471975511965978</v>
       </c>
       <c r="F20" s="99">
         <f>K142</f>
-        <v>-173.99999999999997</v>
+        <v>-20.556045219583467</v>
       </c>
       <c r="G20" s="35">
         <f>K143</f>
-        <v>173.99999999999997</v>
+        <v>159.44395478041653</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -23853,7 +24400,7 @@
         <v>23</v>
       </c>
       <c r="X22" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
@@ -24428,11 +24975,11 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>4</v>
+        <v>-4</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>6.9813170079773182E-2</v>
+        <v>-6.9813170079773182E-2</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
@@ -24440,11 +24987,11 @@
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-4.273101801374442E-18</v>
+        <v>4.273101801374442E-18</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>6.9756473744125302E-2</v>
+        <v>-6.9756473744125302E-2</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -24452,13 +24999,13 @@
       </c>
       <c r="R38" s="14">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>-9.7735654135185202E-2</v>
+        <v>-7.3509485042908357E-2</v>
       </c>
       <c r="S38" s="15">
         <v>0.98106026219040676</v>
       </c>
       <c r="T38" s="15">
-        <v>0.16723786611188715</v>
+        <v>0.17921249275543397</v>
       </c>
       <c r="U38" s="16">
         <v>185.90126395942727</v>
@@ -24469,17 +25016,17 @@
       </c>
       <c r="W38" s="24">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>0.89769158095818025</v>
+        <v>2.243901072631612</v>
       </c>
       <c r="X38" s="7">
         <f>DEGREES(W38)</f>
-        <v>51.433938893330186</v>
+        <v>128.56606110666976</v>
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>6.9756473744125302E-2</v>
+        <v>-6.9756473744125302E-2</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
@@ -24494,13 +25041,13 @@
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <v>-5.3599146989870144E-2</v>
+        <v>8.3794285342144115E-2</v>
       </c>
       <c r="S39" s="15">
         <v>-0.17298739392508947</v>
       </c>
       <c r="T39" s="15">
-        <v>0.98346453570271875</v>
+        <v>0.98135308594155091</v>
       </c>
       <c r="U39" s="16">
         <v>-32.779408583853204</v>
@@ -24541,7 +25088,7 @@
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="T40" s="15">
-        <v>6.9491029301473731E-2</v>
+        <v>-6.949102930147362E-2</v>
       </c>
       <c r="U40" s="16">
         <v>617.24839665526031</v>
@@ -24552,11 +25099,11 @@
       </c>
       <c r="W40" s="24">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-2.6399714878691736</v>
+        <v>2.2909056374703085</v>
       </c>
       <c r="X40" s="23">
         <f>DEGREES(W40)</f>
-        <v>-151.25922428977606</v>
+        <v>131.25922428977611</v>
       </c>
     </row>
     <row r="41" spans="1:24" x14ac:dyDescent="0.3">
@@ -24610,23 +25157,23 @@
       </c>
       <c r="G43" s="1">
         <f>B19</f>
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>-8.7266462599716474E-2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>5.3389361781853285E-18</v>
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>8.7155742747658166E-2</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -24634,13 +25181,13 @@
       </c>
       <c r="R43" s="14">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>-0.18286877629541726</v>
+        <v>-7.3509485042908357E-2</v>
       </c>
       <c r="S43" s="15">
-        <v>-0.1672378661118871</v>
+        <v>-0.17921249275543391</v>
       </c>
       <c r="T43" s="15">
-        <v>0.96880880817350068</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="U43" s="16">
         <v>185.90126395942727</v>
@@ -24651,38 +25198,38 @@
       </c>
       <c r="W43" s="24">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-0.3810846014403374</v>
+        <v>0.67310474583671565</v>
       </c>
       <c r="X43" s="7">
         <f>DEGREES(W43)</f>
-        <v>-21.834539299956425</v>
+        <v>38.566061106669778</v>
       </c>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>-8.7155742747658166E-2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1024319757763067E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="14">
-        <v>-3.8318341250025881E-2</v>
+        <v>8.3794285342144115E-2</v>
       </c>
       <c r="S44" s="15">
-        <v>-0.98346453570271875</v>
+        <v>-0.98135308594155091</v>
       </c>
       <c r="T44" s="15">
-        <v>-0.17700059813142535</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="U44" s="16">
         <v>-32.779408583853204</v>
@@ -24693,11 +25240,11 @@
       </c>
       <c r="W44" s="24">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.3828515445598624</v>
+        <v>-1.4590961402553408</v>
       </c>
       <c r="X44" s="7">
         <f>DEGREES(W44)</f>
-        <v>-79.231557196427204</v>
+        <v>-83.600050740459452</v>
       </c>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.3">
@@ -24717,13 +25264,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="14">
-        <v>0.98239030704708363</v>
+        <v>0.99376801787576441</v>
       </c>
       <c r="S45" s="15">
-        <v>-6.9491029301473717E-2</v>
+        <v>6.949102930147362E-2</v>
       </c>
       <c r="T45" s="15">
-        <v>0.17343667855029543</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="U45" s="16">
         <v>617.24839665526031</v>
@@ -24734,11 +25281,11 @@
       </c>
       <c r="W45" s="24">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-2.9350409773488884</v>
+        <v>2.2909056374703085</v>
       </c>
       <c r="X45" s="23">
         <f>DEGREES(W45)</f>
-        <v>-168.16546070004355</v>
+        <v>131.25922428977611</v>
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.3">
@@ -24792,11 +25339,11 @@
       </c>
       <c r="G48" s="1">
         <f>B20</f>
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0.10471975511965978</v>
+        <v>-0.10471975511965978</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
@@ -24804,7 +25351,7 @@
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>-0.10452846326765347</v>
+        <v>0.10452846326765347</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -24816,34 +25363,34 @@
       </c>
       <c r="R48" s="116">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>-0.19934811914983228</v>
+        <v>-5.4373985926327958E-2</v>
       </c>
       <c r="S48" s="117">
-        <v>-0.14720672741714322</v>
+        <v>-0.18591458147593887</v>
       </c>
       <c r="T48" s="117">
-        <v>0.96880880817350068</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="U48" s="109">
-        <v>234.34170436810228</v>
+        <v>234.95427706894759</v>
       </c>
       <c r="V48" s="21">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>234.34170436810228</v>
+        <v>234.95427706894759</v>
       </c>
       <c r="W48" s="110">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-0.78065192386777138</v>
+        <v>1.1040917006780369</v>
       </c>
       <c r="X48" s="7">
         <f>DEGREES(W48)</f>
-        <v>-44.728060506391358</v>
+        <v>63.259794644272887</v>
       </c>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0.10452846326765347</v>
+        <v>-0.10452846326765347</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
@@ -24858,28 +25405,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="116">
-        <v>-0.14090846596258555</v>
+        <v>0.18591458147593887</v>
       </c>
       <c r="S49" s="117">
-        <v>-0.97407165674871599</v>
+        <v>-0.96721824317866956</v>
       </c>
       <c r="T49" s="117">
-        <v>-0.17700059813142535</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="U49" s="109">
-        <v>-41.629438490424469</v>
+        <v>-41.428778280107679</v>
       </c>
       <c r="V49" s="21">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>-41.629438490424469</v>
+        <v>-41.428778280107679</v>
       </c>
       <c r="W49" s="110">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.3241835721572917</v>
+        <v>-1.375861326219423</v>
       </c>
       <c r="X49" s="7">
         <f>DEGREES(W49)</f>
-        <v>-75.870129985169925</v>
+        <v>-78.831047187645098</v>
       </c>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.3">
@@ -24899,28 +25446,28 @@
         <v>50</v>
       </c>
       <c r="R50" s="116">
-        <v>0.96974487965211498</v>
+        <v>0.98106026219040687</v>
       </c>
       <c r="S50" s="117">
-        <v>-0.17179809929666373</v>
+        <v>0.17298739392508941</v>
       </c>
       <c r="T50" s="117">
-        <v>0.17343667855029543</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="U50" s="109">
-        <v>625.92023058277505</v>
+        <v>621.60618379264326</v>
       </c>
       <c r="V50" s="21">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>625.92023058277505</v>
+        <v>621.60618379264326</v>
       </c>
       <c r="W50" s="110">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="X50" s="23">
         <f>DEGREES(W50)</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.3">
@@ -24979,10 +25526,10 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.3">
@@ -24991,75 +25538,75 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>234.34170436810228</v>
+        <v>234.95427706894759</v>
       </c>
       <c r="D56" s="24">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-0.78065192386777138</v>
+        <v>1.1040917006780369</v>
       </c>
       <c r="E56" s="23">
         <f>DEGREES(D56)</f>
-        <v>-44.728060506391358</v>
+        <v>63.259794644272887</v>
       </c>
       <c r="F56" s="111">
         <f>D56+PI()</f>
-        <v>2.3609407297220217</v>
+        <v>4.24568435426783</v>
       </c>
       <c r="G56" s="24">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>2.3609407297220217</v>
+        <v>-2.0375009529117563</v>
       </c>
       <c r="H56" s="23">
         <f>DEGREES(G56)</f>
-        <v>135.27193949360864</v>
+        <v>-116.74020535572711</v>
       </c>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>-41.629438490424469</v>
+        <v>-41.428778280107679</v>
       </c>
       <c r="D57" s="24">
-        <v>-1.3241835721572917</v>
+        <v>-1.375861326219423</v>
       </c>
       <c r="E57" s="23">
         <f>DEGREES(D57)</f>
-        <v>-75.870129985169925</v>
+        <v>-78.831047187645098</v>
       </c>
       <c r="F57" s="111">
         <f>D57+PI()/2</f>
-        <v>0.2466127546376049</v>
+        <v>0.19493500057547353</v>
       </c>
       <c r="G57" s="24">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>0.2466127546376049</v>
+        <v>0.19493500057547353</v>
       </c>
       <c r="H57" s="23">
         <f>DEGREES(G57)</f>
-        <v>14.129870014830081</v>
+        <v>11.168952812354908</v>
       </c>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>625.92023058277505</v>
+        <v>621.60618379264326</v>
       </c>
       <c r="D58" s="24">
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="E58" s="23">
         <f>DEGREES(D58)</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
       <c r="F58" s="111">
         <f>D58</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="G58" s="24">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="H58" s="23">
         <f>DEGREES(G58)</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
       <c r="P58" s="110"/>
     </row>
@@ -25074,127 +25621,127 @@
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B62" s="113">
         <f>COS(D58)*COS(D57)</f>
-        <v>-0.19934811914983236</v>
+        <v>-5.4373985926327958E-2</v>
       </c>
       <c r="C62" s="113">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>-0.14720672741714297</v>
+        <v>-0.18591458147593892</v>
       </c>
       <c r="D62" s="113">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.9688088081735009</v>
+        <v>0.98106026219040698</v>
       </c>
       <c r="E62" s="113">
         <f>C56</f>
-        <v>234.34170436810228</v>
+        <v>234.95427706894759</v>
       </c>
       <c r="F62" s="110">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>-0.78065192386777138</v>
+        <v>1.1040917006780369</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>-44.728060506391358</v>
+        <v>63.259794644272887</v>
       </c>
       <c r="H62" s="111">
         <f>F62+PI()</f>
-        <v>2.3609407297220217</v>
+        <v>4.24568435426783</v>
       </c>
       <c r="I62" s="24">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>2.3609407297220217</v>
+        <v>-2.0375009529117563</v>
       </c>
       <c r="J62" s="23">
         <f>DEGREES(I62)</f>
-        <v>135.27193949360864</v>
+        <v>-116.74020535572711</v>
       </c>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B63" s="114">
         <f>COS(D57)*SIN(D58)</f>
-        <v>-0.14090846596258566</v>
+        <v>0.18591458147593892</v>
       </c>
       <c r="C63" s="114">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-0.97407165674871599</v>
+        <v>-0.96721824317866978</v>
       </c>
       <c r="D63" s="113">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>-0.17700059813142499</v>
+        <v>-0.17298739392508938</v>
       </c>
       <c r="E63" s="113">
         <f>C57</f>
-        <v>-41.629438490424469</v>
+        <v>-41.428778280107679</v>
       </c>
       <c r="F63" s="110">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.3241835721572917</v>
+        <v>-1.375861326219423</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-75.870129985169925</v>
+        <v>-78.831047187645098</v>
       </c>
       <c r="H63" s="111">
         <f>F63+PI()/2</f>
-        <v>0.2466127546376049</v>
+        <v>0.19493500057547353</v>
       </c>
       <c r="I63" s="24">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>0.2466127546376049</v>
+        <v>0.19493500057547353</v>
       </c>
       <c r="J63" s="23">
         <f>DEGREES(I63)</f>
-        <v>14.129870014830081</v>
+        <v>11.168952812354908</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B64" s="114">
         <f>-SIN(D57)</f>
-        <v>0.96974487965211509</v>
+        <v>0.98106026219040687</v>
       </c>
       <c r="C64" s="113">
         <f>SIN(D56)*COS(D57)</f>
-        <v>-0.17179809929666384</v>
+        <v>0.17298739392508944</v>
       </c>
       <c r="D64" s="113">
         <f>COS(D56)*COS(D57)</f>
-        <v>0.17343667855029554</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="E64" s="113">
         <f>C58</f>
-        <v>625.92023058277505</v>
+        <v>621.60618379264326</v>
       </c>
       <c r="F64" s="110">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
       <c r="H64" s="111">
         <f>F64</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="I64" s="24">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>-2.5262866687723746</v>
+        <v>1.855328389782541</v>
       </c>
       <c r="J64" s="23">
         <f>DEGREES(I64)</f>
-        <v>-144.74556396082122</v>
+        <v>106.30248634534253</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -25248,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
       <c r="J70" s="7">
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
       <c r="K70" s="7">
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
       <c r="L70" s="7">
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -25363,11 +25910,11 @@
       </c>
       <c r="H83" s="24">
         <f>ATAN2(B83,B84)</f>
-        <v>-0.17453292519943314</v>
+        <v>-0.17453292519943311</v>
       </c>
       <c r="I83" s="26">
         <f>DEGREES(H83)</f>
-        <v>-10.000000000000011</v>
+        <v>-10.000000000000009</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -25375,7 +25922,7 @@
         <v>32</v>
       </c>
       <c r="B84">
-        <v>-32.779408583853218</v>
+        <v>-32.779408583853211</v>
       </c>
       <c r="H84" s="24">
         <f>ATAN2(-B83,-B84)</f>
@@ -25395,11 +25942,11 @@
       </c>
       <c r="G85" s="24">
         <f>IF(B87=1,H83,H84)</f>
-        <v>-0.17453292519943314</v>
+        <v>-0.17453292519943311</v>
       </c>
       <c r="H85" s="26">
         <f>DEGREES(G85)</f>
-        <v>-10.000000000000011</v>
+        <v>-10.000000000000009</v>
       </c>
       <c r="I85" s="18" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -25442,7 +25989,7 @@
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
@@ -25508,22 +26055,22 @@
     </row>
     <row r="114" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M114" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q114" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="Q114" s="38" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
         <v>369.16163769973878</v>
       </c>
       <c r="L115" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="M115" s="39">
         <f>IF(B87=1,1,-1)</f>
@@ -25541,7 +26088,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E116" s="7">
         <f>E28</f>
@@ -25549,10 +26096,10 @@
       </c>
       <c r="F116" s="5"/>
       <c r="L116" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M116" s="42">
-        <f>ATAN2(M115*E112,(B85-F23))</f>
+        <f>ATAN2(M115*E112,E110)</f>
         <v>1.0340467548400085</v>
       </c>
       <c r="N116" s="43">
@@ -25562,7 +26109,7 @@
       <c r="O116" s="44"/>
       <c r="P116" s="44"/>
       <c r="Q116" s="45">
-        <f>ATAN2(Q115*E112,(B85-F23))</f>
+        <f>ATAN2(Q115*E112,E110)</f>
         <v>2.1075458987497848</v>
       </c>
       <c r="R116" s="43">
@@ -25573,7 +26120,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E117" s="7">
         <f>F38</f>
@@ -25610,7 +26157,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G120" s="1"/>
       <c r="M120" s="48">
@@ -25707,7 +26254,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M126" s="48">
         <f>PI()/2-(M116-M110)</f>
@@ -25765,7 +26312,7 @@
     </row>
     <row r="129" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
       <c r="A129" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -25773,10 +26320,10 @@
       <c r="F130" s="64"/>
       <c r="G130" s="64"/>
       <c r="J130" t="s">
+        <v>53</v>
+      </c>
+      <c r="M130" t="s">
         <v>54</v>
-      </c>
-      <c r="M130" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
@@ -25787,25 +26334,25 @@
       <c r="I131" s="64"/>
       <c r="J131" s="65">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.98103251569073346</v>
+        <v>0.98480775301220791</v>
       </c>
       <c r="K131" s="65">
-        <v>-0.17325138423531034</v>
+        <v>0.17364817766693036</v>
       </c>
       <c r="L131" s="65">
-        <v>8.694343573875718E-2</v>
+        <v>0</v>
       </c>
       <c r="M131" s="88">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.98103251569073346</v>
+        <v>0.98480775301220791</v>
       </c>
       <c r="N131" s="88">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-0.17325138423531034</v>
+        <v>0.17364817766693036</v>
       </c>
       <c r="O131" s="88">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>8.694343573875718E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -25815,48 +26362,48 @@
       <c r="H132" s="64"/>
       <c r="I132" s="64"/>
       <c r="J132" s="65">
-        <v>0.17338418735670946</v>
+        <v>-0.17364817766693036</v>
       </c>
       <c r="K132" s="65">
-        <v>0.98483549951188121</v>
+        <v>0.98480775301220791</v>
       </c>
       <c r="L132" s="65">
-        <v>6.0796772806267557E-3</v>
+        <v>0</v>
       </c>
       <c r="M132" s="88">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0.17338418735670946</v>
+        <v>-0.17364817766693036</v>
       </c>
       <c r="N132" s="88">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.98483549951188121</v>
+        <v>0.98480775301220791</v>
       </c>
       <c r="O132" s="88">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>6.0796772806267557E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J133" s="65">
-        <v>-8.6678294469630643E-2</v>
+        <v>0</v>
       </c>
       <c r="K133" s="65">
-        <v>9.1102558543636417E-3</v>
+        <v>0</v>
       </c>
       <c r="L133" s="65">
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
       <c r="M133" s="88">
         <f>SIN(C19)*COS(C20)</f>
-        <v>-8.6678294469630643E-2</v>
+        <v>0</v>
       </c>
       <c r="N133" s="88">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>9.1102558543636417E-3</v>
+        <v>0</v>
       </c>
       <c r="O133" s="88">
         <f>COS(C19)</f>
-        <v>0.99619469809174555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -25883,23 +26430,23 @@
       </c>
       <c r="M136" s="79">
         <f t="array" ref="M136:O138">R48:T50</f>
-        <v>-0.19934811914983228</v>
+        <v>-5.4373985926327958E-2</v>
       </c>
       <c r="N136" s="80">
-        <v>-0.14720672741714322</v>
+        <v>-0.18591458147593887</v>
       </c>
       <c r="O136" s="81">
-        <v>0.96880880817350068</v>
+        <v>0.98106026219040676</v>
       </c>
       <c r="S136" s="79">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.98103251569073358</v>
+        <v>0.98480775301220802</v>
       </c>
       <c r="T136" s="80">
-        <v>-0.17325138423531031</v>
+        <v>0.17364817766693036</v>
       </c>
       <c r="U136" s="81">
-        <v>8.6943435738757166E-2</v>
+        <v>1.3877787807814457E-17</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
@@ -25922,22 +26469,22 @@
         <v>-5.591848656724567E-17</v>
       </c>
       <c r="M137" s="82">
-        <v>-0.14090846596258555</v>
+        <v>0.18591458147593887</v>
       </c>
       <c r="N137" s="83">
-        <v>-0.97407165674871599</v>
+        <v>-0.96721824317866956</v>
       </c>
       <c r="O137" s="84">
-        <v>-0.17700059813142535</v>
+        <v>-0.17298739392508941</v>
       </c>
       <c r="S137" s="82">
-        <v>0.17338418735670949</v>
+        <v>-0.17364817766693033</v>
       </c>
       <c r="T137" s="83">
-        <v>0.98483549951188132</v>
+        <v>0.9848077530122078</v>
       </c>
       <c r="U137" s="84">
-        <v>6.0796772806267956E-3</v>
+        <v>2.2881958385535671E-17</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25960,111 +26507,111 @@
         <v>8.7155742747658166E-2</v>
       </c>
       <c r="M138" s="85">
-        <v>0.96974487965211498</v>
+        <v>0.98106026219040687</v>
       </c>
       <c r="N138" s="86">
-        <v>-0.17179809929666373</v>
+        <v>0.17298739392508941</v>
       </c>
       <c r="O138" s="87">
-        <v>0.17343667855029543</v>
+        <v>8.7155742747658166E-2</v>
       </c>
       <c r="S138" s="85">
-        <v>-8.6678294469630615E-2</v>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="T138" s="86">
-        <v>9.1102558543636799E-3</v>
+        <v>5.2041704279304213E-18</v>
       </c>
       <c r="U138" s="87">
-        <v>0.99619469809174521</v>
+        <v>0.99999999999999967</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D142" s="66">
         <f>U138</f>
-        <v>0.99619469809174521</v>
+        <v>0.99999999999999967</v>
       </c>
       <c r="E142" s="5"/>
       <c r="G142" s="100">
         <f>ACOS(D142)</f>
-        <v>8.7266462599720152E-2</v>
+        <v>2.5809568260370952E-8</v>
       </c>
       <c r="H142" s="101">
         <f>DEGREES(G142)</f>
-        <v>5.0000000000002105</v>
-      </c>
-      <c r="J142" s="115">
-        <f>ATAN2(D146,-D144)</f>
-        <v>-3.0368728984701328</v>
+        <v>1.4787793323740617E-6</v>
+      </c>
+      <c r="J142" s="100">
+        <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
+        <v>-0.35877067027057225</v>
       </c>
       <c r="K142" s="101">
         <f>DEGREES(J142)</f>
-        <v>-173.99999999999997</v>
-      </c>
-      <c r="N142" s="112">
-        <f>ATAN2(-D150,-D148)</f>
-        <v>-3.0717794835100194</v>
+        <v>-20.556045219583467</v>
+      </c>
+      <c r="N142" s="2">
+        <f>ATAN2(-D150/SIN(G142),-D148/SIN(G142))</f>
+        <v>-2.1159777037677552</v>
       </c>
       <c r="O142" s="101">
         <f>DEGREES(N142)</f>
-        <v>-175.99999999999997</v>
+        <v>-121.23659196967553</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G143" s="100">
         <f>-ACOS(D142)</f>
-        <v>-8.7266462599720152E-2</v>
+        <v>-2.5809568260370952E-8</v>
       </c>
       <c r="H143" s="101">
         <f>DEGREES(G143)</f>
-        <v>-5.0000000000002105</v>
+        <v>-1.4787793323740617E-6</v>
       </c>
       <c r="J143" s="100">
-        <f>ATAN2(D146,D144)</f>
-        <v>3.0368728984701328</v>
+        <f>IF(SIN(G143)=0,ATAN2(D146,D144),ATAN2(D146/SIN(G143),D144/SIN(G142)))</f>
+        <v>2.7828219833192209</v>
       </c>
       <c r="K143" s="101">
         <f>DEGREES(J143)</f>
-        <v>173.99999999999997</v>
-      </c>
-      <c r="N143" s="112">
-        <f>ATAN2(-D150,D148)</f>
-        <v>3.0717794835100194</v>
+        <v>159.44395478041653</v>
+      </c>
+      <c r="N143" s="2">
+        <f>ATAN2(-D150/SIN(G143),D148/SIN(G142))</f>
+        <v>1.0256149498220379</v>
       </c>
       <c r="O143" s="101">
         <f>DEGREES(N143)</f>
-        <v>175.99999999999997</v>
+        <v>58.763408030324477</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D144" s="89">
         <f>T138</f>
-        <v>9.1102558543636799E-3</v>
+        <v>5.2041704279304213E-18</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
+      <c r="J144" s="115"/>
+      <c r="K144" s="101"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
+      <c r="N144" s="112"/>
+      <c r="O144" s="101"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
+      <c r="J145" s="100"/>
+      <c r="K145" s="101"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
+      <c r="N145" s="112"/>
+      <c r="O145" s="101"/>
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" s="90">
+      <c r="D146" s="64">
         <f>S138</f>
-        <v>-8.6678294469630615E-2</v>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -26086,7 +26633,7 @@
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D148" s="64">
         <f>U137</f>
-        <v>6.0796772806267956E-3</v>
+        <v>2.2881958385535671E-17</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26112,7 +26659,7 @@
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D150" s="90">
         <f>U136</f>
-        <v>8.6943435738757166E-2</v>
+        <v>1.3877787807814457E-17</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -26133,7 +26680,7 @@
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -26168,12 +26715,12 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -151,32 +151,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Unterarm (T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3-4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>a[°]</t>
   </si>
   <si>
@@ -276,32 +250,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>1-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Ellbogen  (T</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-3</t>
     </r>
     <r>
       <rPr>
@@ -799,6 +747,76 @@
   <si>
     <t>FlipFlag</t>
   </si>
+  <si>
+    <r>
+      <t>Unterarm  (T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2-3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Ellbogen  (T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3-4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Gier</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
 </sst>
 </file>
 
@@ -818,8 +836,8 @@
     <numFmt numFmtId="173" formatCode="0.00000"/>
     <numFmt numFmtId="174" formatCode="0.0000"/>
     <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="0.000\ &quot;RAD&quot;"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1107,9 +1125,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1168,15 +1183,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1211,14 +1218,25 @@
     <xf numFmtId="175" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1323,10 +1341,10 @@
             <c:numRef>
               <c:f>Kinematik!$B$83</c:f>
               <c:numCache>
-                <c:formatCode>_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* "-"??\ _€_-;_-@_-</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>185.90126395942724</c:v>
+                  <c:v>209.99883571694619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,10 +1353,10 @@
             <c:numRef>
               <c:f>Kinematik!$B$84</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-32.779408583853211</c:v>
+                  <c:v>-4.6797418370991828E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,11 +1371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158755456"/>
-        <c:axId val="158762880"/>
+        <c:axId val="260545536"/>
+        <c:axId val="265929856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158755456"/>
+        <c:axId val="260545536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1391,17 +1409,17 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158762880"/>
+        <c:crossAx val="265929856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158762880"/>
+        <c:axId val="265929856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1436,11 +1454,11 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158755456"/>
+        <c:crossAx val="260545536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1506,7 +1524,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>188.76909060759877</c:v>
+                  <c:v>209.99883571694619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1521,7 +1539,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>317.24839665526031</c:v>
+                  <c:v>299.97295054352344</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,11 +1554,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="174155648"/>
-        <c:axId val="174157184"/>
+        <c:axId val="266228864"/>
+        <c:axId val="266230400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="174155648"/>
+        <c:axId val="266228864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1552,13 +1570,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174157184"/>
+        <c:crossAx val="266230400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174157184"/>
+        <c:axId val="266230400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1571,7 +1589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174155648"/>
+        <c:crossAx val="266228864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -12632,7 +12650,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>758712</xdr:colOff>
+      <xdr:colOff>642170</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>136782</xdr:rowOff>
     </xdr:to>
@@ -19406,7 +19424,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>135548</xdr:colOff>
+      <xdr:colOff>135547</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5782</xdr:rowOff>
     </xdr:to>
@@ -22287,8 +22305,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="Textfeld 48"/>
@@ -22410,7 +22428,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="Textfeld 48"/>
@@ -22477,8 +22495,8 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1093695" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="Textfeld 49"/>
@@ -22655,7 +22673,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="Textfeld 49"/>
@@ -22722,8 +22740,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="Textfeld 52"/>
@@ -22824,7 +22842,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="Textfeld 52"/>
@@ -22920,8 +22938,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="Textfeld 53"/>
@@ -23022,7 +23040,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="Textfeld 53"/>
@@ -23118,8 +23136,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="Textfeld 54"/>
@@ -23220,7 +23238,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="Textfeld 54"/>
@@ -23316,8 +23334,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="Textfeld 55"/>
@@ -23418,7 +23436,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="Textfeld 55"/>
@@ -24095,17 +24113,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X152"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q117" sqref="Q117"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" customWidth="1"/>
@@ -24125,241 +24143,243 @@
     <col min="21" max="21" width="15.21875" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.44140625" customWidth="1"/>
+    <col min="24" max="24" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
-        <v>30</v>
+      <c r="A1" s="25" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="61">
+        <v>30</v>
+      </c>
+      <c r="G4" s="58">
         <f>B83</f>
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G5" s="62">
+      <c r="G5" s="59">
         <f>B84</f>
-        <v>-32.779408583853211</v>
+        <v>-4.6797418370991828E-15</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="63">
+      <c r="G6" s="60">
         <f>B85</f>
-        <v>617.24839665526031</v>
+        <v>599.97295054352344</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="91">
+        <v>27</v>
+      </c>
+      <c r="G8" s="80">
         <f>V48</f>
-        <v>234.95427706894759</v>
-      </c>
-      <c r="H8" s="92">
+        <v>259.99882353217373</v>
+      </c>
+      <c r="H8" s="81">
         <f>X48</f>
-        <v>63.259794644272887</v>
+        <v>89.960000000000065</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G9" s="93">
+      <c r="G9" s="82">
         <f>V49</f>
-        <v>-41.428778280107679</v>
-      </c>
-      <c r="H9" s="94">
+        <v>-8.7266462602735538E-5</v>
+      </c>
+      <c r="H9" s="83">
         <f>X49</f>
-        <v>-78.831047187645098</v>
+        <v>-6.981317142586244E-8</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="95">
+      <c r="G10" s="84">
         <f>V50</f>
-        <v>621.60618379264326</v>
-      </c>
-      <c r="H10" s="96">
+        <v>600.00785712572781</v>
+      </c>
+      <c r="H10" s="85">
         <f>X50</f>
-        <v>106.30248634534253</v>
+        <v>89.999900000024368</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="R11" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>40</v>
+      <c r="A13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="D14" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>63</v>
+      <c r="D14" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="31">
-        <v>-10</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="B15" s="28">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
         <f>RADIANS(B15)</f>
-        <v>-0.17453292519943295</v>
-      </c>
-      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="E15" s="20">
         <f>H85</f>
-        <v>-10.000000000000009</v>
-      </c>
-      <c r="I15" s="23">
+        <v>-1.276814014521436E-15</v>
+      </c>
+      <c r="I15" s="20">
         <f>H86</f>
-        <v>169.99999999999997</v>
-      </c>
-      <c r="J15" s="29" t="s">
-        <v>44</v>
+        <v>180</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="33">
-        <v>-2</v>
-      </c>
-      <c r="C16" s="24">
-        <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
-        <v>-3.4906585039886591E-2</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="B16" s="30">
+        <f>1.91</f>
+        <v>1.91</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" ref="C16:C21" si="0">RADIANS(B16)</f>
+        <v>3.3335788713091695E-2</v>
+      </c>
+      <c r="D16" s="33">
         <f>N120</f>
-        <v>-2.0000000000000284</v>
-      </c>
-      <c r="E16" s="36">
+        <v>1.9100000000000084</v>
+      </c>
+      <c r="E16" s="33">
         <f>N126</f>
-        <v>63.506970256937187</v>
-      </c>
-      <c r="H16" s="36">
+        <v>68.07859623046491</v>
+      </c>
+      <c r="H16" s="33">
         <f>R120</f>
-        <v>-63.506970256937187</v>
-      </c>
-      <c r="I16" s="36">
+        <v>-68.078596230464939</v>
+      </c>
+      <c r="I16" s="33">
         <f>R126</f>
-        <v>2.0000000000000027</v>
+        <v>-1.9100000000000084</v>
       </c>
       <c r="V16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="33">
-        <v>-3</v>
-      </c>
-      <c r="C17" s="24">
+      <c r="B17" s="30">
+        <v>-1.95</v>
+      </c>
+      <c r="C17" s="21">
         <f t="shared" si="0"/>
-        <v>-5.235987755982989E-2</v>
-      </c>
-      <c r="D17" s="37">
+        <v>-3.4033920413889425E-2</v>
+      </c>
+      <c r="D17" s="34">
         <f>N121</f>
-        <v>-2.9999999999999662</v>
-      </c>
-      <c r="E17" s="37">
+        <v>-1.9500000000000186</v>
+      </c>
+      <c r="E17" s="34">
         <f>N127</f>
-        <v>-177.00000000000003</v>
-      </c>
-      <c r="H17" s="37">
+        <v>-178.04999999999995</v>
+      </c>
+      <c r="H17" s="34">
         <f>R121</f>
-        <v>-2.9999999999999662</v>
-      </c>
-      <c r="I17" s="37">
+        <v>-1.9500000000000186</v>
+      </c>
+      <c r="I17" s="34">
         <f>R127</f>
-        <v>-177.00000000000003</v>
+        <v>-178.04999999999995</v>
       </c>
       <c r="V17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="33">
-        <v>-4</v>
-      </c>
-      <c r="C18" s="24">
+      <c r="B18" s="30">
+        <v>-90</v>
+      </c>
+      <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>-6.9813170079773182E-2</v>
-      </c>
-      <c r="F18" s="97">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="F18" s="86">
         <f>O142</f>
-        <v>-121.23659196967553</v>
-      </c>
-      <c r="G18" s="31">
+        <v>-89.999999999996447</v>
+      </c>
+      <c r="G18" s="28">
         <f>O143</f>
-        <v>58.763408030324477</v>
-      </c>
-      <c r="H18" s="23"/>
+        <v>90.000000000003553</v>
+      </c>
+      <c r="H18" s="20"/>
       <c r="V18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="30">
+        <v>1E-4</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="0"/>
+        <v>1.7453292519943296E-6</v>
+      </c>
+      <c r="F19" s="87">
+        <f>H142</f>
+        <v>1.0000091486848235E-4</v>
+      </c>
+      <c r="G19" s="30">
+        <f>H143</f>
+        <v>-1.0000091486848235E-4</v>
+      </c>
+      <c r="V19">
         <v>0</v>
       </c>
-      <c r="C19" s="24">
+    </row>
+    <row r="20" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="32">
+        <v>0</v>
+      </c>
+      <c r="C20" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="98">
-        <f>H142</f>
-        <v>1.4787793323740617E-6</v>
-      </c>
-      <c r="G19" s="33">
-        <f>H143</f>
-        <v>-1.4787793323740617E-6</v>
-      </c>
-      <c r="V19">
+      <c r="F20" s="88">
+        <f>K142</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" ht="16.2" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="35">
-        <v>-6</v>
-      </c>
-      <c r="C20" s="24">
-        <f t="shared" si="0"/>
-        <v>-0.10471975511965978</v>
-      </c>
-      <c r="F20" s="99">
-        <f>K142</f>
-        <v>-20.556045219583467</v>
-      </c>
-      <c r="G20" s="35">
+      <c r="G20" s="32">
         <f>K143</f>
-        <v>159.44395478041653</v>
+        <v>180</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -24370,10 +24390,10 @@
     </row>
     <row r="22" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>4</v>
@@ -24382,25 +24402,25 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
         <v>21</v>
       </c>
-      <c r="R22" t="s">
+      <c r="V22" t="s">
+        <v>14</v>
+      </c>
+      <c r="W22" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V22" t="s">
-        <v>15</v>
-      </c>
-      <c r="W22" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="X22" s="17" t="s">
-        <v>65</v>
+      <c r="X22" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
@@ -24422,174 +24442,174 @@
       </c>
       <c r="G23" s="1">
         <f>B15</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
         <f>RADIANS(G23)</f>
-        <v>-0.17453292519943295</v>
-      </c>
-      <c r="N23" s="105">
+        <v>0</v>
+      </c>
+      <c r="N23" s="94">
         <f>COS(H23)</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="O23" s="83">
+        <v>1</v>
+      </c>
+      <c r="O23" s="72">
         <f>-SIN(H23)*COS(D23)</f>
-        <v>1.0637239828316862E-17</v>
-      </c>
-      <c r="P23" s="83">
+        <v>0</v>
+      </c>
+      <c r="P23" s="72">
         <f>SIN(H23)*SIN(D23)</f>
-        <v>0.17364817766693033</v>
-      </c>
-      <c r="Q23" s="106">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="95">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="107">
+      <c r="R23" s="96">
         <f t="array" ref="R23:U26">N23:Q26</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="S23" s="108">
-        <v>1.0637239828316862E-17</v>
-      </c>
-      <c r="T23" s="108">
-        <v>0.17364817766693033</v>
-      </c>
-      <c r="U23" s="109">
+        <v>1</v>
+      </c>
+      <c r="S23" s="97">
         <v>0</v>
       </c>
-      <c r="V23" s="21">
+      <c r="T23" s="97">
+        <v>0</v>
+      </c>
+      <c r="U23" s="98">
+        <v>0</v>
+      </c>
+      <c r="V23" s="18">
         <f>$V$17*R23+$V$18*S23+$V$19*T23+$V$20*U23</f>
         <v>0</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="21">
         <f>IF(W24=PI()/2,-ATAN2(S24,S23),IF(-W24=PI()/2,ATAN2(S24,S23),ATAN2(T25,S25)))</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="X23" s="23">
+      <c r="X23" s="20">
         <f>DEGREES(W23)</f>
         <v>-90</v>
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="105">
+      <c r="N24" s="94">
         <f>SIN(H23)</f>
-        <v>-0.17364817766693033</v>
-      </c>
-      <c r="O24" s="83">
+        <v>0</v>
+      </c>
+      <c r="O24" s="72">
         <f>COS(H23)*COS(D23)</f>
-        <v>6.032678484924683E-17</v>
-      </c>
-      <c r="P24" s="83">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P24" s="72">
         <f>-COS(H23)*SIN(D23)</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="Q24" s="106">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="95">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="107">
-        <v>-0.17364817766693033</v>
-      </c>
-      <c r="S24" s="108">
-        <v>6.032678484924683E-17</v>
-      </c>
-      <c r="T24" s="108">
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="U24" s="109">
+      <c r="R24" s="96">
         <v>0</v>
       </c>
-      <c r="V24" s="21">
+      <c r="S24" s="97">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="T24" s="97">
+        <v>1</v>
+      </c>
+      <c r="U24" s="98">
+        <v>0</v>
+      </c>
+      <c r="V24" s="18">
         <f>$V$17*R24+$V$19*S24+$V$18*T24+$V$20*U24</f>
         <v>0</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="21">
         <f>ATAN2(SQRT(R23^2+R24^2),-R25)</f>
         <v>0</v>
       </c>
-      <c r="X24" s="23">
+      <c r="X24" s="20">
         <f>DEGREES(W24)</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N25" s="105">
+      <c r="N25" s="94">
         <v>0</v>
       </c>
-      <c r="O25" s="83">
+      <c r="O25" s="72">
         <f>SIN(D23)</f>
         <v>-1</v>
       </c>
-      <c r="P25" s="83">
+      <c r="P25" s="72">
         <f>COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q25" s="106">
+      <c r="Q25" s="95">
         <f>F23</f>
         <v>300</v>
       </c>
-      <c r="R25" s="107">
+      <c r="R25" s="96">
         <v>0</v>
       </c>
-      <c r="S25" s="108">
+      <c r="S25" s="97">
         <v>-1</v>
       </c>
-      <c r="T25" s="108">
+      <c r="T25" s="97">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U25" s="109">
+      <c r="U25" s="98">
         <v>300</v>
       </c>
-      <c r="V25" s="21">
+      <c r="V25" s="18">
         <f>$V$17*R25+$V$18*S25+$V$19*T25+$V$20*U25</f>
         <v>300</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="21">
         <f>IF(ABS(W24)=PI()/2,0,ATAN2(R23,R24))</f>
-        <v>-0.17453292519943295</v>
-      </c>
-      <c r="X25" s="23">
+        <v>0</v>
+      </c>
+      <c r="X25" s="20">
         <f>DEGREES(W25)</f>
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N26" s="105">
+      <c r="N26" s="94">
         <v>0</v>
       </c>
-      <c r="O26" s="83">
+      <c r="O26" s="72">
         <v>0</v>
       </c>
-      <c r="P26" s="83">
+      <c r="P26" s="72">
         <v>0</v>
       </c>
-      <c r="Q26" s="106">
+      <c r="Q26" s="95">
         <v>1</v>
       </c>
-      <c r="R26" s="107">
+      <c r="R26" s="96">
         <v>0</v>
       </c>
-      <c r="S26" s="108">
+      <c r="S26" s="97">
         <v>0</v>
       </c>
-      <c r="T26" s="108">
+      <c r="T26" s="97">
         <v>0</v>
       </c>
-      <c r="U26" s="109">
+      <c r="U26" s="98">
         <v>1</v>
       </c>
-      <c r="V26" s="21">
+      <c r="V26" s="18">
         <f>$V$17*R26+$V$18*S26+$V$19*T26+$V$20*U26</f>
         <v>1</v>
       </c>
       <c r="W26" s="8"/>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V27" s="27"/>
+      <c r="V27" s="24"/>
     </row>
     <row r="28" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -24606,174 +24626,174 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-92</v>
+        <v>-88.09</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.6057029118347832</v>
-      </c>
-      <c r="N28" s="103">
+        <v>-1.5374605380818049</v>
+      </c>
+      <c r="N28" s="92">
         <f>COS(H28)</f>
-        <v>-3.4899496702500955E-2</v>
-      </c>
-      <c r="O28" s="71">
+        <v>3.3329614852437933E-2</v>
+      </c>
+      <c r="O28" s="64">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="P28" s="71">
+        <v>0.99944441404901962</v>
+      </c>
+      <c r="P28" s="64">
         <f>SIN(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="104">
+      <c r="Q28" s="93">
         <f>E28*COS(H28)</f>
-        <v>-10.469849010750286</v>
-      </c>
-      <c r="R28" s="107">
+        <v>9.9988844557313801</v>
+      </c>
+      <c r="R28" s="96">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>-3.4369294928846945E-2</v>
-      </c>
-      <c r="S28" s="108">
-        <v>0.98420783473768791</v>
-      </c>
-      <c r="T28" s="108">
-        <v>0.17364817766693033</v>
-      </c>
-      <c r="U28" s="109">
-        <v>-10.310788478654082</v>
-      </c>
-      <c r="V28" s="21">
+        <v>3.3329614852437933E-2</v>
+      </c>
+      <c r="S28" s="97">
+        <v>0.99944441404901962</v>
+      </c>
+      <c r="T28" s="97">
+        <v>0</v>
+      </c>
+      <c r="U28" s="98">
+        <v>9.9988844557313801</v>
+      </c>
+      <c r="V28" s="18">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>-10.310788478654082</v>
-      </c>
-      <c r="W28" s="24">
+        <v>9.9988844557313801</v>
+      </c>
+      <c r="W28" s="21">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>1.5707963267948948</v>
-      </c>
-      <c r="X28" s="23">
+        <v>-1.5707963267948948</v>
+      </c>
+      <c r="X28" s="20">
         <f>DEGREES(W28)</f>
-        <v>89.999999999999901</v>
+        <v>-89.999999999999901</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N29" s="103">
+      <c r="N29" s="92">
         <f>SIN(H28)</f>
-        <v>-0.99939082701909576</v>
-      </c>
-      <c r="O29" s="71">
+        <v>-0.99944441404901962</v>
+      </c>
+      <c r="O29" s="64">
         <f>COS(H28)*COS(D28)</f>
-        <v>-3.4899496702500955E-2</v>
-      </c>
-      <c r="P29" s="71">
+        <v>3.3329614852437933E-2</v>
+      </c>
+      <c r="P29" s="64">
         <f>-COS(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="104">
+      <c r="Q29" s="93">
         <f>E28*SIN(H28)</f>
-        <v>-299.81724810572871</v>
-      </c>
-      <c r="R29" s="107">
-        <v>6.0602340038822741E-3</v>
-      </c>
-      <c r="S29" s="108">
-        <v>-0.17354239588891238</v>
-      </c>
-      <c r="T29" s="108">
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="U29" s="109">
-        <v>1.8180702011646825</v>
-      </c>
-      <c r="V29" s="21">
+        <v>-299.8333242147059</v>
+      </c>
+      <c r="R29" s="96">
+        <v>-6.1223388981960376E-17</v>
+      </c>
+      <c r="S29" s="97">
+        <v>2.0416863069581862E-18</v>
+      </c>
+      <c r="T29" s="97">
+        <v>1</v>
+      </c>
+      <c r="U29" s="98">
+        <v>-1.8367016694588113E-14</v>
+      </c>
+      <c r="V29" s="18">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>1.8180702011646825</v>
-      </c>
-      <c r="W29" s="24">
+        <v>-1.8367016694588113E-14</v>
+      </c>
+      <c r="W29" s="21">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.5358897417550101</v>
-      </c>
-      <c r="X29" s="23">
+        <v>-1.5374605380818049</v>
+      </c>
+      <c r="X29" s="20">
         <f>DEGREES(W29)</f>
-        <v>-88.000000000000014</v>
+        <v>-88.09</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N30" s="103">
+      <c r="N30" s="92">
         <v>0</v>
       </c>
-      <c r="O30" s="71">
+      <c r="O30" s="64">
         <f>SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="71">
+      <c r="P30" s="64">
         <f>COS(D28)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="104">
+      <c r="Q30" s="93">
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="107">
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="S30" s="108">
-        <v>3.4899496702500955E-2</v>
-      </c>
-      <c r="T30" s="108">
+      <c r="R30" s="96">
+        <v>0.99944441404901962</v>
+      </c>
+      <c r="S30" s="97">
+        <v>-3.3329614852437933E-2</v>
+      </c>
+      <c r="T30" s="97">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="109">
-        <v>599.81724810572871</v>
-      </c>
-      <c r="V30" s="21">
+      <c r="U30" s="98">
+        <v>599.83332421470595</v>
+      </c>
+      <c r="V30" s="18">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>599.81724810572871</v>
-      </c>
-      <c r="W30" s="24">
+        <v>599.83332421470595</v>
+      </c>
+      <c r="W30" s="21">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>2.9670597283903621</v>
-      </c>
-      <c r="X30" s="23">
+        <v>-1.8369065845200463E-15</v>
+      </c>
+      <c r="X30" s="20">
         <f>DEGREES(W30)</f>
-        <v>170.00000000000011</v>
+        <v>-1.0524699465278969E-13</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N31" s="103">
+      <c r="N31" s="92">
         <v>0</v>
       </c>
-      <c r="O31" s="71">
+      <c r="O31" s="64">
         <v>0</v>
       </c>
-      <c r="P31" s="71">
+      <c r="P31" s="64">
         <v>0</v>
       </c>
-      <c r="Q31" s="104">
+      <c r="Q31" s="93">
         <v>1</v>
       </c>
-      <c r="R31" s="107">
+      <c r="R31" s="96">
         <v>0</v>
       </c>
-      <c r="S31" s="108">
+      <c r="S31" s="97">
         <v>0</v>
       </c>
-      <c r="T31" s="108">
+      <c r="T31" s="97">
         <v>0</v>
       </c>
-      <c r="U31" s="109">
+      <c r="U31" s="98">
         <v>1</v>
       </c>
-      <c r="V31" s="21">
+      <c r="V31" s="18">
         <f>$V$17*R31+$V$18*S31+$V$19*T31+$V$20*U31</f>
         <v>1</v>
       </c>
       <c r="W31" s="8"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V32" s="27"/>
+      <c r="V32" s="24"/>
     </row>
-    <row r="33" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="C33">
         <v>-90</v>
@@ -24790,175 +24810,175 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>-3</v>
+        <v>-1.95</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>-5.235987755982989E-2</v>
-      </c>
-      <c r="N33" s="11">
+        <v>-3.4033920413889425E-2</v>
+      </c>
+      <c r="N33" s="94">
         <f>COS(H33)</f>
-        <v>0.99862953475457383</v>
-      </c>
-      <c r="O33" s="12">
+        <v>0.99942090203167289</v>
+      </c>
+      <c r="O33" s="72">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>3.2059657963603892E-18</v>
-      </c>
-      <c r="P33" s="12">
+        <v>2.0844277946182249E-18</v>
+      </c>
+      <c r="P33" s="72">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>5.2335956242943835E-2</v>
-      </c>
-      <c r="Q33" s="13">
+        <v>3.4027350502167444E-2</v>
+      </c>
+      <c r="Q33" s="95">
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="76">
+      <c r="R33" s="65">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>-8.5831651177431301E-2</v>
-      </c>
-      <c r="S33" s="77">
-        <v>-0.17364817766693028</v>
-      </c>
-      <c r="T33" s="77">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="U33" s="78">
-        <v>-10.310788478654082</v>
-      </c>
-      <c r="V33" s="21">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="S33" s="66">
+        <v>6.1257407817369164E-17</v>
+      </c>
+      <c r="T33" s="66">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="U33" s="67">
+        <v>9.9988844557313801</v>
+      </c>
+      <c r="V33" s="18">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>-10.310788478654082</v>
-      </c>
-      <c r="W33" s="24">
+        <v>9.9988844557313801</v>
+      </c>
+      <c r="W33" s="21">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-6.4159268000441856E-16</v>
-      </c>
-      <c r="X33" s="23">
+        <v>-8.768354438392519E-14</v>
+      </c>
+      <c r="X33" s="20">
         <f>DEGREES(W33)</f>
-        <v>-3.6760552730740746E-14</v>
+        <v>-5.0238970259469456E-12</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N34" s="11">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N34" s="94">
         <f>SIN(H33)</f>
-        <v>-5.2335956242943835E-2</v>
-      </c>
-      <c r="O34" s="12">
+        <v>-3.4027350502167444E-2</v>
+      </c>
+      <c r="O34" s="72">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.1173471576534015E-17</v>
-      </c>
-      <c r="P34" s="12">
+        <v>6.1221948696374166E-17</v>
+      </c>
+      <c r="P34" s="72">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>0.99862953475457383</v>
-      </c>
-      <c r="Q34" s="13">
+        <v>0.99942090203167289</v>
+      </c>
+      <c r="Q34" s="95">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="76">
-        <v>1.5134435901338558E-2</v>
-      </c>
-      <c r="S34" s="77">
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="T34" s="77">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="U34" s="78">
-        <v>1.8180702011646825</v>
-      </c>
-      <c r="V34" s="21">
+      <c r="R34" s="65">
+        <v>-6.1257407817369164E-17</v>
+      </c>
+      <c r="S34" s="66">
+        <v>-1</v>
+      </c>
+      <c r="T34" s="66">
+        <v>6.1214657000177163E-17</v>
+      </c>
+      <c r="U34" s="67">
+        <v>-1.8367016694588113E-14</v>
+      </c>
+      <c r="V34" s="18">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>1.8180702011646825</v>
-      </c>
-      <c r="W34" s="24">
+        <v>-1.8367016694588113E-14</v>
+      </c>
+      <c r="W34" s="21">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.4835298641951802</v>
-      </c>
-      <c r="X34" s="23">
+        <v>-1.5700981950940989</v>
+      </c>
+      <c r="X34" s="20">
         <f>DEGREES(W34)</f>
-        <v>-85</v>
+        <v>-89.960000000000008</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N35" s="11">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N35" s="94">
         <v>0</v>
       </c>
-      <c r="O35" s="12">
+      <c r="O35" s="72">
         <f>SIN(D33)</f>
         <v>-1</v>
       </c>
-      <c r="P35" s="12">
+      <c r="P35" s="72">
         <f>COS(D33)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q35" s="13">
+      <c r="Q35" s="95">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="R35" s="76">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="S35" s="77">
-        <v>-5.591848656724567E-17</v>
-      </c>
-      <c r="T35" s="77">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="U35" s="78">
-        <v>599.81724810572871</v>
-      </c>
-      <c r="V35" s="21">
+      <c r="R35" s="65">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="S35" s="66">
+        <v>-6.1214657000177163E-17</v>
+      </c>
+      <c r="T35" s="66">
+        <v>6.9813164408759343E-4</v>
+      </c>
+      <c r="U35" s="67">
+        <v>599.83332421470595</v>
+      </c>
+      <c r="V35" s="18">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>599.81724810572871</v>
-      </c>
-      <c r="W35" s="24">
+        <v>599.83332421470595</v>
+      </c>
+      <c r="W35" s="21">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>2.9670597283903608</v>
-      </c>
-      <c r="X35" s="23">
+        <v>-3.1415926535897052</v>
+      </c>
+      <c r="X35" s="20">
         <f>DEGREES(W35)</f>
-        <v>170.00000000000003</v>
+        <v>-179.99999999999497</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N36" s="11">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="N36" s="94">
         <v>0</v>
       </c>
-      <c r="O36" s="12">
+      <c r="O36" s="72">
         <v>0</v>
       </c>
-      <c r="P36" s="12">
+      <c r="P36" s="72">
         <v>0</v>
       </c>
-      <c r="Q36" s="13">
+      <c r="Q36" s="95">
         <v>1</v>
       </c>
-      <c r="R36" s="76">
+      <c r="R36" s="65">
         <v>0</v>
       </c>
-      <c r="S36" s="77">
+      <c r="S36" s="66">
         <v>0</v>
       </c>
-      <c r="T36" s="77">
+      <c r="T36" s="66">
         <v>0</v>
       </c>
-      <c r="U36" s="78">
+      <c r="U36" s="67">
         <v>1</v>
       </c>
-      <c r="V36" s="21">
+      <c r="V36" s="18">
         <f>$V$17*R36+$V$18*S36+$V$19*T36+$V$20*U36</f>
         <v>1</v>
       </c>
-      <c r="W36" s="24"/>
-      <c r="X36" s="23"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="20"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="V37" s="27"/>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V37" s="24"/>
     </row>
-    <row r="38" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C38">
         <v>90</v>
@@ -24975,97 +24995,97 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>-4</v>
+        <v>-90</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>-6.9813170079773182E-2</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>0.9975640502598242</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>4.273101801374442E-18</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>-6.9756473744125302E-2</v>
+        <v>-1</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="14">
+      <c r="R38" s="65">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>-7.3509485042908357E-2</v>
-      </c>
-      <c r="S38" s="15">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="T38" s="15">
-        <v>0.17921249275543397</v>
-      </c>
-      <c r="U38" s="16">
-        <v>185.90126395942727</v>
-      </c>
-      <c r="V38" s="21">
+        <v>-6.1300173562623002E-17</v>
+      </c>
+      <c r="S38" s="66">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="T38" s="66">
+        <v>6.9813164408765469E-4</v>
+      </c>
+      <c r="U38" s="67">
+        <v>209.99883571694619</v>
+      </c>
+      <c r="V38" s="18">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>185.90126395942727</v>
-      </c>
-      <c r="W38" s="24">
+        <v>209.99883571694619</v>
+      </c>
+      <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>2.243901072631612</v>
-      </c>
-      <c r="X38" s="7">
+        <v>3.1408945218889954</v>
+      </c>
+      <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>128.56606110666976</v>
+        <v>179.96</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>-6.9756473744125302E-2</v>
+        <v>-1</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1108202742410423E-17</v>
+        <v>3.7524718414124473E-33</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-0.9975640502598242</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="14">
-        <v>8.3794285342144115E-2</v>
-      </c>
-      <c r="S39" s="15">
-        <v>-0.17298739392508947</v>
-      </c>
-      <c r="T39" s="15">
-        <v>0.98135308594155091</v>
-      </c>
-      <c r="U39" s="16">
-        <v>-32.779408583853204</v>
-      </c>
-      <c r="V39" s="21">
+      <c r="R39" s="65">
+        <v>1</v>
+      </c>
+      <c r="S39" s="66">
+        <v>6.1214657000177151E-17</v>
+      </c>
+      <c r="T39" s="66">
+        <v>1.2251483056280015E-16</v>
+      </c>
+      <c r="U39" s="67">
+        <v>-6.1240852945526801E-15</v>
+      </c>
+      <c r="V39" s="18">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>-32.779408583853204</v>
-      </c>
-      <c r="W39" s="24">
+        <v>-6.1240852945526801E-15</v>
+      </c>
+      <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.4590961402553408</v>
-      </c>
-      <c r="X39" s="7">
+        <v>-1.2247206481754633E-16</v>
+      </c>
+      <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-83.600050740459452</v>
+        <v>-7.0171324222980615E-15</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N40" s="11">
         <v>0</v>
       </c>
@@ -25081,32 +25101,32 @@
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="R40" s="14">
-        <v>0.99376801787576441</v>
-      </c>
-      <c r="S40" s="15">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="T40" s="15">
-        <v>-6.949102930147362E-2</v>
-      </c>
-      <c r="U40" s="16">
-        <v>617.24839665526031</v>
-      </c>
-      <c r="V40" s="21">
+      <c r="R40" s="65">
+        <v>1.2247206481754633E-16</v>
+      </c>
+      <c r="S40" s="66">
+        <v>6.9813164408765469E-4</v>
+      </c>
+      <c r="T40" s="66">
+        <v>-0.99999975630607407</v>
+      </c>
+      <c r="U40" s="67">
+        <v>599.97295054352344</v>
+      </c>
+      <c r="V40" s="18">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>617.24839665526031</v>
-      </c>
-      <c r="W40" s="24">
+        <v>599.97295054352344</v>
+      </c>
+      <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>2.2909056374703085</v>
-      </c>
-      <c r="X40" s="23">
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>131.25922428977611</v>
+        <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N41" s="11">
         <v>0</v>
       </c>
@@ -25119,16 +25139,16 @@
       <c r="Q41" s="13">
         <v>1</v>
       </c>
-      <c r="R41" s="14">
+      <c r="R41" s="65">
         <v>0</v>
       </c>
-      <c r="S41" s="15">
+      <c r="S41" s="66">
         <v>0</v>
       </c>
-      <c r="T41" s="15">
+      <c r="T41" s="66">
         <v>0</v>
       </c>
-      <c r="U41" s="16">
+      <c r="U41" s="67">
         <v>1</v>
       </c>
       <c r="V41" s="10">
@@ -25136,11 +25156,11 @@
         <v>1</v>
       </c>
       <c r="W41" s="8"/>
-      <c r="X41" s="23"/>
+      <c r="X41" s="20"/>
     </row>
-    <row r="43" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>-90</v>
@@ -25155,99 +25175,99 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G43" s="108">
         <f>B19</f>
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>0</v>
+        <v>1.7453292519943296E-6</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>1</v>
+        <v>0.99999999999847689</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>0</v>
+        <v>-1.0691437181932925E-22</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>0</v>
+        <v>-1.7453292519934436E-6</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="14">
+      <c r="R43" s="65">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>-7.3509485042908357E-2</v>
-      </c>
-      <c r="S43" s="15">
-        <v>-0.17921249275543391</v>
-      </c>
-      <c r="T43" s="15">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="U43" s="16">
-        <v>185.90126395942727</v>
-      </c>
-      <c r="V43" s="21">
+        <v>1.7453288266060059E-6</v>
+      </c>
+      <c r="S43" s="66">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="T43" s="66">
+        <v>0.99999975630455096</v>
+      </c>
+      <c r="U43" s="67">
+        <v>209.99883571694619</v>
+      </c>
+      <c r="V43" s="18">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>185.90126395942727</v>
-      </c>
-      <c r="W43" s="24">
+        <v>209.99883571694619</v>
+      </c>
+      <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>0.67310474583671565</v>
-      </c>
-      <c r="X43" s="7">
+        <v>1.5700981950941</v>
+      </c>
+      <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>38.566061106669778</v>
+        <v>89.960000000000065</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>0</v>
+        <v>1.7453292519934436E-6</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1257422745337693E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>1</v>
+        <v>0.99999999999847689</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="14">
-        <v>8.3794285342144115E-2</v>
-      </c>
-      <c r="S44" s="15">
-        <v>-0.98135308594155091</v>
-      </c>
-      <c r="T44" s="15">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="U44" s="16">
-        <v>-32.779408583853204</v>
-      </c>
-      <c r="V44" s="21">
+      <c r="R44" s="65">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="S44" s="66">
+        <v>-1.2251493747717196E-16</v>
+      </c>
+      <c r="T44" s="66">
+        <v>-1.745329251932229E-6</v>
+      </c>
+      <c r="U44" s="67">
+        <v>-6.1240852945526801E-15</v>
+      </c>
+      <c r="V44" s="18">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>-32.779408583853204</v>
-      </c>
-      <c r="W44" s="24">
+        <v>-6.1240852945526801E-15</v>
+      </c>
+      <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.4590961402553408</v>
-      </c>
-      <c r="X44" s="7">
+        <v>-1.218469702640524E-9</v>
+      </c>
+      <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-83.600050740459452</v>
+        <v>-6.981317142586244E-8</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N45" s="11">
         <v>0</v>
       </c>
@@ -25263,32 +25283,32 @@
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="14">
-        <v>0.99376801787576441</v>
-      </c>
-      <c r="S45" s="15">
-        <v>6.949102930147362E-2</v>
-      </c>
-      <c r="T45" s="15">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="U45" s="16">
-        <v>617.24839665526031</v>
-      </c>
-      <c r="V45" s="21">
+      <c r="R45" s="65">
+        <v>1.218469702640524E-9</v>
+      </c>
+      <c r="S45" s="66">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="T45" s="66">
+        <v>6.9813164408653004E-4</v>
+      </c>
+      <c r="U45" s="67">
+        <v>599.97295054352344</v>
+      </c>
+      <c r="V45" s="18">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>617.24839665526031</v>
-      </c>
-      <c r="W45" s="24">
+        <v>599.97295054352344</v>
+      </c>
+      <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>2.2909056374703085</v>
-      </c>
-      <c r="X45" s="23">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>131.25922428977611</v>
+        <v>89.999900000024368</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N46" s="11">
         <v>0</v>
       </c>
@@ -25301,16 +25321,16 @@
       <c r="Q46" s="13">
         <v>1</v>
       </c>
-      <c r="R46" s="14">
+      <c r="R46" s="65">
         <v>0</v>
       </c>
-      <c r="S46" s="15">
+      <c r="S46" s="66">
         <v>0</v>
       </c>
-      <c r="T46" s="15">
+      <c r="T46" s="66">
         <v>0</v>
       </c>
-      <c r="U46" s="16">
+      <c r="U46" s="67">
         <v>1</v>
       </c>
       <c r="V46" s="10">
@@ -25318,11 +25338,11 @@
         <v>1</v>
       </c>
       <c r="W46" s="8"/>
-      <c r="X46" s="23"/>
+      <c r="X46" s="20"/>
     </row>
-    <row r="48" spans="1:24" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -25337,21 +25357,21 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="107">
         <f>B20</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>-0.10471975511965978</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>0.99452189536827329</v>
+        <v>1</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>0.10452846326765347</v>
+        <v>0</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -25361,40 +25381,46 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="116">
+      <c r="R48" s="105">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>-5.4373985926327958E-2</v>
-      </c>
-      <c r="S48" s="117">
-        <v>-0.18591458147593887</v>
-      </c>
-      <c r="T48" s="117">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="U48" s="109">
-        <v>234.95427706894759</v>
-      </c>
-      <c r="V48" s="21">
+        <v>1.7453288266060059E-6</v>
+      </c>
+      <c r="S48" s="106">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="T48" s="106">
+        <v>0.99999975630455096</v>
+      </c>
+      <c r="U48" s="98">
+        <v>259.99882353217373</v>
+      </c>
+      <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>234.95427706894759</v>
-      </c>
-      <c r="W48" s="110">
+        <v>259.99882353217373</v>
+      </c>
+      <c r="W48" s="99">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>1.1040917006780369</v>
-      </c>
-      <c r="X48" s="7">
+        <v>1.5700981950941</v>
+      </c>
+      <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>63.259794644272887</v>
+        <v>89.960000000000065</v>
+      </c>
+      <c r="Y48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>-0.10452846326765347</v>
+        <v>0</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>0.99452189536827329</v>
+        <v>1</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -25404,32 +25430,38 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="116">
-        <v>0.18591458147593887</v>
-      </c>
-      <c r="S49" s="117">
-        <v>-0.96721824317866956</v>
-      </c>
-      <c r="T49" s="117">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="U49" s="109">
-        <v>-41.428778280107679</v>
-      </c>
-      <c r="V49" s="21">
+      <c r="R49" s="105">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="S49" s="106">
+        <v>-1.2251493747717196E-16</v>
+      </c>
+      <c r="T49" s="106">
+        <v>-1.745329251932229E-6</v>
+      </c>
+      <c r="U49" s="98">
+        <v>-8.7266462602735538E-5</v>
+      </c>
+      <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>-41.428778280107679</v>
-      </c>
-      <c r="W49" s="110">
+        <v>-8.7266462602735538E-5</v>
+      </c>
+      <c r="W49" s="99">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.375861326219423</v>
-      </c>
-      <c r="X49" s="7">
+        <v>-1.218469702640524E-9</v>
+      </c>
+      <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-78.831047187645098</v>
+        <v>-6.981317142586244E-8</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N50" s="11">
         <v>0</v>
       </c>
@@ -25445,32 +25477,38 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="116">
-        <v>0.98106026219040687</v>
-      </c>
-      <c r="S50" s="117">
-        <v>0.17298739392508941</v>
-      </c>
-      <c r="T50" s="117">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="U50" s="109">
-        <v>621.60618379264326</v>
-      </c>
-      <c r="V50" s="21">
+      <c r="R50" s="105">
+        <v>1.218469702640524E-9</v>
+      </c>
+      <c r="S50" s="106">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="T50" s="106">
+        <v>6.9813164408653004E-4</v>
+      </c>
+      <c r="U50" s="98">
+        <v>600.00785712572781</v>
+      </c>
+      <c r="V50" s="18">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>621.60618379264326</v>
-      </c>
-      <c r="W50" s="110">
+        <v>600.00785712572781</v>
+      </c>
+      <c r="W50" s="99">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>1.855328389782541</v>
-      </c>
-      <c r="X50" s="23">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>106.30248634534253</v>
+        <v>89.999900000024368</v>
+      </c>
+      <c r="Y50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N51" s="11">
         <v>0</v>
       </c>
@@ -25483,311 +25521,311 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="116">
+      <c r="R51" s="105">
         <v>0</v>
       </c>
-      <c r="S51" s="117">
+      <c r="S51" s="106">
         <v>0</v>
       </c>
-      <c r="T51" s="117">
+      <c r="T51" s="106">
         <v>0</v>
       </c>
-      <c r="U51" s="109">
+      <c r="U51" s="98">
         <v>1</v>
       </c>
-      <c r="V51" s="21">
+      <c r="V51" s="18">
         <f>$V$17*R51+$V$18*S51+$V$19*T51+$V$20*U51</f>
         <v>1</v>
       </c>
       <c r="W51" s="8"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="108"/>
-      <c r="S52" s="108"/>
-      <c r="T52" s="108"/>
-      <c r="U52" s="108"/>
-      <c r="V52" s="21"/>
+      <c r="R52" s="97"/>
+      <c r="S52" s="97"/>
+      <c r="T52" s="97"/>
+      <c r="U52" s="97"/>
+      <c r="V52" s="18"/>
       <c r="W52" s="8"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A53" s="18" t="s">
-        <v>28</v>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54" s="15"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>234.95427706894759</v>
-      </c>
-      <c r="D56" s="24">
+        <v>259.99882353217373</v>
+      </c>
+      <c r="D56" s="21">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>1.1040917006780369</v>
-      </c>
-      <c r="E56" s="23">
+        <v>1.5700981950941</v>
+      </c>
+      <c r="E56" s="20">
         <f>DEGREES(D56)</f>
-        <v>63.259794644272887</v>
-      </c>
-      <c r="F56" s="111">
+        <v>89.960000000000065</v>
+      </c>
+      <c r="F56" s="100">
         <f>D56+PI()</f>
-        <v>4.24568435426783</v>
-      </c>
-      <c r="G56" s="24">
+        <v>4.7116908486838929</v>
+      </c>
+      <c r="G56" s="21">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>-2.0375009529117563</v>
-      </c>
-      <c r="H56" s="23">
+        <v>-1.5714944584956934</v>
+      </c>
+      <c r="H56" s="20">
         <f>DEGREES(G56)</f>
-        <v>-116.74020535572711</v>
+        <v>-90.039999999999949</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>-41.428778280107679</v>
-      </c>
-      <c r="D57" s="24">
-        <v>-1.375861326219423</v>
-      </c>
-      <c r="E57" s="23">
+        <v>-8.7266462602735538E-5</v>
+      </c>
+      <c r="D57" s="21">
+        <v>-1.218469702640524E-9</v>
+      </c>
+      <c r="E57" s="20">
         <f>DEGREES(D57)</f>
-        <v>-78.831047187645098</v>
-      </c>
-      <c r="F57" s="111">
+        <v>-6.981317142586244E-8</v>
+      </c>
+      <c r="F57" s="100">
         <f>D57+PI()/2</f>
-        <v>0.19493500057547353</v>
-      </c>
-      <c r="G57" s="24">
+        <v>1.5707963255764268</v>
+      </c>
+      <c r="G57" s="21">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>0.19493500057547353</v>
-      </c>
-      <c r="H57" s="23">
+        <v>1.5707963255764268</v>
+      </c>
+      <c r="H57" s="20">
         <f>DEGREES(G57)</f>
-        <v>11.168952812354908</v>
+        <v>89.999999930186831</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>621.60618379264326</v>
-      </c>
-      <c r="D58" s="24">
-        <v>1.855328389782541</v>
-      </c>
-      <c r="E58" s="23">
+        <v>600.00785712572781</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="E58" s="20">
         <f>DEGREES(D58)</f>
-        <v>106.30248634534253</v>
-      </c>
-      <c r="F58" s="111">
+        <v>89.999900000024368</v>
+      </c>
+      <c r="F58" s="100">
         <f>D58</f>
-        <v>1.855328389782541</v>
-      </c>
-      <c r="G58" s="24">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="G58" s="21">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>1.855328389782541</v>
-      </c>
-      <c r="H58" s="23">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="H58" s="20">
         <f>DEGREES(G58)</f>
-        <v>106.30248634534253</v>
-      </c>
-      <c r="P58" s="110"/>
+        <v>89.999900000024368</v>
+      </c>
+      <c r="P58" s="99"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
       <c r="O60" s="7"/>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B62" s="113">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B62" s="102">
         <f>COS(D58)*COS(D57)</f>
-        <v>-5.4373985926327958E-2</v>
-      </c>
-      <c r="C62" s="113">
+        <v>1.7453288266348929E-6</v>
+      </c>
+      <c r="C62" s="102">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>-0.18591458147593892</v>
-      </c>
-      <c r="D62" s="113">
+        <v>-6.9813164408755006E-4</v>
+      </c>
+      <c r="D62" s="102">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.98106026219040698</v>
-      </c>
-      <c r="E62" s="113">
+        <v>0.99999975630455096</v>
+      </c>
+      <c r="E62" s="102">
         <f>C56</f>
-        <v>234.95427706894759</v>
-      </c>
-      <c r="F62" s="110">
+        <v>259.99882353217373</v>
+      </c>
+      <c r="F62" s="99">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>1.1040917006780369</v>
+        <v>1.5700981950941</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>63.259794644272887</v>
-      </c>
-      <c r="H62" s="111">
+        <v>89.960000000000065</v>
+      </c>
+      <c r="H62" s="100">
         <f>F62+PI()</f>
-        <v>4.24568435426783</v>
-      </c>
-      <c r="I62" s="24">
+        <v>4.7116908486838929</v>
+      </c>
+      <c r="I62" s="21">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>-2.0375009529117563</v>
-      </c>
-      <c r="J62" s="23">
+        <v>-1.5714944584956934</v>
+      </c>
+      <c r="J62" s="20">
         <f>DEGREES(I62)</f>
-        <v>-116.74020535572711</v>
+        <v>-90.039999999999949</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B63" s="114">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B63" s="103">
         <f>COS(D57)*SIN(D58)</f>
-        <v>0.18591458147593892</v>
-      </c>
-      <c r="C63" s="114">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="C63" s="103">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-0.96721824317866978</v>
-      </c>
-      <c r="D63" s="113">
+        <v>-1.2249484612480685E-16</v>
+      </c>
+      <c r="D63" s="102">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>-0.17298739392508938</v>
-      </c>
-      <c r="E63" s="113">
+        <v>-1.745329251961116E-6</v>
+      </c>
+      <c r="E63" s="102">
         <f>C57</f>
-        <v>-41.428778280107679</v>
-      </c>
-      <c r="F63" s="110">
+        <v>-8.7266462602735538E-5</v>
+      </c>
+      <c r="F63" s="99">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.375861326219423</v>
+        <v>-1.218469702640524E-9</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-78.831047187645098</v>
-      </c>
-      <c r="H63" s="111">
+        <v>-6.981317142586244E-8</v>
+      </c>
+      <c r="H63" s="100">
         <f>F63+PI()/2</f>
-        <v>0.19493500057547353</v>
-      </c>
-      <c r="I63" s="24">
+        <v>1.5707963255764268</v>
+      </c>
+      <c r="I63" s="21">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>0.19493500057547353</v>
-      </c>
-      <c r="J63" s="23">
+        <v>1.5707963255764268</v>
+      </c>
+      <c r="J63" s="20">
         <f>DEGREES(I63)</f>
-        <v>11.168952812354908</v>
+        <v>89.999999930186831</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B64" s="114">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="B64" s="103">
         <f>-SIN(D57)</f>
-        <v>0.98106026219040687</v>
-      </c>
-      <c r="C64" s="113">
+        <v>1.218469702640524E-9</v>
+      </c>
+      <c r="C64" s="102">
         <f>SIN(D56)*COS(D57)</f>
-        <v>0.17298739392508944</v>
-      </c>
-      <c r="D64" s="113">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="D64" s="102">
         <f>COS(D56)*COS(D57)</f>
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="E64" s="113">
+        <v>6.9813164408648678E-4</v>
+      </c>
+      <c r="E64" s="102">
         <f>C58</f>
-        <v>621.60618379264326</v>
-      </c>
-      <c r="F64" s="110">
+        <v>600.00785712572781</v>
+      </c>
+      <c r="F64" s="99">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>1.855328389782541</v>
+        <v>1.57079458146607</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>106.30248634534253</v>
-      </c>
-      <c r="H64" s="111">
+        <v>89.999900000024368</v>
+      </c>
+      <c r="H64" s="100">
         <f>F64</f>
-        <v>1.855328389782541</v>
-      </c>
-      <c r="I64" s="24">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="I64" s="21">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>1.855328389782541</v>
-      </c>
-      <c r="J64" s="23">
+        <v>1.57079458146607</v>
+      </c>
+      <c r="J64" s="20">
         <f>DEGREES(I64)</f>
-        <v>106.30248634534253</v>
+        <v>89.999900000024368</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="113">
+      <c r="B65" s="102">
         <v>0</v>
       </c>
-      <c r="C65" s="113">
+      <c r="C65" s="102">
         <v>0</v>
       </c>
-      <c r="D65" s="113">
+      <c r="D65" s="102">
         <v>0</v>
       </c>
-      <c r="E65" s="113">
+      <c r="E65" s="102">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="18" t="s">
-        <v>31</v>
+      <c r="A66" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="19"/>
+        <v>32</v>
+      </c>
+      <c r="B69" s="16"/>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="I69" s="7">
         <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
       <c r="J69" s="7">
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
       <c r="K69" s="7">
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
       <c r="L69" s="7">
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -25795,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-32.779408583853211</v>
+        <v>-4.6797418370991828E-15</v>
       </c>
       <c r="J70" s="7">
-        <v>-32.779408583853211</v>
+        <v>-4.6797418370991828E-15</v>
       </c>
       <c r="K70" s="7">
-        <v>-32.779408583853211</v>
+        <v>-4.6797418370991828E-15</v>
       </c>
       <c r="L70" s="7">
-        <v>-32.779408583853211</v>
+        <v>-4.6797418370991828E-15</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -25813,16 +25851,16 @@
         <v>-50</v>
       </c>
       <c r="I71" s="7">
-        <v>617.24839665526031</v>
+        <v>599.97295054352344</v>
       </c>
       <c r="J71" s="7">
-        <v>617.24839665526031</v>
+        <v>599.97295054352344</v>
       </c>
       <c r="K71" s="7">
-        <v>617.24839665526031</v>
+        <v>599.97295054352344</v>
       </c>
       <c r="L71" s="7">
-        <v>617.24839665526031</v>
+        <v>599.97295054352344</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -25844,18 +25882,18 @@
     </row>
     <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>34</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -25884,8 +25922,8 @@
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="18" t="s">
-        <v>39</v>
+      <c r="A80" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -25894,61 +25932,61 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="27">
+      <c r="B83" s="63">
         <f t="array" ref="B83:B86">L69:L72</f>
-        <v>185.90126395942724</v>
+        <v>209.99883571694619</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H83" s="24">
+        <v>34</v>
+      </c>
+      <c r="H83" s="21">
         <f>ATAN2(B83,B84)</f>
-        <v>-0.17453292519943311</v>
-      </c>
-      <c r="I83" s="26">
+        <v>-2.2284608489005749E-17</v>
+      </c>
+      <c r="I83" s="23">
         <f>DEGREES(H83)</f>
-        <v>-10.000000000000009</v>
+        <v>-1.276814014521436E-15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>32</v>
-      </c>
-      <c r="B84">
-        <v>-32.779408583853211</v>
-      </c>
-      <c r="H84" s="24">
+        <v>30</v>
+      </c>
+      <c r="B84" s="63">
+        <v>-4.6797418370991828E-15</v>
+      </c>
+      <c r="H84" s="21">
         <f>ATAN2(-B83,-B84)</f>
-        <v>2.9670597283903599</v>
-      </c>
-      <c r="I84" s="26">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="I84" s="23">
         <f>DEGREES(H84)</f>
-        <v>169.99999999999997</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85">
-        <v>617.24839665526031</v>
+      <c r="B85" s="63">
+        <v>599.97295054352344</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
-      </c>
-      <c r="G85" s="24">
+        <v>40</v>
+      </c>
+      <c r="G85" s="21">
         <f>IF(B87=1,H83,H84)</f>
-        <v>-0.17453292519943311</v>
-      </c>
-      <c r="H85" s="26">
+        <v>-2.2284608489005749E-17</v>
+      </c>
+      <c r="H85" s="23">
         <f>DEGREES(G85)</f>
-        <v>-10.000000000000009</v>
-      </c>
-      <c r="I85" s="18" t="str">
+        <v>-1.276814014521436E-15</v>
+      </c>
+      <c r="I85" s="15" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
@@ -25958,24 +25996,24 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
-      </c>
-      <c r="G86" s="24">
+        <v>41</v>
+      </c>
+      <c r="G86" s="21">
         <f>IF(B87=-1,H83,H84)</f>
-        <v>2.9670597283903599</v>
-      </c>
-      <c r="H86" s="26">
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="H86" s="23">
         <f>DEGREES(G86)</f>
-        <v>169.99999999999997</v>
-      </c>
-      <c r="I86" s="18" t="str">
+        <v>180</v>
+      </c>
+      <c r="I86" s="15" t="str">
         <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B87">
         <f>SIGN(B83)</f>
@@ -25983,25 +26021,25 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
-        <v>46</v>
+      <c r="A89" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K96">
         <v>0</v>
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>188.76909060759877</v>
+        <v>209.99883571694619</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26010,85 +26048,85 @@
       </c>
       <c r="L97" s="4">
         <f>E110</f>
-        <v>317.24839665526031</v>
+        <v>299.97295054352344</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="18"/>
+      <c r="A109" s="15"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E110" s="22">
+      <c r="E110" s="19">
         <f>B85-F23</f>
-        <v>317.24839665526031</v>
-      </c>
-      <c r="M110" s="24">
+        <v>299.97295054352344</v>
+      </c>
+      <c r="M110" s="21">
         <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.57165615699477501</v>
-      </c>
-      <c r="N110" s="23">
+        <v>0.57742993282216071</v>
+      </c>
+      <c r="N110" s="20">
         <f>DEGREES(M110)</f>
-        <v>32.753485128468604</v>
+        <v>33.084298115232457</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>188.76909060759877</v>
-      </c>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="M112" s="24">
+        <v>209.99883571694619</v>
+      </c>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="M112" s="21">
         <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.6231562043547259</v>
-      </c>
-      <c r="N112" s="25">
+        <v>1.6048302472087863</v>
+      </c>
+      <c r="N112" s="22">
         <f>DEGREES(M112)</f>
-        <v>92.999999999999972</v>
+        <v>91.950000000000017</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E113" s="4"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="M113" s="24"/>
-      <c r="N113" s="25"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="19"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="22"/>
     </row>
     <row r="114" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M114" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q114" s="38" t="s">
-        <v>51</v>
+      <c r="M114" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q114" s="35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
-        <v>369.16163769973878</v>
+        <v>366.17384131073607</v>
       </c>
       <c r="L115" t="s">
-        <v>70</v>
-      </c>
-      <c r="M115" s="39">
+        <v>68</v>
+      </c>
+      <c r="M115" s="36">
         <f>IF(B87=1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N115" s="40"/>
-      <c r="O115" s="40"/>
-      <c r="P115" s="40"/>
-      <c r="Q115" s="40">
+      <c r="N115" s="37"/>
+      <c r="O115" s="37"/>
+      <c r="P115" s="37"/>
+      <c r="Q115" s="37">
         <f>IF(B87=1,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="R115" s="40"/>
-      <c r="S115" s="41"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="38"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E116" s="7">
         <f>E28</f>
@@ -26096,544 +26134,544 @@
       </c>
       <c r="F116" s="5"/>
       <c r="L116" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M116" s="42">
+        <v>57</v>
+      </c>
+      <c r="M116" s="39">
         <f>ATAN2(M115*E112,E110)</f>
-        <v>1.0340467548400085</v>
-      </c>
-      <c r="N116" s="43">
+        <v>0.96003060525964412</v>
+      </c>
+      <c r="N116" s="40">
         <f>DEGREES(M116)</f>
-        <v>59.246514871531417</v>
-      </c>
-      <c r="O116" s="44"/>
-      <c r="P116" s="44"/>
-      <c r="Q116" s="45">
+        <v>55.005701884767539</v>
+      </c>
+      <c r="O116" s="41"/>
+      <c r="P116" s="41"/>
+      <c r="Q116" s="42">
         <f>ATAN2(Q115*E112,E110)</f>
-        <v>2.1075458987497848</v>
-      </c>
-      <c r="R116" s="43">
+        <v>2.1815620483301492</v>
+      </c>
+      <c r="R116" s="40">
         <f>DEGREES(Q116)</f>
-        <v>120.7534851284686</v>
-      </c>
-      <c r="S116" s="46"/>
+        <v>124.99429811523247</v>
+      </c>
+      <c r="S116" s="43"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E117" s="7">
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="M117" s="47"/>
-      <c r="N117" s="44"/>
-      <c r="O117" s="44"/>
-      <c r="P117" s="44"/>
-      <c r="Q117" s="44"/>
-      <c r="R117" s="44"/>
-      <c r="S117" s="46"/>
+      <c r="M117" s="44"/>
+      <c r="N117" s="41"/>
+      <c r="O117" s="41"/>
+      <c r="P117" s="41"/>
+      <c r="Q117" s="41"/>
+      <c r="R117" s="41"/>
+      <c r="S117" s="43"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G118" s="1"/>
-      <c r="M118" s="47"/>
-      <c r="N118" s="44"/>
-      <c r="O118" s="44"/>
-      <c r="P118" s="44"/>
-      <c r="Q118" s="44"/>
-      <c r="R118" s="44"/>
-      <c r="S118" s="46"/>
+      <c r="M118" s="44"/>
+      <c r="N118" s="41"/>
+      <c r="O118" s="41"/>
+      <c r="P118" s="41"/>
+      <c r="Q118" s="41"/>
+      <c r="R118" s="41"/>
+      <c r="S118" s="43"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F119" s="5"/>
       <c r="G119" s="1"/>
-      <c r="M119" s="47"/>
-      <c r="N119" s="44"/>
-      <c r="O119" s="44"/>
-      <c r="P119" s="44"/>
-      <c r="Q119" s="44"/>
-      <c r="R119" s="44"/>
-      <c r="S119" s="46"/>
+      <c r="M119" s="44"/>
+      <c r="N119" s="41"/>
+      <c r="O119" s="41"/>
+      <c r="P119" s="41"/>
+      <c r="Q119" s="41"/>
+      <c r="R119" s="41"/>
+      <c r="S119" s="43"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G120" s="1"/>
-      <c r="M120" s="48">
+      <c r="M120" s="45">
         <f>PI()/2-(M116+M110)</f>
-        <v>-3.4906585039887084E-2</v>
-      </c>
-      <c r="N120" s="49">
+        <v>3.3335788713091841E-2</v>
+      </c>
+      <c r="N120" s="46">
         <f>DEGREES(M120)</f>
-        <v>-2.0000000000000284</v>
-      </c>
-      <c r="O120" s="50" t="str">
+        <v>1.9100000000000084</v>
+      </c>
+      <c r="O120" s="47" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P120" s="44"/>
-      <c r="Q120" s="51">
+      <c r="P120" s="41"/>
+      <c r="Q120" s="48">
         <f>PI()/2-(Q116+M110)</f>
-        <v>-1.1084057289496632</v>
-      </c>
-      <c r="R120" s="49">
+        <v>-1.1881956543574135</v>
+      </c>
+      <c r="R120" s="46">
         <f>DEGREES(Q120)</f>
-        <v>-63.506970256937187</v>
-      </c>
-      <c r="S120" s="52" t="str">
+        <v>-68.078596230464939</v>
+      </c>
+      <c r="S120" s="49" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G121" s="1"/>
-      <c r="M121" s="48">
+      <c r="M121" s="45">
         <f>PI()/2-M112</f>
-        <v>-5.2359877559829293E-2</v>
-      </c>
-      <c r="N121" s="49">
+        <v>-3.4033920413889751E-2</v>
+      </c>
+      <c r="N121" s="46">
         <f>DEGREES(M121)</f>
-        <v>-2.9999999999999662</v>
-      </c>
-      <c r="O121" s="50" t="str">
+        <v>-1.9500000000000186</v>
+      </c>
+      <c r="O121" s="47" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P121" s="44"/>
-      <c r="Q121" s="51">
+      <c r="P121" s="41"/>
+      <c r="Q121" s="48">
         <f>PI()/2-M112</f>
-        <v>-5.2359877559829293E-2</v>
-      </c>
-      <c r="R121" s="49">
+        <v>-3.4033920413889751E-2</v>
+      </c>
+      <c r="R121" s="46">
         <f>DEGREES(Q121)</f>
-        <v>-2.9999999999999662</v>
-      </c>
-      <c r="S121" s="52" t="str">
+        <v>-1.9500000000000186</v>
+      </c>
+      <c r="S121" s="49" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M122" s="47"/>
-      <c r="N122" s="44"/>
-      <c r="O122" s="44"/>
-      <c r="P122" s="44"/>
-      <c r="Q122" s="44"/>
-      <c r="R122" s="44"/>
-      <c r="S122" s="46"/>
+      <c r="M122" s="44"/>
+      <c r="N122" s="41"/>
+      <c r="O122" s="41"/>
+      <c r="P122" s="41"/>
+      <c r="Q122" s="41"/>
+      <c r="R122" s="41"/>
+      <c r="S122" s="43"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M123" s="53"/>
-      <c r="N123" s="54"/>
-      <c r="O123" s="44"/>
-      <c r="P123" s="44"/>
-      <c r="Q123" s="44"/>
-      <c r="R123" s="44"/>
-      <c r="S123" s="46"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="41"/>
+      <c r="P123" s="41"/>
+      <c r="Q123" s="41"/>
+      <c r="R123" s="41"/>
+      <c r="S123" s="43"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F124" s="9"/>
       <c r="G124" s="1"/>
-      <c r="M124" s="47"/>
-      <c r="N124" s="44"/>
-      <c r="O124" s="44"/>
-      <c r="P124" s="44"/>
-      <c r="Q124" s="44"/>
-      <c r="R124" s="44"/>
-      <c r="S124" s="46"/>
+      <c r="M124" s="44"/>
+      <c r="N124" s="41"/>
+      <c r="O124" s="41"/>
+      <c r="P124" s="41"/>
+      <c r="Q124" s="41"/>
+      <c r="R124" s="41"/>
+      <c r="S124" s="43"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M125" s="47"/>
-      <c r="N125" s="44"/>
-      <c r="O125" s="44"/>
-      <c r="P125" s="44"/>
-      <c r="Q125" s="44"/>
-      <c r="R125" s="44"/>
-      <c r="S125" s="46"/>
+      <c r="M125" s="44"/>
+      <c r="N125" s="41"/>
+      <c r="O125" s="41"/>
+      <c r="P125" s="41"/>
+      <c r="Q125" s="41"/>
+      <c r="R125" s="41"/>
+      <c r="S125" s="43"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>49</v>
-      </c>
-      <c r="M126" s="48">
+        <v>47</v>
+      </c>
+      <c r="M126" s="45">
         <f>PI()/2-(M116-M110)</f>
-        <v>1.1084057289496632</v>
-      </c>
-      <c r="N126" s="49">
+        <v>1.188195654357413</v>
+      </c>
+      <c r="N126" s="46">
         <f>DEGREES(M126)</f>
-        <v>63.506970256937187</v>
-      </c>
-      <c r="O126" s="50" t="str">
+        <v>68.07859623046491</v>
+      </c>
+      <c r="O126" s="47" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P126" s="44"/>
-      <c r="Q126" s="51">
+      <c r="P126" s="41"/>
+      <c r="Q126" s="48">
         <f>PI()/2-(Q116-M110)</f>
-        <v>3.490658503988664E-2</v>
-      </c>
-      <c r="R126" s="49">
+        <v>-3.3335788713091841E-2</v>
+      </c>
+      <c r="R126" s="46">
         <f>DEGREES(Q126)</f>
-        <v>2.0000000000000027</v>
-      </c>
-      <c r="S126" s="52" t="str">
+        <v>-1.9100000000000084</v>
+      </c>
+      <c r="S126" s="49" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="18"/>
-      <c r="M127" s="55">
+      <c r="A127" s="15"/>
+      <c r="M127" s="52">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.0892327760299638</v>
-      </c>
-      <c r="N127" s="56">
+        <v>-3.1075587331759031</v>
+      </c>
+      <c r="N127" s="53">
         <f>DEGREES(M127)</f>
-        <v>-177.00000000000003</v>
-      </c>
-      <c r="O127" s="57" t="str">
+        <v>-178.04999999999995</v>
+      </c>
+      <c r="O127" s="54" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P127" s="58"/>
-      <c r="Q127" s="59">
+      <c r="P127" s="55"/>
+      <c r="Q127" s="56">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.0892327760299638</v>
-      </c>
-      <c r="R127" s="56">
+        <v>-3.1075587331759031</v>
+      </c>
+      <c r="R127" s="53">
         <f>DEGREES(Q127)</f>
-        <v>-177.00000000000003</v>
-      </c>
-      <c r="S127" s="60" t="str">
+        <v>-178.04999999999995</v>
+      </c>
+      <c r="S127" s="57" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
     <row r="129" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A129" s="18" t="s">
-        <v>55</v>
+      <c r="A129" s="15" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E130" s="64"/>
-      <c r="F130" s="64"/>
-      <c r="G130" s="64"/>
+      <c r="E130" s="61"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="61"/>
       <c r="J130" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M130" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="64"/>
-      <c r="H131" s="64"/>
-      <c r="I131" s="64"/>
-      <c r="J131" s="65">
+      <c r="E131" s="61"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="61"/>
+      <c r="H131" s="61"/>
+      <c r="I131" s="61"/>
+      <c r="J131" s="62">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.98480775301220791</v>
-      </c>
-      <c r="K131" s="65">
-        <v>0.17364817766693036</v>
-      </c>
-      <c r="L131" s="65">
-        <v>0</v>
-      </c>
-      <c r="M131" s="88">
+        <v>6.1257529659709512E-17</v>
+      </c>
+      <c r="K131" s="62">
+        <v>1</v>
+      </c>
+      <c r="L131" s="62">
+        <v>-1.0691446512645044E-22</v>
+      </c>
+      <c r="M131" s="77">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.98480775301220791</v>
-      </c>
-      <c r="N131" s="88">
+        <v>6.1257422745337693E-17</v>
+      </c>
+      <c r="N131" s="77">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>0.17364817766693036</v>
-      </c>
-      <c r="O131" s="88">
+        <v>1</v>
+      </c>
+      <c r="O131" s="77">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>-1.0691437181932925E-22</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E132" s="64"/>
-      <c r="F132" s="64"/>
-      <c r="G132" s="64"/>
-      <c r="H132" s="64"/>
-      <c r="I132" s="64"/>
-      <c r="J132" s="65">
-        <v>-0.17364817766693036</v>
-      </c>
-      <c r="K132" s="65">
-        <v>0.98480775301220791</v>
-      </c>
-      <c r="L132" s="65">
-        <v>0</v>
-      </c>
-      <c r="M132" s="88">
+      <c r="E132" s="61"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="61"/>
+      <c r="H132" s="61"/>
+      <c r="I132" s="61"/>
+      <c r="J132" s="62">
+        <v>-0.99999999999847689</v>
+      </c>
+      <c r="K132" s="62">
+        <v>6.125752965980282E-17</v>
+      </c>
+      <c r="L132" s="62">
+        <v>1.7453292519934436E-6</v>
+      </c>
+      <c r="M132" s="77">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>-0.17364817766693036</v>
-      </c>
-      <c r="N132" s="88">
+        <v>-0.99999999999847689</v>
+      </c>
+      <c r="N132" s="77">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.98480775301220791</v>
-      </c>
-      <c r="O132" s="88">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="O132" s="77">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>1.7453292519934436E-6</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J133" s="65">
-        <v>0</v>
-      </c>
-      <c r="K133" s="65">
-        <v>0</v>
-      </c>
-      <c r="L133" s="65">
-        <v>1</v>
-      </c>
-      <c r="M133" s="88">
+      <c r="J133" s="62">
+        <v>1.7453292519934436E-6</v>
+      </c>
+      <c r="K133" s="62">
+        <v>-9.3307453945672803E-29</v>
+      </c>
+      <c r="L133" s="62">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="M133" s="77">
         <f>SIN(C19)*COS(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N133" s="88">
+        <v>1.7453292519934436E-6</v>
+      </c>
+      <c r="N133" s="77">
         <f>-SIN(C19)*SIN(C20)</f>
         <v>0</v>
       </c>
-      <c r="O133" s="88">
+      <c r="O133" s="77">
         <f>COS(C19)</f>
-        <v>1</v>
+        <v>0.99999999999847689</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="67">
+      <c r="B136" s="68">
         <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>-8.5831651177431301E-2</v>
-      </c>
-      <c r="C136" s="68">
-        <v>-0.17364817766693028</v>
-      </c>
-      <c r="D136" s="69">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="H136" s="67">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="C136" s="69">
+        <v>6.1257407817369164E-17</v>
+      </c>
+      <c r="D136" s="70">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="H136" s="68">
         <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>-8.5831651177431301E-2</v>
-      </c>
-      <c r="I136" s="68">
-        <v>1.5134435901338558E-2</v>
-      </c>
-      <c r="J136" s="69">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="M136" s="79">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="I136" s="69">
+        <v>-6.1257407817369164E-17</v>
+      </c>
+      <c r="J136" s="70">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="M136" s="68">
         <f t="array" ref="M136:O138">R48:T50</f>
-        <v>-5.4373985926327958E-2</v>
-      </c>
-      <c r="N136" s="80">
-        <v>-0.18591458147593887</v>
-      </c>
-      <c r="O136" s="81">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="S136" s="79">
+        <v>1.7453288266060059E-6</v>
+      </c>
+      <c r="N136" s="69">
+        <v>-6.9813164408759343E-4</v>
+      </c>
+      <c r="O136" s="70">
+        <v>0.99999975630455096</v>
+      </c>
+      <c r="S136" s="109">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.98480775301220802</v>
-      </c>
-      <c r="T136" s="80">
-        <v>0.17364817766693036</v>
-      </c>
-      <c r="U136" s="81">
-        <v>1.3877787807814457E-17</v>
+        <v>6.125752945173002E-17</v>
+      </c>
+      <c r="T136" s="110">
+        <v>1</v>
+      </c>
+      <c r="U136" s="111">
+        <v>-1.0842021724855044E-19</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="70">
-        <v>1.5134435901338558E-2</v>
-      </c>
-      <c r="C137" s="71">
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="D137" s="72">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="H137" s="70">
-        <v>-0.17364817766693028</v>
-      </c>
-      <c r="I137" s="71">
-        <v>-0.98480775301220802</v>
-      </c>
-      <c r="J137" s="72">
-        <v>-5.591848656724567E-17</v>
-      </c>
-      <c r="M137" s="82">
-        <v>0.18591458147593887</v>
-      </c>
-      <c r="N137" s="83">
-        <v>-0.96721824317866956</v>
-      </c>
-      <c r="O137" s="84">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="S137" s="82">
-        <v>-0.17364817766693033</v>
-      </c>
-      <c r="T137" s="83">
-        <v>0.9848077530122078</v>
-      </c>
-      <c r="U137" s="84">
-        <v>2.2881958385535671E-17</v>
+      <c r="B137" s="71">
+        <v>-6.1257407817369164E-17</v>
+      </c>
+      <c r="C137" s="72">
+        <v>-1</v>
+      </c>
+      <c r="D137" s="73">
+        <v>6.1214657000177163E-17</v>
+      </c>
+      <c r="H137" s="71">
+        <v>6.1257407817369164E-17</v>
+      </c>
+      <c r="I137" s="72">
+        <v>-1</v>
+      </c>
+      <c r="J137" s="73">
+        <v>-6.1214657000177163E-17</v>
+      </c>
+      <c r="M137" s="71">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="N137" s="72">
+        <v>-1.2251493747717196E-16</v>
+      </c>
+      <c r="O137" s="73">
+        <v>-1.745329251932229E-6</v>
+      </c>
+      <c r="S137" s="112">
+        <v>-0.99999999999847689</v>
+      </c>
+      <c r="T137" s="113">
+        <v>6.1257529659802795E-17</v>
+      </c>
+      <c r="U137" s="114">
+        <v>1.7453292519934436E-6</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="73">
-        <v>0.99619469809174555</v>
-      </c>
-      <c r="C138" s="74">
-        <v>-5.591848656724567E-17</v>
-      </c>
-      <c r="D138" s="75">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="H138" s="73">
-        <v>0.98106026219040676</v>
-      </c>
-      <c r="I138" s="74">
-        <v>-0.17298739392508941</v>
-      </c>
-      <c r="J138" s="75">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="M138" s="85">
-        <v>0.98106026219040687</v>
-      </c>
-      <c r="N138" s="86">
-        <v>0.17298739392508941</v>
-      </c>
-      <c r="O138" s="87">
-        <v>8.7155742747658166E-2</v>
-      </c>
-      <c r="S138" s="85">
-        <v>1.3877787807814457E-17</v>
-      </c>
-      <c r="T138" s="86">
-        <v>5.2041704279304213E-18</v>
-      </c>
-      <c r="U138" s="87">
-        <v>0.99999999999999967</v>
+      <c r="B138" s="74">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="C138" s="75">
+        <v>-6.1214657000177163E-17</v>
+      </c>
+      <c r="D138" s="76">
+        <v>6.9813164408759343E-4</v>
+      </c>
+      <c r="H138" s="74">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="I138" s="75">
+        <v>6.1214657000177163E-17</v>
+      </c>
+      <c r="J138" s="76">
+        <v>6.9813164408759343E-4</v>
+      </c>
+      <c r="M138" s="74">
+        <v>1.218469702640524E-9</v>
+      </c>
+      <c r="N138" s="75">
+        <v>0.99999975630607407</v>
+      </c>
+      <c r="O138" s="76">
+        <v>6.9813164408653004E-4</v>
+      </c>
+      <c r="S138" s="115">
+        <v>1.7453292519934436E-6</v>
+      </c>
+      <c r="T138" s="116">
+        <v>0</v>
+      </c>
+      <c r="U138" s="117">
+        <v>0.99999999999847689</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="66">
+      <c r="D142" s="79">
         <f>U138</f>
-        <v>0.99999999999999967</v>
+        <v>0.99999999999847689</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="G142" s="100">
-        <f>ACOS(D142)</f>
-        <v>2.5809568260370952E-8</v>
-      </c>
-      <c r="H142" s="101">
+      <c r="G142" s="89">
+        <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
+        <v>1.7453452194615693E-6</v>
+      </c>
+      <c r="H142" s="90">
         <f>DEGREES(G142)</f>
-        <v>1.4787793323740617E-6</v>
-      </c>
-      <c r="J142" s="100">
+        <v>1.0000091486848235E-4</v>
+      </c>
+      <c r="J142" s="89">
         <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>-0.35877067027057225</v>
-      </c>
-      <c r="K142" s="101">
+        <v>0</v>
+      </c>
+      <c r="K142" s="90">
         <f>DEGREES(J142)</f>
-        <v>-20.556045219583467</v>
+        <v>0</v>
       </c>
       <c r="N142" s="2">
-        <f>ATAN2(-D150/SIN(G142),-D148/SIN(G142))</f>
-        <v>-2.1159777037677552</v>
-      </c>
-      <c r="O142" s="101">
+        <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
+        <v>-1.5707963267948346</v>
+      </c>
+      <c r="O142" s="90">
         <f>DEGREES(N142)</f>
-        <v>-121.23659196967553</v>
+        <v>-89.999999999996447</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G143" s="100">
-        <f>-ACOS(D142)</f>
-        <v>-2.5809568260370952E-8</v>
-      </c>
-      <c r="H143" s="101">
+      <c r="G143" s="89">
+        <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
+        <v>-1.7453452194615693E-6</v>
+      </c>
+      <c r="H143" s="90">
         <f>DEGREES(G143)</f>
-        <v>-1.4787793323740617E-6</v>
-      </c>
-      <c r="J143" s="100">
-        <f>IF(SIN(G143)=0,ATAN2(D146,D144),ATAN2(D146/SIN(G143),D144/SIN(G142)))</f>
-        <v>2.7828219833192209</v>
-      </c>
-      <c r="K143" s="101">
+        <v>-1.0000091486848235E-4</v>
+      </c>
+      <c r="J143" s="89">
+        <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="K143" s="90">
         <f>DEGREES(J143)</f>
-        <v>159.44395478041653</v>
+        <v>180</v>
       </c>
       <c r="N143" s="2">
-        <f>ATAN2(-D150/SIN(G143),D148/SIN(G142))</f>
-        <v>1.0256149498220379</v>
-      </c>
-      <c r="O143" s="101">
+        <f>IF(SIN(G143)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G143),D148/SIN(G143)))</f>
+        <v>1.5707963267949585</v>
+      </c>
+      <c r="O143" s="90">
         <f>DEGREES(N143)</f>
-        <v>58.763408030324477</v>
+        <v>90.000000000003553</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="89">
+      <c r="D144" s="78">
         <f>T138</f>
-        <v>5.2041704279304213E-18</v>
+        <v>0</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="115"/>
-      <c r="K144" s="101"/>
+      <c r="J144" s="104"/>
+      <c r="K144" s="90"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="112"/>
-      <c r="O144" s="101"/>
+      <c r="N144" s="101"/>
+      <c r="O144" s="90"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="100"/>
-      <c r="K145" s="101"/>
+      <c r="J145" s="89"/>
+      <c r="K145" s="90"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="112"/>
-      <c r="O145" s="101"/>
+      <c r="N145" s="101"/>
+      <c r="O145" s="90"/>
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" s="64">
+      <c r="D146" s="61">
         <f>S138</f>
-        <v>1.3877787807814457E-17</v>
+        <v>1.7453292519934436E-6</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="101"/>
+      <c r="K146" s="90"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="102"/>
-      <c r="O146" s="101"/>
+      <c r="N146" s="91"/>
+      <c r="O146" s="90"/>
     </row>
     <row r="147" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="101"/>
+      <c r="K147" s="90"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D148" s="64">
+      <c r="D148" s="61">
         <f>U137</f>
-        <v>2.2881958385535671E-17</v>
+        <v>1.7453292519934436E-6</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26657,22 +26695,22 @@
       <c r="O149" s="2"/>
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D150" s="90">
+      <c r="D150" s="79">
         <f>U136</f>
-        <v>1.3877787807814457E-17</v>
+        <v>-1.0842021724855044E-19</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="101"/>
+      <c r="K150" s="90"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="102"/>
-      <c r="O150" s="101"/>
+      <c r="N150" s="91"/>
+      <c r="O150" s="90"/>
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="101"/>
+      <c r="K151" s="90"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -26680,7 +26718,7 @@
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26710,21 +26748,44 @@
     </row>
     <row r="17" spans="12:12" x14ac:dyDescent="0.3">
       <c r="L17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="M46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="M47" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -822,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="15">
+  <numFmts count="19">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -838,6 +838,10 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000\ &quot;RAD&quot;"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="188" formatCode="0.00000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="189" formatCode="0.000000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.000000000000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1108,7 +1112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1156,7 +1160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1199,11 +1202,8 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1222,7 +1222,6 @@
     <xf numFmtId="170" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1237,6 +1236,14 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="189" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1344,7 +1351,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>209.99883571694619</c:v>
+                  <c:v>219.99639405097861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1356,7 +1363,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-4.6797418370991828E-15</c:v>
+                  <c:v>-1.9137014581950423E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1524,7 +1531,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>209.99883571694619</c:v>
+                  <c:v>219.99639405097861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,7 +1546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>299.97295054352344</c:v>
+                  <c:v>299.86685433230264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1617,8 +1624,8 @@
       <xdr:rowOff>88100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>297620</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>494843</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111385</xdr:rowOff>
     </xdr:to>
@@ -12650,7 +12657,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>642170</xdr:colOff>
+      <xdr:colOff>444947</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>136782</xdr:rowOff>
     </xdr:to>
@@ -19424,7 +19431,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>135547</xdr:colOff>
+      <xdr:colOff>135548</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5782</xdr:rowOff>
     </xdr:to>
@@ -24115,13 +24122,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K118" sqref="K118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
@@ -24130,9 +24137,9 @@
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.44140625" customWidth="1"/>
@@ -24156,21 +24163,21 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="57">
         <f>B83</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G5" s="59">
+      <c r="G5" s="58">
         <f>B84</f>
-        <v>-4.6797418370991828E-15</v>
+        <v>-1.9137014581950423E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="60">
+      <c r="G6" s="59">
         <f>B85</f>
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -24178,33 +24185,33 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="80">
+      <c r="G8" s="115">
         <f>V48</f>
-        <v>259.99882353217373</v>
-      </c>
-      <c r="H8" s="81">
+        <v>269.99621601431096</v>
+      </c>
+      <c r="H8" s="79">
         <f>X48</f>
-        <v>89.960000000000065</v>
+        <v>-1.3117060032277545E-12</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G9" s="82">
+      <c r="G9" s="116">
         <f>V49</f>
-        <v>-8.7266462602735538E-5</v>
-      </c>
-      <c r="H9" s="83">
+        <v>-3.0628885708429348E-15</v>
+      </c>
+      <c r="H9" s="80">
         <f>X49</f>
-        <v>-6.981317142586244E-8</v>
+        <v>-89.847100000000012</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="84">
+      <c r="G10" s="117">
         <f>V50</f>
-        <v>600.00785712572781</v>
-      </c>
-      <c r="H10" s="85">
+        <v>600.00028459524754</v>
+      </c>
+      <c r="H10" s="81">
         <f>X50</f>
-        <v>89.999900000024368</v>
+        <v>-179.99999999999866</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -24242,7 +24249,7 @@
       </c>
       <c r="E15" s="20">
         <f>H85</f>
-        <v>-1.276814014521436E-15</v>
+        <v>-4.9840370009519036E-15</v>
       </c>
       <c r="I15" s="20">
         <f>H86</f>
@@ -24257,28 +24264,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="30">
-        <f>1.91</f>
-        <v>1.91</v>
-      </c>
-      <c r="C16" s="21">
+        <v>3.8220000000000001</v>
+      </c>
+      <c r="C16" s="114">
         <f t="shared" ref="C16:C21" si="0">RADIANS(B16)</f>
-        <v>3.3335788713091695E-2</v>
+        <v>6.6706484011223283E-2</v>
       </c>
       <c r="D16" s="33">
         <f>N120</f>
-        <v>1.9100000000000084</v>
+        <v>3.8219999999999987</v>
       </c>
       <c r="E16" s="33">
         <f>N126</f>
-        <v>68.07859623046491</v>
+        <v>68.709039706599611</v>
       </c>
       <c r="H16" s="33">
         <f>R120</f>
-        <v>-68.078596230464939</v>
+        <v>-68.709039706599626</v>
       </c>
       <c r="I16" s="33">
         <f>R126</f>
-        <v>-1.9100000000000084</v>
+        <v>-3.8220000000000116</v>
       </c>
       <c r="V16" t="s">
         <v>17</v>
@@ -24289,27 +24295,27 @@
         <v>6</v>
       </c>
       <c r="B17" s="30">
-        <v>-1.95</v>
-      </c>
-      <c r="C17" s="21">
+        <v>-3.9750000000000001</v>
+      </c>
+      <c r="C17" s="114">
         <f t="shared" si="0"/>
-        <v>-3.4033920413889425E-2</v>
+        <v>-6.9376837766774599E-2</v>
       </c>
       <c r="D17" s="34">
         <f>N121</f>
-        <v>-1.9500000000000186</v>
+        <v>-3.9750000000000072</v>
       </c>
       <c r="E17" s="34">
         <f>N127</f>
-        <v>-178.04999999999995</v>
+        <v>-176.02500000000001</v>
       </c>
       <c r="H17" s="34">
         <f>R121</f>
-        <v>-1.9500000000000186</v>
+        <v>-3.9750000000000072</v>
       </c>
       <c r="I17" s="34">
         <f>R127</f>
-        <v>-178.04999999999995</v>
+        <v>-176.02500000000001</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -24320,19 +24326,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="30">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="F18" s="86">
+        <v>0</v>
+      </c>
+      <c r="F18" s="82">
         <f>O142</f>
-        <v>-89.999999999996447</v>
+        <v>3.0627458044541856E-21</v>
       </c>
       <c r="G18" s="28">
         <f>O143</f>
-        <v>90.000000000003553</v>
+        <v>-180</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -24350,13 +24356,13 @@
         <f t="shared" si="0"/>
         <v>1.7453292519943296E-6</v>
       </c>
-      <c r="F19" s="87">
+      <c r="F19" s="83">
         <f>H142</f>
-        <v>1.0000091486848235E-4</v>
+        <v>9.9997270181817333E-5</v>
       </c>
       <c r="G19" s="30">
         <f>H143</f>
-        <v>-1.0000091486848235E-4</v>
+        <v>-9.9997270181817333E-5</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -24373,13 +24379,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="88">
+      <c r="F20" s="84">
         <f>K142</f>
-        <v>0</v>
+        <v>3.0628651407932753E-21</v>
       </c>
       <c r="G20" s="32">
         <f>K143</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -24448,33 +24454,33 @@
         <f>RADIANS(G23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="94">
+      <c r="N23" s="90">
         <f>COS(H23)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="72">
+      <c r="O23" s="71">
         <f>-SIN(H23)*COS(D23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="72">
+      <c r="P23" s="71">
         <f>SIN(H23)*SIN(D23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="95">
+      <c r="Q23" s="91">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="96">
+      <c r="R23" s="92">
         <f t="array" ref="R23:U26">N23:Q26</f>
         <v>1</v>
       </c>
-      <c r="S23" s="97">
+      <c r="S23" s="93">
         <v>0</v>
       </c>
-      <c r="T23" s="97">
+      <c r="T23" s="93">
         <v>0</v>
       </c>
-      <c r="U23" s="98">
+      <c r="U23" s="94">
         <v>0</v>
       </c>
       <c r="V23" s="18">
@@ -24491,32 +24497,32 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="94">
+      <c r="N24" s="90">
         <f>SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="72">
+      <c r="O24" s="71">
         <f>COS(H23)*COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="P24" s="72">
+      <c r="P24" s="71">
         <f>-COS(H23)*SIN(D23)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="95">
+      <c r="Q24" s="91">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="96">
+      <c r="R24" s="92">
         <v>0</v>
       </c>
-      <c r="S24" s="97">
+      <c r="S24" s="93">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="T24" s="97">
+      <c r="T24" s="93">
         <v>1</v>
       </c>
-      <c r="U24" s="98">
+      <c r="U24" s="94">
         <v>0</v>
       </c>
       <c r="V24" s="18">
@@ -24533,31 +24539,31 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N25" s="94">
+      <c r="N25" s="90">
         <v>0</v>
       </c>
-      <c r="O25" s="72">
+      <c r="O25" s="71">
         <f>SIN(D23)</f>
         <v>-1</v>
       </c>
-      <c r="P25" s="72">
+      <c r="P25" s="71">
         <f>COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q25" s="95">
+      <c r="Q25" s="91">
         <f>F23</f>
         <v>300</v>
       </c>
-      <c r="R25" s="96">
+      <c r="R25" s="92">
         <v>0</v>
       </c>
-      <c r="S25" s="97">
+      <c r="S25" s="93">
         <v>-1</v>
       </c>
-      <c r="T25" s="97">
+      <c r="T25" s="93">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U25" s="98">
+      <c r="U25" s="94">
         <v>300</v>
       </c>
       <c r="V25" s="18">
@@ -24574,28 +24580,28 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N26" s="94">
+      <c r="N26" s="90">
         <v>0</v>
       </c>
-      <c r="O26" s="72">
+      <c r="O26" s="71">
         <v>0</v>
       </c>
-      <c r="P26" s="72">
+      <c r="P26" s="71">
         <v>0</v>
       </c>
-      <c r="Q26" s="95">
+      <c r="Q26" s="91">
         <v>1</v>
       </c>
-      <c r="R26" s="96">
+      <c r="R26" s="92">
         <v>0</v>
       </c>
-      <c r="S26" s="97">
+      <c r="S26" s="93">
         <v>0</v>
       </c>
-      <c r="T26" s="97">
+      <c r="T26" s="93">
         <v>0</v>
       </c>
-      <c r="U26" s="98">
+      <c r="U26" s="94">
         <v>1</v>
       </c>
       <c r="V26" s="18">
@@ -24626,160 +24632,160 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-88.09</v>
+        <v>-86.177999999999997</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.5374605380818049</v>
-      </c>
-      <c r="N28" s="92">
+        <v>-1.5040898427836733</v>
+      </c>
+      <c r="N28" s="88">
         <f>COS(H28)</f>
-        <v>3.3329614852437933E-2</v>
-      </c>
-      <c r="O28" s="64">
+        <v>6.6657023764909631E-2</v>
+      </c>
+      <c r="O28" s="63">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>0.99944441404901962</v>
-      </c>
-      <c r="P28" s="64">
+        <v>0.99777594738638808</v>
+      </c>
+      <c r="P28" s="63">
         <f>SIN(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="93">
+      <c r="Q28" s="89">
         <f>E28*COS(H28)</f>
-        <v>9.9988844557313801</v>
-      </c>
-      <c r="R28" s="96">
+        <v>19.997107129472891</v>
+      </c>
+      <c r="R28" s="92">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>3.3329614852437933E-2</v>
-      </c>
-      <c r="S28" s="97">
-        <v>0.99944441404901962</v>
-      </c>
-      <c r="T28" s="97">
+        <v>6.6657023764909631E-2</v>
+      </c>
+      <c r="S28" s="93">
+        <v>0.99777594738638808</v>
+      </c>
+      <c r="T28" s="93">
         <v>0</v>
       </c>
-      <c r="U28" s="98">
-        <v>9.9988844557313801</v>
+      <c r="U28" s="94">
+        <v>19.997107129472891</v>
       </c>
       <c r="V28" s="18">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>9.9988844557313801</v>
+        <v>19.997107129472891</v>
       </c>
       <c r="W28" s="21">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.5707963267948948</v>
+        <v>-1.5707963267948957</v>
       </c>
       <c r="X28" s="20">
         <f>DEGREES(W28)</f>
-        <v>-89.999999999999901</v>
+        <v>-89.999999999999943</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N29" s="92">
+      <c r="N29" s="88">
         <f>SIN(H28)</f>
-        <v>-0.99944441404901962</v>
-      </c>
-      <c r="O29" s="64">
+        <v>-0.99777594738638808</v>
+      </c>
+      <c r="O29" s="63">
         <f>COS(H28)*COS(D28)</f>
-        <v>3.3329614852437933E-2</v>
-      </c>
-      <c r="P29" s="64">
+        <v>6.6657023764909631E-2</v>
+      </c>
+      <c r="P29" s="63">
         <f>-COS(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="93">
+      <c r="Q29" s="89">
         <f>E28*SIN(H28)</f>
-        <v>-299.8333242147059</v>
-      </c>
-      <c r="R29" s="96">
-        <v>-6.1223388981960376E-17</v>
-      </c>
-      <c r="S29" s="97">
-        <v>2.0416863069581862E-18</v>
-      </c>
-      <c r="T29" s="97">
+        <v>-299.33278421591643</v>
+      </c>
+      <c r="R29" s="92">
+        <v>-6.112118301427089E-17</v>
+      </c>
+      <c r="S29" s="93">
+        <v>4.0832374837193101E-18</v>
+      </c>
+      <c r="T29" s="93">
         <v>1</v>
       </c>
-      <c r="U29" s="98">
-        <v>-1.8367016694588113E-14</v>
+      <c r="U29" s="94">
+        <v>-1.8336354904281269E-14</v>
       </c>
       <c r="V29" s="18">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>-1.8367016694588113E-14</v>
+        <v>-1.8336354904281269E-14</v>
       </c>
       <c r="W29" s="21">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.5374605380818049</v>
+        <v>-1.5040898427836733</v>
       </c>
       <c r="X29" s="20">
         <f>DEGREES(W29)</f>
-        <v>-88.09</v>
+        <v>-86.177999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N30" s="92">
+      <c r="N30" s="88">
         <v>0</v>
       </c>
-      <c r="O30" s="64">
+      <c r="O30" s="63">
         <f>SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="64">
+      <c r="P30" s="63">
         <f>COS(D28)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="93">
+      <c r="Q30" s="89">
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="96">
-        <v>0.99944441404901962</v>
-      </c>
-      <c r="S30" s="97">
-        <v>-3.3329614852437933E-2</v>
-      </c>
-      <c r="T30" s="97">
+      <c r="R30" s="92">
+        <v>0.99777594738638808</v>
+      </c>
+      <c r="S30" s="93">
+        <v>-6.6657023764909631E-2</v>
+      </c>
+      <c r="T30" s="93">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="98">
-        <v>599.83332421470595</v>
+      <c r="U30" s="94">
+        <v>599.33278421591649</v>
       </c>
       <c r="V30" s="18">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>599.83332421470595</v>
+        <v>599.33278421591649</v>
       </c>
       <c r="W30" s="21">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>-1.8369065845200463E-15</v>
+        <v>-9.1695037614996275E-16</v>
       </c>
       <c r="X30" s="20">
         <f>DEGREES(W30)</f>
-        <v>-1.0524699465278969E-13</v>
+        <v>-5.2537386576326164E-14</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N31" s="92">
+      <c r="N31" s="88">
         <v>0</v>
       </c>
-      <c r="O31" s="64">
+      <c r="O31" s="63">
         <v>0</v>
       </c>
-      <c r="P31" s="64">
+      <c r="P31" s="63">
         <v>0</v>
       </c>
-      <c r="Q31" s="93">
+      <c r="Q31" s="89">
         <v>1</v>
       </c>
-      <c r="R31" s="96">
+      <c r="R31" s="92">
         <v>0</v>
       </c>
-      <c r="S31" s="97">
+      <c r="S31" s="93">
         <v>0</v>
       </c>
-      <c r="T31" s="97">
+      <c r="T31" s="93">
         <v>0</v>
       </c>
-      <c r="U31" s="98">
+      <c r="U31" s="94">
         <v>1</v>
       </c>
       <c r="V31" s="18">
@@ -24810,160 +24816,160 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>-1.95</v>
+        <v>-3.9750000000000001</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>-3.4033920413889425E-2</v>
-      </c>
-      <c r="N33" s="94">
+        <v>-6.9376837766774599E-2</v>
+      </c>
+      <c r="N33" s="90">
         <f>COS(H33)</f>
-        <v>0.99942090203167289</v>
-      </c>
-      <c r="O33" s="72">
+        <v>0.99759439230133695</v>
+      </c>
+      <c r="O33" s="71">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>2.0844277946182249E-18</v>
-      </c>
-      <c r="P33" s="72">
+        <v>4.246437912005585E-18</v>
+      </c>
+      <c r="P33" s="71">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>3.4027350502167444E-2</v>
-      </c>
-      <c r="Q33" s="95">
+        <v>6.9321197688198749E-2</v>
+      </c>
+      <c r="Q33" s="91">
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="65">
+      <c r="R33" s="64">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="S33" s="66">
-        <v>6.1257407817369164E-17</v>
-      </c>
-      <c r="T33" s="66">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="U33" s="67">
-        <v>9.9988844557313801</v>
+        <v>-2.6703505819307971E-3</v>
+      </c>
+      <c r="S33" s="65">
+        <v>6.125720433867714E-17</v>
+      </c>
+      <c r="T33" s="65">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="U33" s="66">
+        <v>19.997107129472891</v>
       </c>
       <c r="V33" s="18">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>9.9988844557313801</v>
+        <v>19.997107129472891</v>
       </c>
       <c r="W33" s="21">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-8.768354438392519E-14</v>
+        <v>-2.287858544280776E-14</v>
       </c>
       <c r="X33" s="20">
         <f>DEGREES(W33)</f>
-        <v>-5.0238970259469456E-12</v>
+        <v>-1.3108463871023282E-12</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N34" s="94">
+      <c r="N34" s="90">
         <f>SIN(H33)</f>
-        <v>-3.4027350502167444E-2</v>
-      </c>
-      <c r="O34" s="72">
+        <v>-6.9321197688198749E-2</v>
+      </c>
+      <c r="O34" s="71">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.1221948696374166E-17</v>
-      </c>
-      <c r="P34" s="72">
+        <v>6.111006141767433E-17</v>
+      </c>
+      <c r="P34" s="71">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>0.99942090203167289</v>
-      </c>
-      <c r="Q34" s="95">
+        <v>0.99759439230133695</v>
+      </c>
+      <c r="Q34" s="91">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="65">
-        <v>-6.1257407817369164E-17</v>
-      </c>
-      <c r="S34" s="66">
+      <c r="R34" s="64">
+        <v>-6.125720433867714E-17</v>
+      </c>
+      <c r="S34" s="65">
         <v>-1</v>
       </c>
-      <c r="T34" s="66">
-        <v>6.1214657000177163E-17</v>
-      </c>
-      <c r="U34" s="67">
-        <v>-1.8367016694588113E-14</v>
+      <c r="T34" s="65">
+        <v>6.1093843950955162E-17</v>
+      </c>
+      <c r="U34" s="66">
+        <v>-1.8336354904281269E-14</v>
       </c>
       <c r="V34" s="18">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>-1.8367016694588113E-14</v>
+        <v>-1.8336354904281269E-14</v>
       </c>
       <c r="W34" s="21">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.5700981950940989</v>
+        <v>-1.5681259730393453</v>
       </c>
       <c r="X34" s="20">
         <f>DEGREES(W34)</f>
-        <v>-89.960000000000008</v>
+        <v>-89.847000000000008</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N35" s="94">
+      <c r="N35" s="90">
         <v>0</v>
       </c>
-      <c r="O35" s="72">
+      <c r="O35" s="71">
         <f>SIN(D33)</f>
         <v>-1</v>
       </c>
-      <c r="P35" s="72">
+      <c r="P35" s="71">
         <f>COS(D33)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q35" s="95">
+      <c r="Q35" s="91">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="R35" s="65">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="S35" s="66">
-        <v>-6.1214657000177163E-17</v>
-      </c>
-      <c r="T35" s="66">
-        <v>6.9813164408759343E-4</v>
-      </c>
-      <c r="U35" s="67">
-        <v>599.83332421470595</v>
+      <c r="R35" s="64">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="S35" s="65">
+        <v>-6.1093843950955162E-17</v>
+      </c>
+      <c r="T35" s="65">
+        <v>2.6703505819307971E-3</v>
+      </c>
+      <c r="U35" s="66">
+        <v>599.33278421591649</v>
       </c>
       <c r="V35" s="18">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>599.83332421470595</v>
+        <v>599.33278421591649</v>
       </c>
       <c r="W35" s="21">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>-3.1415926535897052</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="X35" s="20">
         <f>DEGREES(W35)</f>
-        <v>-179.99999999999497</v>
+        <v>-179.99999999999866</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N36" s="94">
+      <c r="N36" s="90">
         <v>0</v>
       </c>
-      <c r="O36" s="72">
+      <c r="O36" s="71">
         <v>0</v>
       </c>
-      <c r="P36" s="72">
+      <c r="P36" s="71">
         <v>0</v>
       </c>
-      <c r="Q36" s="95">
+      <c r="Q36" s="91">
         <v>1</v>
       </c>
-      <c r="R36" s="65">
+      <c r="R36" s="64">
         <v>0</v>
       </c>
-      <c r="S36" s="66">
+      <c r="S36" s="65">
         <v>0</v>
       </c>
-      <c r="T36" s="66">
+      <c r="T36" s="65">
         <v>0</v>
       </c>
-      <c r="U36" s="67">
+      <c r="U36" s="66">
         <v>1</v>
       </c>
       <c r="V36" s="18">
@@ -24995,94 +25001,94 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>-1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>0</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="65">
+      <c r="R38" s="64">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>-6.1300173562623002E-17</v>
-      </c>
-      <c r="S38" s="66">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="T38" s="66">
-        <v>6.9813164408765469E-4</v>
-      </c>
-      <c r="U38" s="67">
-        <v>209.99883571694619</v>
+        <v>-2.6703505819307971E-3</v>
+      </c>
+      <c r="S38" s="65">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="T38" s="65">
+        <v>0</v>
+      </c>
+      <c r="U38" s="66">
+        <v>219.99639405097864</v>
       </c>
       <c r="V38" s="18">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097864</v>
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>3.1408945218889954</v>
+        <v>1.5707963267948737</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>179.96</v>
+        <v>89.999999999998693</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>-1</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="65">
+      <c r="R39" s="64">
+        <v>-6.125720433867714E-17</v>
+      </c>
+      <c r="S39" s="65">
+        <v>-1.6357879447583803E-19</v>
+      </c>
+      <c r="T39" s="65">
         <v>1</v>
       </c>
-      <c r="S39" s="66">
-        <v>6.1214657000177151E-17</v>
-      </c>
-      <c r="T39" s="66">
-        <v>1.2251483056280015E-16</v>
-      </c>
-      <c r="U39" s="67">
-        <v>-6.1240852945526801E-15</v>
+      <c r="U39" s="66">
+        <v>-6.1175861140902367E-15</v>
       </c>
       <c r="V39" s="18">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>-6.1240852945526801E-15</v>
+        <v>-6.1175861140902367E-15</v>
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.2247206481754633E-16</v>
+        <v>-1.5681259730393453</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-7.0171324222980615E-15</v>
+        <v>-89.847000000000008</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25101,29 +25107,29 @@
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="R40" s="65">
-        <v>1.2247206481754633E-16</v>
-      </c>
-      <c r="S40" s="66">
-        <v>6.9813164408765469E-4</v>
-      </c>
-      <c r="T40" s="66">
-        <v>-0.99999975630607407</v>
-      </c>
-      <c r="U40" s="67">
-        <v>599.97295054352344</v>
+      <c r="R40" s="64">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="S40" s="65">
+        <v>2.6703505819307971E-3</v>
+      </c>
+      <c r="T40" s="65">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="U40" s="66">
+        <v>599.86685433230264</v>
       </c>
       <c r="V40" s="18">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>1.5707963267948966</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>90</v>
+        <v>-179.99999999999866</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -25139,16 +25145,16 @@
       <c r="Q41" s="13">
         <v>1</v>
       </c>
-      <c r="R41" s="65">
+      <c r="R41" s="64">
         <v>0</v>
       </c>
-      <c r="S41" s="66">
+      <c r="S41" s="65">
         <v>0</v>
       </c>
-      <c r="T41" s="66">
+      <c r="T41" s="65">
         <v>0</v>
       </c>
-      <c r="U41" s="67">
+      <c r="U41" s="66">
         <v>1</v>
       </c>
       <c r="V41" s="10">
@@ -25175,7 +25181,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="108">
+      <c r="G43" s="103">
         <f>B19</f>
         <v>1E-4</v>
       </c>
@@ -25199,30 +25205,30 @@
         <f>E43*COS(H43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="65">
+      <c r="R43" s="64">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>1.7453288266060059E-6</v>
-      </c>
-      <c r="S43" s="66">
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="T43" s="66">
-        <v>0.99999975630455096</v>
-      </c>
-      <c r="U43" s="67">
-        <v>209.99883571694619</v>
+        <v>-2.6686052588975203E-3</v>
+      </c>
+      <c r="S43" s="65">
+        <v>6.1257204624082689E-17</v>
+      </c>
+      <c r="T43" s="65">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="U43" s="66">
+        <v>219.99639405097864</v>
       </c>
       <c r="V43" s="18">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097864</v>
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>1.5700981950941</v>
+        <v>-2.2893588574499682E-14</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>89.960000000000065</v>
+        <v>-1.3117060032277545E-12</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -25242,29 +25248,29 @@
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="65">
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="S44" s="66">
-        <v>-1.2251493747717196E-16</v>
-      </c>
-      <c r="T44" s="66">
-        <v>-1.745329251932229E-6</v>
-      </c>
-      <c r="U44" s="67">
-        <v>-6.1240852945526801E-15</v>
+      <c r="R44" s="64">
+        <v>-6.1257204624082689E-17</v>
+      </c>
+      <c r="S44" s="65">
+        <v>-1</v>
+      </c>
+      <c r="T44" s="65">
+        <v>6.1093950864946036E-17</v>
+      </c>
+      <c r="U44" s="66">
+        <v>-6.1175861140902367E-15</v>
       </c>
       <c r="V44" s="18">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>-6.1240852945526801E-15</v>
+        <v>-6.1175861140902367E-15</v>
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.218469702640524E-9</v>
+        <v>-1.5681277183685973</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-6.981317142586244E-8</v>
+        <v>-89.847100000000012</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -25283,29 +25289,29 @@
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="65">
-        <v>1.218469702640524E-9</v>
-      </c>
-      <c r="S45" s="66">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="T45" s="66">
-        <v>6.9813164408653004E-4</v>
-      </c>
-      <c r="U45" s="67">
-        <v>599.97295054352344</v>
+      <c r="R45" s="64">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="S45" s="65">
+        <v>-6.1093950864946036E-17</v>
+      </c>
+      <c r="T45" s="65">
+        <v>2.6686052588975203E-3</v>
+      </c>
+      <c r="U45" s="66">
+        <v>599.86685433230264</v>
       </c>
       <c r="V45" s="18">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>89.999900000024368</v>
+        <v>-179.99999999999866</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -25321,16 +25327,16 @@
       <c r="Q46" s="13">
         <v>1</v>
       </c>
-      <c r="R46" s="65">
+      <c r="R46" s="64">
         <v>0</v>
       </c>
-      <c r="S46" s="66">
+      <c r="S46" s="65">
         <v>0</v>
       </c>
-      <c r="T46" s="66">
+      <c r="T46" s="65">
         <v>0</v>
       </c>
-      <c r="U46" s="67">
+      <c r="U46" s="66">
         <v>1</v>
       </c>
       <c r="V46" s="10">
@@ -25357,7 +25363,7 @@
       <c r="F48">
         <v>50</v>
       </c>
-      <c r="G48" s="107">
+      <c r="G48" s="102">
         <f>B20</f>
         <v>0</v>
       </c>
@@ -25381,30 +25387,30 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="105">
+      <c r="R48" s="100">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>1.7453288266060059E-6</v>
-      </c>
-      <c r="S48" s="106">
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="T48" s="106">
-        <v>0.99999975630455096</v>
-      </c>
-      <c r="U48" s="98">
-        <v>259.99882353217373</v>
+        <v>-2.6686052588975203E-3</v>
+      </c>
+      <c r="S48" s="101">
+        <v>6.1257204624082689E-17</v>
+      </c>
+      <c r="T48" s="101">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="U48" s="94">
+        <v>269.99621601431096</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>259.99882353217373</v>
-      </c>
-      <c r="W48" s="99">
+        <v>269.99621601431096</v>
+      </c>
+      <c r="W48" s="95">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>1.5700981950941</v>
+        <v>-2.2893588574499682E-14</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>89.960000000000065</v>
+        <v>-1.3117060032277545E-12</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>71</v>
@@ -25430,29 +25436,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="105">
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="S49" s="106">
-        <v>-1.2251493747717196E-16</v>
-      </c>
-      <c r="T49" s="106">
-        <v>-1.745329251932229E-6</v>
-      </c>
-      <c r="U49" s="98">
-        <v>-8.7266462602735538E-5</v>
+      <c r="R49" s="100">
+        <v>-6.1257204624082689E-17</v>
+      </c>
+      <c r="S49" s="101">
+        <v>-1</v>
+      </c>
+      <c r="T49" s="101">
+        <v>6.1093950864946036E-17</v>
+      </c>
+      <c r="U49" s="94">
+        <v>-3.0628885708429348E-15</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>-8.7266462602735538E-5</v>
-      </c>
-      <c r="W49" s="99">
+        <v>-3.0628885708429348E-15</v>
+      </c>
+      <c r="W49" s="95">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.218469702640524E-9</v>
+        <v>-1.5681277183685973</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-6.981317142586244E-8</v>
+        <v>-89.847100000000012</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -25477,29 +25483,29 @@
         <f>F48</f>
         <v>50</v>
       </c>
-      <c r="R50" s="105">
-        <v>1.218469702640524E-9</v>
-      </c>
-      <c r="S50" s="106">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="T50" s="106">
-        <v>6.9813164408653004E-4</v>
-      </c>
-      <c r="U50" s="98">
-        <v>600.00785712572781</v>
+      <c r="R50" s="100">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="S50" s="101">
+        <v>-6.1093950864946036E-17</v>
+      </c>
+      <c r="T50" s="101">
+        <v>2.6686052588975203E-3</v>
+      </c>
+      <c r="U50" s="94">
+        <v>600.00028459524754</v>
       </c>
       <c r="V50" s="18">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>600.00785712572781</v>
-      </c>
-      <c r="W50" s="99">
+        <v>600.00028459524754</v>
+      </c>
+      <c r="W50" s="95">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>89.999900000024368</v>
+        <v>-179.99999999999866</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>76</v>
@@ -25521,16 +25527,16 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="105">
+      <c r="R51" s="100">
         <v>0</v>
       </c>
-      <c r="S51" s="106">
+      <c r="S51" s="101">
         <v>0</v>
       </c>
-      <c r="T51" s="106">
+      <c r="T51" s="101">
         <v>0</v>
       </c>
-      <c r="U51" s="98">
+      <c r="U51" s="94">
         <v>1</v>
       </c>
       <c r="V51" s="18">
@@ -25544,10 +25550,10 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="97"/>
-      <c r="S52" s="97"/>
-      <c r="T52" s="97"/>
-      <c r="U52" s="97"/>
+      <c r="R52" s="93"/>
+      <c r="S52" s="93"/>
+      <c r="T52" s="93"/>
+      <c r="U52" s="93"/>
       <c r="V52" s="18"/>
       <c r="W52" s="8"/>
     </row>
@@ -25576,77 +25582,77 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>259.99882353217373</v>
+        <v>269.99621601431096</v>
       </c>
       <c r="D56" s="21">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>1.5700981950941</v>
+        <v>-2.2893588574499682E-14</v>
       </c>
       <c r="E56" s="20">
         <f>DEGREES(D56)</f>
-        <v>89.960000000000065</v>
-      </c>
-      <c r="F56" s="100">
+        <v>-1.3117060032277545E-12</v>
+      </c>
+      <c r="F56" s="96">
         <f>D56+PI()</f>
-        <v>4.7116908486838929</v>
+        <v>3.14159265358977</v>
       </c>
       <c r="G56" s="21">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>-1.5714944584956934</v>
+        <v>3.14159265358977</v>
       </c>
       <c r="H56" s="20">
         <f>DEGREES(G56)</f>
-        <v>-90.039999999999949</v>
+        <v>179.99999999999866</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>-8.7266462602735538E-5</v>
+        <v>-3.0628885708429348E-15</v>
       </c>
       <c r="D57" s="21">
-        <v>-1.218469702640524E-9</v>
+        <v>-1.5681277183685973</v>
       </c>
       <c r="E57" s="20">
         <f>DEGREES(D57)</f>
-        <v>-6.981317142586244E-8</v>
-      </c>
-      <c r="F57" s="100">
+        <v>-89.847100000000012</v>
+      </c>
+      <c r="F57" s="96">
         <f>D57+PI()/2</f>
-        <v>1.5707963255764268</v>
+        <v>2.6686084262992349E-3</v>
       </c>
       <c r="G57" s="21">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>1.5707963255764268</v>
+        <v>2.6686084262992349E-3</v>
       </c>
       <c r="H57" s="20">
         <f>DEGREES(G57)</f>
-        <v>89.999999930186831</v>
+        <v>0.15289999999999457</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>600.00785712572781</v>
+        <v>600.00028459524754</v>
       </c>
       <c r="D58" s="21">
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="E58" s="20">
         <f>DEGREES(D58)</f>
-        <v>89.999900000024368</v>
-      </c>
-      <c r="F58" s="100">
+        <v>-179.99999999999866</v>
+      </c>
+      <c r="F58" s="96">
         <f>D58</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="G58" s="21">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="H58" s="20">
         <f>DEGREES(G58)</f>
-        <v>89.999900000024368</v>
-      </c>
-      <c r="P58" s="99"/>
+        <v>-179.99999999999866</v>
+      </c>
+      <c r="P58" s="95"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="7">
@@ -25669,130 +25675,130 @@
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="102">
+      <c r="B62" s="113">
         <f>COS(D58)*COS(D57)</f>
-        <v>1.7453288266348929E-6</v>
-      </c>
-      <c r="C62" s="102">
+        <v>-2.6686052588975342E-3</v>
+      </c>
+      <c r="C62" s="113">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>-6.9813164408755006E-4</v>
-      </c>
-      <c r="D62" s="102">
+        <v>3.2164670115885147E-16</v>
+      </c>
+      <c r="D62" s="113">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.99999975630455096</v>
-      </c>
-      <c r="E62" s="102">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="E62" s="98">
         <f>C56</f>
-        <v>259.99882353217373</v>
-      </c>
-      <c r="F62" s="99">
+        <v>269.99621601431096</v>
+      </c>
+      <c r="F62" s="95">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>1.5700981950941</v>
+        <v>-2.2893588574499682E-14</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>89.960000000000065</v>
-      </c>
-      <c r="H62" s="100">
+        <v>-1.3117060032277545E-12</v>
+      </c>
+      <c r="H62" s="96">
         <f>F62+PI()</f>
-        <v>4.7116908486838929</v>
+        <v>3.14159265358977</v>
       </c>
       <c r="I62" s="21">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>-1.5714944584956934</v>
+        <v>3.14159265358977</v>
       </c>
       <c r="J62" s="20">
         <f>DEGREES(I62)</f>
-        <v>-90.039999999999949</v>
+        <v>179.99999999999866</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="103">
+      <c r="B63" s="113">
         <f>COS(D57)*SIN(D58)</f>
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="C63" s="103">
+        <v>-6.1952081403897378E-17</v>
+      </c>
+      <c r="C63" s="113">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-1.2249484612480685E-16</v>
-      </c>
-      <c r="D63" s="102">
+        <v>-1</v>
+      </c>
+      <c r="D63" s="113">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>-1.745329251961116E-6</v>
-      </c>
-      <c r="E63" s="102">
+        <v>3.2148252022214973E-16</v>
+      </c>
+      <c r="E63" s="98">
         <f>C57</f>
-        <v>-8.7266462602735538E-5</v>
-      </c>
-      <c r="F63" s="99">
+        <v>-3.0628885708429348E-15</v>
+      </c>
+      <c r="F63" s="95">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.218469702640524E-9</v>
+        <v>-1.5681277183685973</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-6.981317142586244E-8</v>
-      </c>
-      <c r="H63" s="100">
+        <v>-89.847100000000012</v>
+      </c>
+      <c r="H63" s="96">
         <f>F63+PI()/2</f>
-        <v>1.5707963255764268</v>
+        <v>2.6686084262992349E-3</v>
       </c>
       <c r="I63" s="21">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>1.5707963255764268</v>
+        <v>2.6686084262992349E-3</v>
       </c>
       <c r="J63" s="20">
         <f>DEGREES(I63)</f>
-        <v>89.999999930186831</v>
+        <v>0.15289999999999457</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B64" s="103">
+      <c r="B64" s="113">
         <f>-SIN(D57)</f>
-        <v>1.218469702640524E-9</v>
-      </c>
-      <c r="C64" s="102">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="C64" s="113">
         <f>SIN(D56)*COS(D57)</f>
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="D64" s="102">
+        <v>-6.1093950864946356E-17</v>
+      </c>
+      <c r="D64" s="113">
         <f>COS(D56)*COS(D57)</f>
-        <v>6.9813164408648678E-4</v>
-      </c>
-      <c r="E64" s="102">
+        <v>2.6686052588975342E-3</v>
+      </c>
+      <c r="E64" s="98">
         <f>C58</f>
-        <v>600.00785712572781</v>
-      </c>
-      <c r="F64" s="99">
+        <v>600.00028459524754</v>
+      </c>
+      <c r="F64" s="95">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>89.999900000024368</v>
-      </c>
-      <c r="H64" s="100">
+        <v>-179.99999999999866</v>
+      </c>
+      <c r="H64" s="96">
         <f>F64</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="I64" s="21">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>1.57079458146607</v>
+        <v>-3.14159265358977</v>
       </c>
       <c r="J64" s="20">
         <f>DEGREES(I64)</f>
-        <v>89.999900000024368</v>
+        <v>-179.99999999999866</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="102">
+      <c r="B65" s="98">
         <v>0</v>
       </c>
-      <c r="C65" s="102">
+      <c r="C65" s="98">
         <v>0</v>
       </c>
-      <c r="D65" s="102">
+      <c r="D65" s="98">
         <v>0</v>
       </c>
-      <c r="E65" s="102">
+      <c r="E65" s="98">
         <v>1</v>
       </c>
     </row>
@@ -25816,16 +25822,16 @@
       </c>
       <c r="I69" s="7">
         <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
       <c r="J69" s="7">
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
       <c r="K69" s="7">
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
       <c r="L69" s="7">
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -25833,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-4.6797418370991828E-15</v>
+        <v>-1.9137014581950423E-14</v>
       </c>
       <c r="J70" s="7">
-        <v>-4.6797418370991828E-15</v>
+        <v>-1.9137014581950423E-14</v>
       </c>
       <c r="K70" s="7">
-        <v>-4.6797418370991828E-15</v>
+        <v>-1.9137014581950423E-14</v>
       </c>
       <c r="L70" s="7">
-        <v>-4.6797418370991828E-15</v>
+        <v>-1.9137014581950423E-14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -25851,16 +25857,16 @@
         <v>-50</v>
       </c>
       <c r="I71" s="7">
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
       <c r="J71" s="7">
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
       <c r="K71" s="7">
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
       <c r="L71" s="7">
-        <v>599.97295054352344</v>
+        <v>599.86685433230264</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -25939,28 +25945,28 @@
       <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="63">
+      <c r="B83" s="62">
         <f t="array" ref="B83:B86">L69:L72</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="21">
         <f>ATAN2(B83,B84)</f>
-        <v>-2.2284608489005749E-17</v>
+        <v>-8.6987855707834476E-17</v>
       </c>
       <c r="I83" s="23">
         <f>DEGREES(H83)</f>
-        <v>-1.276814014521436E-15</v>
+        <v>-4.9840370009519036E-15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="63">
-        <v>-4.6797418370991828E-15</v>
+      <c r="B84" s="62">
+        <v>-1.9137014581950423E-14</v>
       </c>
       <c r="H84" s="21">
         <f>ATAN2(-B83,-B84)</f>
@@ -25972,19 +25978,19 @@
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="63">
-        <v>599.97295054352344</v>
+      <c r="B85" s="62">
+        <v>599.86685433230264</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="21">
         <f>IF(B87=1,H83,H84)</f>
-        <v>-2.2284608489005749E-17</v>
+        <v>-8.6987855707834476E-17</v>
       </c>
       <c r="H85" s="23">
         <f>DEGREES(G85)</f>
-        <v>-1.276814014521436E-15</v>
+        <v>-4.9840370009519036E-15</v>
       </c>
       <c r="I85" s="15" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26039,7 +26045,7 @@
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26048,7 +26054,7 @@
       </c>
       <c r="L97" s="4">
         <f>E110</f>
-        <v>299.97295054352344</v>
+        <v>299.86685433230264</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -26057,31 +26063,31 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E110" s="19">
         <f>B85-F23</f>
-        <v>299.97295054352344</v>
-      </c>
-      <c r="M110" s="21">
+        <v>299.86685433230264</v>
+      </c>
+      <c r="M110" s="95">
         <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.57742993282216071</v>
+        <v>0.56624624237622934</v>
       </c>
       <c r="N110" s="20">
         <f>DEGREES(M110)</f>
-        <v>33.084298115232457</v>
+        <v>32.443519853299811</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>209.99883571694619</v>
+        <v>219.99639405097861</v>
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
-      <c r="M112" s="21">
+      <c r="M112" s="114">
         <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.6048302472087863</v>
+        <v>1.6401731645616713</v>
       </c>
       <c r="N112" s="22">
         <f>DEGREES(M112)</f>
-        <v>91.950000000000017</v>
+        <v>93.975000000000009</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -26105,7 +26111,7 @@
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
-        <v>366.17384131073607</v>
+        <v>371.91201072644031</v>
       </c>
       <c r="L115" t="s">
         <v>68</v>
@@ -26136,25 +26142,25 @@
       <c r="L116" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M116" s="39">
+      <c r="M116" s="118">
         <f>ATAN2(M115*E112,E110)</f>
-        <v>0.96003060525964412</v>
-      </c>
-      <c r="N116" s="40">
+        <v>0.93784360040744397</v>
+      </c>
+      <c r="N116" s="39">
         <f>DEGREES(M116)</f>
-        <v>55.005701884767539</v>
-      </c>
-      <c r="O116" s="41"/>
-      <c r="P116" s="41"/>
-      <c r="Q116" s="42">
+        <v>53.734480146700193</v>
+      </c>
+      <c r="O116" s="40"/>
+      <c r="P116" s="40"/>
+      <c r="Q116" s="41">
         <f>ATAN2(Q115*E112,E110)</f>
-        <v>2.1815620483301492</v>
-      </c>
-      <c r="R116" s="40">
+        <v>2.2037490531823494</v>
+      </c>
+      <c r="R116" s="39">
         <f>DEGREES(Q116)</f>
-        <v>124.99429811523247</v>
-      </c>
-      <c r="S116" s="43"/>
+        <v>126.26551985329982</v>
+      </c>
+      <c r="S116" s="42"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
@@ -26164,186 +26170,187 @@
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="M117" s="44"/>
-      <c r="N117" s="41"/>
-      <c r="O117" s="41"/>
-      <c r="P117" s="41"/>
-      <c r="Q117" s="41"/>
-      <c r="R117" s="41"/>
-      <c r="S117" s="43"/>
+      <c r="M117" s="43"/>
+      <c r="N117" s="40"/>
+      <c r="O117" s="40"/>
+      <c r="P117" s="40"/>
+      <c r="Q117" s="40"/>
+      <c r="R117" s="40"/>
+      <c r="S117" s="42"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G118" s="1"/>
-      <c r="M118" s="44"/>
-      <c r="N118" s="41"/>
-      <c r="O118" s="41"/>
-      <c r="P118" s="41"/>
-      <c r="Q118" s="41"/>
-      <c r="R118" s="41"/>
-      <c r="S118" s="43"/>
+      <c r="K118" s="120"/>
+      <c r="M118" s="43"/>
+      <c r="N118" s="40"/>
+      <c r="O118" s="40"/>
+      <c r="P118" s="40"/>
+      <c r="Q118" s="40"/>
+      <c r="R118" s="40"/>
+      <c r="S118" s="42"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F119" s="5"/>
       <c r="G119" s="1"/>
-      <c r="M119" s="44"/>
-      <c r="N119" s="41"/>
-      <c r="O119" s="41"/>
-      <c r="P119" s="41"/>
-      <c r="Q119" s="41"/>
-      <c r="R119" s="41"/>
-      <c r="S119" s="43"/>
+      <c r="M119" s="43"/>
+      <c r="N119" s="40"/>
+      <c r="O119" s="40"/>
+      <c r="P119" s="40"/>
+      <c r="Q119" s="40"/>
+      <c r="R119" s="40"/>
+      <c r="S119" s="42"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
         <v>46</v>
       </c>
       <c r="G120" s="1"/>
-      <c r="M120" s="45">
+      <c r="M120" s="119">
         <f>PI()/2-(M116+M110)</f>
-        <v>3.3335788713091841E-2</v>
-      </c>
-      <c r="N120" s="46">
+        <v>6.6706484011223255E-2</v>
+      </c>
+      <c r="N120" s="45">
         <f>DEGREES(M120)</f>
-        <v>1.9100000000000084</v>
-      </c>
-      <c r="O120" s="47" t="str">
+        <v>3.8219999999999987</v>
+      </c>
+      <c r="O120" s="46" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P120" s="41"/>
-      <c r="Q120" s="48">
+      <c r="P120" s="40"/>
+      <c r="Q120" s="47">
         <f>PI()/2-(Q116+M110)</f>
-        <v>-1.1881956543574135</v>
-      </c>
-      <c r="R120" s="46">
+        <v>-1.1991989687636821</v>
+      </c>
+      <c r="R120" s="45">
         <f>DEGREES(Q120)</f>
-        <v>-68.078596230464939</v>
-      </c>
-      <c r="S120" s="49" t="str">
+        <v>-68.709039706599626</v>
+      </c>
+      <c r="S120" s="48" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G121" s="1"/>
-      <c r="M121" s="45">
+      <c r="M121" s="44">
         <f>PI()/2-M112</f>
-        <v>-3.4033920413889751E-2</v>
-      </c>
-      <c r="N121" s="46">
+        <v>-6.9376837766774724E-2</v>
+      </c>
+      <c r="N121" s="45">
         <f>DEGREES(M121)</f>
-        <v>-1.9500000000000186</v>
-      </c>
-      <c r="O121" s="47" t="str">
+        <v>-3.9750000000000072</v>
+      </c>
+      <c r="O121" s="46" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P121" s="41"/>
-      <c r="Q121" s="48">
+      <c r="P121" s="40"/>
+      <c r="Q121" s="47">
         <f>PI()/2-M112</f>
-        <v>-3.4033920413889751E-2</v>
-      </c>
-      <c r="R121" s="46">
+        <v>-6.9376837766774724E-2</v>
+      </c>
+      <c r="R121" s="45">
         <f>DEGREES(Q121)</f>
-        <v>-1.9500000000000186</v>
-      </c>
-      <c r="S121" s="49" t="str">
+        <v>-3.9750000000000072</v>
+      </c>
+      <c r="S121" s="48" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M122" s="44"/>
-      <c r="N122" s="41"/>
-      <c r="O122" s="41"/>
-      <c r="P122" s="41"/>
-      <c r="Q122" s="41"/>
-      <c r="R122" s="41"/>
-      <c r="S122" s="43"/>
+      <c r="M122" s="43"/>
+      <c r="N122" s="40"/>
+      <c r="O122" s="40"/>
+      <c r="P122" s="40"/>
+      <c r="Q122" s="40"/>
+      <c r="R122" s="40"/>
+      <c r="S122" s="42"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M123" s="50"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="41"/>
-      <c r="P123" s="41"/>
-      <c r="Q123" s="41"/>
-      <c r="R123" s="41"/>
-      <c r="S123" s="43"/>
+      <c r="M123" s="49"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="40"/>
+      <c r="P123" s="40"/>
+      <c r="Q123" s="40"/>
+      <c r="R123" s="40"/>
+      <c r="S123" s="42"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F124" s="9"/>
       <c r="G124" s="1"/>
-      <c r="M124" s="44"/>
-      <c r="N124" s="41"/>
-      <c r="O124" s="41"/>
-      <c r="P124" s="41"/>
-      <c r="Q124" s="41"/>
-      <c r="R124" s="41"/>
-      <c r="S124" s="43"/>
+      <c r="M124" s="43"/>
+      <c r="N124" s="40"/>
+      <c r="O124" s="40"/>
+      <c r="P124" s="40"/>
+      <c r="Q124" s="40"/>
+      <c r="R124" s="40"/>
+      <c r="S124" s="42"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M125" s="44"/>
-      <c r="N125" s="41"/>
-      <c r="O125" s="41"/>
-      <c r="P125" s="41"/>
-      <c r="Q125" s="41"/>
-      <c r="R125" s="41"/>
-      <c r="S125" s="43"/>
+      <c r="M125" s="43"/>
+      <c r="N125" s="40"/>
+      <c r="O125" s="40"/>
+      <c r="P125" s="40"/>
+      <c r="Q125" s="40"/>
+      <c r="R125" s="40"/>
+      <c r="S125" s="42"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
         <v>47</v>
       </c>
-      <c r="M126" s="45">
+      <c r="M126" s="44">
         <f>PI()/2-(M116-M110)</f>
-        <v>1.188195654357413</v>
-      </c>
-      <c r="N126" s="46">
+        <v>1.1991989687636819</v>
+      </c>
+      <c r="N126" s="45">
         <f>DEGREES(M126)</f>
-        <v>68.07859623046491</v>
-      </c>
-      <c r="O126" s="47" t="str">
+        <v>68.709039706599611</v>
+      </c>
+      <c r="O126" s="46" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P126" s="41"/>
-      <c r="Q126" s="48">
+      <c r="P126" s="40"/>
+      <c r="Q126" s="47">
         <f>PI()/2-(Q116-M110)</f>
-        <v>-3.3335788713091841E-2</v>
-      </c>
-      <c r="R126" s="46">
+        <v>-6.6706484011223477E-2</v>
+      </c>
+      <c r="R126" s="45">
         <f>DEGREES(Q126)</f>
-        <v>-1.9100000000000084</v>
-      </c>
-      <c r="S126" s="49" t="str">
+        <v>-3.8220000000000116</v>
+      </c>
+      <c r="S126" s="48" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="15"/>
-      <c r="M127" s="52">
+      <c r="M127" s="51">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.1075587331759031</v>
-      </c>
-      <c r="N127" s="53">
+        <v>-3.0722158158230184</v>
+      </c>
+      <c r="N127" s="52">
         <f>DEGREES(M127)</f>
-        <v>-178.04999999999995</v>
-      </c>
-      <c r="O127" s="54" t="str">
+        <v>-176.02500000000001</v>
+      </c>
+      <c r="O127" s="53" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P127" s="55"/>
-      <c r="Q127" s="56">
+      <c r="P127" s="54"/>
+      <c r="Q127" s="55">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.1075587331759031</v>
-      </c>
-      <c r="R127" s="53">
+        <v>-3.0722158158230184</v>
+      </c>
+      <c r="R127" s="52">
         <f>DEGREES(Q127)</f>
-        <v>-178.04999999999995</v>
-      </c>
-      <c r="S127" s="57" t="str">
+        <v>-176.02500000000001</v>
+      </c>
+      <c r="S127" s="56" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
@@ -26354,9 +26361,9 @@
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E130" s="61"/>
-      <c r="F130" s="61"/>
-      <c r="G130" s="61"/>
+      <c r="E130" s="60"/>
+      <c r="F130" s="60"/>
+      <c r="G130" s="60"/>
       <c r="J130" t="s">
         <v>51</v>
       </c>
@@ -26365,313 +26372,313 @@
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E131" s="61"/>
-      <c r="F131" s="61"/>
-      <c r="G131" s="61"/>
-      <c r="H131" s="61"/>
-      <c r="I131" s="61"/>
-      <c r="J131" s="62">
+      <c r="E131" s="60"/>
+      <c r="F131" s="60"/>
+      <c r="G131" s="60"/>
+      <c r="H131" s="60"/>
+      <c r="I131" s="60"/>
+      <c r="J131" s="61">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>6.1257529659709512E-17</v>
-      </c>
-      <c r="K131" s="62">
-        <v>1</v>
-      </c>
-      <c r="L131" s="62">
-        <v>-1.0691446512645044E-22</v>
-      </c>
-      <c r="M131" s="77">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="K131" s="61">
+        <v>-1.0691437181932925E-22</v>
+      </c>
+      <c r="L131" s="61">
+        <v>-1.7453292519934436E-6</v>
+      </c>
+      <c r="M131" s="76">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>6.1257422745337693E-17</v>
-      </c>
-      <c r="N131" s="77">
+        <v>0.99999999999847689</v>
+      </c>
+      <c r="N131" s="76">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>1</v>
-      </c>
-      <c r="O131" s="77">
+        <v>0</v>
+      </c>
+      <c r="O131" s="76">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>-1.0691437181932925E-22</v>
+        <v>-1.7453292519934436E-6</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E132" s="61"/>
-      <c r="F132" s="61"/>
-      <c r="G132" s="61"/>
-      <c r="H132" s="61"/>
-      <c r="I132" s="61"/>
-      <c r="J132" s="62">
-        <v>-0.99999999999847689</v>
-      </c>
-      <c r="K132" s="62">
-        <v>6.125752965980282E-17</v>
-      </c>
-      <c r="L132" s="62">
-        <v>1.7453292519934436E-6</v>
-      </c>
-      <c r="M132" s="77">
+      <c r="E132" s="60"/>
+      <c r="F132" s="60"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="60"/>
+      <c r="J132" s="61">
+        <v>1.0691437181932925E-22</v>
+      </c>
+      <c r="K132" s="61">
+        <v>1</v>
+      </c>
+      <c r="L132" s="61">
+        <v>-9.3307453945672803E-29</v>
+      </c>
+      <c r="M132" s="76">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>-0.99999999999847689</v>
-      </c>
-      <c r="N132" s="77">
+        <v>0</v>
+      </c>
+      <c r="N132" s="76">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="O132" s="77">
+        <v>1</v>
+      </c>
+      <c r="O132" s="76">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>1.7453292519934436E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J133" s="62">
+      <c r="J133" s="61">
         <v>1.7453292519934436E-6</v>
       </c>
-      <c r="K133" s="62">
+      <c r="K133" s="61">
         <v>-9.3307453945672803E-29</v>
       </c>
-      <c r="L133" s="62">
+      <c r="L133" s="61">
         <v>0.99999999999847689</v>
       </c>
-      <c r="M133" s="77">
+      <c r="M133" s="76">
         <f>SIN(C19)*COS(C20)</f>
         <v>1.7453292519934436E-6</v>
       </c>
-      <c r="N133" s="77">
+      <c r="N133" s="76">
         <f>-SIN(C19)*SIN(C20)</f>
         <v>0</v>
       </c>
-      <c r="O133" s="77">
+      <c r="O133" s="76">
         <f>COS(C19)</f>
         <v>0.99999999999847689</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="68">
+      <c r="B136" s="67">
         <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="C136" s="69">
-        <v>6.1257407817369164E-17</v>
-      </c>
-      <c r="D136" s="70">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="H136" s="68">
+        <v>-2.6703505819307971E-3</v>
+      </c>
+      <c r="C136" s="68">
+        <v>6.125720433867714E-17</v>
+      </c>
+      <c r="D136" s="69">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="H136" s="67">
         <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="I136" s="69">
-        <v>-6.1257407817369164E-17</v>
-      </c>
-      <c r="J136" s="70">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="M136" s="68">
+        <v>-2.6703505819307971E-3</v>
+      </c>
+      <c r="I136" s="68">
+        <v>-6.125720433867714E-17</v>
+      </c>
+      <c r="J136" s="69">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="M136" s="67">
         <f t="array" ref="M136:O138">R48:T50</f>
-        <v>1.7453288266060059E-6</v>
-      </c>
-      <c r="N136" s="69">
-        <v>-6.9813164408759343E-4</v>
-      </c>
-      <c r="O136" s="70">
-        <v>0.99999975630455096</v>
-      </c>
-      <c r="S136" s="109">
+        <v>-2.6686052588975203E-3</v>
+      </c>
+      <c r="N136" s="68">
+        <v>6.1257204624082689E-17</v>
+      </c>
+      <c r="O136" s="69">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="S136" s="104">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>6.125752945173002E-17</v>
-      </c>
-      <c r="T136" s="110">
-        <v>1</v>
-      </c>
-      <c r="U136" s="111">
-        <v>-1.0842021724855044E-19</v>
+        <v>0.999999999998477</v>
+      </c>
+      <c r="T136" s="105">
+        <v>-1.0691437181899649E-22</v>
+      </c>
+      <c r="U136" s="106">
+        <v>-1.7453292519933362E-6</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="71">
-        <v>-6.1257407817369164E-17</v>
-      </c>
-      <c r="C137" s="72">
+      <c r="B137" s="70">
+        <v>-6.125720433867714E-17</v>
+      </c>
+      <c r="C137" s="71">
         <v>-1</v>
       </c>
-      <c r="D137" s="73">
-        <v>6.1214657000177163E-17</v>
-      </c>
-      <c r="H137" s="71">
-        <v>6.1257407817369164E-17</v>
-      </c>
-      <c r="I137" s="72">
+      <c r="D137" s="72">
+        <v>6.1093843950955162E-17</v>
+      </c>
+      <c r="H137" s="70">
+        <v>6.125720433867714E-17</v>
+      </c>
+      <c r="I137" s="71">
         <v>-1</v>
       </c>
-      <c r="J137" s="73">
-        <v>-6.1214657000177163E-17</v>
-      </c>
-      <c r="M137" s="71">
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="N137" s="72">
-        <v>-1.2251493747717196E-16</v>
-      </c>
-      <c r="O137" s="73">
-        <v>-1.745329251932229E-6</v>
-      </c>
-      <c r="S137" s="112">
-        <v>-0.99999999999847689</v>
-      </c>
-      <c r="T137" s="113">
-        <v>6.1257529659802795E-17</v>
-      </c>
-      <c r="U137" s="114">
-        <v>1.7453292519934436E-6</v>
+      <c r="J137" s="72">
+        <v>-6.1093843950955162E-17</v>
+      </c>
+      <c r="M137" s="70">
+        <v>-6.1257204624082689E-17</v>
+      </c>
+      <c r="N137" s="71">
+        <v>-1</v>
+      </c>
+      <c r="O137" s="72">
+        <v>6.1093950864946036E-17</v>
+      </c>
+      <c r="S137" s="107">
+        <v>1.0691437180667054E-22</v>
+      </c>
+      <c r="T137" s="108">
+        <v>1</v>
+      </c>
+      <c r="U137" s="109">
+        <v>-9.3296572441487015E-29</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="74">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="C138" s="75">
-        <v>-6.1214657000177163E-17</v>
-      </c>
-      <c r="D138" s="76">
-        <v>6.9813164408759343E-4</v>
-      </c>
-      <c r="H138" s="74">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="I138" s="75">
-        <v>6.1214657000177163E-17</v>
-      </c>
-      <c r="J138" s="76">
-        <v>6.9813164408759343E-4</v>
-      </c>
-      <c r="M138" s="74">
-        <v>1.218469702640524E-9</v>
-      </c>
-      <c r="N138" s="75">
-        <v>0.99999975630607407</v>
-      </c>
-      <c r="O138" s="76">
-        <v>6.9813164408653004E-4</v>
-      </c>
-      <c r="S138" s="115">
-        <v>1.7453292519934436E-6</v>
-      </c>
-      <c r="T138" s="116">
-        <v>0</v>
-      </c>
-      <c r="U138" s="117">
-        <v>0.99999999999847689</v>
+      <c r="B138" s="73">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="C138" s="74">
+        <v>-6.1093843950955162E-17</v>
+      </c>
+      <c r="D138" s="75">
+        <v>2.6703505819307971E-3</v>
+      </c>
+      <c r="H138" s="73">
+        <v>0.99999643460752885</v>
+      </c>
+      <c r="I138" s="74">
+        <v>6.1093843950955162E-17</v>
+      </c>
+      <c r="J138" s="75">
+        <v>2.6703505819307971E-3</v>
+      </c>
+      <c r="M138" s="73">
+        <v>0.99999643926664672</v>
+      </c>
+      <c r="N138" s="74">
+        <v>-6.1093950864946036E-17</v>
+      </c>
+      <c r="O138" s="75">
+        <v>2.6686052588975203E-3</v>
+      </c>
+      <c r="S138" s="110">
+        <v>1.7453292519933362E-6</v>
+      </c>
+      <c r="T138" s="111">
+        <v>-9.3300207634257046E-29</v>
+      </c>
+      <c r="U138" s="112">
+        <v>0.999999999998477</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="79">
+      <c r="D142" s="78">
         <f>U138</f>
-        <v>0.99999999999847689</v>
+        <v>0.999999999998477</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="G142" s="89">
+      <c r="G142" s="85">
         <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
-        <v>1.7453452194615693E-6</v>
-      </c>
-      <c r="H142" s="90">
+        <v>1.7452816076790612E-6</v>
+      </c>
+      <c r="H142" s="86">
         <f>DEGREES(G142)</f>
-        <v>1.0000091486848235E-4</v>
-      </c>
-      <c r="J142" s="89">
+        <v>9.9997270181817333E-5</v>
+      </c>
+      <c r="J142" s="85">
         <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>0</v>
-      </c>
-      <c r="K142" s="90">
+        <v>5.3457081251402342E-23</v>
+      </c>
+      <c r="K142" s="86">
         <f>DEGREES(J142)</f>
-        <v>0</v>
+        <v>3.0628651407932753E-21</v>
       </c>
       <c r="N142" s="2">
         <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
-        <v>-1.5707963267948346</v>
-      </c>
-      <c r="O142" s="90">
+        <v>5.3454998439367945E-23</v>
+      </c>
+      <c r="O142" s="86">
         <f>DEGREES(N142)</f>
-        <v>-89.999999999996447</v>
+        <v>3.0627458044541856E-21</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G143" s="89">
+      <c r="G143" s="85">
         <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
-        <v>-1.7453452194615693E-6</v>
-      </c>
-      <c r="H143" s="90">
+        <v>-1.7452816076790612E-6</v>
+      </c>
+      <c r="H143" s="86">
         <f>DEGREES(G143)</f>
-        <v>-1.0000091486848235E-4</v>
-      </c>
-      <c r="J143" s="89">
+        <v>-9.9997270181817333E-5</v>
+      </c>
+      <c r="J143" s="85">
         <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="K143" s="90">
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="K143" s="86">
         <f>DEGREES(J143)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="N143" s="2">
         <f>IF(SIN(G143)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G143),D148/SIN(G143)))</f>
-        <v>1.5707963267949585</v>
-      </c>
-      <c r="O143" s="90">
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="O143" s="86">
         <f>DEGREES(N143)</f>
-        <v>90.000000000003553</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="78">
+      <c r="D144" s="77">
         <f>T138</f>
-        <v>0</v>
+        <v>-9.3300207634257046E-29</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="104"/>
-      <c r="K144" s="90"/>
+      <c r="J144" s="99"/>
+      <c r="K144" s="86"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="101"/>
-      <c r="O144" s="90"/>
+      <c r="N144" s="97"/>
+      <c r="O144" s="86"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="89"/>
-      <c r="K145" s="90"/>
+      <c r="J145" s="85"/>
+      <c r="K145" s="86"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="101"/>
-      <c r="O145" s="90"/>
+      <c r="N145" s="97"/>
+      <c r="O145" s="86"/>
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" s="61">
+      <c r="D146" s="60">
         <f>S138</f>
-        <v>1.7453292519934436E-6</v>
+        <v>1.7453292519933362E-6</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="90"/>
+      <c r="K146" s="86"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="91"/>
-      <c r="O146" s="90"/>
+      <c r="N146" s="87"/>
+      <c r="O146" s="86"/>
     </row>
     <row r="147" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="90"/>
+      <c r="K147" s="86"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D148" s="61">
+      <c r="D148" s="60">
         <f>U137</f>
-        <v>1.7453292519934436E-6</v>
+        <v>-9.3296572441487015E-29</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26695,22 +26702,22 @@
       <c r="O149" s="2"/>
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D150" s="79">
+      <c r="D150" s="78">
         <f>U136</f>
-        <v>-1.0842021724855044E-19</v>
+        <v>-1.7453292519933362E-6</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="90"/>
+      <c r="K150" s="86"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="91"/>
-      <c r="O150" s="90"/>
+      <c r="N150" s="87"/>
+      <c r="O150" s="86"/>
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="90"/>
+      <c r="K151" s="86"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1351,7 +1351,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>219.99639405097861</c:v>
+                  <c:v>230.00235632978354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,7 +1363,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.9137014581950423E-14</c:v>
+                  <c:v>-1.5306904905844937E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1531,7 +1531,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>219.99639405097861</c:v>
+                  <c:v>230.00235632978354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1546,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>299.86685433230264</c:v>
+                  <c:v>299.38242111952775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24122,8 +24122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K118" sqref="K118"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24165,19 +24165,19 @@
       </c>
       <c r="G4" s="57">
         <f>B83</f>
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="58">
         <f>B84</f>
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="59">
         <f>B85</f>
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -24187,31 +24187,31 @@
       </c>
       <c r="G8" s="115">
         <f>V48</f>
-        <v>269.99621601431096</v>
+        <v>370.00098172621745</v>
       </c>
       <c r="H8" s="79">
         <f>X48</f>
-        <v>-1.3117060032277545E-12</v>
+        <v>-7.8852216779404356E-13</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9" s="116">
         <f>V49</f>
-        <v>-3.0628885708429348E-15</v>
+        <v>2.4501245421514142E-15</v>
       </c>
       <c r="H9" s="80">
         <f>X49</f>
-        <v>-89.847100000000012</v>
+        <v>-89.746099999999998</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="117">
         <f>V50</f>
-        <v>600.00028459524754</v>
+        <v>400.00281382497172</v>
       </c>
       <c r="H10" s="81">
         <f>X50</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -24249,7 +24249,7 @@
       </c>
       <c r="E15" s="20">
         <f>H85</f>
-        <v>-4.9840370009519036E-15</v>
+        <v>-3.8130959287021971E-15</v>
       </c>
       <c r="I15" s="20">
         <f>H86</f>
@@ -24264,27 +24264,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="30">
-        <v>3.8220000000000001</v>
+        <v>5.74</v>
       </c>
       <c r="C16" s="114">
         <f t="shared" ref="C16:C21" si="0">RADIANS(B16)</f>
-        <v>6.6706484011223283E-2</v>
+        <v>0.10018189906447451</v>
       </c>
       <c r="D16" s="33">
         <f>N120</f>
-        <v>3.8219999999999987</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="E16" s="33">
         <f>N126</f>
-        <v>68.709039706599611</v>
+        <v>69.326978564220354</v>
       </c>
       <c r="H16" s="33">
         <f>R120</f>
-        <v>-68.709039706599626</v>
+        <v>-69.326978564220354</v>
       </c>
       <c r="I16" s="33">
         <f>R126</f>
-        <v>-3.8220000000000116</v>
+        <v>-5.7399999999999993</v>
       </c>
       <c r="V16" t="s">
         <v>17</v>
@@ -24295,27 +24295,27 @@
         <v>6</v>
       </c>
       <c r="B17" s="30">
-        <v>-3.9750000000000001</v>
+        <v>-5.9939999999999998</v>
       </c>
       <c r="C17" s="114">
         <f t="shared" si="0"/>
-        <v>-6.9376837766774599E-2</v>
+        <v>-0.10461503536454012</v>
       </c>
       <c r="D17" s="34">
         <f>N121</f>
-        <v>-3.9750000000000072</v>
+        <v>-5.9939999999999989</v>
       </c>
       <c r="E17" s="34">
         <f>N127</f>
-        <v>-176.02500000000001</v>
+        <v>-174.006</v>
       </c>
       <c r="H17" s="34">
         <f>R121</f>
-        <v>-3.9750000000000072</v>
+        <v>-5.9939999999999989</v>
       </c>
       <c r="I17" s="34">
         <f>R127</f>
-        <v>-176.02500000000001</v>
+        <v>-174.006</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -24334,7 +24334,7 @@
       </c>
       <c r="F18" s="82">
         <f>O142</f>
-        <v>3.0627458044541856E-21</v>
+        <v>3.0625213572991102E-21</v>
       </c>
       <c r="G18" s="28">
         <f>O143</f>
@@ -24358,11 +24358,11 @@
       </c>
       <c r="F19" s="83">
         <f>H142</f>
-        <v>9.9997270181817333E-5</v>
+        <v>9.9993625367930119E-5</v>
       </c>
       <c r="G19" s="30">
         <f>H143</f>
-        <v>-9.9997270181817333E-5</v>
+        <v>-9.9993625367930119E-5</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -24381,7 +24381,7 @@
       </c>
       <c r="F20" s="84">
         <f>K142</f>
-        <v>3.0628651407932753E-21</v>
+        <v>3.0628137708452239E-21</v>
       </c>
       <c r="G20" s="32">
         <f>K143</f>
@@ -24444,7 +24444,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G23" s="1">
         <f>B15</f>
@@ -24552,7 +24552,7 @@
       </c>
       <c r="Q25" s="91">
         <f>F23</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R25" s="92">
         <v>0</v>
@@ -24564,11 +24564,11 @@
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="U25" s="94">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="V25" s="18">
         <f>$V$17*R25+$V$18*S25+$V$19*T25+$V$20*U25</f>
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W25" s="21">
         <f>IF(ABS(W24)=PI()/2,0,ATAN2(R23,R24))</f>
@@ -24632,19 +24632,19 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-86.177999999999997</v>
+        <v>-84.26</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.5040898427836733</v>
+        <v>-1.4706144277304221</v>
       </c>
       <c r="N28" s="88">
         <f>COS(H28)</f>
-        <v>6.6657023764909631E-2</v>
+        <v>0.10001440532103485</v>
       </c>
       <c r="O28" s="63">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>0.99777594738638808</v>
+        <v>0.99498598921204906</v>
       </c>
       <c r="P28" s="63">
         <f>SIN(H28)*SIN(D28)</f>
@@ -24652,42 +24652,42 @@
       </c>
       <c r="Q28" s="89">
         <f>E28*COS(H28)</f>
-        <v>19.997107129472891</v>
+        <v>30.004321596310454</v>
       </c>
       <c r="R28" s="92">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>6.6657023764909631E-2</v>
+        <v>0.10001440532103485</v>
       </c>
       <c r="S28" s="93">
-        <v>0.99777594738638808</v>
+        <v>0.99498598921204906</v>
       </c>
       <c r="T28" s="93">
         <v>0</v>
       </c>
       <c r="U28" s="94">
-        <v>19.997107129472891</v>
+        <v>30.004321596310454</v>
       </c>
       <c r="V28" s="18">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>19.997107129472891</v>
+        <v>30.004321596310454</v>
       </c>
       <c r="W28" s="21">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.5707963267948957</v>
+        <v>-1.5707963267948961</v>
       </c>
       <c r="X28" s="20">
         <f>DEGREES(W28)</f>
-        <v>-89.999999999999943</v>
+        <v>-89.999999999999972</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N29" s="88">
         <f>SIN(H28)</f>
-        <v>-0.99777594738638808</v>
+        <v>-0.99498598921204906</v>
       </c>
       <c r="O29" s="63">
         <f>COS(H28)*COS(D28)</f>
-        <v>6.6657023764909631E-2</v>
+        <v>0.10001440532103485</v>
       </c>
       <c r="P29" s="63">
         <f>-COS(H28)*SIN(D28)</f>
@@ -24695,31 +24695,31 @@
       </c>
       <c r="Q29" s="89">
         <f>E28*SIN(H28)</f>
-        <v>-299.33278421591643</v>
+        <v>-298.49579676361469</v>
       </c>
       <c r="R29" s="92">
-        <v>-6.112118301427089E-17</v>
+        <v>-6.0950277366943333E-17</v>
       </c>
       <c r="S29" s="93">
-        <v>4.0832374837193101E-18</v>
+        <v>6.1266247073835153E-18</v>
       </c>
       <c r="T29" s="93">
         <v>1</v>
       </c>
       <c r="U29" s="94">
-        <v>-1.8336354904281269E-14</v>
+        <v>-1.8285083210083001E-14</v>
       </c>
       <c r="V29" s="18">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>-1.8336354904281269E-14</v>
+        <v>-1.8285083210083001E-14</v>
       </c>
       <c r="W29" s="21">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.5040898427836733</v>
+        <v>-1.4706144277304221</v>
       </c>
       <c r="X29" s="20">
         <f>DEGREES(W29)</f>
-        <v>-86.177999999999997</v>
+        <v>-84.26</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
@@ -24739,28 +24739,28 @@
         <v>0</v>
       </c>
       <c r="R30" s="92">
-        <v>0.99777594738638808</v>
+        <v>0.99498598921204906</v>
       </c>
       <c r="S30" s="93">
-        <v>-6.6657023764909631E-2</v>
+        <v>-0.10001440532103485</v>
       </c>
       <c r="T30" s="93">
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="U30" s="94">
-        <v>599.33278421591649</v>
+        <v>398.49579676361469</v>
       </c>
       <c r="V30" s="18">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>599.33278421591649</v>
+        <v>398.49579676361469</v>
       </c>
       <c r="W30" s="21">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>-9.1695037614996275E-16</v>
+        <v>-6.0941498548433985E-16</v>
       </c>
       <c r="X30" s="20">
         <f>DEGREES(W30)</f>
-        <v>-5.2537386576326164E-14</v>
+        <v>-3.4916906640279004E-14</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
@@ -24816,23 +24816,23 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>-3.9750000000000001</v>
+        <v>-5.9939999999999998</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>-6.9376837766774599E-2</v>
+        <v>-0.10461503536454012</v>
       </c>
       <c r="N33" s="90">
         <f>COS(H33)</f>
-        <v>0.99759439230133695</v>
+        <v>0.99453283611025323</v>
       </c>
       <c r="O33" s="71">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>4.246437912005585E-18</v>
+        <v>6.3967645071971626E-18</v>
       </c>
       <c r="P33" s="71">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>6.9321197688198749E-2</v>
+        <v>0.10442431660535828</v>
       </c>
       <c r="Q33" s="91">
         <f>E33*COS(H33)</f>
@@ -24840,70 +24840,70 @@
       </c>
       <c r="R33" s="64">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>-2.6703505819307971E-3</v>
+        <v>-4.4331217795654104E-3</v>
       </c>
       <c r="S33" s="65">
-        <v>6.125720433867714E-17</v>
+        <v>6.1256820809618771E-17</v>
       </c>
       <c r="T33" s="65">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="U33" s="66">
-        <v>19.997107129472891</v>
+        <v>30.004321596310454</v>
       </c>
       <c r="V33" s="18">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>19.997107129472891</v>
+        <v>30.004321596310454</v>
       </c>
       <c r="W33" s="21">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-2.287858544280776E-14</v>
+        <v>-1.3756865739988035E-14</v>
       </c>
       <c r="X33" s="20">
         <f>DEGREES(W33)</f>
-        <v>-1.3108463871023282E-12</v>
+        <v>-7.882103462294306E-13</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N34" s="90">
         <f>SIN(H33)</f>
-        <v>-6.9321197688198749E-2</v>
+        <v>-0.10442431660535828</v>
       </c>
       <c r="O34" s="71">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.111006141767433E-17</v>
+        <v>6.0922518375818228E-17</v>
       </c>
       <c r="P34" s="71">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>0.99759439230133695</v>
+        <v>0.99453283611025323</v>
       </c>
       <c r="Q34" s="91">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
       <c r="R34" s="64">
-        <v>-6.125720433867714E-17</v>
+        <v>-6.1256820809618758E-17</v>
       </c>
       <c r="S34" s="65">
         <v>-1</v>
       </c>
       <c r="T34" s="65">
-        <v>6.1093843950955162E-17</v>
+        <v>6.0985861130498185E-17</v>
       </c>
       <c r="U34" s="66">
-        <v>-1.8336354904281269E-14</v>
+        <v>-1.8285083210083001E-14</v>
       </c>
       <c r="V34" s="18">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>-1.8336354904281269E-14</v>
+        <v>-1.8285083210083001E-14</v>
       </c>
       <c r="W34" s="21">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.5681259730393453</v>
+        <v>-1.566363190494831</v>
       </c>
       <c r="X34" s="20">
         <f>DEGREES(W34)</f>
-        <v>-89.847000000000008</v>
+        <v>-89.745999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
@@ -24923,28 +24923,28 @@
         <v>0</v>
       </c>
       <c r="R35" s="64">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="S35" s="65">
-        <v>-6.1093843950955162E-17</v>
+        <v>-6.0985861130498185E-17</v>
       </c>
       <c r="T35" s="65">
-        <v>2.6703505819307971E-3</v>
+        <v>4.4331217795654104E-3</v>
       </c>
       <c r="U35" s="66">
-        <v>599.33278421591649</v>
+        <v>398.49579676361469</v>
       </c>
       <c r="V35" s="18">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>599.33278421591649</v>
+        <v>398.49579676361469</v>
       </c>
       <c r="W35" s="21">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="X35" s="20">
         <f>DEGREES(W35)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
@@ -25025,28 +25025,28 @@
       </c>
       <c r="R38" s="64">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>-2.6703505819307971E-3</v>
+        <v>-4.4331217795654104E-3</v>
       </c>
       <c r="S38" s="65">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="T38" s="65">
         <v>0</v>
       </c>
       <c r="U38" s="66">
-        <v>219.99639405097864</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="V38" s="18">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>219.99639405097864</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>1.5707963267948737</v>
+        <v>1.5707963267948828</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>89.999999999998693</v>
+        <v>89.999999999999204</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -25067,28 +25067,28 @@
         <v>0</v>
       </c>
       <c r="R39" s="64">
-        <v>-6.125720433867714E-17</v>
+        <v>-6.1256820809618758E-17</v>
       </c>
       <c r="S39" s="65">
-        <v>-1.6357879447583803E-19</v>
+        <v>-2.715616149328158E-19</v>
       </c>
       <c r="T39" s="65">
         <v>1</v>
       </c>
       <c r="U39" s="66">
-        <v>-6.1175861140902367E-15</v>
+        <v>-6.087910983983364E-15</v>
       </c>
       <c r="V39" s="18">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>-6.1175861140902367E-15</v>
+        <v>-6.087910983983364E-15</v>
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.5681259730393453</v>
+        <v>-1.566363190494831</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-89.847000000000008</v>
+        <v>-89.745999999999995</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25108,28 +25108,28 @@
         <v>200</v>
       </c>
       <c r="R40" s="64">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="S40" s="65">
-        <v>2.6703505819307971E-3</v>
+        <v>4.4331217795654104E-3</v>
       </c>
       <c r="T40" s="65">
         <v>6.1257422745431001E-17</v>
       </c>
       <c r="U40" s="66">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="V40" s="18">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -25207,28 +25207,28 @@
       </c>
       <c r="R43" s="64">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>-2.6686052588975203E-3</v>
+        <v>-4.43137646745685E-3</v>
       </c>
       <c r="S43" s="65">
-        <v>6.1257204624082689E-17</v>
+        <v>6.1256821283489895E-17</v>
       </c>
       <c r="T43" s="65">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="U43" s="66">
-        <v>219.99639405097864</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="V43" s="18">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>219.99639405097864</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-2.2893588574499682E-14</v>
+        <v>-1.3762308052969252E-14</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-1.3117060032277545E-12</v>
+        <v>-7.8852216779404356E-13</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
@@ -25249,28 +25249,28 @@
         <v>0</v>
       </c>
       <c r="R44" s="64">
-        <v>-6.1257204624082689E-17</v>
+        <v>-6.1256821283489895E-17</v>
       </c>
       <c r="S44" s="65">
         <v>-1</v>
       </c>
       <c r="T44" s="65">
-        <v>6.1093950864946036E-17</v>
+        <v>6.0985968043819845E-17</v>
       </c>
       <c r="U44" s="66">
-        <v>-6.1175861140902367E-15</v>
+        <v>-6.087910983983364E-15</v>
       </c>
       <c r="V44" s="18">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>-6.1175861140902367E-15</v>
+        <v>-6.087910983983364E-15</v>
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.5681277183685973</v>
+        <v>-1.566364935824083</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-89.847100000000012</v>
+        <v>-89.746099999999998</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -25290,28 +25290,28 @@
         <v>0</v>
       </c>
       <c r="R45" s="64">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="S45" s="65">
-        <v>-6.1093950864946036E-17</v>
+        <v>-6.0985968043819845E-17</v>
       </c>
       <c r="T45" s="65">
-        <v>2.6686052588975203E-3</v>
+        <v>4.43137646745685E-3</v>
       </c>
       <c r="U45" s="66">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="V45" s="18">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -25361,7 +25361,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="G48" s="102">
         <f>B20</f>
@@ -25389,28 +25389,28 @@
       </c>
       <c r="R48" s="100">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>-2.6686052588975203E-3</v>
+        <v>-4.43137646745685E-3</v>
       </c>
       <c r="S48" s="101">
-        <v>6.1257204624082689E-17</v>
+        <v>6.1256821283489895E-17</v>
       </c>
       <c r="T48" s="101">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="U48" s="94">
-        <v>269.99621601431096</v>
+        <v>370.00098172621745</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>269.99621601431096</v>
+        <v>370.00098172621745</v>
       </c>
       <c r="W48" s="95">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-2.2893588574499682E-14</v>
+        <v>-1.3762308052969252E-14</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-1.3117060032277545E-12</v>
+        <v>-7.8852216779404356E-13</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>71</v>
@@ -25437,28 +25437,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="100">
-        <v>-6.1257204624082689E-17</v>
+        <v>-6.1256821283489895E-17</v>
       </c>
       <c r="S49" s="101">
         <v>-1</v>
       </c>
       <c r="T49" s="101">
-        <v>6.1093950864946036E-17</v>
+        <v>6.0985968043819845E-17</v>
       </c>
       <c r="U49" s="94">
-        <v>-3.0628885708429348E-15</v>
+        <v>2.4501245421514142E-15</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>-3.0628885708429348E-15</v>
+        <v>2.4501245421514142E-15</v>
       </c>
       <c r="W49" s="95">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.5681277183685973</v>
+        <v>-1.566364935824083</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-89.847100000000012</v>
+        <v>-89.746099999999998</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -25481,31 +25481,31 @@
       </c>
       <c r="Q50" s="13">
         <f>F48</f>
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="R50" s="100">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="S50" s="101">
-        <v>-6.1093950864946036E-17</v>
+        <v>-6.0985968043819845E-17</v>
       </c>
       <c r="T50" s="101">
-        <v>2.6686052588975203E-3</v>
+        <v>4.43137646745685E-3</v>
       </c>
       <c r="U50" s="94">
-        <v>600.00028459524754</v>
+        <v>400.00281382497172</v>
       </c>
       <c r="V50" s="18">
         <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>600.00028459524754</v>
+        <v>400.00281382497172</v>
       </c>
       <c r="W50" s="95">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>76</v>
@@ -25582,75 +25582,75 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>269.99621601431096</v>
+        <v>370.00098172621745</v>
       </c>
       <c r="D56" s="21">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-2.2893588574499682E-14</v>
+        <v>-1.3762308052969252E-14</v>
       </c>
       <c r="E56" s="20">
         <f>DEGREES(D56)</f>
-        <v>-1.3117060032277545E-12</v>
+        <v>-7.8852216779404356E-13</v>
       </c>
       <c r="F56" s="96">
         <f>D56+PI()</f>
-        <v>3.14159265358977</v>
+        <v>3.1415926535897793</v>
       </c>
       <c r="G56" s="21">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>3.14159265358977</v>
+        <v>3.1415926535897793</v>
       </c>
       <c r="H56" s="20">
         <f>DEGREES(G56)</f>
-        <v>179.99999999999866</v>
+        <v>179.9999999999992</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>-3.0628885708429348E-15</v>
+        <v>2.4501245421514142E-15</v>
       </c>
       <c r="D57" s="21">
-        <v>-1.5681277183685973</v>
+        <v>-1.566364935824083</v>
       </c>
       <c r="E57" s="20">
         <f>DEGREES(D57)</f>
-        <v>-89.847100000000012</v>
+        <v>-89.746099999999998</v>
       </c>
       <c r="F57" s="96">
         <f>D57+PI()/2</f>
-        <v>2.6686084262992349E-3</v>
+        <v>4.4313909708135757E-3</v>
       </c>
       <c r="G57" s="21">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>2.6686084262992349E-3</v>
+        <v>4.4313909708135757E-3</v>
       </c>
       <c r="H57" s="20">
         <f>DEGREES(G57)</f>
-        <v>0.15289999999999457</v>
+        <v>0.25389999999999846</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>600.00028459524754</v>
+        <v>400.00281382497172</v>
       </c>
       <c r="D58" s="21">
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="E58" s="20">
         <f>DEGREES(D58)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
       <c r="F58" s="96">
         <f>D58</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="G58" s="21">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="H58" s="20">
         <f>DEGREES(G58)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
       <c r="P58" s="95"/>
     </row>
@@ -25677,45 +25677,45 @@
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62" s="113">
         <f>COS(D58)*COS(D57)</f>
-        <v>-2.6686052588975342E-3</v>
+        <v>-4.4313764674569264E-3</v>
       </c>
       <c r="C62" s="113">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>3.2164670115885147E-16</v>
+        <v>1.2710742442874586E-16</v>
       </c>
       <c r="D62" s="113">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309937</v>
       </c>
       <c r="E62" s="98">
         <f>C56</f>
-        <v>269.99621601431096</v>
+        <v>370.00098172621745</v>
       </c>
       <c r="F62" s="95">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>-2.2893588574499682E-14</v>
+        <v>-1.3762308052969252E-14</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>-1.3117060032277545E-12</v>
+        <v>-7.8852216779404356E-13</v>
       </c>
       <c r="H62" s="96">
         <f>F62+PI()</f>
-        <v>3.14159265358977</v>
+        <v>3.1415926535897793</v>
       </c>
       <c r="I62" s="21">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>3.14159265358977</v>
+        <v>3.1415926535897793</v>
       </c>
       <c r="J62" s="20">
         <f>DEGREES(I62)</f>
-        <v>179.99999999999866</v>
+        <v>179.9999999999992</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" s="113">
         <f>COS(D57)*SIN(D58)</f>
-        <v>-6.1952081403897378E-17</v>
+        <v>-6.1548630096636678E-17</v>
       </c>
       <c r="C63" s="113">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
@@ -25723,69 +25723,69 @@
       </c>
       <c r="D63" s="113">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>3.2148252022214973E-16</v>
+        <v>1.2683592462854537E-16</v>
       </c>
       <c r="E63" s="98">
         <f>C57</f>
-        <v>-3.0628885708429348E-15</v>
+        <v>2.4501245421514142E-15</v>
       </c>
       <c r="F63" s="95">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.5681277183685973</v>
+        <v>-1.566364935824083</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-89.847100000000012</v>
+        <v>-89.746099999999998</v>
       </c>
       <c r="H63" s="96">
         <f>F63+PI()/2</f>
-        <v>2.6686084262992349E-3</v>
+        <v>4.4313909708135757E-3</v>
       </c>
       <c r="I63" s="21">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>2.6686084262992349E-3</v>
+        <v>4.4313909708135757E-3</v>
       </c>
       <c r="J63" s="20">
         <f>DEGREES(I63)</f>
-        <v>0.15289999999999457</v>
+        <v>0.25389999999999846</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" s="113">
         <f>-SIN(D57)</f>
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309937</v>
       </c>
       <c r="C64" s="113">
         <f>SIN(D56)*COS(D57)</f>
-        <v>-6.1093950864946356E-17</v>
+        <v>-6.0985968043820893E-17</v>
       </c>
       <c r="D64" s="113">
         <f>COS(D56)*COS(D57)</f>
-        <v>2.6686052588975342E-3</v>
+        <v>4.4313764674569264E-3</v>
       </c>
       <c r="E64" s="98">
         <f>C58</f>
-        <v>600.00028459524754</v>
+        <v>400.00281382497172</v>
       </c>
       <c r="F64" s="95">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
       <c r="H64" s="96">
         <f>F64</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="I64" s="21">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>-3.14159265358977</v>
+        <v>-3.1415926535897793</v>
       </c>
       <c r="J64" s="20">
         <f>DEGREES(I64)</f>
-        <v>-179.99999999999866</v>
+        <v>-179.9999999999992</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -25822,16 +25822,16 @@
       </c>
       <c r="I69" s="7">
         <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="J69" s="7">
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="K69" s="7">
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="L69" s="7">
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -25839,34 +25839,34 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
       <c r="J70" s="7">
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
       <c r="K70" s="7">
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
       <c r="L70" s="7">
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="F71">
         <f>-F48</f>
-        <v>-50</v>
+        <v>-140</v>
       </c>
       <c r="I71" s="7">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="J71" s="7">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="K71" s="7">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="L71" s="7">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -25947,18 +25947,18 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="62">
         <f t="array" ref="B83:B86">L69:L72</f>
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="21">
         <f>ATAN2(B83,B84)</f>
-        <v>-8.6987855707834476E-17</v>
+        <v>-6.6551078650244293E-17</v>
       </c>
       <c r="I83" s="23">
         <f>DEGREES(H83)</f>
-        <v>-4.9840370009519036E-15</v>
+        <v>-3.8130959287021971E-15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -25966,7 +25966,7 @@
         <v>30</v>
       </c>
       <c r="B84" s="62">
-        <v>-1.9137014581950423E-14</v>
+        <v>-1.5306904905844937E-14</v>
       </c>
       <c r="H84" s="21">
         <f>ATAN2(-B83,-B84)</f>
@@ -25979,18 +25979,18 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B85" s="62">
-        <v>599.86685433230264</v>
+        <v>399.38242111952775</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="21">
         <f>IF(B87=1,H83,H84)</f>
-        <v>-8.6987855707834476E-17</v>
+        <v>-6.6551078650244293E-17</v>
       </c>
       <c r="H85" s="23">
         <f>DEGREES(G85)</f>
-        <v>-4.9840370009519036E-15</v>
+        <v>-3.8130959287021971E-15</v>
       </c>
       <c r="I85" s="15" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26045,7 +26045,7 @@
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26054,7 +26054,7 @@
       </c>
       <c r="L97" s="4">
         <f>E110</f>
-        <v>299.86685433230264</v>
+        <v>299.38242111952775</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -26063,31 +26063,31 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E110" s="19">
         <f>B85-F23</f>
-        <v>299.86685433230264</v>
+        <v>299.38242111952775</v>
       </c>
       <c r="M110" s="95">
         <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.56624624237622934</v>
+        <v>0.55490106867035083</v>
       </c>
       <c r="N110" s="20">
         <f>DEGREES(M110)</f>
-        <v>32.443519853299811</v>
+        <v>31.793489282110173</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>219.99639405097861</v>
+        <v>230.00235632978354</v>
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
       <c r="M112" s="114">
         <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.6401731645616713</v>
+        <v>1.6754113621594366</v>
       </c>
       <c r="N112" s="22">
         <f>DEGREES(M112)</f>
-        <v>93.975000000000009</v>
+        <v>95.994</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -26111,7 +26111,7 @@
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
-        <v>371.91201072644031</v>
+        <v>377.53267142413381</v>
       </c>
       <c r="L115" t="s">
         <v>68</v>
@@ -26144,21 +26144,21 @@
       </c>
       <c r="M116" s="118">
         <f>ATAN2(M115*E112,E110)</f>
-        <v>0.93784360040744397</v>
+        <v>0.91571335906007123</v>
       </c>
       <c r="N116" s="39">
         <f>DEGREES(M116)</f>
-        <v>53.734480146700193</v>
+        <v>52.466510717889825</v>
       </c>
       <c r="O116" s="40"/>
       <c r="P116" s="40"/>
       <c r="Q116" s="41">
         <f>ATAN2(Q115*E112,E110)</f>
-        <v>2.2037490531823494</v>
+        <v>2.2258792945297219</v>
       </c>
       <c r="R116" s="39">
         <f>DEGREES(Q116)</f>
-        <v>126.26551985329982</v>
+        <v>127.53348928211017</v>
       </c>
       <c r="S116" s="42"/>
     </row>
@@ -26207,11 +26207,11 @@
       <c r="G120" s="1"/>
       <c r="M120" s="119">
         <f>PI()/2-(M116+M110)</f>
-        <v>6.6706484011223255E-2</v>
+        <v>0.1001818990644745</v>
       </c>
       <c r="N120" s="45">
         <f>DEGREES(M120)</f>
-        <v>3.8219999999999987</v>
+        <v>5.7399999999999993</v>
       </c>
       <c r="O120" s="46" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26220,11 +26220,11 @@
       <c r="P120" s="40"/>
       <c r="Q120" s="47">
         <f>PI()/2-(Q116+M110)</f>
-        <v>-1.1991989687636821</v>
+        <v>-1.2099840364051762</v>
       </c>
       <c r="R120" s="45">
         <f>DEGREES(Q120)</f>
-        <v>-68.709039706599626</v>
+        <v>-69.326978564220354</v>
       </c>
       <c r="S120" s="48" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26235,11 +26235,11 @@
       <c r="G121" s="1"/>
       <c r="M121" s="44">
         <f>PI()/2-M112</f>
-        <v>-6.9376837766774724E-2</v>
+        <v>-0.10461503536454009</v>
       </c>
       <c r="N121" s="45">
         <f>DEGREES(M121)</f>
-        <v>-3.9750000000000072</v>
+        <v>-5.9939999999999989</v>
       </c>
       <c r="O121" s="46" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26248,11 +26248,11 @@
       <c r="P121" s="40"/>
       <c r="Q121" s="47">
         <f>PI()/2-M112</f>
-        <v>-6.9376837766774724E-2</v>
+        <v>-0.10461503536454009</v>
       </c>
       <c r="R121" s="45">
         <f>DEGREES(Q121)</f>
-        <v>-3.9750000000000072</v>
+        <v>-5.9939999999999989</v>
       </c>
       <c r="S121" s="48" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26303,11 +26303,11 @@
       </c>
       <c r="M126" s="44">
         <f>PI()/2-(M116-M110)</f>
-        <v>1.1991989687636819</v>
+        <v>1.2099840364051762</v>
       </c>
       <c r="N126" s="45">
         <f>DEGREES(M126)</f>
-        <v>68.709039706599611</v>
+        <v>69.326978564220354</v>
       </c>
       <c r="O126" s="46" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26316,11 +26316,11 @@
       <c r="P126" s="40"/>
       <c r="Q126" s="47">
         <f>PI()/2-(Q116-M110)</f>
-        <v>-6.6706484011223477E-2</v>
+        <v>-0.1001818990644745</v>
       </c>
       <c r="R126" s="45">
         <f>DEGREES(Q126)</f>
-        <v>-3.8220000000000116</v>
+        <v>-5.7399999999999993</v>
       </c>
       <c r="S126" s="48" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26331,11 +26331,11 @@
       <c r="A127" s="15"/>
       <c r="M127" s="51">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.0722158158230184</v>
+        <v>-3.036977618225253</v>
       </c>
       <c r="N127" s="52">
         <f>DEGREES(M127)</f>
-        <v>-176.02500000000001</v>
+        <v>-174.006</v>
       </c>
       <c r="O127" s="53" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26344,11 +26344,11 @@
       <c r="P127" s="54"/>
       <c r="Q127" s="55">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.0722158158230184</v>
+        <v>-3.036977618225253</v>
       </c>
       <c r="R127" s="52">
         <f>DEGREES(Q127)</f>
-        <v>-176.02500000000001</v>
+        <v>-174.006</v>
       </c>
       <c r="S127" s="56" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26455,72 +26455,72 @@
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B136" s="67">
         <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>-2.6703505819307971E-3</v>
+        <v>-4.4331217795654104E-3</v>
       </c>
       <c r="C136" s="68">
-        <v>6.125720433867714E-17</v>
+        <v>6.1256820809618771E-17</v>
       </c>
       <c r="D136" s="69">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="H136" s="67">
         <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>-2.6703505819307971E-3</v>
+        <v>-4.4331217795654104E-3</v>
       </c>
       <c r="I136" s="68">
-        <v>-6.125720433867714E-17</v>
+        <v>-6.1256820809618758E-17</v>
       </c>
       <c r="J136" s="69">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="M136" s="67">
         <f t="array" ref="M136:O138">R48:T50</f>
-        <v>-2.6686052588975203E-3</v>
+        <v>-4.43137646745685E-3</v>
       </c>
       <c r="N136" s="68">
-        <v>6.1257204624082689E-17</v>
+        <v>6.1256821283489895E-17</v>
       </c>
       <c r="O136" s="69">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="S136" s="104">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.999999999998477</v>
+        <v>0.99999999999847711</v>
       </c>
       <c r="T136" s="105">
-        <v>-1.0691437181899649E-22</v>
+        <v>-1.0691437183132245E-22</v>
       </c>
       <c r="U136" s="106">
-        <v>-1.7453292519933362E-6</v>
+        <v>-1.7453292519937699E-6</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B137" s="70">
-        <v>-6.125720433867714E-17</v>
+        <v>-6.1256820809618758E-17</v>
       </c>
       <c r="C137" s="71">
         <v>-1</v>
       </c>
       <c r="D137" s="72">
-        <v>6.1093843950955162E-17</v>
+        <v>6.0985861130498185E-17</v>
       </c>
       <c r="H137" s="70">
-        <v>6.125720433867714E-17</v>
+        <v>6.1256820809618771E-17</v>
       </c>
       <c r="I137" s="71">
         <v>-1</v>
       </c>
       <c r="J137" s="72">
-        <v>-6.1093843950955162E-17</v>
+        <v>-6.0985861130498185E-17</v>
       </c>
       <c r="M137" s="70">
-        <v>-6.1257204624082689E-17</v>
+        <v>-6.1256821283489895E-17</v>
       </c>
       <c r="N137" s="71">
         <v>-1</v>
       </c>
       <c r="O137" s="72">
-        <v>6.1093950864946036E-17</v>
+        <v>6.0985968043819845E-17</v>
       </c>
       <c r="S137" s="107">
         <v>1.0691437180667054E-22</v>
@@ -26529,86 +26529,86 @@
         <v>1</v>
       </c>
       <c r="U137" s="109">
-        <v>-9.3296572441487015E-29</v>
+        <v>-9.328973539018444E-29</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="73">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="C138" s="74">
-        <v>-6.1093843950955162E-17</v>
+        <v>-6.0985861130498185E-17</v>
       </c>
       <c r="D138" s="75">
-        <v>2.6703505819307971E-3</v>
+        <v>4.4331217795654104E-3</v>
       </c>
       <c r="H138" s="73">
-        <v>0.99999643460752885</v>
+        <v>0.99999017366736542</v>
       </c>
       <c r="I138" s="74">
-        <v>6.1093843950955162E-17</v>
+        <v>6.0985861130498185E-17</v>
       </c>
       <c r="J138" s="75">
-        <v>2.6703505819307971E-3</v>
+        <v>4.4331217795654104E-3</v>
       </c>
       <c r="M138" s="73">
-        <v>0.99999643926664672</v>
+        <v>0.99999018140309948</v>
       </c>
       <c r="N138" s="74">
-        <v>-6.1093950864946036E-17</v>
+        <v>-6.0985968043819845E-17</v>
       </c>
       <c r="O138" s="75">
-        <v>2.6686052588975203E-3</v>
+        <v>4.43137646745685E-3</v>
       </c>
       <c r="S138" s="110">
-        <v>1.7453292519933362E-6</v>
+        <v>1.7453292519937699E-6</v>
       </c>
       <c r="T138" s="111">
-        <v>-9.3300207634257046E-29</v>
+        <v>-9.3298642816177231E-29</v>
       </c>
       <c r="U138" s="112">
-        <v>0.999999999998477</v>
+        <v>0.99999999999847711</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D142" s="78">
         <f>U138</f>
-        <v>0.999999999998477</v>
+        <v>0.99999999999847711</v>
       </c>
       <c r="E142" s="5"/>
       <c r="G142" s="85">
         <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
-        <v>1.7452816076790612E-6</v>
+        <v>1.745217993676107E-6</v>
       </c>
       <c r="H142" s="86">
         <f>DEGREES(G142)</f>
-        <v>9.9997270181817333E-5</v>
+        <v>9.9993625367930119E-5</v>
       </c>
       <c r="J142" s="85">
         <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>5.3457081251402342E-23</v>
+        <v>5.3456184676672265E-23</v>
       </c>
       <c r="K142" s="86">
         <f>DEGREES(J142)</f>
-        <v>3.0628651407932753E-21</v>
+        <v>3.0628137708452239E-21</v>
       </c>
       <c r="N142" s="2">
         <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
-        <v>5.3454998439367945E-23</v>
+        <v>5.3451081097515149E-23</v>
       </c>
       <c r="O142" s="86">
         <f>DEGREES(N142)</f>
-        <v>3.0627458044541856E-21</v>
+        <v>3.0625213572991102E-21</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G143" s="85">
         <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
-        <v>-1.7452816076790612E-6</v>
+        <v>-1.745217993676107E-6</v>
       </c>
       <c r="H143" s="86">
         <f>DEGREES(G143)</f>
-        <v>-9.9997270181817333E-5</v>
+        <v>-9.9993625367930119E-5</v>
       </c>
       <c r="J143" s="85">
         <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
@@ -26630,7 +26630,7 @@
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D144" s="77">
         <f>T138</f>
-        <v>-9.3300207634257046E-29</v>
+        <v>-9.3298642816177231E-29</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -26656,7 +26656,7 @@
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D146" s="60">
         <f>S138</f>
-        <v>1.7453292519933362E-6</v>
+        <v>1.7453292519937699E-6</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -26678,7 +26678,7 @@
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D148" s="60">
         <f>U137</f>
-        <v>-9.3296572441487015E-29</v>
+        <v>-9.328973539018444E-29</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26704,7 +26704,7 @@
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D150" s="78">
         <f>U136</f>
-        <v>-1.7453292519933362E-6</v>
+        <v>-1.7453292519937699E-6</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -822,7 +822,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="19">
+  <numFmts count="20">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -838,10 +838,11 @@
     <numFmt numFmtId="175" formatCode="_-* #,##0.0000\ _€_-;\-* #,##0.0000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000\ &quot;RAD&quot;"/>
     <numFmt numFmtId="177" formatCode="_-* #,##0.00000\ _€_-;\-* #,##0.00000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="0.00000\ &quot;RAD&quot;"/>
-    <numFmt numFmtId="189" formatCode="0.000000\ &quot;RAD&quot;"/>
-    <numFmt numFmtId="197" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000000\ _€_-;\-* #,##0.000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.00000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.000000\ &quot;RAD&quot;"/>
+    <numFmt numFmtId="181" formatCode="0.000000000000000000"/>
+    <numFmt numFmtId="182" formatCode="0.00\ &quot;°&quot;"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1112,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1154,8 +1155,6 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -1205,9 +1204,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1236,14 +1232,22 @@
     <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="189" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="197" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1348,10 +1352,10 @@
             <c:numRef>
               <c:f>Kinematik!$B$83</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>230.00235632978354</c:v>
+                  <c:v>200.00000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1363,7 +1367,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.5306904905844937E-14</c:v>
+                  <c:v>2.0941581801992015E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,11 +1382,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260545536"/>
-        <c:axId val="265929856"/>
+        <c:axId val="257299968"/>
+        <c:axId val="257323008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260545536"/>
+        <c:axId val="257299968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1416,17 +1420,17 @@
           </c:layout>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="265929856"/>
+        <c:crossAx val="257323008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="265929856"/>
+        <c:axId val="257323008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1465,7 +1469,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="260545536"/>
+        <c:crossAx val="257299968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1531,7 +1535,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>230.00235632978354</c:v>
+                  <c:v>200.00000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1546,7 +1550,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>299.38242111952775</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,11 +1565,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="266228864"/>
-        <c:axId val="266230400"/>
+        <c:axId val="257467136"/>
+        <c:axId val="257468672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="266228864"/>
+        <c:axId val="257467136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1577,13 +1581,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266230400"/>
+        <c:crossAx val="257468672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="266230400"/>
+        <c:axId val="257468672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1596,7 +1600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266228864"/>
+        <c:crossAx val="257467136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1625,7 +1629,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>494843</xdr:colOff>
+      <xdr:colOff>494844</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>111385</xdr:rowOff>
     </xdr:to>
@@ -19431,7 +19435,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>135548</xdr:colOff>
+      <xdr:colOff>135547</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5782</xdr:rowOff>
     </xdr:to>
@@ -24123,7 +24127,7 @@
   <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24133,7 +24137,7 @@
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" customWidth="1"/>
@@ -24163,21 +24167,21 @@
       <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="55">
         <f>B83</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G5" s="58">
+      <c r="G5" s="56">
         <f>B84</f>
-        <v>-1.5306904905844937E-14</v>
+        <v>2.0941581801992015E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="59">
+      <c r="G6" s="57">
         <f>B85</f>
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -24185,33 +24189,33 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="115">
+      <c r="G8" s="110">
         <f>V48</f>
-        <v>370.00098172621745</v>
-      </c>
-      <c r="H8" s="79">
+        <v>339.97867732189479</v>
+      </c>
+      <c r="H8" s="77">
         <f>X48</f>
-        <v>-7.8852216779404356E-13</v>
+        <v>-116.55457797867727</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="G9" s="116">
+      <c r="G9" s="111">
         <f>V49</f>
-        <v>2.4501245421514142E-15</v>
-      </c>
-      <c r="H9" s="80">
+        <v>8.5271228127218171E-2</v>
+      </c>
+      <c r="H9" s="78">
         <f>X49</f>
-        <v>-89.746099999999998</v>
+        <v>-87.764022852934914</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="117">
+      <c r="G10" s="112">
         <f>V50</f>
-        <v>400.00281382497172</v>
-      </c>
-      <c r="H10" s="81">
+        <v>397.55815151360378</v>
+      </c>
+      <c r="H10" s="79">
         <f>X50</f>
-        <v>-179.9999999999992</v>
+        <v>-63.427966513422973</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -24249,11 +24253,11 @@
       </c>
       <c r="E15" s="20">
         <f>H85</f>
-        <v>-3.8130959287021971E-15</v>
+        <v>5.9993212679105579E-15</v>
       </c>
       <c r="I15" s="20">
         <f>H86</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>42</v>
@@ -24264,27 +24268,27 @@
         <v>5</v>
       </c>
       <c r="B16" s="30">
-        <v>5.74</v>
-      </c>
-      <c r="C16" s="114">
-        <f t="shared" ref="C16:C21" si="0">RADIANS(B16)</f>
-        <v>0.10018189906447451</v>
-      </c>
-      <c r="D16" s="33">
+        <v>0</v>
+      </c>
+      <c r="C16" s="109">
+        <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="116">
         <f>N120</f>
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="E16" s="33">
+        <v>0</v>
+      </c>
+      <c r="E16" s="116">
         <f>N126</f>
-        <v>69.326978564220354</v>
-      </c>
-      <c r="H16" s="33">
+        <v>67.380135051959556</v>
+      </c>
+      <c r="H16" s="116">
         <f>R120</f>
-        <v>-69.326978564220354</v>
-      </c>
-      <c r="I16" s="33">
+        <v>-67.380135051959556</v>
+      </c>
+      <c r="I16" s="116">
         <f>R126</f>
-        <v>-5.7399999999999993</v>
+        <v>0</v>
       </c>
       <c r="V16" t="s">
         <v>17</v>
@@ -24295,27 +24299,27 @@
         <v>6</v>
       </c>
       <c r="B17" s="30">
-        <v>-5.9939999999999998</v>
-      </c>
-      <c r="C17" s="114">
+        <v>0</v>
+      </c>
+      <c r="C17" s="109">
         <f t="shared" si="0"/>
-        <v>-0.10461503536454012</v>
-      </c>
-      <c r="D17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="117">
         <f>N121</f>
-        <v>-5.9939999999999989</v>
-      </c>
-      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="E17" s="117">
         <f>N127</f>
-        <v>-174.006</v>
-      </c>
-      <c r="H17" s="34">
+        <v>-180</v>
+      </c>
+      <c r="H17" s="117">
         <f>R121</f>
-        <v>-5.9939999999999989</v>
-      </c>
-      <c r="I17" s="34">
+        <v>0</v>
+      </c>
+      <c r="I17" s="117">
         <f>R127</f>
-        <v>-174.006</v>
+        <v>-180</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -24326,19 +24330,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="82">
+        <v>3.4906585039886591E-2</v>
+      </c>
+      <c r="F18" s="118">
         <f>O142</f>
-        <v>3.0625213572991102E-21</v>
-      </c>
-      <c r="G18" s="28">
+        <v>1.9999999999993658</v>
+      </c>
+      <c r="G18" s="119">
         <f>O143</f>
-        <v>-180</v>
+        <v>-178.00000000000063</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -24350,19 +24354,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="30">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>1.7453292519943296E-6</v>
-      </c>
-      <c r="F19" s="83">
+        <v>1.7453292519943295E-2</v>
+      </c>
+      <c r="F19" s="120">
         <f>H142</f>
-        <v>9.9993625367930119E-5</v>
-      </c>
-      <c r="G19" s="30">
+        <v>0.99999999999989964</v>
+      </c>
+      <c r="G19" s="121">
         <f>H143</f>
-        <v>-9.9993625367930119E-5</v>
+        <v>-0.99999999999989964</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -24379,13 +24383,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="84">
+      <c r="F20" s="122">
         <f>K142</f>
-        <v>3.0628137708452239E-21</v>
-      </c>
-      <c r="G20" s="32">
+        <v>1.9396544322405402E-13</v>
+      </c>
+      <c r="G20" s="123">
         <f>K143</f>
-        <v>-180</v>
+        <v>-179.9999999999998</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -24454,33 +24458,33 @@
         <f>RADIANS(G23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="90">
+      <c r="N23" s="85">
         <f>COS(H23)</f>
         <v>1</v>
       </c>
-      <c r="O23" s="71">
+      <c r="O23" s="69">
         <f>-SIN(H23)*COS(D23)</f>
         <v>0</v>
       </c>
-      <c r="P23" s="71">
+      <c r="P23" s="69">
         <f>SIN(H23)*SIN(D23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="91">
+      <c r="Q23" s="86">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="92">
+      <c r="R23" s="87">
         <f t="array" ref="R23:U26">N23:Q26</f>
         <v>1</v>
       </c>
-      <c r="S23" s="93">
+      <c r="S23" s="88">
         <v>0</v>
       </c>
-      <c r="T23" s="93">
+      <c r="T23" s="88">
         <v>0</v>
       </c>
-      <c r="U23" s="94">
+      <c r="U23" s="89">
         <v>0</v>
       </c>
       <c r="V23" s="18">
@@ -24497,32 +24501,32 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="90">
+      <c r="N24" s="85">
         <f>SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="O24" s="71">
+      <c r="O24" s="69">
         <f>COS(H23)*COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="P24" s="71">
+      <c r="P24" s="69">
         <f>-COS(H23)*SIN(D23)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="91">
+      <c r="Q24" s="86">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="92">
+      <c r="R24" s="87">
         <v>0</v>
       </c>
-      <c r="S24" s="93">
+      <c r="S24" s="88">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="T24" s="93">
+      <c r="T24" s="88">
         <v>1</v>
       </c>
-      <c r="U24" s="94">
+      <c r="U24" s="89">
         <v>0</v>
       </c>
       <c r="V24" s="18">
@@ -24539,31 +24543,31 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N25" s="90">
+      <c r="N25" s="85">
         <v>0</v>
       </c>
-      <c r="O25" s="71">
+      <c r="O25" s="69">
         <f>SIN(D23)</f>
         <v>-1</v>
       </c>
-      <c r="P25" s="71">
+      <c r="P25" s="69">
         <f>COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q25" s="91">
+      <c r="Q25" s="86">
         <f>F23</f>
         <v>100</v>
       </c>
-      <c r="R25" s="92">
+      <c r="R25" s="87">
         <v>0</v>
       </c>
-      <c r="S25" s="93">
+      <c r="S25" s="88">
         <v>-1</v>
       </c>
-      <c r="T25" s="93">
+      <c r="T25" s="88">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U25" s="94">
+      <c r="U25" s="89">
         <v>100</v>
       </c>
       <c r="V25" s="18">
@@ -24580,28 +24584,28 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N26" s="90">
+      <c r="N26" s="85">
         <v>0</v>
       </c>
-      <c r="O26" s="71">
+      <c r="O26" s="69">
         <v>0</v>
       </c>
-      <c r="P26" s="71">
+      <c r="P26" s="69">
         <v>0</v>
       </c>
-      <c r="Q26" s="91">
+      <c r="Q26" s="86">
         <v>1</v>
       </c>
-      <c r="R26" s="92">
+      <c r="R26" s="87">
         <v>0</v>
       </c>
-      <c r="S26" s="93">
+      <c r="S26" s="88">
         <v>0</v>
       </c>
-      <c r="T26" s="93">
+      <c r="T26" s="88">
         <v>0</v>
       </c>
-      <c r="U26" s="94">
+      <c r="U26" s="89">
         <v>1</v>
       </c>
       <c r="V26" s="18">
@@ -24632,160 +24636,160 @@
       </c>
       <c r="G28" s="1">
         <f>B16-90</f>
-        <v>-84.26</v>
+        <v>-90</v>
       </c>
       <c r="H28" s="6">
         <f>RADIANS(G28)</f>
-        <v>-1.4706144277304221</v>
-      </c>
-      <c r="N28" s="88">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="N28" s="83">
         <f>COS(H28)</f>
-        <v>0.10001440532103485</v>
-      </c>
-      <c r="O28" s="63">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="O28" s="61">
         <f>-SIN(H28)*COS(D28)</f>
-        <v>0.99498598921204906</v>
-      </c>
-      <c r="P28" s="63">
+        <v>1</v>
+      </c>
+      <c r="P28" s="61">
         <f>SIN(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="89">
+      <c r="Q28" s="84">
         <f>E28*COS(H28)</f>
-        <v>30.004321596310454</v>
-      </c>
-      <c r="R28" s="92">
+        <v>1.83772268236293E-14</v>
+      </c>
+      <c r="R28" s="87">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>0.10001440532103485</v>
-      </c>
-      <c r="S28" s="93">
-        <v>0.99498598921204906</v>
-      </c>
-      <c r="T28" s="93">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="S28" s="88">
+        <v>1</v>
+      </c>
+      <c r="T28" s="88">
         <v>0</v>
       </c>
-      <c r="U28" s="94">
-        <v>30.004321596310454</v>
+      <c r="U28" s="89">
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="V28" s="18">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>30.004321596310454</v>
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="W28" s="21">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.5707963267948961</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X28" s="20">
         <f>DEGREES(W28)</f>
-        <v>-89.999999999999972</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N29" s="88">
+      <c r="N29" s="83">
         <f>SIN(H28)</f>
-        <v>-0.99498598921204906</v>
-      </c>
-      <c r="O29" s="63">
+        <v>-1</v>
+      </c>
+      <c r="O29" s="61">
         <f>COS(H28)*COS(D28)</f>
-        <v>0.10001440532103485</v>
-      </c>
-      <c r="P29" s="63">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P29" s="61">
         <f>-COS(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="89">
+      <c r="Q29" s="84">
         <f>E28*SIN(H28)</f>
-        <v>-298.49579676361469</v>
-      </c>
-      <c r="R29" s="92">
-        <v>-6.0950277366943333E-17</v>
-      </c>
-      <c r="S29" s="93">
-        <v>6.1266247073835153E-18</v>
-      </c>
-      <c r="T29" s="93">
+        <v>-300</v>
+      </c>
+      <c r="R29" s="87">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="S29" s="88">
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="T29" s="88">
         <v>1</v>
       </c>
-      <c r="U29" s="94">
-        <v>-1.8285083210083001E-14</v>
+      <c r="U29" s="89">
+        <v>-1.83772268236293E-14</v>
       </c>
       <c r="V29" s="18">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>-1.8285083210083001E-14</v>
+        <v>-1.83772268236293E-14</v>
       </c>
       <c r="W29" s="21">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
-        <v>-1.4706144277304221</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X29" s="20">
         <f>DEGREES(W29)</f>
-        <v>-84.26</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N30" s="88">
+      <c r="N30" s="83">
         <v>0</v>
       </c>
-      <c r="O30" s="63">
+      <c r="O30" s="61">
         <f>SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="P30" s="63">
+      <c r="P30" s="61">
         <f>COS(D28)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="89">
+      <c r="Q30" s="84">
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="92">
-        <v>0.99498598921204906</v>
-      </c>
-      <c r="S30" s="93">
-        <v>-0.10001440532103485</v>
-      </c>
-      <c r="T30" s="93">
+      <c r="R30" s="87">
+        <v>1</v>
+      </c>
+      <c r="S30" s="88">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="T30" s="88">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="94">
-        <v>398.49579676361469</v>
+      <c r="U30" s="89">
+        <v>400</v>
       </c>
       <c r="V30" s="18">
         <f>$V$17*R30+$V$18*S30+$V$19*T30+$V$20*U30</f>
-        <v>398.49579676361469</v>
+        <v>400</v>
       </c>
       <c r="W30" s="21">
         <f>IF(ABS(W29)=PI()/2,0,ATAN2(R28,R29))</f>
-        <v>-6.0941498548433985E-16</v>
+        <v>0</v>
       </c>
       <c r="X30" s="20">
         <f>DEGREES(W30)</f>
-        <v>-3.4916906640279004E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N31" s="88">
+      <c r="N31" s="83">
         <v>0</v>
       </c>
-      <c r="O31" s="63">
+      <c r="O31" s="61">
         <v>0</v>
       </c>
-      <c r="P31" s="63">
+      <c r="P31" s="61">
         <v>0</v>
       </c>
-      <c r="Q31" s="89">
+      <c r="Q31" s="84">
         <v>1</v>
       </c>
-      <c r="R31" s="92">
+      <c r="R31" s="87">
         <v>0</v>
       </c>
-      <c r="S31" s="93">
+      <c r="S31" s="88">
         <v>0</v>
       </c>
-      <c r="T31" s="93">
+      <c r="T31" s="88">
         <v>0</v>
       </c>
-      <c r="U31" s="94">
+      <c r="U31" s="89">
         <v>1</v>
       </c>
       <c r="V31" s="18">
@@ -24816,160 +24820,160 @@
       </c>
       <c r="G33" s="1">
         <f>B17</f>
-        <v>-5.9939999999999998</v>
+        <v>0</v>
       </c>
       <c r="H33" s="6">
         <f>RADIANS(G33)</f>
-        <v>-0.10461503536454012</v>
-      </c>
-      <c r="N33" s="90">
+        <v>0</v>
+      </c>
+      <c r="N33" s="85">
         <f>COS(H33)</f>
-        <v>0.99453283611025323</v>
-      </c>
-      <c r="O33" s="71">
+        <v>1</v>
+      </c>
+      <c r="O33" s="69">
         <f>-SIN(H33)*COS(D33)</f>
-        <v>6.3967645071971626E-18</v>
-      </c>
-      <c r="P33" s="71">
+        <v>0</v>
+      </c>
+      <c r="P33" s="69">
         <f>SIN(H33)*SIN(D33)</f>
-        <v>0.10442431660535828</v>
-      </c>
-      <c r="Q33" s="91">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="86">
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
-      <c r="R33" s="64">
+      <c r="R33" s="62">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>-4.4331217795654104E-3</v>
-      </c>
-      <c r="S33" s="65">
-        <v>6.1256820809618771E-17</v>
-      </c>
-      <c r="T33" s="65">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="U33" s="66">
-        <v>30.004321596310454</v>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="S33" s="63">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="T33" s="63">
+        <v>1</v>
+      </c>
+      <c r="U33" s="64">
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="V33" s="18">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>30.004321596310454</v>
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="W33" s="21">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-1.3756865739988035E-14</v>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="X33" s="20">
         <f>DEGREES(W33)</f>
-        <v>-7.882103462294306E-13</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N34" s="90">
+      <c r="N34" s="85">
         <f>SIN(H33)</f>
-        <v>-0.10442431660535828</v>
-      </c>
-      <c r="O34" s="71">
+        <v>0</v>
+      </c>
+      <c r="O34" s="69">
         <f>COS(H33)*COS(D33)</f>
-        <v>6.0922518375818228E-17</v>
-      </c>
-      <c r="P34" s="71">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P34" s="69">
         <f>-COS(H33)*SIN(D33)</f>
-        <v>0.99453283611025323</v>
-      </c>
-      <c r="Q34" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="86">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
-      <c r="R34" s="64">
-        <v>-6.1256820809618758E-17</v>
-      </c>
-      <c r="S34" s="65">
+      <c r="R34" s="62">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="S34" s="63">
         <v>-1</v>
       </c>
-      <c r="T34" s="65">
-        <v>6.0985861130498185E-17</v>
-      </c>
-      <c r="U34" s="66">
-        <v>-1.8285083210083001E-14</v>
+      <c r="T34" s="63">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="U34" s="64">
+        <v>-1.83772268236293E-14</v>
       </c>
       <c r="V34" s="18">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>-1.8285083210083001E-14</v>
+        <v>-1.83772268236293E-14</v>
       </c>
       <c r="W34" s="21">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
-        <v>-1.566363190494831</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X34" s="20">
         <f>DEGREES(W34)</f>
-        <v>-89.745999999999995</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N35" s="90">
+      <c r="N35" s="85">
         <v>0</v>
       </c>
-      <c r="O35" s="71">
+      <c r="O35" s="69">
         <f>SIN(D33)</f>
         <v>-1</v>
       </c>
-      <c r="P35" s="71">
+      <c r="P35" s="69">
         <f>COS(D33)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q35" s="91">
+      <c r="Q35" s="86">
         <f>F33</f>
         <v>0</v>
       </c>
-      <c r="R35" s="64">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="S35" s="65">
-        <v>-6.0985861130498185E-17</v>
-      </c>
-      <c r="T35" s="65">
-        <v>4.4331217795654104E-3</v>
-      </c>
-      <c r="U35" s="66">
-        <v>398.49579676361469</v>
+      <c r="R35" s="62">
+        <v>1</v>
+      </c>
+      <c r="S35" s="63">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="T35" s="63">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="U35" s="64">
+        <v>400</v>
       </c>
       <c r="V35" s="18">
         <f>$V$17*R35+$V$18*S35+$V$19*T35+$V$20*U35</f>
-        <v>398.49579676361469</v>
+        <v>400</v>
       </c>
       <c r="W35" s="21">
         <f>IF(ABS(W34)=PI()/2,0,ATAN2(R33,R34))</f>
-        <v>-3.1415926535897793</v>
+        <v>0</v>
       </c>
       <c r="X35" s="20">
         <f>DEGREES(W35)</f>
-        <v>-179.9999999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N36" s="90">
+      <c r="N36" s="85">
         <v>0</v>
       </c>
-      <c r="O36" s="71">
+      <c r="O36" s="69">
         <v>0</v>
       </c>
-      <c r="P36" s="71">
+      <c r="P36" s="69">
         <v>0</v>
       </c>
-      <c r="Q36" s="91">
+      <c r="Q36" s="86">
         <v>1</v>
       </c>
-      <c r="R36" s="64">
+      <c r="R36" s="62">
         <v>0</v>
       </c>
-      <c r="S36" s="65">
+      <c r="S36" s="63">
         <v>0</v>
       </c>
-      <c r="T36" s="65">
+      <c r="T36" s="63">
         <v>0</v>
       </c>
-      <c r="U36" s="66">
+      <c r="U36" s="64">
         <v>1</v>
       </c>
       <c r="V36" s="18">
@@ -25001,94 +25005,94 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>0</v>
+        <v>3.4906585039886591E-2</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>0</v>
+        <v>-2.1378532231078771E-18</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>0</v>
+        <v>3.4899496702500969E-2</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
         <v>0</v>
       </c>
-      <c r="R38" s="64">
+      <c r="R38" s="62">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>-4.4331217795654104E-3</v>
-      </c>
-      <c r="S38" s="65">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="T38" s="65">
-        <v>0</v>
-      </c>
-      <c r="U38" s="66">
-        <v>230.00235632978354</v>
+        <v>6.3357959601722537E-17</v>
+      </c>
+      <c r="S38" s="63">
+        <v>1</v>
+      </c>
+      <c r="T38" s="63">
+        <v>2.1751695899242291E-18</v>
+      </c>
+      <c r="U38" s="64">
+        <v>200.00000000000003</v>
       </c>
       <c r="V38" s="18">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>1.5707963267948828</v>
+        <v>-1.8165097482335823E-15</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>89.999999999999204</v>
+        <v>-1.0407834201815601E-13</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>0</v>
+        <v>3.4899496702500969E-2</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1220106378614654E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-1</v>
+        <v>-0.99939082701909576</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
-      <c r="R39" s="64">
-        <v>-6.1256820809618758E-17</v>
-      </c>
-      <c r="S39" s="65">
-        <v>-2.715616149328158E-19</v>
-      </c>
-      <c r="T39" s="65">
-        <v>1</v>
-      </c>
-      <c r="U39" s="66">
-        <v>-6.087910983983364E-15</v>
+      <c r="R39" s="62">
+        <v>-3.4899496702501032E-2</v>
+      </c>
+      <c r="S39" s="63">
+        <v>3.7316366816346265E-20</v>
+      </c>
+      <c r="T39" s="63">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="U39" s="64">
+        <v>-6.1257422745431001E-15</v>
       </c>
       <c r="V39" s="18">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>-6.087910983983364E-15</v>
+        <v>-6.1257422745431001E-15</v>
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.566363190494831</v>
+        <v>-1.5358897417550099</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-89.745999999999995</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25107,29 +25111,29 @@
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="R40" s="64">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="S40" s="65">
-        <v>4.4331217795654104E-3</v>
-      </c>
-      <c r="T40" s="65">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="U40" s="66">
-        <v>399.38242111952775</v>
+      <c r="R40" s="62">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="S40" s="63">
+        <v>-6.3395275968538883E-17</v>
+      </c>
+      <c r="T40" s="63">
+        <v>3.4899496702501032E-2</v>
+      </c>
+      <c r="U40" s="64">
+        <v>400</v>
       </c>
       <c r="V40" s="18">
         <f>$V$17*R40+$V$18*S40+$V$19*T40+$V$20*U40</f>
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.5707963267948948</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>-179.9999999999992</v>
+        <v>-89.999999999999901</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -25145,16 +25149,16 @@
       <c r="Q41" s="13">
         <v>1</v>
       </c>
-      <c r="R41" s="64">
+      <c r="R41" s="62">
         <v>0</v>
       </c>
-      <c r="S41" s="65">
+      <c r="S41" s="63">
         <v>0</v>
       </c>
-      <c r="T41" s="65">
+      <c r="T41" s="63">
         <v>0</v>
       </c>
-      <c r="U41" s="66">
+      <c r="U41" s="64">
         <v>1</v>
       </c>
       <c r="V41" s="10">
@@ -25181,96 +25185,96 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="103">
+      <c r="G43" s="98">
         <f>B19</f>
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>1.7453292519943296E-6</v>
+        <v>1.7453292519943295E-2</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>0.99999999999847689</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>-1.0691437181932925E-22</v>
+        <v>-1.0690894390537575E-18</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>-1.7453292519934436E-6</v>
+        <v>-1.7452406437283512E-2</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
         <v>0</v>
       </c>
-      <c r="R43" s="64">
+      <c r="R43" s="62">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>-4.43137646745685E-3</v>
-      </c>
-      <c r="S43" s="65">
-        <v>6.1256821283489895E-17</v>
-      </c>
-      <c r="T43" s="65">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="U43" s="66">
-        <v>230.00235632978354</v>
+        <v>1.7452406437283574E-2</v>
+      </c>
+      <c r="S43" s="63">
+        <v>5.9072923353315656E-17</v>
+      </c>
+      <c r="T43" s="63">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="U43" s="64">
+        <v>200.00000000000003</v>
       </c>
       <c r="V43" s="18">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-1.3762308052969252E-14</v>
+        <v>-2.0342611440003955</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-7.8852216779404356E-13</v>
+        <v>-116.55457797867727</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>1.7453292519934436E-6</v>
+        <v>1.7452406437283512E-2</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1257422745337693E-17</v>
+        <v>6.1248092943239885E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>0.99999999999847689</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
-      <c r="R44" s="64">
-        <v>-6.1256821283489895E-17</v>
-      </c>
-      <c r="S44" s="65">
-        <v>-1</v>
-      </c>
-      <c r="T44" s="65">
-        <v>6.0985968043819845E-17</v>
-      </c>
-      <c r="U44" s="66">
-        <v>-6.087910983983364E-15</v>
+      <c r="R44" s="62">
+        <v>-3.4894181340113732E-2</v>
+      </c>
+      <c r="S44" s="63">
+        <v>-0.99939082701909576</v>
+      </c>
+      <c r="T44" s="63">
+        <v>6.0908020090874495E-4</v>
+      </c>
+      <c r="U44" s="64">
+        <v>-6.1257422745431001E-15</v>
       </c>
       <c r="V44" s="18">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>-6.087910983983364E-15</v>
+        <v>-6.1257422745431001E-15</v>
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.566364935824083</v>
+        <v>-1.5317711635792612</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-89.746099999999998</v>
+        <v>-87.764022852934914</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -25289,29 +25293,29 @@
         <f>F43</f>
         <v>0</v>
       </c>
-      <c r="R45" s="64">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="S45" s="65">
-        <v>-6.0985968043819845E-17</v>
-      </c>
-      <c r="T45" s="65">
-        <v>4.43137646745685E-3</v>
-      </c>
-      <c r="U45" s="66">
-        <v>399.38242111952775</v>
+      <c r="R45" s="62">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="S45" s="63">
+        <v>-3.4899496702501032E-2</v>
+      </c>
+      <c r="T45" s="63">
+        <v>-1.7441774902830217E-2</v>
+      </c>
+      <c r="U45" s="64">
+        <v>400</v>
       </c>
       <c r="V45" s="18">
         <f>$V$17*R45+$V$18*S45+$V$19*T45+$V$20*U45</f>
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>-179.9999999999992</v>
+        <v>-63.427966513422973</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -25327,16 +25331,16 @@
       <c r="Q46" s="13">
         <v>1</v>
       </c>
-      <c r="R46" s="64">
+      <c r="R46" s="62">
         <v>0</v>
       </c>
-      <c r="S46" s="65">
+      <c r="S46" s="63">
         <v>0</v>
       </c>
-      <c r="T46" s="65">
+      <c r="T46" s="63">
         <v>0</v>
       </c>
-      <c r="U46" s="66">
+      <c r="U46" s="64">
         <v>1</v>
       </c>
       <c r="V46" s="10">
@@ -25363,7 +25367,7 @@
       <c r="F48">
         <v>140</v>
       </c>
-      <c r="G48" s="102">
+      <c r="G48" s="97">
         <f>B20</f>
         <v>0</v>
       </c>
@@ -25387,36 +25391,36 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="100">
+      <c r="R48" s="95">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>-4.43137646745685E-3</v>
-      </c>
-      <c r="S48" s="101">
-        <v>6.1256821283489895E-17</v>
-      </c>
-      <c r="T48" s="101">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="U48" s="94">
-        <v>370.00098172621745</v>
+        <v>1.7452406437283574E-2</v>
+      </c>
+      <c r="S48" s="96">
+        <v>5.9072923353315656E-17</v>
+      </c>
+      <c r="T48" s="96">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="U48" s="89">
+        <v>339.97867732189479</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>370.00098172621745</v>
-      </c>
-      <c r="W48" s="95">
+        <v>339.97867732189479</v>
+      </c>
+      <c r="W48" s="90">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-1.3762308052969252E-14</v>
+        <v>-2.0342611440003955</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-7.8852216779404356E-13</v>
+        <v>-116.55457797867727</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="Z48" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
@@ -25436,29 +25440,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="100">
-        <v>-6.1256821283489895E-17</v>
-      </c>
-      <c r="S49" s="101">
-        <v>-1</v>
-      </c>
-      <c r="T49" s="101">
-        <v>6.0985968043819845E-17</v>
-      </c>
-      <c r="U49" s="94">
-        <v>2.4501245421514142E-15</v>
+      <c r="R49" s="95">
+        <v>-3.4894181340113732E-2</v>
+      </c>
+      <c r="S49" s="96">
+        <v>-0.99939082701909576</v>
+      </c>
+      <c r="T49" s="96">
+        <v>6.0908020090874495E-4</v>
+      </c>
+      <c r="U49" s="89">
+        <v>8.5271228127218171E-2</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>2.4501245421514142E-15</v>
-      </c>
-      <c r="W49" s="95">
+        <v>8.5271228127218171E-2</v>
+      </c>
+      <c r="W49" s="90">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.566364935824083</v>
+        <v>-1.5317711635792612</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-89.746099999999998</v>
+        <v>-87.764022852934914</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -25483,35 +25487,35 @@
         <f>F48</f>
         <v>140</v>
       </c>
-      <c r="R50" s="100">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="S50" s="101">
-        <v>-6.0985968043819845E-17</v>
-      </c>
-      <c r="T50" s="101">
-        <v>4.43137646745685E-3</v>
-      </c>
-      <c r="U50" s="94">
-        <v>400.00281382497172</v>
+      <c r="R50" s="95">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="S50" s="96">
+        <v>-3.4899496702501032E-2</v>
+      </c>
+      <c r="T50" s="96">
+        <v>-1.7441774902830217E-2</v>
+      </c>
+      <c r="U50" s="89">
+        <v>397.55815151360378</v>
       </c>
       <c r="V50" s="18">
-        <f>$V$17*R50+$V$18*S50+$V$19*T50+$V$20*U50</f>
-        <v>400.00281382497172</v>
-      </c>
-      <c r="W50" s="95">
+        <f>$V$17*R50+$V$19*S50+$V$18*T50+$V$20*U50</f>
+        <v>397.55815151360378</v>
+      </c>
+      <c r="W50" s="90">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-179.9999999999992</v>
+        <v>-63.427966513422973</v>
       </c>
       <c r="Y50" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="Z50" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
@@ -25527,16 +25531,16 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="100">
+      <c r="R51" s="95">
         <v>0</v>
       </c>
-      <c r="S51" s="101">
+      <c r="S51" s="96">
         <v>0</v>
       </c>
-      <c r="T51" s="101">
+      <c r="T51" s="96">
         <v>0</v>
       </c>
-      <c r="U51" s="94">
+      <c r="U51" s="89">
         <v>1</v>
       </c>
       <c r="V51" s="18">
@@ -25550,10 +25554,10 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="93"/>
-      <c r="S52" s="93"/>
-      <c r="T52" s="93"/>
-      <c r="U52" s="93"/>
+      <c r="R52" s="88"/>
+      <c r="S52" s="88"/>
+      <c r="T52" s="88"/>
+      <c r="U52" s="88"/>
       <c r="V52" s="18"/>
       <c r="W52" s="8"/>
     </row>
@@ -25582,77 +25586,77 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>370.00098172621745</v>
+        <v>339.97867732189479</v>
       </c>
       <c r="D56" s="21">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-1.3762308052969252E-14</v>
+        <v>-2.0342611440003955</v>
       </c>
       <c r="E56" s="20">
         <f>DEGREES(D56)</f>
-        <v>-7.8852216779404356E-13</v>
-      </c>
-      <c r="F56" s="96">
+        <v>-116.55457797867727</v>
+      </c>
+      <c r="F56" s="91">
         <f>D56+PI()</f>
-        <v>3.1415926535897793</v>
+        <v>1.1073315095893976</v>
       </c>
       <c r="G56" s="21">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>3.1415926535897793</v>
+        <v>1.1073315095893976</v>
       </c>
       <c r="H56" s="20">
         <f>DEGREES(G56)</f>
-        <v>179.9999999999992</v>
+        <v>63.445422021322727</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>2.4501245421514142E-15</v>
+        <v>8.5271228127218171E-2</v>
       </c>
       <c r="D57" s="21">
-        <v>-1.566364935824083</v>
+        <v>-1.5317711635792612</v>
       </c>
       <c r="E57" s="20">
         <f>DEGREES(D57)</f>
-        <v>-89.746099999999998</v>
-      </c>
-      <c r="F57" s="96">
+        <v>-87.764022852934914</v>
+      </c>
+      <c r="F57" s="91">
         <f>D57+PI()/2</f>
-        <v>4.4313909708135757E-3</v>
+        <v>3.9025163215635317E-2</v>
       </c>
       <c r="G57" s="21">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>4.4313909708135757E-3</v>
+        <v>3.9025163215635317E-2</v>
       </c>
       <c r="H57" s="20">
         <f>DEGREES(G57)</f>
-        <v>0.25389999999999846</v>
+        <v>2.2359771470650918</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>400.00281382497172</v>
+        <v>397.55815151360378</v>
       </c>
       <c r="D58" s="21">
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="E58" s="20">
         <f>DEGREES(D58)</f>
-        <v>-179.9999999999992</v>
-      </c>
-      <c r="F58" s="96">
+        <v>-63.427966513422973</v>
+      </c>
+      <c r="F58" s="91">
         <f>D58</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="G58" s="21">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="H58" s="20">
         <f>DEGREES(G58)</f>
-        <v>-179.9999999999992</v>
-      </c>
-      <c r="P58" s="95"/>
+        <v>-63.427966513422973</v>
+      </c>
+      <c r="P58" s="90"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C59" s="7">
@@ -25675,130 +25679,130 @@
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="113">
+      <c r="B62" s="108">
         <f>COS(D58)*COS(D57)</f>
-        <v>-4.4313764674569264E-3</v>
-      </c>
-      <c r="C62" s="113">
+        <v>1.7452406437283571E-2</v>
+      </c>
+      <c r="C62" s="108">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>1.2710742442874586E-16</v>
-      </c>
-      <c r="D62" s="113">
+        <v>0</v>
+      </c>
+      <c r="D62" s="108">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.99999018140309937</v>
-      </c>
-      <c r="E62" s="98">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="E62" s="93">
         <f>C56</f>
-        <v>370.00098172621745</v>
-      </c>
-      <c r="F62" s="95">
+        <v>339.97867732189479</v>
+      </c>
+      <c r="F62" s="90">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>-1.3762308052969252E-14</v>
+        <v>-2.0342611440003955</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>-7.8852216779404356E-13</v>
-      </c>
-      <c r="H62" s="96">
+        <v>-116.55457797867727</v>
+      </c>
+      <c r="H62" s="91">
         <f>F62+PI()</f>
-        <v>3.1415926535897793</v>
+        <v>1.1073315095893976</v>
       </c>
       <c r="I62" s="21">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>3.1415926535897793</v>
+        <v>1.1073315095893976</v>
       </c>
       <c r="J62" s="20">
         <f>DEGREES(I62)</f>
-        <v>179.9999999999992</v>
+        <v>63.445422021322727</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="113">
+      <c r="B63" s="108">
         <f>COS(D57)*SIN(D58)</f>
-        <v>-6.1548630096636678E-17</v>
-      </c>
-      <c r="C63" s="113">
+        <v>-3.4894181340113725E-2</v>
+      </c>
+      <c r="C63" s="108">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-1</v>
-      </c>
-      <c r="D63" s="113">
+        <v>-0.99939082701909565</v>
+      </c>
+      <c r="D63" s="108">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>1.2683592462854537E-16</v>
-      </c>
-      <c r="E63" s="98">
+        <v>6.0908020090855164E-4</v>
+      </c>
+      <c r="E63" s="93">
         <f>C57</f>
-        <v>2.4501245421514142E-15</v>
-      </c>
-      <c r="F63" s="95">
+        <v>8.5271228127218171E-2</v>
+      </c>
+      <c r="F63" s="90">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.566364935824083</v>
+        <v>-1.5317711635792612</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-89.746099999999998</v>
-      </c>
-      <c r="H63" s="96">
+        <v>-87.764022852934914</v>
+      </c>
+      <c r="H63" s="91">
         <f>F63+PI()/2</f>
-        <v>4.4313909708135757E-3</v>
+        <v>3.9025163215635317E-2</v>
       </c>
       <c r="I63" s="21">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>4.4313909708135757E-3</v>
+        <v>3.9025163215635317E-2</v>
       </c>
       <c r="J63" s="20">
         <f>DEGREES(I63)</f>
-        <v>0.25389999999999846</v>
+        <v>2.2359771470650918</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B64" s="113">
+      <c r="B64" s="108">
         <f>-SIN(D57)</f>
-        <v>0.99999018140309937</v>
-      </c>
-      <c r="C64" s="113">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="C64" s="108">
         <f>SIN(D56)*COS(D57)</f>
-        <v>-6.0985968043820893E-17</v>
-      </c>
-      <c r="D64" s="113">
+        <v>-3.4899496702501025E-2</v>
+      </c>
+      <c r="D64" s="108">
         <f>COS(D56)*COS(D57)</f>
-        <v>4.4313764674569264E-3</v>
-      </c>
-      <c r="E64" s="98">
+        <v>-1.744177490283022E-2</v>
+      </c>
+      <c r="E64" s="93">
         <f>C58</f>
-        <v>400.00281382497172</v>
-      </c>
-      <c r="F64" s="95">
+        <v>397.55815151360378</v>
+      </c>
+      <c r="F64" s="90">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>-179.9999999999992</v>
-      </c>
-      <c r="H64" s="96">
+        <v>-63.427966513422973</v>
+      </c>
+      <c r="H64" s="91">
         <f>F64</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="I64" s="21">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>-3.1415926535897793</v>
+        <v>-1.1070268535039389</v>
       </c>
       <c r="J64" s="20">
         <f>DEGREES(I64)</f>
-        <v>-179.9999999999992</v>
+        <v>-63.427966513422973</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="98">
+      <c r="B65" s="93">
         <v>0</v>
       </c>
-      <c r="C65" s="98">
+      <c r="C65" s="93">
         <v>0</v>
       </c>
-      <c r="D65" s="98">
+      <c r="D65" s="93">
         <v>0</v>
       </c>
-      <c r="E65" s="98">
+      <c r="E65" s="93">
         <v>1</v>
       </c>
     </row>
@@ -25822,16 +25826,16 @@
       </c>
       <c r="I69" s="7">
         <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="J69" s="7">
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="K69" s="7">
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="L69" s="7">
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -25839,16 +25843,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>-1.5306904905844937E-14</v>
+        <v>2.0941581801992015E-14</v>
       </c>
       <c r="J70" s="7">
-        <v>-1.5306904905844937E-14</v>
+        <v>2.0941581801992015E-14</v>
       </c>
       <c r="K70" s="7">
-        <v>-1.5306904905844937E-14</v>
+        <v>2.0941581801992015E-14</v>
       </c>
       <c r="L70" s="7">
-        <v>-1.5306904905844937E-14</v>
+        <v>2.0941581801992015E-14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -25857,16 +25861,16 @@
         <v>-140</v>
       </c>
       <c r="I71" s="7">
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
       <c r="J71" s="7">
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
       <c r="K71" s="7">
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
       <c r="L71" s="7">
-        <v>399.38242111952775</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -25945,52 +25949,52 @@
       <c r="A82" s="9"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="62">
+      <c r="B83" s="76">
         <f t="array" ref="B83:B86">L69:L72</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="21">
         <f>ATAN2(B83,B84)</f>
-        <v>-6.6551078650244293E-17</v>
+        <v>1.0470790900996006E-16</v>
       </c>
       <c r="I83" s="23">
         <f>DEGREES(H83)</f>
-        <v>-3.8130959287021971E-15</v>
+        <v>5.9993212679105579E-15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="62">
-        <v>-1.5306904905844937E-14</v>
+      <c r="B84" s="60">
+        <v>2.0941581801992015E-14</v>
       </c>
       <c r="H84" s="21">
         <f>ATAN2(-B83,-B84)</f>
-        <v>3.1415926535897931</v>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="I84" s="23">
         <f>DEGREES(H84)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="62">
-        <v>399.38242111952775</v>
+      <c r="B85" s="60">
+        <v>400</v>
       </c>
       <c r="E85" t="s">
         <v>40</v>
       </c>
       <c r="G85" s="21">
         <f>IF(B87=1,H83,H84)</f>
-        <v>-6.6551078650244293E-17</v>
+        <v>1.0470790900996006E-16</v>
       </c>
       <c r="H85" s="23">
         <f>DEGREES(G85)</f>
-        <v>-3.8130959287021971E-15</v>
+        <v>5.9993212679105579E-15</v>
       </c>
       <c r="I85" s="15" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26006,11 +26010,11 @@
       </c>
       <c r="G86" s="21">
         <f>IF(B87=-1,H83,H84)</f>
-        <v>3.1415926535897931</v>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="H86" s="23">
         <f>DEGREES(G86)</f>
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="I86" s="15" t="str">
         <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26045,7 +26049,7 @@
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26054,7 +26058,7 @@
       </c>
       <c r="L97" s="4">
         <f>E110</f>
-        <v>299.38242111952775</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
@@ -26063,31 +26067,31 @@
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E110" s="19">
         <f>B85-F23</f>
-        <v>299.38242111952775</v>
-      </c>
-      <c r="M110" s="95">
+        <v>300</v>
+      </c>
+      <c r="M110" s="90">
         <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.55490106867035083</v>
+        <v>0.58800260354756739</v>
       </c>
       <c r="N110" s="20">
         <f>DEGREES(M110)</f>
-        <v>31.793489282110173</v>
+        <v>33.690067525979778</v>
       </c>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>230.00235632978354</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
-      <c r="M112" s="114">
+      <c r="M112" s="109">
         <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.6754113621594366</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="N112" s="22">
         <f>DEGREES(M112)</f>
-        <v>95.994</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.3">
@@ -26098,10 +26102,10 @@
       <c r="N113" s="22"/>
     </row>
     <row r="114" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M114" s="35" t="s">
+      <c r="M114" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="Q114" s="35" t="s">
+      <c r="Q114" s="33" t="s">
         <v>49</v>
       </c>
     </row>
@@ -26111,24 +26115,24 @@
       </c>
       <c r="E115" s="7">
         <f>SQRT(E112*E112+E110*E110)</f>
-        <v>377.53267142413381</v>
+        <v>360.55512754639892</v>
       </c>
       <c r="L115" t="s">
         <v>68</v>
       </c>
-      <c r="M115" s="36">
+      <c r="M115" s="34">
         <f>IF(B87=1,1,-1)</f>
         <v>1</v>
       </c>
-      <c r="N115" s="37"/>
-      <c r="O115" s="37"/>
-      <c r="P115" s="37"/>
-      <c r="Q115" s="37">
+      <c r="N115" s="35"/>
+      <c r="O115" s="35"/>
+      <c r="P115" s="35"/>
+      <c r="Q115" s="35">
         <f>IF(B87=1,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="R115" s="37"/>
-      <c r="S115" s="38"/>
+      <c r="R115" s="35"/>
+      <c r="S115" s="36"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
@@ -26142,25 +26146,25 @@
       <c r="L116" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M116" s="118">
+      <c r="M116" s="113">
         <f>ATAN2(M115*E112,E110)</f>
-        <v>0.91571335906007123</v>
-      </c>
-      <c r="N116" s="39">
+        <v>0.98279372324732905</v>
+      </c>
+      <c r="N116" s="37">
         <f>DEGREES(M116)</f>
-        <v>52.466510717889825</v>
-      </c>
-      <c r="O116" s="40"/>
-      <c r="P116" s="40"/>
-      <c r="Q116" s="41">
+        <v>56.309932474020215</v>
+      </c>
+      <c r="O116" s="38"/>
+      <c r="P116" s="38"/>
+      <c r="Q116" s="39">
         <f>ATAN2(Q115*E112,E110)</f>
-        <v>2.2258792945297219</v>
-      </c>
-      <c r="R116" s="39">
+        <v>2.158798930342464</v>
+      </c>
+      <c r="R116" s="37">
         <f>DEGREES(Q116)</f>
-        <v>127.53348928211017</v>
-      </c>
-      <c r="S116" s="42"/>
+        <v>123.69006752597979</v>
+      </c>
+      <c r="S116" s="40"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
@@ -26170,187 +26174,187 @@
         <f>F38</f>
         <v>200</v>
       </c>
-      <c r="M117" s="43"/>
-      <c r="N117" s="40"/>
-      <c r="O117" s="40"/>
-      <c r="P117" s="40"/>
-      <c r="Q117" s="40"/>
-      <c r="R117" s="40"/>
-      <c r="S117" s="42"/>
+      <c r="M117" s="41"/>
+      <c r="N117" s="38"/>
+      <c r="O117" s="38"/>
+      <c r="P117" s="38"/>
+      <c r="Q117" s="38"/>
+      <c r="R117" s="38"/>
+      <c r="S117" s="40"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G118" s="1"/>
-      <c r="K118" s="120"/>
-      <c r="M118" s="43"/>
-      <c r="N118" s="40"/>
-      <c r="O118" s="40"/>
-      <c r="P118" s="40"/>
-      <c r="Q118" s="40"/>
-      <c r="R118" s="40"/>
-      <c r="S118" s="42"/>
+      <c r="K118" s="115"/>
+      <c r="M118" s="41"/>
+      <c r="N118" s="38"/>
+      <c r="O118" s="38"/>
+      <c r="P118" s="38"/>
+      <c r="Q118" s="38"/>
+      <c r="R118" s="38"/>
+      <c r="S118" s="40"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F119" s="5"/>
       <c r="G119" s="1"/>
-      <c r="M119" s="43"/>
-      <c r="N119" s="40"/>
-      <c r="O119" s="40"/>
-      <c r="P119" s="40"/>
-      <c r="Q119" s="40"/>
-      <c r="R119" s="40"/>
-      <c r="S119" s="42"/>
+      <c r="M119" s="41"/>
+      <c r="N119" s="38"/>
+      <c r="O119" s="38"/>
+      <c r="P119" s="38"/>
+      <c r="Q119" s="38"/>
+      <c r="R119" s="38"/>
+      <c r="S119" s="40"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" t="s">
         <v>46</v>
       </c>
       <c r="G120" s="1"/>
-      <c r="M120" s="119">
+      <c r="M120" s="114">
         <f>PI()/2-(M116+M110)</f>
-        <v>0.1001818990644745</v>
-      </c>
-      <c r="N120" s="45">
+        <v>0</v>
+      </c>
+      <c r="N120" s="43">
         <f>DEGREES(M120)</f>
-        <v>5.7399999999999993</v>
-      </c>
-      <c r="O120" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="O120" s="44" t="str">
         <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P120" s="40"/>
-      <c r="Q120" s="47">
+      <c r="P120" s="38"/>
+      <c r="Q120" s="45">
         <f>PI()/2-(Q116+M110)</f>
-        <v>-1.2099840364051762</v>
-      </c>
-      <c r="R120" s="45">
+        <v>-1.1760052070951348</v>
+      </c>
+      <c r="R120" s="43">
         <f>DEGREES(Q120)</f>
-        <v>-69.326978564220354</v>
-      </c>
-      <c r="S120" s="48" t="str">
+        <v>-67.380135051959556</v>
+      </c>
+      <c r="S120" s="46" t="str">
         <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G121" s="1"/>
-      <c r="M121" s="44">
+      <c r="M121" s="42">
         <f>PI()/2-M112</f>
-        <v>-0.10461503536454009</v>
-      </c>
-      <c r="N121" s="45">
+        <v>0</v>
+      </c>
+      <c r="N121" s="43">
         <f>DEGREES(M121)</f>
-        <v>-5.9939999999999989</v>
-      </c>
-      <c r="O121" s="46" t="str">
+        <v>0</v>
+      </c>
+      <c r="O121" s="44" t="str">
         <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
-      <c r="P121" s="40"/>
-      <c r="Q121" s="47">
+      <c r="P121" s="38"/>
+      <c r="Q121" s="45">
         <f>PI()/2-M112</f>
-        <v>-0.10461503536454009</v>
-      </c>
-      <c r="R121" s="45">
+        <v>0</v>
+      </c>
+      <c r="R121" s="43">
         <f>DEGREES(Q121)</f>
-        <v>-5.9939999999999989</v>
-      </c>
-      <c r="S121" s="48" t="str">
+        <v>0</v>
+      </c>
+      <c r="S121" s="46" t="str">
         <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M122" s="43"/>
-      <c r="N122" s="40"/>
-      <c r="O122" s="40"/>
-      <c r="P122" s="40"/>
-      <c r="Q122" s="40"/>
-      <c r="R122" s="40"/>
-      <c r="S122" s="42"/>
+      <c r="M122" s="41"/>
+      <c r="N122" s="38"/>
+      <c r="O122" s="38"/>
+      <c r="P122" s="38"/>
+      <c r="Q122" s="38"/>
+      <c r="R122" s="38"/>
+      <c r="S122" s="40"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M123" s="49"/>
-      <c r="N123" s="50"/>
-      <c r="O123" s="40"/>
-      <c r="P123" s="40"/>
-      <c r="Q123" s="40"/>
-      <c r="R123" s="40"/>
-      <c r="S123" s="42"/>
+      <c r="M123" s="47"/>
+      <c r="N123" s="48"/>
+      <c r="O123" s="38"/>
+      <c r="P123" s="38"/>
+      <c r="Q123" s="38"/>
+      <c r="R123" s="38"/>
+      <c r="S123" s="40"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
       <c r="F124" s="9"/>
       <c r="G124" s="1"/>
-      <c r="M124" s="43"/>
-      <c r="N124" s="40"/>
-      <c r="O124" s="40"/>
-      <c r="P124" s="40"/>
-      <c r="Q124" s="40"/>
-      <c r="R124" s="40"/>
-      <c r="S124" s="42"/>
+      <c r="M124" s="41"/>
+      <c r="N124" s="38"/>
+      <c r="O124" s="38"/>
+      <c r="P124" s="38"/>
+      <c r="Q124" s="38"/>
+      <c r="R124" s="38"/>
+      <c r="S124" s="40"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M125" s="43"/>
-      <c r="N125" s="40"/>
-      <c r="O125" s="40"/>
-      <c r="P125" s="40"/>
-      <c r="Q125" s="40"/>
-      <c r="R125" s="40"/>
-      <c r="S125" s="42"/>
+      <c r="M125" s="41"/>
+      <c r="N125" s="38"/>
+      <c r="O125" s="38"/>
+      <c r="P125" s="38"/>
+      <c r="Q125" s="38"/>
+      <c r="R125" s="38"/>
+      <c r="S125" s="40"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
         <v>47</v>
       </c>
-      <c r="M126" s="44">
+      <c r="M126" s="42">
         <f>PI()/2-(M116-M110)</f>
-        <v>1.2099840364051762</v>
-      </c>
-      <c r="N126" s="45">
+        <v>1.1760052070951348</v>
+      </c>
+      <c r="N126" s="43">
         <f>DEGREES(M126)</f>
-        <v>69.326978564220354</v>
-      </c>
-      <c r="O126" s="46" t="str">
+        <v>67.380135051959556</v>
+      </c>
+      <c r="O126" s="44" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P126" s="40"/>
-      <c r="Q126" s="47">
+      <c r="P126" s="38"/>
+      <c r="Q126" s="45">
         <f>PI()/2-(Q116-M110)</f>
-        <v>-0.1001818990644745</v>
-      </c>
-      <c r="R126" s="45">
+        <v>0</v>
+      </c>
+      <c r="R126" s="43">
         <f>DEGREES(Q126)</f>
-        <v>-5.7399999999999993</v>
-      </c>
-      <c r="S126" s="48" t="str">
+        <v>0</v>
+      </c>
+      <c r="S126" s="46" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A127" s="15"/>
-      <c r="M127" s="51">
+      <c r="M127" s="49">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.036977618225253</v>
-      </c>
-      <c r="N127" s="52">
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="N127" s="50">
         <f>DEGREES(M127)</f>
-        <v>-174.006</v>
-      </c>
-      <c r="O127" s="53" t="str">
+        <v>-180</v>
+      </c>
+      <c r="O127" s="51" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P127" s="54"/>
-      <c r="Q127" s="55">
+      <c r="P127" s="52"/>
+      <c r="Q127" s="53">
         <f>(M112- PI()*3/2)</f>
-        <v>-3.036977618225253</v>
-      </c>
-      <c r="R127" s="52">
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="R127" s="50">
         <f>DEGREES(Q127)</f>
-        <v>-174.006</v>
-      </c>
-      <c r="S127" s="56" t="str">
+        <v>-180</v>
+      </c>
+      <c r="S127" s="54" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
@@ -26361,9 +26365,9 @@
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E130" s="60"/>
-      <c r="F130" s="60"/>
-      <c r="G130" s="60"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="58"/>
+      <c r="G130" s="58"/>
       <c r="J130" t="s">
         <v>51</v>
       </c>
@@ -26372,313 +26376,313 @@
       </c>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E131" s="60"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="60"/>
-      <c r="H131" s="60"/>
-      <c r="I131" s="60"/>
-      <c r="J131" s="61">
+      <c r="E131" s="58"/>
+      <c r="F131" s="58"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="58"/>
+      <c r="J131" s="59">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="K131" s="61">
-        <v>-1.0691437181932925E-22</v>
-      </c>
-      <c r="L131" s="61">
-        <v>-1.7453292519934436E-6</v>
-      </c>
-      <c r="M131" s="76">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="K131" s="59">
+        <v>-3.4899496702500969E-2</v>
+      </c>
+      <c r="L131" s="59">
+        <v>-1.7441774902830158E-2</v>
+      </c>
+      <c r="M131" s="74">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="N131" s="76">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="N131" s="74">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="O131" s="76">
+        <v>-3.4899496702500969E-2</v>
+      </c>
+      <c r="O131" s="74">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>-1.7453292519934436E-6</v>
+        <v>-1.7441774902830158E-2</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E132" s="60"/>
-      <c r="F132" s="60"/>
-      <c r="G132" s="60"/>
-      <c r="H132" s="60"/>
-      <c r="I132" s="60"/>
-      <c r="J132" s="61">
-        <v>1.0691437181932925E-22</v>
-      </c>
-      <c r="K132" s="61">
-        <v>1</v>
-      </c>
-      <c r="L132" s="61">
-        <v>-9.3307453945672803E-29</v>
-      </c>
-      <c r="M132" s="76">
+      <c r="E132" s="58"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="58"/>
+      <c r="J132" s="59">
+        <v>3.489418134011367E-2</v>
+      </c>
+      <c r="K132" s="59">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="L132" s="59">
+        <v>-6.0908020090868261E-4</v>
+      </c>
+      <c r="M132" s="74">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N132" s="76">
+        <v>3.489418134011367E-2</v>
+      </c>
+      <c r="N132" s="74">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>1</v>
-      </c>
-      <c r="O132" s="76">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="O132" s="74">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>-6.0908020090868261E-4</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J133" s="61">
-        <v>1.7453292519934436E-6</v>
-      </c>
-      <c r="K133" s="61">
-        <v>-9.3307453945672803E-29</v>
-      </c>
-      <c r="L133" s="61">
-        <v>0.99999999999847689</v>
-      </c>
-      <c r="M133" s="76">
+      <c r="J133" s="59">
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="K133" s="59">
+        <v>-9.3298021911154303E-21</v>
+      </c>
+      <c r="L133" s="59">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="M133" s="74">
         <f>SIN(C19)*COS(C20)</f>
-        <v>1.7453292519934436E-6</v>
-      </c>
-      <c r="N133" s="76">
+        <v>1.7452406437283512E-2</v>
+      </c>
+      <c r="N133" s="74">
         <f>-SIN(C19)*SIN(C20)</f>
         <v>0</v>
       </c>
-      <c r="O133" s="76">
+      <c r="O133" s="74">
         <f>COS(C19)</f>
-        <v>0.99999999999847689</v>
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="67">
+      <c r="B136" s="65">
         <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>-4.4331217795654104E-3</v>
-      </c>
-      <c r="C136" s="68">
-        <v>6.1256820809618771E-17</v>
-      </c>
-      <c r="D136" s="69">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="H136" s="67">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="C136" s="66">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="D136" s="67">
+        <v>1</v>
+      </c>
+      <c r="H136" s="65">
         <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>-4.4331217795654104E-3</v>
-      </c>
-      <c r="I136" s="68">
-        <v>-6.1256820809618758E-17</v>
-      </c>
-      <c r="J136" s="69">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="M136" s="67">
-        <f t="array" ref="M136:O138">R48:T50</f>
-        <v>-4.43137646745685E-3</v>
-      </c>
-      <c r="N136" s="68">
-        <v>6.1256821283489895E-17</v>
-      </c>
-      <c r="O136" s="69">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="S136" s="104">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="I136" s="66">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="J136" s="67">
+        <v>1</v>
+      </c>
+      <c r="M136" s="65">
+        <f t="array" ref="M136:O138">B62:D64</f>
+        <v>1.7452406437283571E-2</v>
+      </c>
+      <c r="N136" s="66">
+        <v>0</v>
+      </c>
+      <c r="O136" s="67">
+        <v>0.99984769515639127</v>
+      </c>
+      <c r="S136" s="99">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.99999999999847711</v>
-      </c>
-      <c r="T136" s="105">
-        <v>-1.0691437183132245E-22</v>
-      </c>
-      <c r="U136" s="106">
-        <v>-1.7453292519937699E-6</v>
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="T136" s="100">
+        <v>-3.4899496702500962E-2</v>
+      </c>
+      <c r="U136" s="101">
+        <v>-1.7441774902830158E-2</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="70">
-        <v>-6.1256820809618758E-17</v>
-      </c>
-      <c r="C137" s="71">
+      <c r="B137" s="68">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="C137" s="69">
         <v>-1</v>
       </c>
-      <c r="D137" s="72">
-        <v>6.0985861130498185E-17</v>
-      </c>
-      <c r="H137" s="70">
-        <v>6.1256820809618771E-17</v>
-      </c>
-      <c r="I137" s="71">
+      <c r="D137" s="70">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="H137" s="68">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="I137" s="69">
         <v>-1</v>
       </c>
-      <c r="J137" s="72">
-        <v>-6.0985861130498185E-17</v>
-      </c>
-      <c r="M137" s="70">
-        <v>-6.1256821283489895E-17</v>
-      </c>
-      <c r="N137" s="71">
-        <v>-1</v>
-      </c>
-      <c r="O137" s="72">
-        <v>6.0985968043819845E-17</v>
-      </c>
-      <c r="S137" s="107">
-        <v>1.0691437180667054E-22</v>
-      </c>
-      <c r="T137" s="108">
-        <v>1</v>
-      </c>
-      <c r="U137" s="109">
-        <v>-9.328973539018444E-29</v>
+      <c r="J137" s="70">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M137" s="68">
+        <v>-3.4894181340113725E-2</v>
+      </c>
+      <c r="N137" s="69">
+        <v>-0.99939082701909565</v>
+      </c>
+      <c r="O137" s="70">
+        <v>6.0908020090855164E-4</v>
+      </c>
+      <c r="S137" s="102">
+        <v>3.4894181340113663E-2</v>
+      </c>
+      <c r="T137" s="103">
+        <v>0.99939082701909565</v>
+      </c>
+      <c r="U137" s="104">
+        <v>-6.090802009084893E-4</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="73">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="C138" s="74">
-        <v>-6.0985861130498185E-17</v>
-      </c>
-      <c r="D138" s="75">
-        <v>4.4331217795654104E-3</v>
-      </c>
-      <c r="H138" s="73">
-        <v>0.99999017366736542</v>
-      </c>
-      <c r="I138" s="74">
-        <v>6.0985861130498185E-17</v>
-      </c>
-      <c r="J138" s="75">
-        <v>4.4331217795654104E-3</v>
-      </c>
-      <c r="M138" s="73">
-        <v>0.99999018140309948</v>
-      </c>
-      <c r="N138" s="74">
-        <v>-6.0985968043819845E-17</v>
-      </c>
-      <c r="O138" s="75">
-        <v>4.43137646745685E-3</v>
-      </c>
-      <c r="S138" s="110">
-        <v>1.7453292519937699E-6</v>
-      </c>
-      <c r="T138" s="111">
-        <v>-9.3298642816177231E-29</v>
-      </c>
-      <c r="U138" s="112">
-        <v>0.99999999999847711</v>
+      <c r="B138" s="71">
+        <v>1</v>
+      </c>
+      <c r="C138" s="72">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="D138" s="73">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="H138" s="71">
+        <v>1</v>
+      </c>
+      <c r="I138" s="72">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="J138" s="73">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M138" s="71">
+        <v>0.99923861495548261</v>
+      </c>
+      <c r="N138" s="72">
+        <v>-3.4899496702501025E-2</v>
+      </c>
+      <c r="O138" s="73">
+        <v>-1.744177490283022E-2</v>
+      </c>
+      <c r="S138" s="105">
+        <v>1.7452406437283505E-2</v>
+      </c>
+      <c r="T138" s="106">
+        <v>-5.9082253155506771E-17</v>
+      </c>
+      <c r="U138" s="107">
+        <v>0.99984769515639127</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="78">
+      <c r="D142" s="76">
         <f>U138</f>
-        <v>0.99999999999847711</v>
+        <v>0.99984769515639127</v>
       </c>
       <c r="E142" s="5"/>
-      <c r="G142" s="85">
+      <c r="G142" s="80">
         <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
-        <v>1.745217993676107E-6</v>
-      </c>
-      <c r="H142" s="86">
+        <v>1.7453292519941543E-2</v>
+      </c>
+      <c r="H142" s="81">
         <f>DEGREES(G142)</f>
-        <v>9.9993625367930119E-5</v>
-      </c>
-      <c r="J142" s="85">
+        <v>0.99999999999989964</v>
+      </c>
+      <c r="J142" s="80">
         <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>5.3456184676672265E-23</v>
-      </c>
-      <c r="K142" s="86">
+        <v>3.3853356193498677E-15</v>
+      </c>
+      <c r="K142" s="81">
         <f>DEGREES(J142)</f>
-        <v>3.0628137708452239E-21</v>
+        <v>1.9396544322405402E-13</v>
       </c>
       <c r="N142" s="2">
         <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
-        <v>5.3451081097515149E-23</v>
-      </c>
-      <c r="O142" s="86">
+        <v>3.4906585039875523E-2</v>
+      </c>
+      <c r="O142" s="81">
         <f>DEGREES(N142)</f>
-        <v>3.0625213572991102E-21</v>
+        <v>1.9999999999993658</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G143" s="85">
+      <c r="G143" s="80">
         <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
-        <v>-1.745217993676107E-6</v>
-      </c>
-      <c r="H143" s="86">
+        <v>-1.7453292519941543E-2</v>
+      </c>
+      <c r="H143" s="81">
         <f>DEGREES(G143)</f>
-        <v>-9.9993625367930119E-5</v>
-      </c>
-      <c r="J143" s="85">
+        <v>-0.99999999999989964</v>
+      </c>
+      <c r="J143" s="80">
         <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="K143" s="86">
+        <v>-3.1415926535897896</v>
+      </c>
+      <c r="K143" s="81">
         <f>DEGREES(J143)</f>
-        <v>-180</v>
+        <v>-179.9999999999998</v>
       </c>
       <c r="N143" s="2">
         <f>IF(SIN(G143)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G143),D148/SIN(G143)))</f>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="O143" s="86">
+        <v>-3.1066860685499176</v>
+      </c>
+      <c r="O143" s="81">
         <f>DEGREES(N143)</f>
-        <v>-180</v>
+        <v>-178.00000000000063</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="77">
+      <c r="D144" s="75">
         <f>T138</f>
-        <v>-9.3298642816177231E-29</v>
+        <v>-5.9082253155506771E-17</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-      <c r="J144" s="99"/>
-      <c r="K144" s="86"/>
+      <c r="J144" s="94"/>
+      <c r="K144" s="81"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="97"/>
-      <c r="O144" s="86"/>
+      <c r="N144" s="92"/>
+      <c r="O144" s="81"/>
     </row>
     <row r="145" spans="4:15" x14ac:dyDescent="0.3">
       <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-      <c r="J145" s="85"/>
-      <c r="K145" s="86"/>
+      <c r="J145" s="80"/>
+      <c r="K145" s="81"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="97"/>
-      <c r="O145" s="86"/>
+      <c r="N145" s="92"/>
+      <c r="O145" s="81"/>
     </row>
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" s="60">
+      <c r="D146" s="58">
         <f>S138</f>
-        <v>1.7453292519937699E-6</v>
+        <v>1.7452406437283505E-2</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
-      <c r="K146" s="86"/>
+      <c r="K146" s="81"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="87"/>
-      <c r="O146" s="86"/>
+      <c r="N146" s="82"/>
+      <c r="O146" s="81"/>
     </row>
     <row r="147" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
-      <c r="K147" s="86"/>
+      <c r="K147" s="81"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D148" s="60">
+      <c r="D148" s="58">
         <f>U137</f>
-        <v>-9.328973539018444E-29</v>
+        <v>-6.090802009084893E-4</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26702,22 +26706,22 @@
       <c r="O149" s="2"/>
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D150" s="78">
+      <c r="D150" s="76">
         <f>U136</f>
-        <v>-1.7453292519937699E-6</v>
+        <v>-1.7441774902830158E-2</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
-      <c r="K150" s="86"/>
+      <c r="K150" s="81"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="87"/>
-      <c r="O150" s="86"/>
+      <c r="N150" s="82"/>
+      <c r="O150" s="81"/>
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.3">
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
-      <c r="K151" s="86"/>
+      <c r="K151" s="81"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
       <c r="N151" s="2"/>
@@ -26739,8 +26743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45:M47"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -817,6 +817,9 @@
   <si>
     <t>g</t>
   </si>
+  <si>
+    <t>Nick/pitch</t>
+  </si>
 </sst>
 </file>
 
@@ -1355,7 +1358,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>200.00000000000003</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,7 +1370,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.0941581801992015E-14</c:v>
+                  <c:v>-1.4916679007785359E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1535,7 +1538,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.00000000000003</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -24126,8 +24129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z152"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24169,13 +24172,13 @@
       </c>
       <c r="G4" s="55">
         <f>B83</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="56">
         <f>B84</f>
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24191,31 +24194,31 @@
       </c>
       <c r="G8" s="110">
         <f>V48</f>
-        <v>339.97867732189479</v>
+        <v>340</v>
       </c>
       <c r="H8" s="77">
         <f>X48</f>
-        <v>-116.55457797867727</v>
+        <v>-90.000000000000057</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G9" s="111">
         <f>V49</f>
-        <v>8.5271228127218171E-2</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="H9" s="78">
         <f>X49</f>
-        <v>-87.764022852934914</v>
+        <v>-86.9</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="112">
         <f>V50</f>
-        <v>397.55815151360378</v>
+        <v>400</v>
       </c>
       <c r="H10" s="79">
         <f>X50</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -24253,11 +24256,11 @@
       </c>
       <c r="E15" s="20">
         <f>H85</f>
-        <v>5.9993212679105579E-15</v>
+        <v>-4.2733137574874679E-15</v>
       </c>
       <c r="I15" s="20">
         <f>H86</f>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>42</v>
@@ -24330,19 +24333,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="30">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>3.4906585039886591E-2</v>
+        <v>1.7453292519943296E-3</v>
       </c>
       <c r="F18" s="118">
         <f>O142</f>
-        <v>1.9999999999993658</v>
+        <v>94.126863195110516</v>
       </c>
       <c r="G18" s="119">
         <f>O143</f>
-        <v>-178.00000000000063</v>
+        <v>94.126863195110516</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -24354,19 +24357,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>1.7453292519943295E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="120">
         <f>H142</f>
-        <v>0.99999999999989964</v>
+        <v>0</v>
       </c>
       <c r="G19" s="121">
         <f>H143</f>
-        <v>-0.99999999999989964</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -24377,19 +24380,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.235987755982989E-2</v>
       </c>
       <c r="F20" s="122">
         <f>K142</f>
-        <v>1.9396544322405402E-13</v>
+        <v>-91.026863195110522</v>
       </c>
       <c r="G20" s="123">
         <f>K143</f>
-        <v>-179.9999999999998</v>
+        <v>-91.026863195110522</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -25005,23 +25008,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>3.4906585039886591E-2</v>
+        <v>1.7453292519943296E-3</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>0.99939082701909576</v>
+        <v>0.99999847691328769</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-2.1378532231078771E-18</v>
+        <v>-1.0691431753942499E-19</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>3.4899496702500969E-2</v>
+        <v>1.7453283658983088E-3</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -25029,13 +25032,13 @@
       </c>
       <c r="R38" s="62">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>6.3357959601722537E-17</v>
+        <v>6.1364243762603816E-17</v>
       </c>
       <c r="S38" s="63">
         <v>1</v>
       </c>
       <c r="T38" s="63">
-        <v>2.1751695899242291E-18</v>
+        <v>1.0700761790603487E-19</v>
       </c>
       <c r="U38" s="64">
         <v>200.00000000000003</v>
@@ -25046,38 +25049,38 @@
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-1.8165097482335823E-15</v>
+        <v>-3.5159193113431387E-14</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>-1.0407834201815601E-13</v>
+        <v>-2.0144733764850472E-12</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>3.4899496702500969E-2</v>
+        <v>1.7453283658983088E-3</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1220106378614654E-17</v>
+        <v>6.1257329445064391E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-0.99939082701909576</v>
+        <v>-0.99999847691328769</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="62">
-        <v>-3.4899496702501032E-2</v>
+        <v>-1.74532836589837E-3</v>
       </c>
       <c r="S39" s="63">
-        <v>3.7316366816346265E-20</v>
+        <v>9.3300366609759119E-23</v>
       </c>
       <c r="T39" s="63">
-        <v>0.99939082701909576</v>
+        <v>0.99999847691328769</v>
       </c>
       <c r="U39" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -25088,11 +25091,11 @@
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.5358897417550099</v>
+        <v>-1.5690509975429023</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-88</v>
+        <v>-89.9</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25112,13 +25115,13 @@
         <v>200</v>
       </c>
       <c r="R40" s="62">
-        <v>0.99939082701909576</v>
+        <v>0.99999847691328769</v>
       </c>
       <c r="S40" s="63">
-        <v>-6.3395275968538883E-17</v>
+        <v>-6.1364337062970426E-17</v>
       </c>
       <c r="T40" s="63">
-        <v>3.4899496702501032E-2</v>
+        <v>1.74532836589837E-3</v>
       </c>
       <c r="U40" s="64">
         <v>400</v>
@@ -25129,11 +25132,11 @@
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-1.5707963267948948</v>
+        <v>-1.5707963267948615</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>-89.999999999999901</v>
+        <v>-89.999999999997996</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -25187,23 +25190,23 @@
       </c>
       <c r="G43" s="98">
         <f>B19</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>1.7453292519943295E-2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>-1.0690894390537575E-18</v>
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>-1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -25211,13 +25214,13 @@
       </c>
       <c r="R43" s="62">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>1.7452406437283574E-2</v>
+        <v>6.1364243762603816E-17</v>
       </c>
       <c r="S43" s="63">
-        <v>5.9072923353315656E-17</v>
+        <v>6.1150415127524966E-17</v>
       </c>
       <c r="T43" s="63">
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="U43" s="64">
         <v>200.00000000000003</v>
@@ -25228,38 +25231,38 @@
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-2.0342611440003955</v>
+        <v>-1.5707963267949316</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-116.55457797867727</v>
+        <v>-90.000000000002004</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1248092943239885E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="62">
-        <v>-3.4894181340113732E-2</v>
+        <v>-1.74532836589837E-3</v>
       </c>
       <c r="S44" s="63">
-        <v>-0.99939082701909576</v>
+        <v>-0.99999847691328769</v>
       </c>
       <c r="T44" s="63">
-        <v>6.0908020090874495E-4</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U44" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -25270,11 +25273,11 @@
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.5317711635792612</v>
+        <v>-1.5690509975429023</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-87.764022852934914</v>
+        <v>-89.9</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -25294,13 +25297,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="62">
-        <v>0.99923861495548261</v>
+        <v>0.99999847691328769</v>
       </c>
       <c r="S45" s="63">
-        <v>-3.4899496702501032E-2</v>
+        <v>-1.74532836589837E-3</v>
       </c>
       <c r="T45" s="63">
-        <v>-1.7441774902830217E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U45" s="64">
         <v>400</v>
@@ -25311,11 +25314,11 @@
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948615</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999997996</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -25369,19 +25372,19 @@
       </c>
       <c r="G48" s="97">
         <f>B20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0</v>
+        <v>5.235987755982989E-2</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -25393,28 +25396,28 @@
       </c>
       <c r="R48" s="95">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>1.7452406437283574E-2</v>
+        <v>6.4480511649567302E-17</v>
       </c>
       <c r="S48" s="96">
-        <v>5.9072923353315656E-17</v>
+        <v>5.7855054232408333E-17</v>
       </c>
       <c r="T48" s="96">
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="U48" s="89">
-        <v>339.97867732189479</v>
+        <v>340</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>339.97867732189479</v>
+        <v>340</v>
       </c>
       <c r="W48" s="90">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-2.0342611440003955</v>
+        <v>-1.5707963267948977</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-116.55457797867727</v>
+        <v>-90.000000000000057</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>76</v>
@@ -25426,11 +25429,11 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -25441,34 +25444,34 @@
         <v>0</v>
       </c>
       <c r="R49" s="95">
-        <v>-3.4894181340113732E-2</v>
+        <v>-5.4078812984775355E-2</v>
       </c>
       <c r="S49" s="96">
-        <v>-0.99939082701909576</v>
+        <v>-0.99853667032621174</v>
       </c>
       <c r="T49" s="96">
-        <v>6.0908020090874495E-4</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U49" s="89">
-        <v>8.5271228127218171E-2</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>8.5271228127218171E-2</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="W49" s="90">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.5317711635792612</v>
+        <v>-1.5166911199830724</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-87.764022852934914</v>
+        <v>-86.9</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="Z49" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
@@ -25488,28 +25491,28 @@
         <v>140</v>
       </c>
       <c r="R50" s="95">
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="S50" s="96">
-        <v>-3.4899496702501032E-2</v>
+        <v>-5.4078812984775355E-2</v>
       </c>
       <c r="T50" s="96">
-        <v>-1.7441774902830217E-2</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U50" s="89">
-        <v>397.55815151360378</v>
+        <v>400</v>
       </c>
       <c r="V50" s="18">
         <f>$V$17*R50+$V$19*S50+$V$18*T50+$V$20*U50</f>
-        <v>397.55815151360378</v>
+        <v>400</v>
       </c>
       <c r="W50" s="90">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>71</v>
@@ -25586,75 +25589,75 @@
       </c>
       <c r="C56" s="7">
         <f t="array" ref="C56:C59">V48:V51</f>
-        <v>339.97867732189479</v>
+        <v>340</v>
       </c>
       <c r="D56" s="21">
         <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-2.0342611440003955</v>
+        <v>-1.5707963267948977</v>
       </c>
       <c r="E56" s="20">
         <f>DEGREES(D56)</f>
-        <v>-116.55457797867727</v>
+        <v>-90.000000000000057</v>
       </c>
       <c r="F56" s="91">
         <f>D56+PI()</f>
-        <v>1.1073315095893976</v>
+        <v>1.5707963267948954</v>
       </c>
       <c r="G56" s="21">
         <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>1.1073315095893976</v>
+        <v>1.5707963267948954</v>
       </c>
       <c r="H56" s="20">
         <f>DEGREES(G56)</f>
-        <v>63.445422021322727</v>
+        <v>89.999999999999929</v>
       </c>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C57" s="7">
-        <v>8.5271228127218171E-2</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="D57" s="21">
-        <v>-1.5317711635792612</v>
+        <v>-1.5166911199830724</v>
       </c>
       <c r="E57" s="20">
         <f>DEGREES(D57)</f>
-        <v>-87.764022852934914</v>
+        <v>-86.9</v>
       </c>
       <c r="F57" s="91">
         <f>D57+PI()/2</f>
-        <v>3.9025163215635317E-2</v>
+        <v>5.410520681182418E-2</v>
       </c>
       <c r="G57" s="21">
         <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>3.9025163215635317E-2</v>
+        <v>5.410520681182418E-2</v>
       </c>
       <c r="H57" s="20">
         <f>DEGREES(G57)</f>
-        <v>2.2359771470650918</v>
+        <v>3.0999999999999979</v>
       </c>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C58" s="7">
-        <v>397.55815151360378</v>
+        <v>400</v>
       </c>
       <c r="D58" s="21">
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="E58" s="20">
         <f>DEGREES(D58)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
       <c r="F58" s="91">
         <f>D58</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="G58" s="21">
         <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="H58" s="20">
         <f>DEGREES(G58)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
       <c r="P58" s="90"/>
     </row>
@@ -25681,115 +25684,115 @@
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B62" s="108">
         <f>COS(D58)*COS(D57)</f>
-        <v>1.7452406437283571E-2</v>
+        <v>6.3352272028674918E-17</v>
       </c>
       <c r="C62" s="108">
         <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>0</v>
+        <v>1.2080058338996191E-16</v>
       </c>
       <c r="D62" s="108">
         <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="E62" s="93">
         <f>C56</f>
-        <v>339.97867732189479</v>
+        <v>340</v>
       </c>
       <c r="F62" s="90">
         <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>-2.0342611440003955</v>
+        <v>-1.5707963267948974</v>
       </c>
       <c r="G62" s="7">
         <f>DEGREES(F62)</f>
-        <v>-116.55457797867727</v>
+        <v>-90.000000000000057</v>
       </c>
       <c r="H62" s="91">
         <f>F62+PI()</f>
-        <v>1.1073315095893976</v>
+        <v>1.5707963267948957</v>
       </c>
       <c r="I62" s="21">
         <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>1.1073315095893976</v>
+        <v>1.5707963267948957</v>
       </c>
       <c r="J62" s="20">
         <f>DEGREES(I62)</f>
-        <v>63.445422021322727</v>
+        <v>89.999999999999943</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B63" s="108">
         <f>COS(D57)*SIN(D58)</f>
-        <v>-3.4894181340113725E-2</v>
+        <v>-5.4078812984775314E-2</v>
       </c>
       <c r="C63" s="108">
         <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-0.99939082701909565</v>
+        <v>-0.99853667032621174</v>
       </c>
       <c r="D63" s="108">
         <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>6.0908020090855164E-4</v>
+        <v>1.2404982798287571E-16</v>
       </c>
       <c r="E63" s="93">
         <f>C57</f>
-        <v>8.5271228127218171E-2</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="F63" s="90">
         <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.5317711635792612</v>
+        <v>-1.5166911199830724</v>
       </c>
       <c r="G63" s="7">
         <f>DEGREES(F63)</f>
-        <v>-87.764022852934914</v>
+        <v>-86.9</v>
       </c>
       <c r="H63" s="91">
         <f>F63+PI()/2</f>
-        <v>3.9025163215635317E-2</v>
+        <v>5.410520681182418E-2</v>
       </c>
       <c r="I63" s="21">
         <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>3.9025163215635317E-2</v>
+        <v>5.410520681182418E-2</v>
       </c>
       <c r="J63" s="20">
         <f>DEGREES(I63)</f>
-        <v>2.2359771470650918</v>
+        <v>3.0999999999999979</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B64" s="108">
         <f>-SIN(D57)</f>
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="C64" s="108">
         <f>SIN(D56)*COS(D57)</f>
-        <v>-3.4899496702501025E-2</v>
+        <v>-5.4078812984775314E-2</v>
       </c>
       <c r="D64" s="108">
         <f>COS(D56)*COS(D57)</f>
-        <v>-1.744177490283022E-2</v>
+        <v>-5.672681461151595E-17</v>
       </c>
       <c r="E64" s="93">
         <f>C58</f>
-        <v>397.55815151360378</v>
+        <v>400</v>
       </c>
       <c r="F64" s="90">
         <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="G64" s="7">
         <f>DEGREES(F64)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
       <c r="H64" s="91">
         <f>F64</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="I64" s="21">
         <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>-1.1070268535039389</v>
+        <v>-1.5707963267948954</v>
       </c>
       <c r="J64" s="20">
         <f>DEGREES(I64)</f>
-        <v>-63.427966513422973</v>
+        <v>-89.999999999999929</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -25826,16 +25829,16 @@
       </c>
       <c r="I69" s="7">
         <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="J69" s="7">
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="K69" s="7">
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="L69" s="7">
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -25843,16 +25846,16 @@
         <v>0</v>
       </c>
       <c r="I70" s="7">
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
       <c r="J70" s="7">
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
       <c r="K70" s="7">
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
       <c r="L70" s="7">
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -25951,18 +25954,18 @@
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B83" s="76">
         <f t="array" ref="B83:B86">L69:L72</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="E83" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H83" s="21">
         <f>ATAN2(B83,B84)</f>
-        <v>1.0470790900996006E-16</v>
+        <v>-7.4583395038926799E-17</v>
       </c>
       <c r="I83" s="23">
         <f>DEGREES(H83)</f>
-        <v>5.9993212679105579E-15</v>
+        <v>-4.2733137574874679E-15</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
@@ -25970,15 +25973,15 @@
         <v>30</v>
       </c>
       <c r="B84" s="60">
-        <v>2.0941581801992015E-14</v>
+        <v>-1.4916679007785359E-14</v>
       </c>
       <c r="H84" s="21">
         <f>ATAN2(-B83,-B84)</f>
-        <v>-3.1415926535897931</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="I84" s="23">
         <f>DEGREES(H84)</f>
-        <v>-180</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
@@ -25990,11 +25993,11 @@
       </c>
       <c r="G85" s="21">
         <f>IF(B87=1,H83,H84)</f>
-        <v>1.0470790900996006E-16</v>
+        <v>-7.4583395038926799E-17</v>
       </c>
       <c r="H85" s="23">
         <f>DEGREES(G85)</f>
-        <v>5.9993212679105579E-15</v>
+        <v>-4.2733137574874679E-15</v>
       </c>
       <c r="I85" s="15" t="str">
         <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26010,11 +26013,11 @@
       </c>
       <c r="G86" s="21">
         <f>IF(B87=-1,H83,H84)</f>
-        <v>-3.1415926535897931</v>
+        <v>3.1415926535897931</v>
       </c>
       <c r="H86" s="23">
         <f>DEGREES(G86)</f>
-        <v>-180</v>
+        <v>180</v>
       </c>
       <c r="I86" s="15" t="str">
         <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -26049,7 +26052,7 @@
       </c>
       <c r="L96">
         <f>E112*B87</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
@@ -26081,7 +26084,7 @@
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E112" s="4">
         <f>SQRT(B83*B83+B84*B84)</f>
-        <v>200.00000000000003</v>
+        <v>200</v>
       </c>
       <c r="I112" s="19"/>
       <c r="J112" s="19"/>
@@ -26383,25 +26386,25 @@
       <c r="I131" s="58"/>
       <c r="J131" s="59">
         <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="K131" s="59">
-        <v>-3.4899496702500969E-2</v>
+        <v>-5.4078812984775293E-2</v>
       </c>
       <c r="L131" s="59">
-        <v>-1.7441774902830158E-2</v>
+        <v>0</v>
       </c>
       <c r="M131" s="74">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="N131" s="74">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-3.4899496702500969E-2</v>
+        <v>-5.4078812984775293E-2</v>
       </c>
       <c r="O131" s="74">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>-1.7441774902830158E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
@@ -26411,40 +26414,40 @@
       <c r="H132" s="58"/>
       <c r="I132" s="58"/>
       <c r="J132" s="59">
-        <v>3.489418134011367E-2</v>
+        <v>5.4078812984775293E-2</v>
       </c>
       <c r="K132" s="59">
-        <v>0.99939082701909576</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="L132" s="59">
-        <v>-6.0908020090868261E-4</v>
+        <v>0</v>
       </c>
       <c r="M132" s="74">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>3.489418134011367E-2</v>
+        <v>5.4078812984775293E-2</v>
       </c>
       <c r="N132" s="74">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.99939082701909576</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="O132" s="74">
         <f>-SIN(C18)*SIN(C19)</f>
-        <v>-6.0908020090868261E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J133" s="59">
-        <v>1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
       <c r="K133" s="59">
-        <v>-9.3298021911154303E-21</v>
+        <v>0</v>
       </c>
       <c r="L133" s="59">
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="M133" s="74">
         <f>SIN(C19)*COS(C20)</f>
-        <v>1.7452406437283512E-2</v>
+        <v>0</v>
       </c>
       <c r="N133" s="74">
         <f>-SIN(C19)*SIN(C20)</f>
@@ -26452,7 +26455,7 @@
       </c>
       <c r="O133" s="74">
         <f>COS(C19)</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -26479,23 +26482,23 @@
       </c>
       <c r="M136" s="65">
         <f t="array" ref="M136:O138">B62:D64</f>
-        <v>1.7452406437283571E-2</v>
+        <v>6.3352272028674918E-17</v>
       </c>
       <c r="N136" s="66">
-        <v>0</v>
+        <v>1.2080058338996191E-16</v>
       </c>
       <c r="O136" s="67">
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="S136" s="99">
         <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="T136" s="100">
-        <v>-3.4899496702500962E-2</v>
+        <v>-5.4078812984775251E-2</v>
       </c>
       <c r="U136" s="101">
-        <v>-1.7441774902830158E-2</v>
+        <v>4.5306081339150385E-18</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
@@ -26518,22 +26521,22 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M137" s="68">
-        <v>-3.4894181340113725E-2</v>
+        <v>-5.4078812984775314E-2</v>
       </c>
       <c r="N137" s="69">
-        <v>-0.99939082701909565</v>
+        <v>-0.99853667032621174</v>
       </c>
       <c r="O137" s="70">
-        <v>6.0908020090855164E-4</v>
+        <v>1.2404982798287571E-16</v>
       </c>
       <c r="S137" s="102">
-        <v>3.4894181340113663E-2</v>
+        <v>5.4078812984775251E-2</v>
       </c>
       <c r="T137" s="103">
-        <v>0.99939082701909565</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="U137" s="104">
-        <v>-6.090802009084893E-4</v>
+        <v>-6.2792405237444708E-17</v>
       </c>
     </row>
     <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -26556,85 +26559,85 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M138" s="71">
-        <v>0.99923861495548261</v>
+        <v>0.99853667032621174</v>
       </c>
       <c r="N138" s="72">
-        <v>-3.4899496702501025E-2</v>
+        <v>-5.4078812984775314E-2</v>
       </c>
       <c r="O138" s="73">
-        <v>-1.744177490283022E-2</v>
+        <v>-5.672681461151595E-17</v>
       </c>
       <c r="S138" s="105">
-        <v>1.7452406437283505E-2</v>
+        <v>-1.1282396208923959E-18</v>
       </c>
       <c r="T138" s="106">
-        <v>-5.9082253155506771E-17</v>
+        <v>6.2945529157553581E-17</v>
       </c>
       <c r="U138" s="107">
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D142" s="76">
         <f>U138</f>
-        <v>0.99984769515639127</v>
+        <v>1</v>
       </c>
       <c r="E142" s="5"/>
       <c r="G142" s="80">
         <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
-        <v>1.7453292519941543E-2</v>
+        <v>0</v>
       </c>
       <c r="H142" s="81">
         <f>DEGREES(G142)</f>
-        <v>0.99999999999989964</v>
+        <v>0</v>
       </c>
       <c r="J142" s="80">
         <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>3.3853356193498677E-15</v>
+        <v>-1.5887184705171242</v>
       </c>
       <c r="K142" s="81">
         <f>DEGREES(J142)</f>
-        <v>1.9396544322405402E-13</v>
+        <v>-91.026863195110522</v>
       </c>
       <c r="N142" s="2">
         <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
-        <v>3.4906585039875523E-2</v>
+        <v>1.6428236773289482</v>
       </c>
       <c r="O142" s="81">
         <f>DEGREES(N142)</f>
-        <v>1.9999999999993658</v>
+        <v>94.126863195110516</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="G143" s="80">
         <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
-        <v>-1.7453292519941543E-2</v>
+        <v>0</v>
       </c>
       <c r="H143" s="81">
         <f>DEGREES(G143)</f>
-        <v>-0.99999999999989964</v>
+        <v>0</v>
       </c>
       <c r="J143" s="80">
         <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
-        <v>-3.1415926535897896</v>
+        <v>-1.5887184705171242</v>
       </c>
       <c r="K143" s="81">
         <f>DEGREES(J143)</f>
-        <v>-179.9999999999998</v>
+        <v>-91.026863195110522</v>
       </c>
       <c r="N143" s="2">
         <f>IF(SIN(G143)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G143),D148/SIN(G143)))</f>
-        <v>-3.1066860685499176</v>
+        <v>1.6428236773289482</v>
       </c>
       <c r="O143" s="81">
         <f>DEGREES(N143)</f>
-        <v>-178.00000000000063</v>
+        <v>94.126863195110516</v>
       </c>
     </row>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D144" s="75">
         <f>T138</f>
-        <v>-5.9082253155506771E-17</v>
+        <v>6.2945529157553581E-17</v>
       </c>
       <c r="G144" s="2"/>
       <c r="H144" s="2"/>
@@ -26660,7 +26663,7 @@
     <row r="146" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D146" s="58">
         <f>S138</f>
-        <v>1.7452406437283505E-2</v>
+        <v>-1.1282396208923959E-18</v>
       </c>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -26682,7 +26685,7 @@
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D148" s="58">
         <f>U137</f>
-        <v>-6.090802009084893E-4</v>
+        <v>-6.2792405237444708E-17</v>
       </c>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
@@ -26708,7 +26711,7 @@
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D150" s="76">
         <f>U136</f>
-        <v>-1.7441774902830158E-2</v>
+        <v>4.5306081339150385E-18</v>
       </c>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -820,6 +820,24 @@
   <si>
     <t>Nick/pitch</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
@@ -1353,7 +1371,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$B$83</c:f>
+              <c:f>Kinematik!$B$89</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1365,12 +1383,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$B$84</c:f>
+              <c:f>Kinematik!$B$90</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.4916679007785359E-14</c:v>
+                  <c:v>-1.3322676295501878E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,11 +1403,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257299968"/>
-        <c:axId val="257323008"/>
+        <c:axId val="152384256"/>
+        <c:axId val="152386176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257299968"/>
+        <c:axId val="152384256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1427,13 +1445,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257323008"/>
+        <c:crossAx val="152386176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257323008"/>
+        <c:axId val="152386176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1472,7 +1490,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257299968"/>
+        <c:crossAx val="152384256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1530,7 +1548,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$K$96:$L$96</c:f>
+              <c:f>Kinematik!$K$102:$L$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1545,7 +1563,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$K$97:$L$97</c:f>
+              <c:f>Kinematik!$K$103:$L$103</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1568,11 +1586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257467136"/>
-        <c:axId val="257468672"/>
+        <c:axId val="152410752"/>
+        <c:axId val="152703360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257467136"/>
+        <c:axId val="152410752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1584,13 +1602,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257468672"/>
+        <c:crossAx val="152703360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="257468672"/>
+        <c:axId val="152703360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1603,7 +1621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="257467136"/>
+        <c:crossAx val="152410752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1626,15 +1644,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>891600</xdr:colOff>
+      <xdr:colOff>981247</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>88100</xdr:rowOff>
+      <xdr:rowOff>79135</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>494844</xdr:colOff>
+      <xdr:colOff>584491</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>111385</xdr:rowOff>
+      <xdr:rowOff>84490</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1658,8 +1676,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6511350" y="316700"/>
-          <a:ext cx="5147690" cy="1871135"/>
+          <a:off x="7453765" y="312217"/>
+          <a:ext cx="5161361" cy="1852085"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2748,7 +2766,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="735106" cy="736292"/>
@@ -8789,7 +8807,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233083</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2259105" cy="277384"/>
@@ -9112,7 +9130,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2214283" cy="436786"/>
@@ -9497,7 +9515,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>367552</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1918447" cy="267702"/>
@@ -9764,7 +9782,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32270</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>84716</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2097743" cy="472694"/>
@@ -10159,7 +10177,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="472694"/>
@@ -10601,7 +10619,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>129989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1497106" cy="264560"/>
@@ -10864,7 +10882,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>573739</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>121023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -11161,7 +11179,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>510986</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>113404</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3514166" cy="379399"/>
@@ -11798,7 +11816,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>597944</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>130</xdr:row>
       <xdr:rowOff>136713</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12083,7 +12101,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12344,7 +12362,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595705</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>142989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12659,13 +12677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>444947</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>111</xdr:row>
       <xdr:rowOff>136782</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -12697,13 +12715,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295835</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>94130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12727,7 +12745,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>102646</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6337599" cy="637290"/>
@@ -17094,7 +17112,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -17280,7 +17298,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="323230"/>
@@ -17667,7 +17685,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -18140,7 +18158,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>34291</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1325880" cy="311752"/>
@@ -18576,7 +18594,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -18762,7 +18780,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>120833</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>145869</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -18948,7 +18966,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>433252</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -19488,7 +19506,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -20101,7 +20119,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -20287,7 +20305,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -20892,7 +20910,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -21512,7 +21530,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -21698,7 +21716,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -22315,7 +22333,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
@@ -22505,7 +22523,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>788892</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1093695" cy="270843"/>
@@ -22750,7 +22768,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -22948,7 +22966,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -23146,7 +23164,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -23344,7 +23362,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>147</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -23529,6 +23547,760 @@
                   <a:ea typeface="Cambria Math"/>
                 </a:rPr>
                 <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>644177</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>78760</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2689413" cy="736292"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Textfeld 47"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7116695" y="9760642"/>
+              <a:ext cx="2689413" cy="736292"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="left"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSubSup>
+                      <m:sSubSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>=</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>𝑇</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:sub>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                          <m:t>7</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSubSup>
+                    <m:r>
+                      <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="de-DE" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="de-DE" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:func>
+                                <m:funcPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:funcPr>
+                                <m:fName>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>c</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>os</m:t>
+                                  </m:r>
+                                </m:fName>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="Cambria Math"/>
+                                        </a:rPr>
+                                        <m:t>𝜃</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                          <a:latin typeface="Cambria Math"/>
+                                        </a:rPr>
+                                        <m:t>5</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:func>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:func>
+                                <m:funcPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:funcPr>
+                                <m:fName>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>sin</m:t>
+                                  </m:r>
+                                </m:fName>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝜃</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>5</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:func>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:func>
+                                <m:funcPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:funcPr>
+                                <m:fName>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>sin</m:t>
+                                  </m:r>
+                                </m:fName>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝜃</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>5</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:func>
+                            </m:e>
+                            <m:e>
+                              <m:func>
+                                <m:funcPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:funcPr>
+                                <m:fName>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>c</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:sty m:val="p"/>
+                                    </m:rPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="0">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>os</m:t>
+                                  </m:r>
+                                </m:fName>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝜃</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>5</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                </m:e>
+                              </m:func>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="de-DE" sz="1100" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>𝑑</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math"/>
+                                    </a:rPr>
+                                    <m:t>5</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Textfeld 47"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7116695" y="9760642"/>
+              <a:ext cx="2689413" cy="736292"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑇_𝑉 〖=𝑇〗_6^7=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>(■8(cos⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝜃_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>5 〗&amp;−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>sin⁡〖𝜃_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0&amp;0@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>sin⁡〖𝜃_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos⁡〖𝜃_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0&amp;0@0&amp;0&amp;1&amp;𝑑_5@0&amp;0&amp;0&amp;1))</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
             </a:p>
@@ -23837,6 +24609,61 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>286870</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>53787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>145223</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Grafik 8" descr="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR6dqRK5iWrtixSWfDDKDUDawqDGnRKeHokFo4AI0OcJixWjlb3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="286870" y="17803905"/>
+          <a:ext cx="7173553" cy="2456330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -24127,10 +24954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z152"/>
+  <dimension ref="A1:Z158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S67" sqref="S67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24171,44 +24998,51 @@
         <v>30</v>
       </c>
       <c r="G4" s="55">
-        <f>B83</f>
+        <f>B89</f>
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="56">
-        <f>B84</f>
-        <v>-1.4916679007785359E-14</v>
+        <f>B90</f>
+        <v>-1.3322676295501878E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="57">
-        <f>B85</f>
+        <f>B91</f>
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="110">
         <f>V48</f>
-        <v>340</v>
+        <v>339.9147157826734</v>
       </c>
       <c r="H8" s="77">
         <f>X48</f>
-        <v>-90.000000000000057</v>
+        <v>-90</v>
+      </c>
+      <c r="I8" s="77">
+        <f t="array" ref="I8:I10">X53:X55</f>
+        <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="111">
         <f>V49</f>
-        <v>2.45029690981724E-15</v>
+        <v>4.8859295383501378</v>
       </c>
       <c r="H9" s="78">
         <f>X49</f>
-        <v>-86.9</v>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="I9" s="77">
+        <v>5.3390701230985497E-19</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -24218,7 +25052,10 @@
       </c>
       <c r="H10" s="79">
         <f>X50</f>
-        <v>-89.999999999999929</v>
+        <v>-88</v>
+      </c>
+      <c r="I10" s="77">
+        <v>2.0000000000000036</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -24255,11 +25092,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="20">
-        <f>H85</f>
-        <v>-4.2733137574874679E-15</v>
+        <f>H91</f>
+        <v>-3.8166656177562198E-15</v>
       </c>
       <c r="I15" s="20">
-        <f>H86</f>
+        <f>H92</f>
         <v>180</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -24273,24 +25110,24 @@
       <c r="B16" s="30">
         <v>0</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="21">
         <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="116">
-        <f>N120</f>
+        <f>N126</f>
         <v>0</v>
       </c>
       <c r="E16" s="116">
-        <f>N126</f>
+        <f>N132</f>
         <v>67.380135051959556</v>
       </c>
       <c r="H16" s="116">
-        <f>R120</f>
+        <f>R126</f>
         <v>-67.380135051959556</v>
       </c>
       <c r="I16" s="116">
-        <f>R126</f>
+        <f>R132</f>
         <v>0</v>
       </c>
       <c r="V16" t="s">
@@ -24304,24 +25141,24 @@
       <c r="B17" s="30">
         <v>0</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="117">
-        <f>N121</f>
+        <f>N127</f>
         <v>0</v>
       </c>
       <c r="E17" s="117">
-        <f>N127</f>
+        <f>N133</f>
         <v>-180</v>
       </c>
       <c r="H17" s="117">
-        <f>R121</f>
+        <f>R127</f>
         <v>0</v>
       </c>
       <c r="I17" s="117">
-        <f>R127</f>
+        <f>R133</f>
         <v>-180</v>
       </c>
       <c r="V17">
@@ -24333,19 +25170,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="30">
-        <v>0.1</v>
+        <v>90</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>1.7453292519943296E-3</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="F18" s="118">
-        <f>O142</f>
-        <v>94.126863195110516</v>
+        <f>O148</f>
+        <v>90.000000000000185</v>
       </c>
       <c r="G18" s="119">
-        <f>O143</f>
-        <v>94.126863195110516</v>
+        <f>O149</f>
+        <v>-89.999999999999815</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -24357,19 +25194,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4906585039886591E-2</v>
       </c>
       <c r="F19" s="120">
-        <f>H142</f>
-        <v>0</v>
+        <f>H148</f>
+        <v>1.9999999999999392</v>
       </c>
       <c r="G19" s="121">
-        <f>H143</f>
-        <v>0</v>
+        <f>H149</f>
+        <v>-1.9999999999999392</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -24387,12 +25224,12 @@
         <v>5.235987755982989E-2</v>
       </c>
       <c r="F20" s="122">
-        <f>K142</f>
-        <v>-91.026863195110522</v>
+        <f>K148</f>
+        <v>2.9999999999998006</v>
       </c>
       <c r="G20" s="123">
-        <f>K143</f>
-        <v>-91.026863195110522</v>
+        <f>K149</f>
+        <v>-177.0000000000002</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -25008,23 +25845,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>0.1</v>
+        <v>90</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>1.7453292519943296E-3</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>0.99999847691328769</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-1.0691431753942499E-19</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>1.7453283658983088E-3</v>
+        <v>1</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -25032,13 +25869,13 @@
       </c>
       <c r="R38" s="62">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>6.1364243762603816E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="S38" s="63">
         <v>1</v>
       </c>
       <c r="T38" s="63">
-        <v>1.0700761790603487E-19</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="U38" s="64">
         <v>200.00000000000003</v>
@@ -25049,38 +25886,38 @@
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-3.5159193113431387E-14</v>
+        <v>-1.22514845490862E-16</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>-2.0144733764850472E-12</v>
+        <v>-7.0195835743237771E-15</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>1.7453283658983088E-3</v>
+        <v>1</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>6.1257329445064391E-17</v>
+        <v>3.7524718414124473E-33</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-0.99999847691328769</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="62">
-        <v>-1.74532836589837E-3</v>
+        <v>-1</v>
       </c>
       <c r="S39" s="63">
-        <v>9.3300366609759119E-23</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="T39" s="63">
-        <v>0.99999847691328769</v>
+        <v>3.7524718414124473E-33</v>
       </c>
       <c r="U39" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -25091,11 +25928,11 @@
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>-1.5690509975429023</v>
+        <v>0</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>-89.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25115,13 +25952,13 @@
         <v>200</v>
       </c>
       <c r="R40" s="62">
-        <v>0.99999847691328769</v>
+        <v>0</v>
       </c>
       <c r="S40" s="63">
-        <v>-6.1364337062970426E-17</v>
+        <v>-1.22514845490862E-16</v>
       </c>
       <c r="T40" s="63">
-        <v>1.74532836589837E-3</v>
+        <v>1</v>
       </c>
       <c r="U40" s="64">
         <v>400</v>
@@ -25132,11 +25969,11 @@
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-1.5707963267948615</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>-89.999999999997996</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -25190,23 +26027,23 @@
       </c>
       <c r="G43" s="98">
         <f>B19</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>0</v>
+        <v>3.4906585039886591E-2</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>0</v>
+        <v>-2.1378532231078771E-18</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>0</v>
+        <v>-3.4899496702500969E-2</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -25214,13 +26051,13 @@
       </c>
       <c r="R43" s="62">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>6.1364243762603816E-17</v>
+        <v>3.4899496702501032E-2</v>
       </c>
       <c r="S43" s="63">
-        <v>6.1150415127524966E-17</v>
+        <v>-6.1294739112247347E-17</v>
       </c>
       <c r="T43" s="63">
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="U43" s="64">
         <v>200.00000000000003</v>
@@ -25231,38 +26068,38 @@
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-1.5707963267949316</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-90.000000000002004</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>0</v>
+        <v>3.4899496702500969E-2</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1220106378614654E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="62">
-        <v>-1.74532836589837E-3</v>
+        <v>-0.99939082701909576</v>
       </c>
       <c r="S44" s="63">
-        <v>-0.99999847691328769</v>
+        <v>2.1378532231078771E-18</v>
       </c>
       <c r="T44" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>3.4899496702501032E-2</v>
       </c>
       <c r="U44" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -25273,11 +26110,11 @@
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.5690509975429023</v>
+        <v>4.2757064462157541E-18</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-89.9</v>
+        <v>2.4497993380504262E-16</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -25297,13 +26134,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="62">
-        <v>0.99999847691328769</v>
+        <v>-4.2757064462157541E-18</v>
       </c>
       <c r="S45" s="63">
-        <v>-1.74532836589837E-3</v>
+        <v>-1</v>
       </c>
       <c r="T45" s="63">
-        <v>-6.1257422745431001E-17</v>
+        <v>-6.1182790011798308E-17</v>
       </c>
       <c r="U45" s="64">
         <v>400</v>
@@ -25314,11 +26151,11 @@
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-1.5707963267948615</v>
+        <v>-1.5358897417550099</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>-89.999999999997996</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -25396,28 +26233,28 @@
       </c>
       <c r="R48" s="95">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>6.4480511649567302E-17</v>
+        <v>3.4851668155187386E-2</v>
       </c>
       <c r="S48" s="96">
-        <v>5.7855054232408333E-17</v>
+        <v>-1.8264985323229177E-3</v>
       </c>
       <c r="T48" s="96">
-        <v>1</v>
+        <v>0.99939082701909576</v>
       </c>
       <c r="U48" s="89">
-        <v>340</v>
+        <v>339.9147157826734</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>340</v>
+        <v>339.9147157826734</v>
       </c>
       <c r="W48" s="90">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-1.5707963267948977</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-90.000000000000057</v>
+        <v>-90</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>76</v>
@@ -25444,28 +26281,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="95">
-        <v>-5.4078812984775355E-2</v>
+        <v>-0.99802119662406841</v>
       </c>
       <c r="S49" s="96">
-        <v>-0.99853667032621174</v>
+        <v>5.2304074592470849E-2</v>
       </c>
       <c r="T49" s="96">
-        <v>6.1257422745431001E-17</v>
+        <v>3.4899496702501032E-2</v>
       </c>
       <c r="U49" s="89">
-        <v>2.45029690981724E-15</v>
+        <v>4.8859295383501378</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>2.45029690981724E-15</v>
+        <v>4.8859295383501378</v>
       </c>
       <c r="W49" s="90">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.5166911199830724</v>
+        <v>5.2359877559829897E-2</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-86.9</v>
+        <v>3.0000000000000004</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -25491,13 +26328,13 @@
         <v>140</v>
       </c>
       <c r="R50" s="95">
-        <v>0.99853667032621174</v>
+        <v>-5.2335956242943842E-2</v>
       </c>
       <c r="S50" s="96">
-        <v>-5.4078812984775355E-2</v>
+        <v>-0.99862953475457383</v>
       </c>
       <c r="T50" s="96">
-        <v>-6.1257422745431001E-17</v>
+        <v>-6.1182790011798308E-17</v>
       </c>
       <c r="U50" s="89">
         <v>400</v>
@@ -25508,11 +26345,11 @@
       </c>
       <c r="W50" s="90">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-1.5707963267948954</v>
+        <v>-1.5358897417550099</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-89.999999999999929</v>
+        <v>-88</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>71</v>
@@ -25553,6 +26390,24 @@
       <c r="W51" s="8"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s">
+        <v>81</v>
+      </c>
       <c r="N52" s="12"/>
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
@@ -25565,719 +26420,838 @@
       <c r="W52" s="8"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>26</v>
+      <c r="C53">
+        <v>-90</v>
+      </c>
+      <c r="D53" s="3">
+        <f>RADIANS(C53)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E53">
+        <v>-90</v>
+      </c>
+      <c r="F53" s="6">
+        <f>RADIANS(E53)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="G53">
+        <v>-90</v>
+      </c>
+      <c r="H53" s="6">
+        <f>RADIANS(G53)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="N53" s="11">
+        <f>COS(H53)*COS(F53)</f>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="O53" s="12">
+        <f>-SIN(H53)*COS(D53)+COS(H53)*SIN(F53)*SIN(D53)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="P53" s="12">
+        <f>SIN(H53)*SIN(D53)+COS(H53)*SIN(F53)*COS(D53)</f>
+        <v>1</v>
+      </c>
+      <c r="Q53" s="13">
+        <v>0</v>
+      </c>
+      <c r="R53" s="95">
+        <f t="array" ref="R53:U56">MMULT(R48:U51,N53:Q56)</f>
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="S53" s="96">
+        <v>1.8264985323228609E-3</v>
+      </c>
+      <c r="T53" s="96">
+        <v>3.4851668155187386E-2</v>
+      </c>
+      <c r="U53" s="89">
+        <v>0</v>
+      </c>
+      <c r="V53" s="18">
+        <f>$V$17*R53+$V$18*S53+$V$19*T53+$V$20*U53</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="90">
+        <f>IF(W54=PI()/2,ATAN2(S54,S53),IF(-W54=PI()/2,-ATAN2(S54,S53),ATAN2(T55,S55)))</f>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="X53" s="20">
+        <f>DEGREES(W53)</f>
+        <v>93</v>
+      </c>
+      <c r="Y53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
+      <c r="N54" s="11">
+        <f>SIN(H53)*COS(F53)</f>
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="O54" s="12">
+        <f>COS(H53)*COS(D53)+SIN(H53)*SIN(F53)*SIN(D53)</f>
+        <v>-1</v>
+      </c>
+      <c r="P54" s="12">
+        <f>-COS(H53)*SIN(D53)+SIN(H53)*SIN(F53)*COS(D53)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="Q54" s="13">
+        <v>0</v>
+      </c>
+      <c r="R54" s="95">
+        <v>3.4899496702501032E-2</v>
+      </c>
+      <c r="S54" s="96">
+        <v>-5.2304074592470974E-2</v>
+      </c>
+      <c r="T54" s="96">
+        <v>-0.99802119662406841</v>
+      </c>
+      <c r="U54" s="89">
+        <v>0</v>
+      </c>
+      <c r="V54" s="18">
+        <f>$V$17*R54+$V$19*S54+$V$18*T54+$V$20*U54</f>
+        <v>0</v>
+      </c>
+      <c r="W54" s="90">
+        <f>ATAN2(SQRT(R53^2+R54^2),-R55)</f>
+        <v>9.3184352642928652E-21</v>
+      </c>
+      <c r="X54" s="20">
+        <f>DEGREES(W54)</f>
+        <v>5.3390701230985497E-19</v>
+      </c>
+      <c r="Y54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" t="s">
-        <v>62</v>
+      <c r="N55" s="11">
+        <f>-SIN(F53)</f>
+        <v>1</v>
+      </c>
+      <c r="O55" s="12">
+        <f>SIN(D53)*COS(F53)</f>
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="P55" s="12">
+        <f>COS(D53)*COS(F53)</f>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="Q55" s="13">
+        <v>0</v>
+      </c>
+      <c r="R55" s="95">
+        <v>-9.3184352642928652E-21</v>
+      </c>
+      <c r="S55" s="96">
+        <v>0.99862953475457383</v>
+      </c>
+      <c r="T55" s="96">
+        <v>-5.2335956242943966E-2</v>
+      </c>
+      <c r="U55" s="89">
+        <v>0</v>
+      </c>
+      <c r="V55" s="18">
+        <f>$V$17*R55+$V$19*S55+$V$18*T55+$V$20*U55</f>
+        <v>0</v>
+      </c>
+      <c r="W55" s="90">
+        <f>IF(ABS(W54)=PI()/2,0,ATAN2(R53,R54))</f>
+        <v>3.4906585039886653E-2</v>
+      </c>
+      <c r="X55" s="20">
+        <f>DEGREES(W55)</f>
+        <v>2.0000000000000036</v>
+      </c>
+      <c r="Y55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56" s="7">
-        <f t="array" ref="C56:C59">V48:V51</f>
-        <v>340</v>
-      </c>
-      <c r="D56" s="21">
-        <f t="array" ref="D56:D58">W48:W50</f>
-        <v>-1.5707963267948977</v>
-      </c>
-      <c r="E56" s="20">
-        <f>DEGREES(D56)</f>
-        <v>-90.000000000000057</v>
-      </c>
-      <c r="F56" s="91">
-        <f>D56+PI()</f>
-        <v>1.5707963267948954</v>
-      </c>
-      <c r="G56" s="21">
-        <f>IF(F56&gt;PI(),F56-2*PI(),F56)</f>
-        <v>1.5707963267948954</v>
-      </c>
-      <c r="H56" s="20">
-        <f>DEGREES(G56)</f>
-        <v>89.999999999999929</v>
-      </c>
+      <c r="N56" s="11">
+        <v>0</v>
+      </c>
+      <c r="O56" s="12">
+        <v>0</v>
+      </c>
+      <c r="P56" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="13">
+        <v>0</v>
+      </c>
+      <c r="R56" s="95">
+        <v>0</v>
+      </c>
+      <c r="S56" s="96">
+        <v>0</v>
+      </c>
+      <c r="T56" s="96">
+        <v>0</v>
+      </c>
+      <c r="U56" s="89">
+        <v>0</v>
+      </c>
+      <c r="V56" s="18">
+        <f>$V$17*R56+$V$18*S56+$V$19*T56+$V$20*U56</f>
+        <v>0</v>
+      </c>
+      <c r="W56" s="8"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C57" s="7">
-        <v>2.45029690981724E-15</v>
-      </c>
-      <c r="D57" s="21">
-        <v>-1.5166911199830724</v>
-      </c>
-      <c r="E57" s="20">
-        <f>DEGREES(D57)</f>
-        <v>-86.9</v>
-      </c>
-      <c r="F57" s="91">
-        <f>D57+PI()/2</f>
-        <v>5.410520681182418E-2</v>
-      </c>
-      <c r="G57" s="21">
-        <f>IF(F57&gt;PI(),F57-2*PI(),F57)</f>
-        <v>5.410520681182418E-2</v>
-      </c>
-      <c r="H57" s="20">
-        <f>DEGREES(G57)</f>
-        <v>3.0999999999999979</v>
-      </c>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="88"/>
+      <c r="S57" s="88"/>
+      <c r="T57" s="88"/>
+      <c r="U57" s="88"/>
+      <c r="V57" s="18"/>
+      <c r="W57" s="8"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C58" s="7">
-        <v>400</v>
-      </c>
-      <c r="D58" s="21">
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="E58" s="20">
-        <f>DEGREES(D58)</f>
-        <v>-89.999999999999929</v>
-      </c>
-      <c r="F58" s="91">
-        <f>D58</f>
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="G58" s="21">
-        <f>IF(F58&gt;PI(),F58-2*PI(),F58)</f>
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="H58" s="20">
-        <f>DEGREES(G58)</f>
-        <v>-89.999999999999929</v>
-      </c>
-      <c r="P58" s="90"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="88"/>
+      <c r="S58" s="88"/>
+      <c r="T58" s="88"/>
+      <c r="U58" s="88"/>
+      <c r="V58" s="18"/>
+      <c r="W58" s="8"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C59" s="7">
-        <v>1</v>
+      <c r="A59" s="15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="A60" s="15"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" t="s">
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
         <v>64</v>
       </c>
-      <c r="I61" t="s">
+      <c r="G61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B62" s="108">
-        <f>COS(D58)*COS(D57)</f>
-        <v>6.3352272028674918E-17</v>
-      </c>
-      <c r="C62" s="108">
-        <f>SIN(D56)*SIN(D57)*COS(D58)-COS(D56)*SIN(D58)</f>
-        <v>1.2080058338996191E-16</v>
-      </c>
-      <c r="D62" s="108">
-        <f>COS(D56)*SIN(D57)*COS(D58)+SIN(D56)*SIN(D58)</f>
-        <v>1</v>
-      </c>
-      <c r="E62" s="93">
-        <f>C56</f>
-        <v>340</v>
-      </c>
-      <c r="F62" s="90">
-        <f>IF(F63=PI()/2,ATAN2(C63,C62),IF(-F63=PI()/2,-ATAN2(C63,C62),ATAN2(D64,C64)))</f>
-        <v>-1.5707963267948974</v>
-      </c>
-      <c r="G62" s="7">
-        <f>DEGREES(F62)</f>
-        <v>-90.000000000000057</v>
-      </c>
-      <c r="H62" s="91">
-        <f>F62+PI()</f>
-        <v>1.5707963267948957</v>
-      </c>
-      <c r="I62" s="21">
-        <f>IF(H62&gt;PI(),H62-2*PI(),H62)</f>
-        <v>1.5707963267948957</v>
-      </c>
-      <c r="J62" s="20">
-        <f>DEGREES(I62)</f>
-        <v>89.999999999999943</v>
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="7">
+        <f t="array" ref="C62:C65">V48:V51</f>
+        <v>339.9147157826734</v>
+      </c>
+      <c r="D62" s="21">
+        <f t="array" ref="D62:D64">W48:W50</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E62" s="20">
+        <f>DEGREES(D62)</f>
+        <v>-90</v>
+      </c>
+      <c r="F62" s="91">
+        <f>D62+PI()</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="G62" s="21">
+        <f>IF(F62&gt;PI(),F62-2*PI(),F62)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="H62" s="20">
+        <f>DEGREES(G62)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B63" s="108">
-        <f>COS(D57)*SIN(D58)</f>
-        <v>-5.4078812984775314E-2</v>
-      </c>
-      <c r="C63" s="108">
-        <f>SIN(D56)*SIN(D57)*SIN(D58)+COS(D56)*COS(D58)</f>
-        <v>-0.99853667032621174</v>
-      </c>
-      <c r="D63" s="108">
-        <f>COS(D56)*SIN(D57)*SIN(D58)-SIN(D56)*COS(D58)</f>
-        <v>1.2404982798287571E-16</v>
-      </c>
-      <c r="E63" s="93">
-        <f>C57</f>
-        <v>2.45029690981724E-15</v>
-      </c>
-      <c r="F63" s="90">
-        <f>ATAN2(SQRT(B62^2+B63^2),-B64)</f>
-        <v>-1.5166911199830724</v>
-      </c>
-      <c r="G63" s="7">
-        <f>DEGREES(F63)</f>
-        <v>-86.9</v>
-      </c>
-      <c r="H63" s="91">
-        <f>F63+PI()/2</f>
-        <v>5.410520681182418E-2</v>
-      </c>
-      <c r="I63" s="21">
-        <f>IF(H63&gt;PI(),H63-2*PI(),H63)</f>
-        <v>5.410520681182418E-2</v>
-      </c>
-      <c r="J63" s="20">
-        <f>DEGREES(I63)</f>
-        <v>3.0999999999999979</v>
+      <c r="C63" s="7">
+        <v>4.8859295383501378</v>
+      </c>
+      <c r="D63" s="21">
+        <v>5.2359877559829897E-2</v>
+      </c>
+      <c r="E63" s="20">
+        <f>DEGREES(D63)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="F63" s="91">
+        <f>D63+PI()/2</f>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="G63" s="21">
+        <f>IF(F63&gt;PI(),F63-2*PI(),F63)</f>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="H63" s="20">
+        <f>DEGREES(G63)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B64" s="108">
-        <f>-SIN(D57)</f>
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="C64" s="108">
-        <f>SIN(D56)*COS(D57)</f>
-        <v>-5.4078812984775314E-2</v>
-      </c>
-      <c r="D64" s="108">
-        <f>COS(D56)*COS(D57)</f>
-        <v>-5.672681461151595E-17</v>
-      </c>
-      <c r="E64" s="93">
-        <f>C58</f>
+      <c r="C64" s="7">
         <v>400</v>
       </c>
-      <c r="F64" s="90">
-        <f>IF(ABS(F63)=PI()/2,0,ATAN2(B62,B63))</f>
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="G64" s="7">
-        <f>DEGREES(F64)</f>
-        <v>-89.999999999999929</v>
-      </c>
-      <c r="H64" s="91">
-        <f>F64</f>
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="I64" s="21">
-        <f>IF(H64&gt;PI(),H64-2*PI(),H64)</f>
-        <v>-1.5707963267948954</v>
-      </c>
-      <c r="J64" s="20">
-        <f>DEGREES(I64)</f>
-        <v>-89.999999999999929</v>
-      </c>
+      <c r="D64" s="21">
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="E64" s="20">
+        <f>DEGREES(D64)</f>
+        <v>-88</v>
+      </c>
+      <c r="F64" s="91">
+        <f>D64</f>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="G64" s="21">
+        <f>IF(F64&gt;PI(),F64-2*PI(),F64)</f>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="H64" s="20">
+        <f>DEGREES(G64)</f>
+        <v>-88</v>
+      </c>
+      <c r="P64" s="90"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="93">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C65" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="F67" t="s">
+        <v>64</v>
+      </c>
+      <c r="I67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B68" s="108">
+        <f>COS(D64)*COS(D63)</f>
+        <v>3.4851668155187435E-2</v>
+      </c>
+      <c r="C68" s="108">
+        <f>SIN(D62)*SIN(D63)*COS(D64)-COS(D62)*SIN(D64)</f>
+        <v>-1.8264985323227982E-3</v>
+      </c>
+      <c r="D68" s="108">
+        <f>COS(D62)*SIN(D63)*COS(D64)+SIN(D62)*SIN(D64)</f>
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="E68" s="93">
+        <f>C62</f>
+        <v>339.9147157826734</v>
+      </c>
+      <c r="F68" s="90">
+        <f>IF(F69=PI()/2,ATAN2(C69,C68),IF(-F69=PI()/2,-ATAN2(C69,C68),ATAN2(D70,C70)))</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="G68" s="7">
+        <f>DEGREES(F68)</f>
+        <v>-90</v>
+      </c>
+      <c r="H68" s="91">
+        <f>F68+PI()</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="I68" s="21">
+        <f>IF(H68&gt;PI(),H68-2*PI(),H68)</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="J68" s="20">
+        <f>DEGREES(I68)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B69" s="108">
+        <f>COS(D63)*SIN(D64)</f>
+        <v>-0.99802119662406841</v>
+      </c>
+      <c r="C69" s="108">
+        <f>SIN(D62)*SIN(D63)*SIN(D64)+COS(D62)*COS(D64)</f>
+        <v>5.2304074592470856E-2</v>
+      </c>
+      <c r="D69" s="108">
+        <f>COS(D62)*SIN(D63)*SIN(D64)-SIN(D62)*COS(D64)</f>
+        <v>3.489949670250108E-2</v>
+      </c>
+      <c r="E69" s="93">
+        <f>C63</f>
+        <v>4.8859295383501378</v>
+      </c>
+      <c r="F69" s="90">
+        <f>ATAN2(SQRT(B68^2+B69^2),-B70)</f>
+        <v>5.2359877559829897E-2</v>
+      </c>
+      <c r="G69" s="7">
+        <f>DEGREES(F69)</f>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="H69" s="91">
+        <f>F69+PI()/2</f>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="I69" s="21">
+        <f>IF(H69&gt;PI(),H69-2*PI(),H69)</f>
+        <v>1.6231562043547265</v>
+      </c>
+      <c r="J69" s="20">
+        <f>DEGREES(I69)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B70" s="108">
+        <f>-SIN(D63)</f>
+        <v>-5.2335956242943842E-2</v>
+      </c>
+      <c r="C70" s="108">
+        <f>SIN(D62)*COS(D63)</f>
+        <v>-0.99862953475457383</v>
+      </c>
+      <c r="D70" s="108">
+        <f>COS(D62)*COS(D63)</f>
+        <v>6.1173471576534015E-17</v>
+      </c>
+      <c r="E70" s="93">
+        <f>C64</f>
+        <v>400</v>
+      </c>
+      <c r="F70" s="90">
+        <f>IF(ABS(F69)=PI()/2,0,ATAN2(B68,B69))</f>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="G70" s="7">
+        <f>DEGREES(F70)</f>
+        <v>-88</v>
+      </c>
+      <c r="H70" s="91">
+        <f>F70</f>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="I70" s="21">
+        <f>IF(H70&gt;PI(),H70-2*PI(),H70)</f>
+        <v>-1.5358897417550099</v>
+      </c>
+      <c r="J70" s="20">
+        <f>DEGREES(I70)</f>
+        <v>-88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B71" s="93">
         <v>0</v>
       </c>
-      <c r="C65" s="93">
+      <c r="C71" s="93">
         <v>0</v>
       </c>
-      <c r="D65" s="93">
+      <c r="D71" s="93">
         <v>0</v>
       </c>
-      <c r="E65" s="93">
+      <c r="E71" s="93">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>32</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="F69">
+      <c r="B75" s="16"/>
+      <c r="F75">
         <v>0</v>
       </c>
-      <c r="I69" s="7">
-        <f t="array" ref="I69:L72">MMULT(B62:E65,F69:F72)</f>
+      <c r="I75" s="7">
+        <f t="array" ref="I75:L78">MMULT(B68:E71,F75:F78)</f>
         <v>200</v>
       </c>
-      <c r="J69" s="7">
+      <c r="J75" s="7">
         <v>200</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K75" s="7">
         <v>200</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L75" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F70">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F76">
         <v>0</v>
       </c>
-      <c r="I70" s="7">
-        <v>-1.4916679007785359E-14</v>
-      </c>
-      <c r="J70" s="7">
-        <v>-1.4916679007785359E-14</v>
-      </c>
-      <c r="K70" s="7">
-        <v>-1.4916679007785359E-14</v>
-      </c>
-      <c r="L70" s="7">
-        <v>-1.4916679007785359E-14</v>
+      <c r="I76" s="7">
+        <v>-1.3322676295501878E-14</v>
+      </c>
+      <c r="J76" s="7">
+        <v>-1.3322676295501878E-14</v>
+      </c>
+      <c r="K76" s="7">
+        <v>-1.3322676295501878E-14</v>
+      </c>
+      <c r="L76" s="7">
+        <v>-1.3322676295501878E-14</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F71">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F77">
         <f>-F48</f>
         <v>-140</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I77" s="7">
         <v>400</v>
       </c>
-      <c r="J71" s="7">
+      <c r="J77" s="7">
         <v>400</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K77" s="7">
         <v>400</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L77" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="F72">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F78">
         <v>1</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I78" s="7">
         <v>1</v>
       </c>
-      <c r="J72" s="7">
+      <c r="J78" s="7">
         <v>1</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K78" s="7">
         <v>1</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L78" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>33</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B80" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="5"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="5"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
-    <row r="80" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" s="15" t="s">
+    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A86" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A81" s="9" t="s">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="9"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="9"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B83" s="76">
-        <f t="array" ref="B83:B86">L69:L72</f>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B89" s="76">
+        <f t="array" ref="B89:B92">L75:L78</f>
         <v>200</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E89" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H83" s="21">
-        <f>ATAN2(B83,B84)</f>
-        <v>-7.4583395038926799E-17</v>
-      </c>
-      <c r="I83" s="23">
-        <f>DEGREES(H83)</f>
-        <v>-4.2733137574874679E-15</v>
+      <c r="H89" s="21">
+        <f>ATAN2(B89,B90)</f>
+        <v>-6.661338147750939E-17</v>
+      </c>
+      <c r="I89" s="23">
+        <f>DEGREES(H89)</f>
+        <v>-3.8166656177562198E-15</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>30</v>
       </c>
-      <c r="B84" s="60">
-        <v>-1.4916679007785359E-14</v>
-      </c>
-      <c r="H84" s="21">
-        <f>ATAN2(-B83,-B84)</f>
+      <c r="B90" s="60">
+        <v>-1.3322676295501878E-14</v>
+      </c>
+      <c r="H90" s="21">
+        <f>ATAN2(-B89,-B90)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="I84" s="23">
-        <f>DEGREES(H84)</f>
+      <c r="I90" s="23">
+        <f>DEGREES(H90)</f>
         <v>180</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B85" s="60">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B91" s="60">
         <v>400</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E91" t="s">
         <v>40</v>
       </c>
-      <c r="G85" s="21">
-        <f>IF(B87=1,H83,H84)</f>
-        <v>-7.4583395038926799E-17</v>
-      </c>
-      <c r="H85" s="23">
-        <f>DEGREES(G85)</f>
-        <v>-4.2733137574874679E-15</v>
-      </c>
-      <c r="I85" s="15" t="str">
-        <f>IF(ABS(H85-B15)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="G91" s="21">
+        <f>IF(B93=1,H89,H90)</f>
+        <v>-6.661338147750939E-17</v>
+      </c>
+      <c r="H91" s="23">
+        <f>DEGREES(G91)</f>
+        <v>-3.8166656177562198E-15</v>
+      </c>
+      <c r="I91" s="15" t="str">
+        <f>IF(ABS(H91-B15)&lt; 0.001,"OK","NOT OK!")</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B86">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B92">
         <v>1</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E92" t="s">
         <v>41</v>
       </c>
-      <c r="G86" s="21">
-        <f>IF(B87=-1,H83,H84)</f>
+      <c r="G92" s="21">
+        <f>IF(B93=-1,H89,H90)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="H86" s="23">
-        <f>DEGREES(G86)</f>
+      <c r="H92" s="23">
+        <f>DEGREES(G92)</f>
         <v>180</v>
       </c>
-      <c r="I86" s="15" t="str">
-        <f>IF(ABS(H86-B15)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="I92" s="15" t="str">
+        <f>IF(ABS(H92-B15)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>43</v>
       </c>
-      <c r="B87">
-        <f>SIGN(B83)</f>
+      <c r="B93">
+        <f>SIGN(B89)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A89" s="15" t="s">
+    <row r="95" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A91" s="9" t="s">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J96" t="s">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J102" t="s">
         <v>45</v>
       </c>
-      <c r="K96">
+      <c r="K102">
         <v>0</v>
       </c>
-      <c r="L96">
-        <f>E112*B87</f>
+      <c r="L102">
+        <f>E118*B93</f>
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="K97">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K103">
         <v>0</v>
       </c>
-      <c r="L97" s="4">
-        <f>E110</f>
+      <c r="L103" s="4">
+        <f>E116</f>
         <v>300</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="15"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E110" s="19">
-        <f>B85-F23</f>
-        <v>300</v>
-      </c>
-      <c r="M110" s="90">
-        <f>ACOS((E117*E117-E116*E116-E115*E115)/(-2*E116*E115))</f>
-        <v>0.58800260354756739</v>
-      </c>
-      <c r="N110" s="20">
-        <f>DEGREES(M110)</f>
-        <v>33.690067525979778</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E112" s="4">
-        <f>SQRT(B83*B83+B84*B84)</f>
-        <v>200</v>
-      </c>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="M112" s="109">
-        <f>ACOS((E115*E115-E116*E116-E117*E117)/(-2*E116*E117))</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="N112" s="22">
-        <f>DEGREES(M112)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E113" s="4"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="19"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="22"/>
-    </row>
-    <row r="114" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M114" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q114" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B115" t="s">
-        <v>56</v>
-      </c>
-      <c r="E115" s="7">
-        <f>SQRT(E112*E112+E110*E110)</f>
-        <v>360.55512754639892</v>
-      </c>
-      <c r="L115" t="s">
-        <v>68</v>
-      </c>
-      <c r="M115" s="34">
-        <f>IF(B87=1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="N115" s="35"/>
-      <c r="O115" s="35"/>
-      <c r="P115" s="35"/>
-      <c r="Q115" s="35">
-        <f>IF(B87=1,-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="R115" s="35"/>
-      <c r="S115" s="36"/>
+      <c r="A115" s="15"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B116" t="s">
+      <c r="E116" s="19">
+        <f>B91-F23</f>
+        <v>300</v>
+      </c>
+      <c r="M116" s="90">
+        <f>ACOS((E123*E123-E122*E122-E121*E121)/(-2*E122*E121))</f>
+        <v>0.58800260354756739</v>
+      </c>
+      <c r="N116" s="20">
+        <f>DEGREES(M116)</f>
+        <v>33.690067525979778</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E118" s="4">
+        <f>SQRT(B89*B89+B90*B90)</f>
+        <v>200</v>
+      </c>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="M118" s="109">
+        <f>ACOS((E121*E121-E122*E122-E123*E123)/(-2*E122*E123))</f>
+        <v>1.5707963267948966</v>
+      </c>
+      <c r="N118" s="22">
+        <f>DEGREES(M118)</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E119" s="4"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="22"/>
+    </row>
+    <row r="120" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M120" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q120" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>56</v>
+      </c>
+      <c r="E121" s="7">
+        <f>SQRT(E118*E118+E116*E116)</f>
+        <v>360.55512754639892</v>
+      </c>
+      <c r="L121" t="s">
+        <v>68</v>
+      </c>
+      <c r="M121" s="34">
+        <f>IF(B93=1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N121" s="35"/>
+      <c r="O121" s="35"/>
+      <c r="P121" s="35"/>
+      <c r="Q121" s="35">
+        <f>IF(B93=1,-1,1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R121" s="35"/>
+      <c r="S121" s="36"/>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B122" t="s">
         <v>54</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E122" s="7">
         <f>E28</f>
         <v>300</v>
       </c>
-      <c r="F116" s="5"/>
-      <c r="L116" s="9" t="s">
+      <c r="F122" s="5"/>
+      <c r="L122" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M116" s="113">
-        <f>ATAN2(M115*E112,E110)</f>
+      <c r="M122" s="113">
+        <f>ATAN2(M121*E118,E116)</f>
         <v>0.98279372324732905</v>
       </c>
-      <c r="N116" s="37">
-        <f>DEGREES(M116)</f>
+      <c r="N122" s="37">
+        <f>DEGREES(M122)</f>
         <v>56.309932474020215</v>
       </c>
-      <c r="O116" s="38"/>
-      <c r="P116" s="38"/>
-      <c r="Q116" s="39">
-        <f>ATAN2(Q115*E112,E110)</f>
-        <v>2.158798930342464</v>
-      </c>
-      <c r="R116" s="37">
-        <f>DEGREES(Q116)</f>
-        <v>123.69006752597979</v>
-      </c>
-      <c r="S116" s="40"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B117" t="s">
-        <v>55</v>
-      </c>
-      <c r="E117" s="7">
-        <f>F38</f>
-        <v>200</v>
-      </c>
-      <c r="M117" s="41"/>
-      <c r="N117" s="38"/>
-      <c r="O117" s="38"/>
-      <c r="P117" s="38"/>
-      <c r="Q117" s="38"/>
-      <c r="R117" s="38"/>
-      <c r="S117" s="40"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G118" s="1"/>
-      <c r="K118" s="115"/>
-      <c r="M118" s="41"/>
-      <c r="N118" s="38"/>
-      <c r="O118" s="38"/>
-      <c r="P118" s="38"/>
-      <c r="Q118" s="38"/>
-      <c r="R118" s="38"/>
-      <c r="S118" s="40"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F119" s="5"/>
-      <c r="G119" s="1"/>
-      <c r="M119" s="41"/>
-      <c r="N119" s="38"/>
-      <c r="O119" s="38"/>
-      <c r="P119" s="38"/>
-      <c r="Q119" s="38"/>
-      <c r="R119" s="38"/>
-      <c r="S119" s="40"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E120" t="s">
-        <v>46</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="M120" s="114">
-        <f>PI()/2-(M116+M110)</f>
-        <v>0</v>
-      </c>
-      <c r="N120" s="43">
-        <f>DEGREES(M120)</f>
-        <v>0</v>
-      </c>
-      <c r="O120" s="44" t="str">
-        <f>IF(ABS(N120-B16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-      <c r="P120" s="38"/>
-      <c r="Q120" s="45">
-        <f>PI()/2-(Q116+M110)</f>
-        <v>-1.1760052070951348</v>
-      </c>
-      <c r="R120" s="43">
-        <f>DEGREES(Q120)</f>
-        <v>-67.380135051959556</v>
-      </c>
-      <c r="S120" s="46" t="str">
-        <f>IF(ABS(R120-H16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G121" s="1"/>
-      <c r="M121" s="42">
-        <f>PI()/2-M112</f>
-        <v>0</v>
-      </c>
-      <c r="N121" s="43">
-        <f>DEGREES(M121)</f>
-        <v>0</v>
-      </c>
-      <c r="O121" s="44" t="str">
-        <f>IF(ABS(N121-B17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-      <c r="P121" s="38"/>
-      <c r="Q121" s="45">
-        <f>PI()/2-M112</f>
-        <v>0</v>
-      </c>
-      <c r="R121" s="43">
-        <f>DEGREES(Q121)</f>
-        <v>0</v>
-      </c>
-      <c r="S121" s="46" t="str">
-        <f>IF(ABS(R121-H17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M122" s="41"/>
-      <c r="N122" s="38"/>
       <c r="O122" s="38"/>
       <c r="P122" s="38"/>
-      <c r="Q122" s="38"/>
-      <c r="R122" s="38"/>
+      <c r="Q122" s="39">
+        <f>ATAN2(Q121*E118,E116)</f>
+        <v>2.158798930342464</v>
+      </c>
+      <c r="R122" s="37">
+        <f>DEGREES(Q122)</f>
+        <v>123.69006752597979</v>
+      </c>
       <c r="S122" s="40"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M123" s="47"/>
-      <c r="N123" s="48"/>
+      <c r="B123" t="s">
+        <v>55</v>
+      </c>
+      <c r="E123" s="7">
+        <f>F38</f>
+        <v>200</v>
+      </c>
+      <c r="M123" s="41"/>
+      <c r="N123" s="38"/>
       <c r="O123" s="38"/>
       <c r="P123" s="38"/>
       <c r="Q123" s="38"/>
@@ -26285,8 +27259,8 @@
       <c r="S123" s="40"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F124" s="9"/>
       <c r="G124" s="1"/>
+      <c r="K124" s="115"/>
       <c r="M124" s="41"/>
       <c r="N124" s="38"/>
       <c r="O124" s="38"/>
@@ -26296,6 +27270,8 @@
       <c r="S124" s="40"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F125" s="5"/>
+      <c r="G125" s="1"/>
       <c r="M125" s="41"/>
       <c r="N125" s="38"/>
       <c r="O125" s="38"/>
@@ -26306,432 +27282,529 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E126" t="s">
-        <v>47</v>
-      </c>
-      <c r="M126" s="42">
-        <f>PI()/2-(M116-M110)</f>
-        <v>1.1760052070951348</v>
+        <v>46</v>
+      </c>
+      <c r="G126" s="1"/>
+      <c r="M126" s="114">
+        <f>PI()/2-(M122+M116)</f>
+        <v>0</v>
       </c>
       <c r="N126" s="43">
         <f>DEGREES(M126)</f>
-        <v>67.380135051959556</v>
+        <v>0</v>
       </c>
       <c r="O126" s="44" t="str">
         <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
       <c r="P126" s="38"/>
       <c r="Q126" s="45">
-        <f>PI()/2-(Q116-M110)</f>
-        <v>0</v>
+        <f>PI()/2-(Q122+M116)</f>
+        <v>-1.1760052070951348</v>
       </c>
       <c r="R126" s="43">
         <f>DEGREES(Q126)</f>
-        <v>0</v>
+        <v>-67.380135051959556</v>
       </c>
       <c r="S126" s="46" t="str">
         <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
     </row>
-    <row r="127" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="15"/>
-      <c r="M127" s="49">
-        <f>(M112- PI()*3/2)</f>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="N127" s="50">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G127" s="1"/>
+      <c r="M127" s="42">
+        <f>PI()/2-M118</f>
+        <v>0</v>
+      </c>
+      <c r="N127" s="43">
         <f>DEGREES(M127)</f>
-        <v>-180</v>
-      </c>
-      <c r="O127" s="51" t="str">
+        <v>0</v>
+      </c>
+      <c r="O127" s="44" t="str">
         <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
-      </c>
-      <c r="P127" s="52"/>
-      <c r="Q127" s="53">
-        <f>(M112- PI()*3/2)</f>
-        <v>-3.1415926535897931</v>
-      </c>
-      <c r="R127" s="50">
+        <v>OK</v>
+      </c>
+      <c r="P127" s="38"/>
+      <c r="Q127" s="45">
+        <f>PI()/2-M118</f>
+        <v>0</v>
+      </c>
+      <c r="R127" s="43">
         <f>DEGREES(Q127)</f>
-        <v>-180</v>
-      </c>
-      <c r="S127" s="54" t="str">
+        <v>0</v>
+      </c>
+      <c r="S127" s="46" t="str">
         <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
+        <v>OK</v>
       </c>
     </row>
-    <row r="129" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A129" s="15" t="s">
-        <v>53</v>
-      </c>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="M128" s="41"/>
+      <c r="N128" s="38"/>
+      <c r="O128" s="38"/>
+      <c r="P128" s="38"/>
+      <c r="Q128" s="38"/>
+      <c r="R128" s="38"/>
+      <c r="S128" s="40"/>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M129" s="47"/>
+      <c r="N129" s="48"/>
+      <c r="O129" s="38"/>
+      <c r="P129" s="38"/>
+      <c r="Q129" s="38"/>
+      <c r="R129" s="38"/>
+      <c r="S129" s="40"/>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E130" s="58"/>
-      <c r="F130" s="58"/>
-      <c r="G130" s="58"/>
-      <c r="J130" t="s">
-        <v>51</v>
-      </c>
-      <c r="M130" t="s">
-        <v>52</v>
-      </c>
+      <c r="F130" s="9"/>
+      <c r="G130" s="1"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="38"/>
+      <c r="O130" s="38"/>
+      <c r="P130" s="38"/>
+      <c r="Q130" s="38"/>
+      <c r="R130" s="38"/>
+      <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E131" s="58"/>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="58"/>
-      <c r="I131" s="58"/>
-      <c r="J131" s="59">
-        <f t="array" ref="J131:L133">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="K131" s="59">
-        <v>-5.4078812984775293E-2</v>
-      </c>
-      <c r="L131" s="59">
-        <v>0</v>
-      </c>
-      <c r="M131" s="74">
-        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="N131" s="74">
-        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-5.4078812984775293E-2</v>
-      </c>
-      <c r="O131" s="74">
-        <f>-COS(C18)*SIN(C19)</f>
-        <v>0</v>
-      </c>
+      <c r="M131" s="41"/>
+      <c r="N131" s="38"/>
+      <c r="O131" s="38"/>
+      <c r="P131" s="38"/>
+      <c r="Q131" s="38"/>
+      <c r="R131" s="38"/>
+      <c r="S131" s="40"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E132" s="58"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="58"/>
-      <c r="I132" s="58"/>
-      <c r="J132" s="59">
-        <v>5.4078812984775293E-2</v>
-      </c>
-      <c r="K132" s="59">
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="L132" s="59">
+      <c r="E132" t="s">
+        <v>47</v>
+      </c>
+      <c r="M132" s="42">
+        <f>PI()/2-(M122-M116)</f>
+        <v>1.1760052070951348</v>
+      </c>
+      <c r="N132" s="43">
+        <f>DEGREES(M132)</f>
+        <v>67.380135051959556</v>
+      </c>
+      <c r="O132" s="44" t="str">
+        <f>IF(ABS(N132-B16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+      <c r="P132" s="38"/>
+      <c r="Q132" s="45">
+        <f>PI()/2-(Q122-M116)</f>
         <v>0</v>
       </c>
-      <c r="M132" s="74">
-        <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>5.4078812984775293E-2</v>
-      </c>
-      <c r="N132" s="74">
-        <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="O132" s="74">
-        <f>-SIN(C18)*SIN(C19)</f>
+      <c r="R132" s="43">
+        <f>DEGREES(Q132)</f>
         <v>0</v>
       </c>
+      <c r="S132" s="46" t="str">
+        <f>IF(ABS(R132-H16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="J133" s="59">
-        <v>0</v>
-      </c>
-      <c r="K133" s="59">
-        <v>0</v>
-      </c>
-      <c r="L133" s="59">
-        <v>1</v>
-      </c>
-      <c r="M133" s="74">
-        <f>SIN(C19)*COS(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="N133" s="74">
-        <f>-SIN(C19)*SIN(C20)</f>
-        <v>0</v>
-      </c>
-      <c r="O133" s="74">
-        <f>COS(C19)</f>
-        <v>1</v>
+    <row r="133" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="15"/>
+      <c r="M133" s="49">
+        <f>(M118- PI()*3/2)</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="N133" s="50">
+        <f>DEGREES(M133)</f>
+        <v>-180</v>
+      </c>
+      <c r="O133" s="51" t="str">
+        <f>IF(ABS(N133-B17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+      <c r="P133" s="52"/>
+      <c r="Q133" s="53">
+        <f>(M118- PI()*3/2)</f>
+        <v>-3.1415926535897931</v>
+      </c>
+      <c r="R133" s="50">
+        <f>DEGREES(Q133)</f>
+        <v>-180</v>
+      </c>
+      <c r="S133" s="54" t="str">
+        <f>IF(ABS(R133-H17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="135" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A135" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B136" s="65">
-        <f t="array" ref="B136:D138">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="C136" s="66">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="D136" s="67">
-        <v>1</v>
-      </c>
-      <c r="H136" s="65">
-        <f t="array" ref="H136:J138">TRANSPOSE(B136:D138)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="I136" s="66">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="J136" s="67">
-        <v>1</v>
-      </c>
-      <c r="M136" s="65">
-        <f t="array" ref="M136:O138">B62:D64</f>
-        <v>6.3352272028674918E-17</v>
-      </c>
-      <c r="N136" s="66">
-        <v>1.2080058338996191E-16</v>
-      </c>
-      <c r="O136" s="67">
-        <v>1</v>
-      </c>
-      <c r="S136" s="99">
-        <f t="array" ref="S136:U138">MMULT(H136:J138,M136:O138)</f>
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="T136" s="100">
-        <v>-5.4078812984775251E-2</v>
-      </c>
-      <c r="U136" s="101">
-        <v>4.5306081339150385E-18</v>
+      <c r="E136" s="58"/>
+      <c r="F136" s="58"/>
+      <c r="G136" s="58"/>
+      <c r="J136" t="s">
+        <v>51</v>
+      </c>
+      <c r="M136" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B137" s="68">
+      <c r="E137" s="58"/>
+      <c r="F137" s="58"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="58"/>
+      <c r="J137" s="59">
+        <f t="array" ref="J137:L139">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
+        <v>-5.2335956242943772E-2</v>
+      </c>
+      <c r="K137" s="59">
+        <v>-0.99862953475457383</v>
+      </c>
+      <c r="L137" s="59">
+        <v>-2.1005368562915366E-18</v>
+      </c>
+      <c r="M137" s="74">
+        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
+        <v>-5.2335956242943772E-2</v>
+      </c>
+      <c r="N137" s="74">
+        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
+        <v>-0.99862953475457383</v>
+      </c>
+      <c r="O137" s="74">
+        <f>-COS(C18)*SIN(C19)</f>
+        <v>-2.1378532231078771E-18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E138" s="58"/>
+      <c r="F138" s="58"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="58"/>
+      <c r="J138" s="59">
+        <v>0.99802119662406841</v>
+      </c>
+      <c r="K138" s="59">
+        <v>-5.2304074592470787E-2</v>
+      </c>
+      <c r="L138" s="59">
+        <v>-3.4899496702500969E-2</v>
+      </c>
+      <c r="M138" s="74">
+        <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
+        <v>0.99802119662406841</v>
+      </c>
+      <c r="N138" s="74">
+        <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
+        <v>-5.2304074592470787E-2</v>
+      </c>
+      <c r="O138" s="74">
+        <f>-SIN(C18)*SIN(C19)</f>
+        <v>-3.4899496702500969E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J139" s="59">
+        <v>3.4851668155187324E-2</v>
+      </c>
+      <c r="K139" s="59">
+        <v>-1.8264985323228533E-3</v>
+      </c>
+      <c r="L139" s="59">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="M139" s="74">
+        <f>SIN(C19)*COS(C20)</f>
+        <v>3.4851668155187324E-2</v>
+      </c>
+      <c r="N139" s="74">
+        <f>-SIN(C19)*SIN(C20)</f>
+        <v>-1.8264985323228533E-3</v>
+      </c>
+      <c r="O139" s="74">
+        <f>COS(C19)</f>
+        <v>0.99939082701909576</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B142" s="65">
+        <f t="array" ref="B142:D144">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="C142" s="66">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="D142" s="67">
+        <v>1</v>
+      </c>
+      <c r="H142" s="65">
+        <f t="array" ref="H142:J144">TRANSPOSE(B142:D144)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="I142" s="66">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="C137" s="69">
-        <v>-1</v>
-      </c>
-      <c r="D137" s="70">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="H137" s="68">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="I137" s="69">
-        <v>-1</v>
-      </c>
-      <c r="J137" s="70">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="M137" s="68">
-        <v>-5.4078812984775314E-2</v>
-      </c>
-      <c r="N137" s="69">
-        <v>-0.99853667032621174</v>
-      </c>
-      <c r="O137" s="70">
-        <v>1.2404982798287571E-16</v>
-      </c>
-      <c r="S137" s="102">
-        <v>5.4078812984775251E-2</v>
-      </c>
-      <c r="T137" s="103">
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="U137" s="104">
-        <v>-6.2792405237444708E-17</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="71">
+      <c r="J142" s="67">
         <v>1</v>
       </c>
-      <c r="C138" s="72">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="D138" s="73">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="H138" s="71">
-        <v>1</v>
-      </c>
-      <c r="I138" s="72">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="J138" s="73">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="M138" s="71">
-        <v>0.99853667032621174</v>
-      </c>
-      <c r="N138" s="72">
-        <v>-5.4078812984775314E-2</v>
-      </c>
-      <c r="O138" s="73">
-        <v>-5.672681461151595E-17</v>
-      </c>
-      <c r="S138" s="105">
-        <v>-1.1282396208923959E-18</v>
-      </c>
-      <c r="T138" s="106">
-        <v>6.2945529157553581E-17</v>
-      </c>
-      <c r="U138" s="107">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D142" s="76">
-        <f>U138</f>
-        <v>1</v>
-      </c>
-      <c r="E142" s="5"/>
-      <c r="G142" s="80">
-        <f>IF(ABS(D142)=1,0,ACOS(D142))</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="81">
-        <f>DEGREES(G142)</f>
-        <v>0</v>
-      </c>
-      <c r="J142" s="80">
-        <f>IF(SIN(G142)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G142),-D144/SIN(G142)))</f>
-        <v>-1.5887184705171242</v>
-      </c>
-      <c r="K142" s="81">
-        <f>DEGREES(J142)</f>
-        <v>-91.026863195110522</v>
-      </c>
-      <c r="N142" s="2">
-        <f>IF(SIN(G142)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G142),D148/SIN(G142)))</f>
-        <v>1.6428236773289482</v>
-      </c>
-      <c r="O142" s="81">
-        <f>DEGREES(N142)</f>
-        <v>94.126863195110516</v>
+      <c r="M142" s="65">
+        <f t="array" ref="M142:O144">B68:D70</f>
+        <v>3.4851668155187435E-2</v>
+      </c>
+      <c r="N142" s="66">
+        <v>-1.8264985323227982E-3</v>
+      </c>
+      <c r="O142" s="67">
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="S142" s="99">
+        <f t="array" ref="S142:U144">MMULT(H142:J144,M142:O144)</f>
+        <v>-5.2335956242943779E-2</v>
+      </c>
+      <c r="T142" s="100">
+        <v>-0.99862953475457383</v>
+      </c>
+      <c r="U142" s="101">
+        <v>1.202557247320408E-16</v>
       </c>
     </row>
     <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="G143" s="80">
-        <f>IF(ABS(D142)=1,0,-ACOS(D142))</f>
-        <v>0</v>
-      </c>
-      <c r="H143" s="81">
-        <f>DEGREES(G143)</f>
-        <v>0</v>
-      </c>
-      <c r="J143" s="80">
-        <f>IF(SIN(G143)=0,ATAN2(D146,-D144),ATAN2(D146/SIN(G143),-D144/SIN(G143)))</f>
-        <v>-1.5887184705171242</v>
-      </c>
-      <c r="K143" s="81">
-        <f>DEGREES(J143)</f>
-        <v>-91.026863195110522</v>
-      </c>
-      <c r="N143" s="2">
-        <f>IF(SIN(G143)=0,-ATAN2(-D150,D148),-ATAN2(-D150/SIN(G143),D148/SIN(G143)))</f>
-        <v>1.6428236773289482</v>
-      </c>
-      <c r="O143" s="81">
-        <f>DEGREES(N143)</f>
-        <v>94.126863195110516</v>
+      <c r="B143" s="68">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="C143" s="69">
+        <v>-1</v>
+      </c>
+      <c r="D143" s="70">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="H143" s="68">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="I143" s="69">
+        <v>-1</v>
+      </c>
+      <c r="J143" s="70">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M143" s="68">
+        <v>-0.99802119662406841</v>
+      </c>
+      <c r="N143" s="69">
+        <v>5.2304074592470856E-2</v>
+      </c>
+      <c r="O143" s="70">
+        <v>3.489949670250108E-2</v>
+      </c>
+      <c r="S143" s="102">
+        <v>0.99802119662406841</v>
+      </c>
+      <c r="T143" s="103">
+        <v>-5.2304074592470794E-2</v>
+      </c>
+      <c r="U143" s="104">
+        <v>-3.4899496702501018E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="D144" s="75">
-        <f>T138</f>
-        <v>6.2945529157553581E-17</v>
-      </c>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="94"/>
-      <c r="K144" s="81"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="92"/>
-      <c r="O144" s="81"/>
-    </row>
-    <row r="145" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="80"/>
-      <c r="K145" s="81"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="92"/>
-      <c r="O145" s="81"/>
-    </row>
-    <row r="146" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D146" s="58">
-        <f>S138</f>
-        <v>-1.1282396208923959E-18</v>
-      </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="81"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="82"/>
-      <c r="O146" s="81"/>
-    </row>
-    <row r="147" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="81"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
+    <row r="144" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="71">
+        <v>1</v>
+      </c>
+      <c r="C144" s="72">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="D144" s="73">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="H144" s="71">
+        <v>1</v>
+      </c>
+      <c r="I144" s="72">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="J144" s="73">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="M144" s="71">
+        <v>-5.2335956242943842E-2</v>
+      </c>
+      <c r="N144" s="72">
+        <v>-0.99862953475457383</v>
+      </c>
+      <c r="O144" s="73">
+        <v>6.1173471576534015E-17</v>
+      </c>
+      <c r="S144" s="105">
+        <v>3.4851668155187372E-2</v>
+      </c>
+      <c r="T144" s="106">
+        <v>-1.8264985323227338E-3</v>
+      </c>
+      <c r="U144" s="107">
+        <v>0.99939082701909576</v>
+      </c>
     </row>
     <row r="148" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D148" s="58">
-        <f>U137</f>
-        <v>-6.2792405237444708E-17</v>
-      </c>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
+      <c r="D148" s="76">
+        <f>U144</f>
+        <v>0.99939082701909576</v>
+      </c>
+      <c r="E148" s="5"/>
+      <c r="G148" s="80">
+        <f>IF(ABS(D148)=1,0,ACOS(D148))</f>
+        <v>3.4906585039885529E-2</v>
+      </c>
+      <c r="H148" s="81">
+        <f>DEGREES(G148)</f>
+        <v>1.9999999999999392</v>
+      </c>
+      <c r="J148" s="80">
+        <f>IF(SIN(G148)=0,ATAN2(D152,-D150),ATAN2(D152/SIN(G148),-D150/SIN(G148)))</f>
+        <v>5.2359877559826407E-2</v>
+      </c>
+      <c r="K148" s="81">
+        <f>DEGREES(J148)</f>
+        <v>2.9999999999998006</v>
+      </c>
+      <c r="N148" s="2">
+        <f>IF(SIN(G148)=0,-ATAN2(-D156,D154),-ATAN2(-D156/SIN(G148),D154/SIN(G148)))</f>
+        <v>1.5707963267948999</v>
+      </c>
+      <c r="O148" s="81">
+        <f>DEGREES(N148)</f>
+        <v>90.000000000000185</v>
+      </c>
     </row>
     <row r="149" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
+      <c r="G149" s="80">
+        <f>IF(ABS(D148)=1,0,-ACOS(D148))</f>
+        <v>-3.4906585039885529E-2</v>
+      </c>
+      <c r="H149" s="81">
+        <f>DEGREES(G149)</f>
+        <v>-1.9999999999999392</v>
+      </c>
+      <c r="J149" s="80">
+        <f>IF(SIN(G149)=0,ATAN2(D152,-D150),ATAN2(D152/SIN(G149),-D150/SIN(G149)))</f>
+        <v>-3.0892327760299665</v>
+      </c>
+      <c r="K149" s="81">
+        <f>DEGREES(J149)</f>
+        <v>-177.0000000000002</v>
+      </c>
+      <c r="N149" s="2">
+        <f>IF(SIN(G149)=0,-ATAN2(-D156,D154),-ATAN2(-D156/SIN(G149),D154/SIN(G149)))</f>
+        <v>-1.5707963267948932</v>
+      </c>
+      <c r="O149" s="81">
+        <f>DEGREES(N149)</f>
+        <v>-89.999999999999815</v>
+      </c>
     </row>
     <row r="150" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D150" s="76">
-        <f>U136</f>
-        <v>4.5306081339150385E-18</v>
-      </c>
+      <c r="D150" s="75">
+        <f>T144</f>
+        <v>-1.8264985323227338E-3</v>
+      </c>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
+      <c r="J150" s="94"/>
       <c r="K150" s="81"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="82"/>
+      <c r="N150" s="92"/>
       <c r="O150" s="81"/>
     </row>
     <row r="151" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G151" s="2"/>
+      <c r="H151" s="2"/>
       <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
+      <c r="J151" s="80"/>
       <c r="K151" s="81"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
+      <c r="N151" s="92"/>
+      <c r="O151" s="81"/>
     </row>
     <row r="152" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D152" t="s">
+      <c r="D152" s="58">
+        <f>S144</f>
+        <v>3.4851668155187372E-2</v>
+      </c>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="81"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="82"/>
+      <c r="O152" s="81"/>
+    </row>
+    <row r="153" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="81"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+    </row>
+    <row r="154" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D154" s="58">
+        <f>U143</f>
+        <v>-3.4899496702501018E-2</v>
+      </c>
+      <c r="G154" s="2"/>
+      <c r="H154" s="2"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
+      <c r="O154" s="2"/>
+    </row>
+    <row r="155" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="2"/>
+      <c r="O155" s="2"/>
+    </row>
+    <row r="156" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D156" s="76">
+        <f>U142</f>
+        <v>1.202557247320408E-16</v>
+      </c>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="81"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="82"/>
+      <c r="O156" s="81"/>
+    </row>
+    <row r="157" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="81"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="2"/>
+      <c r="O157" s="2"/>
+    </row>
+    <row r="158" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
         <v>59</v>
       </c>
     </row>
@@ -26746,8 +27819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1134,7 +1134,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,6 +1269,7 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1371,7 +1372,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$B$89</c:f>
+              <c:f>Kinematik!$B$91</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
@@ -1383,12 +1384,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$B$90</c:f>
+              <c:f>Kinematik!$B$92</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.3322676295501878E-14</c:v>
+                  <c:v>-1.470178145890344E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,7 +1549,7 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Kinematik!$K$102:$L$102</c:f>
+              <c:f>Kinematik!$K$104:$L$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1563,7 +1564,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Kinematik!$K$103:$L$103</c:f>
+              <c:f>Kinematik!$K$105:$L$105</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="2"/>
@@ -1650,7 +1651,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>584491</xdr:colOff>
+      <xdr:colOff>575526</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>84490</xdr:rowOff>
     </xdr:to>
@@ -2766,7 +2767,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="735106" cy="736292"/>
@@ -8807,7 +8808,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233083</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>147917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2259105" cy="277384"/>
@@ -9130,7 +9131,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>125504</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2214283" cy="436786"/>
@@ -9515,7 +9516,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>367552</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>138953</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1918447" cy="267702"/>
@@ -9782,7 +9783,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>32270</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>84716</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2097743" cy="472694"/>
@@ -10177,7 +10178,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>546847</xdr:colOff>
-      <xdr:row>120</xdr:row>
+      <xdr:row>122</xdr:row>
       <xdr:rowOff>13447</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="472694"/>
@@ -10619,7 +10620,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>129989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1497106" cy="264560"/>
@@ -10882,7 +10883,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>573739</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>121023</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -11179,7 +11180,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>510986</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>113404</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3514166" cy="379399"/>
@@ -11816,7 +11817,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>597944</xdr:colOff>
-      <xdr:row>130</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>136713</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12101,7 +12102,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>591671</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>26894</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12362,7 +12363,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>595705</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>142989</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3021108" cy="264560"/>
@@ -12677,14 +12678,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>98611</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>62753</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>444947</xdr:colOff>
-      <xdr:row>111</xdr:row>
-      <xdr:rowOff>136782</xdr:rowOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>136783</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12715,13 +12716,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>744070</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>40342</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>295835</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>94130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -12745,7 +12746,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>40341</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>137</xdr:row>
       <xdr:rowOff>102646</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6337599" cy="637290"/>
@@ -17112,7 +17113,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>22861</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -17298,7 +17299,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="323230"/>
@@ -17685,7 +17686,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>144</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -18158,7 +18159,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>34291</xdr:colOff>
-      <xdr:row>146</xdr:row>
+      <xdr:row>148</xdr:row>
       <xdr:rowOff>146685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1325880" cy="311752"/>
@@ -18594,7 +18595,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -18780,7 +18781,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>120833</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>145869</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="640080" cy="270843"/>
@@ -18966,7 +18967,7 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>433252</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1562099" cy="333809"/>
@@ -19456,7 +19457,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>135547</xdr:colOff>
+      <xdr:colOff>135548</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5782</xdr:rowOff>
     </xdr:to>
@@ -19506,7 +19507,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -20119,7 +20120,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -20305,7 +20306,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>93345</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -20910,7 +20911,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -21530,7 +21531,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -21716,7 +21717,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>156</xdr:row>
       <xdr:rowOff>102870</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2000249" cy="312521"/>
@@ -22333,7 +22334,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
@@ -22523,7 +22524,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>788892</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1093695" cy="270843"/>
@@ -22768,7 +22769,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -22966,7 +22967,7 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -23164,7 +23165,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -23362,7 +23363,7 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>333376</xdr:colOff>
-      <xdr:row>147</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="739139" cy="269304"/>
@@ -24303,6 +24304,956 @@
                 <a:t>0&amp;0@0&amp;0&amp;1&amp;𝑑_5@0&amp;0&amp;0&amp;1))</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="Textfeld 51"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="52" name="Textfeld 51"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="Textfeld 62"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9215718" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="63" name="Textfeld 62"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9215718" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="Textfeld 65"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="66" name="Textfeld 65"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Textfeld 66"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="67" name="Textfeld 66"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12516970"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>127746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="914400" cy="270843"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Textfeld 69"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12875558"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑇</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>6</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                    </m:e>
+                  </m:d>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="70" name="Textfeld 69"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="12875558"/>
+              <a:ext cx="914400" cy="270843"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑇_0^6 )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -24954,10 +25905,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z158"/>
+  <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S67" sqref="S67"/>
+    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24974,9 +25925,9 @@
     <col min="11" max="11" width="14.109375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.44140625" customWidth="1"/>
     <col min="17" max="17" width="11.44140625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" customWidth="1"/>
@@ -24998,19 +25949,19 @@
         <v>30</v>
       </c>
       <c r="G4" s="55">
-        <f>B89</f>
+        <f>B91</f>
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="56">
-        <f>B90</f>
-        <v>-1.3322676295501878E-14</v>
+        <f>B92</f>
+        <v>-1.470178145890344E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G6" s="57">
-        <f>B91</f>
+        <f>B93</f>
         <v>400</v>
       </c>
     </row>
@@ -25021,28 +25972,28 @@
       </c>
       <c r="G8" s="110">
         <f>V48</f>
-        <v>339.9147157826734</v>
+        <v>340</v>
       </c>
       <c r="H8" s="77">
         <f>X48</f>
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="I8" s="77">
         <f t="array" ref="I8:I10">X53:X55</f>
-        <v>93</v>
+        <v>1.0529375361485666E-14</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="111">
         <f>V49</f>
-        <v>4.8859295383501378</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="H9" s="78">
         <f>X49</f>
-        <v>3.0000000000000004</v>
+        <v>-90</v>
       </c>
       <c r="I9" s="77">
-        <v>5.3390701230985497E-19</v>
+        <v>3.5097917871618878E-15</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25052,10 +26003,10 @@
       </c>
       <c r="H10" s="79">
         <f>X50</f>
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="I10" s="77">
-        <v>2.0000000000000036</v>
+        <v>7.0195835743237771E-15</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -25092,11 +26043,11 @@
         <v>0</v>
       </c>
       <c r="E15" s="20">
-        <f>H91</f>
-        <v>-3.8166656177562198E-15</v>
+        <f>H93</f>
+        <v>-4.2117501445942666E-15</v>
       </c>
       <c r="I15" s="20">
-        <f>H92</f>
+        <f>H94</f>
         <v>180</v>
       </c>
       <c r="J15" s="26" t="s">
@@ -25115,19 +26066,19 @@
         <v>0</v>
       </c>
       <c r="D16" s="116">
-        <f>N126</f>
+        <f>N128</f>
         <v>0</v>
       </c>
       <c r="E16" s="116">
-        <f>N132</f>
+        <f>N134</f>
         <v>67.380135051959556</v>
       </c>
       <c r="H16" s="116">
-        <f>R126</f>
+        <f>R128</f>
         <v>-67.380135051959556</v>
       </c>
       <c r="I16" s="116">
-        <f>R132</f>
+        <f>R134</f>
         <v>0</v>
       </c>
       <c r="V16" t="s">
@@ -25146,19 +26097,19 @@
         <v>0</v>
       </c>
       <c r="D17" s="117">
-        <f>N127</f>
+        <f>N129</f>
         <v>0</v>
       </c>
       <c r="E17" s="117">
-        <f>N133</f>
+        <f>N135</f>
         <v>-180</v>
       </c>
       <c r="H17" s="117">
-        <f>R127</f>
+        <f>R129</f>
         <v>0</v>
       </c>
       <c r="I17" s="117">
-        <f>R133</f>
+        <f>R135</f>
         <v>-180</v>
       </c>
       <c r="V17">
@@ -25170,19 +26121,19 @@
         <v>7</v>
       </c>
       <c r="B18" s="30">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C18" s="21">
         <f t="shared" si="0"/>
-        <v>1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="F18" s="118">
-        <f>O148</f>
-        <v>90.000000000000185</v>
+        <f>O150</f>
+        <v>89.999999999999986</v>
       </c>
       <c r="G18" s="119">
-        <f>O149</f>
-        <v>-89.999999999999815</v>
+        <f>O151</f>
+        <v>89.999999999999986</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -25194,19 +26145,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>3.4906585039886591E-2</v>
+        <v>0</v>
       </c>
       <c r="F19" s="120">
-        <f>H148</f>
-        <v>1.9999999999999392</v>
+        <f>H150</f>
+        <v>0</v>
       </c>
       <c r="G19" s="121">
-        <f>H149</f>
-        <v>-1.9999999999999392</v>
+        <f>H151</f>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -25217,19 +26168,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" s="21">
         <f t="shared" si="0"/>
-        <v>5.235987755982989E-2</v>
+        <v>0</v>
       </c>
       <c r="F20" s="122">
-        <f>K148</f>
-        <v>2.9999999999998006</v>
+        <f>K150</f>
+        <v>-90</v>
       </c>
       <c r="G20" s="123">
-        <f>K149</f>
-        <v>-177.0000000000002</v>
+        <f>K151</f>
+        <v>-90</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -25845,23 +26796,23 @@
       </c>
       <c r="G38" s="1">
         <f>B18</f>
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="H38" s="6">
         <f>RADIANS(G38)</f>
-        <v>1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="N38" s="11">
         <f>COS(H38)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1</v>
       </c>
       <c r="O38" s="12">
         <f>-SIN(H38)*COS(D38)</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>0</v>
       </c>
       <c r="P38" s="12">
         <f>SIN(H38)*SIN(D38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="13">
         <f>E38*COS(H38)</f>
@@ -25875,7 +26826,7 @@
         <v>1</v>
       </c>
       <c r="T38" s="63">
-        <v>1.22514845490862E-16</v>
+        <v>0</v>
       </c>
       <c r="U38" s="64">
         <v>200.00000000000003</v>
@@ -25886,38 +26837,38 @@
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-1.22514845490862E-16</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>-7.0195835743237771E-15</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N39" s="11">
         <f>SIN(H38)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="12">
         <f>COS(H38)*COS(D38)</f>
-        <v>3.7524718414124473E-33</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P39" s="12">
         <f>-COS(H38)*SIN(D38)</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>-1</v>
       </c>
       <c r="Q39" s="13">
         <f>E38*SIN(H38)</f>
         <v>0</v>
       </c>
       <c r="R39" s="62">
-        <v>-1</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="S39" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>0</v>
       </c>
       <c r="T39" s="63">
-        <v>3.7524718414124473E-33</v>
+        <v>1</v>
       </c>
       <c r="U39" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -25928,11 +26879,11 @@
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X39" s="20">
         <f>DEGREES(W39)</f>
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
@@ -25952,13 +26903,13 @@
         <v>200</v>
       </c>
       <c r="R40" s="62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40" s="63">
-        <v>-1.22514845490862E-16</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T40" s="63">
-        <v>1</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U40" s="64">
         <v>400</v>
@@ -25969,11 +26920,11 @@
       </c>
       <c r="W40" s="21">
         <f>IF(ABS(W39)=PI()/2,0,ATAN2(R38,R39))</f>
-        <v>-1.5707963267948966</v>
+        <v>0</v>
       </c>
       <c r="X40" s="20">
         <f>DEGREES(W40)</f>
-        <v>-90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
@@ -26027,23 +26978,23 @@
       </c>
       <c r="G43" s="98">
         <f>B19</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>3.4906585039886591E-2</v>
+        <v>0</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>-2.1378532231078771E-18</v>
+        <v>0</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>-3.4899496702500969E-2</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -26051,13 +27002,13 @@
       </c>
       <c r="R43" s="62">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>3.4899496702501032E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="S43" s="63">
-        <v>-6.1294739112247347E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="T43" s="63">
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="U43" s="64">
         <v>200.00000000000003</v>
@@ -26068,38 +27019,38 @@
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-90</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>3.4899496702500969E-2</v>
+        <v>0</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1220106378614654E-17</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="62">
-        <v>-0.99939082701909576</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="S44" s="63">
-        <v>2.1378532231078771E-18</v>
+        <v>-1</v>
       </c>
       <c r="T44" s="63">
-        <v>3.4899496702501032E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U44" s="64">
         <v>-6.1257422745431001E-15</v>
@@ -26110,11 +27061,11 @@
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>4.2757064462157541E-18</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>2.4497993380504262E-16</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -26134,13 +27085,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="62">
-        <v>-4.2757064462157541E-18</v>
+        <v>1</v>
       </c>
       <c r="S45" s="63">
-        <v>-1</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T45" s="63">
-        <v>-6.1182790011798308E-17</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U45" s="64">
         <v>400</v>
@@ -26151,11 +27102,11 @@
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>-1.5358897417550099</v>
+        <v>0</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>-88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -26209,19 +27160,19 @@
       </c>
       <c r="G48" s="97">
         <f>B20</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>5.235987755982989E-2</v>
+        <v>0</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>0.99862953475457383</v>
+        <v>1</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>-5.2335956242943835E-2</v>
+        <v>0</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -26233,28 +27184,28 @@
       </c>
       <c r="R48" s="95">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>3.4851668155187386E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="S48" s="96">
-        <v>-1.8264985323229177E-3</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="T48" s="96">
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="U48" s="89">
-        <v>339.9147157826734</v>
+        <v>340</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>339.9147157826734</v>
+        <v>340</v>
       </c>
       <c r="W48" s="90">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-90</v>
+        <v>-180</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>76</v>
@@ -26266,11 +27217,11 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>5.2335956242943835E-2</v>
+        <v>0</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>0.99862953475457383</v>
+        <v>1</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -26281,28 +27232,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="95">
-        <v>-0.99802119662406841</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="S49" s="96">
-        <v>5.2304074592470849E-2</v>
+        <v>-1</v>
       </c>
       <c r="T49" s="96">
-        <v>3.4899496702501032E-2</v>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="U49" s="89">
-        <v>4.8859295383501378</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>4.8859295383501378</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="W49" s="90">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>5.2359877559829897E-2</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>3.0000000000000004</v>
+        <v>-90</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -26328,13 +27279,13 @@
         <v>140</v>
       </c>
       <c r="R50" s="95">
-        <v>-5.2335956242943842E-2</v>
+        <v>1</v>
       </c>
       <c r="S50" s="96">
-        <v>-0.99862953475457383</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="T50" s="96">
-        <v>-6.1182790011798308E-17</v>
+        <v>-6.1257422745431001E-17</v>
       </c>
       <c r="U50" s="89">
         <v>400</v>
@@ -26345,11 +27296,11 @@
       </c>
       <c r="W50" s="90">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-1.5358897417550099</v>
+        <v>0</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-88</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>71</v>
@@ -26458,28 +27409,28 @@
       </c>
       <c r="R53" s="95">
         <f t="array" ref="R53:U56">MMULT(R48:U51,N53:Q56)</f>
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
       <c r="S53" s="96">
-        <v>1.8264985323228609E-3</v>
+        <v>-1.22514845490862E-16</v>
       </c>
       <c r="T53" s="96">
-        <v>3.4851668155187386E-2</v>
+        <v>6.1257422745431013E-17</v>
       </c>
       <c r="U53" s="89">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="V53" s="18">
         <f>$V$17*R53+$V$18*S53+$V$19*T53+$V$20*U53</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="W53" s="90">
         <f>IF(W54=PI()/2,ATAN2(S54,S53),IF(-W54=PI()/2,-ATAN2(S54,S53),ATAN2(T55,S55)))</f>
-        <v>1.6231562043547265</v>
+        <v>1.83772268236293E-16</v>
       </c>
       <c r="X53" s="20">
         <f>DEGREES(W53)</f>
-        <v>93</v>
+        <v>1.0529375361485666E-14</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>76</v>
@@ -26505,28 +27456,28 @@
         <v>0</v>
       </c>
       <c r="R54" s="95">
-        <v>3.4899496702501032E-2</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="S54" s="96">
-        <v>-5.2304074592470974E-2</v>
+        <v>1</v>
       </c>
       <c r="T54" s="96">
-        <v>-0.99802119662406841</v>
+        <v>-1.83772268236293E-16</v>
       </c>
       <c r="U54" s="89">
-        <v>0</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="V54" s="18">
         <f>$V$17*R54+$V$19*S54+$V$18*T54+$V$20*U54</f>
-        <v>0</v>
+        <v>2.45029690981724E-15</v>
       </c>
       <c r="W54" s="90">
         <f>ATAN2(SQRT(R53^2+R54^2),-R55)</f>
-        <v>9.3184352642928652E-21</v>
+        <v>6.1257422745430988E-17</v>
       </c>
       <c r="X54" s="20">
         <f>DEGREES(W54)</f>
-        <v>5.3390701230985497E-19</v>
+        <v>3.5097917871618878E-15</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>73</v>
@@ -26552,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R55" s="95">
-        <v>-9.3184352642928652E-21</v>
+        <v>-6.1257422745430988E-17</v>
       </c>
       <c r="S55" s="96">
-        <v>0.99862953475457383</v>
+        <v>1.83772268236293E-16</v>
       </c>
       <c r="T55" s="96">
-        <v>-5.2335956242943966E-2</v>
+        <v>1</v>
       </c>
       <c r="U55" s="89">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="V55" s="18">
         <f>$V$17*R55+$V$19*S55+$V$18*T55+$V$20*U55</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="W55" s="90">
         <f>IF(ABS(W54)=PI()/2,0,ATAN2(R53,R54))</f>
-        <v>3.4906585039886653E-2</v>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="X55" s="20">
         <f>DEGREES(W55)</f>
-        <v>2.0000000000000036</v>
+        <v>7.0195835743237771E-15</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>71</v>
@@ -26593,7 +27544,7 @@
         <v>0</v>
       </c>
       <c r="Q56" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" s="95">
         <v>0</v>
@@ -26605,11 +27556,11 @@
         <v>0</v>
       </c>
       <c r="U56" s="89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56" s="18">
         <f>$V$17*R56+$V$18*S56+$V$19*T56+$V$20*U56</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W56" s="8"/>
     </row>
@@ -26618,18 +27569,27 @@
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="88"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
+      <c r="R57" s="96"/>
+      <c r="S57" s="96"/>
+      <c r="T57" s="96"/>
       <c r="U57" s="88"/>
       <c r="V57" s="18"/>
       <c r="W57" s="8"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N58" s="12"/>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12"/>
-      <c r="Q58" s="12"/>
+      <c r="N58" s="11">
+        <f t="array" ref="N58:P60">MINVERSE(N53:P55)</f>
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="O58" s="12">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="P58" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="124">
+        <v>0</v>
+      </c>
       <c r="R58" s="88"/>
       <c r="S58" s="88"/>
       <c r="T58" s="88"/>
@@ -26638,364 +27598,536 @@
       <c r="W58" s="8"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>26</v>
-      </c>
+      <c r="N59" s="11">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="O59" s="12">
+        <v>-1</v>
+      </c>
+      <c r="P59" s="12">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="Q59" s="124">
+        <v>0</v>
+      </c>
+      <c r="R59" s="88"/>
+      <c r="S59" s="88"/>
+      <c r="T59" s="88"/>
+      <c r="U59" s="88"/>
+      <c r="V59" s="18"/>
+      <c r="W59" s="8"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="15"/>
+      <c r="N60" s="11">
+        <v>1</v>
+      </c>
+      <c r="O60" s="12">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="P60" s="12">
+        <v>3.7524718414124473E-33</v>
+      </c>
+      <c r="Q60" s="124">
+        <v>0</v>
+      </c>
+      <c r="R60" s="88"/>
+      <c r="S60" s="88"/>
+      <c r="T60" s="88"/>
+      <c r="U60" s="88"/>
+      <c r="V60" s="18"/>
+      <c r="W60" s="8"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>13</v>
-      </c>
-      <c r="D61" t="s">
-        <v>64</v>
-      </c>
-      <c r="G61" t="s">
-        <v>62</v>
+      <c r="A61" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="124">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>27</v>
-      </c>
-      <c r="C62" s="7">
-        <f t="array" ref="C62:C65">V48:V51</f>
-        <v>339.9147157826734</v>
-      </c>
-      <c r="D62" s="21">
-        <f t="array" ref="D62:D64">W48:W50</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="E62" s="20">
-        <f>DEGREES(D62)</f>
-        <v>-90</v>
-      </c>
-      <c r="F62" s="91">
-        <f>D62+PI()</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="G62" s="21">
-        <f>IF(F62&gt;PI(),F62-2*PI(),F62)</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="H62" s="20">
-        <f>DEGREES(G62)</f>
-        <v>90</v>
-      </c>
+      <c r="A62" s="15"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="C63" s="7">
-        <v>4.8859295383501378</v>
-      </c>
-      <c r="D63" s="21">
-        <v>5.2359877559829897E-2</v>
-      </c>
-      <c r="E63" s="20">
-        <f>DEGREES(D63)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="F63" s="91">
-        <f>D63+PI()/2</f>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="G63" s="21">
-        <f>IF(F63&gt;PI(),F63-2*PI(),F63)</f>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="H63" s="20">
-        <f>DEGREES(G63)</f>
-        <v>93</v>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="G63" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>27</v>
+      </c>
       <c r="C64" s="7">
-        <v>400</v>
+        <f t="array" ref="C64:C67">V48:V51</f>
+        <v>340</v>
       </c>
       <c r="D64" s="21">
-        <v>-1.5358897417550099</v>
+        <f t="array" ref="D64:D66">W48:W50</f>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="E64" s="20">
         <f>DEGREES(D64)</f>
-        <v>-88</v>
+        <v>-180</v>
       </c>
       <c r="F64" s="91">
-        <f>D64</f>
-        <v>-1.5358897417550099</v>
+        <f>D64+PI()</f>
+        <v>0</v>
       </c>
       <c r="G64" s="21">
         <f>IF(F64&gt;PI(),F64-2*PI(),F64)</f>
-        <v>-1.5358897417550099</v>
+        <v>0</v>
       </c>
       <c r="H64" s="20">
         <f>DEGREES(G64)</f>
-        <v>-88</v>
-      </c>
-      <c r="P64" s="90"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <f t="array" ref="N64:N67">C64:C67</f>
+        <v>340</v>
+      </c>
+      <c r="O64">
+        <f t="array" ref="O64:O66">W53:W55</f>
+        <v>1.83772268236293E-16</v>
+      </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C65" s="7">
+        <v>2.45029690981724E-15</v>
+      </c>
+      <c r="D65" s="21">
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="E65" s="20">
+        <f>DEGREES(D65)</f>
+        <v>-90</v>
+      </c>
+      <c r="F65" s="91">
+        <f>D65+PI()/2</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="21">
+        <f>IF(F65&gt;PI(),F65-2*PI(),F65)</f>
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
+        <f>DEGREES(G65)</f>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>2.45029690981724E-15</v>
+      </c>
+      <c r="O65">
+        <v>6.1257422745430988E-17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C66" s="7">
+        <v>400</v>
+      </c>
+      <c r="D66" s="21">
+        <v>0</v>
+      </c>
+      <c r="E66" s="20">
+        <f>DEGREES(D66)</f>
+        <v>0</v>
+      </c>
+      <c r="F66" s="91">
+        <f>D66</f>
+        <v>0</v>
+      </c>
+      <c r="G66" s="21">
+        <f>IF(F66&gt;PI(),F66-2*PI(),F66)</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
+        <f>DEGREES(G66)</f>
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>400</v>
+      </c>
+      <c r="O66">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="P66" s="90"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C67" s="7">
         <v>1</v>
       </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="C66" s="7"/>
-      <c r="O66" s="7"/>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="C68" s="7"/>
+      <c r="O68" s="7"/>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>66</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F69" t="s">
         <v>64</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I69" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B68" s="108">
-        <f>COS(D64)*COS(D63)</f>
-        <v>3.4851668155187435E-2</v>
-      </c>
-      <c r="C68" s="108">
-        <f>SIN(D62)*SIN(D63)*COS(D64)-COS(D62)*SIN(D64)</f>
-        <v>-1.8264985323227982E-3</v>
-      </c>
-      <c r="D68" s="108">
-        <f>COS(D62)*SIN(D63)*COS(D64)+SIN(D62)*SIN(D64)</f>
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="E68" s="93">
-        <f>C62</f>
-        <v>339.9147157826734</v>
-      </c>
-      <c r="F68" s="90">
-        <f>IF(F69=PI()/2,ATAN2(C69,C68),IF(-F69=PI()/2,-ATAN2(C69,C68),ATAN2(D70,C70)))</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="G68" s="7">
-        <f>DEGREES(F68)</f>
-        <v>-90</v>
-      </c>
-      <c r="H68" s="91">
-        <f>F68+PI()</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="I68" s="21">
-        <f>IF(H68&gt;PI(),H68-2*PI(),H68)</f>
-        <v>1.5707963267948966</v>
-      </c>
-      <c r="J68" s="20">
-        <f>DEGREES(I68)</f>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B69" s="108">
-        <f>COS(D63)*SIN(D64)</f>
-        <v>-0.99802119662406841</v>
-      </c>
-      <c r="C69" s="108">
-        <f>SIN(D62)*SIN(D63)*SIN(D64)+COS(D62)*COS(D64)</f>
-        <v>5.2304074592470856E-2</v>
-      </c>
-      <c r="D69" s="108">
-        <f>COS(D62)*SIN(D63)*SIN(D64)-SIN(D62)*COS(D64)</f>
-        <v>3.489949670250108E-2</v>
-      </c>
-      <c r="E69" s="93">
-        <f>C63</f>
-        <v>4.8859295383501378</v>
-      </c>
-      <c r="F69" s="90">
-        <f>ATAN2(SQRT(B68^2+B69^2),-B70)</f>
-        <v>5.2359877559829897E-2</v>
-      </c>
-      <c r="G69" s="7">
-        <f>DEGREES(F69)</f>
-        <v>3.0000000000000004</v>
-      </c>
-      <c r="H69" s="91">
-        <f>F69+PI()/2</f>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="I69" s="21">
-        <f>IF(H69&gt;PI(),H69-2*PI(),H69)</f>
-        <v>1.6231562043547265</v>
-      </c>
-      <c r="J69" s="20">
-        <f>DEGREES(I69)</f>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B70" s="108">
-        <f>-SIN(D63)</f>
-        <v>-5.2335956242943842E-2</v>
+        <f>COS(D66)*COS(D65)</f>
+        <v>6.1257422745431001E-17</v>
       </c>
       <c r="C70" s="108">
-        <f>SIN(D62)*COS(D63)</f>
-        <v>-0.99862953475457383</v>
+        <f>SIN(D64)*SIN(D65)*COS(D66)-COS(D64)*SIN(D66)</f>
+        <v>1.22514845490862E-16</v>
       </c>
       <c r="D70" s="108">
-        <f>COS(D62)*COS(D63)</f>
-        <v>6.1173471576534015E-17</v>
+        <f>COS(D64)*SIN(D65)*COS(D66)+SIN(D64)*SIN(D66)</f>
+        <v>1</v>
       </c>
       <c r="E70" s="93">
         <f>C64</f>
-        <v>400</v>
+        <v>340</v>
       </c>
       <c r="F70" s="90">
-        <f>IF(ABS(F69)=PI()/2,0,ATAN2(B68,B69))</f>
-        <v>-1.5358897417550099</v>
+        <f>IF(F71=PI()/2,ATAN2(C71,C70),IF(-F71=PI()/2,-ATAN2(C71,C70),ATAN2(D72,C72)))</f>
+        <v>-3.1415926535897931</v>
       </c>
       <c r="G70" s="7">
         <f>DEGREES(F70)</f>
-        <v>-88</v>
+        <v>-180</v>
       </c>
       <c r="H70" s="91">
-        <f>F70</f>
-        <v>-1.5358897417550099</v>
+        <f>F70+PI()</f>
+        <v>0</v>
       </c>
       <c r="I70" s="21">
         <f>IF(H70&gt;PI(),H70-2*PI(),H70)</f>
-        <v>-1.5358897417550099</v>
+        <v>0</v>
       </c>
       <c r="J70" s="20">
         <f>DEGREES(I70)</f>
-        <v>-88</v>
+        <v>0</v>
+      </c>
+      <c r="M70" s="108">
+        <f>COS(O66)*COS(O65)</f>
+        <v>1</v>
+      </c>
+      <c r="N70" s="108">
+        <f>SIN(O64)*SIN(O65)*COS(O66)-COS(O64)*SIN(O66)</f>
+        <v>-1.22514845490862E-16</v>
+      </c>
+      <c r="O70" s="108">
+        <f>COS(O64)*SIN(O65)*COS(O66)+SIN(O64)*SIN(O66)</f>
+        <v>6.1257422745431013E-17</v>
+      </c>
+      <c r="P70" s="93">
+        <f>N64</f>
+        <v>340</v>
+      </c>
+      <c r="Q70" s="76">
+        <f t="array" ref="Q70:T73">MMULT(M70:P73,N58:Q61)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="R70" s="76">
+        <v>6.1257422745431013E-17</v>
+      </c>
+      <c r="S70" s="76">
+        <v>1</v>
+      </c>
+      <c r="T70" s="76">
+        <v>340</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B71" s="93">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B71" s="108">
+        <f>COS(D65)*SIN(D66)</f>
         <v>0</v>
       </c>
-      <c r="C71" s="93">
+      <c r="C71" s="108">
+        <f>SIN(D64)*SIN(D65)*SIN(D66)+COS(D64)*COS(D66)</f>
+        <v>-1</v>
+      </c>
+      <c r="D71" s="108">
+        <f>COS(D64)*SIN(D65)*SIN(D66)-SIN(D64)*COS(D66)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="E71" s="93">
+        <f>C65</f>
+        <v>2.45029690981724E-15</v>
+      </c>
+      <c r="F71" s="90">
+        <f>ATAN2(SQRT(B70^2+B71^2),-B72)</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="G71" s="7">
+        <f>DEGREES(F71)</f>
+        <v>-90</v>
+      </c>
+      <c r="H71" s="91">
+        <f>F71+PI()/2</f>
         <v>0</v>
       </c>
-      <c r="D71" s="93">
+      <c r="I71" s="21">
+        <f>IF(H71&gt;PI(),H71-2*PI(),H71)</f>
         <v>0</v>
       </c>
-      <c r="E71" s="93">
+      <c r="J71" s="20">
+        <f>DEGREES(I71)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="108">
+        <f>COS(O65)*SIN(O66)</f>
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="N71" s="108">
+        <f>SIN(O64)*SIN(O65)*SIN(O66)+COS(O64)*COS(O66)</f>
         <v>1</v>
       </c>
+      <c r="O71" s="108">
+        <f>COS(O64)*SIN(O65)*SIN(O66)-SIN(O64)*COS(O66)</f>
+        <v>-1.83772268236293E-16</v>
+      </c>
+      <c r="P71" s="93">
+        <f>N65</f>
+        <v>2.45029690981724E-15</v>
+      </c>
+      <c r="Q71" s="76">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="R71" s="76">
+        <v>-1</v>
+      </c>
+      <c r="S71" s="76">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="T71" s="76">
+        <v>2.45029690981724E-15</v>
+      </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B72" s="108">
+        <f>-SIN(D65)</f>
+        <v>1</v>
+      </c>
+      <c r="C72" s="108">
+        <f>SIN(D64)*COS(D65)</f>
+        <v>-7.5049436828248946E-33</v>
+      </c>
+      <c r="D72" s="108">
+        <f>COS(D64)*COS(D65)</f>
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="E72" s="93">
+        <f>C66</f>
+        <v>400</v>
+      </c>
+      <c r="F72" s="90">
+        <f>IF(ABS(F71)=PI()/2,0,ATAN2(B70,B71))</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="7">
+        <f>DEGREES(F72)</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="91">
+        <f>F72</f>
+        <v>0</v>
+      </c>
+      <c r="I72" s="21">
+        <f>IF(H72&gt;PI(),H72-2*PI(),H72)</f>
+        <v>0</v>
+      </c>
+      <c r="J72" s="20">
+        <f>DEGREES(I72)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="108">
+        <f>-SIN(O65)</f>
+        <v>-6.1257422745430988E-17</v>
+      </c>
+      <c r="N72" s="108">
+        <f>SIN(O64)*COS(O65)</f>
+        <v>1.83772268236293E-16</v>
+      </c>
+      <c r="O72" s="108">
+        <f>COS(O64)*COS(O65)</f>
+        <v>1</v>
+      </c>
+      <c r="P72" s="93">
+        <f>N66</f>
+        <v>400</v>
+      </c>
+      <c r="Q72" s="76">
+        <v>1</v>
+      </c>
+      <c r="R72" s="76">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="S72" s="76">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="T72" s="76">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B73" s="93">
+        <v>0</v>
+      </c>
+      <c r="C73" s="93">
+        <v>0</v>
+      </c>
+      <c r="D73" s="93">
+        <v>0</v>
+      </c>
+      <c r="E73" s="93">
+        <v>1</v>
+      </c>
+      <c r="M73" s="93">
+        <v>0</v>
+      </c>
+      <c r="N73" s="93">
+        <v>0</v>
+      </c>
+      <c r="O73" s="93">
+        <v>0</v>
+      </c>
+      <c r="P73" s="93">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="76">
+        <v>0</v>
+      </c>
+      <c r="R73" s="76">
+        <v>0</v>
+      </c>
+      <c r="S73" s="76">
+        <v>0</v>
+      </c>
+      <c r="T73" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>32</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="F75">
+      <c r="B77" s="16"/>
+      <c r="F77">
         <v>0</v>
       </c>
-      <c r="I75" s="7">
-        <f t="array" ref="I75:L78">MMULT(B68:E71,F75:F78)</f>
+      <c r="I77" s="7">
+        <f t="array" ref="I77:L80">MMULT(B70:E73,F77:F80)</f>
         <v>200</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J77" s="7">
         <v>200</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K77" s="7">
         <v>200</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L77" s="7">
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F76">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F78">
         <v>0</v>
       </c>
-      <c r="I76" s="7">
-        <v>-1.3322676295501878E-14</v>
-      </c>
-      <c r="J76" s="7">
-        <v>-1.3322676295501878E-14</v>
-      </c>
-      <c r="K76" s="7">
-        <v>-1.3322676295501878E-14</v>
-      </c>
-      <c r="L76" s="7">
-        <v>-1.3322676295501878E-14</v>
+      <c r="I78" s="7">
+        <v>-1.470178145890344E-14</v>
+      </c>
+      <c r="J78" s="7">
+        <v>-1.470178145890344E-14</v>
+      </c>
+      <c r="K78" s="7">
+        <v>-1.470178145890344E-14</v>
+      </c>
+      <c r="L78" s="7">
+        <v>-1.470178145890344E-14</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F77">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F79">
         <f>-F48</f>
         <v>-140</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I79" s="7">
         <v>400</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J79" s="7">
         <v>400</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K79" s="7">
         <v>400</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L79" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F78">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F80">
         <v>1</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I80" s="7">
         <v>1</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J80" s="7">
         <v>1</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K80" s="7">
         <v>1</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L80" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>33</v>
       </c>
-      <c r="B80" s="17" t="s">
+      <c r="B82" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C82" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82" s="5"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="5"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -27007,271 +28139,261 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A86" s="15" t="s">
-        <v>37</v>
-      </c>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88" s="9"/>
+    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A88" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B89" s="76">
-        <f t="array" ref="B89:B92">L75:L78</f>
-        <v>200</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H89" s="21">
-        <f>ATAN2(B89,B90)</f>
-        <v>-6.661338147750939E-17</v>
-      </c>
-      <c r="I89" s="23">
-        <f>DEGREES(H89)</f>
-        <v>-3.8166656177562198E-15</v>
+      <c r="A89" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>30</v>
-      </c>
-      <c r="B90" s="60">
-        <v>-1.3322676295501878E-14</v>
-      </c>
-      <c r="H90" s="21">
-        <f>ATAN2(-B89,-B90)</f>
-        <v>3.1415926535897931</v>
-      </c>
-      <c r="I90" s="23">
-        <f>DEGREES(H90)</f>
-        <v>180</v>
-      </c>
+      <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="60">
-        <v>400</v>
-      </c>
-      <c r="E91" t="s">
-        <v>40</v>
-      </c>
-      <c r="G91" s="21">
-        <f>IF(B93=1,H89,H90)</f>
-        <v>-6.661338147750939E-17</v>
-      </c>
-      <c r="H91" s="23">
-        <f>DEGREES(G91)</f>
-        <v>-3.8166656177562198E-15</v>
-      </c>
-      <c r="I91" s="15" t="str">
-        <f>IF(ABS(H91-B15)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
+      <c r="B91" s="76">
+        <f t="array" ref="B91:B94">L77:L80</f>
+        <v>200</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H91" s="21">
+        <f>ATAN2(B91,B92)</f>
+        <v>-7.3508907294517201E-17</v>
+      </c>
+      <c r="I91" s="23">
+        <f>DEGREES(H91)</f>
+        <v>-4.2117501445942666E-15</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>1</v>
-      </c>
-      <c r="E92" t="s">
-        <v>41</v>
-      </c>
-      <c r="G92" s="21">
-        <f>IF(B93=-1,H89,H90)</f>
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="60">
+        <v>-1.470178145890344E-14</v>
+      </c>
+      <c r="H92" s="21">
+        <f>ATAN2(-B91,-B92)</f>
         <v>3.1415926535897931</v>
       </c>
-      <c r="H92" s="23">
-        <f>DEGREES(G92)</f>
+      <c r="I92" s="23">
+        <f>DEGREES(H92)</f>
         <v>180</v>
-      </c>
-      <c r="I92" s="15" t="str">
-        <f>IF(ABS(H92-B15)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>NOT OK!</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" s="60">
+        <v>400</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="21">
+        <f>IF(B95=1,H91,H92)</f>
+        <v>-7.3508907294517201E-17</v>
+      </c>
+      <c r="H93" s="23">
+        <f>DEGREES(G93)</f>
+        <v>-4.2117501445942666E-15</v>
+      </c>
+      <c r="I93" s="15" t="str">
+        <f>IF(ABS(H93-B15)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>41</v>
+      </c>
+      <c r="G94" s="21">
+        <f>IF(B95=-1,H91,H92)</f>
+        <v>3.1415926535897931</v>
+      </c>
+      <c r="H94" s="23">
+        <f>DEGREES(G94)</f>
+        <v>180</v>
+      </c>
+      <c r="I94" s="15" t="str">
+        <f>IF(ABS(H94-B15)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>NOT OK!</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>43</v>
       </c>
-      <c r="B93">
-        <f>SIGN(B89)</f>
+      <c r="B95">
+        <f>SIGN(B91)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A95" s="15" t="s">
+    <row r="97" spans="1:12" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A97" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A97" s="9" t="s">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="9" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="J102" t="s">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J104" t="s">
         <v>45</v>
       </c>
-      <c r="K102">
+      <c r="K104">
         <v>0</v>
       </c>
-      <c r="L102">
-        <f>E118*B93</f>
+      <c r="L104">
+        <f>E120*B95</f>
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K103">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K105">
         <v>0</v>
       </c>
-      <c r="L103" s="4">
-        <f>E116</f>
+      <c r="L105" s="4">
+        <f>E118</f>
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A115" s="15"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E116" s="19">
-        <f>B91-F23</f>
-        <v>300</v>
-      </c>
-      <c r="M116" s="90">
-        <f>ACOS((E123*E123-E122*E122-E121*E121)/(-2*E122*E121))</f>
-        <v>0.58800260354756739</v>
-      </c>
-      <c r="N116" s="20">
-        <f>DEGREES(M116)</f>
-        <v>33.690067525979778</v>
-      </c>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A117" s="15"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E118" s="4">
-        <f>SQRT(B89*B89+B90*B90)</f>
+      <c r="E118" s="19">
+        <f>B93-F23</f>
+        <v>300</v>
+      </c>
+      <c r="M118" s="90">
+        <f>ACOS((E125*E125-E124*E124-E123*E123)/(-2*E124*E123))</f>
+        <v>0.58800260354756739</v>
+      </c>
+      <c r="N118" s="20">
+        <f>DEGREES(M118)</f>
+        <v>33.690067525979778</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E120" s="4">
+        <f>SQRT(B91*B91+B92*B92)</f>
         <v>200</v>
       </c>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="M118" s="109">
-        <f>ACOS((E121*E121-E122*E122-E123*E123)/(-2*E122*E123))</f>
+      <c r="I120" s="19"/>
+      <c r="J120" s="19"/>
+      <c r="M120" s="109">
+        <f>ACOS((E123*E123-E124*E124-E125*E125)/(-2*E124*E125))</f>
         <v>1.5707963267948966</v>
       </c>
-      <c r="N118" s="22">
-        <f>DEGREES(M118)</f>
+      <c r="N120" s="22">
+        <f>DEGREES(M120)</f>
         <v>90</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E119" s="4"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="M119" s="21"/>
-      <c r="N119" s="22"/>
-    </row>
-    <row r="120" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M120" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q120" s="33" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B121" t="s">
-        <v>56</v>
-      </c>
-      <c r="E121" s="7">
-        <f>SQRT(E118*E118+E116*E116)</f>
-        <v>360.55512754639892</v>
-      </c>
-      <c r="L121" t="s">
-        <v>68</v>
-      </c>
-      <c r="M121" s="34">
-        <f>IF(B93=1,1,-1)</f>
-        <v>1</v>
-      </c>
-      <c r="N121" s="35"/>
-      <c r="O121" s="35"/>
-      <c r="P121" s="35"/>
-      <c r="Q121" s="35">
-        <f>IF(B93=1,-1,1)</f>
-        <v>-1</v>
-      </c>
-      <c r="R121" s="35"/>
-      <c r="S121" s="36"/>
+      <c r="E121" s="4"/>
+      <c r="I121" s="19"/>
+      <c r="J121" s="19"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="22"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B122" t="s">
-        <v>54</v>
-      </c>
-      <c r="E122" s="7">
-        <f>E28</f>
-        <v>300</v>
-      </c>
-      <c r="F122" s="5"/>
-      <c r="L122" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M122" s="113">
-        <f>ATAN2(M121*E118,E116)</f>
-        <v>0.98279372324732905</v>
-      </c>
-      <c r="N122" s="37">
-        <f>DEGREES(M122)</f>
-        <v>56.309932474020215</v>
-      </c>
-      <c r="O122" s="38"/>
-      <c r="P122" s="38"/>
-      <c r="Q122" s="39">
-        <f>ATAN2(Q121*E118,E116)</f>
-        <v>2.158798930342464</v>
-      </c>
-      <c r="R122" s="37">
-        <f>DEGREES(Q122)</f>
-        <v>123.69006752597979</v>
-      </c>
-      <c r="S122" s="40"/>
+    <row r="122" spans="1:19" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M122" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q122" s="33" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E123" s="7">
-        <f>F38</f>
-        <v>200</v>
-      </c>
-      <c r="M123" s="41"/>
-      <c r="N123" s="38"/>
-      <c r="O123" s="38"/>
-      <c r="P123" s="38"/>
-      <c r="Q123" s="38"/>
-      <c r="R123" s="38"/>
-      <c r="S123" s="40"/>
+        <f>SQRT(E120*E120+E118*E118)</f>
+        <v>360.55512754639892</v>
+      </c>
+      <c r="L123" t="s">
+        <v>68</v>
+      </c>
+      <c r="M123" s="34">
+        <f>IF(B95=1,1,-1)</f>
+        <v>1</v>
+      </c>
+      <c r="N123" s="35"/>
+      <c r="O123" s="35"/>
+      <c r="P123" s="35"/>
+      <c r="Q123" s="35">
+        <f>IF(B95=1,-1,1)</f>
+        <v>-1</v>
+      </c>
+      <c r="R123" s="35"/>
+      <c r="S123" s="36"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="G124" s="1"/>
-      <c r="K124" s="115"/>
-      <c r="M124" s="41"/>
-      <c r="N124" s="38"/>
+      <c r="B124" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="7">
+        <f>E28</f>
+        <v>300</v>
+      </c>
+      <c r="F124" s="5"/>
+      <c r="L124" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M124" s="113">
+        <f>ATAN2(M123*E120,E118)</f>
+        <v>0.98279372324732905</v>
+      </c>
+      <c r="N124" s="37">
+        <f>DEGREES(M124)</f>
+        <v>56.309932474020215</v>
+      </c>
       <c r="O124" s="38"/>
       <c r="P124" s="38"/>
-      <c r="Q124" s="38"/>
-      <c r="R124" s="38"/>
+      <c r="Q124" s="39">
+        <f>ATAN2(Q123*E120,E118)</f>
+        <v>2.158798930342464</v>
+      </c>
+      <c r="R124" s="37">
+        <f>DEGREES(Q124)</f>
+        <v>123.69006752597979</v>
+      </c>
       <c r="S124" s="40"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="F125" s="5"/>
-      <c r="G125" s="1"/>
+      <c r="B125" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="7">
+        <f>F38</f>
+        <v>200</v>
+      </c>
       <c r="M125" s="41"/>
       <c r="N125" s="38"/>
       <c r="O125" s="38"/>
@@ -27281,85 +28403,87 @@
       <c r="S125" s="40"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="E126" t="s">
-        <v>46</v>
-      </c>
       <c r="G126" s="1"/>
-      <c r="M126" s="114">
-        <f>PI()/2-(M122+M116)</f>
-        <v>0</v>
-      </c>
-      <c r="N126" s="43">
-        <f>DEGREES(M126)</f>
-        <v>0</v>
-      </c>
-      <c r="O126" s="44" t="str">
-        <f>IF(ABS(N126-B16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
+      <c r="K126" s="115"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="38"/>
+      <c r="O126" s="38"/>
       <c r="P126" s="38"/>
-      <c r="Q126" s="45">
-        <f>PI()/2-(Q122+M116)</f>
-        <v>-1.1760052070951348</v>
-      </c>
-      <c r="R126" s="43">
-        <f>DEGREES(Q126)</f>
-        <v>-67.380135051959556</v>
-      </c>
-      <c r="S126" s="46" t="str">
-        <f>IF(ABS(R126-H16)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
+      <c r="Q126" s="38"/>
+      <c r="R126" s="38"/>
+      <c r="S126" s="40"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F127" s="5"/>
       <c r="G127" s="1"/>
-      <c r="M127" s="42">
-        <f>PI()/2-M118</f>
-        <v>0</v>
-      </c>
-      <c r="N127" s="43">
-        <f>DEGREES(M127)</f>
-        <v>0</v>
-      </c>
-      <c r="O127" s="44" t="str">
-        <f>IF(ABS(N127-B17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
+      <c r="M127" s="41"/>
+      <c r="N127" s="38"/>
+      <c r="O127" s="38"/>
       <c r="P127" s="38"/>
-      <c r="Q127" s="45">
-        <f>PI()/2-M118</f>
-        <v>0</v>
-      </c>
-      <c r="R127" s="43">
-        <f>DEGREES(Q127)</f>
-        <v>0</v>
-      </c>
-      <c r="S127" s="46" t="str">
-        <f>IF(ABS(R127-H17)&lt; 0.001,"OK","NOT OK!")</f>
-        <v>OK</v>
-      </c>
+      <c r="Q127" s="38"/>
+      <c r="R127" s="38"/>
+      <c r="S127" s="40"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="M128" s="41"/>
-      <c r="N128" s="38"/>
-      <c r="O128" s="38"/>
+      <c r="E128" t="s">
+        <v>46</v>
+      </c>
+      <c r="G128" s="1"/>
+      <c r="M128" s="114">
+        <f>PI()/2-(M124+M118)</f>
+        <v>0</v>
+      </c>
+      <c r="N128" s="43">
+        <f>DEGREES(M128)</f>
+        <v>0</v>
+      </c>
+      <c r="O128" s="44" t="str">
+        <f>IF(ABS(N128-B16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>OK</v>
+      </c>
       <c r="P128" s="38"/>
-      <c r="Q128" s="38"/>
-      <c r="R128" s="38"/>
-      <c r="S128" s="40"/>
+      <c r="Q128" s="45">
+        <f>PI()/2-(Q124+M118)</f>
+        <v>-1.1760052070951348</v>
+      </c>
+      <c r="R128" s="43">
+        <f>DEGREES(Q128)</f>
+        <v>-67.380135051959556</v>
+      </c>
+      <c r="S128" s="46" t="str">
+        <f>IF(ABS(R128-H16)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M129" s="47"/>
-      <c r="N129" s="48"/>
-      <c r="O129" s="38"/>
+      <c r="G129" s="1"/>
+      <c r="M129" s="42">
+        <f>PI()/2-M120</f>
+        <v>0</v>
+      </c>
+      <c r="N129" s="43">
+        <f>DEGREES(M129)</f>
+        <v>0</v>
+      </c>
+      <c r="O129" s="44" t="str">
+        <f>IF(ABS(N129-B17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>OK</v>
+      </c>
       <c r="P129" s="38"/>
-      <c r="Q129" s="38"/>
-      <c r="R129" s="38"/>
-      <c r="S129" s="40"/>
+      <c r="Q129" s="45">
+        <f>PI()/2-M120</f>
+        <v>0</v>
+      </c>
+      <c r="R129" s="43">
+        <f>DEGREES(Q129)</f>
+        <v>0</v>
+      </c>
+      <c r="S129" s="46" t="str">
+        <f>IF(ABS(R129-H17)&lt; 0.001,"OK","NOT OK!")</f>
+        <v>OK</v>
+      </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="F130" s="9"/>
-      <c r="G130" s="1"/>
       <c r="M130" s="41"/>
       <c r="N130" s="38"/>
       <c r="O130" s="38"/>
@@ -27369,8 +28493,8 @@
       <c r="S130" s="40"/>
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="M131" s="41"/>
-      <c r="N131" s="38"/>
+      <c r="M131" s="47"/>
+      <c r="N131" s="48"/>
       <c r="O131" s="38"/>
       <c r="P131" s="38"/>
       <c r="Q131" s="38"/>
@@ -27378,433 +28502,453 @@
       <c r="S131" s="40"/>
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E132" t="s">
+      <c r="F132" s="9"/>
+      <c r="G132" s="1"/>
+      <c r="M132" s="41"/>
+      <c r="N132" s="38"/>
+      <c r="O132" s="38"/>
+      <c r="P132" s="38"/>
+      <c r="Q132" s="38"/>
+      <c r="R132" s="38"/>
+      <c r="S132" s="40"/>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M133" s="41"/>
+      <c r="N133" s="38"/>
+      <c r="O133" s="38"/>
+      <c r="P133" s="38"/>
+      <c r="Q133" s="38"/>
+      <c r="R133" s="38"/>
+      <c r="S133" s="40"/>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
         <v>47</v>
       </c>
-      <c r="M132" s="42">
-        <f>PI()/2-(M122-M116)</f>
+      <c r="M134" s="42">
+        <f>PI()/2-(M124-M118)</f>
         <v>1.1760052070951348</v>
       </c>
-      <c r="N132" s="43">
-        <f>DEGREES(M132)</f>
+      <c r="N134" s="43">
+        <f>DEGREES(M134)</f>
         <v>67.380135051959556</v>
       </c>
-      <c r="O132" s="44" t="str">
-        <f>IF(ABS(N132-B16)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="O134" s="44" t="str">
+        <f>IF(ABS(N134-B16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P132" s="38"/>
-      <c r="Q132" s="45">
-        <f>PI()/2-(Q122-M116)</f>
+      <c r="P134" s="38"/>
+      <c r="Q134" s="45">
+        <f>PI()/2-(Q124-M118)</f>
         <v>0</v>
       </c>
-      <c r="R132" s="43">
-        <f>DEGREES(Q132)</f>
+      <c r="R134" s="43">
+        <f>DEGREES(Q134)</f>
         <v>0</v>
       </c>
-      <c r="S132" s="46" t="str">
-        <f>IF(ABS(R132-H16)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="S134" s="46" t="str">
+        <f>IF(ABS(R134-H16)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
-    <row r="133" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="15"/>
-      <c r="M133" s="49">
-        <f>(M118- PI()*3/2)</f>
+    <row r="135" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="15"/>
+      <c r="M135" s="49">
+        <f>(M120- PI()*3/2)</f>
         <v>-3.1415926535897931</v>
       </c>
-      <c r="N133" s="50">
-        <f>DEGREES(M133)</f>
+      <c r="N135" s="50">
+        <f>DEGREES(M135)</f>
         <v>-180</v>
       </c>
-      <c r="O133" s="51" t="str">
-        <f>IF(ABS(N133-B17)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="O135" s="51" t="str">
+        <f>IF(ABS(N135-B17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
-      <c r="P133" s="52"/>
-      <c r="Q133" s="53">
-        <f>(M118- PI()*3/2)</f>
+      <c r="P135" s="52"/>
+      <c r="Q135" s="53">
+        <f>(M120- PI()*3/2)</f>
         <v>-3.1415926535897931</v>
       </c>
-      <c r="R133" s="50">
-        <f>DEGREES(Q133)</f>
+      <c r="R135" s="50">
+        <f>DEGREES(Q135)</f>
         <v>-180</v>
       </c>
-      <c r="S133" s="54" t="str">
-        <f>IF(ABS(R133-H17)&lt; 0.001,"OK","NOT OK!")</f>
+      <c r="S135" s="54" t="str">
+        <f>IF(ABS(R135-H17)&lt; 0.001,"OK","NOT OK!")</f>
         <v>NOT OK!</v>
       </c>
     </row>
-    <row r="135" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A135" s="15" t="s">
+    <row r="137" spans="1:21" ht="16.2" x14ac:dyDescent="0.35">
+      <c r="A137" s="15" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E136" s="58"/>
-      <c r="F136" s="58"/>
-      <c r="G136" s="58"/>
-      <c r="J136" t="s">
-        <v>51</v>
-      </c>
-      <c r="M136" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E137" s="58"/>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58"/>
-      <c r="H137" s="58"/>
-      <c r="I137" s="58"/>
-      <c r="J137" s="59">
-        <f t="array" ref="J137:L139">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>-5.2335956242943772E-2</v>
-      </c>
-      <c r="K137" s="59">
-        <v>-0.99862953475457383</v>
-      </c>
-      <c r="L137" s="59">
-        <v>-2.1005368562915366E-18</v>
-      </c>
-      <c r="M137" s="74">
-        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>-5.2335956242943772E-2</v>
-      </c>
-      <c r="N137" s="74">
-        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-0.99862953475457383</v>
-      </c>
-      <c r="O137" s="74">
-        <f>-COS(C18)*SIN(C19)</f>
-        <v>-2.1378532231078771E-18</v>
       </c>
     </row>
     <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="E138" s="58"/>
       <c r="F138" s="58"/>
       <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
-      <c r="I138" s="58"/>
-      <c r="J138" s="59">
-        <v>0.99802119662406841</v>
-      </c>
-      <c r="K138" s="59">
-        <v>-5.2304074592470787E-2</v>
-      </c>
-      <c r="L138" s="59">
-        <v>-3.4899496702500969E-2</v>
-      </c>
-      <c r="M138" s="74">
-        <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0.99802119662406841</v>
-      </c>
-      <c r="N138" s="74">
-        <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>-5.2304074592470787E-2</v>
-      </c>
-      <c r="O138" s="74">
-        <f>-SIN(C18)*SIN(C19)</f>
-        <v>-3.4899496702500969E-2</v>
+      <c r="J138" t="s">
+        <v>51</v>
+      </c>
+      <c r="M138" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E139" s="58"/>
+      <c r="F139" s="58"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="58"/>
       <c r="J139" s="59">
-        <v>3.4851668155187324E-2</v>
+        <f t="array" ref="J139:L141">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
+        <v>1</v>
       </c>
       <c r="K139" s="59">
-        <v>-1.8264985323228533E-3</v>
+        <v>0</v>
       </c>
       <c r="L139" s="59">
-        <v>0.99939082701909576</v>
+        <v>0</v>
       </c>
       <c r="M139" s="74">
+        <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
+        <v>1</v>
+      </c>
+      <c r="N139" s="74">
+        <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
+        <v>0</v>
+      </c>
+      <c r="O139" s="74">
+        <f>-COS(C18)*SIN(C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="58"/>
+      <c r="J140" s="59">
+        <v>0</v>
+      </c>
+      <c r="K140" s="59">
+        <v>1</v>
+      </c>
+      <c r="L140" s="59">
+        <v>0</v>
+      </c>
+      <c r="M140" s="74">
+        <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
+        <v>0</v>
+      </c>
+      <c r="N140" s="74">
+        <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
+        <v>1</v>
+      </c>
+      <c r="O140" s="74">
+        <f>-SIN(C18)*SIN(C19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="J141" s="59">
+        <v>0</v>
+      </c>
+      <c r="K141" s="59">
+        <v>0</v>
+      </c>
+      <c r="L141" s="59">
+        <v>1</v>
+      </c>
+      <c r="M141" s="74">
         <f>SIN(C19)*COS(C20)</f>
-        <v>3.4851668155187324E-2</v>
-      </c>
-      <c r="N139" s="74">
+        <v>0</v>
+      </c>
+      <c r="N141" s="74">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>-1.8264985323228533E-3</v>
-      </c>
-      <c r="O139" s="74">
+        <v>0</v>
+      </c>
+      <c r="O141" s="74">
         <f>COS(C19)</f>
-        <v>0.99939082701909576</v>
+        <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B142" s="65">
-        <f t="array" ref="B142:D144">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
+    <row r="143" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B144" s="65">
+        <f t="array" ref="B144:D146">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="C142" s="66">
+      <c r="C144" s="66">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="D142" s="67">
+      <c r="D144" s="67">
         <v>1</v>
       </c>
-      <c r="H142" s="65">
-        <f t="array" ref="H142:J144">TRANSPOSE(B142:D144)</f>
+      <c r="H144" s="65">
+        <f t="array" ref="H144:J146">TRANSPOSE(B144:D146)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="I142" s="66">
+      <c r="I144" s="66">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="J142" s="67">
+      <c r="J144" s="67">
         <v>1</v>
       </c>
-      <c r="M142" s="65">
-        <f t="array" ref="M142:O144">B68:D70</f>
-        <v>3.4851668155187435E-2</v>
-      </c>
-      <c r="N142" s="66">
-        <v>-1.8264985323227982E-3</v>
-      </c>
-      <c r="O142" s="67">
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="S142" s="99">
-        <f t="array" ref="S142:U144">MMULT(H142:J144,M142:O144)</f>
-        <v>-5.2335956242943779E-2</v>
-      </c>
-      <c r="T142" s="100">
-        <v>-0.99862953475457383</v>
-      </c>
-      <c r="U142" s="101">
-        <v>1.202557247320408E-16</v>
+      <c r="M144" s="65">
+        <f t="array" ref="M144:O146">B70:D72</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="N144" s="66">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="O144" s="67">
+        <v>1</v>
+      </c>
+      <c r="S144" s="99">
+        <f t="array" ref="S144:U146">MMULT(H144:J146,M144:O146)</f>
+        <v>1</v>
+      </c>
+      <c r="T144" s="100">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="U144" s="101">
+        <v>-1.2325951644078309E-32</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B143" s="68">
+    <row r="145" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B145" s="68">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="C143" s="69">
+      <c r="C145" s="69">
         <v>-1</v>
       </c>
-      <c r="D143" s="70">
+      <c r="D145" s="70">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="H143" s="68">
+      <c r="H145" s="68">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="I143" s="69">
+      <c r="I145" s="69">
         <v>-1</v>
       </c>
-      <c r="J143" s="70">
+      <c r="J145" s="70">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="M143" s="68">
-        <v>-0.99802119662406841</v>
-      </c>
-      <c r="N143" s="69">
-        <v>5.2304074592470856E-2</v>
-      </c>
-      <c r="O143" s="70">
-        <v>3.489949670250108E-2</v>
-      </c>
-      <c r="S143" s="102">
-        <v>0.99802119662406841</v>
-      </c>
-      <c r="T143" s="103">
-        <v>-5.2304074592470794E-2</v>
-      </c>
-      <c r="U143" s="104">
-        <v>-3.4899496702501018E-2</v>
+      <c r="M145" s="68">
+        <v>0</v>
+      </c>
+      <c r="N145" s="69">
+        <v>-1</v>
+      </c>
+      <c r="O145" s="70">
+        <v>1.22514845490862E-16</v>
+      </c>
+      <c r="S145" s="102">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="T145" s="103">
+        <v>1</v>
+      </c>
+      <c r="U145" s="104">
+        <v>-6.1257422745431001E-17</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="71">
+    <row r="146" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="71">
         <v>1</v>
       </c>
-      <c r="C144" s="72">
+      <c r="C146" s="72">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="D144" s="73">
+      <c r="D146" s="73">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="H144" s="71">
+      <c r="H146" s="71">
         <v>1</v>
       </c>
-      <c r="I144" s="72">
+      <c r="I146" s="72">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="J144" s="73">
+      <c r="J146" s="73">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="M144" s="71">
-        <v>-5.2335956242943842E-2</v>
-      </c>
-      <c r="N144" s="72">
-        <v>-0.99862953475457383</v>
-      </c>
-      <c r="O144" s="73">
-        <v>6.1173471576534015E-17</v>
-      </c>
-      <c r="S144" s="105">
-        <v>3.4851668155187372E-2</v>
-      </c>
-      <c r="T144" s="106">
-        <v>-1.8264985323227338E-3</v>
-      </c>
-      <c r="U144" s="107">
-        <v>0.99939082701909576</v>
+      <c r="M146" s="71">
+        <v>1</v>
+      </c>
+      <c r="N146" s="72">
+        <v>-7.5049436828248946E-33</v>
+      </c>
+      <c r="O146" s="73">
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="S146" s="105">
+        <v>0</v>
+      </c>
+      <c r="T146" s="106">
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="U146" s="107">
+        <v>1</v>
       </c>
     </row>
-    <row r="148" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D148" s="76">
-        <f>U144</f>
-        <v>0.99939082701909576</v>
-      </c>
-      <c r="E148" s="5"/>
-      <c r="G148" s="80">
-        <f>IF(ABS(D148)=1,0,ACOS(D148))</f>
-        <v>3.4906585039885529E-2</v>
-      </c>
-      <c r="H148" s="81">
-        <f>DEGREES(G148)</f>
-        <v>1.9999999999999392</v>
-      </c>
-      <c r="J148" s="80">
-        <f>IF(SIN(G148)=0,ATAN2(D152,-D150),ATAN2(D152/SIN(G148),-D150/SIN(G148)))</f>
-        <v>5.2359877559826407E-2</v>
-      </c>
-      <c r="K148" s="81">
-        <f>DEGREES(J148)</f>
-        <v>2.9999999999998006</v>
-      </c>
-      <c r="N148" s="2">
-        <f>IF(SIN(G148)=0,-ATAN2(-D156,D154),-ATAN2(-D156/SIN(G148),D154/SIN(G148)))</f>
-        <v>1.5707963267948999</v>
-      </c>
-      <c r="O148" s="81">
-        <f>DEGREES(N148)</f>
-        <v>90.000000000000185</v>
+    <row r="150" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D150" s="76">
+        <f>U146</f>
+        <v>1</v>
+      </c>
+      <c r="E150" s="5"/>
+      <c r="G150" s="80">
+        <f>IF(ABS(D150)=1,0,ACOS(D150))</f>
+        <v>0</v>
+      </c>
+      <c r="H150" s="81">
+        <f>DEGREES(G150)</f>
+        <v>0</v>
+      </c>
+      <c r="J150" s="80">
+        <f>IF(SIN(G150)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G150),-D152/SIN(G150)))</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="K150" s="81">
+        <f>DEGREES(J150)</f>
+        <v>-90</v>
+      </c>
+      <c r="N150" s="2">
+        <f>IF(SIN(G150)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G150),D156/SIN(G150)))</f>
+        <v>1.5707963267948963</v>
+      </c>
+      <c r="O150" s="81">
+        <f>DEGREES(N150)</f>
+        <v>89.999999999999986</v>
       </c>
     </row>
-    <row r="149" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G149" s="80">
-        <f>IF(ABS(D148)=1,0,-ACOS(D148))</f>
-        <v>-3.4906585039885529E-2</v>
-      </c>
-      <c r="H149" s="81">
-        <f>DEGREES(G149)</f>
-        <v>-1.9999999999999392</v>
-      </c>
-      <c r="J149" s="80">
-        <f>IF(SIN(G149)=0,ATAN2(D152,-D150),ATAN2(D152/SIN(G149),-D150/SIN(G149)))</f>
-        <v>-3.0892327760299665</v>
-      </c>
-      <c r="K149" s="81">
-        <f>DEGREES(J149)</f>
-        <v>-177.0000000000002</v>
-      </c>
-      <c r="N149" s="2">
-        <f>IF(SIN(G149)=0,-ATAN2(-D156,D154),-ATAN2(-D156/SIN(G149),D154/SIN(G149)))</f>
-        <v>-1.5707963267948932</v>
-      </c>
-      <c r="O149" s="81">
-        <f>DEGREES(N149)</f>
-        <v>-89.999999999999815</v>
+    <row r="151" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G151" s="80">
+        <f>IF(ABS(D150)=1,0,-ACOS(D150))</f>
+        <v>0</v>
+      </c>
+      <c r="H151" s="81">
+        <f>DEGREES(G151)</f>
+        <v>0</v>
+      </c>
+      <c r="J151" s="80">
+        <f>IF(SIN(G151)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G151),-D152/SIN(G151)))</f>
+        <v>-1.5707963267948966</v>
+      </c>
+      <c r="K151" s="81">
+        <f>DEGREES(J151)</f>
+        <v>-90</v>
+      </c>
+      <c r="N151" s="2">
+        <f>IF(SIN(G151)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G151),D156/SIN(G151)))</f>
+        <v>1.5707963267948963</v>
+      </c>
+      <c r="O151" s="81">
+        <f>DEGREES(N151)</f>
+        <v>89.999999999999986</v>
       </c>
     </row>
-    <row r="150" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D150" s="75">
-        <f>T144</f>
-        <v>-1.8264985323227338E-3</v>
-      </c>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="94"/>
-      <c r="K150" s="81"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="92"/>
-      <c r="O150" s="81"/>
-    </row>
-    <row r="151" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="80"/>
-      <c r="K151" s="81"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="92"/>
-      <c r="O151" s="81"/>
-    </row>
-    <row r="152" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D152" s="58">
-        <f>S144</f>
-        <v>3.4851668155187372E-2</v>
-      </c>
+    <row r="152" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D152" s="75">
+        <f>T146</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
+      <c r="J152" s="94"/>
       <c r="K152" s="81"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-      <c r="N152" s="82"/>
+      <c r="N152" s="92"/>
       <c r="O152" s="81"/>
     </row>
-    <row r="153" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
+      <c r="J153" s="80"/>
       <c r="K153" s="81"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
+      <c r="N153" s="92"/>
+      <c r="O153" s="81"/>
     </row>
-    <row r="154" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D154" s="58">
-        <f>U143</f>
-        <v>-3.4899496702501018E-2</v>
-      </c>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
+        <f>S146</f>
+        <v>0</v>
+      </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
+      <c r="K154" s="81"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
+      <c r="N154" s="82"/>
+      <c r="O154" s="81"/>
     </row>
-    <row r="155" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
+    <row r="155" spans="2:21" x14ac:dyDescent="0.3">
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
+      <c r="K155" s="81"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
     </row>
-    <row r="156" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D156" s="76">
-        <f>U142</f>
-        <v>1.202557247320408E-16</v>
-      </c>
+    <row r="156" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D156" s="58">
+        <f>U145</f>
+        <v>-6.1257422745431001E-17</v>
+      </c>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
-      <c r="K156" s="81"/>
+      <c r="K156" s="2"/>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="82"/>
-      <c r="O156" s="81"/>
+      <c r="N156" s="2"/>
+      <c r="O156" s="2"/>
     </row>
-    <row r="157" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="G157" s="2"/>
+      <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
-      <c r="K157" s="81"/>
+      <c r="K157" s="2"/>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
     </row>
-    <row r="158" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D158" t="s">
+    <row r="158" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D158" s="76">
+        <f>U144</f>
+        <v>-1.2325951644078309E-32</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="81"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="82"/>
+      <c r="O158" s="81"/>
+    </row>
+    <row r="159" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="81"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+    </row>
+    <row r="160" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
         <v>59</v>
       </c>
     </row>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -843,7 +843,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="20">
+  <numFmts count="22">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -864,6 +864,8 @@
     <numFmt numFmtId="180" formatCode="0.000000\ &quot;RAD&quot;"/>
     <numFmt numFmtId="181" formatCode="0.000000000000000000"/>
     <numFmt numFmtId="182" formatCode="0.00\ &quot;°&quot;"/>
+    <numFmt numFmtId="185" formatCode="0.000000000"/>
+    <numFmt numFmtId="186" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1134,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1220,7 +1222,6 @@
     <xf numFmtId="173" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1244,15 +1245,6 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1270,6 +1262,17 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1389,7 +1392,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.470178145890344E-14</c:v>
+                  <c:v>-1.041376186672327E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1404,11 +1407,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152384256"/>
-        <c:axId val="152386176"/>
+        <c:axId val="229653504"/>
+        <c:axId val="229663872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152384256"/>
+        <c:axId val="229653504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1446,13 +1449,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152386176"/>
+        <c:crossAx val="229663872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152386176"/>
+        <c:axId val="229663872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1491,7 +1494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152384256"/>
+        <c:crossAx val="229653504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1587,11 +1590,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="152410752"/>
-        <c:axId val="152703360"/>
+        <c:axId val="229692544"/>
+        <c:axId val="229694080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="152410752"/>
+        <c:axId val="229692544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1603,13 +1606,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152703360"/>
+        <c:crossAx val="229694080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="152703360"/>
+        <c:axId val="229694080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1622,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152410752"/>
+        <c:crossAx val="229692544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -23565,8 +23568,8 @@
       <xdr:rowOff>78760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="736292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -24157,7 +24160,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -24319,8 +24322,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="Textfeld 51"/>
@@ -24442,7 +24445,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="Textfeld 51"/>
@@ -24509,8 +24512,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="Textfeld 62"/>
@@ -24632,7 +24635,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="63" name="Textfeld 62"/>
@@ -24699,8 +24702,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="Textfeld 65"/>
@@ -24822,7 +24825,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="66" name="Textfeld 65"/>
@@ -24889,8 +24892,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="67" name="Textfeld 66"/>
@@ -25012,7 +25015,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="67" name="Textfeld 66"/>
@@ -25079,8 +25082,8 @@
       <xdr:rowOff>127746</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="914400" cy="270843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="Textfeld 69"/>
@@ -25202,7 +25205,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="70" name="Textfeld 69"/>
@@ -25907,7 +25910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
@@ -25931,7 +25934,7 @@
     <col min="17" max="17" width="11.44140625" customWidth="1"/>
     <col min="18" max="18" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.77734375" customWidth="1"/>
-    <col min="20" max="20" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.21875" customWidth="1"/>
     <col min="22" max="22" width="12" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15.44140625" customWidth="1"/>
@@ -25956,7 +25959,7 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="56">
         <f>B92</f>
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25970,43 +25973,43 @@
       <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="100">
         <f>V48</f>
         <v>340</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="76">
         <f>X48</f>
-        <v>-180</v>
-      </c>
-      <c r="I8" s="77">
+        <v>-90</v>
+      </c>
+      <c r="I8" s="76">
         <f t="array" ref="I8:I10">X53:X55</f>
-        <v>1.0529375361485666E-14</v>
+        <v>60.000000000000007</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G9" s="111">
+      <c r="G9" s="101">
         <f>V49</f>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="H9" s="78">
+      <c r="H9" s="77">
         <f>X49</f>
-        <v>-90</v>
-      </c>
-      <c r="I9" s="77">
-        <v>3.5097917871618878E-15</v>
+        <v>-30.000000000000011</v>
+      </c>
+      <c r="I9" s="76">
+        <v>4.7022293748570756E-16</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G10" s="112">
+      <c r="G10" s="102">
         <f>V50</f>
         <v>400</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="78">
         <f>X50</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="77">
-        <v>7.0195835743237771E-15</v>
+        <v>-90</v>
+      </c>
+      <c r="I10" s="76">
+        <v>5.2646876807428328E-15</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -26044,7 +26047,7 @@
       </c>
       <c r="E15" s="20">
         <f>H93</f>
-        <v>-4.2117501445942666E-15</v>
+        <v>-2.9833230190876054E-15</v>
       </c>
       <c r="I15" s="20">
         <f>H94</f>
@@ -26065,19 +26068,19 @@
         <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="116">
+      <c r="D16" s="106">
         <f>N128</f>
         <v>0</v>
       </c>
-      <c r="E16" s="116">
+      <c r="E16" s="106">
         <f>N134</f>
         <v>67.380135051959556</v>
       </c>
-      <c r="H16" s="116">
+      <c r="H16" s="106">
         <f>R128</f>
         <v>-67.380135051959556</v>
       </c>
-      <c r="I16" s="116">
+      <c r="I16" s="106">
         <f>R134</f>
         <v>0</v>
       </c>
@@ -26096,19 +26099,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D17" s="117">
+      <c r="D17" s="107">
         <f>N129</f>
         <v>0</v>
       </c>
-      <c r="E17" s="117">
+      <c r="E17" s="107">
         <f>N135</f>
         <v>-180</v>
       </c>
-      <c r="H17" s="117">
+      <c r="H17" s="107">
         <f>R129</f>
         <v>0</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="107">
         <f>R135</f>
         <v>-180</v>
       </c>
@@ -26127,13 +26130,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="118">
+      <c r="F18" s="108">
         <f>O150</f>
-        <v>89.999999999999986</v>
-      </c>
-      <c r="G18" s="119">
+        <v>165</v>
+      </c>
+      <c r="G18" s="109">
         <f>O151</f>
-        <v>89.999999999999986</v>
+        <v>165</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -26151,11 +26154,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="120">
+      <c r="F19" s="110">
         <f>H150</f>
         <v>0</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G19" s="111">
         <f>H151</f>
         <v>0</v>
       </c>
@@ -26168,19 +26171,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="32">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C20" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="122">
+        <v>1.0471975511965976</v>
+      </c>
+      <c r="F20" s="112">
         <f>K150</f>
-        <v>-90</v>
-      </c>
-      <c r="G20" s="123">
+        <v>-105</v>
+      </c>
+      <c r="G20" s="113">
         <f>K151</f>
-        <v>-90</v>
+        <v>-105</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -26249,7 +26252,7 @@
         <f>RADIANS(G23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="85">
+      <c r="N23" s="84">
         <f>COS(H23)</f>
         <v>1</v>
       </c>
@@ -26261,21 +26264,21 @@
         <f>SIN(H23)*SIN(D23)</f>
         <v>0</v>
       </c>
-      <c r="Q23" s="86">
+      <c r="Q23" s="85">
         <f>E23*COS(H23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="87">
+      <c r="R23" s="86">
         <f t="array" ref="R23:U26">N23:Q26</f>
         <v>1</v>
       </c>
-      <c r="S23" s="88">
+      <c r="S23" s="87">
         <v>0</v>
       </c>
-      <c r="T23" s="88">
+      <c r="T23" s="87">
         <v>0</v>
       </c>
-      <c r="U23" s="89">
+      <c r="U23" s="88">
         <v>0</v>
       </c>
       <c r="V23" s="18">
@@ -26292,7 +26295,7 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N24" s="85">
+      <c r="N24" s="84">
         <f>SIN(H23)</f>
         <v>0</v>
       </c>
@@ -26304,20 +26307,20 @@
         <f>-COS(H23)*SIN(D23)</f>
         <v>1</v>
       </c>
-      <c r="Q24" s="86">
+      <c r="Q24" s="85">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
-      <c r="R24" s="87">
+      <c r="R24" s="86">
         <v>0</v>
       </c>
-      <c r="S24" s="88">
+      <c r="S24" s="87">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="T24" s="88">
+      <c r="T24" s="87">
         <v>1</v>
       </c>
-      <c r="U24" s="89">
+      <c r="U24" s="88">
         <v>0</v>
       </c>
       <c r="V24" s="18">
@@ -26334,7 +26337,7 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N25" s="85">
+      <c r="N25" s="84">
         <v>0</v>
       </c>
       <c r="O25" s="69">
@@ -26345,20 +26348,20 @@
         <f>COS(D23)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q25" s="86">
+      <c r="Q25" s="85">
         <f>F23</f>
         <v>100</v>
       </c>
-      <c r="R25" s="87">
+      <c r="R25" s="86">
         <v>0</v>
       </c>
-      <c r="S25" s="88">
+      <c r="S25" s="87">
         <v>-1</v>
       </c>
-      <c r="T25" s="88">
+      <c r="T25" s="87">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U25" s="89">
+      <c r="U25" s="88">
         <v>100</v>
       </c>
       <c r="V25" s="18">
@@ -26375,7 +26378,7 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N26" s="85">
+      <c r="N26" s="84">
         <v>0</v>
       </c>
       <c r="O26" s="69">
@@ -26384,19 +26387,19 @@
       <c r="P26" s="69">
         <v>0</v>
       </c>
-      <c r="Q26" s="86">
+      <c r="Q26" s="85">
         <v>1</v>
       </c>
-      <c r="R26" s="87">
+      <c r="R26" s="86">
         <v>0</v>
       </c>
-      <c r="S26" s="88">
+      <c r="S26" s="87">
         <v>0</v>
       </c>
-      <c r="T26" s="88">
+      <c r="T26" s="87">
         <v>0</v>
       </c>
-      <c r="U26" s="89">
+      <c r="U26" s="88">
         <v>1</v>
       </c>
       <c r="V26" s="18">
@@ -26433,7 +26436,7 @@
         <f>RADIANS(G28)</f>
         <v>-1.5707963267948966</v>
       </c>
-      <c r="N28" s="83">
+      <c r="N28" s="82">
         <f>COS(H28)</f>
         <v>6.1257422745431001E-17</v>
       </c>
@@ -26445,21 +26448,21 @@
         <f>SIN(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="84">
+      <c r="Q28" s="83">
         <f>E28*COS(H28)</f>
         <v>1.83772268236293E-14</v>
       </c>
-      <c r="R28" s="87">
+      <c r="R28" s="86">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="S28" s="88">
+      <c r="S28" s="87">
         <v>1</v>
       </c>
-      <c r="T28" s="88">
+      <c r="T28" s="87">
         <v>0</v>
       </c>
-      <c r="U28" s="89">
+      <c r="U28" s="88">
         <v>1.83772268236293E-14</v>
       </c>
       <c r="V28" s="18">
@@ -26476,7 +26479,7 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N29" s="83">
+      <c r="N29" s="82">
         <f>SIN(H28)</f>
         <v>-1</v>
       </c>
@@ -26488,20 +26491,20 @@
         <f>-COS(H28)*SIN(D28)</f>
         <v>0</v>
       </c>
-      <c r="Q29" s="84">
+      <c r="Q29" s="83">
         <f>E28*SIN(H28)</f>
         <v>-300</v>
       </c>
-      <c r="R29" s="87">
+      <c r="R29" s="86">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="S29" s="88">
+      <c r="S29" s="87">
         <v>3.7524718414124473E-33</v>
       </c>
-      <c r="T29" s="88">
+      <c r="T29" s="87">
         <v>1</v>
       </c>
-      <c r="U29" s="89">
+      <c r="U29" s="88">
         <v>-1.83772268236293E-14</v>
       </c>
       <c r="V29" s="18">
@@ -26518,7 +26521,7 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N30" s="83">
+      <c r="N30" s="82">
         <v>0</v>
       </c>
       <c r="O30" s="61">
@@ -26529,20 +26532,20 @@
         <f>COS(D28)</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="84">
+      <c r="Q30" s="83">
         <f>F28</f>
         <v>0</v>
       </c>
-      <c r="R30" s="87">
+      <c r="R30" s="86">
         <v>1</v>
       </c>
-      <c r="S30" s="88">
+      <c r="S30" s="87">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="T30" s="88">
+      <c r="T30" s="87">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U30" s="89">
+      <c r="U30" s="88">
         <v>400</v>
       </c>
       <c r="V30" s="18">
@@ -26559,7 +26562,7 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="N31" s="83">
+      <c r="N31" s="82">
         <v>0</v>
       </c>
       <c r="O31" s="61">
@@ -26568,19 +26571,19 @@
       <c r="P31" s="61">
         <v>0</v>
       </c>
-      <c r="Q31" s="84">
+      <c r="Q31" s="83">
         <v>1</v>
       </c>
-      <c r="R31" s="87">
+      <c r="R31" s="86">
         <v>0</v>
       </c>
-      <c r="S31" s="88">
+      <c r="S31" s="87">
         <v>0</v>
       </c>
-      <c r="T31" s="88">
+      <c r="T31" s="87">
         <v>0</v>
       </c>
-      <c r="U31" s="89">
+      <c r="U31" s="88">
         <v>1</v>
       </c>
       <c r="V31" s="18">
@@ -26617,7 +26620,7 @@
         <f>RADIANS(G33)</f>
         <v>0</v>
       </c>
-      <c r="N33" s="85">
+      <c r="N33" s="84">
         <f>COS(H33)</f>
         <v>1</v>
       </c>
@@ -26629,7 +26632,7 @@
         <f>SIN(H33)*SIN(D33)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="86">
+      <c r="Q33" s="85">
         <f>E33*COS(H33)</f>
         <v>0</v>
       </c>
@@ -26660,7 +26663,7 @@
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N34" s="85">
+      <c r="N34" s="84">
         <f>SIN(H33)</f>
         <v>0</v>
       </c>
@@ -26672,7 +26675,7 @@
         <f>-COS(H33)*SIN(D33)</f>
         <v>1</v>
       </c>
-      <c r="Q34" s="86">
+      <c r="Q34" s="85">
         <f>E33*SIN(H33)</f>
         <v>0</v>
       </c>
@@ -26702,7 +26705,7 @@
       </c>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N35" s="85">
+      <c r="N35" s="84">
         <v>0</v>
       </c>
       <c r="O35" s="69">
@@ -26713,7 +26716,7 @@
         <f>COS(D33)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="Q35" s="86">
+      <c r="Q35" s="85">
         <f>F33</f>
         <v>0</v>
       </c>
@@ -26743,7 +26746,7 @@
       </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="N36" s="85">
+      <c r="N36" s="84">
         <v>0</v>
       </c>
       <c r="O36" s="69">
@@ -26752,7 +26755,7 @@
       <c r="P36" s="69">
         <v>0</v>
       </c>
-      <c r="Q36" s="86">
+      <c r="Q36" s="85">
         <v>1</v>
       </c>
       <c r="R36" s="62">
@@ -26976,7 +26979,7 @@
       <c r="F43">
         <v>0</v>
       </c>
-      <c r="G43" s="98">
+      <c r="G43" s="97">
         <f>B19</f>
         <v>0</v>
       </c>
@@ -27158,21 +27161,21 @@
       <c r="F48">
         <v>140</v>
       </c>
-      <c r="G48" s="97">
+      <c r="G48" s="96">
         <f>B20</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>0</v>
+        <v>1.0471975511965976</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>0</v>
+        <v>-0.8660254037844386</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -27182,30 +27185,30 @@
         <f>E48*COS(H48)</f>
         <v>0</v>
       </c>
-      <c r="R48" s="95">
+      <c r="R48" s="94">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="S48" s="96">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="T48" s="96">
+        <v>8.367919564062145E-17</v>
+      </c>
+      <c r="S48" s="95">
+        <v>-2.2421772895190431E-17</v>
+      </c>
+      <c r="T48" s="95">
         <v>1</v>
       </c>
-      <c r="U48" s="89">
+      <c r="U48" s="88">
         <v>340</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
         <v>340</v>
       </c>
-      <c r="W48" s="90">
+      <c r="W48" s="89">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-3.1415926535897931</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-180</v>
+        <v>-90</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>76</v>
@@ -27217,11 +27220,11 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -27231,29 +27234,29 @@
         <f>E48*SIN(H48)</f>
         <v>0</v>
       </c>
-      <c r="R49" s="95">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="S49" s="96">
-        <v>-1</v>
-      </c>
-      <c r="T49" s="96">
+      <c r="R49" s="94">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="S49" s="95">
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="T49" s="95">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="U49" s="89">
+      <c r="U49" s="88">
         <v>2.45029690981724E-15</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="W49" s="90">
+      <c r="W49" s="89">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-1.5707963267948966</v>
+        <v>-0.52359877559829904</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-90</v>
+        <v>-30.000000000000011</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -27278,29 +27281,29 @@
         <f>F48</f>
         <v>140</v>
       </c>
-      <c r="R50" s="95">
-        <v>1</v>
-      </c>
-      <c r="S50" s="96">
+      <c r="R50" s="94">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="S50" s="95">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="T50" s="95">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="T50" s="96">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="U50" s="89">
+      <c r="U50" s="88">
         <v>400</v>
       </c>
       <c r="V50" s="18">
         <f>$V$17*R50+$V$19*S50+$V$18*T50+$V$20*U50</f>
         <v>400</v>
       </c>
-      <c r="W50" s="90">
+      <c r="W50" s="89">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>71</v>
@@ -27322,16 +27325,16 @@
       <c r="Q51" s="13">
         <v>1</v>
       </c>
-      <c r="R51" s="95">
+      <c r="R51" s="94">
         <v>0</v>
       </c>
-      <c r="S51" s="96">
+      <c r="S51" s="95">
         <v>0</v>
       </c>
-      <c r="T51" s="96">
+      <c r="T51" s="95">
         <v>0</v>
       </c>
-      <c r="U51" s="89">
+      <c r="U51" s="88">
         <v>1</v>
       </c>
       <c r="V51" s="18">
@@ -27363,10 +27366,10 @@
       <c r="O52" s="12"/>
       <c r="P52" s="12"/>
       <c r="Q52" s="12"/>
-      <c r="R52" s="88"/>
-      <c r="S52" s="88"/>
-      <c r="T52" s="88"/>
-      <c r="U52" s="88"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
       <c r="V52" s="18"/>
       <c r="W52" s="8"/>
     </row>
@@ -27407,30 +27410,30 @@
       <c r="Q53" s="13">
         <v>0</v>
       </c>
-      <c r="R53" s="95">
+      <c r="R53" s="94">
         <f t="array" ref="R53:U56">MMULT(R48:U51,N53:Q56)</f>
         <v>1</v>
       </c>
-      <c r="S53" s="96">
-        <v>-1.22514845490862E-16</v>
-      </c>
-      <c r="T53" s="96">
-        <v>6.1257422745431013E-17</v>
-      </c>
-      <c r="U53" s="89">
+      <c r="S53" s="95">
+        <v>-3.8835649850240563E-17</v>
+      </c>
+      <c r="T53" s="95">
+        <v>8.367919564062145E-17</v>
+      </c>
+      <c r="U53" s="88">
         <v>340</v>
       </c>
       <c r="V53" s="18">
         <f>$V$17*R53+$V$18*S53+$V$19*T53+$V$20*U53</f>
         <v>340</v>
       </c>
-      <c r="W53" s="90">
+      <c r="W53" s="89">
         <f>IF(W54=PI()/2,ATAN2(S54,S53),IF(-W54=PI()/2,-ATAN2(S54,S53),ATAN2(T55,S55)))</f>
-        <v>1.83772268236293E-16</v>
+        <v>1.0471975511965979</v>
       </c>
       <c r="X53" s="20">
         <f>DEGREES(W53)</f>
-        <v>1.0529375361485666E-14</v>
+        <v>60.000000000000007</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>76</v>
@@ -27455,29 +27458,29 @@
       <c r="Q54" s="13">
         <v>0</v>
       </c>
-      <c r="R54" s="95">
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="S54" s="96">
-        <v>1</v>
-      </c>
-      <c r="T54" s="96">
-        <v>-1.83772268236293E-16</v>
-      </c>
-      <c r="U54" s="89">
+      <c r="R54" s="94">
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="S54" s="95">
+        <v>0.5</v>
+      </c>
+      <c r="T54" s="95">
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="U54" s="88">
         <v>2.45029690981724E-15</v>
       </c>
       <c r="V54" s="18">
         <f>$V$17*R54+$V$19*S54+$V$18*T54+$V$20*U54</f>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="W54" s="90">
+      <c r="W54" s="89">
         <f>ATAN2(SQRT(R53^2+R54^2),-R55)</f>
-        <v>6.1257422745430988E-17</v>
+        <v>8.2069384775250627E-18</v>
       </c>
       <c r="X54" s="20">
         <f>DEGREES(W54)</f>
-        <v>3.5097917871618878E-15</v>
+        <v>4.7022293748570756E-16</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>73</v>
@@ -27502,29 +27505,29 @@
       <c r="Q55" s="13">
         <v>0</v>
       </c>
-      <c r="R55" s="95">
-        <v>-6.1257422745430988E-17</v>
-      </c>
-      <c r="S55" s="96">
-        <v>1.83772268236293E-16</v>
-      </c>
-      <c r="T55" s="96">
-        <v>1</v>
-      </c>
-      <c r="U55" s="89">
+      <c r="R55" s="94">
+        <v>-8.2069384775250627E-18</v>
+      </c>
+      <c r="S55" s="95">
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="T55" s="95">
+        <v>0.5</v>
+      </c>
+      <c r="U55" s="88">
         <v>400</v>
       </c>
       <c r="V55" s="18">
         <f>$V$17*R55+$V$19*S55+$V$18*T55+$V$20*U55</f>
         <v>400</v>
       </c>
-      <c r="W55" s="90">
+      <c r="W55" s="89">
         <f>IF(ABS(W54)=PI()/2,0,ATAN2(R53,R54))</f>
-        <v>1.22514845490862E-16</v>
+        <v>9.1886134118146501E-17</v>
       </c>
       <c r="X55" s="20">
         <f>DEGREES(W55)</f>
-        <v>7.0195835743237771E-15</v>
+        <v>5.2646876807428328E-15</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>71</v>
@@ -27546,16 +27549,16 @@
       <c r="Q56" s="13">
         <v>1</v>
       </c>
-      <c r="R56" s="95">
+      <c r="R56" s="94">
         <v>0</v>
       </c>
-      <c r="S56" s="96">
+      <c r="S56" s="95">
         <v>0</v>
       </c>
-      <c r="T56" s="96">
+      <c r="T56" s="95">
         <v>0</v>
       </c>
-      <c r="U56" s="89">
+      <c r="U56" s="88">
         <v>1</v>
       </c>
       <c r="V56" s="18">
@@ -27569,10 +27572,10 @@
       <c r="O57" s="12"/>
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
-      <c r="R57" s="96"/>
-      <c r="S57" s="96"/>
-      <c r="T57" s="96"/>
-      <c r="U57" s="88"/>
+      <c r="R57" s="95"/>
+      <c r="S57" s="95"/>
+      <c r="T57" s="95"/>
+      <c r="U57" s="87"/>
       <c r="V57" s="18"/>
       <c r="W57" s="8"/>
     </row>
@@ -27587,13 +27590,13 @@
       <c r="P58" s="12">
         <v>1</v>
       </c>
-      <c r="Q58" s="124">
+      <c r="Q58" s="114">
         <v>0</v>
       </c>
-      <c r="R58" s="88"/>
-      <c r="S58" s="88"/>
-      <c r="T58" s="88"/>
-      <c r="U58" s="88"/>
+      <c r="R58" s="87"/>
+      <c r="S58" s="87"/>
+      <c r="T58" s="87"/>
+      <c r="U58" s="87"/>
       <c r="V58" s="18"/>
       <c r="W58" s="8"/>
     </row>
@@ -27607,13 +27610,13 @@
       <c r="P59" s="12">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="Q59" s="124">
+      <c r="Q59" s="114">
         <v>0</v>
       </c>
-      <c r="R59" s="88"/>
-      <c r="S59" s="88"/>
-      <c r="T59" s="88"/>
-      <c r="U59" s="88"/>
+      <c r="R59" s="87"/>
+      <c r="S59" s="87"/>
+      <c r="T59" s="87"/>
+      <c r="U59" s="87"/>
       <c r="V59" s="18"/>
       <c r="W59" s="8"/>
     </row>
@@ -27627,13 +27630,13 @@
       <c r="P60" s="12">
         <v>3.7524718414124473E-33</v>
       </c>
-      <c r="Q60" s="124">
+      <c r="Q60" s="114">
         <v>0</v>
       </c>
-      <c r="R60" s="88"/>
-      <c r="S60" s="88"/>
-      <c r="T60" s="88"/>
-      <c r="U60" s="88"/>
+      <c r="R60" s="87"/>
+      <c r="S60" s="87"/>
+      <c r="T60" s="87"/>
+      <c r="U60" s="87"/>
       <c r="V60" s="18"/>
       <c r="W60" s="8"/>
     </row>
@@ -27650,7 +27653,7 @@
       <c r="P61">
         <v>0</v>
       </c>
-      <c r="Q61" s="124">
+      <c r="Q61" s="114">
         <v>1</v>
       </c>
     </row>
@@ -27678,23 +27681,23 @@
       </c>
       <c r="D64" s="21">
         <f t="array" ref="D64:D66">W48:W50</f>
-        <v>-3.1415926535897931</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="E64" s="20">
         <f>DEGREES(D64)</f>
-        <v>-180</v>
-      </c>
-      <c r="F64" s="91">
+        <v>-90</v>
+      </c>
+      <c r="F64" s="90">
         <f>D64+PI()</f>
-        <v>0</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="G64" s="21">
         <f>IF(F64&gt;PI(),F64-2*PI(),F64)</f>
-        <v>0</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="H64" s="20">
         <f>DEGREES(G64)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="N64">
         <f t="array" ref="N64:N67">C64:C67</f>
@@ -27702,7 +27705,7 @@
       </c>
       <c r="O64">
         <f t="array" ref="O64:O66">W53:W55</f>
-        <v>1.83772268236293E-16</v>
+        <v>1.0471975511965979</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
@@ -27710,29 +27713,29 @@
         <v>2.45029690981724E-15</v>
       </c>
       <c r="D65" s="21">
-        <v>-1.5707963267948966</v>
+        <v>-0.52359877559829904</v>
       </c>
       <c r="E65" s="20">
         <f>DEGREES(D65)</f>
-        <v>-90</v>
-      </c>
-      <c r="F65" s="91">
+        <v>-30.000000000000011</v>
+      </c>
+      <c r="F65" s="90">
         <f>D65+PI()/2</f>
-        <v>0</v>
+        <v>1.0471975511965974</v>
       </c>
       <c r="G65" s="21">
         <f>IF(F65&gt;PI(),F65-2*PI(),F65)</f>
-        <v>0</v>
+        <v>1.0471975511965974</v>
       </c>
       <c r="H65" s="20">
         <f>DEGREES(G65)</f>
-        <v>0</v>
+        <v>59.999999999999986</v>
       </c>
       <c r="N65">
         <v>2.45029690981724E-15</v>
       </c>
       <c r="O65">
-        <v>6.1257422745430988E-17</v>
+        <v>8.2069384775250627E-18</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
@@ -27740,31 +27743,31 @@
         <v>400</v>
       </c>
       <c r="D66" s="21">
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="E66" s="20">
         <f>DEGREES(D66)</f>
-        <v>0</v>
-      </c>
-      <c r="F66" s="91">
+        <v>-90</v>
+      </c>
+      <c r="F66" s="90">
         <f>D66</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="G66" s="21">
         <f>IF(F66&gt;PI(),F66-2*PI(),F66)</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="H66" s="20">
         <f>DEGREES(G66)</f>
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="N66">
         <v>400</v>
       </c>
       <c r="O66">
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="P66" s="90"/>
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="P66" s="89"/>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C67" s="7">
@@ -27790,239 +27793,239 @@
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B70" s="108">
+      <c r="B70" s="98">
         <f>COS(D66)*COS(D65)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="C70" s="108">
+        <v>5.3050484267905938E-17</v>
+      </c>
+      <c r="C70" s="98">
         <f>SIN(D64)*SIN(D65)*COS(D66)-COS(D64)*SIN(D66)</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="D70" s="108">
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="D70" s="98">
         <f>COS(D64)*SIN(D65)*COS(D66)+SIN(D64)*SIN(D66)</f>
         <v>1</v>
       </c>
-      <c r="E70" s="93">
+      <c r="E70" s="92">
         <f>C64</f>
         <v>340</v>
       </c>
-      <c r="F70" s="90">
+      <c r="F70" s="89">
         <f>IF(F71=PI()/2,ATAN2(C71,C70),IF(-F71=PI()/2,-ATAN2(C71,C70),ATAN2(D72,C72)))</f>
-        <v>-3.1415926535897931</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="G70" s="7">
         <f>DEGREES(F70)</f>
-        <v>-180</v>
-      </c>
-      <c r="H70" s="91">
+        <v>-90</v>
+      </c>
+      <c r="H70" s="90">
         <f>F70+PI()</f>
-        <v>0</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="I70" s="21">
         <f>IF(H70&gt;PI(),H70-2*PI(),H70)</f>
-        <v>0</v>
+        <v>1.5707963267948966</v>
       </c>
       <c r="J70" s="20">
         <f>DEGREES(I70)</f>
-        <v>0</v>
-      </c>
-      <c r="M70" s="108">
+        <v>90</v>
+      </c>
+      <c r="M70" s="98">
         <f>COS(O66)*COS(O65)</f>
         <v>1</v>
       </c>
-      <c r="N70" s="108">
+      <c r="N70" s="98">
         <f>SIN(O64)*SIN(O65)*COS(O66)-COS(O64)*SIN(O66)</f>
-        <v>-1.22514845490862E-16</v>
-      </c>
-      <c r="O70" s="108">
+        <v>-3.8835649850240551E-17</v>
+      </c>
+      <c r="O70" s="98">
         <f>COS(O64)*SIN(O65)*COS(O66)+SIN(O64)*SIN(O66)</f>
-        <v>6.1257422745431013E-17</v>
-      </c>
-      <c r="P70" s="93">
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="P70" s="92">
         <f>N64</f>
         <v>340</v>
       </c>
-      <c r="Q70" s="76">
+      <c r="Q70" s="75">
         <f t="array" ref="Q70:T73">MMULT(M70:P73,N58:Q61)</f>
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="R70" s="76">
-        <v>6.1257422745431013E-17</v>
-      </c>
-      <c r="S70" s="76">
+        <v>8.3679195640621438E-17</v>
+      </c>
+      <c r="R70" s="75">
+        <v>-2.2421772895190441E-17</v>
+      </c>
+      <c r="S70" s="75">
         <v>1</v>
       </c>
-      <c r="T70" s="76">
+      <c r="T70" s="75">
         <v>340</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B71" s="108">
+      <c r="B71" s="98">
         <f>COS(D65)*SIN(D66)</f>
-        <v>0</v>
-      </c>
-      <c r="C71" s="108">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="C71" s="98">
         <f>SIN(D64)*SIN(D65)*SIN(D66)+COS(D64)*COS(D66)</f>
-        <v>-1</v>
-      </c>
-      <c r="D71" s="108">
+        <v>-0.50000000000000011</v>
+      </c>
+      <c r="D71" s="98">
         <f>COS(D64)*SIN(D65)*SIN(D66)-SIN(D64)*COS(D66)</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="E71" s="93">
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="E71" s="92">
         <f>C65</f>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="F71" s="90">
+      <c r="F71" s="89">
         <f>ATAN2(SQRT(B70^2+B71^2),-B72)</f>
-        <v>-1.5707963267948966</v>
+        <v>-0.52359877559829904</v>
       </c>
       <c r="G71" s="7">
         <f>DEGREES(F71)</f>
-        <v>-90</v>
-      </c>
-      <c r="H71" s="91">
+        <v>-30.000000000000011</v>
+      </c>
+      <c r="H71" s="90">
         <f>F71+PI()/2</f>
-        <v>0</v>
+        <v>1.0471975511965974</v>
       </c>
       <c r="I71" s="21">
         <f>IF(H71&gt;PI(),H71-2*PI(),H71)</f>
-        <v>0</v>
+        <v>1.0471975511965974</v>
       </c>
       <c r="J71" s="20">
         <f>DEGREES(I71)</f>
-        <v>0</v>
-      </c>
-      <c r="M71" s="108">
+        <v>59.999999999999986</v>
+      </c>
+      <c r="M71" s="98">
         <f>COS(O65)*SIN(O66)</f>
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="N71" s="108">
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="N71" s="98">
         <f>SIN(O64)*SIN(O65)*SIN(O66)+COS(O64)*COS(O66)</f>
-        <v>1</v>
-      </c>
-      <c r="O71" s="108">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="O71" s="98">
         <f>COS(O64)*SIN(O65)*SIN(O66)-SIN(O64)*COS(O66)</f>
-        <v>-1.83772268236293E-16</v>
-      </c>
-      <c r="P71" s="93">
+        <v>-0.86602540378443871</v>
+      </c>
+      <c r="P71" s="92">
         <f>N65</f>
         <v>2.45029690981724E-15</v>
       </c>
-      <c r="Q71" s="76">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="R71" s="76">
-        <v>-1</v>
-      </c>
-      <c r="S71" s="76">
+      <c r="Q71" s="75">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="R71" s="75">
+        <v>-0.5</v>
+      </c>
+      <c r="S71" s="75">
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="T71" s="76">
+      <c r="T71" s="75">
         <v>2.45029690981724E-15</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B72" s="108">
+      <c r="B72" s="98">
         <f>-SIN(D65)</f>
-        <v>1</v>
-      </c>
-      <c r="C72" s="108">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="C72" s="98">
         <f>SIN(D64)*COS(D65)</f>
-        <v>-7.5049436828248946E-33</v>
-      </c>
-      <c r="D72" s="108">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="D72" s="98">
         <f>COS(D64)*COS(D65)</f>
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="E72" s="93">
+        <v>5.3050484267905938E-17</v>
+      </c>
+      <c r="E72" s="92">
         <f>C66</f>
         <v>400</v>
       </c>
-      <c r="F72" s="90">
+      <c r="F72" s="89">
         <f>IF(ABS(F71)=PI()/2,0,ATAN2(B70,B71))</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="G72" s="7">
         <f>DEGREES(F72)</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="91">
+        <v>-90</v>
+      </c>
+      <c r="H72" s="90">
         <f>F72</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="I72" s="21">
         <f>IF(H72&gt;PI(),H72-2*PI(),H72)</f>
-        <v>0</v>
+        <v>-1.5707963267948966</v>
       </c>
       <c r="J72" s="20">
         <f>DEGREES(I72)</f>
-        <v>0</v>
-      </c>
-      <c r="M72" s="108">
+        <v>-90</v>
+      </c>
+      <c r="M72" s="98">
         <f>-SIN(O65)</f>
-        <v>-6.1257422745430988E-17</v>
-      </c>
-      <c r="N72" s="108">
+        <v>-8.2069384775250627E-18</v>
+      </c>
+      <c r="N72" s="98">
         <f>SIN(O64)*COS(O65)</f>
-        <v>1.83772268236293E-16</v>
-      </c>
-      <c r="O72" s="108">
+        <v>0.86602540378443871</v>
+      </c>
+      <c r="O72" s="98">
         <f>COS(O64)*COS(O65)</f>
-        <v>1</v>
-      </c>
-      <c r="P72" s="93">
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="P72" s="92">
         <f>N66</f>
         <v>400</v>
       </c>
-      <c r="Q72" s="76">
-        <v>1</v>
-      </c>
-      <c r="R72" s="76">
+      <c r="Q72" s="75">
+        <v>0.5</v>
+      </c>
+      <c r="R72" s="75">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="S72" s="75">
         <v>-6.1257422745431001E-17</v>
       </c>
-      <c r="S72" s="76">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="T72" s="76">
+      <c r="T72" s="75">
         <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B73" s="93">
+      <c r="B73" s="92">
         <v>0</v>
       </c>
-      <c r="C73" s="93">
+      <c r="C73" s="92">
         <v>0</v>
       </c>
-      <c r="D73" s="93">
+      <c r="D73" s="92">
         <v>0</v>
       </c>
-      <c r="E73" s="93">
+      <c r="E73" s="92">
         <v>1</v>
       </c>
-      <c r="M73" s="93">
+      <c r="M73" s="92">
         <v>0</v>
       </c>
-      <c r="N73" s="93">
+      <c r="N73" s="92">
         <v>0</v>
       </c>
-      <c r="O73" s="93">
+      <c r="O73" s="92">
         <v>0</v>
       </c>
-      <c r="P73" s="93">
+      <c r="P73" s="92">
         <v>1</v>
       </c>
-      <c r="Q73" s="76">
+      <c r="Q73" s="75">
         <v>0</v>
       </c>
-      <c r="R73" s="76">
+      <c r="R73" s="75">
         <v>0</v>
       </c>
-      <c r="S73" s="76">
+      <c r="S73" s="75">
         <v>0</v>
       </c>
-      <c r="T73" s="76">
+      <c r="T73" s="75">
         <v>1</v>
       </c>
     </row>
@@ -28063,16 +28066,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
       <c r="J78" s="7">
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
       <c r="K78" s="7">
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
       <c r="L78" s="7">
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -28169,7 +28172,7 @@
       <c r="A90" s="9"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B91" s="76">
+      <c r="B91" s="75">
         <f t="array" ref="B91:B94">L77:L80</f>
         <v>200</v>
       </c>
@@ -28178,11 +28181,11 @@
       </c>
       <c r="H91" s="21">
         <f>ATAN2(B91,B92)</f>
-        <v>-7.3508907294517201E-17</v>
+        <v>-5.206880933361635E-17</v>
       </c>
       <c r="I91" s="23">
         <f>DEGREES(H91)</f>
-        <v>-4.2117501445942666E-15</v>
+        <v>-2.9833230190876054E-15</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -28190,7 +28193,7 @@
         <v>30</v>
       </c>
       <c r="B92" s="60">
-        <v>-1.470178145890344E-14</v>
+        <v>-1.041376186672327E-14</v>
       </c>
       <c r="H92" s="21">
         <f>ATAN2(-B91,-B92)</f>
@@ -28210,11 +28213,11 @@
       </c>
       <c r="G93" s="21">
         <f>IF(B95=1,H91,H92)</f>
-        <v>-7.3508907294517201E-17</v>
+        <v>-5.206880933361635E-17</v>
       </c>
       <c r="H93" s="23">
         <f>DEGREES(G93)</f>
-        <v>-4.2117501445942666E-15</v>
+        <v>-2.9833230190876054E-15</v>
       </c>
       <c r="I93" s="15" t="str">
         <f>IF(ABS(H93-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -28289,7 +28292,7 @@
         <f>B93-F23</f>
         <v>300</v>
       </c>
-      <c r="M118" s="90">
+      <c r="M118" s="89">
         <f>ACOS((E125*E125-E124*E124-E123*E123)/(-2*E124*E123))</f>
         <v>0.58800260354756739</v>
       </c>
@@ -28305,7 +28308,7 @@
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
-      <c r="M120" s="109">
+      <c r="M120" s="99">
         <f>ACOS((E123*E123-E124*E124-E125*E125)/(-2*E124*E125))</f>
         <v>1.5707963267948966</v>
       </c>
@@ -28366,7 +28369,7 @@
       <c r="L124" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="M124" s="113">
+      <c r="M124" s="103">
         <f>ATAN2(M123*E120,E118)</f>
         <v>0.98279372324732905</v>
       </c>
@@ -28404,7 +28407,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G126" s="1"/>
-      <c r="K126" s="115"/>
+      <c r="K126" s="105"/>
       <c r="M126" s="41"/>
       <c r="N126" s="38"/>
       <c r="O126" s="38"/>
@@ -28429,7 +28432,7 @@
         <v>46</v>
       </c>
       <c r="G128" s="1"/>
-      <c r="M128" s="114">
+      <c r="M128" s="104">
         <f>PI()/2-(M124+M118)</f>
         <v>0</v>
       </c>
@@ -28603,21 +28606,21 @@
       <c r="I139" s="58"/>
       <c r="J139" s="59">
         <f t="array" ref="J139:L141">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="K139" s="59">
-        <v>0</v>
+        <v>-0.8660254037844386</v>
       </c>
       <c r="L139" s="59">
         <v>0</v>
       </c>
       <c r="M139" s="74">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="N139" s="74">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>0</v>
+        <v>-0.8660254037844386</v>
       </c>
       <c r="O139" s="74">
         <f>-COS(C18)*SIN(C19)</f>
@@ -28631,21 +28634,21 @@
       <c r="H140" s="58"/>
       <c r="I140" s="58"/>
       <c r="J140" s="59">
-        <v>0</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="K140" s="59">
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="L140" s="59">
         <v>0</v>
       </c>
       <c r="M140" s="74">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0</v>
+        <v>0.8660254037844386</v>
       </c>
       <c r="N140" s="74">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="O140" s="74">
         <f>-SIN(C18)*SIN(C19)</f>
@@ -28699,23 +28702,23 @@
       </c>
       <c r="M144" s="65">
         <f t="array" ref="M144:O146">B70:D72</f>
-        <v>6.1257422745431001E-17</v>
+        <v>5.3050484267905938E-17</v>
       </c>
       <c r="N144" s="66">
-        <v>1.22514845490862E-16</v>
+        <v>9.1886134118146501E-17</v>
       </c>
       <c r="O144" s="67">
         <v>1</v>
       </c>
-      <c r="S144" s="99">
+      <c r="S144" s="115">
         <f t="array" ref="S144:U146">MMULT(H144:J146,M144:O146)</f>
-        <v>1</v>
-      </c>
-      <c r="T144" s="100">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="U144" s="101">
-        <v>-1.2325951644078309E-32</v>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="T144" s="116">
+        <v>-0.8660254037844386</v>
+      </c>
+      <c r="U144" s="117">
+        <v>1.1430790701333693E-16</v>
       </c>
     </row>
     <row r="145" spans="2:21" x14ac:dyDescent="0.3">
@@ -28738,22 +28741,22 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M145" s="68">
-        <v>0</v>
+        <v>-0.8660254037844386</v>
       </c>
       <c r="N145" s="69">
-        <v>-1</v>
+        <v>-0.50000000000000011</v>
       </c>
       <c r="O145" s="70">
-        <v>1.22514845490862E-16</v>
-      </c>
-      <c r="S145" s="102">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="T145" s="103">
-        <v>1</v>
-      </c>
-      <c r="U145" s="104">
-        <v>-6.1257422745431001E-17</v>
+        <v>9.1886134118146501E-17</v>
+      </c>
+      <c r="S145" s="118">
+        <v>0.8660254037844386</v>
+      </c>
+      <c r="T145" s="119">
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="U145" s="120">
+        <v>-3.0628711372715506E-17</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28776,133 +28779,136 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M146" s="71">
-        <v>1</v>
+        <v>0.50000000000000011</v>
       </c>
       <c r="N146" s="72">
-        <v>-7.5049436828248946E-33</v>
+        <v>-0.8660254037844386</v>
       </c>
       <c r="O146" s="73">
-        <v>-6.1257422745431001E-17</v>
-      </c>
-      <c r="S146" s="105">
-        <v>0</v>
-      </c>
-      <c r="T146" s="106">
-        <v>6.1257422745431001E-17</v>
-      </c>
-      <c r="U146" s="107">
+        <v>5.3050484267905938E-17</v>
+      </c>
+      <c r="S146" s="121">
+        <v>-3.0628711372715506E-17</v>
+      </c>
+      <c r="T146" s="122">
+        <v>1.1430790701333693E-16</v>
+      </c>
+      <c r="U146" s="123">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D150" s="76">
+      <c r="D150" s="124">
         <f>U146</f>
         <v>1</v>
       </c>
       <c r="E150" s="5"/>
-      <c r="G150" s="80">
+      <c r="G150" s="79">
         <f>IF(ABS(D150)=1,0,ACOS(D150))</f>
         <v>0</v>
       </c>
-      <c r="H150" s="81">
+      <c r="H150" s="80">
         <f>DEGREES(G150)</f>
         <v>0</v>
       </c>
-      <c r="J150" s="80">
+      <c r="J150" s="79">
         <f>IF(SIN(G150)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G150),-D152/SIN(G150)))</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="K150" s="81">
+        <v>-1.8325957145940459</v>
+      </c>
+      <c r="K150" s="80">
         <f>DEGREES(J150)</f>
-        <v>-90</v>
+        <v>-105</v>
       </c>
       <c r="N150" s="2">
         <f>IF(SIN(G150)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G150),D156/SIN(G150)))</f>
-        <v>1.5707963267948963</v>
-      </c>
-      <c r="O150" s="81">
+        <v>2.8797932657906435</v>
+      </c>
+      <c r="O150" s="80">
         <f>DEGREES(N150)</f>
-        <v>89.999999999999986</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="G151" s="80">
+      <c r="D151" s="124"/>
+      <c r="G151" s="79">
         <f>IF(ABS(D150)=1,0,-ACOS(D150))</f>
         <v>0</v>
       </c>
-      <c r="H151" s="81">
+      <c r="H151" s="80">
         <f>DEGREES(G151)</f>
         <v>0</v>
       </c>
-      <c r="J151" s="80">
+      <c r="J151" s="79">
         <f>IF(SIN(G151)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G151),-D152/SIN(G151)))</f>
-        <v>-1.5707963267948966</v>
-      </c>
-      <c r="K151" s="81">
+        <v>-1.8325957145940459</v>
+      </c>
+      <c r="K151" s="80">
         <f>DEGREES(J151)</f>
-        <v>-90</v>
+        <v>-105</v>
       </c>
       <c r="N151" s="2">
         <f>IF(SIN(G151)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G151),D156/SIN(G151)))</f>
-        <v>1.5707963267948963</v>
-      </c>
-      <c r="O151" s="81">
+        <v>2.8797932657906435</v>
+      </c>
+      <c r="O151" s="80">
         <f>DEGREES(N151)</f>
-        <v>89.999999999999986</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D152" s="75">
+      <c r="D152" s="125">
         <f>T146</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1.1430790701333693E-16</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-      <c r="J152" s="94"/>
-      <c r="K152" s="81"/>
+      <c r="J152" s="93"/>
+      <c r="K152" s="80"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-      <c r="N152" s="92"/>
-      <c r="O152" s="81"/>
+      <c r="N152" s="91"/>
+      <c r="O152" s="80"/>
     </row>
     <row r="153" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D153" s="124"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-      <c r="J153" s="80"/>
-      <c r="K153" s="81"/>
+      <c r="J153" s="79"/>
+      <c r="K153" s="80"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="92"/>
-      <c r="O153" s="81"/>
+      <c r="N153" s="91"/>
+      <c r="O153" s="80"/>
     </row>
     <row r="154" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D154" s="58">
+      <c r="D154" s="124">
         <f>S146</f>
-        <v>0</v>
+        <v>-3.0628711372715506E-17</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
-      <c r="K154" s="81"/>
+      <c r="K154" s="80"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="82"/>
-      <c r="O154" s="81"/>
+      <c r="N154" s="81"/>
+      <c r="O154" s="80"/>
     </row>
     <row r="155" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D155" s="124"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
-      <c r="K155" s="81"/>
+      <c r="K155" s="80"/>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
     </row>
     <row r="156" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D156" s="58">
+      <c r="D156" s="124">
         <f>U145</f>
-        <v>-6.1257422745431001E-17</v>
+        <v>-3.0628711372715506E-17</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -28915,6 +28921,7 @@
       <c r="O156" s="2"/>
     </row>
     <row r="157" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D157" s="124"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
@@ -28926,22 +28933,22 @@
       <c r="O157" s="2"/>
     </row>
     <row r="158" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="D158" s="76">
+      <c r="D158" s="124">
         <f>U144</f>
-        <v>-1.2325951644078309E-32</v>
+        <v>1.1430790701333693E-16</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
-      <c r="K158" s="81"/>
+      <c r="K158" s="80"/>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
-      <c r="N158" s="82"/>
-      <c r="O158" s="81"/>
+      <c r="N158" s="81"/>
+      <c r="O158" s="80"/>
     </row>
     <row r="159" spans="2:21" x14ac:dyDescent="0.3">
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
-      <c r="K159" s="81"/>
+      <c r="K159" s="80"/>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
       <c r="N159" s="2"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -864,8 +864,8 @@
     <numFmt numFmtId="180" formatCode="0.000000\ &quot;RAD&quot;"/>
     <numFmt numFmtId="181" formatCode="0.000000000000000000"/>
     <numFmt numFmtId="182" formatCode="0.00\ &quot;°&quot;"/>
-    <numFmt numFmtId="185" formatCode="0.000000000"/>
-    <numFmt numFmtId="186" formatCode="0.0000000000"/>
+    <numFmt numFmtId="183" formatCode="0.000000000"/>
+    <numFmt numFmtId="184" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -1136,7 +1136,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1262,17 +1262,18 @@
     <xf numFmtId="182" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1380,7 +1381,7 @@
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
+                  <c:v>199.72590695091478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1392,7 +1393,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-1.041376186672327E-14</c:v>
+                  <c:v>10.467191248588756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1407,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229653504"/>
-        <c:axId val="229663872"/>
+        <c:axId val="239635456"/>
+        <c:axId val="239641728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229653504"/>
+        <c:axId val="239635456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1449,13 +1450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229663872"/>
+        <c:crossAx val="239641728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229663872"/>
+        <c:axId val="239641728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1494,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229653504"/>
+        <c:crossAx val="239635456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1560,7 +1561,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>200.00000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1590,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="229692544"/>
-        <c:axId val="229694080"/>
+        <c:axId val="240059520"/>
+        <c:axId val="240061056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="229692544"/>
+        <c:axId val="240059520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1606,13 +1607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229694080"/>
+        <c:crossAx val="240061056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="229694080"/>
+        <c:axId val="240061056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1625,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229692544"/>
+        <c:crossAx val="240059520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -25953,13 +25954,13 @@
       </c>
       <c r="G4" s="55">
         <f>B91</f>
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G5" s="56">
         <f>B92</f>
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -25975,41 +25976,41 @@
       </c>
       <c r="G8" s="100">
         <f>V48</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="H8" s="76">
         <f>X48</f>
-        <v>-90</v>
+        <v>-90.000020000000006</v>
       </c>
       <c r="I8" s="76">
         <f t="array" ref="I8:I10">X53:X55</f>
-        <v>60.000000000000007</v>
+        <v>30.000000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G9" s="101">
         <f>V49</f>
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="H9" s="77">
         <f>X49</f>
-        <v>-30.000000000000011</v>
+        <v>-59.999999999998494</v>
       </c>
       <c r="I9" s="76">
-        <v>4.7022293748570756E-16</v>
+        <v>1.0000000001754899E-5</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G10" s="102">
         <f>V50</f>
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="H10" s="78">
         <f>X50</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="I10" s="76">
-        <v>5.2646876807428328E-15</v>
+        <v>3.0000000000000071</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.3">
@@ -26039,19 +26040,19 @@
         <v>8</v>
       </c>
       <c r="B15" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="21">
         <f>RADIANS(B15)</f>
-        <v>0</v>
+        <v>5.235987755982989E-2</v>
       </c>
       <c r="E15" s="20">
         <f>H93</f>
-        <v>-2.9833230190876054E-15</v>
+        <v>2.9999999999999973</v>
       </c>
       <c r="I15" s="20">
         <f>H94</f>
-        <v>180</v>
+        <v>-177</v>
       </c>
       <c r="J15" s="26" t="s">
         <v>42</v>
@@ -26132,11 +26133,11 @@
       </c>
       <c r="F18" s="108">
         <f>O150</f>
-        <v>165</v>
+        <v>1.1389518979542156E-8</v>
       </c>
       <c r="G18" s="109">
         <f>O151</f>
-        <v>165</v>
+        <v>-179.99999998861048</v>
       </c>
       <c r="H18" s="20"/>
       <c r="V18">
@@ -26148,19 +26149,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="30">
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="C19" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7453292519943297E-7</v>
       </c>
       <c r="F19" s="110">
         <f>H150</f>
-        <v>0</v>
+        <v>9.9931643150853205E-6</v>
       </c>
       <c r="G19" s="111">
         <f>H151</f>
-        <v>0</v>
+        <v>-9.9931643150853205E-6</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -26171,19 +26172,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="32">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C20" s="21">
         <f t="shared" si="0"/>
-        <v>1.0471975511965976</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="F20" s="112">
         <f>K150</f>
-        <v>-105</v>
+        <v>29.999999989149014</v>
       </c>
       <c r="G20" s="113">
         <f>K151</f>
-        <v>-105</v>
+        <v>-150.00000001085098</v>
       </c>
       <c r="V20">
         <v>1</v>
@@ -26246,23 +26247,23 @@
       </c>
       <c r="G23" s="1">
         <f>B15</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" s="6">
         <f>RADIANS(G23)</f>
-        <v>0</v>
+        <v>5.235987755982989E-2</v>
       </c>
       <c r="N23" s="84">
         <f>COS(H23)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="O23" s="69">
         <f>-SIN(H23)*COS(D23)</f>
-        <v>0</v>
+        <v>-3.2059657963603892E-18</v>
       </c>
       <c r="P23" s="69">
         <f>SIN(H23)*SIN(D23)</f>
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="Q23" s="85">
         <f>E23*COS(H23)</f>
@@ -26270,13 +26271,13 @@
       </c>
       <c r="R23" s="86">
         <f t="array" ref="R23:U26">N23:Q26</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="S23" s="87">
-        <v>0</v>
+        <v>-3.2059657963603892E-18</v>
       </c>
       <c r="T23" s="87">
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="U23" s="88">
         <v>0</v>
@@ -26297,28 +26298,28 @@
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="N24" s="84">
         <f>SIN(H23)</f>
-        <v>0</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="O24" s="69">
         <f>COS(H23)*COS(D23)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1173471576534015E-17</v>
       </c>
       <c r="P24" s="69">
         <f>-COS(H23)*SIN(D23)</f>
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="Q24" s="85">
         <f>E23*SIN(H23)</f>
         <v>0</v>
       </c>
       <c r="R24" s="86">
-        <v>0</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="S24" s="87">
-        <v>6.1257422745431001E-17</v>
+        <v>6.1173471576534015E-17</v>
       </c>
       <c r="T24" s="87">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="U24" s="88">
         <v>0</v>
@@ -26370,11 +26371,11 @@
       </c>
       <c r="W25" s="21">
         <f>IF(ABS(W24)=PI()/2,0,ATAN2(R23,R24))</f>
-        <v>0</v>
+        <v>5.235987755982989E-2</v>
       </c>
       <c r="X25" s="20">
         <f>DEGREES(W25)</f>
-        <v>0</v>
+        <v>3.0000000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
@@ -26454,28 +26455,28 @@
       </c>
       <c r="R28" s="86">
         <f t="array" ref="R28:U31">MMULT(R23:U26,N28:Q31)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.4379437372894405E-17</v>
       </c>
       <c r="S28" s="87">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="T28" s="87">
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="U28" s="88">
-        <v>1.83772268236293E-14</v>
+        <v>1.9313831211868321E-14</v>
       </c>
       <c r="V28" s="18">
         <f>$V$17*R28+$V$18*S28+$V$19*T28+$V$20*U28</f>
-        <v>1.83772268236293E-14</v>
+        <v>1.9313831211868321E-14</v>
       </c>
       <c r="W28" s="21">
         <f>IF(W29=PI()/2,ATAN2(S29,S28),IF(-W29=PI()/2,-ATAN2(S29,S28),ATAN2(T30,S30)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184364492350668</v>
       </c>
       <c r="X28" s="20">
         <f>DEGREES(W28)</f>
-        <v>-90</v>
+        <v>-87.000000000000014</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
@@ -26496,20 +26497,20 @@
         <v>-300</v>
       </c>
       <c r="R29" s="86">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.7967505780173625E-17</v>
       </c>
       <c r="S29" s="87">
-        <v>3.7524718414124473E-33</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="T29" s="87">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="U29" s="88">
-        <v>-1.83772268236293E-14</v>
+        <v>-1.7390251734052088E-14</v>
       </c>
       <c r="V29" s="18">
         <f>$V$17*R29+$V$19*S29+$V$18*T29+$V$20*U29</f>
-        <v>-1.83772268236293E-14</v>
+        <v>-1.7390251734052088E-14</v>
       </c>
       <c r="W29" s="21">
         <f>ATAN2(SQRT(R28^2+R29^2),-R30)</f>
@@ -26638,28 +26639,28 @@
       </c>
       <c r="R33" s="62">
         <f t="array" ref="R33:U36">MMULT(R28:U31,N33:Q36)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.4379437372894405E-17</v>
       </c>
       <c r="S33" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="T33" s="63">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="U33" s="64">
-        <v>1.83772268236293E-14</v>
+        <v>1.9313831211868321E-14</v>
       </c>
       <c r="V33" s="18">
         <f>$V$17*R33+$V$18*S33+$V$19*T33+$V$20*U33</f>
-        <v>1.83772268236293E-14</v>
+        <v>1.9313831211868321E-14</v>
       </c>
       <c r="W33" s="21">
         <f>IF(W34=PI()/2,ATAN2(S34,S33),IF(-W34=PI()/2,-ATAN2(S34,S33),ATAN2(T35,S35)))</f>
-        <v>-3.1415926535897931</v>
+        <v>-3.0892327760299634</v>
       </c>
       <c r="X33" s="20">
         <f>DEGREES(W33)</f>
-        <v>-180</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
@@ -26680,20 +26681,20 @@
         <v>0</v>
       </c>
       <c r="R34" s="62">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.7967505780173625E-17</v>
       </c>
       <c r="S34" s="63">
-        <v>-1</v>
+        <v>-0.99862953475457383</v>
       </c>
       <c r="T34" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="U34" s="64">
-        <v>-1.83772268236293E-14</v>
+        <v>-1.7390251734052088E-14</v>
       </c>
       <c r="V34" s="18">
         <f>$V$17*R34+$V$19*S34+$V$18*T34+$V$20*U34</f>
-        <v>-1.83772268236293E-14</v>
+        <v>-1.7390251734052088E-14</v>
       </c>
       <c r="W34" s="21">
         <f>ATAN2(SQRT(R33^2+R34^2),-R35)</f>
@@ -26823,28 +26824,28 @@
       </c>
       <c r="R38" s="62">
         <f t="array" ref="R38:U41">MMULT(R33:U36,N38:Q41)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.4379437372894405E-17</v>
       </c>
       <c r="S38" s="63">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="T38" s="63">
-        <v>0</v>
+        <v>-5.2335956242943835E-2</v>
       </c>
       <c r="U38" s="64">
-        <v>200.00000000000003</v>
+        <v>199.7259069509148</v>
       </c>
       <c r="V38" s="18">
         <f>$V$17*R38+$V$18*S38+$V$19*T38+$V$20*U38</f>
-        <v>200.00000000000003</v>
+        <v>199.7259069509148</v>
       </c>
       <c r="W38" s="21">
         <f>IF(W39=PI()/2,ATAN2(S39,S38),IF(-W39=PI()/2,-ATAN2(S39,S38),ATAN2(T40,S40)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184364492350668</v>
       </c>
       <c r="X38" s="20">
         <f>DEGREES(W38)</f>
-        <v>-90</v>
+        <v>-87.000000000000014</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
@@ -26865,20 +26866,20 @@
         <v>0</v>
       </c>
       <c r="R39" s="62">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.7967505780173625E-17</v>
       </c>
       <c r="S39" s="63">
-        <v>0</v>
+        <v>5.2335956242943835E-2</v>
       </c>
       <c r="T39" s="63">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="U39" s="64">
-        <v>-6.1257422745431001E-15</v>
+        <v>10.467191248588762</v>
       </c>
       <c r="V39" s="18">
         <f>$V$17*R39+$V$19*S39+$V$18*T39+$V$20*U39</f>
-        <v>-6.1257422745431001E-15</v>
+        <v>10.467191248588762</v>
       </c>
       <c r="W39" s="21">
         <f>ATAN2(SQRT(R38^2+R39^2),-R40)</f>
@@ -26981,23 +26982,23 @@
       </c>
       <c r="G43" s="97">
         <f>B19</f>
-        <v>0</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="H43" s="6">
         <f>RADIANS(G43)</f>
-        <v>0</v>
+        <v>1.7453292519943297E-7</v>
       </c>
       <c r="N43" s="11">
         <f>COS(H43)</f>
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="O43" s="12">
         <f>-SIN(H43)*COS(D43)</f>
-        <v>0</v>
+        <v>-1.0691437181938299E-23</v>
       </c>
       <c r="P43" s="12">
         <f>SIN(H43)*SIN(D43)</f>
-        <v>0</v>
+        <v>-1.7453292519943209E-7</v>
       </c>
       <c r="Q43" s="13">
         <f>E43*COS(H43)</f>
@@ -27005,70 +27006,70 @@
       </c>
       <c r="R43" s="62">
         <f t="array" ref="R43:U46">MMULT(R38:U41,N43:Q46)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>1.7429373395564313E-7</v>
       </c>
       <c r="S43" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="T43" s="63">
-        <v>1</v>
+        <v>0.99862953475455862</v>
       </c>
       <c r="U43" s="64">
-        <v>200.00000000000003</v>
+        <v>199.7259069509148</v>
       </c>
       <c r="V43" s="18">
         <f>$V$17*R43+$V$18*S43+$V$19*T43+$V$20*U43</f>
-        <v>200.00000000000003</v>
+        <v>199.7259069509148</v>
       </c>
       <c r="W43" s="21">
         <f>IF(W44=PI()/2,ATAN2(S44,S43),IF(-W44=PI()/2,-ATAN2(S44,S43),ATAN2(T45,S45)))</f>
-        <v>-3.1415926535897931</v>
+        <v>-3.1415926532388139</v>
       </c>
       <c r="X43" s="20">
         <f>DEGREES(W43)</f>
-        <v>-180</v>
+        <v>-179.99999997989036</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N44" s="11">
         <f>SIN(H43)</f>
-        <v>0</v>
+        <v>1.7453292519943209E-7</v>
       </c>
       <c r="O44" s="12">
         <f>COS(H43)*COS(D43)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.1257422745430064E-17</v>
       </c>
       <c r="P44" s="12">
         <f>-COS(H43)*SIN(D43)</f>
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="Q44" s="13">
         <f>E43*SIN(H43)</f>
         <v>0</v>
       </c>
       <c r="R44" s="62">
-        <v>-6.1257422745431001E-17</v>
+        <v>9.1343474782229625E-9</v>
       </c>
       <c r="S44" s="63">
-        <v>-1</v>
+        <v>-0.99862953475457383</v>
       </c>
       <c r="T44" s="63">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943099E-2</v>
       </c>
       <c r="U44" s="64">
-        <v>-6.1257422745431001E-15</v>
+        <v>10.467191248588762</v>
       </c>
       <c r="V44" s="18">
         <f>$V$17*R44+$V$19*S44+$V$18*T44+$V$20*U44</f>
-        <v>-6.1257422745431001E-15</v>
+        <v>10.467191248588762</v>
       </c>
       <c r="W44" s="21">
         <f>ATAN2(SQRT(R43^2+R44^2),-R45)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5707961522619713</v>
       </c>
       <c r="X44" s="20">
         <f>DEGREES(W44)</f>
-        <v>-90</v>
+        <v>-89.999989999999997</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
@@ -27088,13 +27089,13 @@
         <v>0</v>
       </c>
       <c r="R45" s="62">
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="S45" s="63">
-        <v>-6.1257422745431001E-17</v>
+        <v>-6.1257433436868186E-17</v>
       </c>
       <c r="T45" s="63">
-        <v>-6.1257422745431001E-17</v>
+        <v>-1.7453292526068951E-7</v>
       </c>
       <c r="U45" s="64">
         <v>400</v>
@@ -27105,11 +27106,11 @@
       </c>
       <c r="W45" s="21">
         <f>IF(ABS(W44)=PI()/2,0,ATAN2(R43,R44))</f>
-        <v>0</v>
+        <v>5.2359877208850721E-2</v>
       </c>
       <c r="X45" s="20">
         <f>DEGREES(W45)</f>
-        <v>0</v>
+        <v>2.9999999798903754</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
@@ -27163,19 +27164,19 @@
       </c>
       <c r="G48" s="96">
         <f>B20</f>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="H48" s="6">
         <f>RADIANS(G48)</f>
-        <v>1.0471975511965976</v>
+        <v>0.52359877559829882</v>
       </c>
       <c r="N48" s="11">
         <f>COS(H48)</f>
-        <v>0.50000000000000011</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="O48" s="12">
         <f>-SIN(H48)*COS(D48)</f>
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999994</v>
       </c>
       <c r="P48" s="12">
         <f>SIN(H48)*SIN(D48)</f>
@@ -27187,28 +27188,28 @@
       </c>
       <c r="R48" s="94">
         <f t="array" ref="R48:U51">MMULT(R43:U46,N48:Q51)</f>
-        <v>8.367919564062145E-17</v>
+        <v>2.6168129064273273E-2</v>
       </c>
       <c r="S48" s="95">
-        <v>-2.2421772895190431E-17</v>
+        <v>4.5324180490873223E-2</v>
       </c>
       <c r="T48" s="95">
-        <v>1</v>
+        <v>0.99862953475455862</v>
       </c>
       <c r="U48" s="88">
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="V48" s="18">
         <f>$V$17*R48+$V$18*S48+$V$19*T48+$V$20*U48</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="W48" s="89">
         <f>IF(W49=PI()/2,ATAN2(S49,S48),IF(-W49=PI()/2,-ATAN2(S49,S48),ATAN2(T50,S50)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.570796675860747</v>
       </c>
       <c r="X48" s="20">
         <f>DEGREES(W48)</f>
-        <v>-90</v>
+        <v>-90.000020000000006</v>
       </c>
       <c r="Y48" s="1" t="s">
         <v>76</v>
@@ -27220,11 +27221,11 @@
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="N49" s="11">
         <f>SIN(H48)</f>
-        <v>0.8660254037844386</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="O49" s="12">
         <f>COS(H48)*COS(D48)</f>
-        <v>0.50000000000000011</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="P49" s="12">
         <f>-COS(H48)*SIN(D48)</f>
@@ -27235,28 +27236,28 @@
         <v>0</v>
       </c>
       <c r="R49" s="94">
-        <v>-0.8660254037844386</v>
+        <v>-0.49931475946670989</v>
       </c>
       <c r="S49" s="95">
-        <v>-0.50000000000000011</v>
+        <v>-0.86483855063406967</v>
       </c>
       <c r="T49" s="95">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943099E-2</v>
       </c>
       <c r="U49" s="88">
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="V49" s="18">
         <f>$V$17*R49+$V$19*S49+$V$18*T49+$V$20*U49</f>
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="W49" s="89">
         <f>ATAN2(SQRT(R48^2+R49^2),-R50)</f>
-        <v>-0.52359877559829904</v>
+        <v>-1.0471975511965714</v>
       </c>
       <c r="X49" s="20">
         <f>DEGREES(W49)</f>
-        <v>-30.000000000000011</v>
+        <v>-59.999999999998494</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>73</v>
@@ -27282,28 +27283,28 @@
         <v>140</v>
       </c>
       <c r="R50" s="94">
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="S50" s="95">
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999239</v>
       </c>
       <c r="T50" s="95">
-        <v>-6.1257422745431001E-17</v>
+        <v>-1.7453292526068951E-7</v>
       </c>
       <c r="U50" s="88">
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="V50" s="18">
         <f>$V$17*R50+$V$19*S50+$V$18*T50+$V$20*U50</f>
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="W50" s="89">
         <f>IF(ABS(W49)=PI()/2,0,ATAN2(R48,R49))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="X50" s="20">
         <f>DEGREES(W50)</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="Y50" s="1" t="s">
         <v>71</v>
@@ -27412,28 +27413,28 @@
       </c>
       <c r="R53" s="94">
         <f t="array" ref="R53:U56">MMULT(R48:U51,N53:Q56)</f>
-        <v>1</v>
+        <v>0.99862953475455862</v>
       </c>
       <c r="S53" s="95">
-        <v>-3.8835649850240563E-17</v>
+        <v>-4.5324180490873285E-2</v>
       </c>
       <c r="T53" s="95">
-        <v>8.367919564062145E-17</v>
+        <v>2.6168129064273279E-2</v>
       </c>
       <c r="U53" s="88">
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="V53" s="18">
         <f>$V$17*R53+$V$18*S53+$V$19*T53+$V$20*U53</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="W53" s="89">
         <f>IF(W54=PI()/2,ATAN2(S54,S53),IF(-W54=PI()/2,-ATAN2(S54,S53),ATAN2(T55,S55)))</f>
-        <v>1.0471975511965979</v>
+        <v>0.52359877559829904</v>
       </c>
       <c r="X53" s="20">
         <f>DEGREES(W53)</f>
-        <v>60.000000000000007</v>
+        <v>30.000000000000011</v>
       </c>
       <c r="Y53" s="1" t="s">
         <v>76</v>
@@ -27459,28 +27460,28 @@
         <v>0</v>
       </c>
       <c r="R54" s="94">
-        <v>9.1886134118146501E-17</v>
+        <v>5.2335956242943155E-2</v>
       </c>
       <c r="S54" s="95">
-        <v>0.5</v>
+        <v>0.86483855063406956</v>
       </c>
       <c r="T54" s="95">
-        <v>-0.86602540378443871</v>
+        <v>-0.49931475946671</v>
       </c>
       <c r="U54" s="88">
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="V54" s="18">
         <f>$V$17*R54+$V$19*S54+$V$18*T54+$V$20*U54</f>
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="W54" s="89">
         <f>ATAN2(SQRT(R53^2+R54^2),-R55)</f>
-        <v>8.2069384775250627E-18</v>
+        <v>1.745329252300617E-7</v>
       </c>
       <c r="X54" s="20">
         <f>DEGREES(W54)</f>
-        <v>4.7022293748570756E-16</v>
+        <v>1.0000000001754899E-5</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>73</v>
@@ -27506,28 +27507,28 @@
         <v>0</v>
       </c>
       <c r="R55" s="94">
-        <v>-8.2069384775250627E-18</v>
+        <v>-1.745329252300608E-7</v>
       </c>
       <c r="S55" s="95">
-        <v>0.86602540378443871</v>
+        <v>0.49999999999999251</v>
       </c>
       <c r="T55" s="95">
-        <v>0.5</v>
+        <v>0.86602540378442538</v>
       </c>
       <c r="U55" s="88">
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="V55" s="18">
         <f>$V$17*R55+$V$19*S55+$V$18*T55+$V$20*U55</f>
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="W55" s="89">
         <f>IF(ABS(W54)=PI()/2,0,ATAN2(R53,R54))</f>
-        <v>9.1886134118146501E-17</v>
+        <v>5.2359877559830008E-2</v>
       </c>
       <c r="X55" s="20">
         <f>DEGREES(W55)</f>
-        <v>5.2646876807428328E-15</v>
+        <v>3.0000000000000071</v>
       </c>
       <c r="Y55" s="1" t="s">
         <v>71</v>
@@ -27677,95 +27678,95 @@
       </c>
       <c r="C64" s="7">
         <f t="array" ref="C64:C67">V48:V51</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="D64" s="21">
         <f t="array" ref="D64:D66">W48:W50</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.570796675860747</v>
       </c>
       <c r="E64" s="20">
         <f>DEGREES(D64)</f>
-        <v>-90</v>
+        <v>-90.000020000000006</v>
       </c>
       <c r="F64" s="90">
         <f>D64+PI()</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707959777290461</v>
       </c>
       <c r="G64" s="21">
         <f>IF(F64&gt;PI(),F64-2*PI(),F64)</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707959777290461</v>
       </c>
       <c r="H64" s="20">
         <f>DEGREES(G64)</f>
-        <v>90</v>
+        <v>89.999979999999994</v>
       </c>
       <c r="N64">
         <f t="array" ref="N64:N67">C64:C67</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="O64">
         <f t="array" ref="O64:O66">W53:W55</f>
-        <v>1.0471975511965979</v>
+        <v>0.52359877559829904</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C65" s="7">
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="D65" s="21">
-        <v>-0.52359877559829904</v>
+        <v>-1.0471975511965714</v>
       </c>
       <c r="E65" s="20">
         <f>DEGREES(D65)</f>
-        <v>-30.000000000000011</v>
+        <v>-59.999999999998494</v>
       </c>
       <c r="F65" s="90">
         <f>D65+PI()/2</f>
-        <v>1.0471975511965974</v>
+        <v>0.52359877559832513</v>
       </c>
       <c r="G65" s="21">
         <f>IF(F65&gt;PI(),F65-2*PI(),F65)</f>
-        <v>1.0471975511965974</v>
+        <v>0.52359877559832513</v>
       </c>
       <c r="H65" s="20">
         <f>DEGREES(G65)</f>
-        <v>59.999999999999986</v>
+        <v>30.000000000001506</v>
       </c>
       <c r="N65">
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="O65">
-        <v>8.2069384775250627E-18</v>
+        <v>1.745329252300617E-7</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C66" s="7">
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="D66" s="21">
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="E66" s="20">
         <f>DEGREES(D66)</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="F66" s="90">
         <f>D66</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="G66" s="21">
         <f>IF(F66&gt;PI(),F66-2*PI(),F66)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="H66" s="20">
         <f>DEGREES(G66)</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="N66">
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="O66">
-        <v>9.1886134118146501E-17</v>
+        <v>5.2359877559830008E-2</v>
       </c>
       <c r="P66" s="89"/>
     </row>
@@ -27795,200 +27796,200 @@
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B70" s="98">
         <f>COS(D66)*COS(D65)</f>
-        <v>5.3050484267905938E-17</v>
+        <v>2.6168129064273231E-2</v>
       </c>
       <c r="C70" s="98">
         <f>SIN(D64)*SIN(D65)*COS(D66)-COS(D64)*SIN(D66)</f>
-        <v>9.1886134118146501E-17</v>
+        <v>4.5324180490873299E-2</v>
       </c>
       <c r="D70" s="98">
         <f>COS(D64)*SIN(D65)*COS(D66)+SIN(D64)*SIN(D66)</f>
-        <v>1</v>
+        <v>0.99862953475455873</v>
       </c>
       <c r="E70" s="92">
         <f>C64</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="F70" s="89">
         <f>IF(F71=PI()/2,ATAN2(C71,C70),IF(-F71=PI()/2,-ATAN2(C71,C70),ATAN2(D72,C72)))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5707966758607468</v>
       </c>
       <c r="G70" s="7">
         <f>DEGREES(F70)</f>
-        <v>-90</v>
+        <v>-90.000019999999992</v>
       </c>
       <c r="H70" s="90">
         <f>F70+PI()</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707959777290463</v>
       </c>
       <c r="I70" s="21">
         <f>IF(H70&gt;PI(),H70-2*PI(),H70)</f>
-        <v>1.5707963267948966</v>
+        <v>1.5707959777290463</v>
       </c>
       <c r="J70" s="20">
         <f>DEGREES(I70)</f>
-        <v>90</v>
+        <v>89.999980000000008</v>
       </c>
       <c r="M70" s="98">
         <f>COS(O66)*COS(O65)</f>
-        <v>1</v>
+        <v>0.99862953475455862</v>
       </c>
       <c r="N70" s="98">
         <f>SIN(O64)*SIN(O65)*COS(O66)-COS(O64)*SIN(O66)</f>
-        <v>-3.8835649850240551E-17</v>
+        <v>-4.5324180490873285E-2</v>
       </c>
       <c r="O70" s="98">
         <f>COS(O64)*SIN(O65)*COS(O66)+SIN(O64)*SIN(O66)</f>
-        <v>8.3679195640621438E-17</v>
+        <v>2.6168129064273279E-2</v>
       </c>
       <c r="P70" s="92">
         <f>N64</f>
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
       <c r="Q70" s="75">
         <f t="array" ref="Q70:T73">MMULT(M70:P73,N58:Q61)</f>
-        <v>8.3679195640621438E-17</v>
+        <v>2.6168129064273273E-2</v>
       </c>
       <c r="R70" s="75">
-        <v>-2.2421772895190441E-17</v>
+        <v>4.5324180490873223E-2</v>
       </c>
       <c r="S70" s="75">
-        <v>1</v>
+        <v>0.99862953475455862</v>
       </c>
       <c r="T70" s="75">
-        <v>340</v>
+        <v>339.53404181655299</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B71" s="98">
         <f>COS(D65)*SIN(D66)</f>
-        <v>-0.8660254037844386</v>
+        <v>-0.49931475946670983</v>
       </c>
       <c r="C71" s="98">
         <f>SIN(D64)*SIN(D65)*SIN(D66)+COS(D64)*COS(D66)</f>
-        <v>-0.50000000000000011</v>
+        <v>-0.86483855063406989</v>
       </c>
       <c r="D71" s="98">
         <f>COS(D64)*SIN(D65)*SIN(D66)-SIN(D64)*COS(D66)</f>
-        <v>9.1886134118146501E-17</v>
+        <v>5.2335956242943141E-2</v>
       </c>
       <c r="E71" s="92">
         <f>C65</f>
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="F71" s="89">
         <f>ATAN2(SQRT(B70^2+B71^2),-B72)</f>
-        <v>-0.52359877559829904</v>
+        <v>-1.0471975511965714</v>
       </c>
       <c r="G71" s="7">
         <f>DEGREES(F71)</f>
-        <v>-30.000000000000011</v>
+        <v>-59.999999999998494</v>
       </c>
       <c r="H71" s="90">
         <f>F71+PI()/2</f>
-        <v>1.0471975511965974</v>
+        <v>0.52359877559832513</v>
       </c>
       <c r="I71" s="21">
         <f>IF(H71&gt;PI(),H71-2*PI(),H71)</f>
-        <v>1.0471975511965974</v>
+        <v>0.52359877559832513</v>
       </c>
       <c r="J71" s="20">
         <f>DEGREES(I71)</f>
-        <v>59.999999999999986</v>
+        <v>30.000000000001506</v>
       </c>
       <c r="M71" s="98">
         <f>COS(O65)*SIN(O66)</f>
-        <v>9.1886134118146501E-17</v>
+        <v>5.2335956242943155E-2</v>
       </c>
       <c r="N71" s="98">
         <f>SIN(O64)*SIN(O65)*SIN(O66)+COS(O64)*COS(O66)</f>
-        <v>0.49999999999999989</v>
+        <v>0.86483855063406956</v>
       </c>
       <c r="O71" s="98">
         <f>COS(O64)*SIN(O65)*SIN(O66)-SIN(O64)*COS(O66)</f>
-        <v>-0.86602540378443871</v>
+        <v>-0.49931475946671</v>
       </c>
       <c r="P71" s="92">
         <f>N65</f>
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
       <c r="Q71" s="75">
-        <v>-0.8660254037844386</v>
+        <v>-0.49931475946670989</v>
       </c>
       <c r="R71" s="75">
-        <v>-0.5</v>
+        <v>-0.86483855063406967</v>
       </c>
       <c r="S71" s="75">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943099E-2</v>
       </c>
       <c r="T71" s="75">
-        <v>2.45029690981724E-15</v>
+        <v>17.794225122600796</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B72" s="98">
         <f>-SIN(D65)</f>
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="C72" s="98">
         <f>SIN(D64)*COS(D65)</f>
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999228</v>
       </c>
       <c r="D72" s="98">
         <f>COS(D64)*COS(D65)</f>
-        <v>5.3050484267905938E-17</v>
+        <v>-1.745329251927786E-7</v>
       </c>
       <c r="E72" s="92">
         <f>C66</f>
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="F72" s="89">
         <f>IF(ABS(F71)=PI()/2,0,ATAN2(B70,B71))</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="G72" s="7">
         <f>DEGREES(F72)</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="H72" s="90">
         <f>F72</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="I72" s="21">
         <f>IF(H72&gt;PI(),H72-2*PI(),H72)</f>
-        <v>-1.5707963267948966</v>
+        <v>-1.5184361469351726</v>
       </c>
       <c r="J72" s="20">
         <f>DEGREES(I72)</f>
-        <v>-90</v>
+        <v>-86.999982679491922</v>
       </c>
       <c r="M72" s="98">
         <f>-SIN(O65)</f>
-        <v>-8.2069384775250627E-18</v>
+        <v>-1.7453292523006083E-7</v>
       </c>
       <c r="N72" s="98">
         <f>SIN(O64)*COS(O65)</f>
-        <v>0.86602540378443871</v>
+        <v>0.49999999999999251</v>
       </c>
       <c r="O72" s="98">
         <f>COS(O64)*COS(O65)</f>
-        <v>0.49999999999999989</v>
+        <v>0.86602540378442538</v>
       </c>
       <c r="P72" s="92">
         <f>N66</f>
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
       <c r="Q72" s="75">
-        <v>0.5</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="R72" s="75">
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999239</v>
       </c>
       <c r="S72" s="75">
-        <v>-6.1257422745431001E-17</v>
+        <v>-1.7453292526068954E-7</v>
       </c>
       <c r="T72" s="75">
-        <v>400</v>
+        <v>399.99997556539046</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
@@ -28049,16 +28050,16 @@
       </c>
       <c r="I77" s="7">
         <f t="array" ref="I77:L80">MMULT(B70:E73,F77:F80)</f>
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
       <c r="J77" s="7">
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
       <c r="K77" s="7">
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
       <c r="L77" s="7">
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.3">
@@ -28066,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="7">
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
       <c r="J78" s="7">
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
       <c r="K78" s="7">
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
       <c r="L78" s="7">
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -28174,18 +28175,18 @@
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B91" s="75">
         <f t="array" ref="B91:B94">L77:L80</f>
-        <v>200</v>
+        <v>199.72590695091478</v>
       </c>
       <c r="E91" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H91" s="21">
         <f>ATAN2(B91,B92)</f>
-        <v>-5.206880933361635E-17</v>
+        <v>5.2359877559829841E-2</v>
       </c>
       <c r="I91" s="23">
         <f>DEGREES(H91)</f>
-        <v>-2.9833230190876054E-15</v>
+        <v>2.9999999999999973</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
@@ -28193,15 +28194,15 @@
         <v>30</v>
       </c>
       <c r="B92" s="60">
-        <v>-1.041376186672327E-14</v>
+        <v>10.467191248588756</v>
       </c>
       <c r="H92" s="21">
         <f>ATAN2(-B91,-B92)</f>
-        <v>3.1415926535897931</v>
+        <v>-3.0892327760299634</v>
       </c>
       <c r="I92" s="23">
         <f>DEGREES(H92)</f>
-        <v>180</v>
+        <v>-177</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
@@ -28213,11 +28214,11 @@
       </c>
       <c r="G93" s="21">
         <f>IF(B95=1,H91,H92)</f>
-        <v>-5.206880933361635E-17</v>
+        <v>5.2359877559829841E-2</v>
       </c>
       <c r="H93" s="23">
         <f>DEGREES(G93)</f>
-        <v>-2.9833230190876054E-15</v>
+        <v>2.9999999999999973</v>
       </c>
       <c r="I93" s="15" t="str">
         <f>IF(ABS(H93-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -28233,11 +28234,11 @@
       </c>
       <c r="G94" s="21">
         <f>IF(B95=-1,H91,H92)</f>
-        <v>3.1415926535897931</v>
+        <v>-3.0892327760299634</v>
       </c>
       <c r="H94" s="23">
         <f>DEGREES(G94)</f>
-        <v>180</v>
+        <v>-177</v>
       </c>
       <c r="I94" s="15" t="str">
         <f>IF(ABS(H94-B15)&lt; 0.001,"OK","NOT OK!")</f>
@@ -28272,7 +28273,7 @@
       </c>
       <c r="L104">
         <f>E120*B95</f>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.3">
@@ -28304,7 +28305,7 @@
     <row r="120" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E120" s="4">
         <f>SQRT(B91*B91+B92*B92)</f>
-        <v>200</v>
+        <v>200.00000000000003</v>
       </c>
       <c r="I120" s="19"/>
       <c r="J120" s="19"/>
@@ -28606,25 +28607,25 @@
       <c r="I139" s="58"/>
       <c r="J139" s="59">
         <f t="array" ref="J139:L141">MMULT(MMULT(N38:P40,N43:P45),N48:P50)</f>
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="K139" s="59">
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999234</v>
       </c>
       <c r="L139" s="59">
-        <v>0</v>
+        <v>-1.7453292519943209E-7</v>
       </c>
       <c r="M139" s="74">
         <f>COS(C18)*COS(C19)*COS(C20)-SIN(C18)*SIN(C20)</f>
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="N139" s="74">
         <f>-COS(C18)*COS(C19)*SIN(C20)-SIN(C18)*COS(C20)</f>
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999234</v>
       </c>
       <c r="O139" s="74">
         <f>-COS(C18)*SIN(C19)</f>
-        <v>0</v>
+        <v>-1.7453292519943209E-7</v>
       </c>
     </row>
     <row r="140" spans="1:21" x14ac:dyDescent="0.3">
@@ -28634,21 +28635,21 @@
       <c r="H140" s="58"/>
       <c r="I140" s="58"/>
       <c r="J140" s="59">
-        <v>0.8660254037844386</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="K140" s="59">
-        <v>0.50000000000000011</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="L140" s="59">
-        <v>0</v>
+        <v>-9.3677232494995152E-31</v>
       </c>
       <c r="M140" s="74">
         <f>SIN(C18)*COS(C19)*COS(C20)+COS(C18)*SIN(C20)</f>
-        <v>0.8660254037844386</v>
+        <v>0.49999999999999994</v>
       </c>
       <c r="N140" s="74">
         <f>-SIN(C18)*COS(C19)*SIN(C20)+COS(C18)*COS(C20)</f>
-        <v>0.50000000000000011</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="O140" s="74">
         <f>-SIN(C18)*SIN(C19)</f>
@@ -28657,106 +28658,106 @@
     </row>
     <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J141" s="59">
-        <v>0</v>
+        <v>1.5114994701951741E-7</v>
       </c>
       <c r="K141" s="59">
-        <v>0</v>
+        <v>-8.7266462599716033E-8</v>
       </c>
       <c r="L141" s="59">
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="M141" s="74">
         <f>SIN(C19)*COS(C20)</f>
-        <v>0</v>
+        <v>1.5114994701951741E-7</v>
       </c>
       <c r="N141" s="74">
         <f>-SIN(C19)*SIN(C20)</f>
-        <v>0</v>
+        <v>-8.7266462599716033E-8</v>
       </c>
       <c r="O141" s="74">
         <f>COS(C19)</f>
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
     </row>
     <row r="143" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B144" s="65">
         <f t="array" ref="B144:D146">MMULT(MMULT(N23:P25,N28:P30),N33:P35)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.4379437372894405E-17</v>
       </c>
       <c r="C144" s="66">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="D144" s="67">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="H144" s="65">
         <f t="array" ref="H144:J146">TRANSPOSE(B144:D146)</f>
-        <v>6.1257422745431001E-17</v>
+        <v>6.4379437372894405E-17</v>
       </c>
       <c r="I144" s="66">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.7967505780173625E-17</v>
       </c>
       <c r="J144" s="67">
         <v>1</v>
       </c>
       <c r="M144" s="65">
         <f t="array" ref="M144:O146">B70:D72</f>
-        <v>5.3050484267905938E-17</v>
+        <v>2.6168129064273231E-2</v>
       </c>
       <c r="N144" s="66">
-        <v>9.1886134118146501E-17</v>
+        <v>4.5324180490873299E-2</v>
       </c>
       <c r="O144" s="67">
-        <v>1</v>
+        <v>0.99862953475455873</v>
       </c>
       <c r="S144" s="115">
         <f t="array" ref="S144:U146">MMULT(H144:J146,M144:O146)</f>
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="T144" s="116">
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999223</v>
       </c>
       <c r="U144" s="117">
-        <v>1.1430790701333693E-16</v>
+        <v>-1.7453292513152117E-7</v>
       </c>
     </row>
     <row r="145" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B145" s="68">
-        <v>-6.1257422745431001E-17</v>
+        <v>-5.7967505780173625E-17</v>
       </c>
       <c r="C145" s="69">
-        <v>-1</v>
+        <v>-0.99862953475457383</v>
       </c>
       <c r="D145" s="70">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="H145" s="68">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="I145" s="69">
-        <v>-1</v>
+        <v>-0.99862953475457383</v>
       </c>
       <c r="J145" s="70">
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M145" s="68">
-        <v>-0.8660254037844386</v>
+        <v>-0.49931475946670983</v>
       </c>
       <c r="N145" s="69">
-        <v>-0.50000000000000011</v>
+        <v>-0.86483855063406989</v>
       </c>
       <c r="O145" s="70">
-        <v>9.1886134118146501E-17</v>
+        <v>5.2335956242943141E-2</v>
       </c>
       <c r="S145" s="118">
-        <v>0.8660254037844386</v>
+        <v>0.49999999999999983</v>
       </c>
       <c r="T145" s="119">
-        <v>0.50000000000000011</v>
+        <v>0.86602540378443871</v>
       </c>
       <c r="U145" s="120">
-        <v>-3.0628711372715506E-17</v>
+        <v>-3.4694458828098962E-17</v>
       </c>
     </row>
     <row r="146" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -28770,95 +28771,95 @@
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="H146" s="71">
-        <v>1</v>
+        <v>0.99862953475457383</v>
       </c>
       <c r="I146" s="72">
-        <v>6.1257422745431001E-17</v>
+        <v>5.2335956242943897E-2</v>
       </c>
       <c r="J146" s="73">
         <v>-6.1257422745431001E-17</v>
       </c>
       <c r="M146" s="71">
-        <v>0.50000000000000011</v>
+        <v>0.8660254037844255</v>
       </c>
       <c r="N146" s="72">
-        <v>-0.8660254037844386</v>
+        <v>-0.49999999999999228</v>
       </c>
       <c r="O146" s="73">
-        <v>5.3050484267905938E-17</v>
+        <v>-1.745329251927786E-7</v>
       </c>
       <c r="S146" s="121">
-        <v>-3.0628711372715506E-17</v>
+        <v>1.5114994698122315E-7</v>
       </c>
       <c r="T146" s="122">
-        <v>1.1430790701333693E-16</v>
+        <v>-8.7266462539439382E-8</v>
       </c>
       <c r="U146" s="123">
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
     </row>
     <row r="150" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D150" s="124">
         <f>U146</f>
-        <v>1</v>
+        <v>0.99999999999998479</v>
       </c>
       <c r="E150" s="5"/>
       <c r="G150" s="79">
         <f>IF(ABS(D150)=1,0,ACOS(D150))</f>
-        <v>0</v>
+        <v>1.7441361999104288E-7</v>
       </c>
       <c r="H150" s="80">
         <f>DEGREES(G150)</f>
-        <v>0</v>
+        <v>9.9931643150853205E-6</v>
       </c>
       <c r="J150" s="79">
         <f>IF(SIN(G150)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G150),-D152/SIN(G150)))</f>
-        <v>-1.8325957145940459</v>
-      </c>
-      <c r="K150" s="80">
+        <v>0.52359877540891342</v>
+      </c>
+      <c r="K150" s="126">
         <f>DEGREES(J150)</f>
-        <v>-105</v>
+        <v>29.999999989149014</v>
       </c>
       <c r="N150" s="2">
         <f>IF(SIN(G150)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G150),D156/SIN(G150)))</f>
-        <v>2.8797932657906435</v>
-      </c>
-      <c r="O150" s="80">
+        <v>1.987846064113953E-10</v>
+      </c>
+      <c r="O150" s="126">
         <f>DEGREES(N150)</f>
-        <v>165</v>
+        <v>1.1389518979542156E-8</v>
       </c>
     </row>
     <row r="151" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D151" s="124"/>
       <c r="G151" s="79">
         <f>IF(ABS(D150)=1,0,-ACOS(D150))</f>
-        <v>0</v>
+        <v>-1.7441361999104288E-7</v>
       </c>
       <c r="H151" s="80">
         <f>DEGREES(G151)</f>
-        <v>0</v>
+        <v>-9.9931643150853205E-6</v>
       </c>
       <c r="J151" s="79">
         <f>IF(SIN(G151)=0,ATAN2(D154,-D152),ATAN2(D154/SIN(G151),-D152/SIN(G151)))</f>
-        <v>-1.8325957145940459</v>
-      </c>
-      <c r="K151" s="80">
+        <v>-2.6179938781808798</v>
+      </c>
+      <c r="K151" s="126">
         <f>DEGREES(J151)</f>
-        <v>-105</v>
+        <v>-150.00000001085098</v>
       </c>
       <c r="N151" s="2">
         <f>IF(SIN(G151)=0,-ATAN2(-D158,D156),-ATAN2(-D158/SIN(G151),D156/SIN(G151)))</f>
-        <v>2.8797932657906435</v>
-      </c>
-      <c r="O151" s="80">
+        <v>-3.1415926533910086</v>
+      </c>
+      <c r="O151" s="126">
         <f>DEGREES(N151)</f>
-        <v>165</v>
+        <v>-179.99999998861048</v>
       </c>
     </row>
     <row r="152" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D152" s="125">
         <f>T146</f>
-        <v>1.1430790701333693E-16</v>
+        <v>-8.7266462539439382E-8</v>
       </c>
       <c r="G152" s="2"/>
       <c r="H152" s="2"/>
@@ -28885,7 +28886,7 @@
     <row r="154" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D154" s="124">
         <f>S146</f>
-        <v>-3.0628711372715506E-17</v>
+        <v>1.5114994698122315E-7</v>
       </c>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -28908,7 +28909,7 @@
     <row r="156" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D156" s="124">
         <f>U145</f>
-        <v>-3.0628711372715506E-17</v>
+        <v>-3.4694458828098962E-17</v>
       </c>
       <c r="G156" s="2"/>
       <c r="H156" s="2"/>
@@ -28935,7 +28936,7 @@
     <row r="158" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D158" s="124">
         <f>U144</f>
-        <v>1.1430790701333693E-16</v>
+        <v>-1.7453292513152117E-7</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="295"/>
@@ -10,7 +10,7 @@
     <sheet name="Kinematik" sheetId="1" r:id="rId1"/>
     <sheet name="Theorie" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1408,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="239635456"/>
-        <c:axId val="239641728"/>
+        <c:axId val="159340040"/>
+        <c:axId val="159338864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="239635456"/>
+        <c:axId val="159340040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1450,13 +1450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239641728"/>
+        <c:crossAx val="159338864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="239641728"/>
+        <c:axId val="159338864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="239635456"/>
+        <c:crossAx val="159340040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1591,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="240059520"/>
-        <c:axId val="240061056"/>
+        <c:axId val="159337688"/>
+        <c:axId val="159338080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="240059520"/>
+        <c:axId val="159337688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1607,13 +1607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240061056"/>
+        <c:crossAx val="159338080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="240061056"/>
+        <c:axId val="159338080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1626,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="240059520"/>
+        <c:crossAx val="159337688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1757,7 +1757,7 @@
                       <m:sSubSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubSupPr>
@@ -1796,7 +1796,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -1813,7 +1813,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -1823,7 +1823,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -1853,7 +1853,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -1893,7 +1893,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -1925,7 +1925,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -1990,7 +1990,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2022,7 +2022,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -2069,7 +2069,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -2117,7 +2117,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -2202,7 +2202,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -2818,7 +2818,7 @@
                     <m:dPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:dPr>
@@ -2835,7 +2835,7 @@
                           </m:mcs>
                           <m:ctrlPr>
                             <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             </a:rPr>
                           </m:ctrlPr>
                         </m:mPr>
@@ -2865,7 +2865,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -3030,7 +3030,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3099,7 +3099,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -3122,7 +3122,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -3134,7 +3134,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -3164,7 +3164,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -3220,7 +3220,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3252,7 +3252,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3309,7 +3309,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3341,7 +3341,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3402,7 +3402,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3450,7 +3450,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -3527,7 +3527,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -3966,7 +3966,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -4031,7 +4031,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -4048,7 +4048,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -4058,7 +4058,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -4088,7 +4088,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -4128,7 +4128,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4160,7 +4160,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4211,7 +4211,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -4242,7 +4242,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -4266,7 +4266,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4315,7 +4315,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4347,7 +4347,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4394,7 +4394,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4442,7 +4442,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -4497,7 +4497,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4552,7 +4552,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4584,7 +4584,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5433,7 +5433,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -5498,7 +5498,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -5515,7 +5515,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -5525,7 +5525,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -5555,7 +5555,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -5603,7 +5603,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5635,7 +5635,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5692,7 +5692,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5724,7 +5724,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -5779,7 +5779,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -5827,7 +5827,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6528,7 +6528,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6597,7 +6597,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -6620,7 +6620,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -6632,7 +6632,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -6662,7 +6662,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -6706,7 +6706,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6738,7 +6738,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6795,7 +6795,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6827,7 +6827,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -6888,7 +6888,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -6948,7 +6948,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -7025,7 +7025,7 @@
                                 <m:sSubPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:sSubPr>
@@ -7706,7 +7706,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7775,7 +7775,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -7798,7 +7798,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -7810,7 +7810,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -7840,7 +7840,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -7885,7 +7885,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -7929,7 +7929,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -7986,7 +7986,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8018,7 +8018,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -8079,7 +8079,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -8127,7 +8127,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -8863,7 +8863,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8927,7 +8927,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -8982,7 +8982,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -9208,7 +9208,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -9224,7 +9224,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -9239,7 +9239,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9254,7 +9254,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9313,7 +9313,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -9328,7 +9328,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9572,7 +9572,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9603,7 +9603,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9634,7 +9634,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -9665,7 +9665,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:funcPr>
@@ -9851,7 +9851,7 @@
                       <m:funcPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:funcPr>
@@ -9860,7 +9860,7 @@
                           <m:sSupPr>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:sSupPr>
@@ -9890,7 +9890,7 @@
                           <m:dPr>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:dPr>
@@ -9899,7 +9899,7 @@
                               <m:fPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:fPr>
@@ -9912,7 +9912,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -9967,7 +9967,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10022,7 +10022,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10275,7 +10275,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -10301,7 +10301,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -10317,7 +10317,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -10332,7 +10332,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10347,7 +10347,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -10406,7 +10406,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="Cambria Math"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -10421,7 +10421,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="Cambria Math"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -10696,7 +10696,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10751,7 +10751,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -10955,7 +10955,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -11231,7 +11231,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11262,7 +11262,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11293,7 +11293,7 @@
                     <m:sSupPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:sSupPr>
@@ -11324,7 +11324,7 @@
                     <m:funcPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:funcPr>
@@ -11391,7 +11391,7 @@
                       <m:vertJc m:val="bot"/>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
                       </m:ctrlPr>
                     </m:groupChrPr>
@@ -11435,7 +11435,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -11450,7 +11450,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -11498,7 +11498,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -11513,7 +11513,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -11528,7 +11528,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11583,7 +11583,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11638,7 +11638,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -11889,7 +11889,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12174,7 +12174,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12435,7 +12435,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="Cambria Math"/>
                           </a:rPr>
                         </m:ctrlPr>
@@ -12806,7 +12806,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12875,7 +12875,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12898,7 +12898,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -12910,7 +12910,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -12940,7 +12940,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="Cambria Math"/>
                                         </a:rPr>
                                       </m:ctrlPr>
@@ -12967,7 +12967,7 @@
                                     <m:funcPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:funcPr>
@@ -12991,7 +12991,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13036,7 +13036,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13068,7 +13068,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13127,7 +13127,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13159,7 +13159,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13202,7 +13202,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13234,7 +13234,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13295,7 +13295,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13343,7 +13343,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13386,7 +13386,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13418,7 +13418,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13463,7 +13463,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13495,7 +13495,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13554,7 +13554,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13586,7 +13586,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13631,7 +13631,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13679,7 +13679,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13726,7 +13726,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13741,7 +13741,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13801,7 +13801,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -13863,7 +13863,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13912,7 +13912,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -13944,7 +13944,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -13987,7 +13987,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14035,7 +14035,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14080,7 +14080,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14128,7 +14128,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14187,7 +14187,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14235,7 +14235,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14280,7 +14280,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14312,7 +14312,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14371,7 +14371,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14403,7 +14403,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14448,7 +14448,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14496,7 +14496,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14541,7 +14541,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14573,7 +14573,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14630,7 +14630,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14678,7 +14678,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14721,7 +14721,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14753,7 +14753,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14802,7 +14802,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -14831,7 +14831,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14863,7 +14863,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14908,7 +14908,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -14940,7 +14940,7 @@
                                                 <a:schemeClr val="tx1"/>
                                               </a:solidFill>
                                               <a:effectLst/>
-                                              <a:latin typeface="Cambria Math"/>
+                                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                               <a:ea typeface="+mn-ea"/>
                                               <a:cs typeface="+mn-cs"/>
                                             </a:rPr>
@@ -14991,7 +14991,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15023,7 +15023,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15068,7 +15068,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15116,7 +15116,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15175,7 +15175,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15207,7 +15207,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15252,7 +15252,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15284,7 +15284,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -15331,7 +15331,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15379,7 +15379,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -17168,7 +17168,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17354,7 +17354,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17369,7 +17369,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17384,7 +17384,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -17471,7 +17471,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17486,7 +17486,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17501,7 +17501,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -17741,7 +17741,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17756,7 +17756,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17827,7 +17827,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17842,7 +17842,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -17857,7 +17857,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -17932,7 +17932,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18214,7 +18214,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -18262,7 +18262,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18310,7 +18310,7 @@
                     <m:sSubPr>
                       <m:ctrlPr>
                         <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="Cambria Math"/>
                         </a:rPr>
                       </m:ctrlPr>
@@ -18324,7 +18324,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -18339,7 +18339,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -18655,7 +18655,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -18836,7 +18836,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19022,7 +19022,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19037,7 +19037,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -19108,7 +19108,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19123,7 +19123,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -19138,7 +19138,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -19213,7 +19213,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -19579,7 +19579,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19611,7 +19611,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19656,7 +19656,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19688,7 +19688,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19747,7 +19747,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -19762,7 +19762,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -19777,7 +19777,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20180,7 +20180,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20366,7 +20366,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20398,7 +20398,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20443,7 +20443,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20491,7 +20491,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20550,7 +20550,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -20565,7 +20565,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -20580,7 +20580,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -20971,7 +20971,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21000,7 +21000,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21032,7 +21032,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21077,7 +21077,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21109,7 +21109,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21170,7 +21170,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21185,7 +21185,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21200,7 +21200,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21591,7 +21591,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21777,7 +21777,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21792,7 +21792,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21852,7 +21852,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -21914,7 +21914,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -21973,7 +21973,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -21988,7 +21988,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -22003,7 +22003,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -22389,7 +22389,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22404,7 +22404,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22579,7 +22579,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22594,7 +22594,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -22665,7 +22665,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -22829,7 +22829,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23027,7 +23027,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23225,7 +23225,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23423,7 +23423,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -23569,8 +23569,8 @@
       <xdr:rowOff>78760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="736292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -23617,7 +23617,7 @@
                       <m:sSubPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubPr>
@@ -23642,7 +23642,7 @@
                       <m:sSubSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSubSupPr>
@@ -23687,7 +23687,7 @@
                       <m:dPr>
                         <m:ctrlPr>
                           <a:rPr lang="de-DE" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:dPr>
@@ -23704,7 +23704,7 @@
                             </m:mcs>
                             <m:ctrlPr>
                               <a:rPr lang="de-DE" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:mPr>
@@ -23714,7 +23714,7 @@
                                 <m:funcPr>
                                   <m:ctrlPr>
                                     <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     </a:rPr>
                                   </m:ctrlPr>
                                 </m:funcPr>
@@ -23744,7 +23744,7 @@
                                     <m:sSubPr>
                                       <m:ctrlPr>
                                         <a:rPr lang="de-DE" sz="1100" i="1">
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         </a:rPr>
                                       </m:ctrlPr>
                                     </m:sSubPr>
@@ -23784,7 +23784,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -23816,7 +23816,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -23881,7 +23881,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -23913,7 +23913,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -23960,7 +23960,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="Cambria Math"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -24008,7 +24008,7 @@
                                             <a:schemeClr val="tx1"/>
                                           </a:solidFill>
                                           <a:effectLst/>
-                                          <a:latin typeface="Cambria Math"/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                           <a:ea typeface="+mn-ea"/>
                                           <a:cs typeface="+mn-cs"/>
                                         </a:rPr>
@@ -24089,31 +24089,12 @@
                               </m:r>
                             </m:e>
                             <m:e>
-                              <m:sSub>
-                                <m:sSubPr>
-                                  <m:ctrlPr>
-                                    <a:rPr lang="de-DE" sz="1100" i="1">
-                                      <a:latin typeface="Cambria Math"/>
-                                    </a:rPr>
-                                  </m:ctrlPr>
-                                </m:sSubPr>
-                                <m:e>
-                                  <m:r>
-                                    <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
-                                    </a:rPr>
-                                    <m:t>𝑑</m:t>
-                                  </m:r>
-                                </m:e>
-                                <m:sub>
-                                  <m:r>
-                                    <a:rPr lang="de-DE" sz="1100" b="0" i="1">
-                                      <a:latin typeface="Cambria Math"/>
-                                    </a:rPr>
-                                    <m:t>5</m:t>
-                                  </m:r>
-                                </m:sub>
-                              </m:sSub>
+                              <m:r>
+                                <a:rPr lang="de-DE" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
                             </m:e>
                           </m:mr>
                           <m:mr>
@@ -24161,7 +24142,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -24202,56 +24183,105 @@
                 <a:rPr lang="de-DE" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑇_𝑉 〖=𝑇〗_6^7=</a:t>
+                <a:t>𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>=𝑇</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>7=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                </a:rPr>
-                <a:t>(■8(cos⁡〖</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" i="0">
                   <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>cos</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math"/>
                   <a:ea typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                </a:rPr>
-                <a:t>5 〗&amp;−</a:t>
+                <a:t>𝜃</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>sin⁡〖𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5 〗&amp;</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                </a:rPr>
-                <a:t>0&amp;0@</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" i="0">
@@ -24263,19 +24293,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>sin⁡〖𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5 〗&amp;</a:t>
+                <a:t>sin</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="de-DE" sz="1100" i="0">
@@ -24283,29 +24301,335 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>cos⁡〖𝜃_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>5 〗&amp;</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                </a:rPr>
-                <a:t>0&amp;0@0&amp;0&amp;1&amp;𝑑_5@0&amp;0&amp;0&amp;1))</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>sin</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>cos</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>⁡〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>5</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〗&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;0@</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>&amp;</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))</a:t>
               </a:r>
               <a:endParaRPr lang="de-DE" sz="1100"/>
             </a:p>
@@ -24370,7 +24694,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -24385,7 +24709,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -24560,7 +24884,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -24575,7 +24899,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -24750,7 +25074,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -24765,7 +25089,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -24940,7 +25264,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -24955,7 +25279,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25130,7 +25454,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25145,7 +25469,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="Cambria Math"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25623,9 +25947,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -25663,9 +25987,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25700,7 +26024,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -25735,7 +26059,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -25911,8 +26235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27660,6 +27984,19 @@
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62" s="15"/>
+      <c r="R62">
+        <v>1</v>
+      </c>
+      <c r="T62">
+        <f t="array" ref="T62:V65">MMULT(R53:U56,R62:R65)</f>
+        <v>0.97947348332795858</v>
+      </c>
+      <c r="U62">
+        <v>0.97947348332795858</v>
+      </c>
+      <c r="V62">
+        <v>0.97947348332795858</v>
+      </c>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
@@ -27671,6 +28008,18 @@
       <c r="G63" t="s">
         <v>62</v>
       </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="T63">
+        <v>0.41785974741030274</v>
+      </c>
+      <c r="U63">
+        <v>0.41785974741030274</v>
+      </c>
+      <c r="V63">
+        <v>0.41785974741030274</v>
+      </c>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -27708,8 +28057,20 @@
         <f t="array" ref="O64:O66">W53:W55</f>
         <v>0.52359877559829904</v>
       </c>
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="T64">
+        <v>1.3660252292514927</v>
+      </c>
+      <c r="U64">
+        <v>1.3660252292514927</v>
+      </c>
+      <c r="V64">
+        <v>1.3660252292514927</v>
+      </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C65" s="7">
         <v>17.794225122600796</v>
       </c>
@@ -27738,8 +28099,20 @@
       <c r="O65">
         <v>1.745329252300617E-7</v>
       </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C66" s="7">
         <v>399.99997556539046</v>
       </c>
@@ -27770,7 +28143,7 @@
       </c>
       <c r="P66" s="89"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C67" s="7">
         <v>1</v>
       </c>
@@ -27778,11 +28151,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C68" s="7"/>
       <c r="O68" s="7"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -27793,7 +28166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B70" s="98">
         <f>COS(D66)*COS(D65)</f>
         <v>2.6168129064273231E-2</v>
@@ -27860,7 +28233,7 @@
         <v>339.53404181655299</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B71" s="98">
         <f>COS(D65)*SIN(D66)</f>
         <v>-0.49931475946670983</v>
@@ -27926,7 +28299,7 @@
         <v>17.794225122600796</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B72" s="98">
         <f>-SIN(D65)</f>
         <v>0.8660254037844255</v>
@@ -27992,7 +28365,7 @@
         <v>399.99997556539046</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B73" s="92">
         <v>0</v>
       </c>
@@ -28030,17 +28403,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:20" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>32</v>
       </c>
@@ -28062,7 +28435,7 @@
         <v>199.72590695091478</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F78">
         <v>0</v>
       </c>
@@ -28079,7 +28452,7 @@
         <v>10.467191248588756</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F79">
         <f>-F48</f>
         <v>-140</v>
@@ -28097,7 +28470,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="F80">
         <v>1</v>
       </c>
@@ -28971,8 +29344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O111" sqref="O111"/>
+    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1408,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159340040"/>
-        <c:axId val="159338864"/>
+        <c:axId val="320529816"/>
+        <c:axId val="320533736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159340040"/>
+        <c:axId val="320529816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1450,13 +1450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159338864"/>
+        <c:crossAx val="320533736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159338864"/>
+        <c:axId val="320533736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159340040"/>
+        <c:crossAx val="320529816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1591,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159337688"/>
-        <c:axId val="159338080"/>
+        <c:axId val="320529032"/>
+        <c:axId val="318366568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159337688"/>
+        <c:axId val="320529032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1607,13 +1607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159338080"/>
+        <c:crossAx val="318366568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159338080"/>
+        <c:axId val="318366568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1626,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159337688"/>
+        <c:crossAx val="320529032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -23569,8 +23569,8 @@
       <xdr:rowOff>78760</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2689413" cy="736292"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -24142,7 +24142,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="Textfeld 47"/>
@@ -26235,8 +26235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="295"/>
+    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="295"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik" sheetId="1" r:id="rId1"/>
@@ -1408,11 +1408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320529816"/>
-        <c:axId val="320533736"/>
+        <c:axId val="344611384"/>
+        <c:axId val="344616872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320529816"/>
+        <c:axId val="344611384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1450,13 +1450,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320533736"/>
+        <c:crossAx val="344616872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320533736"/>
+        <c:axId val="344616872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1495,7 +1495,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320529816"/>
+        <c:crossAx val="344611384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1591,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320529032"/>
-        <c:axId val="318366568"/>
+        <c:axId val="344610600"/>
+        <c:axId val="344610992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320529032"/>
+        <c:axId val="344610600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1607,13 +1607,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="318366568"/>
+        <c:crossAx val="344610992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318366568"/>
+        <c:axId val="344610992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1626,7 +1626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320529032"/>
+        <c:crossAx val="344610600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -26235,8 +26235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="295"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="12048" windowHeight="5508" tabRatio="416" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Kinematik" sheetId="1" r:id="rId1"/>
-    <sheet name="Theorie" sheetId="2" r:id="rId2"/>
+    <sheet name="Theory Sources" sheetId="2" r:id="rId2"/>
+    <sheet name="Trajectory Speed profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -838,6 +839,180 @@
   <si>
     <t>A</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>[mm/ms]</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ges</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>[mm]</t>
+  </si>
+  <si>
+    <t>[ms]</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>[mm/ms</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">d = </t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -867,7 +1042,7 @@
     <numFmt numFmtId="183" formatCode="0.000000000"/>
     <numFmt numFmtId="184" formatCode="0.0000000000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -974,6 +1149,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1408,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344611384"/>
-        <c:axId val="344616872"/>
+        <c:axId val="33263024"/>
+        <c:axId val="314471488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344611384"/>
+        <c:axId val="33263024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1450,13 +1633,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344616872"/>
+        <c:crossAx val="314471488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344616872"/>
+        <c:axId val="314471488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1495,7 +1678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344611384"/>
+        <c:crossAx val="33263024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1591,11 +1774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="344610600"/>
-        <c:axId val="344610992"/>
+        <c:axId val="314665088"/>
+        <c:axId val="314664304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="344610600"/>
+        <c:axId val="314665088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1607,13 +1790,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344610992"/>
+        <c:crossAx val="314664304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="344610992"/>
+        <c:axId val="314664304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1626,7 +1809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344610600"/>
+        <c:crossAx val="314665088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -26235,8 +26418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29344,7 +29527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -29400,4 +29583,174 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>1.5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <f>B4/B5</f>
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="4">
+        <f>(B4- (B2*B5 + 0.5*(B3-B2)*B3/B6-0.5*(B3-B2)*B2/B6)) / ( B6*B5 + 0.5*B2 - 0.5 *(B3-B2) - 0.5*B3)</f>
+        <v>-1.9982269503546104</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3">
+        <f>(B3-B2)/B6-B11</f>
+        <v>-0.66843971631205612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3">
+        <f>B2+B6*B11</f>
+        <v>2.0026595744680842</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="75">
+        <f>(B2+B13)/2*B11+B13*(B5-B11-B12)+(B13+B3)/2*B12</f>
+        <v>1999.9999999999991</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15">
+        <f>B13+B12*B6</f>
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="58">
+        <f>(B2+B2+B6*B11)/2*B11+(B2+B6*B11)*(B5-B11-B12)+(B2+B6*B11+B3)/2*B12</f>
+        <v>1999.9999999999991</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="58">
+        <f>B2*B11 + 0.5*B6*B11*B11 + B2*B5+B6*B5*B11 - B2*B11 - B6*B11*B11 - B2*B12 - B6*B11*B12 + 0.5*B2*B12 + 0.5*B6*B11*B12 + 0.5*B3*B12</f>
+        <v>1999.9999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="58"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="58">
+        <f>-0.5*B6*B11*B11 + B2*B5 + B6*B5*B11 - 0.5*B2*B12 - 0.5*B6*B11*B12 + 0.5*B3*B12</f>
+        <v>1999.9999999999993</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <f>(B4- (B2*B5 + 0.5*(B3-B2)*B2/B6-0.5*(B3-B2)*B2/B6)) / ( B6*B5 + 0.5*B2 - 0.5 *(B3-B2))</f>
+        <v>-1.9940179461615155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -840,6 +840,9 @@
     <t>A</t>
   </si>
   <si>
+    <t>v</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -892,6 +895,9 @@
     <t>distance</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -912,22 +918,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>ges</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a</t>
     </r>
   </si>
   <si>
@@ -1011,6 +1001,174 @@
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
+    </r>
+  </si>
+  <si>
+    <t>Speed Profile</t>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (t)</t>
+    </r>
+  </si>
+  <si>
+    <t>`v0*t + 0,5*a*t*t</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (t)</t>
+    </r>
+  </si>
+  <si>
+    <t>(t-t0)*vs + s0(t0)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (t)</t>
+    </r>
+  </si>
+  <si>
+    <t>s1(t-(tg-t2)) + 0,5*a*(t-(tg-t2))*(t-(tg-t2))</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>v(t)</t>
+  </si>
+  <si>
+    <t>x(t)</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abs,0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abs,1</t>
     </r>
   </si>
 </sst>
@@ -1319,7 +1477,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1457,6 +1615,9 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1591,11 +1752,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="33263024"/>
-        <c:axId val="314471488"/>
+        <c:axId val="69088056"/>
+        <c:axId val="69089624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="33263024"/>
+        <c:axId val="69088056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1633,13 +1794,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314471488"/>
+        <c:crossAx val="69089624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314471488"/>
+        <c:axId val="69089624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1678,7 +1839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33263024"/>
+        <c:crossAx val="69088056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1774,11 +1935,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="314665088"/>
-        <c:axId val="314664304"/>
+        <c:axId val="69090408"/>
+        <c:axId val="69087272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="314665088"/>
+        <c:axId val="69090408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1790,13 +1951,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314664304"/>
+        <c:crossAx val="69087272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="314664304"/>
+        <c:axId val="69087272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1809,7 +1970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="314665088"/>
+        <c:crossAx val="69090408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -1825,6 +1986,3372 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Speed Profile v(t)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0344925634295714E-2"/>
+          <c:y val="0.16245364030583134"/>
+          <c:w val="0.86987729658792656"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$11:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$12:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="338365832"/>
+        <c:axId val="338365048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="338365832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338365048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="338365048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338365832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Speed Profile v(t)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0344925634295714E-2"/>
+          <c:y val="0.16245364030583134"/>
+          <c:w val="0.86987729658792656"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Speed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$20:$BF$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$21:$BF$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.59999999999999987</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.19999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9999999999999867E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432761976"/>
+        <c:axId val="432760408"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432761976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432760408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432760408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432761976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Position Profile x(t)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0344925634295714E-2"/>
+          <c:y val="0.16245364030583134"/>
+          <c:w val="0.86987729658792656"/>
+          <c:h val="0.6714577865266842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Position</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$20:$BF$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>640</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>960</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>980</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$H$22:$BF$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="51"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>511</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>639</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>759</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>871</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1280</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1440</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1676</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1711</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1744</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1775</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1804</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1831</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1856</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1879</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="432756488"/>
+        <c:axId val="432757272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="432756488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432757272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="432757272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432756488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -26129,6 +29656,105 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>788670</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>708660</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -29587,170 +33213,1089 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C22"/>
+  <dimension ref="A1:BR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>85</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>86</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
       <c r="B5">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6">
+        <v>1000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>71</v>
       </c>
-      <c r="B6">
-        <v>1.5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>94</v>
+      <c r="B7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10">
+        <f>B5/B6</f>
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
         <v>89</v>
       </c>
-      <c r="B9">
-        <f>B4/B5</f>
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <f>ABS(B12)</f>
+        <v>400</v>
+      </c>
+      <c r="J11" s="3">
+        <f>B6-ABS(B13)</f>
+        <v>600</v>
+      </c>
+      <c r="K11">
+        <f>B6</f>
+        <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" s="4">
-        <f>(B4- (B2*B5 + 0.5*(B3-B2)*B3/B6-0.5*(B3-B2)*B2/B6)) / ( B6*B5 + 0.5*B2 - 0.5 *(B3-B2) - 0.5*B3)</f>
-        <v>-1.9982269503546104</v>
-      </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="3">
-        <f>(B3-B2)/B6-B11</f>
-        <v>-0.66843971631205612</v>
+      <c r="B12" s="4">
+        <f>(B5- (B3*B6 + 0.5*(B4-B3)*B4/B7-0.5*(B4-B3)*B3/B7)) / ( B7*B6 + 0.5*B3 - 0.5 *(B4-B3) - 0.5*B4)</f>
+        <v>-400</v>
       </c>
       <c r="C12" t="s">
+        <v>92</v>
+      </c>
+      <c r="G12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <f>B14</f>
+        <v>2</v>
+      </c>
+      <c r="J12" s="3">
+        <f>I12</f>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3">
+        <f>(B4-B3)/B7-B12</f>
+        <v>-400</v>
+      </c>
+      <c r="C13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="3">
+        <f>B3+B7*B12</f>
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="127">
+        <f>(B3+B14)/2*B12+B14*(B6-B12-B13)+(B14+B4)/2*B13</f>
+        <v>2000</v>
+      </c>
+      <c r="C15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" s="3">
-        <f>B2+B6*B11</f>
-        <v>2.0026595744680842</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>86</v>
       </c>
+      <c r="B16">
+        <f>B14+B13*B7</f>
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="75">
-        <f>(B2+B13)/2*B11+B13*(B5-B11-B12)+(B13+B3)/2*B12</f>
-        <v>1999.9999999999991</v>
-      </c>
-      <c r="C14" t="s">
-        <v>90</v>
+    <row r="18" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="127">
+        <f>ABS(B12)</f>
+        <v>400</v>
+      </c>
+      <c r="C18" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15">
-        <f>B13+B12*B6</f>
+    <row r="19" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="127">
+        <f>B6-ABS(B13)</f>
+        <v>600</v>
+      </c>
+      <c r="C19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" s="128" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>(H20+$B$6/50)</f>
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:BR20" si="0">(I20+$B$6/50)</f>
+        <v>40</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="0"/>
+        <v>440</v>
+      </c>
+      <c r="AE20">
+        <f t="shared" si="0"/>
+        <v>460</v>
+      </c>
+      <c r="AF20">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="AG20">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>540</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="0"/>
+        <v>580</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="AM20">
+        <f t="shared" si="0"/>
+        <v>620</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="0"/>
+        <v>680</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="AR20">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="AS20">
+        <f t="shared" si="0"/>
+        <v>740</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="0"/>
+        <v>780</v>
+      </c>
+      <c r="AV20">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="AW20">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="AY20">
+        <f t="shared" si="0"/>
+        <v>860</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="BB20">
+        <f t="shared" si="0"/>
+        <v>920</v>
+      </c>
+      <c r="BC20">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="BD20">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="BE20">
+        <f t="shared" si="0"/>
+        <v>980</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="127">
+        <f>IF(H20&lt;ABS($B$12),$B$3+SIGN($B$12)*H$20*$B$7,IF(H20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(H20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="127">
+        <f t="shared" ref="I21:AB21" si="1">IF(I20&lt;ABS($B$12),$B$3+SIGN($B$12)*I$20*$B$7,IF(I20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(I20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.9</v>
+      </c>
+      <c r="J21" s="127">
+        <f t="shared" ref="J21" si="2">IF(J20&lt;ABS($B$12),$B$3+SIGN($B$12)*J$20*$B$7,IF(J20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(J20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.8</v>
+      </c>
+      <c r="K21" s="127">
+        <f t="shared" ref="K21" si="3">IF(K20&lt;ABS($B$12),$B$3+SIGN($B$12)*K$20*$B$7,IF(K20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(K20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.7</v>
+      </c>
+      <c r="L21" s="127">
+        <f t="shared" ref="L21" si="4">IF(L20&lt;ABS($B$12),$B$3+SIGN($B$12)*L$20*$B$7,IF(L20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(L20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.6</v>
+      </c>
+      <c r="M21" s="127">
+        <f t="shared" ref="M21" si="5">IF(M20&lt;ABS($B$12),$B$3+SIGN($B$12)*M$20*$B$7,IF(M20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(M20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.5</v>
+      </c>
+      <c r="N21" s="127">
+        <f t="shared" ref="N21" si="6">IF(N20&lt;ABS($B$12),$B$3+SIGN($B$12)*N$20*$B$7,IF(N20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(N20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.4</v>
+      </c>
+      <c r="O21" s="127">
+        <f t="shared" ref="O21" si="7">IF(O20&lt;ABS($B$12),$B$3+SIGN($B$12)*O$20*$B$7,IF(O20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(O20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.3</v>
+      </c>
+      <c r="P21" s="127">
+        <f t="shared" ref="P21" si="8">IF(P20&lt;ABS($B$12),$B$3+SIGN($B$12)*P$20*$B$7,IF(P20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(P20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.2</v>
+      </c>
+      <c r="Q21" s="127">
+        <f t="shared" ref="Q21" si="9">IF(Q20&lt;ABS($B$12),$B$3+SIGN($B$12)*Q$20*$B$7,IF(Q20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Q20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3.1</v>
+      </c>
+      <c r="R21" s="127">
+        <f t="shared" ref="R21" si="10">IF(R20&lt;ABS($B$12),$B$3+SIGN($B$12)*R$20*$B$7,IF(R20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(R20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>3</v>
+      </c>
+      <c r="S21" s="127">
+        <f t="shared" ref="S21" si="11">IF(S20&lt;ABS($B$12),$B$3+SIGN($B$12)*S$20*$B$7,IF(S20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(S20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.9</v>
+      </c>
+      <c r="T21" s="127">
+        <f t="shared" ref="T21" si="12">IF(T20&lt;ABS($B$12),$B$3+SIGN($B$12)*T$20*$B$7,IF(T20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(T20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.8</v>
+      </c>
+      <c r="U21" s="127">
+        <f t="shared" ref="U21" si="13">IF(U20&lt;ABS($B$12),$B$3+SIGN($B$12)*U$20*$B$7,IF(U20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(U20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.7</v>
+      </c>
+      <c r="V21" s="127">
+        <f t="shared" ref="V21" si="14">IF(V20&lt;ABS($B$12),$B$3+SIGN($B$12)*V$20*$B$7,IF(V20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(V20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.5999999999999996</v>
+      </c>
+      <c r="W21" s="127">
+        <f t="shared" ref="W21" si="15">IF(W20&lt;ABS($B$12),$B$3+SIGN($B$12)*W$20*$B$7,IF(W20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(W20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.5</v>
+      </c>
+      <c r="X21" s="127">
+        <f t="shared" ref="X21" si="16">IF(X20&lt;ABS($B$12),$B$3+SIGN($B$12)*X$20*$B$7,IF(X20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(X20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.4</v>
+      </c>
+      <c r="Y21" s="127">
+        <f t="shared" ref="Y21" si="17">IF(Y20&lt;ABS($B$12),$B$3+SIGN($B$12)*Y$20*$B$7,IF(Y20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Y20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Z21" s="127">
+        <f t="shared" ref="Z21" si="18">IF(Z20&lt;ABS($B$12),$B$3+SIGN($B$12)*Z$20*$B$7,IF(Z20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Z20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AA21" s="127">
+        <f t="shared" ref="AA21" si="19">IF(AA20&lt;ABS($B$12),$B$3+SIGN($B$12)*AA$20*$B$7,IF(AA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AA20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2.0999999999999996</v>
+      </c>
+      <c r="AB21" s="127">
+        <f t="shared" ref="AB21" si="20">IF(AB20&lt;ABS($B$12),$B$3+SIGN($B$12)*AB$20*$B$7,IF(AB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AB20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AC21" s="127">
+        <f t="shared" ref="AC21" si="21">IF(AC20&lt;ABS($B$12),$B$3+SIGN($B$12)*AC$20*$B$7,IF(AC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AC20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AD21" s="127">
+        <f t="shared" ref="AD21" si="22">IF(AD20&lt;ABS($B$12),$B$3+SIGN($B$12)*AD$20*$B$7,IF(AD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AD20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AE21" s="127">
+        <f t="shared" ref="AE21" si="23">IF(AE20&lt;ABS($B$12),$B$3+SIGN($B$12)*AE$20*$B$7,IF(AE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AE20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AF21" s="127">
+        <f t="shared" ref="AF21" si="24">IF(AF20&lt;ABS($B$12),$B$3+SIGN($B$12)*AF$20*$B$7,IF(AF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AF20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AG21" s="127">
+        <f t="shared" ref="AG21" si="25">IF(AG20&lt;ABS($B$12),$B$3+SIGN($B$12)*AG$20*$B$7,IF(AG20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AG20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AH21" s="127">
+        <f t="shared" ref="AH21" si="26">IF(AH20&lt;ABS($B$12),$B$3+SIGN($B$12)*AH$20*$B$7,IF(AH20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AH20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AI21" s="127">
+        <f t="shared" ref="AI21" si="27">IF(AI20&lt;ABS($B$12),$B$3+SIGN($B$12)*AI$20*$B$7,IF(AI20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AI20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AJ21" s="127">
+        <f t="shared" ref="AJ21" si="28">IF(AJ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AJ$20*$B$7,IF(AJ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AJ20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AK21" s="127">
+        <f t="shared" ref="AK21" si="29">IF(AK20&lt;ABS($B$12),$B$3+SIGN($B$12)*AK$20*$B$7,IF(AK20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AK20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AL21" s="127">
+        <f t="shared" ref="AL21" si="30">IF(AL20&lt;ABS($B$12),$B$3+SIGN($B$12)*AL$20*$B$7,IF(AL20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AL20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>2</v>
+      </c>
+      <c r="AM21" s="127">
+        <f t="shared" ref="AM21" si="31">IF(AM20&lt;ABS($B$12),$B$3+SIGN($B$12)*AM$20*$B$7,IF(AM20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AM20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.9</v>
+      </c>
+      <c r="AN21" s="127">
+        <f t="shared" ref="AN21" si="32">IF(AN20&lt;ABS($B$12),$B$3+SIGN($B$12)*AN$20*$B$7,IF(AN20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AN20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.8</v>
+      </c>
+      <c r="AO21" s="127">
+        <f t="shared" ref="AO21" si="33">IF(AO20&lt;ABS($B$12),$B$3+SIGN($B$12)*AO$20*$B$7,IF(AO20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AO20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.7</v>
+      </c>
+      <c r="AP21" s="127">
+        <f t="shared" ref="AP21" si="34">IF(AP20&lt;ABS($B$12),$B$3+SIGN($B$12)*AP$20*$B$7,IF(AP20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AP20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.6</v>
+      </c>
+      <c r="AQ21" s="127">
+        <f t="shared" ref="AQ21" si="35">IF(AQ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AQ$20*$B$7,IF(AQ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AQ20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.5</v>
+      </c>
+      <c r="AR21" s="127">
+        <f t="shared" ref="AR21" si="36">IF(AR20&lt;ABS($B$12),$B$3+SIGN($B$12)*AR$20*$B$7,IF(AR20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AR20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.4</v>
+      </c>
+      <c r="AS21" s="127">
+        <f t="shared" ref="AS21" si="37">IF(AS20&lt;ABS($B$12),$B$3+SIGN($B$12)*AS$20*$B$7,IF(AS20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AS20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="AT21" s="127">
+        <f t="shared" ref="AT21" si="38">IF(AT20&lt;ABS($B$12),$B$3+SIGN($B$12)*AT$20*$B$7,IF(AT20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AT20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.2</v>
+      </c>
+      <c r="AU21" s="127">
+        <f t="shared" ref="AU21" si="39">IF(AU20&lt;ABS($B$12),$B$3+SIGN($B$12)*AU$20*$B$7,IF(AU20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AU20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AV21" s="127">
+        <f t="shared" ref="AV21" si="40">IF(AV20&lt;ABS($B$12),$B$3+SIGN($B$12)*AV$20*$B$7,IF(AV20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AV20-($B$6-ABS($B$13)))*$B$7))</f>
         <v>1</v>
       </c>
-      <c r="C15" t="s">
-        <v>86</v>
-      </c>
+      <c r="AW21" s="127">
+        <f t="shared" ref="AW21" si="41">IF(AW20&lt;ABS($B$12),$B$3+SIGN($B$12)*AW$20*$B$7,IF(AW20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AW20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AX21" s="127">
+        <f t="shared" ref="AX21" si="42">IF(AX20&lt;ABS($B$12),$B$3+SIGN($B$12)*AX$20*$B$7,IF(AX20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AX20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.8</v>
+      </c>
+      <c r="AY21" s="127">
+        <f t="shared" ref="AY21" si="43">IF(AY20&lt;ABS($B$12),$B$3+SIGN($B$12)*AY$20*$B$7,IF(AY20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AY20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.7</v>
+      </c>
+      <c r="AZ21" s="127">
+        <f t="shared" ref="AZ21" si="44">IF(AZ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AZ$20*$B$7,IF(AZ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AZ20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="BA21" s="127">
+        <f t="shared" ref="BA21" si="45">IF(BA20&lt;ABS($B$12),$B$3+SIGN($B$12)*BA$20*$B$7,IF(BA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BA20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.5</v>
+      </c>
+      <c r="BB21" s="127">
+        <f t="shared" ref="BB21" si="46">IF(BB20&lt;ABS($B$12),$B$3+SIGN($B$12)*BB$20*$B$7,IF(BB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BB20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="BC21" s="127">
+        <f t="shared" ref="BC21" si="47">IF(BC20&lt;ABS($B$12),$B$3+SIGN($B$12)*BC$20*$B$7,IF(BC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BC20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="BD21" s="127">
+        <f t="shared" ref="BD21" si="48">IF(BD20&lt;ABS($B$12),$B$3+SIGN($B$12)*BD$20*$B$7,IF(BD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BD20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="BE21" s="127">
+        <f t="shared" ref="BE21" si="49">IF(BE20&lt;ABS($B$12),$B$3+SIGN($B$12)*BE$20*$B$7,IF(BE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BE20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="BF21" s="127">
+        <f t="shared" ref="BF21" si="50">IF(BF20&lt;ABS($B$12),$B$3+SIGN($B$12)*BF$20*$B$7,IF(BF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BF20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0</v>
+      </c>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
+      <c r="BI21" s="127"/>
+      <c r="BJ21" s="127"/>
+      <c r="BK21" s="127"/>
+      <c r="BL21" s="127"/>
+      <c r="BM21" s="127"/>
+      <c r="BN21" s="127"/>
+      <c r="BO21" s="127"/>
+      <c r="BP21" s="127"/>
+      <c r="BQ21" s="127"/>
+      <c r="BR21" s="127"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="58">
-        <f>(B2+B2+B6*B11)/2*B11+(B2+B6*B11)*(B5-B11-B12)+(B2+B6*B11+B3)/2*B12</f>
-        <v>1999.9999999999991</v>
+    <row r="22" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A22" s="128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <f>IF(H20&lt;$B$18,
+$B$3*H20+SIGN($B$12)*0.5*$B$7*H20*H20,
+IF(H20&lt;$B$19,
+$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(H20-$B$18)*$B$14,
+$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(H20-$B$19) + SIGN($B$13)*0.5*$B$7*(H20-$B$19)*(H20-$B$19)))</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ref="I22:BF22" si="51">IF(I20&lt;$B$18,
+$B$3*I20+SIGN($B$12)*0.5*$B$7*I20*I20,
+IF(I20&lt;$B$19,
+$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(I20-$B$18)*$B$14,
+$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(I20-$B$19) + SIGN($B$13)*0.5*$B$7*(I20-$B$19)*(I20-$B$19)))</f>
+        <v>79</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="51"/>
+        <v>156</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="51"/>
+        <v>231</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="51"/>
+        <v>304</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="51"/>
+        <v>375</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="51"/>
+        <v>444</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="51"/>
+        <v>511</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="51"/>
+        <v>576</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="51"/>
+        <v>639</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="51"/>
+        <v>700</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="51"/>
+        <v>759</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="51"/>
+        <v>816</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="51"/>
+        <v>871</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="51"/>
+        <v>924</v>
+      </c>
+      <c r="W22">
+        <f t="shared" si="51"/>
+        <v>975</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="51"/>
+        <v>1024</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" si="51"/>
+        <v>1071</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="51"/>
+        <v>1116</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="51"/>
+        <v>1159</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" si="51"/>
+        <v>1200</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" si="51"/>
+        <v>1240</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="51"/>
+        <v>1280</v>
+      </c>
+      <c r="AE22">
+        <f t="shared" si="51"/>
+        <v>1320</v>
+      </c>
+      <c r="AF22">
+        <f t="shared" si="51"/>
+        <v>1360</v>
+      </c>
+      <c r="AG22">
+        <f t="shared" si="51"/>
+        <v>1400</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="51"/>
+        <v>1440</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" si="51"/>
+        <v>1480</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="51"/>
+        <v>1520</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="51"/>
+        <v>1560</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="51"/>
+        <v>1600</v>
+      </c>
+      <c r="AM22">
+        <f t="shared" si="51"/>
+        <v>1639</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" si="51"/>
+        <v>1676</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="51"/>
+        <v>1711</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="51"/>
+        <v>1744</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="51"/>
+        <v>1775</v>
+      </c>
+      <c r="AR22">
+        <f t="shared" si="51"/>
+        <v>1804</v>
+      </c>
+      <c r="AS22">
+        <f t="shared" si="51"/>
+        <v>1831</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="51"/>
+        <v>1856</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="51"/>
+        <v>1879</v>
+      </c>
+      <c r="AV22">
+        <f t="shared" si="51"/>
+        <v>1900</v>
+      </c>
+      <c r="AW22">
+        <f t="shared" si="51"/>
+        <v>1919</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="51"/>
+        <v>1936</v>
+      </c>
+      <c r="AY22">
+        <f t="shared" si="51"/>
+        <v>1951</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" si="51"/>
+        <v>1964</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" si="51"/>
+        <v>1975</v>
+      </c>
+      <c r="BB22">
+        <f t="shared" si="51"/>
+        <v>1984</v>
+      </c>
+      <c r="BC22">
+        <f t="shared" si="51"/>
+        <v>1991</v>
+      </c>
+      <c r="BD22">
+        <f t="shared" si="51"/>
+        <v>1996</v>
+      </c>
+      <c r="BE22">
+        <f t="shared" si="51"/>
+        <v>1999</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" si="51"/>
+        <v>2000</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="58">
-        <f>B2*B11 + 0.5*B6*B11*B11 + B2*B5+B6*B5*B11 - B2*B11 - B6*B11*B11 - B2*B12 - B6*B11*B12 + 0.5*B2*B12 + 0.5*B6*B11*B12 + 0.5*B3*B12</f>
-        <v>1999.9999999999995</v>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B23" s="58"/>
+      <c r="H23">
+        <f>$B$3*$B$18+0.5*$B$7*$B$18*$B$18+(H20-ABS($B$12))*$B$14</f>
+        <v>1200</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ref="I23:BF23" si="52">$B$3*ABS($B$12)+0.5*$B$7*ABS($B$12)*ABS($B$12)+(I20-ABS($B$12))*$B$14</f>
+        <v>1240</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="52"/>
+        <v>1280</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="52"/>
+        <v>1320</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="52"/>
+        <v>1360</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="52"/>
+        <v>1400</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="52"/>
+        <v>1440</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="52"/>
+        <v>1480</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="52"/>
+        <v>1520</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="52"/>
+        <v>1560</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="52"/>
+        <v>1600</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="52"/>
+        <v>1640</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="52"/>
+        <v>1680</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="52"/>
+        <v>1720</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="52"/>
+        <v>1760</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="52"/>
+        <v>1800</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="52"/>
+        <v>1840</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="52"/>
+        <v>1880</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="52"/>
+        <v>1920</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="52"/>
+        <v>1960</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="52"/>
+        <v>2000</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="52"/>
+        <v>2040</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="52"/>
+        <v>2080</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="52"/>
+        <v>2120</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="52"/>
+        <v>2160</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="52"/>
+        <v>2200</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="52"/>
+        <v>2240</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="52"/>
+        <v>2280</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="52"/>
+        <v>2320</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="52"/>
+        <v>2360</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="52"/>
+        <v>2400</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="52"/>
+        <v>2440</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="52"/>
+        <v>2480</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="52"/>
+        <v>2520</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="52"/>
+        <v>2560</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="52"/>
+        <v>2600</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="52"/>
+        <v>2640</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="52"/>
+        <v>2680</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="52"/>
+        <v>2720</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="52"/>
+        <v>2760</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="52"/>
+        <v>2800</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="52"/>
+        <v>2840</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="52"/>
+        <v>2880</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="52"/>
+        <v>2920</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="52"/>
+        <v>2960</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="52"/>
+        <v>3000</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="52"/>
+        <v>3040</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="52"/>
+        <v>3080</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" si="52"/>
+        <v>3120</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="52"/>
+        <v>3160</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="52"/>
+        <v>3200</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="58"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="58">
-        <f>-0.5*B6*B11*B11 + B2*B5 + B6*B5*B11 - 0.5*B2*B12 - 0.5*B6*B11*B12 + 0.5*B3*B12</f>
-        <v>1999.9999999999993</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22">
-        <f>(B4- (B2*B5 + 0.5*(B3-B2)*B2/B6-0.5*(B3-B2)*B2/B6)) / ( B6*B5 + 0.5*B2 - 0.5 *(B3-B2))</f>
-        <v>-1.9940179461615155</v>
-      </c>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B24" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Trajectory Speed profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1752,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69088056"/>
-        <c:axId val="69089624"/>
+        <c:axId val="330255024"/>
+        <c:axId val="330252672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69088056"/>
+        <c:axId val="330255024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1794,13 +1795,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69089624"/>
+        <c:crossAx val="330252672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69089624"/>
+        <c:axId val="330252672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1839,7 +1840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69088056"/>
+        <c:crossAx val="330255024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1935,11 +1936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="69090408"/>
-        <c:axId val="69087272"/>
+        <c:axId val="330248360"/>
+        <c:axId val="330251496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="69090408"/>
+        <c:axId val="330248360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1951,13 +1952,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69087272"/>
+        <c:crossAx val="330251496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69087272"/>
+        <c:axId val="330251496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1970,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69090408"/>
+        <c:crossAx val="330248360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -2111,10 +2112,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>400</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>600</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>1000</c:v>
@@ -2129,13 +2130,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>0</c:v>
@@ -2153,11 +2154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="338365832"/>
-        <c:axId val="338365048"/>
+        <c:axId val="330247968"/>
+        <c:axId val="330253064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="338365832"/>
+        <c:axId val="330247968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2200,12 +2201,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338365048"/>
+        <c:crossAx val="330253064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="338365048"/>
+        <c:axId val="330253064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2257,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338365832"/>
+        <c:crossAx val="330247968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2624,154 +2625,154 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>0.18000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2</c:v>
+                  <c:v>0.12000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.1</c:v>
+                  <c:v>0.11000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.9</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5999999999999996</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2999999999999998</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2000000000000002</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0999999999999996</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.9</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.8</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.5</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.4</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.2999999999999998</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.2</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.89999999999999991</c:v>
+                  <c:v>9.0000000000000011E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.8</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.7</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.59999999999999987</c:v>
+                  <c:v>6.0000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.39999999999999991</c:v>
+                  <c:v>4.0000000000000008E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.30000000000000004</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.19999999999999996</c:v>
+                  <c:v>2.0000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>9.9999999999999867E-2</c:v>
+                  <c:v>1.0000000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>0</c:v>
@@ -2789,11 +2790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432761976"/>
-        <c:axId val="432760408"/>
+        <c:axId val="330254632"/>
+        <c:axId val="330248752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432761976"/>
+        <c:axId val="330254632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2844,12 +2845,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432760408"/>
+        <c:crossAx val="330248752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432760408"/>
+        <c:axId val="330248752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2900,7 +2901,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432761976"/>
+        <c:crossAx val="330254632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3294,154 +3295,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>156</c:v>
+                  <c:v>7.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>231</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>304</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>375</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>444</c:v>
+                  <c:v>20.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>511</c:v>
+                  <c:v>23.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>576</c:v>
+                  <c:v>25.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>639</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>700</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>759</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>816</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>871</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>924</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>975</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1024</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1071</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1116</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1159</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1200</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1240</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1280</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1320</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1360</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1400</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1440</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1480</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1520</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1560</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1600</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1639</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1676</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1711</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1744</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1775</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1804</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1831</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1856</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1879</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1900</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1919</c:v>
+                  <c:v>91.9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1936</c:v>
+                  <c:v>93.6</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1951</c:v>
+                  <c:v>95.1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1964</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1975</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1984</c:v>
+                  <c:v>98.4</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1991</c:v>
+                  <c:v>99.1</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1996</c:v>
+                  <c:v>99.6</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1999</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2000</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3456,11 +3457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="432756488"/>
-        <c:axId val="432757272"/>
+        <c:axId val="316250016"/>
+        <c:axId val="316253936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="432756488"/>
+        <c:axId val="316250016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3516,12 +3517,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432757272"/>
+        <c:crossAx val="316253936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432757272"/>
+        <c:axId val="316253936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3577,7 +3578,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432756488"/>
+        <c:crossAx val="316250016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -33215,8 +33216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33234,7 +33235,7 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -33256,7 +33257,7 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
@@ -33278,7 +33279,7 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -33288,9 +33289,9 @@
       <c r="A10" t="s">
         <v>99</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="60">
         <f>B5/B6</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C10" t="s">
         <v>87</v>
@@ -33305,11 +33306,11 @@
       </c>
       <c r="I11" s="4">
         <f>ABS(B12)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J11" s="3">
         <f>B6-ABS(B13)</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="K11">
         <f>B6</f>
@@ -33320,27 +33321,31 @@
       <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="4">
-        <f>(B5- (B3*B6 + 0.5*(B4-B3)*B4/B7-0.5*(B4-B3)*B3/B7)) / ( B7*B6 + 0.5*B3 - 0.5 *(B4-B3) - 0.5*B4)</f>
-        <v>-400</v>
+      <c r="B12" s="127">
+        <f>(B5- B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 + B3 - B4)</f>
+        <v>-200</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
+      <c r="D12">
+        <f>(B5 - B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 - B3 - B4)</f>
+        <v>-466.66666666666669</v>
+      </c>
       <c r="G12" t="s">
         <v>84</v>
       </c>
       <c r="H12">
         <f>B3</f>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I12" s="3">
         <f>B14</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="J12" s="3">
         <f>I12</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="K12">
         <f>B4</f>
@@ -33353,11 +33358,12 @@
       </c>
       <c r="B13" s="3">
         <f>(B4-B3)/B7-B12</f>
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
       </c>
+      <c r="D13" s="75"/>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
@@ -33365,10 +33371,14 @@
       </c>
       <c r="B14" s="3">
         <f>B3+B7*B12</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
+      </c>
+      <c r="D14">
+        <f>$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(B6-$B$19) + SIGN($B$13)*0.5*$B$7*(B6-$B$19)*(B6-$B$19)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33377,7 +33387,7 @@
       </c>
       <c r="B15" s="127">
         <f>(B3+B14)/2*B12+B14*(B6-B12-B13)+(B14+B4)/2*B13</f>
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -33401,7 +33411,7 @@
       </c>
       <c r="B18" s="127">
         <f>ABS(B12)</f>
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -33413,7 +33423,7 @@
       </c>
       <c r="B19" s="127">
         <f>B6-ABS(B13)</f>
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -33437,7 +33447,7 @@
         <v>20</v>
       </c>
       <c r="J20">
-        <f t="shared" ref="J20:BR20" si="0">(I20+$B$6/50)</f>
+        <f t="shared" ref="J20:BF20" si="0">(I20+$B$6/50)</f>
         <v>40</v>
       </c>
       <c r="K20">
@@ -33645,203 +33655,203 @@
       </c>
       <c r="H21" s="127">
         <f>IF(H20&lt;ABS($B$12),$B$3+SIGN($B$12)*H$20*$B$7,IF(H20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(H20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>4</v>
+        <v>0.2</v>
       </c>
       <c r="I21" s="127">
-        <f t="shared" ref="I21:AB21" si="1">IF(I20&lt;ABS($B$12),$B$3+SIGN($B$12)*I$20*$B$7,IF(I20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(I20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.9</v>
+        <f t="shared" ref="I21" si="1">IF(I20&lt;ABS($B$12),$B$3+SIGN($B$12)*I$20*$B$7,IF(I20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(I20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.19</v>
       </c>
       <c r="J21" s="127">
         <f t="shared" ref="J21" si="2">IF(J20&lt;ABS($B$12),$B$3+SIGN($B$12)*J$20*$B$7,IF(J20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(J20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.8</v>
+        <v>0.18000000000000002</v>
       </c>
       <c r="K21" s="127">
         <f t="shared" ref="K21" si="3">IF(K20&lt;ABS($B$12),$B$3+SIGN($B$12)*K$20*$B$7,IF(K20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(K20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.7</v>
+        <v>0.17</v>
       </c>
       <c r="L21" s="127">
         <f t="shared" ref="L21" si="4">IF(L20&lt;ABS($B$12),$B$3+SIGN($B$12)*L$20*$B$7,IF(L20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(L20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.6</v>
+        <v>0.16</v>
       </c>
       <c r="M21" s="127">
         <f t="shared" ref="M21" si="5">IF(M20&lt;ABS($B$12),$B$3+SIGN($B$12)*M$20*$B$7,IF(M20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(M20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.5</v>
+        <v>0.15000000000000002</v>
       </c>
       <c r="N21" s="127">
         <f t="shared" ref="N21" si="6">IF(N20&lt;ABS($B$12),$B$3+SIGN($B$12)*N$20*$B$7,IF(N20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(N20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.4</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="O21" s="127">
         <f t="shared" ref="O21" si="7">IF(O20&lt;ABS($B$12),$B$3+SIGN($B$12)*O$20*$B$7,IF(O20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(O20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.3</v>
+        <v>0.13</v>
       </c>
       <c r="P21" s="127">
         <f t="shared" ref="P21" si="8">IF(P20&lt;ABS($B$12),$B$3+SIGN($B$12)*P$20*$B$7,IF(P20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(P20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.2</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="Q21" s="127">
         <f t="shared" ref="Q21" si="9">IF(Q20&lt;ABS($B$12),$B$3+SIGN($B$12)*Q$20*$B$7,IF(Q20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Q20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3.1</v>
+        <v>0.11000000000000001</v>
       </c>
       <c r="R21" s="127">
         <f t="shared" ref="R21" si="10">IF(R20&lt;ABS($B$12),$B$3+SIGN($B$12)*R$20*$B$7,IF(R20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(R20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="S21" s="127">
         <f t="shared" ref="S21" si="11">IF(S20&lt;ABS($B$12),$B$3+SIGN($B$12)*S$20*$B$7,IF(S20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(S20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.9</v>
+        <v>0.1</v>
       </c>
       <c r="T21" s="127">
         <f t="shared" ref="T21" si="12">IF(T20&lt;ABS($B$12),$B$3+SIGN($B$12)*T$20*$B$7,IF(T20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(T20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.8</v>
+        <v>0.1</v>
       </c>
       <c r="U21" s="127">
         <f t="shared" ref="U21" si="13">IF(U20&lt;ABS($B$12),$B$3+SIGN($B$12)*U$20*$B$7,IF(U20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(U20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.7</v>
+        <v>0.1</v>
       </c>
       <c r="V21" s="127">
         <f t="shared" ref="V21" si="14">IF(V20&lt;ABS($B$12),$B$3+SIGN($B$12)*V$20*$B$7,IF(V20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(V20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.5999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="W21" s="127">
         <f t="shared" ref="W21" si="15">IF(W20&lt;ABS($B$12),$B$3+SIGN($B$12)*W$20*$B$7,IF(W20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(W20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.5</v>
+        <v>0.1</v>
       </c>
       <c r="X21" s="127">
         <f t="shared" ref="X21" si="16">IF(X20&lt;ABS($B$12),$B$3+SIGN($B$12)*X$20*$B$7,IF(X20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(X20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="Y21" s="127">
         <f t="shared" ref="Y21" si="17">IF(Y20&lt;ABS($B$12),$B$3+SIGN($B$12)*Y$20*$B$7,IF(Y20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Y20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.2999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="Z21" s="127">
         <f t="shared" ref="Z21" si="18">IF(Z20&lt;ABS($B$12),$B$3+SIGN($B$12)*Z$20*$B$7,IF(Z20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Z20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.2000000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="AA21" s="127">
         <f t="shared" ref="AA21" si="19">IF(AA20&lt;ABS($B$12),$B$3+SIGN($B$12)*AA$20*$B$7,IF(AA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AA20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.0999999999999996</v>
+        <v>0.1</v>
       </c>
       <c r="AB21" s="127">
         <f t="shared" ref="AB21" si="20">IF(AB20&lt;ABS($B$12),$B$3+SIGN($B$12)*AB$20*$B$7,IF(AB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AB20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AC21" s="127">
         <f t="shared" ref="AC21" si="21">IF(AC20&lt;ABS($B$12),$B$3+SIGN($B$12)*AC$20*$B$7,IF(AC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AC20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AD21" s="127">
         <f t="shared" ref="AD21" si="22">IF(AD20&lt;ABS($B$12),$B$3+SIGN($B$12)*AD$20*$B$7,IF(AD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AD20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AE21" s="127">
         <f t="shared" ref="AE21" si="23">IF(AE20&lt;ABS($B$12),$B$3+SIGN($B$12)*AE$20*$B$7,IF(AE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AE20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AF21" s="127">
         <f t="shared" ref="AF21" si="24">IF(AF20&lt;ABS($B$12),$B$3+SIGN($B$12)*AF$20*$B$7,IF(AF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AF20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AG21" s="127">
         <f t="shared" ref="AG21" si="25">IF(AG20&lt;ABS($B$12),$B$3+SIGN($B$12)*AG$20*$B$7,IF(AG20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AG20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AH21" s="127">
         <f t="shared" ref="AH21" si="26">IF(AH20&lt;ABS($B$12),$B$3+SIGN($B$12)*AH$20*$B$7,IF(AH20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AH20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AI21" s="127">
         <f t="shared" ref="AI21" si="27">IF(AI20&lt;ABS($B$12),$B$3+SIGN($B$12)*AI$20*$B$7,IF(AI20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AI20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AJ21" s="127">
         <f t="shared" ref="AJ21" si="28">IF(AJ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AJ$20*$B$7,IF(AJ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AJ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AK21" s="127">
         <f t="shared" ref="AK21" si="29">IF(AK20&lt;ABS($B$12),$B$3+SIGN($B$12)*AK$20*$B$7,IF(AK20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AK20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AL21" s="127">
         <f t="shared" ref="AL21" si="30">IF(AL20&lt;ABS($B$12),$B$3+SIGN($B$12)*AL$20*$B$7,IF(AL20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AL20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="AM21" s="127">
         <f t="shared" ref="AM21" si="31">IF(AM20&lt;ABS($B$12),$B$3+SIGN($B$12)*AM$20*$B$7,IF(AM20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AM20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.9</v>
+        <v>0.1</v>
       </c>
       <c r="AN21" s="127">
         <f t="shared" ref="AN21" si="32">IF(AN20&lt;ABS($B$12),$B$3+SIGN($B$12)*AN$20*$B$7,IF(AN20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AN20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AO21" s="127">
         <f t="shared" ref="AO21" si="33">IF(AO20&lt;ABS($B$12),$B$3+SIGN($B$12)*AO$20*$B$7,IF(AO20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AO20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="AP21" s="127">
         <f t="shared" ref="AP21" si="34">IF(AP20&lt;ABS($B$12),$B$3+SIGN($B$12)*AP$20*$B$7,IF(AP20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AP20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="AQ21" s="127">
         <f t="shared" ref="AQ21" si="35">IF(AQ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AQ$20*$B$7,IF(AQ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AQ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="AR21" s="127">
         <f t="shared" ref="AR21" si="36">IF(AR20&lt;ABS($B$12),$B$3+SIGN($B$12)*AR$20*$B$7,IF(AR20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AR20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="AS21" s="127">
         <f t="shared" ref="AS21" si="37">IF(AS20&lt;ABS($B$12),$B$3+SIGN($B$12)*AS$20*$B$7,IF(AS20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AS20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.2999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="AT21" s="127">
         <f t="shared" ref="AT21" si="38">IF(AT20&lt;ABS($B$12),$B$3+SIGN($B$12)*AT$20*$B$7,IF(AT20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AT20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="AU21" s="127">
         <f t="shared" ref="AU21" si="39">IF(AU20&lt;ABS($B$12),$B$3+SIGN($B$12)*AU$20*$B$7,IF(AU20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AU20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.1000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="AV21" s="127">
         <f t="shared" ref="AV21" si="40">IF(AV20&lt;ABS($B$12),$B$3+SIGN($B$12)*AV$20*$B$7,IF(AV20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AV20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="AW21" s="127">
         <f t="shared" ref="AW21" si="41">IF(AW20&lt;ABS($B$12),$B$3+SIGN($B$12)*AW$20*$B$7,IF(AW20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AW20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.89999999999999991</v>
+        <v>9.0000000000000011E-2</v>
       </c>
       <c r="AX21" s="127">
         <f t="shared" ref="AX21" si="42">IF(AX20&lt;ABS($B$12),$B$3+SIGN($B$12)*AX$20*$B$7,IF(AX20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AX20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.8</v>
+        <v>0.08</v>
       </c>
       <c r="AY21" s="127">
         <f t="shared" ref="AY21" si="43">IF(AY20&lt;ABS($B$12),$B$3+SIGN($B$12)*AY$20*$B$7,IF(AY20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AY20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AZ21" s="127">
         <f t="shared" ref="AZ21" si="44">IF(AZ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AZ$20*$B$7,IF(AZ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AZ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.59999999999999987</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="BA21" s="127">
         <f t="shared" ref="BA21" si="45">IF(BA20&lt;ABS($B$12),$B$3+SIGN($B$12)*BA$20*$B$7,IF(BA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BA20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="BB21" s="127">
         <f t="shared" ref="BB21" si="46">IF(BB20&lt;ABS($B$12),$B$3+SIGN($B$12)*BB$20*$B$7,IF(BB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BB20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.39999999999999991</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="BC21" s="127">
         <f t="shared" ref="BC21" si="47">IF(BC20&lt;ABS($B$12),$B$3+SIGN($B$12)*BC$20*$B$7,IF(BC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BC20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.30000000000000004</v>
+        <v>0.03</v>
       </c>
       <c r="BD21" s="127">
         <f t="shared" ref="BD21" si="48">IF(BD20&lt;ABS($B$12),$B$3+SIGN($B$12)*BD$20*$B$7,IF(BD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BD20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.19999999999999996</v>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="BE21" s="127">
         <f t="shared" ref="BE21" si="49">IF(BE20&lt;ABS($B$12),$B$3+SIGN($B$12)*BE$20*$B$7,IF(BE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BE20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>9.9999999999999867E-2</v>
+        <v>1.0000000000000009E-2</v>
       </c>
       <c r="BF21" s="127">
         <f t="shared" ref="BF21" si="50">IF(BF20&lt;ABS($B$12),$B$3+SIGN($B$12)*BF$20*$B$7,IF(BF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BF20-($B$6-ABS($B$13)))*$B$7))</f>
@@ -33884,410 +33894,410 @@
 IF(I20&lt;$B$19,
 $B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(I20-$B$18)*$B$14,
 $B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(I20-$B$19) + SIGN($B$13)*0.5*$B$7*(I20-$B$19)*(I20-$B$19)))</f>
-        <v>79</v>
+        <v>3.9</v>
       </c>
       <c r="J22">
         <f t="shared" si="51"/>
-        <v>156</v>
+        <v>7.6</v>
       </c>
       <c r="K22">
         <f t="shared" si="51"/>
-        <v>231</v>
+        <v>11.1</v>
       </c>
       <c r="L22">
         <f t="shared" si="51"/>
-        <v>304</v>
+        <v>14.4</v>
       </c>
       <c r="M22">
         <f t="shared" si="51"/>
-        <v>375</v>
+        <v>17.5</v>
       </c>
       <c r="N22">
         <f t="shared" si="51"/>
-        <v>444</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="O22">
         <f t="shared" si="51"/>
-        <v>511</v>
+        <v>23.1</v>
       </c>
       <c r="P22">
         <f t="shared" si="51"/>
-        <v>576</v>
+        <v>25.6</v>
       </c>
       <c r="Q22">
         <f t="shared" si="51"/>
-        <v>639</v>
+        <v>27.9</v>
       </c>
       <c r="R22">
         <f t="shared" si="51"/>
-        <v>700</v>
+        <v>30</v>
       </c>
       <c r="S22">
         <f t="shared" si="51"/>
-        <v>759</v>
+        <v>32</v>
       </c>
       <c r="T22">
         <f t="shared" si="51"/>
-        <v>816</v>
+        <v>34</v>
       </c>
       <c r="U22">
         <f t="shared" si="51"/>
-        <v>871</v>
+        <v>36</v>
       </c>
       <c r="V22">
         <f t="shared" si="51"/>
-        <v>924</v>
+        <v>38</v>
       </c>
       <c r="W22">
         <f t="shared" si="51"/>
-        <v>975</v>
+        <v>40</v>
       </c>
       <c r="X22">
         <f t="shared" si="51"/>
-        <v>1024</v>
+        <v>42</v>
       </c>
       <c r="Y22">
         <f t="shared" si="51"/>
-        <v>1071</v>
+        <v>44</v>
       </c>
       <c r="Z22">
         <f t="shared" si="51"/>
-        <v>1116</v>
+        <v>46</v>
       </c>
       <c r="AA22">
         <f t="shared" si="51"/>
-        <v>1159</v>
+        <v>48</v>
       </c>
       <c r="AB22">
         <f t="shared" si="51"/>
-        <v>1200</v>
+        <v>50</v>
       </c>
       <c r="AC22">
         <f t="shared" si="51"/>
-        <v>1240</v>
+        <v>52</v>
       </c>
       <c r="AD22">
         <f t="shared" si="51"/>
-        <v>1280</v>
+        <v>54</v>
       </c>
       <c r="AE22">
         <f t="shared" si="51"/>
-        <v>1320</v>
+        <v>56</v>
       </c>
       <c r="AF22">
         <f t="shared" si="51"/>
-        <v>1360</v>
+        <v>58</v>
       </c>
       <c r="AG22">
         <f t="shared" si="51"/>
-        <v>1400</v>
+        <v>60</v>
       </c>
       <c r="AH22">
         <f t="shared" si="51"/>
-        <v>1440</v>
+        <v>62</v>
       </c>
       <c r="AI22">
         <f t="shared" si="51"/>
-        <v>1480</v>
+        <v>64</v>
       </c>
       <c r="AJ22">
         <f t="shared" si="51"/>
-        <v>1520</v>
+        <v>66</v>
       </c>
       <c r="AK22">
         <f t="shared" si="51"/>
-        <v>1560</v>
+        <v>68</v>
       </c>
       <c r="AL22">
         <f t="shared" si="51"/>
-        <v>1600</v>
+        <v>70</v>
       </c>
       <c r="AM22">
         <f t="shared" si="51"/>
-        <v>1639</v>
+        <v>72</v>
       </c>
       <c r="AN22">
         <f t="shared" si="51"/>
-        <v>1676</v>
+        <v>74</v>
       </c>
       <c r="AO22">
         <f t="shared" si="51"/>
-        <v>1711</v>
+        <v>76</v>
       </c>
       <c r="AP22">
         <f t="shared" si="51"/>
-        <v>1744</v>
+        <v>78</v>
       </c>
       <c r="AQ22">
         <f t="shared" si="51"/>
-        <v>1775</v>
+        <v>80</v>
       </c>
       <c r="AR22">
         <f t="shared" si="51"/>
-        <v>1804</v>
+        <v>82</v>
       </c>
       <c r="AS22">
         <f t="shared" si="51"/>
-        <v>1831</v>
+        <v>84</v>
       </c>
       <c r="AT22">
         <f t="shared" si="51"/>
-        <v>1856</v>
+        <v>86</v>
       </c>
       <c r="AU22">
         <f t="shared" si="51"/>
-        <v>1879</v>
+        <v>88</v>
       </c>
       <c r="AV22">
         <f t="shared" si="51"/>
-        <v>1900</v>
+        <v>90</v>
       </c>
       <c r="AW22">
         <f t="shared" si="51"/>
-        <v>1919</v>
+        <v>91.9</v>
       </c>
       <c r="AX22">
         <f t="shared" si="51"/>
-        <v>1936</v>
+        <v>93.6</v>
       </c>
       <c r="AY22">
         <f t="shared" si="51"/>
-        <v>1951</v>
+        <v>95.1</v>
       </c>
       <c r="AZ22">
         <f t="shared" si="51"/>
-        <v>1964</v>
+        <v>96.4</v>
       </c>
       <c r="BA22">
         <f t="shared" si="51"/>
-        <v>1975</v>
+        <v>97.5</v>
       </c>
       <c r="BB22">
         <f t="shared" si="51"/>
-        <v>1984</v>
+        <v>98.4</v>
       </c>
       <c r="BC22">
         <f t="shared" si="51"/>
-        <v>1991</v>
+        <v>99.1</v>
       </c>
       <c r="BD22">
         <f t="shared" si="51"/>
-        <v>1996</v>
+        <v>99.6</v>
       </c>
       <c r="BE22">
         <f t="shared" si="51"/>
-        <v>1999</v>
+        <v>99.9</v>
       </c>
       <c r="BF22">
         <f t="shared" si="51"/>
-        <v>2000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B23" s="58"/>
       <c r="H23">
         <f>$B$3*$B$18+0.5*$B$7*$B$18*$B$18+(H20-ABS($B$12))*$B$14</f>
-        <v>1200</v>
+        <v>30</v>
       </c>
       <c r="I23">
         <f t="shared" ref="I23:BF23" si="52">$B$3*ABS($B$12)+0.5*$B$7*ABS($B$12)*ABS($B$12)+(I20-ABS($B$12))*$B$14</f>
-        <v>1240</v>
+        <v>32</v>
       </c>
       <c r="J23">
         <f t="shared" si="52"/>
-        <v>1280</v>
+        <v>34</v>
       </c>
       <c r="K23">
         <f t="shared" si="52"/>
-        <v>1320</v>
+        <v>36</v>
       </c>
       <c r="L23">
         <f t="shared" si="52"/>
-        <v>1360</v>
+        <v>38</v>
       </c>
       <c r="M23">
         <f t="shared" si="52"/>
-        <v>1400</v>
+        <v>40</v>
       </c>
       <c r="N23">
         <f t="shared" si="52"/>
-        <v>1440</v>
+        <v>42</v>
       </c>
       <c r="O23">
         <f t="shared" si="52"/>
-        <v>1480</v>
+        <v>44</v>
       </c>
       <c r="P23">
         <f t="shared" si="52"/>
-        <v>1520</v>
+        <v>46</v>
       </c>
       <c r="Q23">
         <f t="shared" si="52"/>
-        <v>1560</v>
+        <v>48</v>
       </c>
       <c r="R23">
         <f t="shared" si="52"/>
-        <v>1600</v>
+        <v>50</v>
       </c>
       <c r="S23">
         <f t="shared" si="52"/>
-        <v>1640</v>
+        <v>52</v>
       </c>
       <c r="T23">
         <f t="shared" si="52"/>
-        <v>1680</v>
+        <v>54</v>
       </c>
       <c r="U23">
         <f t="shared" si="52"/>
-        <v>1720</v>
+        <v>56</v>
       </c>
       <c r="V23">
         <f t="shared" si="52"/>
-        <v>1760</v>
+        <v>58</v>
       </c>
       <c r="W23">
         <f t="shared" si="52"/>
-        <v>1800</v>
+        <v>60</v>
       </c>
       <c r="X23">
         <f t="shared" si="52"/>
-        <v>1840</v>
+        <v>62</v>
       </c>
       <c r="Y23">
         <f t="shared" si="52"/>
-        <v>1880</v>
+        <v>64</v>
       </c>
       <c r="Z23">
         <f t="shared" si="52"/>
-        <v>1920</v>
+        <v>66</v>
       </c>
       <c r="AA23">
         <f t="shared" si="52"/>
-        <v>1960</v>
+        <v>68</v>
       </c>
       <c r="AB23">
         <f t="shared" si="52"/>
-        <v>2000</v>
+        <v>70</v>
       </c>
       <c r="AC23">
         <f t="shared" si="52"/>
-        <v>2040</v>
+        <v>72</v>
       </c>
       <c r="AD23">
         <f t="shared" si="52"/>
-        <v>2080</v>
+        <v>74</v>
       </c>
       <c r="AE23">
         <f t="shared" si="52"/>
-        <v>2120</v>
+        <v>76</v>
       </c>
       <c r="AF23">
         <f t="shared" si="52"/>
-        <v>2160</v>
+        <v>78</v>
       </c>
       <c r="AG23">
         <f t="shared" si="52"/>
-        <v>2200</v>
+        <v>80</v>
       </c>
       <c r="AH23">
         <f t="shared" si="52"/>
-        <v>2240</v>
+        <v>82</v>
       </c>
       <c r="AI23">
         <f t="shared" si="52"/>
-        <v>2280</v>
+        <v>84</v>
       </c>
       <c r="AJ23">
         <f t="shared" si="52"/>
-        <v>2320</v>
+        <v>86</v>
       </c>
       <c r="AK23">
         <f t="shared" si="52"/>
-        <v>2360</v>
+        <v>88</v>
       </c>
       <c r="AL23">
         <f t="shared" si="52"/>
-        <v>2400</v>
+        <v>90</v>
       </c>
       <c r="AM23">
         <f t="shared" si="52"/>
-        <v>2440</v>
+        <v>92</v>
       </c>
       <c r="AN23">
         <f t="shared" si="52"/>
-        <v>2480</v>
+        <v>94</v>
       </c>
       <c r="AO23">
         <f t="shared" si="52"/>
-        <v>2520</v>
+        <v>96</v>
       </c>
       <c r="AP23">
         <f t="shared" si="52"/>
-        <v>2560</v>
+        <v>98</v>
       </c>
       <c r="AQ23">
         <f t="shared" si="52"/>
-        <v>2600</v>
+        <v>100</v>
       </c>
       <c r="AR23">
         <f t="shared" si="52"/>
-        <v>2640</v>
+        <v>102</v>
       </c>
       <c r="AS23">
         <f t="shared" si="52"/>
-        <v>2680</v>
+        <v>104</v>
       </c>
       <c r="AT23">
         <f t="shared" si="52"/>
-        <v>2720</v>
+        <v>106</v>
       </c>
       <c r="AU23">
         <f t="shared" si="52"/>
-        <v>2760</v>
+        <v>108</v>
       </c>
       <c r="AV23">
         <f t="shared" si="52"/>
-        <v>2800</v>
+        <v>110</v>
       </c>
       <c r="AW23">
         <f t="shared" si="52"/>
-        <v>2840</v>
+        <v>112</v>
       </c>
       <c r="AX23">
         <f t="shared" si="52"/>
-        <v>2880</v>
+        <v>114</v>
       </c>
       <c r="AY23">
         <f t="shared" si="52"/>
-        <v>2920</v>
+        <v>116</v>
       </c>
       <c r="AZ23">
         <f t="shared" si="52"/>
-        <v>2960</v>
+        <v>118</v>
       </c>
       <c r="BA23">
         <f t="shared" si="52"/>
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="BB23">
         <f t="shared" si="52"/>
-        <v>3040</v>
+        <v>122</v>
       </c>
       <c r="BC23">
         <f t="shared" si="52"/>
-        <v>3080</v>
+        <v>124</v>
       </c>
       <c r="BD23">
         <f t="shared" si="52"/>
-        <v>3120</v>
+        <v>126</v>
       </c>
       <c r="BE23">
         <f t="shared" si="52"/>
-        <v>3160</v>
+        <v>128</v>
       </c>
       <c r="BF23">
         <f t="shared" si="52"/>
-        <v>3200</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.3">

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -1753,11 +1753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330255024"/>
-        <c:axId val="330252672"/>
+        <c:axId val="339422008"/>
+        <c:axId val="339425536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330255024"/>
+        <c:axId val="339422008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1795,13 +1795,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330252672"/>
+        <c:crossAx val="339425536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330252672"/>
+        <c:axId val="339425536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1840,7 +1840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330255024"/>
+        <c:crossAx val="339422008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1936,11 +1936,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330248360"/>
-        <c:axId val="330251496"/>
+        <c:axId val="339420048"/>
+        <c:axId val="339425928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330248360"/>
+        <c:axId val="339420048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1952,13 +1952,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330251496"/>
+        <c:crossAx val="339425928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330251496"/>
+        <c:axId val="339425928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1971,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="330248360"/>
+        <c:crossAx val="339420048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -2112,10 +2112,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>183.33333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>800</c:v>
+                  <c:v>983.33333333333337</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
                   <c:v>1000</c:v>
@@ -2130,16 +2130,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,11 +2154,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330247968"/>
-        <c:axId val="330253064"/>
+        <c:axId val="339422400"/>
+        <c:axId val="339419656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330247968"/>
+        <c:axId val="339422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,12 +2201,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330253064"/>
+        <c:crossAx val="339419656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330253064"/>
+        <c:axId val="339419656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2257,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330247968"/>
+        <c:crossAx val="339422400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2625,157 +2625,157 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>0.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19</c:v>
+                  <c:v>0.27999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18000000000000002</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.17</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.16</c:v>
+                  <c:v>0.21999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.15000000000000002</c:v>
+                  <c:v>0.19999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14000000000000001</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13</c:v>
+                  <c:v>0.15999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12000000000000001</c:v>
+                  <c:v>0.13999999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.11000000000000001</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.1</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.0000000000000011E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.08</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>7.0000000000000007E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>6.0000000000000005E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.05</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.0000000000000008E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.03</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.0000000000000004E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.0000000000000009E-2</c:v>
+                  <c:v>0.11666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,11 +2790,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="330254632"/>
-        <c:axId val="330248752"/>
+        <c:axId val="339427104"/>
+        <c:axId val="339423968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="330254632"/>
+        <c:axId val="339427104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,12 +2845,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330248752"/>
+        <c:crossAx val="339423968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="330248752"/>
+        <c:axId val="339423968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2901,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="330254632"/>
+        <c:crossAx val="339427104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3295,154 +3295,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.9</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6</c:v>
+                  <c:v>11.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.1</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.4</c:v>
+                  <c:v>20.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>17.5</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20.399999999999999</c:v>
+                  <c:v>28.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.1</c:v>
+                  <c:v>32.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.6</c:v>
+                  <c:v>35.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.9</c:v>
+                  <c:v>37.799999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30</c:v>
+                  <c:v>40.138888888888886</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>42.472222222222221</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>34</c:v>
+                  <c:v>44.80555555555555</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>47.138888888888886</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38</c:v>
+                  <c:v>49.472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>51.80555555555555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>54.138888888888886</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44</c:v>
+                  <c:v>56.472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46</c:v>
+                  <c:v>58.80555555555555</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48</c:v>
+                  <c:v>61.138888888888886</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>63.472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52</c:v>
+                  <c:v>65.805555555555543</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>54</c:v>
+                  <c:v>68.138888888888872</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>56</c:v>
+                  <c:v>70.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58</c:v>
+                  <c:v>72.805555555555543</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>60</c:v>
+                  <c:v>75.138888888888872</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62</c:v>
+                  <c:v>77.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>64</c:v>
+                  <c:v>79.805555555555543</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>66</c:v>
+                  <c:v>82.138888888888872</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>68</c:v>
+                  <c:v>84.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>70</c:v>
+                  <c:v>86.805555555555543</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>72</c:v>
+                  <c:v>89.138888888888872</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>74</c:v>
+                  <c:v>91.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>76</c:v>
+                  <c:v>93.805555555555543</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>78</c:v>
+                  <c:v>96.138888888888872</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>80</c:v>
+                  <c:v>98.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>82</c:v>
+                  <c:v>100.80555555555554</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>84</c:v>
+                  <c:v>103.13888888888887</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>86</c:v>
+                  <c:v>105.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>88</c:v>
+                  <c:v>107.80555555555553</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>90</c:v>
+                  <c:v>110.13888888888887</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>91.9</c:v>
+                  <c:v>112.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>93.6</c:v>
+                  <c:v>114.80555555555553</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>95.1</c:v>
+                  <c:v>117.13888888888887</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>96.4</c:v>
+                  <c:v>119.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>97.5</c:v>
+                  <c:v>121.80555555555553</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>98.4</c:v>
+                  <c:v>124.13888888888886</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>99.1</c:v>
+                  <c:v>126.4722222222222</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>99.6</c:v>
+                  <c:v>128.80555555555554</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>99.9</c:v>
+                  <c:v>131.13888888888886</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>100</c:v>
+                  <c:v>133.33333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,11 +3457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="316250016"/>
-        <c:axId val="316253936"/>
+        <c:axId val="339424752"/>
+        <c:axId val="339425144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="316250016"/>
+        <c:axId val="339424752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,12 +3517,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316253936"/>
+        <c:crossAx val="339425144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="316253936"/>
+        <c:axId val="339425144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,7 +3578,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="316250016"/>
+        <c:crossAx val="339424752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -30177,7 +30177,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="21">
-        <f>RADIANS(B15)</f>
+        <f t="shared" ref="C15:C20" si="0">RADIANS(B15)</f>
         <v>5.235987755982989E-2</v>
       </c>
       <c r="E15" s="20">
@@ -30200,7 +30200,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="21">
-        <f t="shared" ref="C16:C20" si="0">RADIANS(B16)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="106">
@@ -30554,7 +30554,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" ref="D28" si="1">RADIANS(C28)</f>
+        <f>RADIANS(C28)</f>
         <v>0</v>
       </c>
       <c r="E28">
@@ -33217,7 +33217,7 @@
   <dimension ref="A1:BR24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33235,7 +33235,7 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -33246,7 +33246,7 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -33262,6 +33262,10 @@
       <c r="C5" t="s">
         <v>91</v>
       </c>
+      <c r="D5">
+        <f>$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(B6-$B$19) + SIGN($B$13)*0.5*$B$7*(B6-$B$19)*(B6-$B$19)</f>
+        <v>133.33333333333331</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -33279,7 +33283,7 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>5.0000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
@@ -33306,11 +33310,11 @@
       </c>
       <c r="I11" s="4">
         <f>ABS(B12)</f>
-        <v>200</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="J11" s="3">
         <f>B6-ABS(B13)</f>
-        <v>800</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="K11">
         <f>B6</f>
@@ -33323,33 +33327,33 @@
       </c>
       <c r="B12" s="127">
         <f>(B5- B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 + B3 - B4)</f>
-        <v>-200</v>
+        <v>-183.33333333333334</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
       <c r="D12">
         <f>(B5 - B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 - B3 - B4)</f>
-        <v>-466.66666666666669</v>
+        <v>-366.66666666666669</v>
       </c>
       <c r="G12" t="s">
         <v>84</v>
       </c>
       <c r="H12">
         <f>B3</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I12" s="3">
         <f>B14</f>
-        <v>0.1</v>
+        <v>0.11666666666666664</v>
       </c>
       <c r="J12" s="3">
         <f>I12</f>
-        <v>0.1</v>
+        <v>0.11666666666666664</v>
       </c>
       <c r="K12">
         <f>B4</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -33358,7 +33362,7 @@
       </c>
       <c r="B13" s="3">
         <f>(B4-B3)/B7-B12</f>
-        <v>-200</v>
+        <v>-16.666666666666629</v>
       </c>
       <c r="C13" t="s">
         <v>92</v>
@@ -33371,14 +33375,10 @@
       </c>
       <c r="B14" s="3">
         <f>B3+B7*B12</f>
-        <v>0.1</v>
+        <v>0.11666666666666664</v>
       </c>
       <c r="C14" t="s">
         <v>87</v>
-      </c>
-      <c r="D14">
-        <f>$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(B6-$B$19) + SIGN($B$13)*0.5*$B$7*(B6-$B$19)*(B6-$B$19)</f>
-        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -33387,7 +33387,7 @@
       </c>
       <c r="B15" s="127">
         <f>(B3+B14)/2*B12+B14*(B6-B12-B13)+(B14+B4)/2*B13</f>
-        <v>100</v>
+        <v>99.999999999999972</v>
       </c>
       <c r="C15" t="s">
         <v>91</v>
@@ -33399,7 +33399,7 @@
       </c>
       <c r="B16">
         <f>B14+B13*B7</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C16" t="s">
         <v>87</v>
@@ -33411,7 +33411,7 @@
       </c>
       <c r="B18" s="127">
         <f>ABS(B12)</f>
-        <v>200</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="C18" t="s">
         <v>92</v>
@@ -33423,7 +33423,7 @@
       </c>
       <c r="B19" s="127">
         <f>B6-ABS(B13)</f>
-        <v>800</v>
+        <v>983.33333333333337</v>
       </c>
       <c r="C19" t="s">
         <v>92</v>
@@ -33654,208 +33654,208 @@
         <v>107</v>
       </c>
       <c r="H21" s="127">
-        <f>IF(H20&lt;ABS($B$12),$B$3+SIGN($B$12)*H$20*$B$7,IF(H20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(H20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.2</v>
+        <f t="shared" ref="H21:AM21" si="1">IF(H20&lt;ABS($B$12),$B$3+SIGN($B$12)*H$20*$B$7,IF(H20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(H20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.3</v>
       </c>
       <c r="I21" s="127">
-        <f t="shared" ref="I21" si="1">IF(I20&lt;ABS($B$12),$B$3+SIGN($B$12)*I$20*$B$7,IF(I20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(I20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.19</v>
+        <f t="shared" si="1"/>
+        <v>0.27999999999999997</v>
       </c>
       <c r="J21" s="127">
-        <f t="shared" ref="J21" si="2">IF(J20&lt;ABS($B$12),$B$3+SIGN($B$12)*J$20*$B$7,IF(J20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(J20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.18000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.26</v>
       </c>
       <c r="K21" s="127">
-        <f t="shared" ref="K21" si="3">IF(K20&lt;ABS($B$12),$B$3+SIGN($B$12)*K$20*$B$7,IF(K20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(K20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.17</v>
+        <f t="shared" si="1"/>
+        <v>0.24</v>
       </c>
       <c r="L21" s="127">
-        <f t="shared" ref="L21" si="4">IF(L20&lt;ABS($B$12),$B$3+SIGN($B$12)*L$20*$B$7,IF(L20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(L20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.16</v>
+        <f t="shared" si="1"/>
+        <v>0.21999999999999997</v>
       </c>
       <c r="M21" s="127">
-        <f t="shared" ref="M21" si="5">IF(M20&lt;ABS($B$12),$B$3+SIGN($B$12)*M$20*$B$7,IF(M20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(M20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.15000000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.19999999999999998</v>
       </c>
       <c r="N21" s="127">
-        <f t="shared" ref="N21" si="6">IF(N20&lt;ABS($B$12),$B$3+SIGN($B$12)*N$20*$B$7,IF(N20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(N20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.14000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.18</v>
       </c>
       <c r="O21" s="127">
-        <f t="shared" ref="O21" si="7">IF(O20&lt;ABS($B$12),$B$3+SIGN($B$12)*O$20*$B$7,IF(O20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(O20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.13</v>
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
       </c>
       <c r="P21" s="127">
-        <f t="shared" ref="P21" si="8">IF(P20&lt;ABS($B$12),$B$3+SIGN($B$12)*P$20*$B$7,IF(P20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(P20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.12000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.13999999999999999</v>
       </c>
       <c r="Q21" s="127">
-        <f t="shared" ref="Q21" si="9">IF(Q20&lt;ABS($B$12),$B$3+SIGN($B$12)*Q$20*$B$7,IF(Q20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Q20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.11000000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.12</v>
       </c>
       <c r="R21" s="127">
-        <f t="shared" ref="R21" si="10">IF(R20&lt;ABS($B$12),$B$3+SIGN($B$12)*R$20*$B$7,IF(R20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(R20-($B$6-ABS($B$13)))*$B$7))</f>
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="S21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="T21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="U21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="V21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="W21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="X21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="Y21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="Z21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AA21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AB21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AC21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AD21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AE21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AF21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AG21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AH21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AI21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AJ21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AK21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AL21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AM21" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AN21" s="127">
+        <f t="shared" ref="AN21:BS21" si="2">IF(AN20&lt;ABS($B$12),$B$3+SIGN($B$12)*AN$20*$B$7,IF(AN20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AN20-($B$6-ABS($B$13)))*$B$7))</f>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AO21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AP21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AQ21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AR21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AS21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AT21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AU21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AV21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AW21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AX21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AY21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="AZ21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BA21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BB21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BC21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BD21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BE21" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666664</v>
+      </c>
+      <c r="BF21" s="127">
+        <f t="shared" si="2"/>
         <v>0.1</v>
-      </c>
-      <c r="S21" s="127">
-        <f t="shared" ref="S21" si="11">IF(S20&lt;ABS($B$12),$B$3+SIGN($B$12)*S$20*$B$7,IF(S20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(S20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="T21" s="127">
-        <f t="shared" ref="T21" si="12">IF(T20&lt;ABS($B$12),$B$3+SIGN($B$12)*T$20*$B$7,IF(T20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(T20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="U21" s="127">
-        <f t="shared" ref="U21" si="13">IF(U20&lt;ABS($B$12),$B$3+SIGN($B$12)*U$20*$B$7,IF(U20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(U20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="V21" s="127">
-        <f t="shared" ref="V21" si="14">IF(V20&lt;ABS($B$12),$B$3+SIGN($B$12)*V$20*$B$7,IF(V20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(V20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="W21" s="127">
-        <f t="shared" ref="W21" si="15">IF(W20&lt;ABS($B$12),$B$3+SIGN($B$12)*W$20*$B$7,IF(W20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(W20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="X21" s="127">
-        <f t="shared" ref="X21" si="16">IF(X20&lt;ABS($B$12),$B$3+SIGN($B$12)*X$20*$B$7,IF(X20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(X20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="Y21" s="127">
-        <f t="shared" ref="Y21" si="17">IF(Y20&lt;ABS($B$12),$B$3+SIGN($B$12)*Y$20*$B$7,IF(Y20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Y20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="Z21" s="127">
-        <f t="shared" ref="Z21" si="18">IF(Z20&lt;ABS($B$12),$B$3+SIGN($B$12)*Z$20*$B$7,IF(Z20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(Z20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AA21" s="127">
-        <f t="shared" ref="AA21" si="19">IF(AA20&lt;ABS($B$12),$B$3+SIGN($B$12)*AA$20*$B$7,IF(AA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AA20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AB21" s="127">
-        <f t="shared" ref="AB21" si="20">IF(AB20&lt;ABS($B$12),$B$3+SIGN($B$12)*AB$20*$B$7,IF(AB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AB20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AC21" s="127">
-        <f t="shared" ref="AC21" si="21">IF(AC20&lt;ABS($B$12),$B$3+SIGN($B$12)*AC$20*$B$7,IF(AC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AC20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AD21" s="127">
-        <f t="shared" ref="AD21" si="22">IF(AD20&lt;ABS($B$12),$B$3+SIGN($B$12)*AD$20*$B$7,IF(AD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AD20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AE21" s="127">
-        <f t="shared" ref="AE21" si="23">IF(AE20&lt;ABS($B$12),$B$3+SIGN($B$12)*AE$20*$B$7,IF(AE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AE20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AF21" s="127">
-        <f t="shared" ref="AF21" si="24">IF(AF20&lt;ABS($B$12),$B$3+SIGN($B$12)*AF$20*$B$7,IF(AF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AF20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AG21" s="127">
-        <f t="shared" ref="AG21" si="25">IF(AG20&lt;ABS($B$12),$B$3+SIGN($B$12)*AG$20*$B$7,IF(AG20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AG20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AH21" s="127">
-        <f t="shared" ref="AH21" si="26">IF(AH20&lt;ABS($B$12),$B$3+SIGN($B$12)*AH$20*$B$7,IF(AH20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AH20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AI21" s="127">
-        <f t="shared" ref="AI21" si="27">IF(AI20&lt;ABS($B$12),$B$3+SIGN($B$12)*AI$20*$B$7,IF(AI20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AI20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AJ21" s="127">
-        <f t="shared" ref="AJ21" si="28">IF(AJ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AJ$20*$B$7,IF(AJ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AJ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AK21" s="127">
-        <f t="shared" ref="AK21" si="29">IF(AK20&lt;ABS($B$12),$B$3+SIGN($B$12)*AK$20*$B$7,IF(AK20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AK20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AL21" s="127">
-        <f t="shared" ref="AL21" si="30">IF(AL20&lt;ABS($B$12),$B$3+SIGN($B$12)*AL$20*$B$7,IF(AL20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AL20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AM21" s="127">
-        <f t="shared" ref="AM21" si="31">IF(AM20&lt;ABS($B$12),$B$3+SIGN($B$12)*AM$20*$B$7,IF(AM20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AM20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AN21" s="127">
-        <f t="shared" ref="AN21" si="32">IF(AN20&lt;ABS($B$12),$B$3+SIGN($B$12)*AN$20*$B$7,IF(AN20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AN20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AO21" s="127">
-        <f t="shared" ref="AO21" si="33">IF(AO20&lt;ABS($B$12),$B$3+SIGN($B$12)*AO$20*$B$7,IF(AO20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AO20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AP21" s="127">
-        <f t="shared" ref="AP21" si="34">IF(AP20&lt;ABS($B$12),$B$3+SIGN($B$12)*AP$20*$B$7,IF(AP20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AP20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AQ21" s="127">
-        <f t="shared" ref="AQ21" si="35">IF(AQ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AQ$20*$B$7,IF(AQ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AQ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AR21" s="127">
-        <f t="shared" ref="AR21" si="36">IF(AR20&lt;ABS($B$12),$B$3+SIGN($B$12)*AR$20*$B$7,IF(AR20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AR20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AS21" s="127">
-        <f t="shared" ref="AS21" si="37">IF(AS20&lt;ABS($B$12),$B$3+SIGN($B$12)*AS$20*$B$7,IF(AS20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AS20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AT21" s="127">
-        <f t="shared" ref="AT21" si="38">IF(AT20&lt;ABS($B$12),$B$3+SIGN($B$12)*AT$20*$B$7,IF(AT20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AT20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AU21" s="127">
-        <f t="shared" ref="AU21" si="39">IF(AU20&lt;ABS($B$12),$B$3+SIGN($B$12)*AU$20*$B$7,IF(AU20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AU20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AV21" s="127">
-        <f t="shared" ref="AV21" si="40">IF(AV20&lt;ABS($B$12),$B$3+SIGN($B$12)*AV$20*$B$7,IF(AV20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AV20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.1</v>
-      </c>
-      <c r="AW21" s="127">
-        <f t="shared" ref="AW21" si="41">IF(AW20&lt;ABS($B$12),$B$3+SIGN($B$12)*AW$20*$B$7,IF(AW20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AW20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="AX21" s="127">
-        <f t="shared" ref="AX21" si="42">IF(AX20&lt;ABS($B$12),$B$3+SIGN($B$12)*AX$20*$B$7,IF(AX20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AX20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.08</v>
-      </c>
-      <c r="AY21" s="127">
-        <f t="shared" ref="AY21" si="43">IF(AY20&lt;ABS($B$12),$B$3+SIGN($B$12)*AY$20*$B$7,IF(AY20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AY20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="AZ21" s="127">
-        <f t="shared" ref="AZ21" si="44">IF(AZ20&lt;ABS($B$12),$B$3+SIGN($B$12)*AZ$20*$B$7,IF(AZ20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AZ20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="BA21" s="127">
-        <f t="shared" ref="BA21" si="45">IF(BA20&lt;ABS($B$12),$B$3+SIGN($B$12)*BA$20*$B$7,IF(BA20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BA20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.05</v>
-      </c>
-      <c r="BB21" s="127">
-        <f t="shared" ref="BB21" si="46">IF(BB20&lt;ABS($B$12),$B$3+SIGN($B$12)*BB$20*$B$7,IF(BB20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BB20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="BC21" s="127">
-        <f t="shared" ref="BC21" si="47">IF(BC20&lt;ABS($B$12),$B$3+SIGN($B$12)*BC$20*$B$7,IF(BC20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BC20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.03</v>
-      </c>
-      <c r="BD21" s="127">
-        <f t="shared" ref="BD21" si="48">IF(BD20&lt;ABS($B$12),$B$3+SIGN($B$12)*BD$20*$B$7,IF(BD20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BD20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="BE21" s="127">
-        <f t="shared" ref="BE21" si="49">IF(BE20&lt;ABS($B$12),$B$3+SIGN($B$12)*BE$20*$B$7,IF(BE20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BE20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>1.0000000000000009E-2</v>
-      </c>
-      <c r="BF21" s="127">
-        <f t="shared" ref="BF21" si="50">IF(BF20&lt;ABS($B$12),$B$3+SIGN($B$12)*BF$20*$B$7,IF(BF20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(BF20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0</v>
       </c>
       <c r="BG21" s="127"/>
       <c r="BH21" s="127"/>
@@ -33889,415 +33889,415 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:BF22" si="51">IF(I20&lt;$B$18,
+        <f t="shared" ref="I22:BF22" si="3">IF(I20&lt;$B$18,
 $B$3*I20+SIGN($B$12)*0.5*$B$7*I20*I20,
 IF(I20&lt;$B$19,
 $B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(I20-$B$18)*$B$14,
 $B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(I20-$B$19) + SIGN($B$13)*0.5*$B$7*(I20-$B$19)*(I20-$B$19)))</f>
-        <v>3.9</v>
+        <v>5.8</v>
       </c>
       <c r="J22">
-        <f t="shared" si="51"/>
-        <v>7.6</v>
+        <f t="shared" si="3"/>
+        <v>11.2</v>
       </c>
       <c r="K22">
-        <f t="shared" si="51"/>
-        <v>11.1</v>
+        <f t="shared" si="3"/>
+        <v>16.2</v>
       </c>
       <c r="L22">
-        <f t="shared" si="51"/>
-        <v>14.4</v>
+        <f t="shared" si="3"/>
+        <v>20.8</v>
       </c>
       <c r="M22">
-        <f t="shared" si="51"/>
-        <v>17.5</v>
+        <f t="shared" si="3"/>
+        <v>25</v>
       </c>
       <c r="N22">
-        <f t="shared" si="51"/>
-        <v>20.399999999999999</v>
+        <f t="shared" si="3"/>
+        <v>28.8</v>
       </c>
       <c r="O22">
-        <f t="shared" si="51"/>
-        <v>23.1</v>
+        <f t="shared" si="3"/>
+        <v>32.200000000000003</v>
       </c>
       <c r="P22">
-        <f t="shared" si="51"/>
-        <v>25.6</v>
+        <f t="shared" si="3"/>
+        <v>35.200000000000003</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="51"/>
-        <v>27.9</v>
+        <f t="shared" si="3"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="R22">
-        <f t="shared" si="51"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>40.138888888888886</v>
       </c>
       <c r="S22">
-        <f t="shared" si="51"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>42.472222222222221</v>
       </c>
       <c r="T22">
-        <f t="shared" si="51"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>44.80555555555555</v>
       </c>
       <c r="U22">
-        <f t="shared" si="51"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>47.138888888888886</v>
       </c>
       <c r="V22">
-        <f t="shared" si="51"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>49.472222222222214</v>
       </c>
       <c r="W22">
-        <f t="shared" si="51"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>51.80555555555555</v>
       </c>
       <c r="X22">
-        <f t="shared" si="51"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>54.138888888888886</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="51"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>56.472222222222214</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="51"/>
-        <v>46</v>
+        <f t="shared" si="3"/>
+        <v>58.80555555555555</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="51"/>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>61.138888888888886</v>
       </c>
       <c r="AB22">
-        <f t="shared" si="51"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>63.472222222222214</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="51"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>65.805555555555543</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="51"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>68.138888888888872</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="51"/>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>70.4722222222222</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="51"/>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>72.805555555555543</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="51"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>75.138888888888872</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="51"/>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>77.4722222222222</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="51"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>79.805555555555543</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="51"/>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>82.138888888888872</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="51"/>
-        <v>68</v>
+        <f t="shared" si="3"/>
+        <v>84.4722222222222</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="51"/>
-        <v>70</v>
+        <f t="shared" si="3"/>
+        <v>86.805555555555543</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="51"/>
-        <v>72</v>
+        <f t="shared" si="3"/>
+        <v>89.138888888888872</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="51"/>
-        <v>74</v>
+        <f t="shared" si="3"/>
+        <v>91.4722222222222</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="51"/>
-        <v>76</v>
+        <f t="shared" si="3"/>
+        <v>93.805555555555543</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="51"/>
-        <v>78</v>
+        <f t="shared" si="3"/>
+        <v>96.138888888888872</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="51"/>
-        <v>80</v>
+        <f t="shared" si="3"/>
+        <v>98.4722222222222</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="51"/>
-        <v>82</v>
+        <f t="shared" si="3"/>
+        <v>100.80555555555554</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="51"/>
-        <v>84</v>
+        <f t="shared" si="3"/>
+        <v>103.13888888888887</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="51"/>
-        <v>86</v>
+        <f t="shared" si="3"/>
+        <v>105.4722222222222</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="51"/>
-        <v>88</v>
+        <f t="shared" si="3"/>
+        <v>107.80555555555553</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="51"/>
-        <v>90</v>
+        <f t="shared" si="3"/>
+        <v>110.13888888888887</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="51"/>
-        <v>91.9</v>
+        <f t="shared" si="3"/>
+        <v>112.4722222222222</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="51"/>
-        <v>93.6</v>
+        <f t="shared" si="3"/>
+        <v>114.80555555555553</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="51"/>
-        <v>95.1</v>
+        <f t="shared" si="3"/>
+        <v>117.13888888888887</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="51"/>
-        <v>96.4</v>
+        <f t="shared" si="3"/>
+        <v>119.4722222222222</v>
       </c>
       <c r="BA22">
-        <f t="shared" si="51"/>
-        <v>97.5</v>
+        <f t="shared" si="3"/>
+        <v>121.80555555555553</v>
       </c>
       <c r="BB22">
-        <f t="shared" si="51"/>
-        <v>98.4</v>
+        <f t="shared" si="3"/>
+        <v>124.13888888888886</v>
       </c>
       <c r="BC22">
-        <f t="shared" si="51"/>
-        <v>99.1</v>
+        <f t="shared" si="3"/>
+        <v>126.4722222222222</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="51"/>
-        <v>99.6</v>
+        <f t="shared" si="3"/>
+        <v>128.80555555555554</v>
       </c>
       <c r="BE22">
-        <f t="shared" si="51"/>
-        <v>99.9</v>
+        <f t="shared" si="3"/>
+        <v>131.13888888888886</v>
       </c>
       <c r="BF22">
-        <f t="shared" si="51"/>
-        <v>100</v>
+        <f t="shared" si="3"/>
+        <v>133.33333333333331</v>
       </c>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B23" s="58"/>
       <c r="H23">
         <f>$B$3*$B$18+0.5*$B$7*$B$18*$B$18+(H20-ABS($B$12))*$B$14</f>
-        <v>30</v>
+        <v>50.416666666666671</v>
       </c>
       <c r="I23">
-        <f t="shared" ref="I23:BF23" si="52">$B$3*ABS($B$12)+0.5*$B$7*ABS($B$12)*ABS($B$12)+(I20-ABS($B$12))*$B$14</f>
-        <v>32</v>
+        <f t="shared" ref="I23:BF23" si="4">$B$3*ABS($B$12)+0.5*$B$7*ABS($B$12)*ABS($B$12)+(I20-ABS($B$12))*$B$14</f>
+        <v>52.75</v>
       </c>
       <c r="J23">
-        <f t="shared" si="52"/>
-        <v>34</v>
+        <f t="shared" si="4"/>
+        <v>55.083333333333343</v>
       </c>
       <c r="K23">
-        <f t="shared" si="52"/>
-        <v>36</v>
+        <f t="shared" si="4"/>
+        <v>57.416666666666671</v>
       </c>
       <c r="L23">
-        <f t="shared" si="52"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>59.75</v>
       </c>
       <c r="M23">
-        <f t="shared" si="52"/>
-        <v>40</v>
+        <f t="shared" si="4"/>
+        <v>62.083333333333336</v>
       </c>
       <c r="N23">
-        <f t="shared" si="52"/>
-        <v>42</v>
+        <f t="shared" si="4"/>
+        <v>64.416666666666671</v>
       </c>
       <c r="O23">
-        <f t="shared" si="52"/>
-        <v>44</v>
+        <f t="shared" si="4"/>
+        <v>66.75</v>
       </c>
       <c r="P23">
-        <f t="shared" si="52"/>
-        <v>46</v>
+        <f t="shared" si="4"/>
+        <v>69.083333333333329</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="52"/>
-        <v>48</v>
+        <f t="shared" si="4"/>
+        <v>71.416666666666671</v>
       </c>
       <c r="R23">
-        <f t="shared" si="52"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>73.75</v>
       </c>
       <c r="S23">
-        <f t="shared" si="52"/>
-        <v>52</v>
+        <f t="shared" si="4"/>
+        <v>76.083333333333329</v>
       </c>
       <c r="T23">
-        <f t="shared" si="52"/>
-        <v>54</v>
+        <f t="shared" si="4"/>
+        <v>78.416666666666671</v>
       </c>
       <c r="U23">
-        <f t="shared" si="52"/>
-        <v>56</v>
+        <f t="shared" si="4"/>
+        <v>80.75</v>
       </c>
       <c r="V23">
-        <f t="shared" si="52"/>
-        <v>58</v>
+        <f t="shared" si="4"/>
+        <v>83.083333333333329</v>
       </c>
       <c r="W23">
-        <f t="shared" si="52"/>
-        <v>60</v>
+        <f t="shared" si="4"/>
+        <v>85.416666666666657</v>
       </c>
       <c r="X23">
-        <f t="shared" si="52"/>
-        <v>62</v>
+        <f t="shared" si="4"/>
+        <v>87.75</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="52"/>
-        <v>64</v>
+        <f t="shared" si="4"/>
+        <v>90.083333333333329</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="52"/>
-        <v>66</v>
+        <f t="shared" si="4"/>
+        <v>92.416666666666657</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="52"/>
-        <v>68</v>
+        <f t="shared" si="4"/>
+        <v>94.75</v>
       </c>
       <c r="AB23">
-        <f t="shared" si="52"/>
-        <v>70</v>
+        <f t="shared" si="4"/>
+        <v>97.083333333333329</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="52"/>
-        <v>72</v>
+        <f t="shared" si="4"/>
+        <v>99.416666666666657</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="52"/>
-        <v>74</v>
+        <f t="shared" si="4"/>
+        <v>101.74999999999999</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="52"/>
-        <v>76</v>
+        <f t="shared" si="4"/>
+        <v>104.08333333333331</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="52"/>
-        <v>78</v>
+        <f t="shared" si="4"/>
+        <v>106.41666666666666</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="52"/>
-        <v>80</v>
+        <f t="shared" si="4"/>
+        <v>108.74999999999999</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="52"/>
-        <v>82</v>
+        <f t="shared" si="4"/>
+        <v>111.08333333333331</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="52"/>
-        <v>84</v>
+        <f t="shared" si="4"/>
+        <v>113.41666666666666</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="52"/>
-        <v>86</v>
+        <f t="shared" si="4"/>
+        <v>115.74999999999999</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="52"/>
-        <v>88</v>
+        <f t="shared" si="4"/>
+        <v>118.08333333333331</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="52"/>
-        <v>90</v>
+        <f t="shared" si="4"/>
+        <v>120.41666666666666</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="52"/>
-        <v>92</v>
+        <f t="shared" si="4"/>
+        <v>122.74999999999999</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="52"/>
-        <v>94</v>
+        <f t="shared" si="4"/>
+        <v>125.08333333333331</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="52"/>
-        <v>96</v>
+        <f t="shared" si="4"/>
+        <v>127.41666666666666</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="52"/>
-        <v>98</v>
+        <f t="shared" si="4"/>
+        <v>129.75</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="52"/>
-        <v>100</v>
+        <f t="shared" si="4"/>
+        <v>132.08333333333331</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="52"/>
-        <v>102</v>
+        <f t="shared" si="4"/>
+        <v>134.41666666666666</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="52"/>
-        <v>104</v>
+        <f t="shared" si="4"/>
+        <v>136.75</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="52"/>
-        <v>106</v>
+        <f t="shared" si="4"/>
+        <v>139.08333333333331</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="52"/>
-        <v>108</v>
+        <f t="shared" si="4"/>
+        <v>141.41666666666663</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="52"/>
-        <v>110</v>
+        <f t="shared" si="4"/>
+        <v>143.75</v>
       </c>
       <c r="AW23">
-        <f t="shared" si="52"/>
-        <v>112</v>
+        <f t="shared" si="4"/>
+        <v>146.08333333333331</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="52"/>
-        <v>114</v>
+        <f t="shared" si="4"/>
+        <v>148.41666666666663</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="52"/>
-        <v>116</v>
+        <f t="shared" si="4"/>
+        <v>150.75</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="52"/>
-        <v>118</v>
+        <f t="shared" si="4"/>
+        <v>153.08333333333331</v>
       </c>
       <c r="BA23">
-        <f t="shared" si="52"/>
-        <v>120</v>
+        <f t="shared" si="4"/>
+        <v>155.41666666666663</v>
       </c>
       <c r="BB23">
-        <f t="shared" si="52"/>
-        <v>122</v>
+        <f t="shared" si="4"/>
+        <v>157.74999999999997</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="52"/>
-        <v>124</v>
+        <f t="shared" si="4"/>
+        <v>160.08333333333331</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="52"/>
-        <v>126</v>
+        <f t="shared" si="4"/>
+        <v>162.41666666666663</v>
       </c>
       <c r="BE23">
-        <f t="shared" si="52"/>
-        <v>128</v>
+        <f t="shared" si="4"/>
+        <v>164.74999999999997</v>
       </c>
       <c r="BF23">
-        <f t="shared" si="52"/>
-        <v>130</v>
+        <f t="shared" si="4"/>
+        <v>167.08333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.3">

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -1009,22 +1009,6 @@
   </si>
   <si>
     <r>
-      <t>v</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>average</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
@@ -1171,6 +1155,18 @@
       </rPr>
       <t>abs,1</t>
     </r>
+  </si>
+  <si>
+    <t>Steigend:</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>trapez</t>
   </si>
 </sst>
 </file>
@@ -1753,11 +1749,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339422008"/>
-        <c:axId val="339425536"/>
+        <c:axId val="317526856"/>
+        <c:axId val="317519800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339422008"/>
+        <c:axId val="317526856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1795,13 +1791,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339425536"/>
+        <c:crossAx val="317519800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339425536"/>
+        <c:axId val="317519800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1840,7 +1836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339422008"/>
+        <c:crossAx val="317526856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1936,11 +1932,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339420048"/>
-        <c:axId val="339425928"/>
+        <c:axId val="317522936"/>
+        <c:axId val="317520192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339420048"/>
+        <c:axId val="317522936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1952,13 +1948,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339425928"/>
+        <c:crossAx val="317520192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339425928"/>
+        <c:axId val="317520192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1971,7 +1967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="339420048"/>
+        <c:crossAx val="317522936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -2104,7 +2100,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$11:$K$11</c:f>
+              <c:f>'Trajectory Speed profile'!$H$14:$K$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2112,34 +2108,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>183.33333333333334</c:v>
+                  <c:v>244</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>983.33333333333337</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1000</c:v>
+                  <c:v>690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$12:$K$12</c:f>
+              <c:f>'Trajectory Speed profile'!$H$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2154,11 +2150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339422400"/>
-        <c:axId val="339419656"/>
+        <c:axId val="339615528"/>
+        <c:axId val="339615136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339422400"/>
+        <c:axId val="339615528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2201,12 +2197,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339419656"/>
+        <c:crossAx val="339615136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339419656"/>
+        <c:axId val="339615136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2253,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339422400"/>
+        <c:crossAx val="339615528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2378,7 +2374,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2458,7 +2453,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$20:$BF$20</c:f>
+              <c:f>'Trajectory Speed profile'!$H$23:$BF$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2466,316 +2461,316 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>41.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>180</c:v>
+                  <c:v>124.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>151.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240</c:v>
+                  <c:v>165.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>260</c:v>
+                  <c:v>179.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>280</c:v>
+                  <c:v>193.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>207.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320</c:v>
+                  <c:v>220.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>340</c:v>
+                  <c:v>234.60000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>360</c:v>
+                  <c:v>248.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>380</c:v>
+                  <c:v>262.2000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>276.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>420</c:v>
+                  <c:v>289.80000000000013</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>440</c:v>
+                  <c:v>303.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460</c:v>
+                  <c:v>317.40000000000015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>480</c:v>
+                  <c:v>331.20000000000016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>500</c:v>
+                  <c:v>345.00000000000017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>520</c:v>
+                  <c:v>358.80000000000018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>540</c:v>
+                  <c:v>372.60000000000019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>560</c:v>
+                  <c:v>386.4000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>580</c:v>
+                  <c:v>400.20000000000022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>600</c:v>
+                  <c:v>414.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>620</c:v>
+                  <c:v>427.80000000000024</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>640</c:v>
+                  <c:v>441.60000000000025</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>660</c:v>
+                  <c:v>455.40000000000026</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>680</c:v>
+                  <c:v>469.20000000000027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>700</c:v>
+                  <c:v>483.00000000000028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>720</c:v>
+                  <c:v>496.8000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>740</c:v>
+                  <c:v>510.60000000000031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>760</c:v>
+                  <c:v>524.40000000000032</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>780</c:v>
+                  <c:v>538.20000000000027</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>800</c:v>
+                  <c:v>552.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>820</c:v>
+                  <c:v>565.80000000000018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>840</c:v>
+                  <c:v>579.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>860</c:v>
+                  <c:v>593.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>880</c:v>
+                  <c:v>607.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>900</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>920</c:v>
+                  <c:v>634.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>940</c:v>
+                  <c:v>648.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>960</c:v>
+                  <c:v>662.39999999999986</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>980</c:v>
+                  <c:v>676.19999999999982</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1000</c:v>
+                  <c:v>689.99999999999977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$21:$BF$21</c:f>
+              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0.3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27999999999999997</c:v>
+                  <c:v>6.9000000000000008E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26</c:v>
+                  <c:v>1.3800000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24</c:v>
+                  <c:v>2.0700000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.21999999999999997</c:v>
+                  <c:v>2.7600000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.19999999999999998</c:v>
+                  <c:v>3.4500000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.18</c:v>
+                  <c:v>4.1399999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.15999999999999998</c:v>
+                  <c:v>4.8299999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.13999999999999999</c:v>
+                  <c:v>5.5199999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12</c:v>
+                  <c:v>6.2099999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>6.9000000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>7.5900000000000009E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>8.2800000000000012E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>8.9700000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>9.6600000000000019E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.10350000000000004</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.11040000000000004</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.11730000000000004</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.11729999999999986</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.11039999999999986</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>0.10349999999999986</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>9.6599999999999853E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>8.9699999999999835E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>8.2799999999999846E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>7.5899999999999856E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>6.8999999999999881E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>6.2099999999999905E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>5.519999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>4.8299999999999954E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>4.1399999999999978E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>3.4499999999999989E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>2.7600000000000013E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>2.0700000000000038E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>1.3800000000000062E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.11666666666666664</c:v>
+                  <c:v>6.9000000000000866E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.1</c:v>
+                  <c:v>1.1102230246251565E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2790,11 +2785,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339427104"/>
-        <c:axId val="339423968"/>
+        <c:axId val="339617096"/>
+        <c:axId val="339618664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339427104"/>
+        <c:axId val="339617096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,12 +2840,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339423968"/>
+        <c:crossAx val="339618664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339423968"/>
+        <c:axId val="339618664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,7 +2896,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339427104"/>
+        <c:crossAx val="339617096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2915,7 +2910,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3034,7 +3028,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3125,7 +3118,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$20:$BF$20</c:f>
+              <c:f>'Trajectory Speed profile'!$H$23:$BF$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3133,161 +3126,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>13.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>27.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>41.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>80</c:v>
+                  <c:v>55.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>120</c:v>
+                  <c:v>82.8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>140</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>160</c:v>
+                  <c:v>110.39999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>180</c:v>
+                  <c:v>124.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>200</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>220</c:v>
+                  <c:v>151.80000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>240</c:v>
+                  <c:v>165.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>260</c:v>
+                  <c:v>179.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>280</c:v>
+                  <c:v>193.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>300</c:v>
+                  <c:v>207.00000000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>320</c:v>
+                  <c:v>220.80000000000007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>340</c:v>
+                  <c:v>234.60000000000008</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>360</c:v>
+                  <c:v>248.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>380</c:v>
+                  <c:v>262.2000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400</c:v>
+                  <c:v>276.00000000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>420</c:v>
+                  <c:v>289.80000000000013</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>440</c:v>
+                  <c:v>303.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>460</c:v>
+                  <c:v>317.40000000000015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>480</c:v>
+                  <c:v>331.20000000000016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>500</c:v>
+                  <c:v>345.00000000000017</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>520</c:v>
+                  <c:v>358.80000000000018</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>540</c:v>
+                  <c:v>372.60000000000019</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>560</c:v>
+                  <c:v>386.4000000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>580</c:v>
+                  <c:v>400.20000000000022</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>600</c:v>
+                  <c:v>414.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>620</c:v>
+                  <c:v>427.80000000000024</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>640</c:v>
+                  <c:v>441.60000000000025</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>660</c:v>
+                  <c:v>455.40000000000026</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>680</c:v>
+                  <c:v>469.20000000000027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>700</c:v>
+                  <c:v>483.00000000000028</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>720</c:v>
+                  <c:v>496.8000000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>740</c:v>
+                  <c:v>510.60000000000031</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>760</c:v>
+                  <c:v>524.40000000000032</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>780</c:v>
+                  <c:v>538.20000000000027</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>800</c:v>
+                  <c:v>552.00000000000023</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>820</c:v>
+                  <c:v>565.80000000000018</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>840</c:v>
+                  <c:v>579.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>860</c:v>
+                  <c:v>593.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>880</c:v>
+                  <c:v>607.20000000000005</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>900</c:v>
+                  <c:v>621</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>920</c:v>
+                  <c:v>634.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>940</c:v>
+                  <c:v>648.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>960</c:v>
+                  <c:v>662.39999999999986</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>980</c:v>
+                  <c:v>676.19999999999982</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1000</c:v>
+                  <c:v>689.99999999999977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$22:$BF$22</c:f>
+              <c:f>'Trajectory Speed profile'!$H$25:$BF$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3295,154 +3288,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8</c:v>
+                  <c:v>4.7610000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11.2</c:v>
+                  <c:v>0.19044000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.2</c:v>
+                  <c:v>0.42849000000000015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.8</c:v>
+                  <c:v>0.7617600000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>1.19025</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28.8</c:v>
+                  <c:v>1.7139599999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.200000000000003</c:v>
+                  <c:v>2.3328899999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.200000000000003</c:v>
+                  <c:v>3.0470399999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37.799999999999997</c:v>
+                  <c:v>3.8564099999999994</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.138888888888886</c:v>
+                  <c:v>4.7610000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.472222222222221</c:v>
+                  <c:v>5.7608100000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44.80555555555555</c:v>
+                  <c:v>6.8558400000000024</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.138888888888886</c:v>
+                  <c:v>8.0460900000000031</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49.472222222222214</c:v>
+                  <c:v>9.3315600000000032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.80555555555555</c:v>
+                  <c:v>10.712250000000006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>54.138888888888886</c:v>
+                  <c:v>12.188160000000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>56.472222222222214</c:v>
+                  <c:v>13.759290000000009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58.80555555555555</c:v>
+                  <c:v>15.42080000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61.138888888888886</c:v>
+                  <c:v>17.104400000000012</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.472222222222214</c:v>
+                  <c:v>18.788000000000014</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>65.805555555555543</c:v>
+                  <c:v>20.471600000000016</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>68.138888888888872</c:v>
+                  <c:v>22.155200000000015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>70.4722222222222</c:v>
+                  <c:v>23.83880000000002</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72.805555555555543</c:v>
+                  <c:v>25.522400000000019</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75.138888888888872</c:v>
+                  <c:v>27.206000000000021</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>77.4722222222222</c:v>
+                  <c:v>28.889600000000023</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.805555555555543</c:v>
+                  <c:v>30.573200000000021</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>82.138888888888872</c:v>
+                  <c:v>32.256800000000027</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>84.4722222222222</c:v>
+                  <c:v>33.940400000000025</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>86.805555555555543</c:v>
+                  <c:v>35.624000000000024</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>89.138888888888872</c:v>
+                  <c:v>37.307600000000029</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>91.4722222222222</c:v>
+                  <c:v>38.991200000000035</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>93.805555555555543</c:v>
+                  <c:v>40.652710000000035</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>96.138888888888872</c:v>
+                  <c:v>42.223840000000031</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>98.4722222222222</c:v>
+                  <c:v>43.699750000000023</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100.80555555555554</c:v>
+                  <c:v>45.080440000000031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>103.13888888888887</c:v>
+                  <c:v>46.365910000000021</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>105.4722222222222</c:v>
+                  <c:v>47.556160000000027</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>107.80555555555553</c:v>
+                  <c:v>48.651190000000021</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>110.13888888888887</c:v>
+                  <c:v>49.65100000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>112.4722222222222</c:v>
+                  <c:v>50.555590000000009</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>114.80555555555553</c:v>
+                  <c:v>51.364960000000011</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>117.13888888888887</c:v>
+                  <c:v>52.07911</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>119.4722222222222</c:v>
+                  <c:v>52.698039999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>121.80555555555553</c:v>
+                  <c:v>53.22175</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>124.13888888888886</c:v>
+                  <c:v>53.650239999999997</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>126.4722222222222</c:v>
+                  <c:v>53.983509999999995</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>128.80555555555554</c:v>
+                  <c:v>54.221559999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>131.13888888888886</c:v>
+                  <c:v>54.36439</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>133.33333333333331</c:v>
+                  <c:v>54.411999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3457,11 +3450,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339424752"/>
-        <c:axId val="339425144"/>
+        <c:axId val="339615920"/>
+        <c:axId val="339620624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339424752"/>
+        <c:axId val="339615920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3517,12 +3510,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339425144"/>
+        <c:crossAx val="339620624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339425144"/>
+        <c:axId val="339620624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3578,7 +3571,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339424752"/>
+        <c:crossAx val="339615920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3592,7 +3585,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29669,7 +29661,7 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29693,13 +29685,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29725,13 +29717,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33214,10 +33206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR24"/>
+  <dimension ref="A1:BR27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33235,7 +33227,7 @@
         <v>85</v>
       </c>
       <c r="B3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>87</v>
@@ -33246,7 +33238,7 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -33257,14 +33249,18 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5">
-        <f>$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(B6-$B$19) + SIGN($B$13)*0.5*$B$7*(B6-$B$19)*(B6-$B$19)</f>
-        <v>133.33333333333331</v>
+        <f>$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(B6-$B$22) + SIGN($B$16)*0.5*$B$7*(B6-$B$22)*(B6-$B$22)</f>
+        <v>54.411999999999992</v>
+      </c>
+      <c r="E5">
+        <f>B3*B15+0.5*B7*B15*B15+(B3+B7*B15)*(B6-B9-2*B15) + (B3+B7*B15)*(B9+B15)-0.5*B7*(B9+B15)*(B9+B15)</f>
+        <v>54.411999999999992</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -33272,10 +33268,14 @@
         <v>90</v>
       </c>
       <c r="B6">
-        <v>1000</v>
+        <v>690</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
+      </c>
+      <c r="E6">
+        <f>B3*B6-B3*B9+B3*B9-0.5*B7*B9*B9 + B15*(B3+B7*B6-B7*B9-2*B3+B7*B9+B3-B7*B9) + B15*B15*(0.5*B7-2*B7+B7-0.5*B7)</f>
+        <v>54.412000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -33283,1025 +33283,1074 @@
         <v>71</v>
       </c>
       <c r="B7">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7" t="s">
         <v>95</v>
       </c>
+      <c r="E7">
+        <f>B3*B6-0.5*B7*B9*B9 + B15*(B7*B6-B7*B9) + B15*B15*(-B7)</f>
+        <v>54.412000000000006</v>
+      </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9">
+        <f>(B3-B4)/B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="60">
-        <f>B5/B6</f>
-        <v>0.1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>87</v>
+        <v>112</v>
+      </c>
+      <c r="B10">
+        <f>B3*B6-0.5*B7*B9*B9 - B5</f>
+        <v>-69</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <f>B7*B6-B7*B9</f>
+        <v>0.34500000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12">
+        <f>-B7</f>
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="60" t="e">
+        <f>(-B11+SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="C13" s="60" t="e">
+        <f>(-B11-SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
         <v>89</v>
       </c>
-      <c r="H11">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="I11" s="4">
-        <f>ABS(B12)</f>
-        <v>183.33333333333334</v>
-      </c>
-      <c r="J11" s="3">
-        <f>B6-ABS(B13)</f>
-        <v>983.33333333333337</v>
-      </c>
-      <c r="K11">
+      <c r="I14" s="4">
+        <f>ABS(B15)</f>
+        <v>244</v>
+      </c>
+      <c r="J14" s="3">
+        <f>B6-ABS(B16)</f>
+        <v>446</v>
+      </c>
+      <c r="K14">
         <f>B6</f>
-        <v>1000</v>
+        <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="127">
-        <f>(B5- B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 + B3 - B4)</f>
-        <v>-183.33333333333334</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B15" s="127">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
         <v>92</v>
       </c>
-      <c r="D12">
-        <f>(B5 - B3*B6 - 0.5*(B4-B3)*(B4-B3)/B7) / ( B7*B6 - B3 - B4)</f>
-        <v>-366.66666666666669</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="D15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E15">
+        <f>(B5-B3*B6-0.5*(B4-B3)*(B4-B3)/B7)/(B6*B7+(B3-B4))</f>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="H12">
+      <c r="H15">
         <f>B3</f>
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="3">
-        <f>B14</f>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="J12" s="3">
-        <f>I12</f>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <f>B17</f>
+        <v>0.122</v>
+      </c>
+      <c r="J15" s="3">
+        <f>I15</f>
+        <v>0.122</v>
+      </c>
+      <c r="K15">
         <f>B4</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="3">
-        <f>(B4-B3)/B7-B12</f>
-        <v>-16.666666666666629</v>
-      </c>
-      <c r="C13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="75"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="3">
-        <f>B3+B7*B12</f>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="C14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="127">
-        <f>(B3+B14)/2*B12+B14*(B6-B12-B13)+(B14+B4)/2*B13</f>
-        <v>99.999999999999972</v>
-      </c>
-      <c r="C15" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16">
-        <f>B14+B13*B7</f>
-        <v>0.1</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="3">
+        <f>(B4-B3)/B7-B15</f>
+        <v>-244</v>
       </c>
       <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" t="e">
+        <f>(-B11+SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="3">
+        <f>B3+B7*B15</f>
+        <v>0.122</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B18" s="127">
-        <f>ABS(B12)</f>
-        <v>183.33333333333334</v>
+        <f>(B3+B17)/2*B15+B17*(B6-B15-B16)+(B17+B4)/2*B16</f>
+        <v>84.179999999999993</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="127">
-        <f>B6-ABS(B13)</f>
-        <v>983.33333333333337</v>
+        <v>86</v>
+      </c>
+      <c r="B19">
+        <f>B17+B16*B7</f>
+        <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A20" s="128" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" t="s">
-        <v>101</v>
-      </c>
-      <c r="G20" t="s">
-        <v>106</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>(H20+$B$6/50)</f>
-        <v>20</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ref="J20:BF20" si="0">(I20+$B$6/50)</f>
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="N20">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="S20">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="T20">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="U20">
-        <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="V20">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="W20">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="X20">
-        <f t="shared" si="0"/>
-        <v>320</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" si="0"/>
-        <v>340</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" si="0"/>
-        <v>380</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="AC20">
-        <f t="shared" si="0"/>
-        <v>420</v>
-      </c>
-      <c r="AD20">
-        <f t="shared" si="0"/>
-        <v>440</v>
-      </c>
-      <c r="AE20">
-        <f t="shared" si="0"/>
-        <v>460</v>
-      </c>
-      <c r="AF20">
-        <f t="shared" si="0"/>
-        <v>480</v>
-      </c>
-      <c r="AG20">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-      <c r="AH20">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="AI20">
-        <f t="shared" si="0"/>
-        <v>540</v>
-      </c>
-      <c r="AJ20">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-      <c r="AK20">
-        <f t="shared" si="0"/>
-        <v>580</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="AM20">
-        <f t="shared" si="0"/>
-        <v>620</v>
-      </c>
-      <c r="AN20">
-        <f t="shared" si="0"/>
-        <v>640</v>
-      </c>
-      <c r="AO20">
-        <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="AP20">
-        <f t="shared" si="0"/>
-        <v>680</v>
-      </c>
-      <c r="AQ20">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="AR20">
-        <f t="shared" si="0"/>
-        <v>720</v>
-      </c>
-      <c r="AS20">
-        <f t="shared" si="0"/>
-        <v>740</v>
-      </c>
-      <c r="AT20">
-        <f t="shared" si="0"/>
-        <v>760</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="0"/>
-        <v>780</v>
-      </c>
-      <c r="AV20">
-        <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="AW20">
-        <f t="shared" si="0"/>
-        <v>820</v>
-      </c>
-      <c r="AX20">
-        <f t="shared" si="0"/>
-        <v>840</v>
-      </c>
-      <c r="AY20">
-        <f t="shared" si="0"/>
-        <v>860</v>
-      </c>
-      <c r="AZ20">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="BA20">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="BB20">
-        <f t="shared" si="0"/>
-        <v>920</v>
-      </c>
-      <c r="BC20">
-        <f t="shared" si="0"/>
-        <v>940</v>
-      </c>
-      <c r="BD20">
-        <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="BE20">
-        <f t="shared" si="0"/>
-        <v>980</v>
-      </c>
-      <c r="BF20">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" s="128" t="s">
-        <v>102</v>
-      </c>
-      <c r="B21" s="129" t="s">
-        <v>103</v>
-      </c>
-      <c r="G21" t="s">
-        <v>107</v>
-      </c>
-      <c r="H21" s="127">
-        <f t="shared" ref="H21:AM21" si="1">IF(H20&lt;ABS($B$12),$B$3+SIGN($B$12)*H$20*$B$7,IF(H20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(H20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.3</v>
-      </c>
-      <c r="I21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.26</v>
-      </c>
-      <c r="K21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.24</v>
-      </c>
-      <c r="L21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.21999999999999997</v>
-      </c>
-      <c r="M21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="N21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.18</v>
-      </c>
-      <c r="O21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.15999999999999998</v>
-      </c>
-      <c r="P21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="Q21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
-      </c>
-      <c r="R21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="S21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="T21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="U21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="V21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="W21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="X21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="Y21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="Z21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AA21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AB21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AC21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AD21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AE21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AF21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AG21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AH21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AI21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AJ21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AK21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AL21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AM21" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AN21" s="127">
-        <f t="shared" ref="AN21:BS21" si="2">IF(AN20&lt;ABS($B$12),$B$3+SIGN($B$12)*AN$20*$B$7,IF(AN20&lt;$B$6-ABS($B$13),$B$14,$B$14+SIGN($B$13)*(AN20-($B$6-ABS($B$13)))*$B$7))</f>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AO21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AP21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AQ21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AR21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AS21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AT21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AU21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AV21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AW21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AX21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AY21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="AZ21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BA21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BB21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BC21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BD21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BE21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11666666666666664</v>
-      </c>
-      <c r="BF21" s="127">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="BG21" s="127"/>
-      <c r="BH21" s="127"/>
-      <c r="BI21" s="127"/>
-      <c r="BJ21" s="127"/>
-      <c r="BK21" s="127"/>
-      <c r="BL21" s="127"/>
-      <c r="BM21" s="127"/>
-      <c r="BN21" s="127"/>
-      <c r="BO21" s="127"/>
-      <c r="BP21" s="127"/>
-      <c r="BQ21" s="127"/>
-      <c r="BR21" s="127"/>
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="127">
+        <f>ABS(B15)</f>
+        <v>244</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="22" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A22" s="128" t="s">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="127">
+        <f>B6-ABS(B16)</f>
+        <v>446</v>
+      </c>
+      <c r="C22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" s="128" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>(H23+$B$6/50)</f>
+        <v>13.8</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ref="J23:BF23" si="0">(I23+$B$6/50)</f>
+        <v>27.6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>55.2</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>82.8</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>96.6</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="0"/>
+        <v>110.39999999999999</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="0"/>
+        <v>124.19999999999999</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>151.80000000000001</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>165.60000000000002</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="0"/>
+        <v>179.40000000000003</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>193.20000000000005</v>
+      </c>
+      <c r="W23">
+        <f t="shared" si="0"/>
+        <v>207.00000000000006</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="0"/>
+        <v>220.80000000000007</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>234.60000000000008</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="0"/>
+        <v>248.40000000000009</v>
+      </c>
+      <c r="AA23">
+        <f t="shared" si="0"/>
+        <v>262.2000000000001</v>
+      </c>
+      <c r="AB23">
+        <f t="shared" si="0"/>
+        <v>276.00000000000011</v>
+      </c>
+      <c r="AC23">
+        <f t="shared" si="0"/>
+        <v>289.80000000000013</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="0"/>
+        <v>303.60000000000014</v>
+      </c>
+      <c r="AE23">
+        <f t="shared" si="0"/>
+        <v>317.40000000000015</v>
+      </c>
+      <c r="AF23">
+        <f t="shared" si="0"/>
+        <v>331.20000000000016</v>
+      </c>
+      <c r="AG23">
+        <f t="shared" si="0"/>
+        <v>345.00000000000017</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="0"/>
+        <v>358.80000000000018</v>
+      </c>
+      <c r="AI23">
+        <f t="shared" si="0"/>
+        <v>372.60000000000019</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="0"/>
+        <v>386.4000000000002</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="0"/>
+        <v>400.20000000000022</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="0"/>
+        <v>414.00000000000023</v>
+      </c>
+      <c r="AM23">
+        <f t="shared" si="0"/>
+        <v>427.80000000000024</v>
+      </c>
+      <c r="AN23">
+        <f t="shared" si="0"/>
+        <v>441.60000000000025</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="0"/>
+        <v>455.40000000000026</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="0"/>
+        <v>469.20000000000027</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="0"/>
+        <v>483.00000000000028</v>
+      </c>
+      <c r="AR23">
+        <f t="shared" si="0"/>
+        <v>496.8000000000003</v>
+      </c>
+      <c r="AS23">
+        <f t="shared" si="0"/>
+        <v>510.60000000000031</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="0"/>
+        <v>524.40000000000032</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="0"/>
+        <v>538.20000000000027</v>
+      </c>
+      <c r="AV23">
+        <f t="shared" si="0"/>
+        <v>552.00000000000023</v>
+      </c>
+      <c r="AW23">
+        <f t="shared" si="0"/>
+        <v>565.80000000000018</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="0"/>
+        <v>579.60000000000014</v>
+      </c>
+      <c r="AY23">
+        <f t="shared" si="0"/>
+        <v>593.40000000000009</v>
+      </c>
+      <c r="AZ23">
+        <f t="shared" si="0"/>
+        <v>607.20000000000005</v>
+      </c>
+      <c r="BA23">
+        <f t="shared" si="0"/>
+        <v>621</v>
+      </c>
+      <c r="BB23">
+        <f t="shared" si="0"/>
+        <v>634.79999999999995</v>
+      </c>
+      <c r="BC23">
+        <f t="shared" si="0"/>
+        <v>648.59999999999991</v>
+      </c>
+      <c r="BD23">
+        <f t="shared" si="0"/>
+        <v>662.39999999999986</v>
+      </c>
+      <c r="BE23">
+        <f t="shared" si="0"/>
+        <v>676.19999999999982</v>
+      </c>
+      <c r="BF23">
+        <f t="shared" si="0"/>
+        <v>689.99999999999977</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="127">
+        <f t="shared" ref="H24:AM24" si="1">IF(H23&lt;ABS($B$15),$B$3+SIGN($B$15)*H$23*$B$7,IF(H23&lt;$B$6-ABS($B$16),$B$17,$B$17+SIGN($B$16)*(H23-($B$6-ABS($B$16)))*$B$7))</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="127">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="J24" s="127">
+        <f t="shared" si="1"/>
+        <v>1.3800000000000002E-2</v>
+      </c>
+      <c r="K24" s="127">
+        <f t="shared" si="1"/>
+        <v>2.0700000000000003E-2</v>
+      </c>
+      <c r="L24" s="127">
+        <f t="shared" si="1"/>
+        <v>2.7600000000000003E-2</v>
+      </c>
+      <c r="M24" s="127">
+        <f t="shared" si="1"/>
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="N24" s="127">
+        <f t="shared" si="1"/>
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="O24" s="127">
+        <f t="shared" si="1"/>
+        <v>4.8299999999999996E-2</v>
+      </c>
+      <c r="P24" s="127">
+        <f t="shared" si="1"/>
+        <v>5.5199999999999999E-2</v>
+      </c>
+      <c r="Q24" s="127">
+        <f t="shared" si="1"/>
+        <v>6.2099999999999995E-2</v>
+      </c>
+      <c r="R24" s="127">
+        <f t="shared" si="1"/>
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="S24" s="127">
+        <f t="shared" si="1"/>
+        <v>7.5900000000000009E-2</v>
+      </c>
+      <c r="T24" s="127">
+        <f t="shared" si="1"/>
+        <v>8.2800000000000012E-2</v>
+      </c>
+      <c r="U24" s="127">
+        <f t="shared" si="1"/>
+        <v>8.9700000000000016E-2</v>
+      </c>
+      <c r="V24" s="127">
+        <f t="shared" si="1"/>
+        <v>9.6600000000000019E-2</v>
+      </c>
+      <c r="W24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.10350000000000004</v>
+      </c>
+      <c r="X24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11040000000000004</v>
+      </c>
+      <c r="Y24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.11730000000000004</v>
+      </c>
+      <c r="Z24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AA24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AB24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AC24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AD24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AE24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AF24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AG24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AH24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AI24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AJ24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AK24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AL24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AM24" s="127">
+        <f t="shared" si="1"/>
+        <v>0.122</v>
+      </c>
+      <c r="AN24" s="127">
+        <f t="shared" ref="AN24:BS24" si="2">IF(AN23&lt;ABS($B$15),$B$3+SIGN($B$15)*AN$23*$B$7,IF(AN23&lt;$B$6-ABS($B$16),$B$17,$B$17+SIGN($B$16)*(AN23-($B$6-ABS($B$16)))*$B$7))</f>
+        <v>0.122</v>
+      </c>
+      <c r="AO24" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11729999999999986</v>
+      </c>
+      <c r="AP24" s="127">
+        <f t="shared" si="2"/>
+        <v>0.11039999999999986</v>
+      </c>
+      <c r="AQ24" s="127">
+        <f t="shared" si="2"/>
+        <v>0.10349999999999986</v>
+      </c>
+      <c r="AR24" s="127">
+        <f t="shared" si="2"/>
+        <v>9.6599999999999853E-2</v>
+      </c>
+      <c r="AS24" s="127">
+        <f t="shared" si="2"/>
+        <v>8.9699999999999835E-2</v>
+      </c>
+      <c r="AT24" s="127">
+        <f t="shared" si="2"/>
+        <v>8.2799999999999846E-2</v>
+      </c>
+      <c r="AU24" s="127">
+        <f t="shared" si="2"/>
+        <v>7.5899999999999856E-2</v>
+      </c>
+      <c r="AV24" s="127">
+        <f t="shared" si="2"/>
+        <v>6.8999999999999881E-2</v>
+      </c>
+      <c r="AW24" s="127">
+        <f t="shared" si="2"/>
+        <v>6.2099999999999905E-2</v>
+      </c>
+      <c r="AX24" s="127">
+        <f t="shared" si="2"/>
+        <v>5.519999999999993E-2</v>
+      </c>
+      <c r="AY24" s="127">
+        <f t="shared" si="2"/>
+        <v>4.8299999999999954E-2</v>
+      </c>
+      <c r="AZ24" s="127">
+        <f t="shared" si="2"/>
+        <v>4.1399999999999978E-2</v>
+      </c>
+      <c r="BA24" s="127">
+        <f t="shared" si="2"/>
+        <v>3.4499999999999989E-2</v>
+      </c>
+      <c r="BB24" s="127">
+        <f t="shared" si="2"/>
+        <v>2.7600000000000013E-2</v>
+      </c>
+      <c r="BC24" s="127">
+        <f t="shared" si="2"/>
+        <v>2.0700000000000038E-2</v>
+      </c>
+      <c r="BD24" s="127">
+        <f t="shared" si="2"/>
+        <v>1.3800000000000062E-2</v>
+      </c>
+      <c r="BE24" s="127">
+        <f t="shared" si="2"/>
+        <v>6.9000000000000866E-3</v>
+      </c>
+      <c r="BF24" s="127">
+        <f t="shared" si="2"/>
+        <v>1.1102230246251565E-16</v>
+      </c>
+      <c r="BG24" s="127"/>
+      <c r="BH24" s="127"/>
+      <c r="BI24" s="127"/>
+      <c r="BJ24" s="127"/>
+      <c r="BK24" s="127"/>
+      <c r="BL24" s="127"/>
+      <c r="BM24" s="127"/>
+      <c r="BN24" s="127"/>
+      <c r="BO24" s="127"/>
+      <c r="BP24" s="127"/>
+      <c r="BQ24" s="127"/>
+      <c r="BR24" s="127"/>
+    </row>
+    <row r="25" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A25" s="128" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="129" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22">
-        <f>IF(H20&lt;$B$18,
-$B$3*H20+SIGN($B$12)*0.5*$B$7*H20*H20,
-IF(H20&lt;$B$19,
-$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(H20-$B$18)*$B$14,
-$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(H20-$B$19) + SIGN($B$13)*0.5*$B$7*(H20-$B$19)*(H20-$B$19)))</f>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:AM25" si="3">IF(H23&lt;$B$21,
+$B$3*H23+SIGN($B$15)*0.5*$B$7*H23*H23,
+IF(H23&lt;$B$22,
+$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+(H23-$B$21)*$B$17,
+$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(H23-$B$22) + SIGN($B$16)*0.5*$B$7*(H23-$B$22)*(H23-$B$22)))</f>
         <v>0</v>
       </c>
-      <c r="I22">
-        <f t="shared" ref="I22:BF22" si="3">IF(I20&lt;$B$18,
-$B$3*I20+SIGN($B$12)*0.5*$B$7*I20*I20,
-IF(I20&lt;$B$19,
-$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+(I20-$B$18)*$B$14,
-$B$3*$B$18+SIGN($B$12)*0.5*$B$7*$B$18*$B$18+($B$19-$B$18)*$B$14 + $B$14*(I20-$B$19) + SIGN($B$13)*0.5*$B$7*(I20-$B$19)*(I20-$B$19)))</f>
-        <v>5.8</v>
-      </c>
-      <c r="J22">
+      <c r="I25">
         <f t="shared" si="3"/>
-        <v>11.2</v>
-      </c>
-      <c r="K22">
+        <v>4.7610000000000006E-2</v>
+      </c>
+      <c r="J25">
         <f t="shared" si="3"/>
-        <v>16.2</v>
-      </c>
-      <c r="L22">
+        <v>0.19044000000000003</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="3"/>
-        <v>20.8</v>
-      </c>
-      <c r="M22">
+        <v>0.42849000000000015</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="N22">
+        <v>0.7617600000000001</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="3"/>
-        <v>28.8</v>
-      </c>
-      <c r="O22">
+        <v>1.19025</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="3"/>
-        <v>32.200000000000003</v>
-      </c>
-      <c r="P22">
+        <v>1.7139599999999999</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="3"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="Q22">
+        <v>2.3328899999999995</v>
+      </c>
+      <c r="P25">
         <f t="shared" si="3"/>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="R22">
+        <v>3.0470399999999995</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="3"/>
-        <v>40.138888888888886</v>
-      </c>
-      <c r="S22">
+        <v>3.8564099999999994</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="3"/>
-        <v>42.472222222222221</v>
-      </c>
-      <c r="T22">
+        <v>4.7610000000000001</v>
+      </c>
+      <c r="S25">
         <f t="shared" si="3"/>
-        <v>44.80555555555555</v>
-      </c>
-      <c r="U22">
+        <v>5.7608100000000011</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="3"/>
-        <v>47.138888888888886</v>
-      </c>
-      <c r="V22">
+        <v>6.8558400000000024</v>
+      </c>
+      <c r="U25">
         <f t="shared" si="3"/>
-        <v>49.472222222222214</v>
-      </c>
-      <c r="W22">
+        <v>8.0460900000000031</v>
+      </c>
+      <c r="V25">
         <f t="shared" si="3"/>
-        <v>51.80555555555555</v>
-      </c>
-      <c r="X22">
+        <v>9.3315600000000032</v>
+      </c>
+      <c r="W25">
         <f t="shared" si="3"/>
-        <v>54.138888888888886</v>
-      </c>
-      <c r="Y22">
+        <v>10.712250000000006</v>
+      </c>
+      <c r="X25">
         <f t="shared" si="3"/>
-        <v>56.472222222222214</v>
-      </c>
-      <c r="Z22">
+        <v>12.188160000000009</v>
+      </c>
+      <c r="Y25">
         <f t="shared" si="3"/>
-        <v>58.80555555555555</v>
-      </c>
-      <c r="AA22">
+        <v>13.759290000000009</v>
+      </c>
+      <c r="Z25">
         <f t="shared" si="3"/>
-        <v>61.138888888888886</v>
-      </c>
-      <c r="AB22">
+        <v>15.42080000000001</v>
+      </c>
+      <c r="AA25">
         <f t="shared" si="3"/>
-        <v>63.472222222222214</v>
-      </c>
-      <c r="AC22">
+        <v>17.104400000000012</v>
+      </c>
+      <c r="AB25">
         <f t="shared" si="3"/>
-        <v>65.805555555555543</v>
-      </c>
-      <c r="AD22">
+        <v>18.788000000000014</v>
+      </c>
+      <c r="AC25">
         <f t="shared" si="3"/>
-        <v>68.138888888888872</v>
-      </c>
-      <c r="AE22">
+        <v>20.471600000000016</v>
+      </c>
+      <c r="AD25">
         <f t="shared" si="3"/>
-        <v>70.4722222222222</v>
-      </c>
-      <c r="AF22">
+        <v>22.155200000000015</v>
+      </c>
+      <c r="AE25">
         <f t="shared" si="3"/>
-        <v>72.805555555555543</v>
-      </c>
-      <c r="AG22">
+        <v>23.83880000000002</v>
+      </c>
+      <c r="AF25">
         <f t="shared" si="3"/>
-        <v>75.138888888888872</v>
-      </c>
-      <c r="AH22">
+        <v>25.522400000000019</v>
+      </c>
+      <c r="AG25">
         <f t="shared" si="3"/>
-        <v>77.4722222222222</v>
-      </c>
-      <c r="AI22">
+        <v>27.206000000000021</v>
+      </c>
+      <c r="AH25">
         <f t="shared" si="3"/>
-        <v>79.805555555555543</v>
-      </c>
-      <c r="AJ22">
+        <v>28.889600000000023</v>
+      </c>
+      <c r="AI25">
         <f t="shared" si="3"/>
-        <v>82.138888888888872</v>
-      </c>
-      <c r="AK22">
+        <v>30.573200000000021</v>
+      </c>
+      <c r="AJ25">
         <f t="shared" si="3"/>
-        <v>84.4722222222222</v>
-      </c>
-      <c r="AL22">
+        <v>32.256800000000027</v>
+      </c>
+      <c r="AK25">
         <f t="shared" si="3"/>
-        <v>86.805555555555543</v>
-      </c>
-      <c r="AM22">
+        <v>33.940400000000025</v>
+      </c>
+      <c r="AL25">
         <f t="shared" si="3"/>
-        <v>89.138888888888872</v>
-      </c>
-      <c r="AN22">
+        <v>35.624000000000024</v>
+      </c>
+      <c r="AM25">
         <f t="shared" si="3"/>
-        <v>91.4722222222222</v>
-      </c>
-      <c r="AO22">
-        <f t="shared" si="3"/>
-        <v>93.805555555555543</v>
-      </c>
-      <c r="AP22">
-        <f t="shared" si="3"/>
-        <v>96.138888888888872</v>
-      </c>
-      <c r="AQ22">
-        <f t="shared" si="3"/>
-        <v>98.4722222222222</v>
-      </c>
-      <c r="AR22">
-        <f t="shared" si="3"/>
-        <v>100.80555555555554</v>
-      </c>
-      <c r="AS22">
-        <f t="shared" si="3"/>
-        <v>103.13888888888887</v>
-      </c>
-      <c r="AT22">
-        <f t="shared" si="3"/>
-        <v>105.4722222222222</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="3"/>
-        <v>107.80555555555553</v>
-      </c>
-      <c r="AV22">
-        <f t="shared" si="3"/>
-        <v>110.13888888888887</v>
-      </c>
-      <c r="AW22">
-        <f t="shared" si="3"/>
-        <v>112.4722222222222</v>
-      </c>
-      <c r="AX22">
-        <f t="shared" si="3"/>
-        <v>114.80555555555553</v>
-      </c>
-      <c r="AY22">
-        <f t="shared" si="3"/>
-        <v>117.13888888888887</v>
-      </c>
-      <c r="AZ22">
-        <f t="shared" si="3"/>
-        <v>119.4722222222222</v>
-      </c>
-      <c r="BA22">
-        <f t="shared" si="3"/>
-        <v>121.80555555555553</v>
-      </c>
-      <c r="BB22">
-        <f t="shared" si="3"/>
-        <v>124.13888888888886</v>
-      </c>
-      <c r="BC22">
-        <f t="shared" si="3"/>
-        <v>126.4722222222222</v>
-      </c>
-      <c r="BD22">
-        <f t="shared" si="3"/>
-        <v>128.80555555555554</v>
-      </c>
-      <c r="BE22">
-        <f t="shared" si="3"/>
-        <v>131.13888888888886</v>
-      </c>
-      <c r="BF22">
-        <f t="shared" si="3"/>
-        <v>133.33333333333331</v>
+        <v>37.307600000000029</v>
+      </c>
+      <c r="AN25">
+        <f t="shared" ref="AN25:BF25" si="4">IF(AN23&lt;$B$21,
+$B$3*AN23+SIGN($B$15)*0.5*$B$7*AN23*AN23,
+IF(AN23&lt;$B$22,
+$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+(AN23-$B$21)*$B$17,
+$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(AN23-$B$22) + SIGN($B$16)*0.5*$B$7*(AN23-$B$22)*(AN23-$B$22)))</f>
+        <v>38.991200000000035</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="4"/>
+        <v>40.652710000000035</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="4"/>
+        <v>42.223840000000031</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="4"/>
+        <v>43.699750000000023</v>
+      </c>
+      <c r="AR25">
+        <f t="shared" si="4"/>
+        <v>45.080440000000031</v>
+      </c>
+      <c r="AS25">
+        <f t="shared" si="4"/>
+        <v>46.365910000000021</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="4"/>
+        <v>47.556160000000027</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="4"/>
+        <v>48.651190000000021</v>
+      </c>
+      <c r="AV25">
+        <f t="shared" si="4"/>
+        <v>49.65100000000001</v>
+      </c>
+      <c r="AW25">
+        <f t="shared" si="4"/>
+        <v>50.555590000000009</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="4"/>
+        <v>51.364960000000011</v>
+      </c>
+      <c r="AY25">
+        <f t="shared" si="4"/>
+        <v>52.07911</v>
+      </c>
+      <c r="AZ25">
+        <f t="shared" si="4"/>
+        <v>52.698039999999999</v>
+      </c>
+      <c r="BA25">
+        <f t="shared" si="4"/>
+        <v>53.22175</v>
+      </c>
+      <c r="BB25">
+        <f t="shared" si="4"/>
+        <v>53.650239999999997</v>
+      </c>
+      <c r="BC25">
+        <f t="shared" si="4"/>
+        <v>53.983509999999995</v>
+      </c>
+      <c r="BD25">
+        <f t="shared" si="4"/>
+        <v>54.221559999999997</v>
+      </c>
+      <c r="BE25">
+        <f t="shared" si="4"/>
+        <v>54.36439</v>
+      </c>
+      <c r="BF25">
+        <f t="shared" si="4"/>
+        <v>54.411999999999992</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="B23" s="58"/>
-      <c r="H23">
-        <f>$B$3*$B$18+0.5*$B$7*$B$18*$B$18+(H20-ABS($B$12))*$B$14</f>
-        <v>50.416666666666671</v>
-      </c>
-      <c r="I23">
-        <f t="shared" ref="I23:BF23" si="4">$B$3*ABS($B$12)+0.5*$B$7*ABS($B$12)*ABS($B$12)+(I20-ABS($B$12))*$B$14</f>
-        <v>52.75</v>
-      </c>
-      <c r="J23">
-        <f t="shared" si="4"/>
-        <v>55.083333333333343</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="4"/>
-        <v>57.416666666666671</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="4"/>
-        <v>59.75</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="4"/>
-        <v>62.083333333333336</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="4"/>
-        <v>64.416666666666671</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="4"/>
-        <v>66.75</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="4"/>
-        <v>69.083333333333329</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="4"/>
-        <v>71.416666666666671</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="4"/>
-        <v>73.75</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="4"/>
-        <v>76.083333333333329</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="4"/>
-        <v>78.416666666666671</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="4"/>
-        <v>80.75</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="4"/>
-        <v>83.083333333333329</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="4"/>
-        <v>85.416666666666657</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="4"/>
-        <v>87.75</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="4"/>
-        <v>90.083333333333329</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="4"/>
-        <v>92.416666666666657</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="4"/>
-        <v>94.75</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="4"/>
-        <v>97.083333333333329</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="4"/>
-        <v>99.416666666666657</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="4"/>
-        <v>101.74999999999999</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="4"/>
-        <v>104.08333333333331</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="4"/>
-        <v>106.41666666666666</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="4"/>
-        <v>108.74999999999999</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="4"/>
-        <v>111.08333333333331</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="4"/>
-        <v>113.41666666666666</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="4"/>
-        <v>115.74999999999999</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="4"/>
-        <v>118.08333333333331</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="4"/>
-        <v>120.41666666666666</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="4"/>
-        <v>122.74999999999999</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="4"/>
-        <v>125.08333333333331</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" si="4"/>
-        <v>127.41666666666666</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="4"/>
-        <v>129.75</v>
-      </c>
-      <c r="AQ23">
-        <f t="shared" si="4"/>
-        <v>132.08333333333331</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="4"/>
-        <v>134.41666666666666</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="4"/>
-        <v>136.75</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" si="4"/>
-        <v>139.08333333333331</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="4"/>
-        <v>141.41666666666663</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" si="4"/>
-        <v>143.75</v>
-      </c>
-      <c r="AW23">
-        <f t="shared" si="4"/>
-        <v>146.08333333333331</v>
-      </c>
-      <c r="AX23">
-        <f t="shared" si="4"/>
-        <v>148.41666666666663</v>
-      </c>
-      <c r="AY23">
-        <f t="shared" si="4"/>
-        <v>150.75</v>
-      </c>
-      <c r="AZ23">
-        <f t="shared" si="4"/>
-        <v>153.08333333333331</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" si="4"/>
-        <v>155.41666666666663</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" si="4"/>
-        <v>157.74999999999997</v>
-      </c>
-      <c r="BC23">
-        <f t="shared" si="4"/>
-        <v>160.08333333333331</v>
-      </c>
-      <c r="BD23">
-        <f t="shared" si="4"/>
-        <v>162.41666666666663</v>
-      </c>
-      <c r="BE23">
-        <f t="shared" si="4"/>
-        <v>164.74999999999997</v>
-      </c>
-      <c r="BF23">
-        <f t="shared" si="4"/>
-        <v>167.08333333333331</v>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B26" s="58"/>
+      <c r="H26">
+        <f>$B$3*$B$21+0.5*$B$7*$B$21*$B$21+(H23-ABS($B$15))*$B$17</f>
+        <v>-14.884</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26:AN26" si="5">$B$3*ABS($B$15)+0.5*$B$7*ABS($B$15)*ABS($B$15)+(I23-ABS($B$15))*$B$17</f>
+        <v>-13.200399999999998</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="5"/>
+        <v>-11.5168</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>-9.8331999999999979</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="5"/>
+        <v>-8.1495999999999995</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>-6.4659999999999975</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="5"/>
+        <v>-4.7823999999999991</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="5"/>
+        <v>-3.0988000000000007</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>-1.4152000000000022</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="5"/>
+        <v>0.26839999999999975</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="5"/>
+        <v>1.952</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="5"/>
+        <v>3.6356000000000019</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="5"/>
+        <v>5.3192000000000039</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="5"/>
+        <v>7.002800000000005</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="5"/>
+        <v>8.6864000000000061</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="5"/>
+        <v>10.370000000000008</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="5"/>
+        <v>12.053600000000008</v>
+      </c>
+      <c r="Y26">
+        <f t="shared" si="5"/>
+        <v>13.73720000000001</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="5"/>
+        <v>15.42080000000001</v>
+      </c>
+      <c r="AA26">
+        <f t="shared" si="5"/>
+        <v>17.104400000000012</v>
+      </c>
+      <c r="AB26">
+        <f t="shared" si="5"/>
+        <v>18.788000000000014</v>
+      </c>
+      <c r="AC26">
+        <f t="shared" si="5"/>
+        <v>20.471600000000016</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="5"/>
+        <v>22.155200000000015</v>
+      </c>
+      <c r="AE26">
+        <f t="shared" si="5"/>
+        <v>23.83880000000002</v>
+      </c>
+      <c r="AF26">
+        <f t="shared" si="5"/>
+        <v>25.522400000000019</v>
+      </c>
+      <c r="AG26">
+        <f t="shared" si="5"/>
+        <v>27.206000000000021</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="5"/>
+        <v>28.889600000000023</v>
+      </c>
+      <c r="AI26">
+        <f t="shared" si="5"/>
+        <v>30.573200000000021</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="5"/>
+        <v>32.256800000000027</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="5"/>
+        <v>33.940400000000025</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="5"/>
+        <v>35.624000000000024</v>
+      </c>
+      <c r="AM26">
+        <f t="shared" si="5"/>
+        <v>37.307600000000029</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" si="5"/>
+        <v>38.991200000000035</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" ref="AO26:BF26" si="6">$B$3*ABS($B$15)+0.5*$B$7*ABS($B$15)*ABS($B$15)+(AO23-ABS($B$15))*$B$17</f>
+        <v>40.674800000000033</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="6"/>
+        <v>42.358400000000032</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="6"/>
+        <v>44.04200000000003</v>
+      </c>
+      <c r="AR26">
+        <f t="shared" si="6"/>
+        <v>45.725600000000036</v>
+      </c>
+      <c r="AS26">
+        <f t="shared" si="6"/>
+        <v>47.409200000000034</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="6"/>
+        <v>49.09280000000004</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="6"/>
+        <v>50.776400000000031</v>
+      </c>
+      <c r="AV26">
+        <f t="shared" si="6"/>
+        <v>52.460000000000029</v>
+      </c>
+      <c r="AW26">
+        <f t="shared" si="6"/>
+        <v>54.143600000000021</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="6"/>
+        <v>55.827200000000019</v>
+      </c>
+      <c r="AY26">
+        <f t="shared" si="6"/>
+        <v>57.51080000000001</v>
+      </c>
+      <c r="AZ26">
+        <f t="shared" si="6"/>
+        <v>59.194400000000002</v>
+      </c>
+      <c r="BA26">
+        <f t="shared" si="6"/>
+        <v>60.878</v>
+      </c>
+      <c r="BB26">
+        <f t="shared" si="6"/>
+        <v>62.561599999999991</v>
+      </c>
+      <c r="BC26">
+        <f t="shared" si="6"/>
+        <v>64.245199999999983</v>
+      </c>
+      <c r="BD26">
+        <f t="shared" si="6"/>
+        <v>65.928799999999981</v>
+      </c>
+      <c r="BE26">
+        <f t="shared" si="6"/>
+        <v>67.61239999999998</v>
+      </c>
+      <c r="BF26">
+        <f t="shared" si="6"/>
+        <v>69.295999999999964</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="B24" s="58"/>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B27" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Trajectory Speed profile" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -1157,16 +1156,32 @@
     </r>
   </si>
   <si>
-    <t>Steigend:</t>
-  </si>
-  <si>
     <t>u</t>
   </si>
   <si>
     <t>c</t>
   </si>
   <si>
-    <t>trapez</t>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>average</t>
+    </r>
+  </si>
+  <si>
+    <t>Monotron</t>
+  </si>
+  <si>
+    <t>Trapez</t>
   </si>
 </sst>
 </file>
@@ -1749,11 +1764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317526856"/>
-        <c:axId val="317519800"/>
+        <c:axId val="428522608"/>
+        <c:axId val="428525352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317526856"/>
+        <c:axId val="428522608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1791,13 +1806,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317519800"/>
+        <c:crossAx val="428525352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317519800"/>
+        <c:axId val="428525352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1836,7 +1851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317526856"/>
+        <c:crossAx val="428522608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1932,11 +1947,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317522936"/>
-        <c:axId val="317520192"/>
+        <c:axId val="428519864"/>
+        <c:axId val="337497864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317522936"/>
+        <c:axId val="428519864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1948,13 +1963,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317520192"/>
+        <c:crossAx val="337497864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="317520192"/>
+        <c:axId val="337497864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1967,7 +1982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="317522936"/>
+        <c:crossAx val="428519864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -2100,7 +2115,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$14:$K$14</c:f>
+              <c:f>'Trajectory Speed profile'!$H$15:$K$15</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2108,20 +2123,20 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>244</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>446</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>690</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$15:$K$15</c:f>
+              <c:f>'Trajectory Speed profile'!$H$16:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2129,13 +2144,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2150,11 +2165,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339615528"/>
-        <c:axId val="339615136"/>
+        <c:axId val="320599176"/>
+        <c:axId val="320599960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339615528"/>
+        <c:axId val="320599176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2197,12 +2212,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339615136"/>
+        <c:crossAx val="320599960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339615136"/>
+        <c:axId val="320599960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2253,7 +2268,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339615528"/>
+        <c:crossAx val="320599176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2374,6 +2389,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2453,7 +2469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$23:$BF$23</c:f>
+              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2461,161 +2477,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.6</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.400000000000006</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.2</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.8</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.6</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110.39999999999999</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.19999999999999</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151.80000000000001</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165.60000000000002</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179.40000000000003</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193.20000000000005</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207.00000000000006</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220.80000000000007</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.60000000000008</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248.40000000000009</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>262.2000000000001</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>276.00000000000011</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>289.80000000000013</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303.60000000000014</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>317.40000000000015</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>331.20000000000016</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>345.00000000000017</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>358.80000000000018</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>372.60000000000019</c:v>
+                  <c:v>2160</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>386.4000000000002</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400.20000000000022</c:v>
+                  <c:v>2320</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>414.00000000000023</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>427.80000000000024</c:v>
+                  <c:v>2480</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>441.60000000000025</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>455.40000000000026</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>469.20000000000027</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>483.00000000000028</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>496.8000000000003</c:v>
+                  <c:v>2880</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>510.60000000000031</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>524.40000000000032</c:v>
+                  <c:v>3040</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>538.20000000000027</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>552.00000000000023</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>565.80000000000018</c:v>
+                  <c:v>3280</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>579.60000000000014</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>593.40000000000009</c:v>
+                  <c:v>3440</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>607.20000000000005</c:v>
+                  <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>621</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>634.79999999999995</c:v>
+                  <c:v>3680</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>648.59999999999991</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>662.39999999999986</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>676.19999999999982</c:v>
+                  <c:v>3920</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>689.99999999999977</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
+              <c:f>'Trajectory Speed profile'!$H$25:$BF$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
@@ -2623,154 +2639,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9000000000000008E-3</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3800000000000002E-2</c:v>
+                  <c:v>-0.08</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0700000000000003E-2</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7600000000000003E-2</c:v>
+                  <c:v>-0.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4500000000000003E-2</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1399999999999999E-2</c:v>
+                  <c:v>-0.24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.8299999999999996E-2</c:v>
+                  <c:v>-0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.5199999999999999E-2</c:v>
+                  <c:v>-0.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.2099999999999995E-2</c:v>
+                  <c:v>-0.36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6.9000000000000006E-2</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.5900000000000009E-2</c:v>
+                  <c:v>-0.44</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.2800000000000012E-2</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.9700000000000016E-2</c:v>
+                  <c:v>-0.45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.6600000000000019E-2</c:v>
+                  <c:v>-0.44</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10350000000000004</c:v>
+                  <c:v>-0.4</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.11040000000000004</c:v>
+                  <c:v>-0.36</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.11730000000000004</c:v>
+                  <c:v>-0.32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.28000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.24000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.16000000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.122</c:v>
+                  <c:v>-0.12</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.122</c:v>
+                  <c:v>-8.0000000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.122</c:v>
+                  <c:v>-3.999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.122</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.122</c:v>
+                  <c:v>3.999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.122</c:v>
+                  <c:v>8.0000000000000016E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.122</c:v>
+                  <c:v>0.12000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.122</c:v>
+                  <c:v>0.15999999999999998</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.122</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.122</c:v>
+                  <c:v>0.24000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.122</c:v>
+                  <c:v>0.27999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.11729999999999986</c:v>
+                  <c:v>0.32</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.11039999999999986</c:v>
+                  <c:v>0.36000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.10349999999999986</c:v>
+                  <c:v>0.39999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.6599999999999853E-2</c:v>
+                  <c:v>0.44</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.9699999999999835E-2</c:v>
+                  <c:v>0.48000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.2799999999999846E-2</c:v>
+                  <c:v>0.52</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>7.5899999999999856E-2</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.8999999999999881E-2</c:v>
+                  <c:v>0.60000000000000009</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6.2099999999999905E-2</c:v>
+                  <c:v>0.64000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.519999999999993E-2</c:v>
+                  <c:v>0.68000000000000016</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.8299999999999954E-2</c:v>
+                  <c:v>0.72</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.1399999999999978E-2</c:v>
+                  <c:v>0.76</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.4499999999999989E-2</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.7600000000000013E-2</c:v>
+                  <c:v>0.84000000000000008</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.0700000000000038E-2</c:v>
+                  <c:v>0.88000000000000012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3800000000000062E-2</c:v>
+                  <c:v>0.92000000000000015</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>6.9000000000000866E-3</c:v>
+                  <c:v>0.96</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1102230246251565E-16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2785,11 +2801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339617096"/>
-        <c:axId val="339618664"/>
+        <c:axId val="430887976"/>
+        <c:axId val="430888760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339617096"/>
+        <c:axId val="430887976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2840,12 +2856,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339618664"/>
+        <c:crossAx val="430888760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339618664"/>
+        <c:axId val="430888760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2896,7 +2912,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339617096"/>
+        <c:crossAx val="430887976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2910,6 +2926,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3028,6 +3045,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3118,7 +3136,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$23:$BF$23</c:f>
+              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3126,161 +3144,161 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.8</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27.6</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.400000000000006</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.2</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>69</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>82.8</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.6</c:v>
+                  <c:v>560</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110.39999999999999</c:v>
+                  <c:v>640</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>124.19999999999999</c:v>
+                  <c:v>720</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>138</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>151.80000000000001</c:v>
+                  <c:v>880</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165.60000000000002</c:v>
+                  <c:v>960</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>179.40000000000003</c:v>
+                  <c:v>1040</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>193.20000000000005</c:v>
+                  <c:v>1120</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>207.00000000000006</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>220.80000000000007</c:v>
+                  <c:v>1280</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>234.60000000000008</c:v>
+                  <c:v>1360</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>248.40000000000009</c:v>
+                  <c:v>1440</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>262.2000000000001</c:v>
+                  <c:v>1520</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>276.00000000000011</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>289.80000000000013</c:v>
+                  <c:v>1680</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>303.60000000000014</c:v>
+                  <c:v>1760</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>317.40000000000015</c:v>
+                  <c:v>1840</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>331.20000000000016</c:v>
+                  <c:v>1920</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>345.00000000000017</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>358.80000000000018</c:v>
+                  <c:v>2080</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>372.60000000000019</c:v>
+                  <c:v>2160</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>386.4000000000002</c:v>
+                  <c:v>2240</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>400.20000000000022</c:v>
+                  <c:v>2320</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>414.00000000000023</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>427.80000000000024</c:v>
+                  <c:v>2480</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>441.60000000000025</c:v>
+                  <c:v>2560</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>455.40000000000026</c:v>
+                  <c:v>2640</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>469.20000000000027</c:v>
+                  <c:v>2720</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>483.00000000000028</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>496.8000000000003</c:v>
+                  <c:v>2880</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>510.60000000000031</c:v>
+                  <c:v>2960</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>524.40000000000032</c:v>
+                  <c:v>3040</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>538.20000000000027</c:v>
+                  <c:v>3120</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>552.00000000000023</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>565.80000000000018</c:v>
+                  <c:v>3280</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>579.60000000000014</c:v>
+                  <c:v>3360</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>593.40000000000009</c:v>
+                  <c:v>3440</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>607.20000000000005</c:v>
+                  <c:v>3520</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>621</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>634.79999999999995</c:v>
+                  <c:v>3680</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>648.59999999999991</c:v>
+                  <c:v>3760</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>662.39999999999986</c:v>
+                  <c:v>3840</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>676.19999999999982</c:v>
+                  <c:v>3920</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>689.99999999999977</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$25:$BF$25</c:f>
+              <c:f>'Trajectory Speed profile'!$H$26:$BF$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3288,154 +3306,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7610000000000006E-2</c:v>
+                  <c:v>-1.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.19044000000000003</c:v>
+                  <c:v>-6.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42849000000000015</c:v>
+                  <c:v>-14.399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.7617600000000001</c:v>
+                  <c:v>-25.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.19025</c:v>
+                  <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7139599999999999</c:v>
+                  <c:v>-57.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3328899999999995</c:v>
+                  <c:v>-78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.0470399999999995</c:v>
+                  <c:v>-102.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8564099999999994</c:v>
+                  <c:v>-129.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7610000000000001</c:v>
+                  <c:v>-160</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.7608100000000011</c:v>
+                  <c:v>-193.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8558400000000024</c:v>
+                  <c:v>-229.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.0460900000000031</c:v>
+                  <c:v>-265.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.3315600000000032</c:v>
+                  <c:v>-301.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.712250000000006</c:v>
+                  <c:v>-335</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.188160000000009</c:v>
+                  <c:v>-365.4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.759290000000009</c:v>
+                  <c:v>-392.6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>15.42080000000001</c:v>
+                  <c:v>-416.6</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>17.104400000000012</c:v>
+                  <c:v>-437.4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>18.788000000000014</c:v>
+                  <c:v>-455</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20.471600000000016</c:v>
+                  <c:v>-469.4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22.155200000000015</c:v>
+                  <c:v>-480.6</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23.83880000000002</c:v>
+                  <c:v>-488.6</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.522400000000019</c:v>
+                  <c:v>-493.4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27.206000000000021</c:v>
+                  <c:v>-495</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28.889600000000023</c:v>
+                  <c:v>-493.4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.573200000000021</c:v>
+                  <c:v>-488.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>32.256800000000027</c:v>
+                  <c:v>-480.59999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.940400000000025</c:v>
+                  <c:v>-469.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.624000000000024</c:v>
+                  <c:v>-455</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>37.307600000000029</c:v>
+                  <c:v>-437.4</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>38.991200000000035</c:v>
+                  <c:v>-416.6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>40.652710000000035</c:v>
+                  <c:v>-392.6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42.223840000000031</c:v>
+                  <c:v>-365.4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43.699750000000023</c:v>
+                  <c:v>-335</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>45.080440000000031</c:v>
+                  <c:v>-301.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>46.365910000000021</c:v>
+                  <c:v>-264.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>47.556160000000027</c:v>
+                  <c:v>-224.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>48.651190000000021</c:v>
+                  <c:v>-181.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>49.65100000000001</c:v>
+                  <c:v>-135</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>50.555590000000009</c:v>
+                  <c:v>-85.399999999999864</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>51.364960000000011</c:v>
+                  <c:v>-32.599999999999909</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>52.07911</c:v>
+                  <c:v>23.399999999999864</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>52.698039999999999</c:v>
+                  <c:v>82.599999999999909</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>53.22175</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>53.650239999999997</c:v>
+                  <c:v>210.60000000000014</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>53.983509999999995</c:v>
+                  <c:v>279.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54.221559999999997</c:v>
+                  <c:v>351.40000000000009</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>54.36439</c:v>
+                  <c:v>426.59999999999991</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>54.411999999999992</c:v>
+                  <c:v>505</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3450,11 +3468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="339615920"/>
-        <c:axId val="339620624"/>
+        <c:axId val="430888368"/>
+        <c:axId val="430889152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="339615920"/>
+        <c:axId val="430888368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3510,12 +3528,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339620624"/>
+        <c:crossAx val="430889152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="339620624"/>
+        <c:axId val="430889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3571,7 +3589,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339615920"/>
+        <c:crossAx val="430888368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3585,6 +3603,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -29653,16 +29672,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>788670</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>605790</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29685,13 +29704,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29717,13 +29736,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33206,10 +33225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR27"/>
+  <dimension ref="A1:BR28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33238,7 +33257,7 @@
         <v>86</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>87</v>
@@ -33249,18 +33268,14 @@
         <v>88</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>91</v>
       </c>
       <c r="D5">
-        <f>$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(B6-$B$22) + SIGN($B$16)*0.5*$B$7*(B6-$B$22)*(B6-$B$22)</f>
-        <v>54.411999999999992</v>
-      </c>
-      <c r="E5">
-        <f>B3*B15+0.5*B7*B15*B15+(B3+B7*B15)*(B6-B9-2*B15) + (B3+B7*B15)*(B9+B15)-0.5*B7*(B9+B15)*(B9+B15)</f>
-        <v>54.411999999999992</v>
+        <f>$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+($B$23-$B$22)*$B$18 + $B$18*(B6-$B$23) + SIGN($B$17)*0.5*$B$7*(B6-$B$23)*(B6-$B$23)</f>
+        <v>505</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
@@ -33268,14 +33283,10 @@
         <v>90</v>
       </c>
       <c r="B6">
-        <v>690</v>
+        <v>4000</v>
       </c>
       <c r="C6" t="s">
         <v>92</v>
-      </c>
-      <c r="E6">
-        <f>B3*B6-B3*B9+B3*B9-0.5*B7*B9*B9 + B15*(B3+B7*B6-B7*B9-2*B3+B7*B9+B3-B7*B9) + B15*B15*(0.5*B7-2*B7+B7-0.5*B7)</f>
-        <v>54.412000000000006</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
@@ -33288,1069 +33299,1082 @@
       <c r="C7" t="s">
         <v>95</v>
       </c>
-      <c r="E7">
-        <f>B3*B6-0.5*B7*B9*B9 + B15*(B7*B6-B7*B9) + B15*B15*(-B7)</f>
-        <v>54.412000000000006</v>
-      </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B9">
-        <f>(B3-B4)/B7</f>
-        <v>0</v>
+        <f>B5/B6</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10">
-        <f>B3*B6-0.5*B7*B9*B9 - B5</f>
-        <v>-69</v>
+        <f>(B3-B4)/B7</f>
+        <v>-2000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <f>B7*B6-B7*B9</f>
-        <v>0.34500000000000003</v>
+        <f>B3*B6-0.5*B7*B10*B10 - B5</f>
+        <v>-1100</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B12">
-        <f>-B7</f>
-        <v>-5.0000000000000001E-4</v>
+        <f>B7*B6-B7*B10</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="60" t="e">
-        <f>(-B11+SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C13" s="60" t="e">
-        <f>(-B11-SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
-        <v>#NUM!</v>
+        <v>71</v>
+      </c>
+      <c r="B13">
+        <f>-B7</f>
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="C13">
+        <f>B12*B12-4*B13*B11</f>
+        <v>6.8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G14" t="s">
+      <c r="A14" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="60">
+        <f>(-B12+SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
+        <v>392.31903791894052</v>
+      </c>
+      <c r="C14" s="60">
+        <f>(-B12-SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
+        <v>5607.6809620810591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="I14" s="4">
-        <f>ABS(B15)</f>
-        <v>244</v>
-      </c>
-      <c r="J14" s="3">
-        <f>B6-ABS(B16)</f>
-        <v>446</v>
-      </c>
-      <c r="K14">
+      <c r="I15" s="4">
+        <f>ABS(B16)</f>
+        <v>900</v>
+      </c>
+      <c r="J15" s="3">
+        <f>B6-ABS(B17)</f>
+        <v>1100</v>
+      </c>
+      <c r="K15">
         <f>B6</f>
-        <v>690</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="127">
-        <v>244</v>
-      </c>
-      <c r="C15" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15">
-        <f>(B5-B3*B6-0.5*(B4-B3)*(B4-B3)/B7)/(B6*B7+(B3-B4))</f>
-        <v>199.99999999999997</v>
-      </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H15">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <f>B17</f>
-        <v>0.122</v>
-      </c>
-      <c r="J15" s="3">
-        <f>I15</f>
-        <v>0.122</v>
-      </c>
-      <c r="K15">
-        <f>B4</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="3">
-        <f>(B4-B3)/B7-B15</f>
-        <v>-244</v>
+        <v>93</v>
+      </c>
+      <c r="B16" s="127">
+        <f>IF(OR(AND(B3&lt;B9,B9&lt;B4), AND(B3&gt;=B9,B9&gt;=B4)),E16,E17)</f>
+        <v>-900</v>
       </c>
       <c r="C16" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" t="s">
         <v>113</v>
       </c>
-      <c r="E16" t="e">
-        <f>(-B11+SQRT(B11*B11-4*B12*B10))/(2*B12)</f>
-        <v>#NUM!</v>
+      <c r="E16" s="127">
+        <f>(B5-B3*B6-0.5*(B4-B3)*(B4-B3)/B7)/(B6*B7+(B3-B4))</f>
+        <v>-900</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16">
+        <f>B3</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="3">
+        <f>B18</f>
+        <v>-0.45</v>
+      </c>
+      <c r="J16" s="3">
+        <f>I16</f>
+        <v>-0.45</v>
+      </c>
+      <c r="K16">
+        <f>B4</f>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="3">
+        <f>(B4-B3)/B7-B16</f>
+        <v>2900</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="127">
+        <f>(-B12+SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
+        <v>392.31903791894052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="B17" s="3">
-        <f>B3+B7*B15</f>
-        <v>0.122</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" s="3">
+        <f>B3+B7*B16</f>
+        <v>-0.45</v>
+      </c>
+      <c r="C18" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="127">
-        <f>(B3+B17)/2*B15+B17*(B6-B15-B16)+(B17+B4)/2*B16</f>
-        <v>84.179999999999993</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" s="127">
+        <f>(B3+B18)/2*B16+B18*(B6-B16-B17)+(B18+B4)/2*B17</f>
+        <v>100.00000000000011</v>
+      </c>
+      <c r="C19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>86</v>
       </c>
-      <c r="B19">
-        <f>B17+B16*B7</f>
-        <v>0</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20">
+        <f>B18+B17*B7</f>
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="127">
-        <f>ABS(B15)</f>
-        <v>244</v>
-      </c>
-      <c r="C21" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="127">
-        <f>B6-ABS(B16)</f>
-        <v>446</v>
+        <f>ABS(B16)</f>
+        <v>900</v>
       </c>
       <c r="C22" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" s="128" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>(H23+$B$6/50)</f>
-        <v>13.8</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ref="J23:BF23" si="0">(I23+$B$6/50)</f>
-        <v>27.6</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>41.400000000000006</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="0"/>
-        <v>55.2</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>82.8</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="0"/>
-        <v>96.6</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>110.39999999999999</v>
-      </c>
-      <c r="Q23">
-        <f t="shared" si="0"/>
-        <v>124.19999999999999</v>
-      </c>
-      <c r="R23">
-        <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="S23">
-        <f t="shared" si="0"/>
-        <v>151.80000000000001</v>
-      </c>
-      <c r="T23">
-        <f t="shared" si="0"/>
-        <v>165.60000000000002</v>
-      </c>
-      <c r="U23">
-        <f t="shared" si="0"/>
-        <v>179.40000000000003</v>
-      </c>
-      <c r="V23">
-        <f t="shared" si="0"/>
-        <v>193.20000000000005</v>
-      </c>
-      <c r="W23">
-        <f t="shared" si="0"/>
-        <v>207.00000000000006</v>
-      </c>
-      <c r="X23">
-        <f t="shared" si="0"/>
-        <v>220.80000000000007</v>
-      </c>
-      <c r="Y23">
-        <f t="shared" si="0"/>
-        <v>234.60000000000008</v>
-      </c>
-      <c r="Z23">
-        <f t="shared" si="0"/>
-        <v>248.40000000000009</v>
-      </c>
-      <c r="AA23">
-        <f t="shared" si="0"/>
-        <v>262.2000000000001</v>
-      </c>
-      <c r="AB23">
-        <f t="shared" si="0"/>
-        <v>276.00000000000011</v>
-      </c>
-      <c r="AC23">
-        <f t="shared" si="0"/>
-        <v>289.80000000000013</v>
-      </c>
-      <c r="AD23">
-        <f t="shared" si="0"/>
-        <v>303.60000000000014</v>
-      </c>
-      <c r="AE23">
-        <f t="shared" si="0"/>
-        <v>317.40000000000015</v>
-      </c>
-      <c r="AF23">
-        <f t="shared" si="0"/>
-        <v>331.20000000000016</v>
-      </c>
-      <c r="AG23">
-        <f t="shared" si="0"/>
-        <v>345.00000000000017</v>
-      </c>
-      <c r="AH23">
-        <f t="shared" si="0"/>
-        <v>358.80000000000018</v>
-      </c>
-      <c r="AI23">
-        <f t="shared" si="0"/>
-        <v>372.60000000000019</v>
-      </c>
-      <c r="AJ23">
-        <f t="shared" si="0"/>
-        <v>386.4000000000002</v>
-      </c>
-      <c r="AK23">
-        <f t="shared" si="0"/>
-        <v>400.20000000000022</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="0"/>
-        <v>414.00000000000023</v>
-      </c>
-      <c r="AM23">
-        <f t="shared" si="0"/>
-        <v>427.80000000000024</v>
-      </c>
-      <c r="AN23">
-        <f t="shared" si="0"/>
-        <v>441.60000000000025</v>
-      </c>
-      <c r="AO23">
-        <f t="shared" si="0"/>
-        <v>455.40000000000026</v>
-      </c>
-      <c r="AP23">
-        <f t="shared" si="0"/>
-        <v>469.20000000000027</v>
-      </c>
-      <c r="AQ23">
-        <f t="shared" si="0"/>
-        <v>483.00000000000028</v>
-      </c>
-      <c r="AR23">
-        <f t="shared" si="0"/>
-        <v>496.8000000000003</v>
-      </c>
-      <c r="AS23">
-        <f t="shared" si="0"/>
-        <v>510.60000000000031</v>
-      </c>
-      <c r="AT23">
-        <f t="shared" si="0"/>
-        <v>524.40000000000032</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="0"/>
-        <v>538.20000000000027</v>
-      </c>
-      <c r="AV23">
-        <f t="shared" si="0"/>
-        <v>552.00000000000023</v>
-      </c>
-      <c r="AW23">
-        <f t="shared" si="0"/>
-        <v>565.80000000000018</v>
-      </c>
-      <c r="AX23">
-        <f t="shared" si="0"/>
-        <v>579.60000000000014</v>
-      </c>
-      <c r="AY23">
-        <f t="shared" si="0"/>
-        <v>593.40000000000009</v>
-      </c>
-      <c r="AZ23">
-        <f t="shared" si="0"/>
-        <v>607.20000000000005</v>
-      </c>
-      <c r="BA23">
-        <f t="shared" si="0"/>
-        <v>621</v>
-      </c>
-      <c r="BB23">
-        <f t="shared" si="0"/>
-        <v>634.79999999999995</v>
-      </c>
-      <c r="BC23">
-        <f t="shared" si="0"/>
-        <v>648.59999999999991</v>
-      </c>
-      <c r="BD23">
-        <f t="shared" si="0"/>
-        <v>662.39999999999986</v>
-      </c>
-      <c r="BE23">
-        <f t="shared" si="0"/>
-        <v>676.19999999999982</v>
-      </c>
-      <c r="BF23">
-        <f t="shared" si="0"/>
-        <v>689.99999999999977</v>
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="127">
+        <f>B6-ABS(B17)</f>
+        <v>1100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A24" s="128" t="s">
-        <v>101</v>
-      </c>
-      <c r="B24" s="129" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H24" s="127">
-        <f t="shared" ref="H24:AM24" si="1">IF(H23&lt;ABS($B$15),$B$3+SIGN($B$15)*H$23*$B$7,IF(H23&lt;$B$6-ABS($B$16),$B$17,$B$17+SIGN($B$16)*(H23-($B$6-ABS($B$16)))*$B$7))</f>
+        <v>105</v>
+      </c>
+      <c r="H24">
         <v>0</v>
       </c>
-      <c r="I24" s="127">
-        <f t="shared" si="1"/>
-        <v>6.9000000000000008E-3</v>
-      </c>
-      <c r="J24" s="127">
-        <f t="shared" si="1"/>
-        <v>1.3800000000000002E-2</v>
-      </c>
-      <c r="K24" s="127">
-        <f t="shared" si="1"/>
-        <v>2.0700000000000003E-2</v>
-      </c>
-      <c r="L24" s="127">
-        <f t="shared" si="1"/>
-        <v>2.7600000000000003E-2</v>
-      </c>
-      <c r="M24" s="127">
-        <f t="shared" si="1"/>
-        <v>3.4500000000000003E-2</v>
-      </c>
-      <c r="N24" s="127">
-        <f t="shared" si="1"/>
-        <v>4.1399999999999999E-2</v>
-      </c>
-      <c r="O24" s="127">
-        <f t="shared" si="1"/>
-        <v>4.8299999999999996E-2</v>
-      </c>
-      <c r="P24" s="127">
-        <f t="shared" si="1"/>
-        <v>5.5199999999999999E-2</v>
-      </c>
-      <c r="Q24" s="127">
-        <f t="shared" si="1"/>
-        <v>6.2099999999999995E-2</v>
-      </c>
-      <c r="R24" s="127">
-        <f t="shared" si="1"/>
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="S24" s="127">
-        <f t="shared" si="1"/>
-        <v>7.5900000000000009E-2</v>
-      </c>
-      <c r="T24" s="127">
-        <f t="shared" si="1"/>
-        <v>8.2800000000000012E-2</v>
-      </c>
-      <c r="U24" s="127">
-        <f t="shared" si="1"/>
-        <v>8.9700000000000016E-2</v>
-      </c>
-      <c r="V24" s="127">
-        <f t="shared" si="1"/>
-        <v>9.6600000000000019E-2</v>
-      </c>
-      <c r="W24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.10350000000000004</v>
-      </c>
-      <c r="X24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11040000000000004</v>
-      </c>
-      <c r="Y24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.11730000000000004</v>
-      </c>
-      <c r="Z24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AA24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AB24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AC24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AD24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AE24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AF24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AG24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AH24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AI24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AJ24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AK24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AL24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AM24" s="127">
-        <f t="shared" si="1"/>
-        <v>0.122</v>
-      </c>
-      <c r="AN24" s="127">
-        <f t="shared" ref="AN24:BS24" si="2">IF(AN23&lt;ABS($B$15),$B$3+SIGN($B$15)*AN$23*$B$7,IF(AN23&lt;$B$6-ABS($B$16),$B$17,$B$17+SIGN($B$16)*(AN23-($B$6-ABS($B$16)))*$B$7))</f>
-        <v>0.122</v>
-      </c>
-      <c r="AO24" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11729999999999986</v>
-      </c>
-      <c r="AP24" s="127">
-        <f t="shared" si="2"/>
-        <v>0.11039999999999986</v>
-      </c>
-      <c r="AQ24" s="127">
-        <f t="shared" si="2"/>
-        <v>0.10349999999999986</v>
-      </c>
-      <c r="AR24" s="127">
-        <f t="shared" si="2"/>
-        <v>9.6599999999999853E-2</v>
-      </c>
-      <c r="AS24" s="127">
-        <f t="shared" si="2"/>
-        <v>8.9699999999999835E-2</v>
-      </c>
-      <c r="AT24" s="127">
-        <f t="shared" si="2"/>
-        <v>8.2799999999999846E-2</v>
-      </c>
-      <c r="AU24" s="127">
-        <f t="shared" si="2"/>
-        <v>7.5899999999999856E-2</v>
-      </c>
-      <c r="AV24" s="127">
-        <f t="shared" si="2"/>
-        <v>6.8999999999999881E-2</v>
-      </c>
-      <c r="AW24" s="127">
-        <f t="shared" si="2"/>
-        <v>6.2099999999999905E-2</v>
-      </c>
-      <c r="AX24" s="127">
-        <f t="shared" si="2"/>
-        <v>5.519999999999993E-2</v>
-      </c>
-      <c r="AY24" s="127">
-        <f t="shared" si="2"/>
-        <v>4.8299999999999954E-2</v>
-      </c>
-      <c r="AZ24" s="127">
-        <f t="shared" si="2"/>
-        <v>4.1399999999999978E-2</v>
-      </c>
-      <c r="BA24" s="127">
-        <f t="shared" si="2"/>
-        <v>3.4499999999999989E-2</v>
-      </c>
-      <c r="BB24" s="127">
-        <f t="shared" si="2"/>
-        <v>2.7600000000000013E-2</v>
-      </c>
-      <c r="BC24" s="127">
-        <f t="shared" si="2"/>
-        <v>2.0700000000000038E-2</v>
-      </c>
-      <c r="BD24" s="127">
-        <f t="shared" si="2"/>
-        <v>1.3800000000000062E-2</v>
-      </c>
-      <c r="BE24" s="127">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000866E-3</v>
-      </c>
-      <c r="BF24" s="127">
-        <f t="shared" si="2"/>
-        <v>1.1102230246251565E-16</v>
-      </c>
-      <c r="BG24" s="127"/>
-      <c r="BH24" s="127"/>
-      <c r="BI24" s="127"/>
-      <c r="BJ24" s="127"/>
-      <c r="BK24" s="127"/>
-      <c r="BL24" s="127"/>
-      <c r="BM24" s="127"/>
-      <c r="BN24" s="127"/>
-      <c r="BO24" s="127"/>
-      <c r="BP24" s="127"/>
-      <c r="BQ24" s="127"/>
-      <c r="BR24" s="127"/>
+      <c r="I24">
+        <f>(H24+$B$6/50)</f>
+        <v>80</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:BF24" si="0">(I24+$B$6/50)</f>
+        <v>160</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="0"/>
+        <v>1040</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>1120</v>
+      </c>
+      <c r="W24">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="X24">
+        <f t="shared" si="0"/>
+        <v>1280</v>
+      </c>
+      <c r="Y24">
+        <f t="shared" si="0"/>
+        <v>1360</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="AA24">
+        <f t="shared" si="0"/>
+        <v>1520</v>
+      </c>
+      <c r="AB24">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="AC24">
+        <f t="shared" si="0"/>
+        <v>1680</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="0"/>
+        <v>1760</v>
+      </c>
+      <c r="AE24">
+        <f t="shared" si="0"/>
+        <v>1840</v>
+      </c>
+      <c r="AF24">
+        <f t="shared" si="0"/>
+        <v>1920</v>
+      </c>
+      <c r="AG24">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="0"/>
+        <v>2080</v>
+      </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>2160</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="0"/>
+        <v>2240</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="0"/>
+        <v>2320</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="AM24">
+        <f t="shared" si="0"/>
+        <v>2480</v>
+      </c>
+      <c r="AN24">
+        <f t="shared" si="0"/>
+        <v>2560</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="0"/>
+        <v>2720</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="AR24">
+        <f t="shared" si="0"/>
+        <v>2880</v>
+      </c>
+      <c r="AS24">
+        <f t="shared" si="0"/>
+        <v>2960</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="0"/>
+        <v>3040</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="0"/>
+        <v>3120</v>
+      </c>
+      <c r="AV24">
+        <f t="shared" si="0"/>
+        <v>3200</v>
+      </c>
+      <c r="AW24">
+        <f t="shared" si="0"/>
+        <v>3280</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="0"/>
+        <v>3360</v>
+      </c>
+      <c r="AY24">
+        <f t="shared" si="0"/>
+        <v>3440</v>
+      </c>
+      <c r="AZ24">
+        <f t="shared" si="0"/>
+        <v>3520</v>
+      </c>
+      <c r="BA24">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="BB24">
+        <f t="shared" si="0"/>
+        <v>3680</v>
+      </c>
+      <c r="BC24">
+        <f t="shared" si="0"/>
+        <v>3760</v>
+      </c>
+      <c r="BD24">
+        <f t="shared" si="0"/>
+        <v>3840</v>
+      </c>
+      <c r="BE24">
+        <f t="shared" si="0"/>
+        <v>3920</v>
+      </c>
+      <c r="BF24">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
     </row>
     <row r="25" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A25" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="129" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="127">
+        <f t="shared" ref="H25:AM25" si="1">IF(H24&lt;ABS($B$16),$B$3+SIGN($B$16)*H$24*$B$7,IF(H24&lt;$B$6-ABS($B$17),$B$18,$B$18+SIGN($B$17)*(H24-($B$6-ABS($B$17)))*$B$7))</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.04</v>
+      </c>
+      <c r="J25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.08</v>
+      </c>
+      <c r="K25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.12</v>
+      </c>
+      <c r="L25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.16</v>
+      </c>
+      <c r="M25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="N25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.24</v>
+      </c>
+      <c r="O25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.32</v>
+      </c>
+      <c r="Q25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.36</v>
+      </c>
+      <c r="R25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="S25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.44</v>
+      </c>
+      <c r="T25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.45</v>
+      </c>
+      <c r="U25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.45</v>
+      </c>
+      <c r="V25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.44</v>
+      </c>
+      <c r="W25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.4</v>
+      </c>
+      <c r="X25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.36</v>
+      </c>
+      <c r="Y25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.32</v>
+      </c>
+      <c r="Z25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="AA25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.24000000000000002</v>
+      </c>
+      <c r="AB25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.2</v>
+      </c>
+      <c r="AC25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.16000000000000003</v>
+      </c>
+      <c r="AD25" s="127">
+        <f t="shared" si="1"/>
+        <v>-0.12</v>
+      </c>
+      <c r="AE25" s="127">
+        <f t="shared" si="1"/>
+        <v>-8.0000000000000016E-2</v>
+      </c>
+      <c r="AF25" s="127">
+        <f t="shared" si="1"/>
+        <v>-3.999999999999998E-2</v>
+      </c>
+      <c r="AG25" s="127">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AH25" s="127">
+        <f t="shared" si="1"/>
+        <v>3.999999999999998E-2</v>
+      </c>
+      <c r="AI25" s="127">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="AJ25" s="127">
+        <f t="shared" si="1"/>
+        <v>0.12000000000000005</v>
+      </c>
+      <c r="AK25" s="127">
+        <f t="shared" si="1"/>
+        <v>0.15999999999999998</v>
+      </c>
+      <c r="AL25" s="127">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AM25" s="127">
+        <f t="shared" si="1"/>
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="AN25" s="127">
+        <f t="shared" ref="AN25:BF25" si="2">IF(AN24&lt;ABS($B$16),$B$3+SIGN($B$16)*AN$24*$B$7,IF(AN24&lt;$B$6-ABS($B$17),$B$18,$B$18+SIGN($B$17)*(AN24-($B$6-ABS($B$17)))*$B$7))</f>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="AO25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.32</v>
+      </c>
+      <c r="AP25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="AQ25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="AR25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.44</v>
+      </c>
+      <c r="AS25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="AT25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.52</v>
+      </c>
+      <c r="AU25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AV25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AW25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="AX25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.68000000000000016</v>
+      </c>
+      <c r="AY25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.72</v>
+      </c>
+      <c r="AZ25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.76</v>
+      </c>
+      <c r="BA25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="BB25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.84000000000000008</v>
+      </c>
+      <c r="BC25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.88000000000000012</v>
+      </c>
+      <c r="BD25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.92000000000000015</v>
+      </c>
+      <c r="BE25" s="127">
+        <f t="shared" si="2"/>
+        <v>0.96</v>
+      </c>
+      <c r="BF25" s="127">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="BG25" s="127"/>
+      <c r="BH25" s="127"/>
+      <c r="BI25" s="127"/>
+      <c r="BJ25" s="127"/>
+      <c r="BK25" s="127"/>
+      <c r="BL25" s="127"/>
+      <c r="BM25" s="127"/>
+      <c r="BN25" s="127"/>
+      <c r="BO25" s="127"/>
+      <c r="BP25" s="127"/>
+      <c r="BQ25" s="127"/>
+      <c r="BR25" s="127"/>
+    </row>
+    <row r="26" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="129" t="s">
+      <c r="B26" s="129" t="s">
         <v>104</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G26" t="s">
         <v>107</v>
       </c>
-      <c r="H25">
-        <f t="shared" ref="H25:AM25" si="3">IF(H23&lt;$B$21,
-$B$3*H23+SIGN($B$15)*0.5*$B$7*H23*H23,
-IF(H23&lt;$B$22,
-$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+(H23-$B$21)*$B$17,
-$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(H23-$B$22) + SIGN($B$16)*0.5*$B$7*(H23-$B$22)*(H23-$B$22)))</f>
+      <c r="H26">
+        <f t="shared" ref="H26:AM26" si="3">IF(H24&lt;$B$22,
+$B$3*H24+SIGN($B$16)*0.5*$B$7*H24*H24,
+IF(H24&lt;$B$23,
+$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+(H24-$B$22)*$B$18,
+$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+($B$23-$B$22)*$B$18 + $B$18*(H24-$B$23) + SIGN($B$17)*0.5*$B$7*(H24-$B$23)*(H24-$B$23)))</f>
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <f t="shared" si="3"/>
-        <v>4.7610000000000006E-2</v>
-      </c>
-      <c r="J25">
+        <v>-1.6</v>
+      </c>
+      <c r="J26">
         <f t="shared" si="3"/>
-        <v>0.19044000000000003</v>
-      </c>
-      <c r="K25">
+        <v>-6.4</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="3"/>
-        <v>0.42849000000000015</v>
-      </c>
-      <c r="L25">
+        <v>-14.399999999999999</v>
+      </c>
+      <c r="L26">
         <f t="shared" si="3"/>
-        <v>0.7617600000000001</v>
-      </c>
-      <c r="M25">
+        <v>-25.6</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="3"/>
-        <v>1.19025</v>
-      </c>
-      <c r="N25">
+        <v>-40</v>
+      </c>
+      <c r="N26">
         <f t="shared" si="3"/>
-        <v>1.7139599999999999</v>
-      </c>
-      <c r="O25">
+        <v>-57.599999999999994</v>
+      </c>
+      <c r="O26">
         <f t="shared" si="3"/>
-        <v>2.3328899999999995</v>
-      </c>
-      <c r="P25">
+        <v>-78.400000000000006</v>
+      </c>
+      <c r="P26">
         <f t="shared" si="3"/>
-        <v>3.0470399999999995</v>
-      </c>
-      <c r="Q25">
+        <v>-102.4</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="3"/>
-        <v>3.8564099999999994</v>
-      </c>
-      <c r="R25">
+        <v>-129.6</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="3"/>
-        <v>4.7610000000000001</v>
-      </c>
-      <c r="S25">
+        <v>-160</v>
+      </c>
+      <c r="S26">
         <f t="shared" si="3"/>
-        <v>5.7608100000000011</v>
-      </c>
-      <c r="T25">
+        <v>-193.6</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="3"/>
-        <v>6.8558400000000024</v>
-      </c>
-      <c r="U25">
+        <v>-229.5</v>
+      </c>
+      <c r="U26">
         <f t="shared" si="3"/>
-        <v>8.0460900000000031</v>
-      </c>
-      <c r="V25">
+        <v>-265.5</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="3"/>
-        <v>9.3315600000000032</v>
-      </c>
-      <c r="W25">
+        <v>-301.39999999999998</v>
+      </c>
+      <c r="W26">
         <f t="shared" si="3"/>
-        <v>10.712250000000006</v>
-      </c>
-      <c r="X25">
+        <v>-335</v>
+      </c>
+      <c r="X26">
         <f t="shared" si="3"/>
-        <v>12.188160000000009</v>
-      </c>
-      <c r="Y25">
+        <v>-365.4</v>
+      </c>
+      <c r="Y26">
         <f t="shared" si="3"/>
-        <v>13.759290000000009</v>
-      </c>
-      <c r="Z25">
+        <v>-392.6</v>
+      </c>
+      <c r="Z26">
         <f t="shared" si="3"/>
-        <v>15.42080000000001</v>
-      </c>
-      <c r="AA25">
+        <v>-416.6</v>
+      </c>
+      <c r="AA26">
         <f t="shared" si="3"/>
-        <v>17.104400000000012</v>
-      </c>
-      <c r="AB25">
+        <v>-437.4</v>
+      </c>
+      <c r="AB26">
         <f t="shared" si="3"/>
-        <v>18.788000000000014</v>
-      </c>
-      <c r="AC25">
+        <v>-455</v>
+      </c>
+      <c r="AC26">
         <f t="shared" si="3"/>
-        <v>20.471600000000016</v>
-      </c>
-      <c r="AD25">
+        <v>-469.4</v>
+      </c>
+      <c r="AD26">
         <f t="shared" si="3"/>
-        <v>22.155200000000015</v>
-      </c>
-      <c r="AE25">
+        <v>-480.6</v>
+      </c>
+      <c r="AE26">
         <f t="shared" si="3"/>
-        <v>23.83880000000002</v>
-      </c>
-      <c r="AF25">
+        <v>-488.6</v>
+      </c>
+      <c r="AF26">
         <f t="shared" si="3"/>
-        <v>25.522400000000019</v>
-      </c>
-      <c r="AG25">
+        <v>-493.4</v>
+      </c>
+      <c r="AG26">
         <f t="shared" si="3"/>
-        <v>27.206000000000021</v>
-      </c>
-      <c r="AH25">
+        <v>-495</v>
+      </c>
+      <c r="AH26">
         <f t="shared" si="3"/>
-        <v>28.889600000000023</v>
-      </c>
-      <c r="AI25">
+        <v>-493.4</v>
+      </c>
+      <c r="AI26">
         <f t="shared" si="3"/>
-        <v>30.573200000000021</v>
-      </c>
-      <c r="AJ25">
+        <v>-488.59999999999997</v>
+      </c>
+      <c r="AJ26">
         <f t="shared" si="3"/>
-        <v>32.256800000000027</v>
-      </c>
-      <c r="AK25">
+        <v>-480.59999999999997</v>
+      </c>
+      <c r="AK26">
         <f t="shared" si="3"/>
-        <v>33.940400000000025</v>
-      </c>
-      <c r="AL25">
+        <v>-469.40000000000003</v>
+      </c>
+      <c r="AL26">
         <f t="shared" si="3"/>
-        <v>35.624000000000024</v>
-      </c>
-      <c r="AM25">
+        <v>-455</v>
+      </c>
+      <c r="AM26">
         <f t="shared" si="3"/>
-        <v>37.307600000000029</v>
-      </c>
-      <c r="AN25">
-        <f t="shared" ref="AN25:BF25" si="4">IF(AN23&lt;$B$21,
-$B$3*AN23+SIGN($B$15)*0.5*$B$7*AN23*AN23,
-IF(AN23&lt;$B$22,
-$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+(AN23-$B$21)*$B$17,
-$B$3*$B$21+SIGN($B$15)*0.5*$B$7*$B$21*$B$21+($B$22-$B$21)*$B$17 + $B$17*(AN23-$B$22) + SIGN($B$16)*0.5*$B$7*(AN23-$B$22)*(AN23-$B$22)))</f>
-        <v>38.991200000000035</v>
-      </c>
-      <c r="AO25">
+        <v>-437.4</v>
+      </c>
+      <c r="AN26">
+        <f t="shared" ref="AN26:BF26" si="4">IF(AN24&lt;$B$22,
+$B$3*AN24+SIGN($B$16)*0.5*$B$7*AN24*AN24,
+IF(AN24&lt;$B$23,
+$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+(AN24-$B$22)*$B$18,
+$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+($B$23-$B$22)*$B$18 + $B$18*(AN24-$B$23) + SIGN($B$17)*0.5*$B$7*(AN24-$B$23)*(AN24-$B$23)))</f>
+        <v>-416.6</v>
+      </c>
+      <c r="AO26">
         <f t="shared" si="4"/>
-        <v>40.652710000000035</v>
-      </c>
-      <c r="AP25">
+        <v>-392.6</v>
+      </c>
+      <c r="AP26">
         <f t="shared" si="4"/>
-        <v>42.223840000000031</v>
-      </c>
-      <c r="AQ25">
+        <v>-365.4</v>
+      </c>
+      <c r="AQ26">
         <f t="shared" si="4"/>
-        <v>43.699750000000023</v>
-      </c>
-      <c r="AR25">
+        <v>-335</v>
+      </c>
+      <c r="AR26">
         <f t="shared" si="4"/>
-        <v>45.080440000000031</v>
-      </c>
-      <c r="AS25">
+        <v>-301.39999999999998</v>
+      </c>
+      <c r="AS26">
         <f t="shared" si="4"/>
-        <v>46.365910000000021</v>
-      </c>
-      <c r="AT25">
+        <v>-264.59999999999991</v>
+      </c>
+      <c r="AT26">
         <f t="shared" si="4"/>
-        <v>47.556160000000027</v>
-      </c>
-      <c r="AU25">
+        <v>-224.60000000000002</v>
+      </c>
+      <c r="AU26">
         <f t="shared" si="4"/>
-        <v>48.651190000000021</v>
-      </c>
-      <c r="AV25">
+        <v>-181.39999999999998</v>
+      </c>
+      <c r="AV26">
         <f t="shared" si="4"/>
-        <v>49.65100000000001</v>
-      </c>
-      <c r="AW25">
+        <v>-135</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="4"/>
-        <v>50.555590000000009</v>
-      </c>
-      <c r="AX25">
+        <v>-85.399999999999864</v>
+      </c>
+      <c r="AX26">
         <f t="shared" si="4"/>
-        <v>51.364960000000011</v>
-      </c>
-      <c r="AY25">
+        <v>-32.599999999999909</v>
+      </c>
+      <c r="AY26">
         <f t="shared" si="4"/>
-        <v>52.07911</v>
-      </c>
-      <c r="AZ25">
+        <v>23.399999999999864</v>
+      </c>
+      <c r="AZ26">
         <f t="shared" si="4"/>
-        <v>52.698039999999999</v>
-      </c>
-      <c r="BA25">
+        <v>82.599999999999909</v>
+      </c>
+      <c r="BA26">
         <f t="shared" si="4"/>
-        <v>53.22175</v>
-      </c>
-      <c r="BB25">
+        <v>145</v>
+      </c>
+      <c r="BB26">
         <f t="shared" si="4"/>
-        <v>53.650239999999997</v>
-      </c>
-      <c r="BC25">
+        <v>210.60000000000014</v>
+      </c>
+      <c r="BC26">
         <f t="shared" si="4"/>
-        <v>53.983509999999995</v>
-      </c>
-      <c r="BD25">
+        <v>279.40000000000009</v>
+      </c>
+      <c r="BD26">
         <f t="shared" si="4"/>
-        <v>54.221559999999997</v>
-      </c>
-      <c r="BE25">
+        <v>351.40000000000009</v>
+      </c>
+      <c r="BE26">
         <f t="shared" si="4"/>
-        <v>54.36439</v>
-      </c>
-      <c r="BF25">
+        <v>426.59999999999991</v>
+      </c>
+      <c r="BF26">
         <f t="shared" si="4"/>
-        <v>54.411999999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="H26">
-        <f>$B$3*$B$21+0.5*$B$7*$B$21*$B$21+(H23-ABS($B$15))*$B$17</f>
-        <v>-14.884</v>
-      </c>
-      <c r="I26">
-        <f t="shared" ref="I26:AN26" si="5">$B$3*ABS($B$15)+0.5*$B$7*ABS($B$15)*ABS($B$15)+(I23-ABS($B$15))*$B$17</f>
-        <v>-13.200399999999998</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="5"/>
-        <v>-11.5168</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="5"/>
-        <v>-9.8331999999999979</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="5"/>
-        <v>-8.1495999999999995</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="5"/>
-        <v>-6.4659999999999975</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="5"/>
-        <v>-4.7823999999999991</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="5"/>
-        <v>-3.0988000000000007</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="5"/>
-        <v>-1.4152000000000022</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="5"/>
-        <v>0.26839999999999975</v>
-      </c>
-      <c r="R26">
-        <f t="shared" si="5"/>
-        <v>1.952</v>
-      </c>
-      <c r="S26">
-        <f t="shared" si="5"/>
-        <v>3.6356000000000019</v>
-      </c>
-      <c r="T26">
-        <f t="shared" si="5"/>
-        <v>5.3192000000000039</v>
-      </c>
-      <c r="U26">
-        <f t="shared" si="5"/>
-        <v>7.002800000000005</v>
-      </c>
-      <c r="V26">
-        <f t="shared" si="5"/>
-        <v>8.6864000000000061</v>
-      </c>
-      <c r="W26">
-        <f t="shared" si="5"/>
-        <v>10.370000000000008</v>
-      </c>
-      <c r="X26">
-        <f t="shared" si="5"/>
-        <v>12.053600000000008</v>
-      </c>
-      <c r="Y26">
-        <f t="shared" si="5"/>
-        <v>13.73720000000001</v>
-      </c>
-      <c r="Z26">
-        <f t="shared" si="5"/>
-        <v>15.42080000000001</v>
-      </c>
-      <c r="AA26">
-        <f t="shared" si="5"/>
-        <v>17.104400000000012</v>
-      </c>
-      <c r="AB26">
-        <f t="shared" si="5"/>
-        <v>18.788000000000014</v>
-      </c>
-      <c r="AC26">
-        <f t="shared" si="5"/>
-        <v>20.471600000000016</v>
-      </c>
-      <c r="AD26">
-        <f t="shared" si="5"/>
-        <v>22.155200000000015</v>
-      </c>
-      <c r="AE26">
-        <f t="shared" si="5"/>
-        <v>23.83880000000002</v>
-      </c>
-      <c r="AF26">
-        <f t="shared" si="5"/>
-        <v>25.522400000000019</v>
-      </c>
-      <c r="AG26">
-        <f t="shared" si="5"/>
-        <v>27.206000000000021</v>
-      </c>
-      <c r="AH26">
-        <f t="shared" si="5"/>
-        <v>28.889600000000023</v>
-      </c>
-      <c r="AI26">
-        <f t="shared" si="5"/>
-        <v>30.573200000000021</v>
-      </c>
-      <c r="AJ26">
-        <f t="shared" si="5"/>
-        <v>32.256800000000027</v>
-      </c>
-      <c r="AK26">
-        <f t="shared" si="5"/>
-        <v>33.940400000000025</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="5"/>
-        <v>35.624000000000024</v>
-      </c>
-      <c r="AM26">
-        <f t="shared" si="5"/>
-        <v>37.307600000000029</v>
-      </c>
-      <c r="AN26">
-        <f t="shared" si="5"/>
-        <v>38.991200000000035</v>
-      </c>
-      <c r="AO26">
-        <f t="shared" ref="AO26:BF26" si="6">$B$3*ABS($B$15)+0.5*$B$7*ABS($B$15)*ABS($B$15)+(AO23-ABS($B$15))*$B$17</f>
-        <v>40.674800000000033</v>
-      </c>
-      <c r="AP26">
-        <f t="shared" si="6"/>
-        <v>42.358400000000032</v>
-      </c>
-      <c r="AQ26">
-        <f t="shared" si="6"/>
-        <v>44.04200000000003</v>
-      </c>
-      <c r="AR26">
-        <f t="shared" si="6"/>
-        <v>45.725600000000036</v>
-      </c>
-      <c r="AS26">
-        <f t="shared" si="6"/>
-        <v>47.409200000000034</v>
-      </c>
-      <c r="AT26">
-        <f t="shared" si="6"/>
-        <v>49.09280000000004</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="6"/>
-        <v>50.776400000000031</v>
-      </c>
-      <c r="AV26">
-        <f t="shared" si="6"/>
-        <v>52.460000000000029</v>
-      </c>
-      <c r="AW26">
-        <f t="shared" si="6"/>
-        <v>54.143600000000021</v>
-      </c>
-      <c r="AX26">
-        <f t="shared" si="6"/>
-        <v>55.827200000000019</v>
-      </c>
-      <c r="AY26">
-        <f t="shared" si="6"/>
-        <v>57.51080000000001</v>
-      </c>
-      <c r="AZ26">
-        <f t="shared" si="6"/>
-        <v>59.194400000000002</v>
-      </c>
-      <c r="BA26">
-        <f t="shared" si="6"/>
-        <v>60.878</v>
-      </c>
-      <c r="BB26">
-        <f t="shared" si="6"/>
-        <v>62.561599999999991</v>
-      </c>
-      <c r="BC26">
-        <f t="shared" si="6"/>
-        <v>64.245199999999983</v>
-      </c>
-      <c r="BD26">
-        <f t="shared" si="6"/>
-        <v>65.928799999999981</v>
-      </c>
-      <c r="BE26">
-        <f t="shared" si="6"/>
-        <v>67.61239999999998</v>
-      </c>
-      <c r="BF26">
-        <f t="shared" si="6"/>
-        <v>69.295999999999964</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:70" x14ac:dyDescent="0.3">
       <c r="B27" s="58"/>
+      <c r="H27">
+        <f>$B$3*$B$22+0.5*$B$7*$B$22*$B$22+(H24-ABS($B$16))*$B$18</f>
+        <v>607.5</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:AN27" si="5">$B$3*ABS($B$16)+0.5*$B$7*ABS($B$16)*ABS($B$16)+(I24-ABS($B$16))*$B$18</f>
+        <v>571.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="5"/>
+        <v>535.5</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>499.5</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="5"/>
+        <v>463.5</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>427.5</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="5"/>
+        <v>391.5</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="5"/>
+        <v>355.5</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>319.5</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="5"/>
+        <v>283.5</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="5"/>
+        <v>247.5</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="5"/>
+        <v>211.5</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="5"/>
+        <v>175.5</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="5"/>
+        <v>139.5</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="5"/>
+        <v>103.5</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="5"/>
+        <v>31.5</v>
+      </c>
+      <c r="Y27">
+        <f t="shared" si="5"/>
+        <v>-4.5</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="5"/>
+        <v>-40.5</v>
+      </c>
+      <c r="AA27">
+        <f t="shared" si="5"/>
+        <v>-76.5</v>
+      </c>
+      <c r="AB27">
+        <f t="shared" si="5"/>
+        <v>-112.5</v>
+      </c>
+      <c r="AC27">
+        <f t="shared" si="5"/>
+        <v>-148.5</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="5"/>
+        <v>-184.5</v>
+      </c>
+      <c r="AE27">
+        <f t="shared" si="5"/>
+        <v>-220.5</v>
+      </c>
+      <c r="AF27">
+        <f t="shared" si="5"/>
+        <v>-256.5</v>
+      </c>
+      <c r="AG27">
+        <f t="shared" si="5"/>
+        <v>-292.5</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="5"/>
+        <v>-328.5</v>
+      </c>
+      <c r="AI27">
+        <f t="shared" si="5"/>
+        <v>-364.5</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="5"/>
+        <v>-400.5</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="5"/>
+        <v>-436.5</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="5"/>
+        <v>-472.5</v>
+      </c>
+      <c r="AM27">
+        <f t="shared" si="5"/>
+        <v>-508.5</v>
+      </c>
+      <c r="AN27">
+        <f t="shared" si="5"/>
+        <v>-544.5</v>
+      </c>
+      <c r="AO27">
+        <f t="shared" ref="AO27:BF27" si="6">$B$3*ABS($B$16)+0.5*$B$7*ABS($B$16)*ABS($B$16)+(AO24-ABS($B$16))*$B$18</f>
+        <v>-580.5</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="6"/>
+        <v>-616.5</v>
+      </c>
+      <c r="AQ27">
+        <f t="shared" si="6"/>
+        <v>-652.5</v>
+      </c>
+      <c r="AR27">
+        <f t="shared" si="6"/>
+        <v>-688.5</v>
+      </c>
+      <c r="AS27">
+        <f t="shared" si="6"/>
+        <v>-724.5</v>
+      </c>
+      <c r="AT27">
+        <f t="shared" si="6"/>
+        <v>-760.5</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="6"/>
+        <v>-796.5</v>
+      </c>
+      <c r="AV27">
+        <f t="shared" si="6"/>
+        <v>-832.5</v>
+      </c>
+      <c r="AW27">
+        <f t="shared" si="6"/>
+        <v>-868.5</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="6"/>
+        <v>-904.5</v>
+      </c>
+      <c r="AY27">
+        <f t="shared" si="6"/>
+        <v>-940.5</v>
+      </c>
+      <c r="AZ27">
+        <f t="shared" si="6"/>
+        <v>-976.5</v>
+      </c>
+      <c r="BA27">
+        <f t="shared" si="6"/>
+        <v>-1012.5</v>
+      </c>
+      <c r="BB27">
+        <f t="shared" si="6"/>
+        <v>-1048.5</v>
+      </c>
+      <c r="BC27">
+        <f t="shared" si="6"/>
+        <v>-1084.5</v>
+      </c>
+      <c r="BD27">
+        <f t="shared" si="6"/>
+        <v>-1120.5</v>
+      </c>
+      <c r="BE27">
+        <f t="shared" si="6"/>
+        <v>-1156.5</v>
+      </c>
+      <c r="BF27">
+        <f t="shared" si="6"/>
+        <v>-1192.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/theory/Kinematik.xlsx
+++ b/theory/Kinematik.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <r>
       <t>Hüfte (T</t>
@@ -840,9 +840,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1178,10 +1175,62 @@
     </r>
   </si>
   <si>
-    <t>Monotron</t>
+    <t>v monotron</t>
   </si>
   <si>
-    <t>Trapez</t>
+    <t>v Trapez</t>
+  </si>
+  <si>
+    <t>Monoton</t>
+  </si>
+  <si>
+    <t>vTrapez(t)</t>
+  </si>
+  <si>
+    <t>xMonoton(t)</t>
+  </si>
+  <si>
+    <t>Ramp-Up</t>
+  </si>
+  <si>
+    <t>v ramp up</t>
+  </si>
+  <si>
+    <t>rampup tges</t>
+  </si>
+  <si>
+    <t>max v  rampup</t>
+  </si>
+  <si>
+    <t>pos Trapez</t>
+  </si>
+  <si>
+    <t>min v ramp up</t>
+  </si>
+  <si>
+    <t>neg Trapez</t>
+  </si>
+  <si>
+    <r>
+      <t>min t</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>g</t>
+    </r>
+  </si>
+  <si>
+    <t>peak</t>
+  </si>
+  <si>
+    <t>peakdown</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1630,6 +1679,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1764,11 +1814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428522608"/>
-        <c:axId val="428525352"/>
+        <c:axId val="326751456"/>
+        <c:axId val="326751064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428522608"/>
+        <c:axId val="326751456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1806,13 +1856,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428525352"/>
+        <c:crossAx val="326751064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="428525352"/>
+        <c:axId val="326751064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="300"/>
@@ -1851,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428522608"/>
+        <c:crossAx val="326751456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="300"/>
@@ -1947,11 +1997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="428519864"/>
-        <c:axId val="337497864"/>
+        <c:axId val="326752240"/>
+        <c:axId val="326752632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="428519864"/>
+        <c:axId val="326752240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1963,13 +2013,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337497864"/>
+        <c:crossAx val="326752632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337497864"/>
+        <c:axId val="326752632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500"/>
@@ -1982,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428519864"/>
+        <c:crossAx val="326752240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="500"/>
@@ -2049,26 +2099,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2077,8 +2107,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.0344925634295714E-2"/>
-          <c:y val="0.16245364030583134"/>
+          <c:x val="8.670603674540682E-2"/>
+          <c:y val="1.90111225850867E-2"/>
           <c:w val="0.86987729658792656"/>
           <c:h val="0.6714577865266842"/>
         </c:manualLayout>
@@ -2089,6 +2119,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Monoton</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -2115,7 +2148,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$15:$K$15</c:f>
+              <c:f>'Trajectory Speed profile'!$M$16:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2123,34 +2156,134 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>900</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>1100</c:v>
+                  <c:v>4125</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>4000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$16:$K$16</c:f>
+              <c:f>'Trajectory Speed profile'!$M$17:$P$17</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Trapez</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$M$18:$P$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.45</c:v>
+                  <c:v>261.38721247416942</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>4261.3872124741692</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$M$19:$P$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23069360623708471</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.45</c:v>
+                  <c:v>0.23069360623708471</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="General">
-                  <c:v>1</c:v>
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Ramp Up</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$M$21:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>5000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$M$22:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2165,11 +2298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320599176"/>
-        <c:axId val="320599960"/>
+        <c:axId val="326750280"/>
+        <c:axId val="326750672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320599176"/>
+        <c:axId val="326750280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,12 +2345,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320599960"/>
+        <c:crossAx val="326750672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320599960"/>
+        <c:axId val="326750672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,7 +2401,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320599176"/>
+        <c:crossAx val="326750280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,324 +2602,321 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
+              <c:f>'Trajectory Speed profile'!$K$28:$BH$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
+                <c:ptCount val="50"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>480</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>560</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>640</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>800</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>880</c:v>
+                  <c:v>1100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>960</c:v>
+                  <c:v>1200</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1040</c:v>
+                  <c:v>1300</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1120</c:v>
+                  <c:v>1400</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1200</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1280</c:v>
+                  <c:v>1600</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1360</c:v>
+                  <c:v>1700</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1440</c:v>
+                  <c:v>1800</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1520</c:v>
+                  <c:v>1900</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1600</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1680</c:v>
+                  <c:v>2100</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1760</c:v>
+                  <c:v>2200</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1840</c:v>
+                  <c:v>2300</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1920</c:v>
+                  <c:v>2400</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2000</c:v>
+                  <c:v>2500</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2080</c:v>
+                  <c:v>2600</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2160</c:v>
+                  <c:v>2700</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2240</c:v>
+                  <c:v>2800</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2320</c:v>
+                  <c:v>2900</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2400</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2480</c:v>
+                  <c:v>3100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2560</c:v>
+                  <c:v>3200</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2640</c:v>
+                  <c:v>3300</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2720</c:v>
+                  <c:v>3400</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2800</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2880</c:v>
+                  <c:v>3600</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2960</c:v>
+                  <c:v>3700</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3040</c:v>
+                  <c:v>3800</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>3120</c:v>
+                  <c:v>3900</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3200</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3280</c:v>
+                  <c:v>4100</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3360</c:v>
+                  <c:v>4200</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3440</c:v>
+                  <c:v>4300</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3520</c:v>
+                  <c:v>4400</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3600</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3680</c:v>
+                  <c:v>4600</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3760</c:v>
+                  <c:v>4700</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3840</c:v>
+                  <c:v>4800</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3920</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>4000</c:v>
+                  <c:v>4900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$25:$BF$25</c:f>
+              <c:f>'Trajectory Speed profile'!$J$29:$BH$29</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.04</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.08</c:v>
+                  <c:v>0.15000000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.12</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.16</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.24</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.28000000000000003</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.32</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.36</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.4</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.44</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.45</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.45</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.44</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.4</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.36</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.32</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.28000000000000003</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.24000000000000002</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.16000000000000003</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.12</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-8.0000000000000016E-2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-3.999999999999998E-2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.999999999999998E-2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0000000000000016E-2</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.12000000000000005</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.15999999999999998</c:v>
+                  <c:v>0.16250000000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.16250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0.2</c:v>
                 </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.24000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.27999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.36000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.39999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.48000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.56000000000000005</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.64000000000000012</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.68000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.72</c:v>
-                </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.76</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.8</c:v>
+                  <c:v>0.30000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.84000000000000008</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.88000000000000012</c:v>
+                  <c:v>0.4</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.92000000000000015</c:v>
+                  <c:v>0.45000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.96</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1</c:v>
+                  <c:v>0.55000000000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,11 +2931,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430887976"/>
-        <c:axId val="430888760"/>
+        <c:axId val="326912360"/>
+        <c:axId val="326912752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430887976"/>
+        <c:axId val="326912360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,12 +2986,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430888760"/>
+        <c:crossAx val="326912752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430888760"/>
+        <c:axId val="326912752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2912,7 +3042,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430887976"/>
+        <c:crossAx val="326912360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3136,7 +3266,166 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$24:$BF$24</c:f>
+              <c:f>'Trajectory Speed profile'!$K$28:$BH$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3300</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3800</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3900</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4100</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4400</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4700</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Trajectory Speed profile'!$J$30:$BH$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
@@ -3144,316 +3433,154 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>28.59375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>240</c:v>
+                  <c:v>28.59375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>320</c:v>
+                  <c:v>44.84375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400</c:v>
+                  <c:v>61.09375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>480</c:v>
+                  <c:v>77.34375</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>560</c:v>
+                  <c:v>93.59375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>640</c:v>
+                  <c:v>109.84375</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>720</c:v>
+                  <c:v>126.09375</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>142.34375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>158.59375</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>174.84375</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>191.09375</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>207.34375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>223.59375</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>239.84375</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>256.09375</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>272.34375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>288.59375</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.84375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>321.09375</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>337.34375</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>353.59375</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>369.84375</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>386.09375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>402.34375</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>418.59375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>434.84375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>451.09375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>467.34375</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>483.59375</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>499.84375</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>516.09375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>532.34375</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>548.59375</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>564.84375</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>581.09375</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>597.34375</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>613.59375</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>629.84375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>646.09375</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>662.34375</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>702.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>762.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>800</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>960</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1040</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1120</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1200</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1280</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1360</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1440</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1520</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1600</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1680</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1760</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1840</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1920</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2080</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2160</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2240</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2320</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2400</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2480</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2560</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2640</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2720</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2800</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2880</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2960</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3040</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3120</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3200</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3280</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3360</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3440</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3520</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3600</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3680</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3760</c:v>
-                </c:pt>
                 <c:pt idx="48">
-                  <c:v>3840</c:v>
+                  <c:v>842.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>3920</c:v>
+                  <c:v>890</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Trajectory Speed profile'!$H$26:$BF$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-6.4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-14.399999999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-25.6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-40</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-57.599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-78.400000000000006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-102.4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-129.6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-160</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-193.6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-229.5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-265.5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-301.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-335</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-365.4</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-392.6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-416.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-437.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-455</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-469.4</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-480.6</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-488.6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-493.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-495</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-493.4</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-488.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-480.59999999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-469.40000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-455</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-437.4</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-416.6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-392.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-365.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-335</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-301.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-264.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-224.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-181.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-135</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-85.399999999999864</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-32.599999999999909</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>23.399999999999864</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>82.599999999999909</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>210.60000000000014</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>279.40000000000009</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>351.40000000000009</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>426.59999999999991</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>505</c:v>
+                  <c:v>942.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3468,11 +3595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="430888368"/>
-        <c:axId val="430889152"/>
+        <c:axId val="326913928"/>
+        <c:axId val="326915104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="430888368"/>
+        <c:axId val="326913928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3528,12 +3655,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430889152"/>
+        <c:crossAx val="326915104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="430889152"/>
+        <c:axId val="326915104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3716,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="430888368"/>
+        <c:crossAx val="326913928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3752,563 +3879,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4828,7 +4399,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -29672,16 +29243,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>643890</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -29702,15 +29273,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>784860</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -29734,15 +29305,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>708660</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -33225,10 +32796,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR28"/>
+  <dimension ref="A1:BT32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33236,60 +32807,56 @@
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>85</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>87</v>
       </c>
+      <c r="B5">
+        <v>1000</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
+    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>5000</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5">
-        <f>$B$3*$B$22+SIGN($B$16)*0.5*$B$7*$B$22*$B$22+($B$23-$B$22)*$B$18 + $B$18*(B6-$B$23) + SIGN($B$17)*0.5*$B$7*(B6-$B$23)*(B6-$B$23)</f>
-        <v>505</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6">
-        <v>4000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -33297,1084 +32864,1346 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B9">
         <f>B5/B6</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.2</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10">
+        <f>(B3-B4)/B7</f>
+        <v>-1000</v>
+      </c>
+      <c r="F10">
+        <f>(B3-B4)/B7</f>
+        <v>-1000</v>
+      </c>
+      <c r="G10">
+        <f>(B3-B4)/B7</f>
+        <v>-1000</v>
+      </c>
+      <c r="H10">
+        <f>(B3-B4)/B7</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>110</v>
       </c>
-      <c r="B10">
-        <f>(B3-B4)/B7</f>
-        <v>-2000</v>
+      <c r="E11" s="127">
+        <f>B3*B6-0.5*B7*E10*E10 - B5</f>
+        <v>-750</v>
+      </c>
+      <c r="F11">
+        <f>B3*B6+0.5*B7*F10*F10 - B5</f>
+        <v>-250</v>
+      </c>
+      <c r="G11">
+        <f>B4*G10+0.5*B7*G10*G10- B5</f>
+        <v>-1350</v>
+      </c>
+      <c r="H11">
+        <f>-B4*G10-0.5*B7*G10*G10- B5</f>
+        <v>-650</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11">
+        <f>-B5*B7-0.5*B3*B3</f>
+        <v>-0.505</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11">
-        <f>B3*B6-0.5*B7*B10*B10 - B5</f>
-        <v>-1100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>73</v>
       </c>
-      <c r="B12">
-        <f>B7*B6-B7*B10</f>
+      <c r="E12">
+        <f>B7*(B6-E10)</f>
         <v>3</v>
       </c>
+      <c r="F12">
+        <f>B7*(B6+F10)</f>
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <f>B3+B4+B7*G10</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H12">
+        <f>B3+B4+B7*G10</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="L12">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>71</v>
       </c>
-      <c r="B13">
+      <c r="E13">
         <f>-B7</f>
         <v>-5.0000000000000001E-4</v>
       </c>
-      <c r="C13">
-        <f>B12*B12-4*B13*B11</f>
-        <v>6.8</v>
+      <c r="F13">
+        <f>B7</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G13">
+        <f>B7</f>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H13">
+        <f>-B7</f>
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="L13">
+        <f>0.5</f>
+        <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="60">
-        <f>(-B12+SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
-        <v>392.31903791894052</v>
-      </c>
-      <c r="C14" s="60">
-        <f>(-B12-SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
-        <v>5607.6809620810591</v>
-      </c>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="L16" t="s">
+        <v>88</v>
+      </c>
+      <c r="M16">
         <v>0</v>
       </c>
-      <c r="I15" s="4">
-        <f>ABS(B16)</f>
-        <v>900</v>
-      </c>
-      <c r="J15" s="3">
-        <f>B6-ABS(B17)</f>
-        <v>1100</v>
-      </c>
-      <c r="K15">
+      <c r="N16" s="4">
+        <f>B26</f>
+        <v>125</v>
+      </c>
+      <c r="O16" s="3">
+        <f>B27</f>
+        <v>4125</v>
+      </c>
+      <c r="P16">
         <f>B6</f>
-        <v>4000</v>
+        <v>5000</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" t="s">
+        <v>117</v>
+      </c>
+      <c r="L17" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="3">
+        <f>B21</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="O17" s="3">
+        <f>N17</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="P17">
+        <f>B4</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="127">
+        <f>(B5-B3*B6-0.5*(B4-B3)*(B4-B3)/B7)/(B6*B7+(B3-B4))</f>
+        <v>125</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="3">
+        <f>(-E12+SQRT(E12*E12-4*E13*E11))/(2*E13)</f>
+        <v>261.38721247416942</v>
+      </c>
+      <c r="F18" s="130">
+        <f>(-F12+SQRT(F12*F12-4*F13*F11))/(2*F13)</f>
+        <v>121.32034355964238</v>
+      </c>
+      <c r="G18" s="3">
+        <f>(-G12+SQRT(G12*G12-4*G13*G11))/(2*G13)</f>
+        <v>1455.2945357246849</v>
+      </c>
+      <c r="H18" s="3" t="e">
+        <f>-(-H12+SQRT(H12*H12-4*H13*H11))/(2*H13)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="127">
+        <f>(B4-B3)/B7</f>
+        <v>1000</v>
+      </c>
+      <c r="L18" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="4">
+        <f>E26</f>
+        <v>261.38721247416942</v>
+      </c>
+      <c r="O18" s="3">
+        <f>E27</f>
+        <v>4261.3872124741692</v>
+      </c>
+      <c r="P18">
+        <f>B6</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="127">
-        <f>IF(OR(AND(B3&lt;B9,B9&lt;B4), AND(B3&gt;=B9,B9&gt;=B4)),E16,E17)</f>
-        <v>-900</v>
-      </c>
-      <c r="C16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
-      </c>
-      <c r="E16" s="127">
-        <f>(B5-B3*B6-0.5*(B4-B3)*(B4-B3)/B7)/(B6*B7+(B3-B4))</f>
-        <v>-900</v>
-      </c>
-      <c r="G16" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16">
-        <f>B3</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <f>B18</f>
-        <v>-0.45</v>
-      </c>
-      <c r="J16" s="3">
-        <f>I16</f>
-        <v>-0.45</v>
-      </c>
-      <c r="K16">
-        <f>B4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="3">
-        <f>(B4-B3)/B7-B16</f>
-        <v>2900</v>
-      </c>
-      <c r="C17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>114</v>
-      </c>
-      <c r="E17" s="127">
-        <f>(-B12+SQRT(B12*B12-4*B13*B11))/(2*B13)</f>
-        <v>392.31903791894052</v>
-      </c>
-    </row>
-    <row r="18" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="3">
-        <f>B3+B7*B16</f>
-        <v>-0.45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="127">
-        <f>(B3+B18)/2*B16+B18*(B6-B16-B17)+(B18+B4)/2*B17</f>
-        <v>100.00000000000011</v>
+      <c r="B19" s="3">
+        <f>(B4-B3)/B7-B18</f>
+        <v>875</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
       </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="3">
+        <f>(B4-B3)/B7-E18</f>
+        <v>738.61278752583053</v>
+      </c>
+      <c r="F19" s="3">
+        <f>(B4-B3)/B7-F18</f>
+        <v>878.67965644035758</v>
+      </c>
+      <c r="G19" s="127">
+        <f>-(G10+G18)</f>
+        <v>-455.29453572468492</v>
+      </c>
+      <c r="H19" s="127" t="e">
+        <f>-(H10+H18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I19" s="127">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>113</v>
+      </c>
+      <c r="M19">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="N19" s="3">
+        <f>E21</f>
+        <v>0.23069360623708471</v>
+      </c>
+      <c r="O19" s="3">
+        <f>N19</f>
+        <v>0.23069360623708471</v>
+      </c>
+      <c r="P19">
+        <f>B4</f>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="127">
+        <f>ABS(G18)+ABS(G19)</f>
+        <v>1910.5890714493698</v>
+      </c>
+      <c r="H20" s="127" t="e">
+        <f>ABS(H18)+ABS(H19)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I20" s="127"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3">
+        <f>B3+B7*B18</f>
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="C21" t="s">
         <v>86</v>
       </c>
-      <c r="B20">
-        <f>B18+B17*B7</f>
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>87</v>
+      <c r="D21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="3">
+        <f>B3+B7*E18</f>
+        <v>0.23069360623708471</v>
+      </c>
+      <c r="F21" s="3">
+        <f>B3+B7*F18</f>
+        <v>0.1606601717798212</v>
+      </c>
+      <c r="G21">
+        <f>B3+B7*G18</f>
+        <v>0.82764726786234244</v>
+      </c>
+      <c r="H21" t="e">
+        <f>B3+B7*H18</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I21" s="3">
+        <f>B3+B7*I18</f>
+        <v>0.6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f>I26</f>
+        <v>1000</v>
+      </c>
+      <c r="O21" s="3">
+        <f>I27</f>
+        <v>5000</v>
+      </c>
+      <c r="P21">
+        <f>B6</f>
+        <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="127">
+        <f>$B$3*$B$26+SIGN($B$18)*0.5*$B$7*$B$26*$B$26+($B$27-$B$26)*$B$21 + $B$21*(B6-$B$27) + SIGN($B$19)*0.5*$B$7*(B6-$B$27)*(B6-$B$27)</f>
+        <v>1000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="127">
+        <f>$B$3*$E$26+SIGN($E$18)*0.5*$B$7*$E$26*$E$26+($E$27-$E$26)*$E$21 + $E$21*(B6-$E$27) + SIGN($E$19)*0.5*$B$7*(B6-$E$27)*(B6-$E$27)</f>
+        <v>1272.7744249483389</v>
+      </c>
+      <c r="F22" s="127">
+        <f>$B$3*$F$26+SIGN($F$18)*0.5*$B$7*$F$26*$F$26+($F$27-$F$26)*$F$21 + $F$21*(B6-$F$27) + SIGN($F$19)*0.5*$B$7*(B6-$F$27)*(B6-$F$27)</f>
+        <v>992.64068711928485</v>
+      </c>
+      <c r="G22" s="127">
+        <f>$B$3*$G$26+SIGN($G$18)*0.5*$B$7*$G$26*$G$26+($G$27-$G$26)*$G$21 + $G$21*(G20-$G$27) + SIGN($G$19)*0.5*$B$7*(G20-$G$27)*(G20-$G$27)</f>
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="H22" s="127" t="e">
+        <f>$B$3*$H$26+SIGN($H$18)*0.5*$B$7*$H$26*$H$26+($H$27-$H$26)*$H$21 + $H$21*(H20-$H$27) + SIGN($H$19)*0.5*$B$7*(H20-$H$27)*(H20-$H$27)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I22">
+        <f>$B$3*$I$26+SIGN($I$18)*0.5*$B$7*$I$26*$I$26+($I$27-$I$26)*$I$21 + $I$21*(B6-$I$27) + SIGN($I$19)*0.5*$B$7*(B6-$I$27)*(B6-$I$27)</f>
+        <v>2750</v>
+      </c>
+      <c r="J22" t="s">
+        <v>119</v>
+      </c>
+      <c r="K22">
+        <f>(B5-B3*I18-0.5*B7*I18*I18)/B4+I18</f>
+        <v>2083.3333333333335</v>
+      </c>
+      <c r="L22" t="s">
+        <v>118</v>
+      </c>
+      <c r="M22">
+        <f>B3</f>
+        <v>0.1</v>
+      </c>
+      <c r="N22" s="3">
+        <f>I21</f>
+        <v>0.6</v>
+      </c>
+      <c r="O22" s="3">
+        <f>I21</f>
+        <v>0.6</v>
+      </c>
+      <c r="P22" s="3">
+        <f>I21</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <f>B21+B19*B7</f>
+        <v>0.6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="3">
+        <f>E21+E19*B7</f>
+        <v>0.6</v>
+      </c>
+      <c r="F23" s="3">
+        <f>F21+F19*B7</f>
+        <v>0.6</v>
+      </c>
+      <c r="G23" s="3">
+        <f>G21+G19*B7</f>
+        <v>0.6</v>
+      </c>
+      <c r="H23" s="3" t="e">
+        <f>H21+H19*B7</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I23" s="3">
+        <f>I21+I19*B7</f>
+        <v>0.6</v>
+      </c>
+      <c r="J23" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="3">
+        <f>SQRT(B3*B3 +2*B5*B7)</f>
+        <v>1.004987562112089</v>
+      </c>
+    </row>
+    <row r="24" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24">
+        <f>(B5+0.5*B7*E10*E10)/B3</f>
+        <v>12500</v>
+      </c>
+      <c r="J24" t="s">
+        <v>122</v>
+      </c>
+      <c r="K24" s="3" t="e">
+        <f>SQRT(B3*B3 -2*B5*B7)</f>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="127">
+        <f>ABS(B18)</f>
+        <v>125</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="E26" s="127">
+        <f>ABS(E18)</f>
+        <v>261.38721247416942</v>
+      </c>
+      <c r="F26" s="127">
+        <f>ABS(F18)</f>
+        <v>121.32034355964238</v>
+      </c>
+      <c r="G26" s="127">
+        <f>ABS(G18)</f>
+        <v>1455.2945357246849</v>
+      </c>
+      <c r="H26" s="127" t="e">
+        <f>ABS(H18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I26" s="127">
+        <f>ABS(I18)</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="127">
-        <f>ABS(B16)</f>
-        <v>900</v>
-      </c>
-      <c r="C22" t="s">
-        <v>92</v>
+      <c r="B27" s="127">
+        <f>B6-ABS(B19)</f>
+        <v>4125</v>
+      </c>
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" s="127">
+        <f>B6-ABS(E19)</f>
+        <v>4261.3872124741692</v>
+      </c>
+      <c r="F27" s="127">
+        <f>B6-ABS(F19)</f>
+        <v>4121.3203435596424</v>
+      </c>
+      <c r="G27" s="127">
+        <f>G26</f>
+        <v>1455.2945357246849</v>
+      </c>
+      <c r="H27" s="127" t="e">
+        <f>H26</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="I27" s="127">
+        <f>B6-ABS(I19)</f>
+        <v>5000</v>
       </c>
     </row>
-    <row r="23" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="127">
-        <f>B6-ABS(B17)</f>
-        <v>1100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="24" spans="1:70" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A24" s="128" t="s">
+    <row r="28" spans="1:72" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A28" s="128" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" t="s">
         <v>99</v>
       </c>
-      <c r="B24" t="s">
+      <c r="J28" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28">
+  